--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="355">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1108,13 +1108,31 @@
     <t>Repeating the History</t>
   </si>
   <si>
-    <t>internal</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>cp</t>
+  </si>
+  <si>
+    <t>D1F075-mature1</t>
+  </si>
+  <si>
+    <t>D1F075-mature2</t>
+  </si>
+  <si>
+    <t>D1F075-immature</t>
+  </si>
+  <si>
+    <t>D1F075-mature1_gn1</t>
+  </si>
+  <si>
+    <t>D1F075-mature2_gn1</t>
+  </si>
+  <si>
+    <t>D1F075-immature_g1</t>
+  </si>
+  <si>
+    <t>75% initial Funding; Full smoothing, average plan, no COLA</t>
+  </si>
+  <si>
+    <t>75% initial Funding; Full smoothing, average plan, 2% COLA</t>
   </si>
 </sst>
 </file>
@@ -2037,10 +2055,10 @@
   <dimension ref="A1:AX39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="AW17" sqref="AW17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3075,7 +3093,7 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B13" s="31" t="s">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c r="C13" s="11"/>
       <c r="N13" s="26"/>
@@ -3204,13 +3222,13 @@
         <v>158</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>179</v>
+        <v>346</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AJ14" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="AK14">
         <v>5</v>
@@ -3249,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="AW14" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="18" t="b">
         <v>0</v>
@@ -3356,13 +3374,13 @@
         <v>158</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>179</v>
+        <v>346</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AJ15" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="AK15">
         <v>5</v>
@@ -3508,13 +3526,13 @@
         <v>158</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>179</v>
+        <v>346</v>
       </c>
       <c r="AI16">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AJ16" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="AK16">
         <v>5</v>
@@ -3561,7 +3579,7 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>302</v>
@@ -3570,16 +3588,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F17">
         <v>1000</v>
       </c>
       <c r="G17">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H17" t="s">
         <v>109</v>
@@ -3588,7 +3606,7 @@
         <v>109</v>
       </c>
       <c r="J17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K17" t="s">
         <v>167</v>
@@ -3600,7 +3618,7 @@
         <v>202</v>
       </c>
       <c r="N17" s="26">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="O17" s="18" t="b">
         <v>0</v>
@@ -3660,13 +3678,13 @@
         <v>158</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AI17">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AJ17" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="AK17">
         <v>5</v>
@@ -3713,7 +3731,7 @@
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>302</v>
@@ -3722,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E18" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F18">
         <v>1000</v>
       </c>
       <c r="G18">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H18" t="s">
         <v>109</v>
@@ -3740,7 +3758,7 @@
         <v>109</v>
       </c>
       <c r="J18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K18" t="s">
         <v>167</v>
@@ -3752,7 +3770,7 @@
         <v>202</v>
       </c>
       <c r="N18" s="26">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="O18" s="18" t="b">
         <v>0</v>
@@ -3812,13 +3830,13 @@
         <v>158</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>179</v>
+        <v>346</v>
       </c>
       <c r="AI18">
         <v>30</v>
       </c>
       <c r="AJ18" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="AK18">
         <v>5</v>
@@ -3865,7 +3883,7 @@
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>302</v>
@@ -3874,16 +3892,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="F19">
         <v>1000</v>
       </c>
       <c r="G19">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H19" t="s">
         <v>109</v>
@@ -3892,7 +3910,7 @@
         <v>109</v>
       </c>
       <c r="J19" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s">
         <v>167</v>
@@ -3904,7 +3922,7 @@
         <v>202</v>
       </c>
       <c r="N19" s="26">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="O19" s="18" t="b">
         <v>0</v>
@@ -3964,13 +3982,13 @@
         <v>158</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AI19">
         <v>30</v>
       </c>
       <c r="AJ19" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="AK19">
         <v>5</v>
@@ -4017,7 +4035,7 @@
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>302</v>
@@ -4026,16 +4044,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="F20">
         <v>1000</v>
       </c>
       <c r="G20">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H20" t="s">
         <v>109</v>
@@ -4044,7 +4062,7 @@
         <v>109</v>
       </c>
       <c r="J20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s">
         <v>167</v>
@@ -4056,7 +4074,7 @@
         <v>202</v>
       </c>
       <c r="N20" s="26">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="O20" s="18" t="b">
         <v>0</v>
@@ -4113,16 +4131,16 @@
         <v>112</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>347</v>
+        <v>158</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>179</v>
+        <v>346</v>
       </c>
       <c r="AI20">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AJ20" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="AK20">
         <v>5</v>
@@ -4169,7 +4187,7 @@
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>302</v>
@@ -4178,16 +4196,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F21">
         <v>1000</v>
       </c>
       <c r="G21">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H21" t="s">
         <v>109</v>
@@ -4196,7 +4214,7 @@
         <v>109</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
         <v>167</v>
@@ -4208,7 +4226,7 @@
         <v>202</v>
       </c>
       <c r="N21" s="26">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O21" s="18" t="b">
         <v>0</v>
@@ -4265,16 +4283,16 @@
         <v>112</v>
       </c>
       <c r="AG21" s="2" t="s">
-        <v>347</v>
+        <v>158</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>179</v>
+        <v>346</v>
       </c>
       <c r="AI21">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AJ21" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="AK21">
         <v>5</v>
@@ -4321,7 +4339,7 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>302</v>
@@ -4330,16 +4348,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E22" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F22">
         <v>1000</v>
       </c>
       <c r="G22">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H22" t="s">
         <v>109</v>
@@ -4348,7 +4366,7 @@
         <v>109</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s">
         <v>167</v>
@@ -4360,7 +4378,7 @@
         <v>202</v>
       </c>
       <c r="N22" s="26">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O22" s="18" t="b">
         <v>0</v>
@@ -4417,16 +4435,16 @@
         <v>112</v>
       </c>
       <c r="AG22" s="2" t="s">
-        <v>347</v>
+        <v>158</v>
       </c>
       <c r="AH22" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AI22">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AJ22" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="AK22">
         <v>5</v>
@@ -4500,6 +4518,9 @@
       <c r="AX23" s="18"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B24" s="31" t="s">
+        <v>318</v>
+      </c>
       <c r="C24" s="11"/>
       <c r="N24" s="26"/>
       <c r="O24" s="18"/>
@@ -4618,7 +4639,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AE25" s="26">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="AF25" t="s">
         <v>112</v>
@@ -4627,16 +4648,16 @@
         <v>158</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>179</v>
+        <v>346</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="s">
         <v>115</v>
       </c>
       <c r="AK25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL25">
         <v>200</v>
@@ -4770,7 +4791,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AE26" s="26">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="AF26" t="s">
         <v>112</v>
@@ -4779,7 +4800,7 @@
         <v>158</v>
       </c>
       <c r="AH26" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AI26">
         <v>30</v>
@@ -4931,7 +4952,7 @@
         <v>158</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AI27">
         <v>30</v>
@@ -4940,7 +4961,7 @@
         <v>115</v>
       </c>
       <c r="AK27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL27">
         <v>200</v>
@@ -5074,16 +5095,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AE28" s="26">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="AF28" t="s">
         <v>112</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>347</v>
+        <v>158</v>
       </c>
       <c r="AH28" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AI28">
         <v>30</v>
@@ -5226,7 +5247,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AE29" s="26">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="AF29" t="s">
         <v>112</v>
@@ -5235,7 +5256,7 @@
         <v>158</v>
       </c>
       <c r="AH29" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AI29">
         <v>30</v>
@@ -5259,7 +5280,7 @@
         <v>166</v>
       </c>
       <c r="AP29" s="17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ29">
         <v>200</v>
@@ -5403,10 +5424,10 @@
         <v>156</v>
       </c>
       <c r="AD31" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AE31" s="26">
-        <v>0.12</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AF31" t="s">
         <v>112</v>
@@ -5415,10 +5436,10 @@
         <v>158</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AI31">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AJ31" t="s">
         <v>115</v>
@@ -5555,10 +5576,10 @@
         <v>156</v>
       </c>
       <c r="AD32" s="41">
-        <v>7.1199999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AE32" s="26">
-        <v>0.12</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="AF32" t="s">
         <v>112</v>
@@ -5567,10 +5588,10 @@
         <v>158</v>
       </c>
       <c r="AH32" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AI32">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AJ32" t="s">
         <v>115</v>
@@ -5707,7 +5728,7 @@
         <v>156</v>
       </c>
       <c r="AD33" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AE33" s="26">
         <v>0.12</v>
@@ -5719,10 +5740,10 @@
         <v>158</v>
       </c>
       <c r="AH33" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AI33">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AJ33" t="s">
         <v>115</v>
@@ -5859,10 +5880,10 @@
         <v>156</v>
       </c>
       <c r="AD34" s="41">
-        <v>6.6199999999999995E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AE34" s="26">
-        <v>0.12</v>
+        <v>0.158</v>
       </c>
       <c r="AF34" t="s">
         <v>112</v>
@@ -5871,10 +5892,10 @@
         <v>158</v>
       </c>
       <c r="AH34" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AI34">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AJ34" t="s">
         <v>115</v>
@@ -5929,34 +5950,152 @@
       <c r="B35" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="26"/>
-      <c r="AG35" s="2"/>
-      <c r="AH35" s="2"/>
-      <c r="AM35" s="2"/>
-      <c r="AO35" s="2"/>
-      <c r="AP35" s="17"/>
-      <c r="AR35" s="2"/>
-      <c r="AS35" s="12"/>
-      <c r="AT35" s="12"/>
-      <c r="AU35" s="12"/>
-      <c r="AV35" s="18"/>
-      <c r="AW35" s="18"/>
-      <c r="AX35" s="18"/>
+      <c r="C35" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35">
+        <v>1000</v>
+      </c>
+      <c r="G35">
+        <v>500</v>
+      </c>
+      <c r="H35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" t="s">
+        <v>109</v>
+      </c>
+      <c r="J35" t="s">
+        <v>208</v>
+      </c>
+      <c r="K35" t="s">
+        <v>167</v>
+      </c>
+      <c r="L35" t="s">
+        <v>215</v>
+      </c>
+      <c r="M35" t="s">
+        <v>202</v>
+      </c>
+      <c r="N35" s="26">
+        <v>0</v>
+      </c>
+      <c r="O35" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+      <c r="R35">
+        <v>75</v>
+      </c>
+      <c r="S35">
+        <v>50</v>
+      </c>
+      <c r="T35">
+        <v>60</v>
+      </c>
+      <c r="U35" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>10</v>
+      </c>
+      <c r="X35" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y35" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z35" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA35" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB35" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC35" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD35" s="41">
+        <v>0.105</v>
+      </c>
+      <c r="AE35" s="26">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG35" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH35" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI35">
+        <v>30</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK35">
+        <v>5</v>
+      </c>
+      <c r="AL35">
+        <v>200</v>
+      </c>
+      <c r="AM35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP35" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ35">
+        <v>200</v>
+      </c>
+      <c r="AR35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS35" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT35" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU35" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV35" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX35" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
       <c r="C36" s="11"/>
       <c r="N36" s="26"/>
       <c r="O36" s="18"/>
@@ -5984,157 +6123,41 @@
       <c r="AX36" s="18"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="C37" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>211</v>
-      </c>
-      <c r="E37" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37">
-        <v>1000</v>
-      </c>
-      <c r="G37">
-        <v>500</v>
-      </c>
-      <c r="H37" t="s">
-        <v>109</v>
-      </c>
-      <c r="I37" t="s">
-        <v>109</v>
-      </c>
-      <c r="J37" t="s">
-        <v>208</v>
-      </c>
-      <c r="K37" t="s">
-        <v>167</v>
-      </c>
-      <c r="L37" t="s">
-        <v>215</v>
-      </c>
-      <c r="M37" t="s">
-        <v>202</v>
-      </c>
-      <c r="N37" s="26">
-        <v>0</v>
-      </c>
-      <c r="O37" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P37" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q37">
-        <v>3</v>
-      </c>
-      <c r="R37">
-        <v>75</v>
-      </c>
-      <c r="S37">
-        <v>50</v>
-      </c>
-      <c r="T37">
-        <v>60</v>
-      </c>
-      <c r="U37" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>10</v>
-      </c>
-      <c r="X37" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y37" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z37" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA37" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB37" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC37" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="AD37" s="41">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AE37" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG37" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH37" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI37">
-        <v>1</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK37">
-        <v>5</v>
-      </c>
-      <c r="AL37">
-        <v>200</v>
-      </c>
-      <c r="AM37" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN37">
-        <v>1</v>
-      </c>
-      <c r="AO37" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP37" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ37">
-        <v>200</v>
-      </c>
-      <c r="AR37" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS37" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT37" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU37" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV37" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW37" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX37" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B37" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="41"/>
+      <c r="AE37" s="26"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="17"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="12"/>
+      <c r="AT37" s="12"/>
+      <c r="AU37" s="12"/>
+      <c r="AV37" s="18"/>
+      <c r="AW37" s="18"/>
+      <c r="AX37" s="18"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
         <v>341</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="C38" s="11" t="b">
         <v>0</v>
@@ -6191,7 +6214,7 @@
         <v>60</v>
       </c>
       <c r="U38" s="26">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -6215,7 +6238,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AC38" s="26" t="s">
-        <v>346</v>
+        <v>156</v>
       </c>
       <c r="AD38" s="41">
         <v>7.4999999999999997E-2</v>
@@ -6230,13 +6253,13 @@
         <v>158</v>
       </c>
       <c r="AH38" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AI38">
         <v>30</v>
       </c>
       <c r="AJ38" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="AK38">
         <v>5</v>
@@ -6286,7 +6309,7 @@
         <v>343</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C39" s="11" t="b">
         <v>0</v>
@@ -6367,7 +6390,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AC39" s="26" t="s">
-        <v>346</v>
+        <v>156</v>
       </c>
       <c r="AD39" s="41">
         <v>7.4999999999999997E-2</v>
@@ -6382,7 +6405,7 @@
         <v>158</v>
       </c>
       <c r="AH39" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AI39">
         <v>30</v>
@@ -6464,11 +6487,11 @@
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O9 C6:C10 C13:C39 O13:O39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O9 C6:C10 O13:O39 C13:C39">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AA6:AA9 U6:U9 U13:U39 AA13:AA39">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AA6:AA9 U6:U9 AA13:AA39 U13:U39">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
@@ -6476,7 +6499,7 @@
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="X6:Z9 AB6:AB9 AD6:AD9 AD13:AD39 AB13:AB39 X13:Z39">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="X6:Z9 AB6:AB9 AD6:AD9 X13:Z39 AB13:AB39 AD13:AD39">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
@@ -7936,8 +7959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C35"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Returns!$A$3:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Returns!$A$3:$D$3</definedName>
     <definedName name="ConPolicy">DropDowns!$A$12:$A$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="355">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1387,7 +1387,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1396,16 +1399,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2054,11 +2054,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AW17" sqref="AW17"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,61 +2251,61 @@
       </c>
     </row>
     <row r="4" spans="1:50" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="47" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="47"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="43" t="s">
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="43"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="28"/>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="44"/>
-      <c r="P4" s="43" t="s">
+      <c r="O4" s="45"/>
+      <c r="P4" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
       <c r="X4" s="29"/>
       <c r="Y4" s="29"/>
-      <c r="Z4" s="44" t="s">
+      <c r="Z4" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="42" t="s">
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
       <c r="AF4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AG4" s="45" t="s">
+      <c r="AG4" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
       <c r="AJ4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2313,17 +2313,17 @@
       <c r="AL4" s="21"/>
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
-      <c r="AO4" s="42" t="s">
+      <c r="AO4" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="46" t="s">
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
+      <c r="AS4" s="48"/>
+      <c r="AT4" s="48"/>
+      <c r="AU4" s="48"/>
       <c r="AV4" s="15"/>
       <c r="AW4" s="22"/>
       <c r="AX4" s="20"/>
@@ -3210,7 +3210,7 @@
         <v>156</v>
       </c>
       <c r="AD14" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE14" s="26">
         <v>0.12</v>
@@ -3362,7 +3362,7 @@
         <v>156</v>
       </c>
       <c r="AD15" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE15" s="26">
         <v>0.12</v>
@@ -3514,7 +3514,7 @@
         <v>156</v>
       </c>
       <c r="AD16" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE16" s="26">
         <v>0.12</v>
@@ -3666,7 +3666,7 @@
         <v>156</v>
       </c>
       <c r="AD17" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE17" s="26">
         <v>0.12</v>
@@ -3818,7 +3818,7 @@
         <v>156</v>
       </c>
       <c r="AD18" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE18" s="26">
         <v>0.12</v>
@@ -3970,7 +3970,7 @@
         <v>156</v>
       </c>
       <c r="AD19" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE19" s="26">
         <v>0.12</v>
@@ -4122,7 +4122,7 @@
         <v>156</v>
       </c>
       <c r="AD20" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE20" s="26">
         <v>0.12</v>
@@ -4274,7 +4274,7 @@
         <v>156</v>
       </c>
       <c r="AD21" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE21" s="26">
         <v>0.12</v>
@@ -4426,7 +4426,7 @@
         <v>156</v>
       </c>
       <c r="AD22" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE22" s="26">
         <v>0.12</v>
@@ -4555,7 +4555,7 @@
         <v>320</v>
       </c>
       <c r="C25" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
         <v>211</v>
@@ -4636,7 +4636,7 @@
         <v>156</v>
       </c>
       <c r="AD25" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE25" s="26">
         <v>0.04</v>
@@ -4707,7 +4707,7 @@
         <v>322</v>
       </c>
       <c r="C26" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>211</v>
@@ -4788,7 +4788,7 @@
         <v>156</v>
       </c>
       <c r="AD26" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE26" s="26">
         <v>0.08</v>
@@ -4859,7 +4859,7 @@
         <v>324</v>
       </c>
       <c r="C27" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>211</v>
@@ -4940,7 +4940,7 @@
         <v>156</v>
       </c>
       <c r="AD27" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE27" s="26">
         <v>0.12</v>
@@ -5011,7 +5011,7 @@
         <v>326</v>
       </c>
       <c r="C28" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
         <v>211</v>
@@ -5092,7 +5092,7 @@
         <v>156</v>
       </c>
       <c r="AD28" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE28" s="26">
         <v>0.16</v>
@@ -5163,7 +5163,7 @@
         <v>328</v>
       </c>
       <c r="C29" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>211</v>
@@ -5244,7 +5244,7 @@
         <v>156</v>
       </c>
       <c r="AD29" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE29" s="26">
         <v>0.2</v>
@@ -5343,7 +5343,7 @@
         <v>331</v>
       </c>
       <c r="C31" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
         <v>211</v>
@@ -5495,7 +5495,7 @@
         <v>333</v>
       </c>
       <c r="C32" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
         <v>211</v>
@@ -5647,7 +5647,7 @@
         <v>335</v>
       </c>
       <c r="C33" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
         <v>211</v>
@@ -5799,7 +5799,7 @@
         <v>337</v>
       </c>
       <c r="C34" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>211</v>
@@ -5951,7 +5951,7 @@
         <v>339</v>
       </c>
       <c r="C35" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>211</v>
@@ -6160,7 +6160,7 @@
         <v>353</v>
       </c>
       <c r="C38" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>211</v>
@@ -6241,7 +6241,7 @@
         <v>156</v>
       </c>
       <c r="AD38" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE38" s="26">
         <v>0.12</v>
@@ -6312,7 +6312,7 @@
         <v>354</v>
       </c>
       <c r="C39" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
         <v>211</v>
@@ -6393,7 +6393,7 @@
         <v>156</v>
       </c>
       <c r="AD39" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE39" s="26">
         <v>0.12</v>
@@ -6458,17 +6458,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H4:J4"/>
     <mergeCell ref="AO4:AQ4"/>
     <mergeCell ref="P4:W4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="AG4:AI4"/>
     <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <dataValidations count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM39">
@@ -6599,10 +6599,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D13"/>
+  <dimension ref="A3:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6624,157 +6624,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B4" s="26">
-        <v>-0.25</v>
-      </c>
-      <c r="C4" s="26">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B5" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C5" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="D5">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="B6" s="26">
-        <v>-0.25</v>
-      </c>
-      <c r="C6" s="26">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="B7" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C7" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="D7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="B8" s="26">
-        <v>-0.25</v>
-      </c>
-      <c r="C8" s="26">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="B9" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C9" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="D9">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="B10" s="26">
-        <v>-0.25</v>
-      </c>
-      <c r="C10" s="26">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="B11" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C11" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="D11">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="B12" s="26">
-        <v>-0.25</v>
-      </c>
-      <c r="C12" s="26">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="B13" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C13" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="D13">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="C4:C13">
-      <formula1>0</formula1>
-      <formula2>0.75</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="B4:B13">
-      <formula1>-1</formula1>
-      <formula2>0.5</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6827,8 +6677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6866,7 +6716,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>1000</v>

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="355">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1387,10 +1387,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,13 +1396,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2055,10 +2055,10 @@
   <dimension ref="A1:AX39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14:C22"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,61 +2251,61 @@
       </c>
     </row>
     <row r="4" spans="1:50" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="44" t="s">
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="44"/>
+      <c r="L4" s="43"/>
       <c r="M4" s="28"/>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="44" t="s">
+      <c r="O4" s="44"/>
+      <c r="P4" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
       <c r="X4" s="29"/>
       <c r="Y4" s="29"/>
-      <c r="Z4" s="45" t="s">
+      <c r="Z4" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="47" t="s">
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
       <c r="AF4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AG4" s="42" t="s">
+      <c r="AG4" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
       <c r="AJ4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2313,17 +2313,17 @@
       <c r="AL4" s="21"/>
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
-      <c r="AO4" s="47" t="s">
+      <c r="AO4" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="48" t="s">
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="46"/>
       <c r="AV4" s="15"/>
       <c r="AW4" s="22"/>
       <c r="AX4" s="20"/>
@@ -3129,7 +3129,7 @@
         <v>294</v>
       </c>
       <c r="C14" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>211</v>
@@ -3281,7 +3281,7 @@
         <v>294</v>
       </c>
       <c r="C15" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>211</v>
@@ -3433,7 +3433,7 @@
         <v>294</v>
       </c>
       <c r="C16" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>211</v>
@@ -3585,7 +3585,7 @@
         <v>302</v>
       </c>
       <c r="C17" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>212</v>
@@ -3737,7 +3737,7 @@
         <v>302</v>
       </c>
       <c r="C18" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>212</v>
@@ -3889,7 +3889,7 @@
         <v>302</v>
       </c>
       <c r="C19" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>213</v>
@@ -4041,7 +4041,7 @@
         <v>302</v>
       </c>
       <c r="C20" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
         <v>213</v>
@@ -4193,7 +4193,7 @@
         <v>302</v>
       </c>
       <c r="C21" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>214</v>
@@ -4345,7 +4345,7 @@
         <v>302</v>
       </c>
       <c r="C22" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>214</v>
@@ -6458,17 +6458,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="AO4:AQ4"/>
     <mergeCell ref="P4:W4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="AG4:AI4"/>
     <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <dataValidations count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM39">
@@ -6599,10 +6599,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D3"/>
+  <dimension ref="A3:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6622,6 +6622,11 @@
       </c>
       <c r="D3" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -6677,7 +6682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="366">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1134,15 +1134,49 @@
   <si>
     <t>75% initial Funding; Full smoothing, average plan, 2% COLA</t>
   </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>75% initial Funding; DC 4.40; ir 4.5,    SD 4.5%</t>
+  </si>
+  <si>
+    <t>75% initial Funding; DC 5.66; ir 6,        SD 8.3%</t>
+  </si>
+  <si>
+    <t>75% initial Funding; DC 6.78; ir 7.5,    SD 12%</t>
+  </si>
+  <si>
+    <t>75% initial Funding; DC 7.76; ir 9,        SD 15.8%</t>
+  </si>
+  <si>
+    <t>75% initial Funding; DC 8.60; ir 10.5,  SD 19.5%</t>
+  </si>
+  <si>
+    <t>I3F075-1</t>
+  </si>
+  <si>
+    <t>I3F075-2</t>
+  </si>
+  <si>
+    <t>I3F075-3</t>
+  </si>
+  <si>
+    <t>I3F075-4</t>
+  </si>
+  <si>
+    <t>I3F075-5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="171" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1310,7 +1344,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1387,7 +1421,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1396,18 +1433,22 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1854,12 +1895,13 @@
   <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C6" sqref="C6:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1885,6 +1927,9 @@
       <c r="B5" t="s">
         <v>178</v>
       </c>
+      <c r="C5" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
@@ -1894,6 +1939,10 @@
         <f t="shared" ref="B6:B7" si="0">(A6-$B$2)/$B$3</f>
         <v>0.19499999999999998</v>
       </c>
+      <c r="C6" s="49">
+        <f>A6-(B6^2)/2</f>
+        <v>8.5987499999999994E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
@@ -1903,6 +1952,10 @@
         <f t="shared" si="0"/>
         <v>0.1575</v>
       </c>
+      <c r="C7" s="49">
+        <f t="shared" ref="C7:C10" si="1">A7-(B7^2)/2</f>
+        <v>7.7596874999999996E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
@@ -1912,14 +1965,22 @@
         <f>(A8-$B$2)/$B$3</f>
         <v>0.12</v>
       </c>
+      <c r="C8" s="49">
+        <f t="shared" si="1"/>
+        <v>6.7799999999999999E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>0.06</v>
       </c>
       <c r="B9" s="24">
-        <f t="shared" ref="B9:B10" si="1">(A9-$B$2)/$B$3</f>
+        <f t="shared" ref="B9:B10" si="2">(A9-$B$2)/$B$3</f>
         <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="C9" s="49">
+        <f t="shared" si="1"/>
+        <v>5.6596874999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1927,8 +1988,12 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="B10" s="24">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999991E-2</v>
+      </c>
+      <c r="C10" s="49">
         <f t="shared" si="1"/>
-        <v>4.4999999999999991E-2</v>
+        <v>4.3987499999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2052,13 +2117,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX39"/>
+  <dimension ref="A1:AX52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="AQ44" sqref="AQ44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,61 +2316,61 @@
       </c>
     </row>
     <row r="4" spans="1:50" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="47" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="47"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="43" t="s">
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="43"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="28"/>
-      <c r="N4" s="44" t="s">
+      <c r="N4" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="44"/>
-      <c r="P4" s="43" t="s">
+      <c r="O4" s="45"/>
+      <c r="P4" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
       <c r="X4" s="29"/>
       <c r="Y4" s="29"/>
-      <c r="Z4" s="44" t="s">
+      <c r="Z4" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="42" t="s">
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
       <c r="AF4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AG4" s="45" t="s">
+      <c r="AG4" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
       <c r="AJ4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2313,17 +2378,17 @@
       <c r="AL4" s="21"/>
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
-      <c r="AO4" s="42" t="s">
+      <c r="AO4" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="46" t="s">
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
+      <c r="AS4" s="48"/>
+      <c r="AT4" s="48"/>
+      <c r="AU4" s="48"/>
       <c r="AV4" s="15"/>
       <c r="AW4" s="22"/>
       <c r="AX4" s="20"/>
@@ -3129,7 +3194,7 @@
         <v>294</v>
       </c>
       <c r="C14" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>211</v>
@@ -3280,8 +3345,8 @@
       <c r="B15" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="C15" s="11" t="b">
-        <v>1</v>
+      <c r="C15" s="51" t="b">
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>211</v>
@@ -3314,7 +3379,7 @@
         <v>202</v>
       </c>
       <c r="N15" s="26">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O15" s="18" t="b">
         <v>0</v>
@@ -3432,8 +3497,8 @@
       <c r="B16" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="C16" s="11" t="b">
-        <v>1</v>
+      <c r="C16" s="51" t="b">
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>211</v>
@@ -3466,7 +3531,7 @@
         <v>202</v>
       </c>
       <c r="N16" s="26">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="O16" s="18" t="b">
         <v>0</v>
@@ -3584,8 +3649,8 @@
       <c r="B17" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C17" s="11" t="b">
-        <v>1</v>
+      <c r="C17" s="51" t="b">
+        <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>212</v>
@@ -3618,7 +3683,7 @@
         <v>202</v>
       </c>
       <c r="N17" s="26">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="O17" s="18" t="b">
         <v>0</v>
@@ -3736,8 +3801,8 @@
       <c r="B18" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C18" s="11" t="b">
-        <v>1</v>
+      <c r="C18" s="51" t="b">
+        <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>212</v>
@@ -3888,8 +3953,8 @@
       <c r="B19" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C19" s="11" t="b">
-        <v>1</v>
+      <c r="C19" s="51" t="b">
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>213</v>
@@ -3922,7 +3987,7 @@
         <v>202</v>
       </c>
       <c r="N19" s="26">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="O19" s="18" t="b">
         <v>0</v>
@@ -4040,8 +4105,8 @@
       <c r="B20" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C20" s="11" t="b">
-        <v>1</v>
+      <c r="C20" s="51" t="b">
+        <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>213</v>
@@ -4192,8 +4257,8 @@
       <c r="B21" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C21" s="11" t="b">
-        <v>1</v>
+      <c r="C21" s="51" t="b">
+        <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>214</v>
@@ -4226,7 +4291,7 @@
         <v>202</v>
       </c>
       <c r="N21" s="26">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O21" s="18" t="b">
         <v>0</v>
@@ -4344,8 +4409,8 @@
       <c r="B22" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C22" s="11" t="b">
-        <v>1</v>
+      <c r="C22" s="51" t="b">
+        <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>214</v>
@@ -4555,7 +4620,7 @@
         <v>320</v>
       </c>
       <c r="C25" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>211</v>
@@ -4707,7 +4772,7 @@
         <v>322</v>
       </c>
       <c r="C26" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>211</v>
@@ -4859,7 +4924,7 @@
         <v>324</v>
       </c>
       <c r="C27" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>211</v>
@@ -5011,7 +5076,7 @@
         <v>326</v>
       </c>
       <c r="C28" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>211</v>
@@ -5163,7 +5228,7 @@
         <v>328</v>
       </c>
       <c r="C29" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="s">
         <v>211</v>
@@ -5343,7 +5408,7 @@
         <v>331</v>
       </c>
       <c r="C31" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="s">
         <v>211</v>
@@ -5495,7 +5560,7 @@
         <v>333</v>
       </c>
       <c r="C32" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
         <v>211</v>
@@ -5647,7 +5712,7 @@
         <v>335</v>
       </c>
       <c r="C33" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>211</v>
@@ -5799,7 +5864,7 @@
         <v>337</v>
       </c>
       <c r="C34" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>211</v>
@@ -5951,7 +6016,7 @@
         <v>339</v>
       </c>
       <c r="C35" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>211</v>
@@ -6096,6 +6161,7 @@
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B36" s="19"/>
       <c r="C36" s="11"/>
       <c r="N36" s="26"/>
       <c r="O36" s="18"/>
@@ -6123,43 +6189,166 @@
       <c r="AX36" s="18"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B37" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="41"/>
-      <c r="AE37" s="26"/>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="2"/>
-      <c r="AM37" s="2"/>
-      <c r="AO37" s="2"/>
-      <c r="AP37" s="17"/>
-      <c r="AR37" s="2"/>
-      <c r="AS37" s="12"/>
-      <c r="AT37" s="12"/>
-      <c r="AU37" s="12"/>
-      <c r="AV37" s="18"/>
-      <c r="AW37" s="18"/>
-      <c r="AX37" s="18"/>
+      <c r="A37" t="s">
+        <v>361</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C37" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37">
+        <v>1000</v>
+      </c>
+      <c r="G37">
+        <v>500</v>
+      </c>
+      <c r="H37" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" t="s">
+        <v>208</v>
+      </c>
+      <c r="K37" t="s">
+        <v>167</v>
+      </c>
+      <c r="L37" t="s">
+        <v>215</v>
+      </c>
+      <c r="M37" t="s">
+        <v>202</v>
+      </c>
+      <c r="N37" s="26">
+        <v>0</v>
+      </c>
+      <c r="O37" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <v>75</v>
+      </c>
+      <c r="S37">
+        <v>50</v>
+      </c>
+      <c r="T37">
+        <v>60</v>
+      </c>
+      <c r="U37" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>10</v>
+      </c>
+      <c r="X37" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y37" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z37" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA37" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB37" s="53">
+        <v>4.3987499999999999E-2</v>
+      </c>
+      <c r="AC37" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD37" s="41">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AE37" s="26">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH37" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI37">
+        <v>30</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK37">
+        <v>5</v>
+      </c>
+      <c r="AL37">
+        <v>200</v>
+      </c>
+      <c r="AM37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP37" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ37" s="52">
+        <f>225068282*0.75</f>
+        <v>168801211.5</v>
+      </c>
+      <c r="AR37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS37" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT37" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU37" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV37" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX37" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
-        <v>341</v>
+      <c r="A38" t="s">
+        <v>362</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="C38" s="11" t="b">
+        <v>357</v>
+      </c>
+      <c r="C38" s="51" t="b">
         <v>1</v>
       </c>
       <c r="D38" t="s">
@@ -6214,7 +6403,7 @@
         <v>60</v>
       </c>
       <c r="U38" s="26">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -6234,17 +6423,17 @@
       <c r="AA38" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB38" s="26">
-        <v>7.4999999999999997E-2</v>
+      <c r="AB38" s="53">
+        <v>5.6596874999999998E-2</v>
       </c>
       <c r="AC38" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AD38" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AE38" s="26">
-        <v>0.12</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="AF38" t="s">
         <v>112</v>
@@ -6273,14 +6462,15 @@
       <c r="AN38">
         <v>1</v>
       </c>
-      <c r="AO38" s="2" t="s">
-        <v>166</v>
+      <c r="AO38" s="50" t="s">
+        <v>114</v>
       </c>
       <c r="AP38" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ38">
-        <v>200</v>
+      <c r="AQ38" s="52">
+        <f t="shared" ref="AQ38:AQ41" si="0">225068282*0.75</f>
+        <v>168801211.5</v>
       </c>
       <c r="AR38" s="2" t="s">
         <v>113</v>
@@ -6305,13 +6495,13 @@
       </c>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
-        <v>343</v>
+      <c r="A39" t="s">
+        <v>363</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="C39" s="11" t="b">
+        <v>358</v>
+      </c>
+      <c r="C39" s="51" t="b">
         <v>1</v>
       </c>
       <c r="D39" t="s">
@@ -6386,14 +6576,14 @@
       <c r="AA39" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB39" s="26">
-        <v>7.4999999999999997E-2</v>
+      <c r="AB39" s="53">
+        <v>6.7799999999999999E-2</v>
       </c>
       <c r="AC39" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AD39" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AE39" s="26">
         <v>0.12</v>
@@ -6425,14 +6615,15 @@
       <c r="AN39">
         <v>1</v>
       </c>
-      <c r="AO39" s="2" t="s">
-        <v>166</v>
+      <c r="AO39" s="50" t="s">
+        <v>114</v>
       </c>
       <c r="AP39" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ39">
-        <v>200</v>
+      <c r="AQ39" s="52">
+        <f t="shared" si="0"/>
+        <v>168801211.5</v>
       </c>
       <c r="AR39" s="2" t="s">
         <v>113</v>
@@ -6455,98 +6646,780 @@
       <c r="AX39" s="18" t="b">
         <v>0</v>
       </c>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>364</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="C40" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>211</v>
+      </c>
+      <c r="E40" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40">
+        <v>1000</v>
+      </c>
+      <c r="G40">
+        <v>500</v>
+      </c>
+      <c r="H40" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" t="s">
+        <v>208</v>
+      </c>
+      <c r="K40" t="s">
+        <v>167</v>
+      </c>
+      <c r="L40" t="s">
+        <v>215</v>
+      </c>
+      <c r="M40" t="s">
+        <v>202</v>
+      </c>
+      <c r="N40" s="26">
+        <v>0</v>
+      </c>
+      <c r="O40" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40">
+        <v>75</v>
+      </c>
+      <c r="S40">
+        <v>50</v>
+      </c>
+      <c r="T40">
+        <v>60</v>
+      </c>
+      <c r="U40" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>10</v>
+      </c>
+      <c r="X40" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y40" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z40" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA40" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB40" s="53">
+        <v>7.7596874999999996E-2</v>
+      </c>
+      <c r="AC40" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD40" s="41">
+        <v>0.09</v>
+      </c>
+      <c r="AE40" s="26">
+        <v>0.158</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH40" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI40">
+        <v>30</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK40">
+        <v>5</v>
+      </c>
+      <c r="AL40">
+        <v>200</v>
+      </c>
+      <c r="AM40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP40" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ40" s="52">
+        <f t="shared" si="0"/>
+        <v>168801211.5</v>
+      </c>
+      <c r="AR40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS40" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT40" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU40" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV40" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX40" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C41" s="51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>211</v>
+      </c>
+      <c r="E41" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41">
+        <v>1000</v>
+      </c>
+      <c r="G41">
+        <v>500</v>
+      </c>
+      <c r="H41" t="s">
+        <v>109</v>
+      </c>
+      <c r="I41" t="s">
+        <v>109</v>
+      </c>
+      <c r="J41" t="s">
+        <v>208</v>
+      </c>
+      <c r="K41" t="s">
+        <v>167</v>
+      </c>
+      <c r="L41" t="s">
+        <v>215</v>
+      </c>
+      <c r="M41" t="s">
+        <v>202</v>
+      </c>
+      <c r="N41" s="26">
+        <v>0</v>
+      </c>
+      <c r="O41" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41">
+        <v>75</v>
+      </c>
+      <c r="S41">
+        <v>50</v>
+      </c>
+      <c r="T41">
+        <v>60</v>
+      </c>
+      <c r="U41" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>10</v>
+      </c>
+      <c r="X41" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y41" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z41" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA41" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB41" s="53">
+        <v>8.5987499999999994E-2</v>
+      </c>
+      <c r="AC41" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD41" s="41">
+        <v>0.105</v>
+      </c>
+      <c r="AE41" s="26">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH41" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI41">
+        <v>30</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK41">
+        <v>5</v>
+      </c>
+      <c r="AL41">
+        <v>200</v>
+      </c>
+      <c r="AM41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP41" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ41" s="52">
+        <f t="shared" si="0"/>
+        <v>168801211.5</v>
+      </c>
+      <c r="AR41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS41" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT41" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU41" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV41" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX41" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="C42" s="11"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="41"/>
+      <c r="AE42" s="26"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AM42" s="2"/>
+      <c r="AO42" s="2"/>
+      <c r="AP42" s="17"/>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="12"/>
+      <c r="AT42" s="12"/>
+      <c r="AU42" s="12"/>
+      <c r="AV42" s="18"/>
+      <c r="AW42" s="18"/>
+      <c r="AX42" s="18"/>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B43" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="26"/>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="26"/>
+      <c r="AD43" s="41"/>
+      <c r="AE43" s="26"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AM43" s="2"/>
+      <c r="AO43" s="2"/>
+      <c r="AP43" s="17"/>
+      <c r="AR43" s="2"/>
+      <c r="AS43" s="12"/>
+      <c r="AT43" s="12"/>
+      <c r="AU43" s="12"/>
+      <c r="AV43" s="18"/>
+      <c r="AW43" s="18"/>
+      <c r="AX43" s="18"/>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A44" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C44" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44">
+        <v>1000</v>
+      </c>
+      <c r="G44">
+        <v>500</v>
+      </c>
+      <c r="H44" t="s">
+        <v>109</v>
+      </c>
+      <c r="I44" t="s">
+        <v>109</v>
+      </c>
+      <c r="J44" t="s">
+        <v>208</v>
+      </c>
+      <c r="K44" t="s">
+        <v>167</v>
+      </c>
+      <c r="L44" t="s">
+        <v>215</v>
+      </c>
+      <c r="M44" t="s">
+        <v>202</v>
+      </c>
+      <c r="N44" s="26">
+        <v>0</v>
+      </c>
+      <c r="O44" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q44">
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>75</v>
+      </c>
+      <c r="S44">
+        <v>50</v>
+      </c>
+      <c r="T44">
+        <v>60</v>
+      </c>
+      <c r="U44" s="26">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>10</v>
+      </c>
+      <c r="X44" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y44" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z44" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA44" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB44" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC44" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD44" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE44" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH44" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI44">
+        <v>30</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK44">
+        <v>5</v>
+      </c>
+      <c r="AL44">
+        <v>200</v>
+      </c>
+      <c r="AM44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP44" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ44">
+        <v>200</v>
+      </c>
+      <c r="AR44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS44" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT44" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU44" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV44" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX44" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A45" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="C45" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45">
+        <v>1000</v>
+      </c>
+      <c r="G45">
+        <v>500</v>
+      </c>
+      <c r="H45" t="s">
+        <v>109</v>
+      </c>
+      <c r="I45" t="s">
+        <v>109</v>
+      </c>
+      <c r="J45" t="s">
+        <v>208</v>
+      </c>
+      <c r="K45" t="s">
+        <v>167</v>
+      </c>
+      <c r="L45" t="s">
+        <v>215</v>
+      </c>
+      <c r="M45" t="s">
+        <v>202</v>
+      </c>
+      <c r="N45" s="26">
+        <v>0</v>
+      </c>
+      <c r="O45" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q45">
+        <v>3</v>
+      </c>
+      <c r="R45">
+        <v>75</v>
+      </c>
+      <c r="S45">
+        <v>50</v>
+      </c>
+      <c r="T45">
+        <v>60</v>
+      </c>
+      <c r="U45" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>10</v>
+      </c>
+      <c r="X45" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y45" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z45" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA45" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB45" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC45" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD45" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE45" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH45" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI45">
+        <v>30</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK45">
+        <v>5</v>
+      </c>
+      <c r="AL45">
+        <v>200</v>
+      </c>
+      <c r="AM45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP45" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ45">
+        <v>200</v>
+      </c>
+      <c r="AR45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS45" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT45" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU45" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV45" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX45" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AB48" s="53"/>
+    </row>
+    <row r="49" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB49" s="53"/>
+    </row>
+    <row r="50" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB50" s="53"/>
+    </row>
+    <row r="51" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB51" s="53"/>
+    </row>
+    <row r="52" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB52" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H4:J4"/>
     <mergeCell ref="AO4:AQ4"/>
     <mergeCell ref="P4:W4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="AG4:AI4"/>
     <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM45">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH45">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG9 AG13:AG39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG9 AG13:AG45">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR9 AR13:AR39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR9 AR13:AR45">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O9 C6:C10 O13:O39 C13:C39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O9 C6:C10 O13:O45 C13:C45">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AA6:AA9 U6:U9 AA13:AA39 U13:U39">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AA6:AA9 U6:U9 U13:U45 AA13:AA45">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="V6:W9 V13:W39">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="V6:W9 V13:W45">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="X6:Z9 AB6:AB9 AD6:AD9 X13:Z39 AB13:AB39 AD13:AD39">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="X6:Z9 AB6:AB9 AD6:AD9 AD13:AD45 X13:Z45 AB13:AB36 AB42:AB45">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AI6:AI9 AI13:AI39">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AI6:AI9 AI13:AI45">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AS6:AT9 AS13:AT39">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AS6:AT9 AS13:AT45">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AU6:AU9 AU13:AU39">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AU6:AU9 AU13:AU45">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AE6:AE9 AE13:AE39">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AE6:AE9 AE13:AE45">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AK6:AK9 AK13:AK39">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AK6:AK9 AK13:AK45">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6:AL9 AL13:AL39">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6:AL9 AL13:AL45">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN39">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN45">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AC6:AC9 AC13:AC39"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV6:AX9 AV13:AX39">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AC6:AC9 AC13:AC45"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV6:AX9 AV13:AX45">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO45">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP39">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP45">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="R6:R9 R13:R39">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="R6:R9 R13:R45">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:I9 H13:I39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:I9 H13:I45">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -6559,37 +7432,37 @@
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K9 K13:K39</xm:sqref>
+          <xm:sqref>K6:K9 K13:K45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L9 L13:L39</xm:sqref>
+          <xm:sqref>L6:L9 L13:L45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E9 E13:E39</xm:sqref>
+          <xm:sqref>E6:E9 E13:E45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>D6:D9 D13:D39</xm:sqref>
+          <xm:sqref>D6:D9 D13:D45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J9 J13:J39</xm:sqref>
+          <xm:sqref>J6:J9 J13:J45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M9 M13:M39</xm:sqref>
+          <xm:sqref>M6:M9 M13:M45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6601,8 +7474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="368">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1166,6 +1166,12 @@
   </si>
   <si>
     <t>I3F075-5</t>
+  </si>
+  <si>
+    <t>D1F075-average_g2</t>
+  </si>
+  <si>
+    <t>D1F075-average_gn2</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1350,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1443,11 +1449,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -2117,13 +2130,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX52"/>
+  <dimension ref="A1:AX54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AQ44" sqref="AQ44"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3345,7 +3358,7 @@
       <c r="B15" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="C15" s="51" t="b">
+      <c r="C15" s="52" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="s">
@@ -3497,7 +3510,7 @@
       <c r="B16" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="C16" s="51" t="b">
+      <c r="C16" s="52" t="b">
         <v>0</v>
       </c>
       <c r="D16" t="s">
@@ -3642,325 +3655,325 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="C17" s="51" t="b">
+    <row r="17" spans="1:50" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="50">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="50">
+        <v>500</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="K17" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="M17" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="N17" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="O17" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E17" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17">
+      <c r="P17" s="58">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q17" s="50">
+        <v>3</v>
+      </c>
+      <c r="R17" s="50">
+        <v>75</v>
+      </c>
+      <c r="S17" s="50">
+        <v>50</v>
+      </c>
+      <c r="T17" s="50">
+        <v>60</v>
+      </c>
+      <c r="U17" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="V17" s="50">
+        <v>0</v>
+      </c>
+      <c r="W17" s="50">
+        <v>10</v>
+      </c>
+      <c r="X17" s="58">
+        <v>0.04</v>
+      </c>
+      <c r="Y17" s="58">
+        <v>0.04</v>
+      </c>
+      <c r="Z17" s="58">
+        <v>0.03</v>
+      </c>
+      <c r="AA17" s="58">
+        <v>0.01</v>
+      </c>
+      <c r="AB17" s="58">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC17" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD17" s="59">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE17" s="58">
+        <v>0.12</v>
+      </c>
+      <c r="AF17" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG17" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH17" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI17" s="50">
+        <v>30</v>
+      </c>
+      <c r="AJ17" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK17" s="50">
+        <v>5</v>
+      </c>
+      <c r="AL17" s="50">
+        <v>200</v>
+      </c>
+      <c r="AM17" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN17" s="50">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP17" s="54">
+        <v>0.75</v>
+      </c>
+      <c r="AQ17" s="50">
+        <v>200</v>
+      </c>
+      <c r="AR17" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS17" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="AT17" s="53">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU17" s="53">
+        <v>0.05</v>
+      </c>
+      <c r="AV17" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="50">
         <v>1000</v>
       </c>
-      <c r="G17">
-        <v>600</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G18" s="50">
+        <v>500</v>
+      </c>
+      <c r="H18" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I18" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="J17" t="s">
-        <v>209</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="J18" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="K18" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L18" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M18" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N18" s="58">
+        <v>-0.02</v>
+      </c>
+      <c r="O18" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="O17" s="18" t="b">
+      <c r="P18" s="58">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q18" s="50">
+        <v>3</v>
+      </c>
+      <c r="R18" s="50">
+        <v>75</v>
+      </c>
+      <c r="S18" s="50">
+        <v>50</v>
+      </c>
+      <c r="T18" s="50">
+        <v>60</v>
+      </c>
+      <c r="U18" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="V18" s="50">
         <v>0</v>
       </c>
-      <c r="P17" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-      <c r="R17">
-        <v>75</v>
-      </c>
-      <c r="S17">
-        <v>50</v>
-      </c>
-      <c r="T17">
-        <v>60</v>
-      </c>
-      <c r="U17" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V17">
+      <c r="W18" s="50">
+        <v>10</v>
+      </c>
+      <c r="X18" s="58">
+        <v>0.04</v>
+      </c>
+      <c r="Y18" s="58">
+        <v>0.04</v>
+      </c>
+      <c r="Z18" s="58">
+        <v>0.03</v>
+      </c>
+      <c r="AA18" s="58">
+        <v>0.01</v>
+      </c>
+      <c r="AB18" s="58">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC18" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD18" s="59">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE18" s="58">
+        <v>0.12</v>
+      </c>
+      <c r="AF18" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG18" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH18" s="51" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI18" s="50">
+        <v>30</v>
+      </c>
+      <c r="AJ18" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK18" s="50">
+        <v>5</v>
+      </c>
+      <c r="AL18" s="50">
+        <v>200</v>
+      </c>
+      <c r="AM18" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN18" s="50">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP18" s="54">
+        <v>0.75</v>
+      </c>
+      <c r="AQ18" s="50">
+        <v>200</v>
+      </c>
+      <c r="AR18" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS18" s="53">
+        <v>0.25</v>
+      </c>
+      <c r="AT18" s="53">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU18" s="53">
+        <v>0.05</v>
+      </c>
+      <c r="AV18" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="W17">
-        <v>10</v>
-      </c>
-      <c r="X17" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y17" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z17" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA17" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB17" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC17" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD17" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE17" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH17" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI17">
-        <v>30</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK17">
-        <v>5</v>
-      </c>
-      <c r="AL17">
-        <v>200</v>
-      </c>
-      <c r="AM17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN17">
+      <c r="AW18" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="AO17" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP17" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ17">
-        <v>200</v>
-      </c>
-      <c r="AR17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS17" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT17" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU17" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV17" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX17" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="C18" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>212</v>
-      </c>
-      <c r="E18" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18">
-        <v>1000</v>
-      </c>
-      <c r="G18">
-        <v>600</v>
-      </c>
-      <c r="H18" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" t="s">
-        <v>109</v>
-      </c>
-      <c r="J18" t="s">
-        <v>209</v>
-      </c>
-      <c r="K18" t="s">
-        <v>167</v>
-      </c>
-      <c r="L18" t="s">
-        <v>215</v>
-      </c>
-      <c r="M18" t="s">
-        <v>202</v>
-      </c>
-      <c r="N18" s="26">
-        <v>-0.01</v>
-      </c>
-      <c r="O18" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q18">
-        <v>3</v>
-      </c>
-      <c r="R18">
-        <v>75</v>
-      </c>
-      <c r="S18">
-        <v>50</v>
-      </c>
-      <c r="T18">
-        <v>60</v>
-      </c>
-      <c r="U18" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>10</v>
-      </c>
-      <c r="X18" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y18" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z18" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA18" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB18" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC18" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD18" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE18" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG18" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI18">
-        <v>30</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK18">
-        <v>5</v>
-      </c>
-      <c r="AL18">
-        <v>200</v>
-      </c>
-      <c r="AM18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN18">
-        <v>1</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP18" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ18">
-        <v>200</v>
-      </c>
-      <c r="AR18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS18" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT18" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU18" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV18" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX18" s="18" t="b">
+      <c r="AX18" s="55" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C19" s="51" t="b">
+      <c r="C19" s="52" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F19">
         <v>1000</v>
@@ -3975,7 +3988,7 @@
         <v>109</v>
       </c>
       <c r="J19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s">
         <v>167</v>
@@ -4100,19 +4113,19 @@
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C20" s="51" t="b">
+      <c r="C20" s="52" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F20">
         <v>1000</v>
@@ -4127,7 +4140,7 @@
         <v>109</v>
       </c>
       <c r="J20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K20" t="s">
         <v>167</v>
@@ -4252,25 +4265,25 @@
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C21" s="51" t="b">
+      <c r="C21" s="52" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F21">
         <v>1000</v>
       </c>
       <c r="G21">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H21" t="s">
         <v>109</v>
@@ -4279,7 +4292,7 @@
         <v>109</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
         <v>167</v>
@@ -4404,25 +4417,25 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C22" s="51" t="b">
+      <c r="C22" s="52" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F22">
         <v>1000</v>
       </c>
       <c r="G22">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H22" t="s">
         <v>109</v>
@@ -4431,7 +4444,7 @@
         <v>109</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s">
         <v>167</v>
@@ -4443,7 +4456,7 @@
         <v>202</v>
       </c>
       <c r="N22" s="26">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="O22" s="18" t="b">
         <v>0</v>
@@ -4555,373 +4568,373 @@
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="11"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="26"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
-      <c r="AM23" s="2"/>
-      <c r="AO23" s="2"/>
-      <c r="AP23" s="17"/>
-      <c r="AR23" s="2"/>
-      <c r="AS23" s="12"/>
-      <c r="AT23" s="12"/>
-      <c r="AU23" s="12"/>
-      <c r="AV23" s="18"/>
-      <c r="AW23" s="18"/>
-      <c r="AX23" s="18"/>
+      <c r="A23" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23">
+        <v>1000</v>
+      </c>
+      <c r="G23">
+        <v>300</v>
+      </c>
+      <c r="H23" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" t="s">
+        <v>167</v>
+      </c>
+      <c r="L23" t="s">
+        <v>215</v>
+      </c>
+      <c r="M23" t="s">
+        <v>202</v>
+      </c>
+      <c r="N23" s="26">
+        <v>0</v>
+      </c>
+      <c r="O23" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>75</v>
+      </c>
+      <c r="S23">
+        <v>50</v>
+      </c>
+      <c r="T23">
+        <v>60</v>
+      </c>
+      <c r="U23" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>10</v>
+      </c>
+      <c r="X23" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y23" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z23" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA23" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB23" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC23" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD23" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE23" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI23">
+        <v>30</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK23">
+        <v>5</v>
+      </c>
+      <c r="AL23">
+        <v>200</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP23" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ23">
+        <v>200</v>
+      </c>
+      <c r="AR23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS23" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT23" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU23" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV23" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX23" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="26"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
-      <c r="AM24" s="2"/>
-      <c r="AO24" s="2"/>
-      <c r="AP24" s="17"/>
-      <c r="AR24" s="2"/>
-      <c r="AS24" s="12"/>
-      <c r="AT24" s="12"/>
-      <c r="AU24" s="12"/>
-      <c r="AV24" s="18"/>
-      <c r="AW24" s="18"/>
-      <c r="AX24" s="18"/>
+      <c r="A24" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C24" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24">
+        <v>1000</v>
+      </c>
+      <c r="G24">
+        <v>300</v>
+      </c>
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" t="s">
+        <v>215</v>
+      </c>
+      <c r="M24" t="s">
+        <v>202</v>
+      </c>
+      <c r="N24" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="O24" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>75</v>
+      </c>
+      <c r="S24">
+        <v>50</v>
+      </c>
+      <c r="T24">
+        <v>60</v>
+      </c>
+      <c r="U24" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>10</v>
+      </c>
+      <c r="X24" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y24" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z24" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA24" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB24" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC24" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD24" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE24" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH24" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI24">
+        <v>30</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK24">
+        <v>5</v>
+      </c>
+      <c r="AL24">
+        <v>200</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP24" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ24">
+        <v>200</v>
+      </c>
+      <c r="AR24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS24" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT24" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU24" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV24" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX24" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="C25" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>211</v>
-      </c>
-      <c r="E25" t="s">
-        <v>188</v>
-      </c>
-      <c r="F25">
-        <v>1000</v>
-      </c>
-      <c r="G25">
-        <v>500</v>
-      </c>
-      <c r="H25" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" t="s">
-        <v>109</v>
-      </c>
-      <c r="J25" t="s">
-        <v>208</v>
-      </c>
-      <c r="K25" t="s">
-        <v>167</v>
-      </c>
-      <c r="L25" t="s">
-        <v>215</v>
-      </c>
-      <c r="M25" t="s">
-        <v>202</v>
-      </c>
-      <c r="N25" s="26">
-        <v>0</v>
-      </c>
-      <c r="O25" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P25" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q25">
-        <v>3</v>
-      </c>
-      <c r="R25">
-        <v>75</v>
-      </c>
-      <c r="S25">
-        <v>50</v>
-      </c>
-      <c r="T25">
-        <v>60</v>
-      </c>
-      <c r="U25" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>10</v>
-      </c>
-      <c r="X25" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y25" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z25" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA25" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB25" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC25" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD25" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE25" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG25" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH25" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI25">
-        <v>30</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK25">
-        <v>5</v>
-      </c>
-      <c r="AL25">
-        <v>200</v>
-      </c>
-      <c r="AM25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
-      <c r="AO25" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP25" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ25">
-        <v>200</v>
-      </c>
-      <c r="AR25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS25" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT25" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU25" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV25" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX25" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="11"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="26"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="17"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="12"/>
+      <c r="AV25" s="18"/>
+      <c r="AW25" s="18"/>
+      <c r="AX25" s="18"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="C26" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>211</v>
-      </c>
-      <c r="E26" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26">
-        <v>1000</v>
-      </c>
-      <c r="G26">
-        <v>500</v>
-      </c>
-      <c r="H26" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" t="s">
-        <v>109</v>
-      </c>
-      <c r="J26" t="s">
-        <v>208</v>
-      </c>
-      <c r="K26" t="s">
-        <v>167</v>
-      </c>
-      <c r="L26" t="s">
-        <v>215</v>
-      </c>
-      <c r="M26" t="s">
-        <v>202</v>
-      </c>
-      <c r="N26" s="26">
-        <v>0</v>
-      </c>
-      <c r="O26" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P26" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q26">
-        <v>3</v>
-      </c>
-      <c r="R26">
-        <v>75</v>
-      </c>
-      <c r="S26">
-        <v>50</v>
-      </c>
-      <c r="T26">
-        <v>60</v>
-      </c>
-      <c r="U26" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>10</v>
-      </c>
-      <c r="X26" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y26" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z26" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA26" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB26" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC26" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD26" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE26" s="26">
-        <v>0.08</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG26" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH26" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI26">
-        <v>30</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK26">
-        <v>5</v>
-      </c>
-      <c r="AL26">
-        <v>200</v>
-      </c>
-      <c r="AM26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AO26" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP26" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ26">
-        <v>200</v>
-      </c>
-      <c r="AR26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS26" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT26" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU26" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV26" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW26" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX26" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B26" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="26"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="17"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="18"/>
+      <c r="AW26" s="18"/>
+      <c r="AX26" s="18"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C27" s="11" t="b">
         <v>0</v>
@@ -5008,7 +5021,7 @@
         <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE27" s="26">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="AF27" t="s">
         <v>112</v>
@@ -5070,10 +5083,10 @@
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C28" s="11" t="b">
         <v>0</v>
@@ -5160,7 +5173,7 @@
         <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE28" s="26">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="AF28" t="s">
         <v>112</v>
@@ -5222,10 +5235,10 @@
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C29" s="11" t="b">
         <v>0</v>
@@ -5312,7 +5325,7 @@
         <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE29" s="26">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF29" t="s">
         <v>112</v>
@@ -5373,39 +5386,163 @@
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-      <c r="C30" s="11"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="41"/>
-      <c r="AE30" s="26"/>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
-      <c r="AM30" s="2"/>
-      <c r="AO30" s="2"/>
-      <c r="AP30" s="17"/>
-      <c r="AR30" s="2"/>
-      <c r="AS30" s="12"/>
-      <c r="AT30" s="12"/>
-      <c r="AU30" s="12"/>
-      <c r="AV30" s="18"/>
-      <c r="AW30" s="18"/>
-      <c r="AX30" s="18"/>
+      <c r="A30" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30">
+        <v>1000</v>
+      </c>
+      <c r="G30">
+        <v>500</v>
+      </c>
+      <c r="H30" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" t="s">
+        <v>167</v>
+      </c>
+      <c r="L30" t="s">
+        <v>215</v>
+      </c>
+      <c r="M30" t="s">
+        <v>202</v>
+      </c>
+      <c r="N30" s="26">
+        <v>0</v>
+      </c>
+      <c r="O30" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30">
+        <v>75</v>
+      </c>
+      <c r="S30">
+        <v>50</v>
+      </c>
+      <c r="T30">
+        <v>60</v>
+      </c>
+      <c r="U30" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>10</v>
+      </c>
+      <c r="X30" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y30" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z30" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA30" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB30" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC30" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD30" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE30" s="26">
+        <v>0.16</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH30" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI30">
+        <v>30</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK30">
+        <v>5</v>
+      </c>
+      <c r="AL30">
+        <v>200</v>
+      </c>
+      <c r="AM30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP30" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ30">
+        <v>200</v>
+      </c>
+      <c r="AR30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS30" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT30" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU30" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV30" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX30" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>330</v>
+      <c r="A31" s="34" t="s">
+        <v>327</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C31" s="11" t="b">
         <v>0</v>
@@ -5489,10 +5626,10 @@
         <v>156</v>
       </c>
       <c r="AD31" s="41">
-        <v>4.4999999999999998E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE31" s="26">
-        <v>4.4999999999999998E-2</v>
+        <v>0.2</v>
       </c>
       <c r="AF31" t="s">
         <v>112</v>
@@ -5553,163 +5690,39 @@
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>332</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="C32" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>211</v>
-      </c>
-      <c r="E32" t="s">
-        <v>188</v>
-      </c>
-      <c r="F32">
-        <v>1000</v>
-      </c>
-      <c r="G32">
-        <v>500</v>
-      </c>
-      <c r="H32" t="s">
-        <v>109</v>
-      </c>
-      <c r="I32" t="s">
-        <v>109</v>
-      </c>
-      <c r="J32" t="s">
-        <v>208</v>
-      </c>
-      <c r="K32" t="s">
-        <v>167</v>
-      </c>
-      <c r="L32" t="s">
-        <v>215</v>
-      </c>
-      <c r="M32" t="s">
-        <v>202</v>
-      </c>
-      <c r="N32" s="26">
-        <v>0</v>
-      </c>
-      <c r="O32" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P32" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q32">
-        <v>3</v>
-      </c>
-      <c r="R32">
-        <v>75</v>
-      </c>
-      <c r="S32">
-        <v>50</v>
-      </c>
-      <c r="T32">
-        <v>60</v>
-      </c>
-      <c r="U32" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>10</v>
-      </c>
-      <c r="X32" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y32" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z32" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA32" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB32" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC32" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD32" s="41">
-        <v>0.06</v>
-      </c>
-      <c r="AE32" s="26">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG32" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH32" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI32">
-        <v>30</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK32">
-        <v>5</v>
-      </c>
-      <c r="AL32">
-        <v>200</v>
-      </c>
-      <c r="AM32" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN32">
-        <v>1</v>
-      </c>
-      <c r="AO32" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP32" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ32">
-        <v>200</v>
-      </c>
-      <c r="AR32" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS32" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT32" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU32" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV32" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW32" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX32" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="11"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="26"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="17"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="12"/>
+      <c r="AT32" s="12"/>
+      <c r="AU32" s="12"/>
+      <c r="AV32" s="18"/>
+      <c r="AW32" s="18"/>
+      <c r="AX32" s="18"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C33" s="11" t="b">
         <v>0</v>
@@ -5793,10 +5806,10 @@
         <v>156</v>
       </c>
       <c r="AD33" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AE33" s="26">
-        <v>0.12</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AF33" t="s">
         <v>112</v>
@@ -5858,10 +5871,10 @@
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C34" s="11" t="b">
         <v>0</v>
@@ -5945,10 +5958,10 @@
         <v>156</v>
       </c>
       <c r="AD34" s="41">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="AE34" s="26">
-        <v>0.158</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="AF34" t="s">
         <v>112</v>
@@ -6010,10 +6023,10 @@
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C35" s="11" t="b">
         <v>0</v>
@@ -6097,10 +6110,10 @@
         <v>156</v>
       </c>
       <c r="AD35" s="41">
-        <v>0.105</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AE35" s="26">
-        <v>0.19500000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="AF35" t="s">
         <v>112</v>
@@ -6161,42 +6174,166 @@
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-      <c r="C36" s="11"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="41"/>
-      <c r="AE36" s="26"/>
-      <c r="AG36" s="2"/>
-      <c r="AH36" s="2"/>
-      <c r="AM36" s="2"/>
-      <c r="AO36" s="2"/>
-      <c r="AP36" s="17"/>
-      <c r="AR36" s="2"/>
-      <c r="AS36" s="12"/>
-      <c r="AT36" s="12"/>
-      <c r="AU36" s="12"/>
-      <c r="AV36" s="18"/>
-      <c r="AW36" s="18"/>
-      <c r="AX36" s="18"/>
+      <c r="A36" t="s">
+        <v>336</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C36" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36">
+        <v>1000</v>
+      </c>
+      <c r="G36">
+        <v>500</v>
+      </c>
+      <c r="H36" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" t="s">
+        <v>109</v>
+      </c>
+      <c r="J36" t="s">
+        <v>208</v>
+      </c>
+      <c r="K36" t="s">
+        <v>167</v>
+      </c>
+      <c r="L36" t="s">
+        <v>215</v>
+      </c>
+      <c r="M36" t="s">
+        <v>202</v>
+      </c>
+      <c r="N36" s="26">
+        <v>0</v>
+      </c>
+      <c r="O36" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P36" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36">
+        <v>75</v>
+      </c>
+      <c r="S36">
+        <v>50</v>
+      </c>
+      <c r="T36">
+        <v>60</v>
+      </c>
+      <c r="U36" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>10</v>
+      </c>
+      <c r="X36" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y36" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z36" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA36" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB36" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC36" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD36" s="41">
+        <v>0.09</v>
+      </c>
+      <c r="AE36" s="26">
+        <v>0.158</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH36" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI36">
+        <v>30</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK36">
+        <v>5</v>
+      </c>
+      <c r="AL36">
+        <v>200</v>
+      </c>
+      <c r="AM36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP36" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ36">
+        <v>200</v>
+      </c>
+      <c r="AR36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS36" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT36" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU36" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV36" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX36" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="C37" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>211</v>
@@ -6270,17 +6407,17 @@
       <c r="AA37" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB37" s="53">
-        <v>4.3987499999999999E-2</v>
+      <c r="AB37" s="26">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AC37" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AD37" s="41">
-        <v>4.4999999999999998E-2</v>
+        <v>0.105</v>
       </c>
       <c r="AE37" s="26">
-        <v>4.4999999999999998E-2</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="AF37" t="s">
         <v>112</v>
@@ -6310,14 +6447,13 @@
         <v>1</v>
       </c>
       <c r="AO37" s="2" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="AP37" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ37" s="52">
-        <f>225068282*0.75</f>
-        <v>168801211.5</v>
+      <c r="AQ37">
+        <v>200</v>
       </c>
       <c r="AR37" s="2" t="s">
         <v>113</v>
@@ -6342,167 +6478,42 @@
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>362</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="C38" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>211</v>
-      </c>
-      <c r="E38" t="s">
-        <v>188</v>
-      </c>
-      <c r="F38">
-        <v>1000</v>
-      </c>
-      <c r="G38">
-        <v>500</v>
-      </c>
-      <c r="H38" t="s">
-        <v>109</v>
-      </c>
-      <c r="I38" t="s">
-        <v>109</v>
-      </c>
-      <c r="J38" t="s">
-        <v>208</v>
-      </c>
-      <c r="K38" t="s">
-        <v>167</v>
-      </c>
-      <c r="L38" t="s">
-        <v>215</v>
-      </c>
-      <c r="M38" t="s">
-        <v>202</v>
-      </c>
-      <c r="N38" s="26">
-        <v>0</v>
-      </c>
-      <c r="O38" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P38" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q38">
-        <v>3</v>
-      </c>
-      <c r="R38">
-        <v>75</v>
-      </c>
-      <c r="S38">
-        <v>50</v>
-      </c>
-      <c r="T38">
-        <v>60</v>
-      </c>
-      <c r="U38" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>10</v>
-      </c>
-      <c r="X38" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y38" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z38" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA38" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB38" s="53">
-        <v>5.6596874999999998E-2</v>
-      </c>
-      <c r="AC38" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD38" s="41">
-        <v>0.06</v>
-      </c>
-      <c r="AE38" s="26">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG38" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH38" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI38">
-        <v>30</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK38">
-        <v>5</v>
-      </c>
-      <c r="AL38">
-        <v>200</v>
-      </c>
-      <c r="AM38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN38">
-        <v>1</v>
-      </c>
-      <c r="AO38" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP38" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ38" s="52">
-        <f t="shared" ref="AQ38:AQ41" si="0">225068282*0.75</f>
-        <v>168801211.5</v>
-      </c>
-      <c r="AR38" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS38" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT38" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU38" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV38" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW38" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX38" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="11"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="41"/>
+      <c r="AE38" s="26"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AO38" s="2"/>
+      <c r="AP38" s="17"/>
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="12"/>
+      <c r="AT38" s="12"/>
+      <c r="AU38" s="12"/>
+      <c r="AV38" s="18"/>
+      <c r="AW38" s="18"/>
+      <c r="AX38" s="18"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="C39" s="51" t="b">
-        <v>1</v>
+        <v>356</v>
+      </c>
+      <c r="C39" s="11" t="b">
+        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>211</v>
@@ -6576,17 +6587,17 @@
       <c r="AA39" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB39" s="53">
-        <v>6.7799999999999999E-2</v>
+      <c r="AB39" s="60">
+        <v>4.3987499999999999E-2</v>
       </c>
       <c r="AC39" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AD39" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AE39" s="26">
-        <v>0.12</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AF39" t="s">
         <v>112</v>
@@ -6615,14 +6626,14 @@
       <c r="AN39">
         <v>1</v>
       </c>
-      <c r="AO39" s="50" t="s">
+      <c r="AO39" s="2" t="s">
         <v>114</v>
       </c>
       <c r="AP39" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ39" s="52">
-        <f t="shared" si="0"/>
+      <c r="AQ39" s="57">
+        <f>225068282*0.75</f>
         <v>168801211.5</v>
       </c>
       <c r="AR39" s="2" t="s">
@@ -6649,13 +6660,13 @@
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="C40" s="51" t="b">
-        <v>1</v>
+        <v>357</v>
+      </c>
+      <c r="C40" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>211</v>
@@ -6729,17 +6740,17 @@
       <c r="AA40" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB40" s="53">
-        <v>7.7596874999999996E-2</v>
+      <c r="AB40" s="60">
+        <v>5.6596874999999998E-2</v>
       </c>
       <c r="AC40" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AD40" s="41">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="AE40" s="26">
-        <v>0.158</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="AF40" t="s">
         <v>112</v>
@@ -6768,14 +6779,14 @@
       <c r="AN40">
         <v>1</v>
       </c>
-      <c r="AO40" s="50" t="s">
+      <c r="AO40" s="51" t="s">
         <v>114</v>
       </c>
       <c r="AP40" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ40" s="52">
-        <f t="shared" si="0"/>
+      <c r="AQ40" s="57">
+        <f t="shared" ref="AQ40:AQ43" si="0">225068282*0.75</f>
         <v>168801211.5</v>
       </c>
       <c r="AR40" s="2" t="s">
@@ -6802,13 +6813,13 @@
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="C41" s="51" t="b">
-        <v>1</v>
+        <v>358</v>
+      </c>
+      <c r="C41" s="52" t="b">
+        <v>0</v>
       </c>
       <c r="D41" t="s">
         <v>211</v>
@@ -6882,17 +6893,17 @@
       <c r="AA41" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB41" s="53">
-        <v>8.5987499999999994E-2</v>
+      <c r="AB41" s="60">
+        <v>6.7799999999999999E-2</v>
       </c>
       <c r="AC41" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AD41" s="41">
-        <v>0.105</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AE41" s="26">
-        <v>0.19500000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="AF41" t="s">
         <v>112</v>
@@ -6921,13 +6932,13 @@
       <c r="AN41">
         <v>1</v>
       </c>
-      <c r="AO41" s="50" t="s">
+      <c r="AO41" s="51" t="s">
         <v>114</v>
       </c>
       <c r="AP41" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ41" s="52">
+      <c r="AQ41" s="57">
         <f t="shared" si="0"/>
         <v>168801211.5</v>
       </c>
@@ -6954,380 +6965,686 @@
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="C42" s="11"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="26"/>
-      <c r="AD42" s="41"/>
-      <c r="AE42" s="26"/>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="2"/>
-      <c r="AM42" s="2"/>
-      <c r="AO42" s="2"/>
-      <c r="AP42" s="17"/>
-      <c r="AR42" s="2"/>
-      <c r="AS42" s="12"/>
-      <c r="AT42" s="12"/>
-      <c r="AU42" s="12"/>
-      <c r="AV42" s="18"/>
-      <c r="AW42" s="18"/>
-      <c r="AX42" s="18"/>
+      <c r="A42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="C42" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42" t="s">
+        <v>188</v>
+      </c>
+      <c r="F42">
+        <v>1000</v>
+      </c>
+      <c r="G42">
+        <v>500</v>
+      </c>
+      <c r="H42" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" t="s">
+        <v>208</v>
+      </c>
+      <c r="K42" t="s">
+        <v>167</v>
+      </c>
+      <c r="L42" t="s">
+        <v>215</v>
+      </c>
+      <c r="M42" t="s">
+        <v>202</v>
+      </c>
+      <c r="N42" s="26">
+        <v>0</v>
+      </c>
+      <c r="O42" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>75</v>
+      </c>
+      <c r="S42">
+        <v>50</v>
+      </c>
+      <c r="T42">
+        <v>60</v>
+      </c>
+      <c r="U42" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>10</v>
+      </c>
+      <c r="X42" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y42" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z42" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA42" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB42" s="60">
+        <v>7.7596874999999996E-2</v>
+      </c>
+      <c r="AC42" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD42" s="41">
+        <v>0.09</v>
+      </c>
+      <c r="AE42" s="26">
+        <v>0.158</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH42" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI42">
+        <v>30</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK42">
+        <v>5</v>
+      </c>
+      <c r="AL42">
+        <v>200</v>
+      </c>
+      <c r="AM42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP42" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ42" s="57">
+        <f t="shared" si="0"/>
+        <v>168801211.5</v>
+      </c>
+      <c r="AR42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS42" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT42" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU42" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV42" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW42" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX42" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B43" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="26"/>
-      <c r="Z43" s="26"/>
-      <c r="AA43" s="26"/>
-      <c r="AB43" s="26"/>
-      <c r="AC43" s="26"/>
-      <c r="AD43" s="41"/>
-      <c r="AE43" s="26"/>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="2"/>
-      <c r="AM43" s="2"/>
-      <c r="AO43" s="2"/>
-      <c r="AP43" s="17"/>
-      <c r="AR43" s="2"/>
-      <c r="AS43" s="12"/>
-      <c r="AT43" s="12"/>
-      <c r="AU43" s="12"/>
-      <c r="AV43" s="18"/>
-      <c r="AW43" s="18"/>
-      <c r="AX43" s="18"/>
+      <c r="A43" t="s">
+        <v>365</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C43" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43">
+        <v>1000</v>
+      </c>
+      <c r="G43">
+        <v>500</v>
+      </c>
+      <c r="H43" t="s">
+        <v>109</v>
+      </c>
+      <c r="I43" t="s">
+        <v>109</v>
+      </c>
+      <c r="J43" t="s">
+        <v>208</v>
+      </c>
+      <c r="K43" t="s">
+        <v>167</v>
+      </c>
+      <c r="L43" t="s">
+        <v>215</v>
+      </c>
+      <c r="M43" t="s">
+        <v>202</v>
+      </c>
+      <c r="N43" s="26">
+        <v>0</v>
+      </c>
+      <c r="O43" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+      <c r="R43">
+        <v>75</v>
+      </c>
+      <c r="S43">
+        <v>50</v>
+      </c>
+      <c r="T43">
+        <v>60</v>
+      </c>
+      <c r="U43" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>10</v>
+      </c>
+      <c r="X43" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y43" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z43" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA43" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB43" s="60">
+        <v>8.5987499999999994E-2</v>
+      </c>
+      <c r="AC43" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD43" s="41">
+        <v>0.105</v>
+      </c>
+      <c r="AE43" s="26">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH43" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI43">
+        <v>30</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK43">
+        <v>5</v>
+      </c>
+      <c r="AL43">
+        <v>200</v>
+      </c>
+      <c r="AM43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP43" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ43" s="57">
+        <f t="shared" si="0"/>
+        <v>168801211.5</v>
+      </c>
+      <c r="AR43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS43" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT43" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU43" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV43" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX43" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" s="34" t="s">
-        <v>341</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="C44" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>211</v>
-      </c>
-      <c r="E44" t="s">
-        <v>188</v>
-      </c>
-      <c r="F44">
-        <v>1000</v>
-      </c>
-      <c r="G44">
-        <v>500</v>
-      </c>
-      <c r="H44" t="s">
-        <v>109</v>
-      </c>
-      <c r="I44" t="s">
-        <v>109</v>
-      </c>
-      <c r="J44" t="s">
-        <v>208</v>
-      </c>
-      <c r="K44" t="s">
-        <v>167</v>
-      </c>
-      <c r="L44" t="s">
-        <v>215</v>
-      </c>
-      <c r="M44" t="s">
-        <v>202</v>
-      </c>
-      <c r="N44" s="26">
-        <v>0</v>
-      </c>
-      <c r="O44" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P44" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q44">
-        <v>3</v>
-      </c>
-      <c r="R44">
-        <v>75</v>
-      </c>
-      <c r="S44">
-        <v>50</v>
-      </c>
-      <c r="T44">
-        <v>60</v>
-      </c>
-      <c r="U44" s="26">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>10</v>
-      </c>
-      <c r="X44" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y44" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z44" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA44" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB44" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC44" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD44" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE44" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG44" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH44" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI44">
-        <v>30</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK44">
-        <v>5</v>
-      </c>
-      <c r="AL44">
-        <v>200</v>
-      </c>
-      <c r="AM44" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AO44" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP44" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ44">
-        <v>200</v>
-      </c>
-      <c r="AR44" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS44" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT44" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU44" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV44" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW44" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX44" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="C44" s="11"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="41"/>
+      <c r="AE44" s="26"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AM44" s="2"/>
+      <c r="AO44" s="2"/>
+      <c r="AP44" s="17"/>
+      <c r="AR44" s="2"/>
+      <c r="AS44" s="12"/>
+      <c r="AT44" s="12"/>
+      <c r="AU44" s="12"/>
+      <c r="AV44" s="18"/>
+      <c r="AW44" s="18"/>
+      <c r="AX44" s="18"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
+      <c r="B45" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="26"/>
+      <c r="Z45" s="26"/>
+      <c r="AA45" s="26"/>
+      <c r="AB45" s="26"/>
+      <c r="AC45" s="26"/>
+      <c r="AD45" s="41"/>
+      <c r="AE45" s="26"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AM45" s="2"/>
+      <c r="AO45" s="2"/>
+      <c r="AP45" s="17"/>
+      <c r="AR45" s="2"/>
+      <c r="AS45" s="12"/>
+      <c r="AT45" s="12"/>
+      <c r="AU45" s="12"/>
+      <c r="AV45" s="18"/>
+      <c r="AW45" s="18"/>
+      <c r="AX45" s="18"/>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A46" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C46" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" t="s">
+        <v>188</v>
+      </c>
+      <c r="F46">
+        <v>1000</v>
+      </c>
+      <c r="G46">
+        <v>500</v>
+      </c>
+      <c r="H46" t="s">
+        <v>109</v>
+      </c>
+      <c r="I46" t="s">
+        <v>109</v>
+      </c>
+      <c r="J46" t="s">
+        <v>208</v>
+      </c>
+      <c r="K46" t="s">
+        <v>167</v>
+      </c>
+      <c r="L46" t="s">
+        <v>215</v>
+      </c>
+      <c r="M46" t="s">
+        <v>202</v>
+      </c>
+      <c r="N46" s="26">
+        <v>0</v>
+      </c>
+      <c r="O46" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q46">
+        <v>3</v>
+      </c>
+      <c r="R46">
+        <v>75</v>
+      </c>
+      <c r="S46">
+        <v>50</v>
+      </c>
+      <c r="T46">
+        <v>60</v>
+      </c>
+      <c r="U46" s="26">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>10</v>
+      </c>
+      <c r="X46" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y46" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z46" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA46" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB46" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC46" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD46" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE46" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH46" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI46">
+        <v>30</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK46">
+        <v>5</v>
+      </c>
+      <c r="AL46">
+        <v>200</v>
+      </c>
+      <c r="AM46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP46" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ46">
+        <v>200</v>
+      </c>
+      <c r="AR46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS46" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT46" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU46" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV46" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX46" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A47" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B47" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="C45" s="11" t="b">
+      <c r="C47" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>211</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E47" t="s">
         <v>188</v>
       </c>
-      <c r="F45">
+      <c r="F47">
         <v>1000</v>
       </c>
-      <c r="G45">
+      <c r="G47">
         <v>500</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H47" t="s">
         <v>109</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I47" t="s">
         <v>109</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J47" t="s">
         <v>208</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K47" t="s">
         <v>167</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L47" t="s">
         <v>215</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M47" t="s">
         <v>202</v>
       </c>
-      <c r="N45" s="26">
+      <c r="N47" s="26">
         <v>0</v>
       </c>
-      <c r="O45" s="18" t="b">
+      <c r="O47" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P45" s="26">
+      <c r="P47" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q45">
+      <c r="Q47">
         <v>3</v>
       </c>
-      <c r="R45">
+      <c r="R47">
         <v>75</v>
       </c>
-      <c r="S45">
+      <c r="S47">
         <v>50</v>
       </c>
-      <c r="T45">
+      <c r="T47">
         <v>60</v>
       </c>
-      <c r="U45" s="26">
+      <c r="U47" s="26">
         <v>0.02</v>
       </c>
-      <c r="V45">
+      <c r="V47">
         <v>0</v>
       </c>
-      <c r="W45">
+      <c r="W47">
         <v>10</v>
       </c>
-      <c r="X45" s="26">
+      <c r="X47" s="26">
         <v>0.04</v>
       </c>
-      <c r="Y45" s="26">
+      <c r="Y47" s="26">
         <v>0.04</v>
       </c>
-      <c r="Z45" s="26">
+      <c r="Z47" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA45" s="26">
+      <c r="AA47" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB45" s="26">
+      <c r="AB47" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC45" s="26" t="s">
+      <c r="AC47" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD45" s="41">
+      <c r="AD47" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE45" s="26">
+      <c r="AE47" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF45" t="s">
+      <c r="AF47" t="s">
         <v>112</v>
       </c>
-      <c r="AG45" s="2" t="s">
+      <c r="AG47" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH45" s="2" t="s">
+      <c r="AH47" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI45">
+      <c r="AI47">
         <v>30</v>
       </c>
-      <c r="AJ45" t="s">
+      <c r="AJ47" t="s">
         <v>115</v>
       </c>
-      <c r="AK45">
+      <c r="AK47">
         <v>5</v>
       </c>
-      <c r="AL45">
+      <c r="AL47">
         <v>200</v>
       </c>
-      <c r="AM45" s="2" t="s">
+      <c r="AM47" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN45">
+      <c r="AN47">
         <v>1</v>
       </c>
-      <c r="AO45" s="2" t="s">
+      <c r="AO47" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP45" s="17">
+      <c r="AP47" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ45">
+      <c r="AQ47">
         <v>200</v>
       </c>
-      <c r="AR45" s="2" t="s">
+      <c r="AR47" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS45" s="12">
+      <c r="AS47" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT45" s="12">
+      <c r="AT47" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU45" s="12">
+      <c r="AU47" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV45" s="18" t="b">
+      <c r="AV47" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW45" s="18" t="b">
+      <c r="AW47" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX45" s="18" t="b">
+      <c r="AX47" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AB48" s="53"/>
-    </row>
-    <row r="49" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB49" s="53"/>
     </row>
     <row r="50" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB50" s="53"/>
+      <c r="AB50" s="60"/>
     </row>
     <row r="51" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB51" s="53"/>
+      <c r="AB51" s="60"/>
     </row>
     <row r="52" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB52" s="53"/>
+      <c r="AB52" s="60"/>
+    </row>
+    <row r="53" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB53" s="60"/>
+    </row>
+    <row r="54" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB54" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7344,82 +7661,82 @@
     <mergeCell ref="H4:J4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM47">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH47">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG9 AG13:AG45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG9 AG13:AG47">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR9 AR13:AR45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR9 AR13:AR47">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O9 C6:C10 O13:O45 C13:C45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O9 C6:C10 O13:O47 C13:C47">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AA6:AA9 U6:U9 U13:U45 AA13:AA45">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AA6:AA9 U6:U9 AA13:AA47 U13:U47">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="V6:W9 V13:W45">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="V6:W9 V13:W47">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="X6:Z9 AB6:AB9 AD6:AD9 AD13:AD45 X13:Z45 AB13:AB36 AB42:AB45">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="X6:Z9 AB6:AB9 AD6:AD9 AB44:AB47 AB13:AB38 X13:Z47 AD13:AD47">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AI6:AI9 AI13:AI45">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AI6:AI9 AI13:AI47">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AS6:AT9 AS13:AT45">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AS6:AT9 AS13:AT47">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AU6:AU9 AU13:AU45">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AU6:AU9 AU13:AU47">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AE6:AE9 AE13:AE45">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AE6:AE9 AE13:AE47">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AK6:AK9 AK13:AK45">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AK6:AK9 AK13:AK47">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6:AL9 AL13:AL45">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6:AL9 AL13:AL47">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN45">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN47">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AC6:AC9 AC13:AC45"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV6:AX9 AV13:AX45">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AC6:AC9 AC13:AC47"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV6:AX9 AV13:AX47">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO47">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP45">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP47">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="R6:R9 R13:R45">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="R6:R9 R13:R47">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:I9 H13:I45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:I9 H13:I47">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -7432,37 +7749,37 @@
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K9 K13:K45</xm:sqref>
+          <xm:sqref>K6:K9 K13:K47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L9 L13:L45</xm:sqref>
+          <xm:sqref>L6:L9 L13:L47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E9 E13:E45</xm:sqref>
+          <xm:sqref>E6:E9 E13:E47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>D6:D9 D13:D45</xm:sqref>
+          <xm:sqref>D6:D9 D13:D47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J9 J13:J45</xm:sqref>
+          <xm:sqref>J6:J9 J13:J47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M9 M13:M45</xm:sqref>
+          <xm:sqref>M6:M9 M13:M47</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -2133,10 +2133,10 @@
   <dimension ref="A1:AX54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,7 +3206,7 @@
       <c r="B14" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="C14" s="11" t="b">
+      <c r="C14" s="52" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="s">
@@ -3663,7 +3663,7 @@
         <v>294</v>
       </c>
       <c r="C17" s="52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="50" t="s">
         <v>211</v>
@@ -3815,7 +3815,7 @@
         <v>294</v>
       </c>
       <c r="C18" s="52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="50" t="s">
         <v>211</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
-      <c r="C25" s="11"/>
+      <c r="C25" s="52"/>
       <c r="N25" s="26"/>
       <c r="O25" s="18"/>
       <c r="P25" s="26"/>
@@ -4903,7 +4903,7 @@
       <c r="B26" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="C26" s="11"/>
+      <c r="C26" s="52"/>
       <c r="N26" s="26"/>
       <c r="O26" s="18"/>
       <c r="P26" s="26"/>
@@ -4936,7 +4936,7 @@
       <c r="B27" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="C27" s="11" t="b">
+      <c r="C27" s="52" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="s">
@@ -5088,7 +5088,7 @@
       <c r="B28" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="C28" s="11" t="b">
+      <c r="C28" s="52" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="s">
@@ -5240,7 +5240,7 @@
       <c r="B29" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="C29" s="11" t="b">
+      <c r="C29" s="52" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="s">
@@ -5392,7 +5392,7 @@
       <c r="B30" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="C30" s="11" t="b">
+      <c r="C30" s="52" t="b">
         <v>0</v>
       </c>
       <c r="D30" t="s">
@@ -5544,7 +5544,7 @@
       <c r="B31" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="C31" s="11" t="b">
+      <c r="C31" s="52" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="s">
@@ -5691,7 +5691,7 @@
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B32" s="19"/>
-      <c r="C32" s="11"/>
+      <c r="C32" s="52"/>
       <c r="N32" s="26"/>
       <c r="O32" s="18"/>
       <c r="P32" s="26"/>
@@ -5724,7 +5724,7 @@
       <c r="B33" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="C33" s="11" t="b">
+      <c r="C33" s="52" t="b">
         <v>0</v>
       </c>
       <c r="D33" t="s">
@@ -5876,7 +5876,7 @@
       <c r="B34" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="C34" s="11" t="b">
+      <c r="C34" s="52" t="b">
         <v>0</v>
       </c>
       <c r="D34" t="s">
@@ -6028,7 +6028,7 @@
       <c r="B35" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="C35" s="11" t="b">
+      <c r="C35" s="52" t="b">
         <v>0</v>
       </c>
       <c r="D35" t="s">
@@ -6180,7 +6180,7 @@
       <c r="B36" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="C36" s="11" t="b">
+      <c r="C36" s="52" t="b">
         <v>0</v>
       </c>
       <c r="D36" t="s">
@@ -6332,7 +6332,7 @@
       <c r="B37" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="C37" s="11" t="b">
+      <c r="C37" s="52" t="b">
         <v>0</v>
       </c>
       <c r="D37" t="s">
@@ -6513,7 +6513,7 @@
         <v>356</v>
       </c>
       <c r="C39" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
         <v>211</v>
@@ -6666,7 +6666,7 @@
         <v>357</v>
       </c>
       <c r="C40" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
         <v>211</v>
@@ -6819,7 +6819,7 @@
         <v>358</v>
       </c>
       <c r="C41" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>211</v>
@@ -6972,7 +6972,7 @@
         <v>359</v>
       </c>
       <c r="C42" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
         <v>211</v>
@@ -7125,7 +7125,7 @@
         <v>360</v>
       </c>
       <c r="C43" s="52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
         <v>211</v>
@@ -7335,7 +7335,7 @@
         <v>353</v>
       </c>
       <c r="C46" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
         <v>211</v>
@@ -7486,8 +7486,8 @@
       <c r="B47" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="C47" s="11" t="b">
-        <v>0</v>
+      <c r="C47" s="52" t="b">
+        <v>1</v>
       </c>
       <c r="D47" t="s">
         <v>211</v>

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="370">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1173,6 +1173,12 @@
   <si>
     <t>D1F075-average_gn2</t>
   </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
 </sst>
 </file>
 
@@ -1182,7 +1188,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="171" formatCode="0.000000%"/>
+    <numFmt numFmtId="167" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1427,28 +1433,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1461,7 +1446,28 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1952,7 +1958,7 @@
         <f t="shared" ref="B6:B7" si="0">(A6-$B$2)/$B$3</f>
         <v>0.19499999999999998</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="42">
         <f>A6-(B6^2)/2</f>
         <v>8.5987499999999994E-2</v>
       </c>
@@ -1965,7 +1971,7 @@
         <f t="shared" si="0"/>
         <v>0.1575</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="42">
         <f t="shared" ref="C7:C10" si="1">A7-(B7^2)/2</f>
         <v>7.7596874999999996E-2</v>
       </c>
@@ -1978,7 +1984,7 @@
         <f>(A8-$B$2)/$B$3</f>
         <v>0.12</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="42">
         <f t="shared" si="1"/>
         <v>6.7799999999999999E-2</v>
       </c>
@@ -1991,7 +1997,7 @@
         <f t="shared" ref="B9:B10" si="2">(A9-$B$2)/$B$3</f>
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="42">
         <f t="shared" si="1"/>
         <v>5.6596874999999998E-2</v>
       </c>
@@ -2004,7 +2010,7 @@
         <f t="shared" si="2"/>
         <v>4.4999999999999991E-2</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="42">
         <f t="shared" si="1"/>
         <v>4.3987499999999999E-2</v>
       </c>
@@ -2130,13 +2136,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX54"/>
+  <dimension ref="A1:AX58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AC6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,61 +2335,61 @@
       </c>
     </row>
     <row r="4" spans="1:50" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="44" t="s">
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="44"/>
+      <c r="L4" s="55"/>
       <c r="M4" s="28"/>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="44" t="s">
+      <c r="O4" s="56"/>
+      <c r="P4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
       <c r="X4" s="29"/>
       <c r="Y4" s="29"/>
-      <c r="Z4" s="45" t="s">
+      <c r="Z4" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="47" t="s">
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
       <c r="AF4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AG4" s="42" t="s">
+      <c r="AG4" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
       <c r="AJ4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2391,17 +2397,17 @@
       <c r="AL4" s="21"/>
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
-      <c r="AO4" s="47" t="s">
+      <c r="AO4" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="48" t="s">
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58"/>
       <c r="AV4" s="15"/>
       <c r="AW4" s="22"/>
       <c r="AX4" s="20"/>
@@ -2566,7 +2572,7 @@
         <v>174</v>
       </c>
       <c r="C6" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>211</v>
@@ -2644,7 +2650,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AC6" s="26" t="s">
-        <v>156</v>
+        <v>368</v>
       </c>
       <c r="AD6" s="41">
         <v>7.4999999999999997E-2</v>
@@ -2656,16 +2662,16 @@
         <v>112</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>158</v>
+        <v>369</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>179</v>
+        <v>346</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="AK6">
         <v>5</v>
@@ -3206,7 +3212,7 @@
       <c r="B14" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="C14" s="52" t="b">
+      <c r="C14" s="45" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="s">
@@ -3358,7 +3364,7 @@
       <c r="B15" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="C15" s="52" t="b">
+      <c r="C15" s="45" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="s">
@@ -3510,7 +3516,7 @@
       <c r="B16" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="C16" s="52" t="b">
+      <c r="C16" s="45" t="b">
         <v>0</v>
       </c>
       <c r="D16" t="s">
@@ -3655,307 +3661,307 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:50" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+    <row r="17" spans="1:50" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
         <v>366</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="C17" s="52" t="b">
+      <c r="C17" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="43">
         <v>1000</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="43">
         <v>500</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="L17" s="50" t="s">
+      <c r="L17" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="M17" s="50" t="s">
+      <c r="M17" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="N17" s="58">
+      <c r="N17" s="51">
         <v>0.02</v>
       </c>
-      <c r="O17" s="55" t="b">
+      <c r="O17" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="P17" s="58">
+      <c r="P17" s="51">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q17" s="50">
+      <c r="Q17" s="43">
         <v>3</v>
       </c>
-      <c r="R17" s="50">
+      <c r="R17" s="43">
         <v>75</v>
       </c>
-      <c r="S17" s="50">
+      <c r="S17" s="43">
         <v>50</v>
       </c>
-      <c r="T17" s="50">
+      <c r="T17" s="43">
         <v>60</v>
       </c>
-      <c r="U17" s="58">
+      <c r="U17" s="51">
         <v>0.02</v>
       </c>
-      <c r="V17" s="50">
+      <c r="V17" s="43">
         <v>0</v>
       </c>
-      <c r="W17" s="50">
+      <c r="W17" s="43">
         <v>10</v>
       </c>
-      <c r="X17" s="58">
+      <c r="X17" s="51">
         <v>0.04</v>
       </c>
-      <c r="Y17" s="58">
+      <c r="Y17" s="51">
         <v>0.04</v>
       </c>
-      <c r="Z17" s="58">
+      <c r="Z17" s="51">
         <v>0.03</v>
       </c>
-      <c r="AA17" s="58">
+      <c r="AA17" s="51">
         <v>0.01</v>
       </c>
-      <c r="AB17" s="58">
+      <c r="AB17" s="51">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC17" s="58" t="s">
+      <c r="AC17" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="AD17" s="59">
+      <c r="AD17" s="52">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE17" s="58">
+      <c r="AE17" s="51">
         <v>0.12</v>
       </c>
-      <c r="AF17" s="50" t="s">
+      <c r="AF17" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="AG17" s="51" t="s">
+      <c r="AG17" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="AH17" s="51" t="s">
+      <c r="AH17" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="AI17" s="50">
+      <c r="AI17" s="43">
         <v>30</v>
       </c>
-      <c r="AJ17" s="50" t="s">
+      <c r="AJ17" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="AK17" s="50">
+      <c r="AK17" s="43">
         <v>5</v>
       </c>
-      <c r="AL17" s="50">
+      <c r="AL17" s="43">
         <v>200</v>
       </c>
-      <c r="AM17" s="51" t="s">
+      <c r="AM17" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="AN17" s="50">
+      <c r="AN17" s="43">
         <v>1</v>
       </c>
-      <c r="AO17" s="51" t="s">
+      <c r="AO17" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="AP17" s="54">
+      <c r="AP17" s="47">
         <v>0.75</v>
       </c>
-      <c r="AQ17" s="50">
+      <c r="AQ17" s="43">
         <v>200</v>
       </c>
-      <c r="AR17" s="51" t="s">
+      <c r="AR17" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="AS17" s="53">
+      <c r="AS17" s="46">
         <v>0.25</v>
       </c>
-      <c r="AT17" s="53">
+      <c r="AT17" s="46">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU17" s="53">
+      <c r="AU17" s="46">
         <v>0.05</v>
       </c>
-      <c r="AV17" s="55" t="b">
+      <c r="AV17" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="AW17" s="55" t="b">
+      <c r="AW17" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="AX17" s="55" t="b">
+      <c r="AX17" s="48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:50" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+    <row r="18" spans="1:50" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
         <v>367</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="C18" s="52" t="b">
+      <c r="C18" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="43">
         <v>1000</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="43">
         <v>500</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="50" t="s">
+      <c r="I18" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="K18" s="50" t="s">
+      <c r="K18" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="L18" s="50" t="s">
+      <c r="L18" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="M18" s="50" t="s">
+      <c r="M18" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="N18" s="58">
+      <c r="N18" s="51">
         <v>-0.02</v>
       </c>
-      <c r="O18" s="55" t="b">
+      <c r="O18" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="P18" s="58">
+      <c r="P18" s="51">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q18" s="50">
+      <c r="Q18" s="43">
         <v>3</v>
       </c>
-      <c r="R18" s="50">
+      <c r="R18" s="43">
         <v>75</v>
       </c>
-      <c r="S18" s="50">
+      <c r="S18" s="43">
         <v>50</v>
       </c>
-      <c r="T18" s="50">
+      <c r="T18" s="43">
         <v>60</v>
       </c>
-      <c r="U18" s="58">
+      <c r="U18" s="51">
         <v>0.02</v>
       </c>
-      <c r="V18" s="50">
+      <c r="V18" s="43">
         <v>0</v>
       </c>
-      <c r="W18" s="50">
+      <c r="W18" s="43">
         <v>10</v>
       </c>
-      <c r="X18" s="58">
+      <c r="X18" s="51">
         <v>0.04</v>
       </c>
-      <c r="Y18" s="58">
+      <c r="Y18" s="51">
         <v>0.04</v>
       </c>
-      <c r="Z18" s="58">
+      <c r="Z18" s="51">
         <v>0.03</v>
       </c>
-      <c r="AA18" s="58">
+      <c r="AA18" s="51">
         <v>0.01</v>
       </c>
-      <c r="AB18" s="58">
+      <c r="AB18" s="51">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC18" s="58" t="s">
+      <c r="AC18" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="AD18" s="59">
+      <c r="AD18" s="52">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE18" s="58">
+      <c r="AE18" s="51">
         <v>0.12</v>
       </c>
-      <c r="AF18" s="50" t="s">
+      <c r="AF18" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="AG18" s="51" t="s">
+      <c r="AG18" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="AH18" s="51" t="s">
+      <c r="AH18" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="AI18" s="50">
+      <c r="AI18" s="43">
         <v>30</v>
       </c>
-      <c r="AJ18" s="50" t="s">
+      <c r="AJ18" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="AK18" s="50">
+      <c r="AK18" s="43">
         <v>5</v>
       </c>
-      <c r="AL18" s="50">
+      <c r="AL18" s="43">
         <v>200</v>
       </c>
-      <c r="AM18" s="51" t="s">
+      <c r="AM18" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="AN18" s="50">
+      <c r="AN18" s="43">
         <v>1</v>
       </c>
-      <c r="AO18" s="51" t="s">
+      <c r="AO18" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="AP18" s="54">
+      <c r="AP18" s="47">
         <v>0.75</v>
       </c>
-      <c r="AQ18" s="50">
+      <c r="AQ18" s="43">
         <v>200</v>
       </c>
-      <c r="AR18" s="51" t="s">
+      <c r="AR18" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="AS18" s="53">
+      <c r="AS18" s="46">
         <v>0.25</v>
       </c>
-      <c r="AT18" s="53">
+      <c r="AT18" s="46">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU18" s="53">
+      <c r="AU18" s="46">
         <v>0.05</v>
       </c>
-      <c r="AV18" s="55" t="b">
+      <c r="AV18" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="AW18" s="55" t="b">
+      <c r="AW18" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="AX18" s="55" t="b">
+      <c r="AX18" s="48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3966,7 +3972,7 @@
       <c r="B19" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C19" s="52" t="b">
+      <c r="C19" s="45" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="s">
@@ -4118,7 +4124,7 @@
       <c r="B20" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C20" s="52" t="b">
+      <c r="C20" s="45" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="s">
@@ -4270,7 +4276,7 @@
       <c r="B21" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C21" s="52" t="b">
+      <c r="C21" s="45" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="s">
@@ -4422,7 +4428,7 @@
       <c r="B22" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C22" s="52" t="b">
+      <c r="C22" s="45" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="s">
@@ -4574,7 +4580,7 @@
       <c r="B23" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C23" s="52" t="b">
+      <c r="C23" s="45" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="s">
@@ -4726,7 +4732,7 @@
       <c r="B24" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C24" s="52" t="b">
+      <c r="C24" s="45" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="s">
@@ -4871,680 +4877,184 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="C25" s="52"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="26"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
-      <c r="AM25" s="2"/>
-      <c r="AO25" s="2"/>
-      <c r="AP25" s="17"/>
-      <c r="AR25" s="2"/>
-      <c r="AS25" s="12"/>
-      <c r="AT25" s="12"/>
-      <c r="AU25" s="12"/>
-      <c r="AV25" s="18"/>
-      <c r="AW25" s="18"/>
-      <c r="AX25" s="18"/>
+    <row r="25" spans="1:50" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="49"/>
+      <c r="C25" s="45"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="51"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="47"/>
+      <c r="AR25" s="44"/>
+      <c r="AS25" s="46"/>
+      <c r="AT25" s="46"/>
+      <c r="AU25" s="46"/>
+      <c r="AV25" s="48"/>
+      <c r="AW25" s="48"/>
+      <c r="AX25" s="48"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B26" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="C26" s="52"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="26"/>
-      <c r="AG26" s="2"/>
-      <c r="AH26" s="2"/>
-      <c r="AM26" s="2"/>
-      <c r="AO26" s="2"/>
-      <c r="AP26" s="17"/>
-      <c r="AR26" s="2"/>
-      <c r="AS26" s="12"/>
-      <c r="AT26" s="12"/>
-      <c r="AU26" s="12"/>
-      <c r="AV26" s="18"/>
-      <c r="AW26" s="18"/>
-      <c r="AX26" s="18"/>
+    <row r="26" spans="1:50" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="49"/>
+      <c r="C26" s="45"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="51"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+      <c r="AM26" s="44"/>
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="47"/>
+      <c r="AR26" s="44"/>
+      <c r="AS26" s="46"/>
+      <c r="AT26" s="46"/>
+      <c r="AU26" s="46"/>
+      <c r="AV26" s="48"/>
+      <c r="AW26" s="48"/>
+      <c r="AX26" s="48"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="C27" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>211</v>
-      </c>
-      <c r="E27" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27">
-        <v>1000</v>
-      </c>
-      <c r="G27">
-        <v>500</v>
-      </c>
-      <c r="H27" t="s">
-        <v>109</v>
-      </c>
-      <c r="I27" t="s">
-        <v>109</v>
-      </c>
-      <c r="J27" t="s">
-        <v>208</v>
-      </c>
-      <c r="K27" t="s">
-        <v>167</v>
-      </c>
-      <c r="L27" t="s">
-        <v>215</v>
-      </c>
-      <c r="M27" t="s">
-        <v>202</v>
-      </c>
-      <c r="N27" s="26">
-        <v>0</v>
-      </c>
-      <c r="O27" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P27" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q27">
-        <v>3</v>
-      </c>
-      <c r="R27">
-        <v>75</v>
-      </c>
-      <c r="S27">
-        <v>50</v>
-      </c>
-      <c r="T27">
-        <v>60</v>
-      </c>
-      <c r="U27" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>10</v>
-      </c>
-      <c r="X27" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y27" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z27" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA27" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB27" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC27" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD27" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE27" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG27" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH27" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI27">
-        <v>30</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK27">
-        <v>5</v>
-      </c>
-      <c r="AL27">
-        <v>200</v>
-      </c>
-      <c r="AM27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN27">
-        <v>1</v>
-      </c>
-      <c r="AO27" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP27" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ27">
-        <v>200</v>
-      </c>
-      <c r="AR27" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS27" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT27" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU27" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV27" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW27" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX27" s="18" t="b">
-        <v>0</v>
-      </c>
+    <row r="27" spans="1:50" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="49"/>
+      <c r="C27" s="45"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="51"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="47"/>
+      <c r="AR27" s="44"/>
+      <c r="AS27" s="46"/>
+      <c r="AT27" s="46"/>
+      <c r="AU27" s="46"/>
+      <c r="AV27" s="48"/>
+      <c r="AW27" s="48"/>
+      <c r="AX27" s="48"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="C28" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>211</v>
-      </c>
-      <c r="E28" t="s">
-        <v>188</v>
-      </c>
-      <c r="F28">
-        <v>1000</v>
-      </c>
-      <c r="G28">
-        <v>500</v>
-      </c>
-      <c r="H28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I28" t="s">
-        <v>109</v>
-      </c>
-      <c r="J28" t="s">
-        <v>208</v>
-      </c>
-      <c r="K28" t="s">
-        <v>167</v>
-      </c>
-      <c r="L28" t="s">
-        <v>215</v>
-      </c>
-      <c r="M28" t="s">
-        <v>202</v>
-      </c>
-      <c r="N28" s="26">
-        <v>0</v>
-      </c>
-      <c r="O28" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P28" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q28">
-        <v>3</v>
-      </c>
-      <c r="R28">
-        <v>75</v>
-      </c>
-      <c r="S28">
-        <v>50</v>
-      </c>
-      <c r="T28">
-        <v>60</v>
-      </c>
-      <c r="U28" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>10</v>
-      </c>
-      <c r="X28" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y28" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z28" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA28" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB28" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC28" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD28" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE28" s="26">
-        <v>0.08</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG28" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH28" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI28">
-        <v>30</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK28">
-        <v>5</v>
-      </c>
-      <c r="AL28">
-        <v>200</v>
-      </c>
-      <c r="AM28" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-      <c r="AO28" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP28" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ28">
-        <v>200</v>
-      </c>
-      <c r="AR28" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS28" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT28" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU28" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV28" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW28" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX28" s="18" t="b">
-        <v>0</v>
-      </c>
+    <row r="28" spans="1:50" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="49"/>
+      <c r="C28" s="45"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="51"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="47"/>
+      <c r="AR28" s="44"/>
+      <c r="AS28" s="46"/>
+      <c r="AT28" s="46"/>
+      <c r="AU28" s="46"/>
+      <c r="AV28" s="48"/>
+      <c r="AW28" s="48"/>
+      <c r="AX28" s="48"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="C29" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>211</v>
-      </c>
-      <c r="E29" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29">
-        <v>1000</v>
-      </c>
-      <c r="G29">
-        <v>500</v>
-      </c>
-      <c r="H29" t="s">
-        <v>109</v>
-      </c>
-      <c r="I29" t="s">
-        <v>109</v>
-      </c>
-      <c r="J29" t="s">
-        <v>208</v>
-      </c>
-      <c r="K29" t="s">
-        <v>167</v>
-      </c>
-      <c r="L29" t="s">
-        <v>215</v>
-      </c>
-      <c r="M29" t="s">
-        <v>202</v>
-      </c>
-      <c r="N29" s="26">
-        <v>0</v>
-      </c>
-      <c r="O29" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P29" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q29">
-        <v>3</v>
-      </c>
-      <c r="R29">
-        <v>75</v>
-      </c>
-      <c r="S29">
-        <v>50</v>
-      </c>
-      <c r="T29">
-        <v>60</v>
-      </c>
-      <c r="U29" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>10</v>
-      </c>
-      <c r="X29" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y29" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z29" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA29" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB29" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC29" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD29" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE29" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG29" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH29" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI29">
-        <v>30</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK29">
-        <v>5</v>
-      </c>
-      <c r="AL29">
-        <v>200</v>
-      </c>
-      <c r="AM29" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN29">
-        <v>1</v>
-      </c>
-      <c r="AO29" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP29" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ29">
-        <v>200</v>
-      </c>
-      <c r="AR29" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS29" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT29" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU29" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV29" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW29" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX29" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="45"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="41"/>
+      <c r="AE29" s="26"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="17"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="12"/>
+      <c r="AT29" s="12"/>
+      <c r="AU29" s="12"/>
+      <c r="AV29" s="18"/>
+      <c r="AW29" s="18"/>
+      <c r="AX29" s="18"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="C30" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E30" t="s">
-        <v>188</v>
-      </c>
-      <c r="F30">
-        <v>1000</v>
-      </c>
-      <c r="G30">
-        <v>500</v>
-      </c>
-      <c r="H30" t="s">
-        <v>109</v>
-      </c>
-      <c r="I30" t="s">
-        <v>109</v>
-      </c>
-      <c r="J30" t="s">
-        <v>208</v>
-      </c>
-      <c r="K30" t="s">
-        <v>167</v>
-      </c>
-      <c r="L30" t="s">
-        <v>215</v>
-      </c>
-      <c r="M30" t="s">
-        <v>202</v>
-      </c>
-      <c r="N30" s="26">
-        <v>0</v>
-      </c>
-      <c r="O30" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P30" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q30">
-        <v>3</v>
-      </c>
-      <c r="R30">
-        <v>75</v>
-      </c>
-      <c r="S30">
-        <v>50</v>
-      </c>
-      <c r="T30">
-        <v>60</v>
-      </c>
-      <c r="U30" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>10</v>
-      </c>
-      <c r="X30" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y30" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z30" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA30" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB30" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC30" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD30" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AE30" s="26">
-        <v>0.16</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG30" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH30" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI30">
-        <v>30</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK30">
-        <v>5</v>
-      </c>
-      <c r="AL30">
-        <v>200</v>
-      </c>
-      <c r="AM30" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN30">
-        <v>1</v>
-      </c>
-      <c r="AO30" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP30" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ30">
-        <v>200</v>
-      </c>
-      <c r="AR30" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS30" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT30" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU30" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV30" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW30" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX30" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B30" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="26"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="17"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="12"/>
+      <c r="AT30" s="12"/>
+      <c r="AU30" s="12"/>
+      <c r="AV30" s="18"/>
+      <c r="AW30" s="18"/>
+      <c r="AX30" s="18"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="C31" s="52" t="b">
+        <v>320</v>
+      </c>
+      <c r="C31" s="45" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="s">
@@ -5629,7 +5139,7 @@
         <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE31" s="26">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="AF31" t="s">
         <v>112</v>
@@ -5690,41 +5200,165 @@
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="52"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="26"/>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="2"/>
-      <c r="AM32" s="2"/>
-      <c r="AO32" s="2"/>
-      <c r="AP32" s="17"/>
-      <c r="AR32" s="2"/>
-      <c r="AS32" s="12"/>
-      <c r="AT32" s="12"/>
-      <c r="AU32" s="12"/>
-      <c r="AV32" s="18"/>
-      <c r="AW32" s="18"/>
-      <c r="AX32" s="18"/>
+      <c r="A32" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="C32" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32">
+        <v>1000</v>
+      </c>
+      <c r="G32">
+        <v>500</v>
+      </c>
+      <c r="H32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" t="s">
+        <v>167</v>
+      </c>
+      <c r="L32" t="s">
+        <v>215</v>
+      </c>
+      <c r="M32" t="s">
+        <v>202</v>
+      </c>
+      <c r="N32" s="26">
+        <v>0</v>
+      </c>
+      <c r="O32" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P32" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>75</v>
+      </c>
+      <c r="S32">
+        <v>50</v>
+      </c>
+      <c r="T32">
+        <v>60</v>
+      </c>
+      <c r="U32" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>10</v>
+      </c>
+      <c r="X32" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y32" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z32" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA32" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB32" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC32" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD32" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE32" s="26">
+        <v>0.08</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG32" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH32" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI32">
+        <v>30</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK32">
+        <v>5</v>
+      </c>
+      <c r="AL32">
+        <v>200</v>
+      </c>
+      <c r="AM32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP32" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ32">
+        <v>200</v>
+      </c>
+      <c r="AR32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS32" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT32" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU32" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV32" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX32" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>330</v>
+      <c r="A33" s="34" t="s">
+        <v>323</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="C33" s="52" t="b">
+        <v>324</v>
+      </c>
+      <c r="C33" s="45" t="b">
         <v>0</v>
       </c>
       <c r="D33" t="s">
@@ -5806,10 +5440,10 @@
         <v>156</v>
       </c>
       <c r="AD33" s="41">
-        <v>4.4999999999999998E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE33" s="26">
-        <v>4.4999999999999998E-2</v>
+        <v>0.12</v>
       </c>
       <c r="AF33" t="s">
         <v>112</v>
@@ -5870,13 +5504,13 @@
       </c>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>332</v>
+      <c r="A34" s="34" t="s">
+        <v>325</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="C34" s="52" t="b">
+        <v>326</v>
+      </c>
+      <c r="C34" s="45" t="b">
         <v>0</v>
       </c>
       <c r="D34" t="s">
@@ -5958,10 +5592,10 @@
         <v>156</v>
       </c>
       <c r="AD34" s="41">
-        <v>0.06</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE34" s="26">
-        <v>8.3000000000000004E-2</v>
+        <v>0.16</v>
       </c>
       <c r="AF34" t="s">
         <v>112</v>
@@ -6022,13 +5656,13 @@
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>334</v>
+      <c r="A35" s="34" t="s">
+        <v>327</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="C35" s="52" t="b">
+        <v>328</v>
+      </c>
+      <c r="C35" s="45" t="b">
         <v>0</v>
       </c>
       <c r="D35" t="s">
@@ -6110,10 +5744,10 @@
         <v>156</v>
       </c>
       <c r="AD35" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AE35" s="26">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="AF35" t="s">
         <v>112</v>
@@ -6174,165 +5808,41 @@
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>336</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="C36" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>211</v>
-      </c>
-      <c r="E36" t="s">
-        <v>188</v>
-      </c>
-      <c r="F36">
-        <v>1000</v>
-      </c>
-      <c r="G36">
-        <v>500</v>
-      </c>
-      <c r="H36" t="s">
-        <v>109</v>
-      </c>
-      <c r="I36" t="s">
-        <v>109</v>
-      </c>
-      <c r="J36" t="s">
-        <v>208</v>
-      </c>
-      <c r="K36" t="s">
-        <v>167</v>
-      </c>
-      <c r="L36" t="s">
-        <v>215</v>
-      </c>
-      <c r="M36" t="s">
-        <v>202</v>
-      </c>
-      <c r="N36" s="26">
-        <v>0</v>
-      </c>
-      <c r="O36" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P36" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q36">
-        <v>3</v>
-      </c>
-      <c r="R36">
-        <v>75</v>
-      </c>
-      <c r="S36">
-        <v>50</v>
-      </c>
-      <c r="T36">
-        <v>60</v>
-      </c>
-      <c r="U36" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>10</v>
-      </c>
-      <c r="X36" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y36" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z36" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA36" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB36" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AC36" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD36" s="41">
-        <v>0.09</v>
-      </c>
-      <c r="AE36" s="26">
-        <v>0.158</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG36" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH36" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI36">
-        <v>30</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK36">
-        <v>5</v>
-      </c>
-      <c r="AL36">
-        <v>200</v>
-      </c>
-      <c r="AM36" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN36">
-        <v>1</v>
-      </c>
-      <c r="AO36" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP36" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ36">
-        <v>200</v>
-      </c>
-      <c r="AR36" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS36" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT36" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU36" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV36" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW36" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX36" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="45"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="41"/>
+      <c r="AE36" s="26"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AM36" s="2"/>
+      <c r="AO36" s="2"/>
+      <c r="AP36" s="17"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="12"/>
+      <c r="AT36" s="12"/>
+      <c r="AU36" s="12"/>
+      <c r="AV36" s="18"/>
+      <c r="AW36" s="18"/>
+      <c r="AX36" s="18"/>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="C37" s="52" t="b">
+        <v>331</v>
+      </c>
+      <c r="C37" s="45" t="b">
         <v>0</v>
       </c>
       <c r="D37" t="s">
@@ -6414,10 +5924,10 @@
         <v>156</v>
       </c>
       <c r="AD37" s="41">
-        <v>0.105</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AE37" s="26">
-        <v>0.19500000000000001</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AF37" t="s">
         <v>112</v>
@@ -6478,42 +5988,166 @@
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B38" s="19"/>
-      <c r="C38" s="11"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="26"/>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="26"/>
-      <c r="AD38" s="41"/>
-      <c r="AE38" s="26"/>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="2"/>
-      <c r="AM38" s="2"/>
-      <c r="AO38" s="2"/>
-      <c r="AP38" s="17"/>
-      <c r="AR38" s="2"/>
-      <c r="AS38" s="12"/>
-      <c r="AT38" s="12"/>
-      <c r="AU38" s="12"/>
-      <c r="AV38" s="18"/>
-      <c r="AW38" s="18"/>
-      <c r="AX38" s="18"/>
+      <c r="A38" t="s">
+        <v>332</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C38" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38">
+        <v>1000</v>
+      </c>
+      <c r="G38">
+        <v>500</v>
+      </c>
+      <c r="H38" t="s">
+        <v>109</v>
+      </c>
+      <c r="I38" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" t="s">
+        <v>208</v>
+      </c>
+      <c r="K38" t="s">
+        <v>167</v>
+      </c>
+      <c r="L38" t="s">
+        <v>215</v>
+      </c>
+      <c r="M38" t="s">
+        <v>202</v>
+      </c>
+      <c r="N38" s="26">
+        <v>0</v>
+      </c>
+      <c r="O38" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q38">
+        <v>3</v>
+      </c>
+      <c r="R38">
+        <v>75</v>
+      </c>
+      <c r="S38">
+        <v>50</v>
+      </c>
+      <c r="T38">
+        <v>60</v>
+      </c>
+      <c r="U38" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>10</v>
+      </c>
+      <c r="X38" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y38" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z38" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA38" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB38" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC38" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD38" s="41">
+        <v>0.06</v>
+      </c>
+      <c r="AE38" s="26">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH38" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI38">
+        <v>30</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK38">
+        <v>5</v>
+      </c>
+      <c r="AL38">
+        <v>200</v>
+      </c>
+      <c r="AM38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP38" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ38">
+        <v>200</v>
+      </c>
+      <c r="AR38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS38" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT38" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU38" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV38" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX38" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="C39" s="11" t="b">
-        <v>1</v>
+        <v>335</v>
+      </c>
+      <c r="C39" s="45" t="b">
+        <v>0</v>
       </c>
       <c r="D39" t="s">
         <v>211</v>
@@ -6587,17 +6221,17 @@
       <c r="AA39" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB39" s="60">
-        <v>4.3987499999999999E-2</v>
+      <c r="AB39" s="26">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AC39" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AD39" s="41">
-        <v>4.4999999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AE39" s="26">
-        <v>4.4999999999999998E-2</v>
+        <v>0.12</v>
       </c>
       <c r="AF39" t="s">
         <v>112</v>
@@ -6627,14 +6261,13 @@
         <v>1</v>
       </c>
       <c r="AO39" s="2" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="AP39" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ39" s="57">
-        <f>225068282*0.75</f>
-        <v>168801211.5</v>
+      <c r="AQ39">
+        <v>200</v>
       </c>
       <c r="AR39" s="2" t="s">
         <v>113</v>
@@ -6660,13 +6293,13 @@
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="C40" s="52" t="b">
-        <v>1</v>
+        <v>337</v>
+      </c>
+      <c r="C40" s="45" t="b">
+        <v>0</v>
       </c>
       <c r="D40" t="s">
         <v>211</v>
@@ -6740,17 +6373,17 @@
       <c r="AA40" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB40" s="60">
-        <v>5.6596874999999998E-2</v>
+      <c r="AB40" s="26">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AC40" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AD40" s="41">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="AE40" s="26">
-        <v>8.3000000000000004E-2</v>
+        <v>0.158</v>
       </c>
       <c r="AF40" t="s">
         <v>112</v>
@@ -6779,15 +6412,14 @@
       <c r="AN40">
         <v>1</v>
       </c>
-      <c r="AO40" s="51" t="s">
-        <v>114</v>
+      <c r="AO40" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="AP40" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ40" s="57">
-        <f t="shared" ref="AQ40:AQ43" si="0">225068282*0.75</f>
-        <v>168801211.5</v>
+      <c r="AQ40">
+        <v>200</v>
       </c>
       <c r="AR40" s="2" t="s">
         <v>113</v>
@@ -6813,13 +6445,13 @@
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="C41" s="52" t="b">
-        <v>1</v>
+        <v>339</v>
+      </c>
+      <c r="C41" s="45" t="b">
+        <v>0</v>
       </c>
       <c r="D41" t="s">
         <v>211</v>
@@ -6893,17 +6525,17 @@
       <c r="AA41" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB41" s="60">
-        <v>6.7799999999999999E-2</v>
+      <c r="AB41" s="26">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AC41" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AD41" s="41">
-        <v>7.4999999999999997E-2</v>
+        <v>0.105</v>
       </c>
       <c r="AE41" s="26">
-        <v>0.12</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="AF41" t="s">
         <v>112</v>
@@ -6932,15 +6564,14 @@
       <c r="AN41">
         <v>1</v>
       </c>
-      <c r="AO41" s="51" t="s">
-        <v>114</v>
+      <c r="AO41" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="AP41" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ41" s="57">
-        <f t="shared" si="0"/>
-        <v>168801211.5</v>
+      <c r="AQ41">
+        <v>200</v>
       </c>
       <c r="AR41" s="2" t="s">
         <v>113</v>
@@ -6965,167 +6596,42 @@
       </c>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>364</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="C42" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>211</v>
-      </c>
-      <c r="E42" t="s">
-        <v>188</v>
-      </c>
-      <c r="F42">
-        <v>1000</v>
-      </c>
-      <c r="G42">
-        <v>500</v>
-      </c>
-      <c r="H42" t="s">
-        <v>109</v>
-      </c>
-      <c r="I42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J42" t="s">
-        <v>208</v>
-      </c>
-      <c r="K42" t="s">
-        <v>167</v>
-      </c>
-      <c r="L42" t="s">
-        <v>215</v>
-      </c>
-      <c r="M42" t="s">
-        <v>202</v>
-      </c>
-      <c r="N42" s="26">
-        <v>0</v>
-      </c>
-      <c r="O42" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P42" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q42">
-        <v>3</v>
-      </c>
-      <c r="R42">
-        <v>75</v>
-      </c>
-      <c r="S42">
-        <v>50</v>
-      </c>
-      <c r="T42">
-        <v>60</v>
-      </c>
-      <c r="U42" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>10</v>
-      </c>
-      <c r="X42" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Y42" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z42" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AA42" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AB42" s="60">
-        <v>7.7596874999999996E-2</v>
-      </c>
-      <c r="AC42" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD42" s="41">
-        <v>0.09</v>
-      </c>
-      <c r="AE42" s="26">
-        <v>0.158</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG42" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH42" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI42">
-        <v>30</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK42">
-        <v>5</v>
-      </c>
-      <c r="AL42">
-        <v>200</v>
-      </c>
-      <c r="AM42" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP42" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AQ42" s="57">
-        <f t="shared" si="0"/>
-        <v>168801211.5</v>
-      </c>
-      <c r="AR42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS42" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AT42" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AU42" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AV42" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW42" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX42" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="11"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="41"/>
+      <c r="AE42" s="26"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AM42" s="2"/>
+      <c r="AO42" s="2"/>
+      <c r="AP42" s="17"/>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="12"/>
+      <c r="AT42" s="12"/>
+      <c r="AU42" s="12"/>
+      <c r="AV42" s="18"/>
+      <c r="AW42" s="18"/>
+      <c r="AX42" s="18"/>
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="C43" s="52" t="b">
-        <v>1</v>
+        <v>356</v>
+      </c>
+      <c r="C43" s="11" t="b">
+        <v>0</v>
       </c>
       <c r="D43" t="s">
         <v>211</v>
@@ -7199,17 +6705,17 @@
       <c r="AA43" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB43" s="60">
-        <v>8.5987499999999994E-2</v>
+      <c r="AB43" s="53">
+        <v>4.3987499999999999E-2</v>
       </c>
       <c r="AC43" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AD43" s="41">
-        <v>0.105</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AE43" s="26">
-        <v>0.19500000000000001</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AF43" t="s">
         <v>112</v>
@@ -7238,104 +6744,353 @@
       <c r="AN43">
         <v>1</v>
       </c>
-      <c r="AO43" s="51" t="s">
+      <c r="AO43" s="2" t="s">
         <v>114</v>
       </c>
       <c r="AP43" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ43" s="57">
+      <c r="AQ43" s="50">
+        <f>225068282*0.75</f>
+        <v>168801211.5</v>
+      </c>
+      <c r="AR43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS43" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT43" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU43" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV43" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX43" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>362</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C44" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44">
+        <v>1000</v>
+      </c>
+      <c r="G44">
+        <v>500</v>
+      </c>
+      <c r="H44" t="s">
+        <v>109</v>
+      </c>
+      <c r="I44" t="s">
+        <v>109</v>
+      </c>
+      <c r="J44" t="s">
+        <v>208</v>
+      </c>
+      <c r="K44" t="s">
+        <v>167</v>
+      </c>
+      <c r="L44" t="s">
+        <v>215</v>
+      </c>
+      <c r="M44" t="s">
+        <v>202</v>
+      </c>
+      <c r="N44" s="26">
+        <v>0</v>
+      </c>
+      <c r="O44" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q44">
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>75</v>
+      </c>
+      <c r="S44">
+        <v>50</v>
+      </c>
+      <c r="T44">
+        <v>60</v>
+      </c>
+      <c r="U44" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>10</v>
+      </c>
+      <c r="X44" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y44" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z44" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA44" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB44" s="53">
+        <v>5.6596874999999998E-2</v>
+      </c>
+      <c r="AC44" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD44" s="41">
+        <v>0.06</v>
+      </c>
+      <c r="AE44" s="26">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH44" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI44">
+        <v>30</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK44">
+        <v>5</v>
+      </c>
+      <c r="AL44">
+        <v>200</v>
+      </c>
+      <c r="AM44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP44" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ44" s="50">
+        <f t="shared" ref="AQ44:AQ47" si="0">225068282*0.75</f>
+        <v>168801211.5</v>
+      </c>
+      <c r="AR44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS44" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT44" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU44" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV44" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX44" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>363</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C45" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45">
+        <v>1000</v>
+      </c>
+      <c r="G45">
+        <v>500</v>
+      </c>
+      <c r="H45" t="s">
+        <v>109</v>
+      </c>
+      <c r="I45" t="s">
+        <v>109</v>
+      </c>
+      <c r="J45" t="s">
+        <v>208</v>
+      </c>
+      <c r="K45" t="s">
+        <v>167</v>
+      </c>
+      <c r="L45" t="s">
+        <v>215</v>
+      </c>
+      <c r="M45" t="s">
+        <v>202</v>
+      </c>
+      <c r="N45" s="26">
+        <v>0</v>
+      </c>
+      <c r="O45" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q45">
+        <v>3</v>
+      </c>
+      <c r="R45">
+        <v>75</v>
+      </c>
+      <c r="S45">
+        <v>50</v>
+      </c>
+      <c r="T45">
+        <v>60</v>
+      </c>
+      <c r="U45" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>10</v>
+      </c>
+      <c r="X45" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y45" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z45" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA45" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB45" s="53">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="AC45" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD45" s="41">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AE45" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH45" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI45">
+        <v>30</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK45">
+        <v>5</v>
+      </c>
+      <c r="AL45">
+        <v>200</v>
+      </c>
+      <c r="AM45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP45" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ45" s="50">
         <f t="shared" si="0"/>
         <v>168801211.5</v>
       </c>
-      <c r="AR43" s="2" t="s">
+      <c r="AR45" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS43" s="12">
+      <c r="AS45" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT43" s="12">
+      <c r="AT45" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU43" s="12">
+      <c r="AU45" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV43" s="18" t="b">
+      <c r="AV45" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW43" s="18" t="b">
+      <c r="AW45" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX43" s="18" t="b">
+      <c r="AX45" s="18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="C44" s="11"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="26"/>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="26"/>
-      <c r="AD44" s="41"/>
-      <c r="AE44" s="26"/>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2"/>
-      <c r="AM44" s="2"/>
-      <c r="AO44" s="2"/>
-      <c r="AP44" s="17"/>
-      <c r="AR44" s="2"/>
-      <c r="AS44" s="12"/>
-      <c r="AT44" s="12"/>
-      <c r="AU44" s="12"/>
-      <c r="AV44" s="18"/>
-      <c r="AW44" s="18"/>
-      <c r="AX44" s="18"/>
-    </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B45" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="26"/>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="41"/>
-      <c r="AE45" s="26"/>
-      <c r="AG45" s="2"/>
-      <c r="AH45" s="2"/>
-      <c r="AM45" s="2"/>
-      <c r="AO45" s="2"/>
-      <c r="AP45" s="17"/>
-      <c r="AR45" s="2"/>
-      <c r="AS45" s="12"/>
-      <c r="AT45" s="12"/>
-      <c r="AU45" s="12"/>
-      <c r="AV45" s="18"/>
-      <c r="AW45" s="18"/>
-      <c r="AX45" s="18"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
-        <v>341</v>
+      <c r="A46" t="s">
+        <v>364</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="C46" s="11" t="b">
-        <v>1</v>
+        <v>359</v>
+      </c>
+      <c r="C46" s="45" t="b">
+        <v>0</v>
       </c>
       <c r="D46" t="s">
         <v>211</v>
@@ -7389,7 +7144,7 @@
         <v>60</v>
       </c>
       <c r="U46" s="26">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -7409,17 +7164,17 @@
       <c r="AA46" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB46" s="26">
-        <v>7.4999999999999997E-2</v>
+      <c r="AB46" s="53">
+        <v>7.7596874999999996E-2</v>
       </c>
       <c r="AC46" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AD46" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AE46" s="26">
-        <v>0.12</v>
+        <v>0.158</v>
       </c>
       <c r="AF46" t="s">
         <v>112</v>
@@ -7448,14 +7203,15 @@
       <c r="AN46">
         <v>1</v>
       </c>
-      <c r="AO46" s="2" t="s">
-        <v>166</v>
+      <c r="AO46" s="44" t="s">
+        <v>114</v>
       </c>
       <c r="AP46" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ46">
-        <v>200</v>
+      <c r="AQ46" s="50">
+        <f t="shared" si="0"/>
+        <v>168801211.5</v>
       </c>
       <c r="AR46" s="2" t="s">
         <v>113</v>
@@ -7480,14 +7236,14 @@
       </c>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
-        <v>343</v>
+      <c r="A47" t="s">
+        <v>365</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="C47" s="52" t="b">
-        <v>1</v>
+        <v>360</v>
+      </c>
+      <c r="C47" s="45" t="b">
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>211</v>
@@ -7561,17 +7317,17 @@
       <c r="AA47" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB47" s="26">
-        <v>7.4999999999999997E-2</v>
+      <c r="AB47" s="53">
+        <v>8.5987499999999994E-2</v>
       </c>
       <c r="AC47" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AD47" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>0.105</v>
       </c>
       <c r="AE47" s="26">
-        <v>0.12</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="AF47" t="s">
         <v>112</v>
@@ -7600,14 +7356,15 @@
       <c r="AN47">
         <v>1</v>
       </c>
-      <c r="AO47" s="2" t="s">
-        <v>166</v>
+      <c r="AO47" s="44" t="s">
+        <v>114</v>
       </c>
       <c r="AP47" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ47">
-        <v>200</v>
+      <c r="AQ47" s="50">
+        <f t="shared" si="0"/>
+        <v>168801211.5</v>
       </c>
       <c r="AR47" s="2" t="s">
         <v>113</v>
@@ -7631,112 +7388,473 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB50" s="60"/>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="C48" s="11"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="26"/>
+      <c r="U48" s="26"/>
+      <c r="X48" s="26"/>
+      <c r="Y48" s="26"/>
+      <c r="Z48" s="26"/>
+      <c r="AA48" s="26"/>
+      <c r="AB48" s="26"/>
+      <c r="AC48" s="26"/>
+      <c r="AD48" s="41"/>
+      <c r="AE48" s="26"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AM48" s="2"/>
+      <c r="AO48" s="2"/>
+      <c r="AP48" s="17"/>
+      <c r="AR48" s="2"/>
+      <c r="AS48" s="12"/>
+      <c r="AT48" s="12"/>
+      <c r="AU48" s="12"/>
+      <c r="AV48" s="18"/>
+      <c r="AW48" s="18"/>
+      <c r="AX48" s="18"/>
     </row>
-    <row r="51" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB51" s="60"/>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="B49" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="26"/>
+      <c r="U49" s="26"/>
+      <c r="X49" s="26"/>
+      <c r="Y49" s="26"/>
+      <c r="Z49" s="26"/>
+      <c r="AA49" s="26"/>
+      <c r="AB49" s="26"/>
+      <c r="AC49" s="26"/>
+      <c r="AD49" s="41"/>
+      <c r="AE49" s="26"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AM49" s="2"/>
+      <c r="AO49" s="2"/>
+      <c r="AP49" s="17"/>
+      <c r="AR49" s="2"/>
+      <c r="AS49" s="12"/>
+      <c r="AT49" s="12"/>
+      <c r="AU49" s="12"/>
+      <c r="AV49" s="18"/>
+      <c r="AW49" s="18"/>
+      <c r="AX49" s="18"/>
     </row>
-    <row r="52" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB52" s="60"/>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A50" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C50" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F50">
+        <v>1000</v>
+      </c>
+      <c r="G50">
+        <v>500</v>
+      </c>
+      <c r="H50" t="s">
+        <v>109</v>
+      </c>
+      <c r="I50" t="s">
+        <v>109</v>
+      </c>
+      <c r="J50" t="s">
+        <v>208</v>
+      </c>
+      <c r="K50" t="s">
+        <v>167</v>
+      </c>
+      <c r="L50" t="s">
+        <v>215</v>
+      </c>
+      <c r="M50" t="s">
+        <v>202</v>
+      </c>
+      <c r="N50" s="26">
+        <v>0</v>
+      </c>
+      <c r="O50" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q50">
+        <v>3</v>
+      </c>
+      <c r="R50">
+        <v>75</v>
+      </c>
+      <c r="S50">
+        <v>50</v>
+      </c>
+      <c r="T50">
+        <v>60</v>
+      </c>
+      <c r="U50" s="26">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>10</v>
+      </c>
+      <c r="X50" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y50" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z50" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA50" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB50" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC50" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD50" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE50" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH50" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI50">
+        <v>30</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK50">
+        <v>5</v>
+      </c>
+      <c r="AL50">
+        <v>200</v>
+      </c>
+      <c r="AM50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP50" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ50">
+        <v>200</v>
+      </c>
+      <c r="AR50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS50" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT50" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU50" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV50" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW50" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX50" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB53" s="60"/>
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="C51" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F51">
+        <v>1000</v>
+      </c>
+      <c r="G51">
+        <v>500</v>
+      </c>
+      <c r="H51" t="s">
+        <v>109</v>
+      </c>
+      <c r="I51" t="s">
+        <v>109</v>
+      </c>
+      <c r="J51" t="s">
+        <v>208</v>
+      </c>
+      <c r="K51" t="s">
+        <v>167</v>
+      </c>
+      <c r="L51" t="s">
+        <v>215</v>
+      </c>
+      <c r="M51" t="s">
+        <v>202</v>
+      </c>
+      <c r="N51" s="26">
+        <v>0</v>
+      </c>
+      <c r="O51" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+      <c r="R51">
+        <v>75</v>
+      </c>
+      <c r="S51">
+        <v>50</v>
+      </c>
+      <c r="T51">
+        <v>60</v>
+      </c>
+      <c r="U51" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>10</v>
+      </c>
+      <c r="X51" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Y51" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z51" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AA51" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AB51" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC51" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD51" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AE51" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH51" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI51">
+        <v>30</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK51">
+        <v>5</v>
+      </c>
+      <c r="AL51">
+        <v>200</v>
+      </c>
+      <c r="AM51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP51" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AQ51">
+        <v>200</v>
+      </c>
+      <c r="AR51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS51" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AT51" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AU51" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AV51" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW51" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX51" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB54" s="60"/>
+    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AB54" s="53"/>
+    </row>
+    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AB55" s="53"/>
+    </row>
+    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AB56" s="53"/>
+    </row>
+    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AB57" s="53"/>
+    </row>
+    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AB58" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="AO4:AQ4"/>
     <mergeCell ref="P4:W4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="AG4:AI4"/>
     <mergeCell ref="AR4:AU4"/>
     <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM51">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH51">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG9 AG13:AG47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG9 AG13:AG51">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR9 AR13:AR47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR9 AR13:AR51">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O9 C6:C10 O13:O47 C13:C47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O9 C6:C10 O13:O51 C13:C51">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AA6:AA9 U6:U9 AA13:AA47 U13:U47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AA6:AA9 U6:U9 AA13:AA51 U13:U51">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="V6:W9 V13:W47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="V6:W9 V13:W51">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="X6:Z9 AB6:AB9 AD6:AD9 AB44:AB47 AB13:AB38 X13:Z47 AD13:AD47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="X6:Z9 AB6:AB9 AD6:AD9 AB48:AB51 AB13:AB42 X13:Z51 AD13:AD51">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AI6:AI9 AI13:AI47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AI6:AI9 AI13:AI51">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AS6:AT9 AS13:AT47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AS6:AT9 AS13:AT51">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AU6:AU9 AU13:AU47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AU6:AU9 AU13:AU51">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AE6:AE9 AE13:AE47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AE6:AE9 AE13:AE51">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AK6:AK9 AK13:AK47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AK6:AK9 AK13:AK51">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6:AL9 AL13:AL47">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6:AL9 AL13:AL51">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN47">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN51">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AC6:AC9 AC13:AC47"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV6:AX9 AV13:AX47">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AC6:AC9 AC13:AC51"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV6:AX9 AV13:AX51">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO51">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP47">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP51">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="R6:R9 R13:R47">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="R6:R9 R13:R51">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:I9 H13:I47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:I9 H13:I51">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -7749,37 +7867,37 @@
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K9 K13:K47</xm:sqref>
+          <xm:sqref>K6:K9 K13:K51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L9 L13:L47</xm:sqref>
+          <xm:sqref>L6:L9 L13:L51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E9 E13:E47</xm:sqref>
+          <xm:sqref>E6:E9 E13:E51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>D6:D9 D13:D47</xm:sqref>
+          <xm:sqref>D6:D9 D13:D51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J9 J13:J47</xm:sqref>
+          <xm:sqref>J6:J9 J13:J51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M9 M13:M47</xm:sqref>
+          <xm:sqref>M6:M9 M13:M51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7789,10 +7907,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D4"/>
+  <dimension ref="A3:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7815,8 +7933,45 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>293</v>
+      <c r="A4" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="43">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C5" s="43">
+        <v>0</v>
+      </c>
+      <c r="D5" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="43">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C6" s="43">
+        <v>0</v>
+      </c>
+      <c r="D6" s="43">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="371">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1178,6 +1178,9 @@
   </si>
   <si>
     <t>closed</t>
+  </si>
+  <si>
+    <t>save.indiv</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1359,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1447,7 +1450,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1456,16 +1465,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2136,13 +2142,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX58"/>
+  <dimension ref="A1:AY58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AC6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AH11" sqref="AH11"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,44 +2156,45 @@
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="84.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="9" width="16" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125"/>
-    <col min="12" max="13" width="22" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" customWidth="1"/>
-    <col min="16" max="20" width="9.28515625" customWidth="1"/>
-    <col min="21" max="21" width="16"/>
-    <col min="22" max="23" width="12.7109375"/>
-    <col min="24" max="25" width="10.85546875" customWidth="1"/>
-    <col min="26" max="28" width="12.7109375"/>
-    <col min="29" max="29" width="11.140625" customWidth="1"/>
-    <col min="30" max="30" width="12.7109375" style="24"/>
-    <col min="31" max="34" width="12.7109375"/>
-    <col min="35" max="35" width="12.7109375" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" customWidth="1"/>
-    <col min="41" max="42" width="11.7109375" customWidth="1"/>
-    <col min="43" max="43" width="13.140625" customWidth="1"/>
-    <col min="44" max="47" width="12.7109375"/>
-    <col min="50" max="50" width="9" customWidth="1"/>
-    <col min="51" max="1037" width="8.5703125"/>
+    <col min="4" max="4" width="13.42578125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="10" width="16" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125"/>
+    <col min="13" max="14" width="22" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="21" width="9.28515625" customWidth="1"/>
+    <col min="22" max="22" width="16"/>
+    <col min="23" max="24" width="12.7109375"/>
+    <col min="25" max="26" width="10.85546875" customWidth="1"/>
+    <col min="27" max="29" width="12.7109375"/>
+    <col min="30" max="30" width="11.140625" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" style="24"/>
+    <col min="32" max="35" width="12.7109375"/>
+    <col min="36" max="36" width="12.7109375" customWidth="1"/>
+    <col min="37" max="37" width="11.85546875" customWidth="1"/>
+    <col min="42" max="43" width="11.7109375" customWidth="1"/>
+    <col min="44" max="44" width="13.140625" customWidth="1"/>
+    <col min="45" max="48" width="12.7109375"/>
+    <col min="51" max="51" width="9" customWidth="1"/>
+    <col min="52" max="1038" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AR1" s="1" t="s">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AS1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
       <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
     </row>
-    <row r="2" spans="1:50" s="4" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" s="4" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2207,212 +2214,215 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="24"/>
-      <c r="AI2" s="4" t="s">
+      <c r="AE2" s="24"/>
+      <c r="AJ2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="4" t="s">
+      <c r="AL2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="4" t="s">
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AT2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AU2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="O3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="4"/>
-      <c r="AI3" s="4" t="s">
+      <c r="U3" s="4"/>
+      <c r="AJ3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AP3" s="4"/>
-      <c r="AS3" s="4" t="s">
+      <c r="AQ3" s="4"/>
+      <c r="AT3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+    <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="59" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="27"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="27"/>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="55" t="s">
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="56" t="s">
+      <c r="M4" s="57"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="56"/>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="58"/>
+      <c r="Q4" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="29"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
       <c r="Y4" s="29"/>
-      <c r="Z4" s="56" t="s">
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="54" t="s">
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="7" t="s">
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AG4" s="57" t="s">
+      <c r="AH4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="21" t="s">
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AK4" s="21"/>
       <c r="AL4" s="21"/>
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
-      <c r="AO4" s="54" t="s">
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="58" t="s">
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="58"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="22"/>
-      <c r="AX4" s="20"/>
+      <c r="AT4" s="61"/>
+      <c r="AU4" s="61"/>
+      <c r="AV4" s="61"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="22"/>
+      <c r="AY4" s="20"/>
     </row>
-    <row r="5" spans="1:50" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>71</v>
       </c>
@@ -2423,148 +2433,151 @@
         <v>73</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="Q5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="R5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="S5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="T5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="U5" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="V5" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="W5" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Z5" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="Z5" s="9" t="s">
+      <c r="AA5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AB5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AB5" s="9" t="s">
+      <c r="AC5" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AC5" s="9" t="s">
+      <c r="AD5" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="AD5" s="24" t="s">
+      <c r="AE5" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="AE5" s="9" t="s">
+      <c r="AF5" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AF5" s="9" t="s">
+      <c r="AG5" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AG5" s="9" t="s">
+      <c r="AH5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AH5" s="9" t="s">
+      <c r="AI5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AI5" s="9" t="s">
+      <c r="AJ5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AJ5" s="9" t="s">
+      <c r="AK5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AK5" s="9" t="s">
+      <c r="AL5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AL5" s="9" t="s">
+      <c r="AM5" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AM5" s="9" t="s">
+      <c r="AN5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AN5" s="9" t="s">
+      <c r="AO5" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AO5" s="9" t="s">
+      <c r="AP5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AP5" s="9" t="s">
+      <c r="AQ5" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="AQ5" s="9" t="s">
+      <c r="AR5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AR5" s="9" t="s">
+      <c r="AS5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AS5" s="9" t="s">
+      <c r="AT5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AT5" s="9" t="s">
+      <c r="AU5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AU5" s="9" t="s">
+      <c r="AV5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AV5" s="9" t="s">
+      <c r="AW5" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="AW5" s="9" t="s">
+      <c r="AX5" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="AX5" s="9" t="s">
+      <c r="AY5" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -2572,142 +2585,142 @@
         <v>174</v>
       </c>
       <c r="C6" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>211</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>188</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>500</v>
-      </c>
-      <c r="H6" t="s">
-        <v>109</v>
       </c>
       <c r="I6" t="s">
         <v>109</v>
       </c>
       <c r="J6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" t="s">
         <v>208</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>167</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>215</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>202</v>
       </c>
-      <c r="N6" s="26">
+      <c r="O6" s="26">
         <v>0</v>
       </c>
-      <c r="O6" s="18" t="b">
+      <c r="P6" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P6" s="26">
+      <c r="Q6" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>75</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>50</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>60</v>
       </c>
-      <c r="U6" s="26">
+      <c r="V6" s="26">
         <v>0.02</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>10</v>
-      </c>
-      <c r="X6" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y6" s="26">
         <v>0.04</v>
       </c>
       <c r="Z6" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA6" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA6" s="26">
+      <c r="AB6" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB6" s="26">
+      <c r="AC6" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC6" s="26" t="s">
+      <c r="AD6" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="AD6" s="41">
+      <c r="AE6" s="41">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AE6" s="26">
+      <c r="AF6" s="26">
         <v>0</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>112</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AH6" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AI6" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>15</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>115</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>5</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>200</v>
       </c>
-      <c r="AM6" s="2" t="s">
+      <c r="AN6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>1</v>
       </c>
-      <c r="AO6" s="2" t="s">
+      <c r="AP6" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP6" s="17">
+      <c r="AQ6" s="17">
         <v>1</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>200</v>
       </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AS6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS6" s="12">
+      <c r="AT6" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT6" s="12">
+      <c r="AU6" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU6" s="12">
+      <c r="AV6" s="12">
         <v>0.05</v>
-      </c>
-      <c r="AV6" s="18" t="b">
-        <v>0</v>
       </c>
       <c r="AW6" s="18" t="b">
         <v>0</v>
@@ -2715,8 +2728,11 @@
       <c r="AX6" s="18" t="b">
         <v>0</v>
       </c>
+      <c r="AY6" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -2726,140 +2742,140 @@
       <c r="C7" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>212</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>196</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>600</v>
-      </c>
-      <c r="H7" t="s">
-        <v>109</v>
       </c>
       <c r="I7" t="s">
         <v>109</v>
       </c>
       <c r="J7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" t="s">
         <v>209</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>167</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>215</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>202</v>
       </c>
-      <c r="N7" s="26">
+      <c r="O7" s="26">
         <v>-0.01</v>
       </c>
-      <c r="O7" s="18" t="b">
+      <c r="P7" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P7" s="26">
+      <c r="Q7" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>3</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>75</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>50</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>60</v>
       </c>
-      <c r="U7" s="26">
+      <c r="V7" s="26">
         <v>0.02</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>0</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>10</v>
-      </c>
-      <c r="X7" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y7" s="26">
         <v>0.04</v>
       </c>
       <c r="Z7" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA7" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA7" s="26">
+      <c r="AB7" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB7" s="26">
+      <c r="AC7" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC7" s="26" t="s">
+      <c r="AD7" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD7" s="41">
+      <c r="AE7" s="41">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AE7" s="26">
+      <c r="AF7" s="26">
         <v>0</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>112</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AH7" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>1</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>142</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>5</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>200</v>
       </c>
-      <c r="AM7" s="2" t="s">
+      <c r="AN7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>1</v>
       </c>
-      <c r="AO7" s="2" t="s">
+      <c r="AP7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP7" s="17">
+      <c r="AQ7" s="17">
         <v>1</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>200</v>
       </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AS7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS7" s="12">
+      <c r="AT7" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT7" s="12">
+      <c r="AU7" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU7" s="12">
+      <c r="AV7" s="12">
         <v>0.05</v>
-      </c>
-      <c r="AV7" s="18" t="b">
-        <v>0</v>
       </c>
       <c r="AW7" s="18" t="b">
         <v>0</v>
@@ -2867,8 +2883,11 @@
       <c r="AX7" s="18" t="b">
         <v>0</v>
       </c>
+      <c r="AY7" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -2878,140 +2897,140 @@
       <c r="C8" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>213</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>197</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>600</v>
-      </c>
-      <c r="H8" t="s">
-        <v>109</v>
       </c>
       <c r="I8" t="s">
         <v>109</v>
       </c>
       <c r="J8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" t="s">
         <v>210</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>167</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>215</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>202</v>
       </c>
-      <c r="N8" s="26">
+      <c r="O8" s="26">
         <v>-0.01</v>
       </c>
-      <c r="O8" s="18" t="b">
+      <c r="P8" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P8" s="26">
+      <c r="Q8" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>3</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>75</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>50</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>60</v>
       </c>
-      <c r="U8" s="26">
+      <c r="V8" s="26">
         <v>0.02</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>0</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>10</v>
-      </c>
-      <c r="X8" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y8" s="26">
         <v>0.04</v>
       </c>
       <c r="Z8" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA8" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA8" s="26">
+      <c r="AB8" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB8" s="26">
+      <c r="AC8" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC8" s="26" t="s">
+      <c r="AD8" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD8" s="41">
+      <c r="AE8" s="41">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AE8" s="26">
+      <c r="AF8" s="26">
         <v>0</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>112</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AH8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>1</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>142</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>5</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>200</v>
       </c>
-      <c r="AM8" s="2" t="s">
+      <c r="AN8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>1</v>
       </c>
-      <c r="AO8" s="2" t="s">
+      <c r="AP8" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP8" s="17">
+      <c r="AQ8" s="17">
         <v>1</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>200</v>
       </c>
-      <c r="AR8" s="2" t="s">
+      <c r="AS8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS8" s="12">
+      <c r="AT8" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT8" s="12">
+      <c r="AU8" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU8" s="12">
+      <c r="AV8" s="12">
         <v>0.05</v>
-      </c>
-      <c r="AV8" s="18" t="b">
-        <v>0</v>
       </c>
       <c r="AW8" s="18" t="b">
         <v>0</v>
@@ -3019,8 +3038,11 @@
       <c r="AX8" s="18" t="b">
         <v>0</v>
       </c>
+      <c r="AY8" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>200</v>
       </c>
@@ -3030,140 +3052,140 @@
       <c r="C9" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>214</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>198</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>300</v>
-      </c>
-      <c r="H9" t="s">
-        <v>109</v>
       </c>
       <c r="I9" t="s">
         <v>109</v>
       </c>
       <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
         <v>207</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>167</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>215</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>202</v>
       </c>
-      <c r="N9" s="26">
+      <c r="O9" s="26">
         <v>0.01</v>
       </c>
-      <c r="O9" s="18" t="b">
+      <c r="P9" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P9" s="26">
+      <c r="Q9" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>3</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>75</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>50</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>60</v>
       </c>
-      <c r="U9" s="26">
+      <c r="V9" s="26">
         <v>0.02</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>0</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>10</v>
-      </c>
-      <c r="X9" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y9" s="26">
         <v>0.04</v>
       </c>
       <c r="Z9" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA9" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA9" s="26">
+      <c r="AB9" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB9" s="26">
+      <c r="AC9" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC9" s="26" t="s">
+      <c r="AD9" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD9" s="41">
+      <c r="AE9" s="41">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AE9" s="26">
+      <c r="AF9" s="26">
         <v>0</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>112</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AH9" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AI9" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>1</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>142</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>5</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>200</v>
       </c>
-      <c r="AM9" s="2" t="s">
+      <c r="AN9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>1</v>
       </c>
-      <c r="AO9" s="2" t="s">
+      <c r="AP9" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP9" s="17">
+      <c r="AQ9" s="17">
         <v>1</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>200</v>
       </c>
-      <c r="AR9" s="2" t="s">
+      <c r="AS9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS9" s="12">
+      <c r="AT9" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT9" s="12">
+      <c r="AU9" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU9" s="12">
+      <c r="AV9" s="12">
         <v>0.05</v>
-      </c>
-      <c r="AV9" s="18" t="b">
-        <v>0</v>
       </c>
       <c r="AW9" s="18" t="b">
         <v>0</v>
@@ -3171,41 +3193,46 @@
       <c r="AX9" s="18" t="b">
         <v>0</v>
       </c>
+      <c r="AY9" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C10" s="11"/>
+      <c r="D10" s="45"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B13" s="31" t="s">
         <v>291</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="X13" s="26"/>
+      <c r="D13" s="45"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="26"/>
+      <c r="V13" s="26"/>
       <c r="Y13" s="26"/>
       <c r="Z13" s="26"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="26"/>
       <c r="AC13" s="26"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="26"/>
-      <c r="AG13" s="2"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="26"/>
       <c r="AH13" s="2"/>
-      <c r="AM13" s="2"/>
-      <c r="AO13" s="2"/>
-      <c r="AP13" s="17"/>
-      <c r="AR13" s="2"/>
-      <c r="AS13" s="12"/>
+      <c r="AI13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="17"/>
+      <c r="AS13" s="2"/>
       <c r="AT13" s="12"/>
       <c r="AU13" s="12"/>
-      <c r="AV13" s="18"/>
+      <c r="AV13" s="12"/>
       <c r="AW13" s="18"/>
       <c r="AX13" s="18"/>
+      <c r="AY13" s="18"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>293</v>
       </c>
@@ -3213,151 +3240,154 @@
         <v>294</v>
       </c>
       <c r="C14" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
         <v>211</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>188</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>500</v>
-      </c>
-      <c r="H14" t="s">
-        <v>109</v>
       </c>
       <c r="I14" t="s">
         <v>109</v>
       </c>
       <c r="J14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" t="s">
         <v>208</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>167</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>215</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>202</v>
       </c>
-      <c r="N14" s="26">
+      <c r="O14" s="26">
         <v>0</v>
       </c>
-      <c r="O14" s="18" t="b">
+      <c r="P14" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P14" s="26">
+      <c r="Q14" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>3</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>75</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>50</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>60</v>
       </c>
-      <c r="U14" s="26">
+      <c r="V14" s="26">
         <v>0.02</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>0</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>10</v>
-      </c>
-      <c r="X14" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y14" s="26">
         <v>0.04</v>
       </c>
       <c r="Z14" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA14" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA14" s="26">
+      <c r="AB14" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB14" s="26">
+      <c r="AC14" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC14" s="26" t="s">
+      <c r="AD14" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD14" s="41">
+      <c r="AE14" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE14" s="26">
+      <c r="AF14" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>112</v>
       </c>
-      <c r="AG14" s="2" t="s">
+      <c r="AH14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH14" s="2" t="s">
+      <c r="AI14" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>30</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
         <v>115</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>5</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>200</v>
       </c>
-      <c r="AM14" s="2" t="s">
+      <c r="AN14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>1</v>
       </c>
-      <c r="AO14" s="2" t="s">
+      <c r="AP14" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP14" s="17">
+      <c r="AQ14" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>200</v>
       </c>
-      <c r="AR14" s="2" t="s">
+      <c r="AS14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS14" s="12">
+      <c r="AT14" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT14" s="12">
+      <c r="AU14" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU14" s="12">
+      <c r="AV14" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV14" s="18" t="b">
+      <c r="AW14" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW14" s="18" t="b">
+      <c r="AX14" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX14" s="18" t="b">
+      <c r="AY14" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -3365,151 +3395,154 @@
         <v>294</v>
       </c>
       <c r="C15" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
         <v>211</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>188</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>500</v>
-      </c>
-      <c r="H15" t="s">
-        <v>109</v>
       </c>
       <c r="I15" t="s">
         <v>109</v>
       </c>
       <c r="J15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" t="s">
         <v>208</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>167</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>215</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>202</v>
       </c>
-      <c r="N15" s="26">
+      <c r="O15" s="26">
         <v>0.01</v>
       </c>
-      <c r="O15" s="18" t="b">
+      <c r="P15" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P15" s="26">
+      <c r="Q15" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>3</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>75</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>50</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>60</v>
       </c>
-      <c r="U15" s="26">
+      <c r="V15" s="26">
         <v>0.02</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>0</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>10</v>
-      </c>
-      <c r="X15" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y15" s="26">
         <v>0.04</v>
       </c>
       <c r="Z15" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA15" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA15" s="26">
+      <c r="AB15" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB15" s="26">
+      <c r="AC15" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC15" s="26" t="s">
+      <c r="AD15" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD15" s="41">
+      <c r="AE15" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE15" s="26">
+      <c r="AF15" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>112</v>
       </c>
-      <c r="AG15" s="2" t="s">
+      <c r="AH15" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH15" s="2" t="s">
+      <c r="AI15" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>30</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
         <v>115</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>5</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>200</v>
       </c>
-      <c r="AM15" s="2" t="s">
+      <c r="AN15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1</v>
       </c>
-      <c r="AO15" s="2" t="s">
+      <c r="AP15" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP15" s="17">
+      <c r="AQ15" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <v>200</v>
       </c>
-      <c r="AR15" s="2" t="s">
+      <c r="AS15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS15" s="12">
+      <c r="AT15" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT15" s="12">
+      <c r="AU15" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU15" s="12">
+      <c r="AV15" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV15" s="18" t="b">
+      <c r="AW15" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW15" s="18" t="b">
+      <c r="AX15" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX15" s="18" t="b">
+      <c r="AY15" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>298</v>
       </c>
@@ -3517,151 +3550,154 @@
         <v>294</v>
       </c>
       <c r="C16" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>211</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>188</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>500</v>
-      </c>
-      <c r="H16" t="s">
-        <v>109</v>
       </c>
       <c r="I16" t="s">
         <v>109</v>
       </c>
       <c r="J16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" t="s">
         <v>208</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>167</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>215</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>202</v>
       </c>
-      <c r="N16" s="26">
+      <c r="O16" s="26">
         <v>-0.01</v>
       </c>
-      <c r="O16" s="18" t="b">
+      <c r="P16" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P16" s="26">
+      <c r="Q16" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>75</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>50</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>60</v>
       </c>
-      <c r="U16" s="26">
+      <c r="V16" s="26">
         <v>0.02</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>10</v>
-      </c>
-      <c r="X16" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y16" s="26">
         <v>0.04</v>
       </c>
       <c r="Z16" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA16" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA16" s="26">
+      <c r="AB16" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB16" s="26">
+      <c r="AC16" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC16" s="26" t="s">
+      <c r="AD16" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD16" s="41">
+      <c r="AE16" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE16" s="26">
+      <c r="AF16" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>112</v>
       </c>
-      <c r="AG16" s="2" t="s">
+      <c r="AH16" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH16" s="2" t="s">
+      <c r="AI16" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>30</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
         <v>115</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>5</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>200</v>
       </c>
-      <c r="AM16" s="2" t="s">
+      <c r="AN16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>1</v>
       </c>
-      <c r="AO16" s="2" t="s">
+      <c r="AP16" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP16" s="17">
+      <c r="AQ16" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <v>200</v>
       </c>
-      <c r="AR16" s="2" t="s">
+      <c r="AS16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS16" s="12">
+      <c r="AT16" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT16" s="12">
+      <c r="AU16" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU16" s="12">
+      <c r="AV16" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV16" s="18" t="b">
+      <c r="AW16" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW16" s="18" t="b">
+      <c r="AX16" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX16" s="18" t="b">
+      <c r="AY16" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:50" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>366</v>
       </c>
@@ -3669,151 +3705,154 @@
         <v>294</v>
       </c>
       <c r="C17" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="F17" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="43">
+      <c r="G17" s="43">
         <v>1000</v>
       </c>
-      <c r="G17" s="43">
+      <c r="H17" s="43">
         <v>500</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>109</v>
       </c>
       <c r="I17" s="43" t="s">
         <v>109</v>
       </c>
       <c r="J17" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="K17" s="43" t="s">
+      <c r="L17" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="L17" s="43" t="s">
+      <c r="M17" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="M17" s="43" t="s">
+      <c r="N17" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="N17" s="51">
+      <c r="O17" s="51">
         <v>0.02</v>
       </c>
-      <c r="O17" s="48" t="b">
+      <c r="P17" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="P17" s="51">
+      <c r="Q17" s="51">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q17" s="43">
+      <c r="R17" s="43">
         <v>3</v>
       </c>
-      <c r="R17" s="43">
+      <c r="S17" s="43">
         <v>75</v>
       </c>
-      <c r="S17" s="43">
+      <c r="T17" s="43">
         <v>50</v>
       </c>
-      <c r="T17" s="43">
+      <c r="U17" s="43">
         <v>60</v>
       </c>
-      <c r="U17" s="51">
+      <c r="V17" s="51">
         <v>0.02</v>
       </c>
-      <c r="V17" s="43">
+      <c r="W17" s="43">
         <v>0</v>
       </c>
-      <c r="W17" s="43">
+      <c r="X17" s="43">
         <v>10</v>
-      </c>
-      <c r="X17" s="51">
-        <v>0.04</v>
       </c>
       <c r="Y17" s="51">
         <v>0.04</v>
       </c>
       <c r="Z17" s="51">
+        <v>0.04</v>
+      </c>
+      <c r="AA17" s="51">
         <v>0.03</v>
       </c>
-      <c r="AA17" s="51">
+      <c r="AB17" s="51">
         <v>0.01</v>
       </c>
-      <c r="AB17" s="51">
+      <c r="AC17" s="51">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC17" s="51" t="s">
+      <c r="AD17" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="AD17" s="52">
+      <c r="AE17" s="52">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE17" s="51">
+      <c r="AF17" s="51">
         <v>0.12</v>
       </c>
-      <c r="AF17" s="43" t="s">
+      <c r="AG17" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="AG17" s="44" t="s">
+      <c r="AH17" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="AH17" s="44" t="s">
+      <c r="AI17" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="AI17" s="43">
+      <c r="AJ17" s="43">
         <v>30</v>
       </c>
-      <c r="AJ17" s="43" t="s">
+      <c r="AK17" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="AK17" s="43">
+      <c r="AL17" s="43">
         <v>5</v>
       </c>
-      <c r="AL17" s="43">
+      <c r="AM17" s="43">
         <v>200</v>
       </c>
-      <c r="AM17" s="44" t="s">
+      <c r="AN17" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="AN17" s="43">
+      <c r="AO17" s="43">
         <v>1</v>
       </c>
-      <c r="AO17" s="44" t="s">
+      <c r="AP17" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="AP17" s="47">
+      <c r="AQ17" s="47">
         <v>0.75</v>
       </c>
-      <c r="AQ17" s="43">
+      <c r="AR17" s="43">
         <v>200</v>
       </c>
-      <c r="AR17" s="44" t="s">
+      <c r="AS17" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="AS17" s="46">
+      <c r="AT17" s="46">
         <v>0.25</v>
       </c>
-      <c r="AT17" s="46">
+      <c r="AU17" s="46">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU17" s="46">
+      <c r="AV17" s="46">
         <v>0.05</v>
       </c>
-      <c r="AV17" s="48" t="b">
+      <c r="AW17" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="AW17" s="48" t="b">
+      <c r="AX17" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="AX17" s="48" t="b">
+      <c r="AY17" s="48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:50" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
         <v>367</v>
       </c>
@@ -3821,151 +3860,154 @@
         <v>294</v>
       </c>
       <c r="C18" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="F18" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="F18" s="43">
+      <c r="G18" s="43">
         <v>1000</v>
       </c>
-      <c r="G18" s="43">
+      <c r="H18" s="43">
         <v>500</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>109</v>
       </c>
       <c r="I18" s="43" t="s">
         <v>109</v>
       </c>
       <c r="J18" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="K18" s="43" t="s">
+      <c r="L18" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="L18" s="43" t="s">
+      <c r="M18" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="M18" s="43" t="s">
+      <c r="N18" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="N18" s="51">
+      <c r="O18" s="51">
         <v>-0.02</v>
       </c>
-      <c r="O18" s="48" t="b">
+      <c r="P18" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="P18" s="51">
+      <c r="Q18" s="51">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q18" s="43">
+      <c r="R18" s="43">
         <v>3</v>
       </c>
-      <c r="R18" s="43">
+      <c r="S18" s="43">
         <v>75</v>
       </c>
-      <c r="S18" s="43">
+      <c r="T18" s="43">
         <v>50</v>
       </c>
-      <c r="T18" s="43">
+      <c r="U18" s="43">
         <v>60</v>
       </c>
-      <c r="U18" s="51">
+      <c r="V18" s="51">
         <v>0.02</v>
       </c>
-      <c r="V18" s="43">
+      <c r="W18" s="43">
         <v>0</v>
       </c>
-      <c r="W18" s="43">
+      <c r="X18" s="43">
         <v>10</v>
-      </c>
-      <c r="X18" s="51">
-        <v>0.04</v>
       </c>
       <c r="Y18" s="51">
         <v>0.04</v>
       </c>
       <c r="Z18" s="51">
+        <v>0.04</v>
+      </c>
+      <c r="AA18" s="51">
         <v>0.03</v>
       </c>
-      <c r="AA18" s="51">
+      <c r="AB18" s="51">
         <v>0.01</v>
       </c>
-      <c r="AB18" s="51">
+      <c r="AC18" s="51">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC18" s="51" t="s">
+      <c r="AD18" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="AD18" s="52">
+      <c r="AE18" s="52">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE18" s="51">
+      <c r="AF18" s="51">
         <v>0.12</v>
       </c>
-      <c r="AF18" s="43" t="s">
+      <c r="AG18" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="AG18" s="44" t="s">
+      <c r="AH18" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="AH18" s="44" t="s">
+      <c r="AI18" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="AI18" s="43">
+      <c r="AJ18" s="43">
         <v>30</v>
       </c>
-      <c r="AJ18" s="43" t="s">
+      <c r="AK18" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="AK18" s="43">
+      <c r="AL18" s="43">
         <v>5</v>
       </c>
-      <c r="AL18" s="43">
+      <c r="AM18" s="43">
         <v>200</v>
       </c>
-      <c r="AM18" s="44" t="s">
+      <c r="AN18" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="AN18" s="43">
+      <c r="AO18" s="43">
         <v>1</v>
       </c>
-      <c r="AO18" s="44" t="s">
+      <c r="AP18" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="AP18" s="47">
+      <c r="AQ18" s="47">
         <v>0.75</v>
       </c>
-      <c r="AQ18" s="43">
+      <c r="AR18" s="43">
         <v>200</v>
       </c>
-      <c r="AR18" s="44" t="s">
+      <c r="AS18" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="AS18" s="46">
+      <c r="AT18" s="46">
         <v>0.25</v>
       </c>
-      <c r="AT18" s="46">
+      <c r="AU18" s="46">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU18" s="46">
+      <c r="AV18" s="46">
         <v>0.05</v>
       </c>
-      <c r="AV18" s="48" t="b">
+      <c r="AW18" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="AW18" s="48" t="b">
+      <c r="AX18" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="AX18" s="48" t="b">
+      <c r="AY18" s="48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>347</v>
       </c>
@@ -3973,151 +4015,154 @@
         <v>302</v>
       </c>
       <c r="C19" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
         <v>212</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>196</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>600</v>
-      </c>
-      <c r="H19" t="s">
-        <v>109</v>
       </c>
       <c r="I19" t="s">
         <v>109</v>
       </c>
       <c r="J19" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" t="s">
         <v>209</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>167</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>215</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>202</v>
       </c>
-      <c r="N19" s="26">
+      <c r="O19" s="26">
         <v>0</v>
       </c>
-      <c r="O19" s="18" t="b">
+      <c r="P19" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P19" s="26">
+      <c r="Q19" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>3</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>75</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>50</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>60</v>
       </c>
-      <c r="U19" s="26">
+      <c r="V19" s="26">
         <v>0.02</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>10</v>
-      </c>
-      <c r="X19" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y19" s="26">
         <v>0.04</v>
       </c>
       <c r="Z19" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA19" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA19" s="26">
+      <c r="AB19" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB19" s="26">
+      <c r="AC19" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC19" s="26" t="s">
+      <c r="AD19" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD19" s="41">
+      <c r="AE19" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE19" s="26">
+      <c r="AF19" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>112</v>
       </c>
-      <c r="AG19" s="2" t="s">
+      <c r="AH19" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH19" s="2" t="s">
+      <c r="AI19" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>30</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AK19" t="s">
         <v>115</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>5</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>200</v>
       </c>
-      <c r="AM19" s="2" t="s">
+      <c r="AN19" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>1</v>
       </c>
-      <c r="AO19" s="2" t="s">
+      <c r="AP19" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP19" s="17">
+      <c r="AQ19" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <v>200</v>
       </c>
-      <c r="AR19" s="2" t="s">
+      <c r="AS19" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS19" s="12">
+      <c r="AT19" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT19" s="12">
+      <c r="AU19" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU19" s="12">
+      <c r="AV19" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV19" s="18" t="b">
+      <c r="AW19" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW19" s="18" t="b">
+      <c r="AX19" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX19" s="18" t="b">
+      <c r="AY19" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>350</v>
       </c>
@@ -4125,151 +4170,154 @@
         <v>302</v>
       </c>
       <c r="C20" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>212</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>196</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>600</v>
-      </c>
-      <c r="H20" t="s">
-        <v>109</v>
       </c>
       <c r="I20" t="s">
         <v>109</v>
       </c>
       <c r="J20" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" t="s">
         <v>209</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>167</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>215</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>202</v>
       </c>
-      <c r="N20" s="26">
+      <c r="O20" s="26">
         <v>-0.01</v>
       </c>
-      <c r="O20" s="18" t="b">
+      <c r="P20" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P20" s="26">
+      <c r="Q20" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>3</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>75</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>50</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>60</v>
       </c>
-      <c r="U20" s="26">
+      <c r="V20" s="26">
         <v>0.02</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>10</v>
-      </c>
-      <c r="X20" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y20" s="26">
         <v>0.04</v>
       </c>
       <c r="Z20" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA20" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA20" s="26">
+      <c r="AB20" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB20" s="26">
+      <c r="AC20" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC20" s="26" t="s">
+      <c r="AD20" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD20" s="41">
+      <c r="AE20" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE20" s="26">
+      <c r="AF20" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>112</v>
       </c>
-      <c r="AG20" s="2" t="s">
+      <c r="AH20" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH20" s="2" t="s">
+      <c r="AI20" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>30</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AK20" t="s">
         <v>115</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>5</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>200</v>
       </c>
-      <c r="AM20" s="2" t="s">
+      <c r="AN20" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>1</v>
       </c>
-      <c r="AO20" s="2" t="s">
+      <c r="AP20" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP20" s="17">
+      <c r="AQ20" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>200</v>
       </c>
-      <c r="AR20" s="2" t="s">
+      <c r="AS20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS20" s="12">
+      <c r="AT20" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT20" s="12">
+      <c r="AU20" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU20" s="12">
+      <c r="AV20" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV20" s="18" t="b">
+      <c r="AW20" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW20" s="18" t="b">
+      <c r="AX20" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX20" s="18" t="b">
+      <c r="AY20" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>348</v>
       </c>
@@ -4277,151 +4325,154 @@
         <v>302</v>
       </c>
       <c r="C21" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>213</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>197</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>600</v>
-      </c>
-      <c r="H21" t="s">
-        <v>109</v>
       </c>
       <c r="I21" t="s">
         <v>109</v>
       </c>
       <c r="J21" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" t="s">
         <v>210</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>167</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>215</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>202</v>
       </c>
-      <c r="N21" s="26">
+      <c r="O21" s="26">
         <v>0</v>
       </c>
-      <c r="O21" s="18" t="b">
+      <c r="P21" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P21" s="26">
+      <c r="Q21" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>3</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>75</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>50</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>60</v>
       </c>
-      <c r="U21" s="26">
+      <c r="V21" s="26">
         <v>0.02</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>10</v>
-      </c>
-      <c r="X21" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y21" s="26">
         <v>0.04</v>
       </c>
       <c r="Z21" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA21" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA21" s="26">
+      <c r="AB21" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB21" s="26">
+      <c r="AC21" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC21" s="26" t="s">
+      <c r="AD21" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD21" s="41">
+      <c r="AE21" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE21" s="26">
+      <c r="AF21" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>112</v>
       </c>
-      <c r="AG21" s="2" t="s">
+      <c r="AH21" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH21" s="2" t="s">
+      <c r="AI21" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>30</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AK21" t="s">
         <v>115</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>5</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>200</v>
       </c>
-      <c r="AM21" s="2" t="s">
+      <c r="AN21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>1</v>
       </c>
-      <c r="AO21" s="2" t="s">
+      <c r="AP21" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP21" s="17">
+      <c r="AQ21" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ21">
+      <c r="AR21">
         <v>200</v>
       </c>
-      <c r="AR21" s="2" t="s">
+      <c r="AS21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS21" s="12">
+      <c r="AT21" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT21" s="12">
+      <c r="AU21" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU21" s="12">
+      <c r="AV21" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV21" s="18" t="b">
+      <c r="AW21" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW21" s="18" t="b">
+      <c r="AX21" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX21" s="18" t="b">
+      <c r="AY21" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>351</v>
       </c>
@@ -4429,151 +4480,154 @@
         <v>302</v>
       </c>
       <c r="C22" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>213</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>197</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>600</v>
-      </c>
-      <c r="H22" t="s">
-        <v>109</v>
       </c>
       <c r="I22" t="s">
         <v>109</v>
       </c>
       <c r="J22" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" t="s">
         <v>210</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>167</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>215</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>202</v>
       </c>
-      <c r="N22" s="26">
+      <c r="O22" s="26">
         <v>-0.01</v>
       </c>
-      <c r="O22" s="18" t="b">
+      <c r="P22" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P22" s="26">
+      <c r="Q22" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>3</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>75</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>50</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>60</v>
       </c>
-      <c r="U22" s="26">
+      <c r="V22" s="26">
         <v>0.02</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>10</v>
-      </c>
-      <c r="X22" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y22" s="26">
         <v>0.04</v>
       </c>
       <c r="Z22" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA22" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA22" s="26">
+      <c r="AB22" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB22" s="26">
+      <c r="AC22" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC22" s="26" t="s">
+      <c r="AD22" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD22" s="41">
+      <c r="AE22" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE22" s="26">
+      <c r="AF22" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>112</v>
       </c>
-      <c r="AG22" s="2" t="s">
+      <c r="AH22" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH22" s="2" t="s">
+      <c r="AI22" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>30</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AK22" t="s">
         <v>115</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>5</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>200</v>
       </c>
-      <c r="AM22" s="2" t="s">
+      <c r="AN22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>1</v>
       </c>
-      <c r="AO22" s="2" t="s">
+      <c r="AP22" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP22" s="17">
+      <c r="AQ22" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ22">
+      <c r="AR22">
         <v>200</v>
       </c>
-      <c r="AR22" s="2" t="s">
+      <c r="AS22" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS22" s="12">
+      <c r="AT22" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT22" s="12">
+      <c r="AU22" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU22" s="12">
+      <c r="AV22" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV22" s="18" t="b">
+      <c r="AW22" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW22" s="18" t="b">
+      <c r="AX22" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX22" s="18" t="b">
+      <c r="AY22" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>349</v>
       </c>
@@ -4581,151 +4635,154 @@
         <v>302</v>
       </c>
       <c r="C23" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>214</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>198</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>300</v>
-      </c>
-      <c r="H23" t="s">
-        <v>109</v>
       </c>
       <c r="I23" t="s">
         <v>109</v>
       </c>
       <c r="J23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" t="s">
         <v>207</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>167</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>215</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>202</v>
       </c>
-      <c r="N23" s="26">
+      <c r="O23" s="26">
         <v>0</v>
       </c>
-      <c r="O23" s="18" t="b">
+      <c r="P23" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P23" s="26">
+      <c r="Q23" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>3</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>75</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>50</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>60</v>
       </c>
-      <c r="U23" s="26">
+      <c r="V23" s="26">
         <v>0.02</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>10</v>
-      </c>
-      <c r="X23" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y23" s="26">
         <v>0.04</v>
       </c>
       <c r="Z23" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA23" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA23" s="26">
+      <c r="AB23" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB23" s="26">
+      <c r="AC23" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC23" s="26" t="s">
+      <c r="AD23" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD23" s="41">
+      <c r="AE23" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE23" s="26">
+      <c r="AF23" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>112</v>
       </c>
-      <c r="AG23" s="2" t="s">
+      <c r="AH23" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH23" s="2" t="s">
+      <c r="AI23" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>30</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AK23" t="s">
         <v>115</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>5</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>200</v>
       </c>
-      <c r="AM23" s="2" t="s">
+      <c r="AN23" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>1</v>
       </c>
-      <c r="AO23" s="2" t="s">
+      <c r="AP23" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP23" s="17">
+      <c r="AQ23" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ23">
+      <c r="AR23">
         <v>200</v>
       </c>
-      <c r="AR23" s="2" t="s">
+      <c r="AS23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS23" s="12">
+      <c r="AT23" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT23" s="12">
+      <c r="AU23" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU23" s="12">
+      <c r="AV23" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV23" s="18" t="b">
+      <c r="AW23" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW23" s="18" t="b">
+      <c r="AX23" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX23" s="18" t="b">
+      <c r="AY23" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>352</v>
       </c>
@@ -4733,321 +4790,330 @@
         <v>302</v>
       </c>
       <c r="C24" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>214</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>198</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>300</v>
-      </c>
-      <c r="H24" t="s">
-        <v>109</v>
       </c>
       <c r="I24" t="s">
         <v>109</v>
       </c>
       <c r="J24" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" t="s">
         <v>207</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>167</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>215</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>202</v>
       </c>
-      <c r="N24" s="26">
+      <c r="O24" s="26">
         <v>0.01</v>
       </c>
-      <c r="O24" s="18" t="b">
+      <c r="P24" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P24" s="26">
+      <c r="Q24" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>3</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>75</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>50</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>60</v>
       </c>
-      <c r="U24" s="26">
+      <c r="V24" s="26">
         <v>0.02</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>10</v>
-      </c>
-      <c r="X24" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y24" s="26">
         <v>0.04</v>
       </c>
       <c r="Z24" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA24" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA24" s="26">
+      <c r="AB24" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB24" s="26">
+      <c r="AC24" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC24" s="26" t="s">
+      <c r="AD24" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD24" s="41">
+      <c r="AE24" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE24" s="26">
+      <c r="AF24" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>112</v>
       </c>
-      <c r="AG24" s="2" t="s">
+      <c r="AH24" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH24" s="2" t="s">
+      <c r="AI24" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>30</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AK24" t="s">
         <v>115</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>5</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>200</v>
       </c>
-      <c r="AM24" s="2" t="s">
+      <c r="AN24" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>1</v>
       </c>
-      <c r="AO24" s="2" t="s">
+      <c r="AP24" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP24" s="17">
+      <c r="AQ24" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ24">
+      <c r="AR24">
         <v>200</v>
       </c>
-      <c r="AR24" s="2" t="s">
+      <c r="AS24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS24" s="12">
+      <c r="AT24" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT24" s="12">
+      <c r="AU24" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU24" s="12">
+      <c r="AV24" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV24" s="18" t="b">
+      <c r="AW24" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW24" s="18" t="b">
+      <c r="AX24" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX24" s="18" t="b">
+      <c r="AY24" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:50" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="49"/>
       <c r="C25" s="45"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="X25" s="51"/>
+      <c r="D25" s="45"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="51"/>
+      <c r="V25" s="51"/>
       <c r="Y25" s="51"/>
       <c r="Z25" s="51"/>
       <c r="AA25" s="51"/>
       <c r="AB25" s="51"/>
       <c r="AC25" s="51"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="51"/>
-      <c r="AG25" s="44"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="51"/>
       <c r="AH25" s="44"/>
-      <c r="AM25" s="44"/>
-      <c r="AO25" s="44"/>
-      <c r="AP25" s="47"/>
-      <c r="AR25" s="44"/>
-      <c r="AS25" s="46"/>
+      <c r="AI25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AP25" s="44"/>
+      <c r="AQ25" s="47"/>
+      <c r="AS25" s="44"/>
       <c r="AT25" s="46"/>
       <c r="AU25" s="46"/>
-      <c r="AV25" s="48"/>
+      <c r="AV25" s="46"/>
       <c r="AW25" s="48"/>
       <c r="AX25" s="48"/>
+      <c r="AY25" s="48"/>
     </row>
-    <row r="26" spans="1:50" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="49"/>
       <c r="C26" s="45"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="X26" s="51"/>
+      <c r="D26" s="45"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="51"/>
+      <c r="V26" s="51"/>
       <c r="Y26" s="51"/>
       <c r="Z26" s="51"/>
       <c r="AA26" s="51"/>
       <c r="AB26" s="51"/>
       <c r="AC26" s="51"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="51"/>
-      <c r="AG26" s="44"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="51"/>
       <c r="AH26" s="44"/>
-      <c r="AM26" s="44"/>
-      <c r="AO26" s="44"/>
-      <c r="AP26" s="47"/>
-      <c r="AR26" s="44"/>
-      <c r="AS26" s="46"/>
+      <c r="AI26" s="44"/>
+      <c r="AN26" s="44"/>
+      <c r="AP26" s="44"/>
+      <c r="AQ26" s="47"/>
+      <c r="AS26" s="44"/>
       <c r="AT26" s="46"/>
       <c r="AU26" s="46"/>
-      <c r="AV26" s="48"/>
+      <c r="AV26" s="46"/>
       <c r="AW26" s="48"/>
       <c r="AX26" s="48"/>
+      <c r="AY26" s="48"/>
     </row>
-    <row r="27" spans="1:50" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="49"/>
       <c r="C27" s="45"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="X27" s="51"/>
+      <c r="D27" s="45"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="51"/>
+      <c r="V27" s="51"/>
       <c r="Y27" s="51"/>
       <c r="Z27" s="51"/>
       <c r="AA27" s="51"/>
       <c r="AB27" s="51"/>
       <c r="AC27" s="51"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="51"/>
-      <c r="AG27" s="44"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="51"/>
       <c r="AH27" s="44"/>
-      <c r="AM27" s="44"/>
-      <c r="AO27" s="44"/>
-      <c r="AP27" s="47"/>
-      <c r="AR27" s="44"/>
-      <c r="AS27" s="46"/>
+      <c r="AI27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AP27" s="44"/>
+      <c r="AQ27" s="47"/>
+      <c r="AS27" s="44"/>
       <c r="AT27" s="46"/>
       <c r="AU27" s="46"/>
-      <c r="AV27" s="48"/>
+      <c r="AV27" s="46"/>
       <c r="AW27" s="48"/>
       <c r="AX27" s="48"/>
+      <c r="AY27" s="48"/>
     </row>
-    <row r="28" spans="1:50" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="49"/>
       <c r="C28" s="45"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="X28" s="51"/>
+      <c r="D28" s="45"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="51"/>
+      <c r="V28" s="51"/>
       <c r="Y28" s="51"/>
       <c r="Z28" s="51"/>
       <c r="AA28" s="51"/>
       <c r="AB28" s="51"/>
       <c r="AC28" s="51"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="51"/>
-      <c r="AG28" s="44"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="52"/>
+      <c r="AF28" s="51"/>
       <c r="AH28" s="44"/>
-      <c r="AM28" s="44"/>
-      <c r="AO28" s="44"/>
-      <c r="AP28" s="47"/>
-      <c r="AR28" s="44"/>
-      <c r="AS28" s="46"/>
+      <c r="AI28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AP28" s="44"/>
+      <c r="AQ28" s="47"/>
+      <c r="AS28" s="44"/>
       <c r="AT28" s="46"/>
       <c r="AU28" s="46"/>
-      <c r="AV28" s="48"/>
+      <c r="AV28" s="46"/>
       <c r="AW28" s="48"/>
       <c r="AX28" s="48"/>
+      <c r="AY28" s="48"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B29" s="19"/>
       <c r="C29" s="45"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="X29" s="26"/>
+      <c r="D29" s="45"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="26"/>
+      <c r="V29" s="26"/>
       <c r="Y29" s="26"/>
       <c r="Z29" s="26"/>
       <c r="AA29" s="26"/>
       <c r="AB29" s="26"/>
       <c r="AC29" s="26"/>
-      <c r="AD29" s="41"/>
-      <c r="AE29" s="26"/>
-      <c r="AG29" s="2"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="26"/>
       <c r="AH29" s="2"/>
-      <c r="AM29" s="2"/>
-      <c r="AO29" s="2"/>
-      <c r="AP29" s="17"/>
-      <c r="AR29" s="2"/>
-      <c r="AS29" s="12"/>
+      <c r="AI29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="17"/>
+      <c r="AS29" s="2"/>
       <c r="AT29" s="12"/>
       <c r="AU29" s="12"/>
-      <c r="AV29" s="18"/>
+      <c r="AV29" s="12"/>
       <c r="AW29" s="18"/>
       <c r="AX29" s="18"/>
+      <c r="AY29" s="18"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B30" s="31" t="s">
         <v>318</v>
       </c>
       <c r="C30" s="45"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="X30" s="26"/>
+      <c r="D30" s="45"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="26"/>
+      <c r="V30" s="26"/>
       <c r="Y30" s="26"/>
       <c r="Z30" s="26"/>
       <c r="AA30" s="26"/>
       <c r="AB30" s="26"/>
       <c r="AC30" s="26"/>
-      <c r="AD30" s="41"/>
-      <c r="AE30" s="26"/>
-      <c r="AG30" s="2"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="26"/>
       <c r="AH30" s="2"/>
-      <c r="AM30" s="2"/>
-      <c r="AO30" s="2"/>
-      <c r="AP30" s="17"/>
-      <c r="AR30" s="2"/>
-      <c r="AS30" s="12"/>
+      <c r="AI30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="17"/>
+      <c r="AS30" s="2"/>
       <c r="AT30" s="12"/>
       <c r="AU30" s="12"/>
-      <c r="AV30" s="18"/>
+      <c r="AV30" s="12"/>
       <c r="AW30" s="18"/>
       <c r="AX30" s="18"/>
+      <c r="AY30" s="18"/>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>319</v>
       </c>
@@ -5057,149 +5123,150 @@
       <c r="C31" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="45"/>
+      <c r="E31" t="s">
         <v>211</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>188</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>500</v>
-      </c>
-      <c r="H31" t="s">
-        <v>109</v>
       </c>
       <c r="I31" t="s">
         <v>109</v>
       </c>
       <c r="J31" t="s">
+        <v>109</v>
+      </c>
+      <c r="K31" t="s">
         <v>208</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>167</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>215</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>202</v>
       </c>
-      <c r="N31" s="26">
+      <c r="O31" s="26">
         <v>0</v>
       </c>
-      <c r="O31" s="18" t="b">
+      <c r="P31" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P31" s="26">
+      <c r="Q31" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>3</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>75</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>50</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>60</v>
       </c>
-      <c r="U31" s="26">
+      <c r="V31" s="26">
         <v>0.02</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>10</v>
-      </c>
-      <c r="X31" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y31" s="26">
         <v>0.04</v>
       </c>
       <c r="Z31" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA31" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA31" s="26">
+      <c r="AB31" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB31" s="26">
+      <c r="AC31" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC31" s="26" t="s">
+      <c r="AD31" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD31" s="41">
+      <c r="AE31" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE31" s="26">
+      <c r="AF31" s="26">
         <v>0.04</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AG31" t="s">
         <v>112</v>
       </c>
-      <c r="AG31" s="2" t="s">
+      <c r="AH31" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH31" s="2" t="s">
+      <c r="AI31" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>30</v>
       </c>
-      <c r="AJ31" t="s">
+      <c r="AK31" t="s">
         <v>115</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>5</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>200</v>
       </c>
-      <c r="AM31" s="2" t="s">
+      <c r="AN31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>1</v>
       </c>
-      <c r="AO31" s="2" t="s">
+      <c r="AP31" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP31" s="17">
+      <c r="AQ31" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ31">
+      <c r="AR31">
         <v>200</v>
       </c>
-      <c r="AR31" s="2" t="s">
+      <c r="AS31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS31" s="12">
+      <c r="AT31" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT31" s="12">
+      <c r="AU31" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU31" s="12">
+      <c r="AV31" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV31" s="18" t="b">
+      <c r="AW31" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW31" s="18" t="b">
+      <c r="AX31" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX31" s="18" t="b">
+      <c r="AY31" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
         <v>321</v>
       </c>
@@ -5209,149 +5276,150 @@
       <c r="C32" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="45"/>
+      <c r="E32" t="s">
         <v>211</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>188</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>500</v>
-      </c>
-      <c r="H32" t="s">
-        <v>109</v>
       </c>
       <c r="I32" t="s">
         <v>109</v>
       </c>
       <c r="J32" t="s">
+        <v>109</v>
+      </c>
+      <c r="K32" t="s">
         <v>208</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>167</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>215</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>202</v>
       </c>
-      <c r="N32" s="26">
+      <c r="O32" s="26">
         <v>0</v>
       </c>
-      <c r="O32" s="18" t="b">
+      <c r="P32" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P32" s="26">
+      <c r="Q32" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>3</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>75</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>50</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>60</v>
       </c>
-      <c r="U32" s="26">
+      <c r="V32" s="26">
         <v>0.02</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>10</v>
-      </c>
-      <c r="X32" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y32" s="26">
         <v>0.04</v>
       </c>
       <c r="Z32" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA32" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA32" s="26">
+      <c r="AB32" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB32" s="26">
+      <c r="AC32" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC32" s="26" t="s">
+      <c r="AD32" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD32" s="41">
+      <c r="AE32" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE32" s="26">
+      <c r="AF32" s="26">
         <v>0.08</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AG32" t="s">
         <v>112</v>
       </c>
-      <c r="AG32" s="2" t="s">
+      <c r="AH32" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH32" s="2" t="s">
+      <c r="AI32" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>30</v>
       </c>
-      <c r="AJ32" t="s">
+      <c r="AK32" t="s">
         <v>115</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>5</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>200</v>
       </c>
-      <c r="AM32" s="2" t="s">
+      <c r="AN32" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>1</v>
       </c>
-      <c r="AO32" s="2" t="s">
+      <c r="AP32" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP32" s="17">
+      <c r="AQ32" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ32">
+      <c r="AR32">
         <v>200</v>
       </c>
-      <c r="AR32" s="2" t="s">
+      <c r="AS32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS32" s="12">
+      <c r="AT32" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT32" s="12">
+      <c r="AU32" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU32" s="12">
+      <c r="AV32" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV32" s="18" t="b">
+      <c r="AW32" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW32" s="18" t="b">
+      <c r="AX32" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX32" s="18" t="b">
+      <c r="AY32" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>323</v>
       </c>
@@ -5361,149 +5429,150 @@
       <c r="C33" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="45"/>
+      <c r="E33" t="s">
         <v>211</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>188</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>1000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>500</v>
-      </c>
-      <c r="H33" t="s">
-        <v>109</v>
       </c>
       <c r="I33" t="s">
         <v>109</v>
       </c>
       <c r="J33" t="s">
+        <v>109</v>
+      </c>
+      <c r="K33" t="s">
         <v>208</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>167</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>215</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>202</v>
       </c>
-      <c r="N33" s="26">
+      <c r="O33" s="26">
         <v>0</v>
       </c>
-      <c r="O33" s="18" t="b">
+      <c r="P33" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P33" s="26">
+      <c r="Q33" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>3</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>75</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>50</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>60</v>
       </c>
-      <c r="U33" s="26">
+      <c r="V33" s="26">
         <v>0.02</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>10</v>
-      </c>
-      <c r="X33" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y33" s="26">
         <v>0.04</v>
       </c>
       <c r="Z33" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA33" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA33" s="26">
+      <c r="AB33" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB33" s="26">
+      <c r="AC33" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC33" s="26" t="s">
+      <c r="AD33" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD33" s="41">
+      <c r="AE33" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE33" s="26">
+      <c r="AF33" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF33" t="s">
+      <c r="AG33" t="s">
         <v>112</v>
       </c>
-      <c r="AG33" s="2" t="s">
+      <c r="AH33" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH33" s="2" t="s">
+      <c r="AI33" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>30</v>
       </c>
-      <c r="AJ33" t="s">
+      <c r="AK33" t="s">
         <v>115</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>5</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>200</v>
       </c>
-      <c r="AM33" s="2" t="s">
+      <c r="AN33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>1</v>
       </c>
-      <c r="AO33" s="2" t="s">
+      <c r="AP33" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP33" s="17">
+      <c r="AQ33" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ33">
+      <c r="AR33">
         <v>200</v>
       </c>
-      <c r="AR33" s="2" t="s">
+      <c r="AS33" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS33" s="12">
+      <c r="AT33" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT33" s="12">
+      <c r="AU33" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU33" s="12">
+      <c r="AV33" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV33" s="18" t="b">
+      <c r="AW33" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW33" s="18" t="b">
+      <c r="AX33" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX33" s="18" t="b">
+      <c r="AY33" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>325</v>
       </c>
@@ -5513,149 +5582,150 @@
       <c r="C34" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="45"/>
+      <c r="E34" t="s">
         <v>211</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>188</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>500</v>
-      </c>
-      <c r="H34" t="s">
-        <v>109</v>
       </c>
       <c r="I34" t="s">
         <v>109</v>
       </c>
       <c r="J34" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" t="s">
         <v>208</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>167</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>215</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>202</v>
       </c>
-      <c r="N34" s="26">
+      <c r="O34" s="26">
         <v>0</v>
       </c>
-      <c r="O34" s="18" t="b">
+      <c r="P34" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P34" s="26">
+      <c r="Q34" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>3</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>75</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>50</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>60</v>
       </c>
-      <c r="U34" s="26">
+      <c r="V34" s="26">
         <v>0.02</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>10</v>
-      </c>
-      <c r="X34" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y34" s="26">
         <v>0.04</v>
       </c>
       <c r="Z34" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA34" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA34" s="26">
+      <c r="AB34" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB34" s="26">
+      <c r="AC34" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC34" s="26" t="s">
+      <c r="AD34" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD34" s="41">
+      <c r="AE34" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE34" s="26">
+      <c r="AF34" s="26">
         <v>0.16</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AG34" t="s">
         <v>112</v>
       </c>
-      <c r="AG34" s="2" t="s">
+      <c r="AH34" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH34" s="2" t="s">
+      <c r="AI34" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>30</v>
       </c>
-      <c r="AJ34" t="s">
+      <c r="AK34" t="s">
         <v>115</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>5</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>200</v>
       </c>
-      <c r="AM34" s="2" t="s">
+      <c r="AN34" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>1</v>
       </c>
-      <c r="AO34" s="2" t="s">
+      <c r="AP34" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP34" s="17">
+      <c r="AQ34" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ34">
+      <c r="AR34">
         <v>200</v>
       </c>
-      <c r="AR34" s="2" t="s">
+      <c r="AS34" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS34" s="12">
+      <c r="AT34" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT34" s="12">
+      <c r="AU34" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU34" s="12">
+      <c r="AV34" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV34" s="18" t="b">
+      <c r="AW34" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW34" s="18" t="b">
+      <c r="AX34" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX34" s="18" t="b">
+      <c r="AY34" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>327</v>
       </c>
@@ -5665,177 +5735,179 @@
       <c r="C35" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="45"/>
+      <c r="E35" t="s">
         <v>211</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>188</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>1000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>500</v>
-      </c>
-      <c r="H35" t="s">
-        <v>109</v>
       </c>
       <c r="I35" t="s">
         <v>109</v>
       </c>
       <c r="J35" t="s">
+        <v>109</v>
+      </c>
+      <c r="K35" t="s">
         <v>208</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>167</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>215</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>202</v>
       </c>
-      <c r="N35" s="26">
+      <c r="O35" s="26">
         <v>0</v>
       </c>
-      <c r="O35" s="18" t="b">
+      <c r="P35" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P35" s="26">
+      <c r="Q35" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>3</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>75</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>50</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>60</v>
       </c>
-      <c r="U35" s="26">
+      <c r="V35" s="26">
         <v>0.02</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>10</v>
-      </c>
-      <c r="X35" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y35" s="26">
         <v>0.04</v>
       </c>
       <c r="Z35" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA35" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA35" s="26">
+      <c r="AB35" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB35" s="26">
+      <c r="AC35" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC35" s="26" t="s">
+      <c r="AD35" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD35" s="41">
+      <c r="AE35" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE35" s="26">
+      <c r="AF35" s="26">
         <v>0.2</v>
       </c>
-      <c r="AF35" t="s">
+      <c r="AG35" t="s">
         <v>112</v>
       </c>
-      <c r="AG35" s="2" t="s">
+      <c r="AH35" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH35" s="2" t="s">
+      <c r="AI35" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>30</v>
       </c>
-      <c r="AJ35" t="s">
+      <c r="AK35" t="s">
         <v>115</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>5</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>200</v>
       </c>
-      <c r="AM35" s="2" t="s">
+      <c r="AN35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>1</v>
       </c>
-      <c r="AO35" s="2" t="s">
+      <c r="AP35" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP35" s="17">
+      <c r="AQ35" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ35">
+      <c r="AR35">
         <v>200</v>
       </c>
-      <c r="AR35" s="2" t="s">
+      <c r="AS35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS35" s="12">
+      <c r="AT35" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT35" s="12">
+      <c r="AU35" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU35" s="12">
+      <c r="AV35" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV35" s="18" t="b">
+      <c r="AW35" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW35" s="18" t="b">
+      <c r="AX35" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX35" s="18" t="b">
+      <c r="AY35" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B36" s="19"/>
       <c r="C36" s="45"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="X36" s="26"/>
+      <c r="D36" s="45"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="26"/>
+      <c r="V36" s="26"/>
       <c r="Y36" s="26"/>
       <c r="Z36" s="26"/>
       <c r="AA36" s="26"/>
       <c r="AB36" s="26"/>
       <c r="AC36" s="26"/>
-      <c r="AD36" s="41"/>
-      <c r="AE36" s="26"/>
-      <c r="AG36" s="2"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="41"/>
+      <c r="AF36" s="26"/>
       <c r="AH36" s="2"/>
-      <c r="AM36" s="2"/>
-      <c r="AO36" s="2"/>
-      <c r="AP36" s="17"/>
-      <c r="AR36" s="2"/>
-      <c r="AS36" s="12"/>
+      <c r="AI36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="17"/>
+      <c r="AS36" s="2"/>
       <c r="AT36" s="12"/>
       <c r="AU36" s="12"/>
-      <c r="AV36" s="18"/>
+      <c r="AV36" s="12"/>
       <c r="AW36" s="18"/>
       <c r="AX36" s="18"/>
+      <c r="AY36" s="18"/>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>330</v>
       </c>
@@ -5845,149 +5917,150 @@
       <c r="C37" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="45"/>
+      <c r="E37" t="s">
         <v>211</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>188</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>500</v>
-      </c>
-      <c r="H37" t="s">
-        <v>109</v>
       </c>
       <c r="I37" t="s">
         <v>109</v>
       </c>
       <c r="J37" t="s">
+        <v>109</v>
+      </c>
+      <c r="K37" t="s">
         <v>208</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>167</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>215</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>202</v>
       </c>
-      <c r="N37" s="26">
+      <c r="O37" s="26">
         <v>0</v>
       </c>
-      <c r="O37" s="18" t="b">
+      <c r="P37" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P37" s="26">
+      <c r="Q37" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>3</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>75</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>50</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>60</v>
       </c>
-      <c r="U37" s="26">
+      <c r="V37" s="26">
         <v>0.02</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>10</v>
-      </c>
-      <c r="X37" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y37" s="26">
         <v>0.04</v>
       </c>
       <c r="Z37" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA37" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA37" s="26">
+      <c r="AB37" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB37" s="26">
+      <c r="AC37" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC37" s="26" t="s">
+      <c r="AD37" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD37" s="41">
+      <c r="AE37" s="41">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AE37" s="26">
+      <c r="AF37" s="26">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AF37" t="s">
+      <c r="AG37" t="s">
         <v>112</v>
       </c>
-      <c r="AG37" s="2" t="s">
+      <c r="AH37" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH37" s="2" t="s">
+      <c r="AI37" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>30</v>
       </c>
-      <c r="AJ37" t="s">
+      <c r="AK37" t="s">
         <v>115</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>5</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>200</v>
       </c>
-      <c r="AM37" s="2" t="s">
+      <c r="AN37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>1</v>
       </c>
-      <c r="AO37" s="2" t="s">
+      <c r="AP37" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP37" s="17">
+      <c r="AQ37" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ37">
+      <c r="AR37">
         <v>200</v>
       </c>
-      <c r="AR37" s="2" t="s">
+      <c r="AS37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS37" s="12">
+      <c r="AT37" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT37" s="12">
+      <c r="AU37" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU37" s="12">
+      <c r="AV37" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV37" s="18" t="b">
+      <c r="AW37" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW37" s="18" t="b">
+      <c r="AX37" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX37" s="18" t="b">
+      <c r="AY37" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>332</v>
       </c>
@@ -5997,149 +6070,150 @@
       <c r="C38" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="45"/>
+      <c r="E38" t="s">
         <v>211</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>188</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1000</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>500</v>
-      </c>
-      <c r="H38" t="s">
-        <v>109</v>
       </c>
       <c r="I38" t="s">
         <v>109</v>
       </c>
       <c r="J38" t="s">
+        <v>109</v>
+      </c>
+      <c r="K38" t="s">
         <v>208</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>167</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>215</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>202</v>
       </c>
-      <c r="N38" s="26">
+      <c r="O38" s="26">
         <v>0</v>
       </c>
-      <c r="O38" s="18" t="b">
+      <c r="P38" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P38" s="26">
+      <c r="Q38" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>3</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>75</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>50</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>60</v>
       </c>
-      <c r="U38" s="26">
+      <c r="V38" s="26">
         <v>0.02</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>10</v>
-      </c>
-      <c r="X38" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y38" s="26">
         <v>0.04</v>
       </c>
       <c r="Z38" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA38" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA38" s="26">
+      <c r="AB38" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB38" s="26">
+      <c r="AC38" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC38" s="26" t="s">
+      <c r="AD38" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD38" s="41">
+      <c r="AE38" s="41">
         <v>0.06</v>
       </c>
-      <c r="AE38" s="26">
+      <c r="AF38" s="26">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="AF38" t="s">
+      <c r="AG38" t="s">
         <v>112</v>
       </c>
-      <c r="AG38" s="2" t="s">
+      <c r="AH38" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH38" s="2" t="s">
+      <c r="AI38" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>30</v>
       </c>
-      <c r="AJ38" t="s">
+      <c r="AK38" t="s">
         <v>115</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>5</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>200</v>
       </c>
-      <c r="AM38" s="2" t="s">
+      <c r="AN38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>1</v>
       </c>
-      <c r="AO38" s="2" t="s">
+      <c r="AP38" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP38" s="17">
+      <c r="AQ38" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ38">
+      <c r="AR38">
         <v>200</v>
       </c>
-      <c r="AR38" s="2" t="s">
+      <c r="AS38" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS38" s="12">
+      <c r="AT38" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT38" s="12">
+      <c r="AU38" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU38" s="12">
+      <c r="AV38" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV38" s="18" t="b">
+      <c r="AW38" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW38" s="18" t="b">
+      <c r="AX38" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX38" s="18" t="b">
+      <c r="AY38" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>334</v>
       </c>
@@ -6149,149 +6223,150 @@
       <c r="C39" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="45"/>
+      <c r="E39" t="s">
         <v>211</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>188</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>1000</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>500</v>
-      </c>
-      <c r="H39" t="s">
-        <v>109</v>
       </c>
       <c r="I39" t="s">
         <v>109</v>
       </c>
       <c r="J39" t="s">
+        <v>109</v>
+      </c>
+      <c r="K39" t="s">
         <v>208</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>167</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>215</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>202</v>
       </c>
-      <c r="N39" s="26">
+      <c r="O39" s="26">
         <v>0</v>
       </c>
-      <c r="O39" s="18" t="b">
+      <c r="P39" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P39" s="26">
+      <c r="Q39" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>3</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>75</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>50</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>60</v>
       </c>
-      <c r="U39" s="26">
+      <c r="V39" s="26">
         <v>0.02</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>0</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>10</v>
-      </c>
-      <c r="X39" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y39" s="26">
         <v>0.04</v>
       </c>
       <c r="Z39" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA39" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA39" s="26">
+      <c r="AB39" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB39" s="26">
+      <c r="AC39" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC39" s="26" t="s">
+      <c r="AD39" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD39" s="41">
+      <c r="AE39" s="41">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AE39" s="26">
+      <c r="AF39" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF39" t="s">
+      <c r="AG39" t="s">
         <v>112</v>
       </c>
-      <c r="AG39" s="2" t="s">
+      <c r="AH39" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH39" s="2" t="s">
+      <c r="AI39" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>30</v>
       </c>
-      <c r="AJ39" t="s">
+      <c r="AK39" t="s">
         <v>115</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>5</v>
       </c>
-      <c r="AL39">
+      <c r="AM39">
         <v>200</v>
       </c>
-      <c r="AM39" s="2" t="s">
+      <c r="AN39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN39">
+      <c r="AO39">
         <v>1</v>
       </c>
-      <c r="AO39" s="2" t="s">
+      <c r="AP39" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP39" s="17">
+      <c r="AQ39" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ39">
+      <c r="AR39">
         <v>200</v>
       </c>
-      <c r="AR39" s="2" t="s">
+      <c r="AS39" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS39" s="12">
+      <c r="AT39" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT39" s="12">
+      <c r="AU39" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU39" s="12">
+      <c r="AV39" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV39" s="18" t="b">
+      <c r="AW39" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW39" s="18" t="b">
+      <c r="AX39" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX39" s="18" t="b">
+      <c r="AY39" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>336</v>
       </c>
@@ -6301,149 +6376,150 @@
       <c r="C40" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="45"/>
+      <c r="E40" t="s">
         <v>211</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>188</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>1000</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>500</v>
-      </c>
-      <c r="H40" t="s">
-        <v>109</v>
       </c>
       <c r="I40" t="s">
         <v>109</v>
       </c>
       <c r="J40" t="s">
+        <v>109</v>
+      </c>
+      <c r="K40" t="s">
         <v>208</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>167</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>215</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>202</v>
       </c>
-      <c r="N40" s="26">
+      <c r="O40" s="26">
         <v>0</v>
       </c>
-      <c r="O40" s="18" t="b">
+      <c r="P40" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P40" s="26">
+      <c r="Q40" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>3</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>75</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>50</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>60</v>
       </c>
-      <c r="U40" s="26">
+      <c r="V40" s="26">
         <v>0.02</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>0</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>10</v>
-      </c>
-      <c r="X40" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y40" s="26">
         <v>0.04</v>
       </c>
       <c r="Z40" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA40" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA40" s="26">
+      <c r="AB40" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB40" s="26">
+      <c r="AC40" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC40" s="26" t="s">
+      <c r="AD40" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD40" s="41">
+      <c r="AE40" s="41">
         <v>0.09</v>
       </c>
-      <c r="AE40" s="26">
+      <c r="AF40" s="26">
         <v>0.158</v>
       </c>
-      <c r="AF40" t="s">
+      <c r="AG40" t="s">
         <v>112</v>
       </c>
-      <c r="AG40" s="2" t="s">
+      <c r="AH40" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH40" s="2" t="s">
+      <c r="AI40" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI40">
+      <c r="AJ40">
         <v>30</v>
       </c>
-      <c r="AJ40" t="s">
+      <c r="AK40" t="s">
         <v>115</v>
       </c>
-      <c r="AK40">
+      <c r="AL40">
         <v>5</v>
       </c>
-      <c r="AL40">
+      <c r="AM40">
         <v>200</v>
       </c>
-      <c r="AM40" s="2" t="s">
+      <c r="AN40" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN40">
+      <c r="AO40">
         <v>1</v>
       </c>
-      <c r="AO40" s="2" t="s">
+      <c r="AP40" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP40" s="17">
+      <c r="AQ40" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ40">
+      <c r="AR40">
         <v>200</v>
       </c>
-      <c r="AR40" s="2" t="s">
+      <c r="AS40" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS40" s="12">
+      <c r="AT40" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT40" s="12">
+      <c r="AU40" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU40" s="12">
+      <c r="AV40" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV40" s="18" t="b">
+      <c r="AW40" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW40" s="18" t="b">
+      <c r="AX40" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX40" s="18" t="b">
+      <c r="AY40" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>338</v>
       </c>
@@ -6453,177 +6529,179 @@
       <c r="C41" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="45"/>
+      <c r="E41" t="s">
         <v>211</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>188</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>1000</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>500</v>
-      </c>
-      <c r="H41" t="s">
-        <v>109</v>
       </c>
       <c r="I41" t="s">
         <v>109</v>
       </c>
       <c r="J41" t="s">
+        <v>109</v>
+      </c>
+      <c r="K41" t="s">
         <v>208</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>167</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>215</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>202</v>
       </c>
-      <c r="N41" s="26">
+      <c r="O41" s="26">
         <v>0</v>
       </c>
-      <c r="O41" s="18" t="b">
+      <c r="P41" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P41" s="26">
+      <c r="Q41" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>3</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>75</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>50</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>60</v>
       </c>
-      <c r="U41" s="26">
+      <c r="V41" s="26">
         <v>0.02</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>0</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>10</v>
-      </c>
-      <c r="X41" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y41" s="26">
         <v>0.04</v>
       </c>
       <c r="Z41" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA41" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA41" s="26">
+      <c r="AB41" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB41" s="26">
+      <c r="AC41" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC41" s="26" t="s">
+      <c r="AD41" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD41" s="41">
+      <c r="AE41" s="41">
         <v>0.105</v>
       </c>
-      <c r="AE41" s="26">
+      <c r="AF41" s="26">
         <v>0.19500000000000001</v>
       </c>
-      <c r="AF41" t="s">
+      <c r="AG41" t="s">
         <v>112</v>
       </c>
-      <c r="AG41" s="2" t="s">
+      <c r="AH41" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH41" s="2" t="s">
+      <c r="AI41" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI41">
+      <c r="AJ41">
         <v>30</v>
       </c>
-      <c r="AJ41" t="s">
+      <c r="AK41" t="s">
         <v>115</v>
       </c>
-      <c r="AK41">
+      <c r="AL41">
         <v>5</v>
       </c>
-      <c r="AL41">
+      <c r="AM41">
         <v>200</v>
       </c>
-      <c r="AM41" s="2" t="s">
+      <c r="AN41" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN41">
+      <c r="AO41">
         <v>1</v>
       </c>
-      <c r="AO41" s="2" t="s">
+      <c r="AP41" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP41" s="17">
+      <c r="AQ41" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ41">
+      <c r="AR41">
         <v>200</v>
       </c>
-      <c r="AR41" s="2" t="s">
+      <c r="AS41" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS41" s="12">
+      <c r="AT41" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT41" s="12">
+      <c r="AU41" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU41" s="12">
+      <c r="AV41" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV41" s="18" t="b">
+      <c r="AW41" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW41" s="18" t="b">
+      <c r="AX41" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX41" s="18" t="b">
+      <c r="AY41" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B42" s="19"/>
       <c r="C42" s="11"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="X42" s="26"/>
+      <c r="D42" s="45"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="26"/>
+      <c r="V42" s="26"/>
       <c r="Y42" s="26"/>
       <c r="Z42" s="26"/>
       <c r="AA42" s="26"/>
       <c r="AB42" s="26"/>
       <c r="AC42" s="26"/>
-      <c r="AD42" s="41"/>
-      <c r="AE42" s="26"/>
-      <c r="AG42" s="2"/>
+      <c r="AD42" s="26"/>
+      <c r="AE42" s="41"/>
+      <c r="AF42" s="26"/>
       <c r="AH42" s="2"/>
-      <c r="AM42" s="2"/>
-      <c r="AO42" s="2"/>
-      <c r="AP42" s="17"/>
-      <c r="AR42" s="2"/>
-      <c r="AS42" s="12"/>
+      <c r="AI42" s="2"/>
+      <c r="AN42" s="2"/>
+      <c r="AP42" s="2"/>
+      <c r="AQ42" s="17"/>
+      <c r="AS42" s="2"/>
       <c r="AT42" s="12"/>
       <c r="AU42" s="12"/>
-      <c r="AV42" s="18"/>
+      <c r="AV42" s="12"/>
       <c r="AW42" s="18"/>
       <c r="AX42" s="18"/>
+      <c r="AY42" s="18"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>361</v>
       </c>
@@ -6633,150 +6711,151 @@
       <c r="C43" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="45"/>
+      <c r="E43" t="s">
         <v>211</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>188</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>1000</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>500</v>
-      </c>
-      <c r="H43" t="s">
-        <v>109</v>
       </c>
       <c r="I43" t="s">
         <v>109</v>
       </c>
       <c r="J43" t="s">
+        <v>109</v>
+      </c>
+      <c r="K43" t="s">
         <v>208</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>167</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>215</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>202</v>
       </c>
-      <c r="N43" s="26">
+      <c r="O43" s="26">
         <v>0</v>
       </c>
-      <c r="O43" s="18" t="b">
+      <c r="P43" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P43" s="26">
+      <c r="Q43" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>3</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>75</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>50</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>60</v>
       </c>
-      <c r="U43" s="26">
+      <c r="V43" s="26">
         <v>0.02</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>0</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>10</v>
-      </c>
-      <c r="X43" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y43" s="26">
         <v>0.04</v>
       </c>
       <c r="Z43" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA43" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA43" s="26">
+      <c r="AB43" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB43" s="53">
+      <c r="AC43" s="53">
         <v>4.3987499999999999E-2</v>
       </c>
-      <c r="AC43" s="26" t="s">
+      <c r="AD43" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD43" s="41">
+      <c r="AE43" s="41">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AE43" s="26">
+      <c r="AF43" s="26">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AF43" t="s">
+      <c r="AG43" t="s">
         <v>112</v>
       </c>
-      <c r="AG43" s="2" t="s">
+      <c r="AH43" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH43" s="2" t="s">
+      <c r="AI43" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI43">
+      <c r="AJ43">
         <v>30</v>
       </c>
-      <c r="AJ43" t="s">
+      <c r="AK43" t="s">
         <v>115</v>
       </c>
-      <c r="AK43">
+      <c r="AL43">
         <v>5</v>
       </c>
-      <c r="AL43">
+      <c r="AM43">
         <v>200</v>
       </c>
-      <c r="AM43" s="2" t="s">
+      <c r="AN43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN43">
+      <c r="AO43">
         <v>1</v>
       </c>
-      <c r="AO43" s="2" t="s">
+      <c r="AP43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AP43" s="17">
+      <c r="AQ43" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ43" s="50">
+      <c r="AR43" s="50">
         <f>225068282*0.75</f>
         <v>168801211.5</v>
       </c>
-      <c r="AR43" s="2" t="s">
+      <c r="AS43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS43" s="12">
+      <c r="AT43" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT43" s="12">
+      <c r="AU43" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU43" s="12">
+      <c r="AV43" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV43" s="18" t="b">
+      <c r="AW43" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW43" s="18" t="b">
+      <c r="AX43" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX43" s="18" t="b">
+      <c r="AY43" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>362</v>
       </c>
@@ -6786,150 +6865,151 @@
       <c r="C44" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="45"/>
+      <c r="E44" t="s">
         <v>211</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>188</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>1000</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>500</v>
-      </c>
-      <c r="H44" t="s">
-        <v>109</v>
       </c>
       <c r="I44" t="s">
         <v>109</v>
       </c>
       <c r="J44" t="s">
+        <v>109</v>
+      </c>
+      <c r="K44" t="s">
         <v>208</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>167</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>215</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>202</v>
       </c>
-      <c r="N44" s="26">
+      <c r="O44" s="26">
         <v>0</v>
       </c>
-      <c r="O44" s="18" t="b">
+      <c r="P44" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P44" s="26">
+      <c r="Q44" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>3</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>75</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>50</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>60</v>
       </c>
-      <c r="U44" s="26">
+      <c r="V44" s="26">
         <v>0.02</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>0</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>10</v>
-      </c>
-      <c r="X44" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y44" s="26">
         <v>0.04</v>
       </c>
       <c r="Z44" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA44" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA44" s="26">
+      <c r="AB44" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB44" s="53">
+      <c r="AC44" s="53">
         <v>5.6596874999999998E-2</v>
       </c>
-      <c r="AC44" s="26" t="s">
+      <c r="AD44" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD44" s="41">
+      <c r="AE44" s="41">
         <v>0.06</v>
       </c>
-      <c r="AE44" s="26">
+      <c r="AF44" s="26">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="AF44" t="s">
+      <c r="AG44" t="s">
         <v>112</v>
       </c>
-      <c r="AG44" s="2" t="s">
+      <c r="AH44" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH44" s="2" t="s">
+      <c r="AI44" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI44">
+      <c r="AJ44">
         <v>30</v>
       </c>
-      <c r="AJ44" t="s">
+      <c r="AK44" t="s">
         <v>115</v>
       </c>
-      <c r="AK44">
+      <c r="AL44">
         <v>5</v>
       </c>
-      <c r="AL44">
+      <c r="AM44">
         <v>200</v>
       </c>
-      <c r="AM44" s="2" t="s">
+      <c r="AN44" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN44">
+      <c r="AO44">
         <v>1</v>
       </c>
-      <c r="AO44" s="44" t="s">
+      <c r="AP44" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="AP44" s="17">
+      <c r="AQ44" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ44" s="50">
-        <f t="shared" ref="AQ44:AQ47" si="0">225068282*0.75</f>
+      <c r="AR44" s="50">
+        <f t="shared" ref="AR44:AR47" si="0">225068282*0.75</f>
         <v>168801211.5</v>
       </c>
-      <c r="AR44" s="2" t="s">
+      <c r="AS44" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS44" s="12">
+      <c r="AT44" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT44" s="12">
+      <c r="AU44" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU44" s="12">
+      <c r="AV44" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV44" s="18" t="b">
+      <c r="AW44" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW44" s="18" t="b">
+      <c r="AX44" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX44" s="18" t="b">
+      <c r="AY44" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>363</v>
       </c>
@@ -6939,150 +7019,151 @@
       <c r="C45" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="45"/>
+      <c r="E45" t="s">
         <v>211</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>188</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>1000</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>500</v>
-      </c>
-      <c r="H45" t="s">
-        <v>109</v>
       </c>
       <c r="I45" t="s">
         <v>109</v>
       </c>
       <c r="J45" t="s">
+        <v>109</v>
+      </c>
+      <c r="K45" t="s">
         <v>208</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>167</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>215</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>202</v>
       </c>
-      <c r="N45" s="26">
+      <c r="O45" s="26">
         <v>0</v>
       </c>
-      <c r="O45" s="18" t="b">
+      <c r="P45" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P45" s="26">
+      <c r="Q45" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>3</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>75</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>50</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>60</v>
       </c>
-      <c r="U45" s="26">
+      <c r="V45" s="26">
         <v>0.02</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>0</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>10</v>
-      </c>
-      <c r="X45" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y45" s="26">
         <v>0.04</v>
       </c>
       <c r="Z45" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA45" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA45" s="26">
+      <c r="AB45" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB45" s="53">
+      <c r="AC45" s="53">
         <v>6.7799999999999999E-2</v>
       </c>
-      <c r="AC45" s="26" t="s">
+      <c r="AD45" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD45" s="41">
+      <c r="AE45" s="41">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AE45" s="26">
+      <c r="AF45" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF45" t="s">
+      <c r="AG45" t="s">
         <v>112</v>
       </c>
-      <c r="AG45" s="2" t="s">
+      <c r="AH45" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH45" s="2" t="s">
+      <c r="AI45" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI45">
+      <c r="AJ45">
         <v>30</v>
       </c>
-      <c r="AJ45" t="s">
+      <c r="AK45" t="s">
         <v>115</v>
       </c>
-      <c r="AK45">
+      <c r="AL45">
         <v>5</v>
       </c>
-      <c r="AL45">
+      <c r="AM45">
         <v>200</v>
       </c>
-      <c r="AM45" s="2" t="s">
+      <c r="AN45" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN45">
+      <c r="AO45">
         <v>1</v>
       </c>
-      <c r="AO45" s="44" t="s">
+      <c r="AP45" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="AP45" s="17">
+      <c r="AQ45" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ45" s="50">
+      <c r="AR45" s="50">
         <f t="shared" si="0"/>
         <v>168801211.5</v>
       </c>
-      <c r="AR45" s="2" t="s">
+      <c r="AS45" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS45" s="12">
+      <c r="AT45" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT45" s="12">
+      <c r="AU45" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU45" s="12">
+      <c r="AV45" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV45" s="18" t="b">
+      <c r="AW45" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW45" s="18" t="b">
+      <c r="AX45" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX45" s="18" t="b">
+      <c r="AY45" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>364</v>
       </c>
@@ -7092,150 +7173,151 @@
       <c r="C46" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="45"/>
+      <c r="E46" t="s">
         <v>211</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>188</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>1000</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>500</v>
-      </c>
-      <c r="H46" t="s">
-        <v>109</v>
       </c>
       <c r="I46" t="s">
         <v>109</v>
       </c>
       <c r="J46" t="s">
+        <v>109</v>
+      </c>
+      <c r="K46" t="s">
         <v>208</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>167</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>215</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>202</v>
       </c>
-      <c r="N46" s="26">
+      <c r="O46" s="26">
         <v>0</v>
       </c>
-      <c r="O46" s="18" t="b">
+      <c r="P46" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P46" s="26">
+      <c r="Q46" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>3</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>75</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>50</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>60</v>
       </c>
-      <c r="U46" s="26">
+      <c r="V46" s="26">
         <v>0.02</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>0</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>10</v>
-      </c>
-      <c r="X46" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y46" s="26">
         <v>0.04</v>
       </c>
       <c r="Z46" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA46" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA46" s="26">
+      <c r="AB46" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB46" s="53">
+      <c r="AC46" s="53">
         <v>7.7596874999999996E-2</v>
       </c>
-      <c r="AC46" s="26" t="s">
+      <c r="AD46" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD46" s="41">
+      <c r="AE46" s="41">
         <v>0.09</v>
       </c>
-      <c r="AE46" s="26">
+      <c r="AF46" s="26">
         <v>0.158</v>
       </c>
-      <c r="AF46" t="s">
+      <c r="AG46" t="s">
         <v>112</v>
       </c>
-      <c r="AG46" s="2" t="s">
+      <c r="AH46" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH46" s="2" t="s">
+      <c r="AI46" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI46">
+      <c r="AJ46">
         <v>30</v>
       </c>
-      <c r="AJ46" t="s">
+      <c r="AK46" t="s">
         <v>115</v>
       </c>
-      <c r="AK46">
+      <c r="AL46">
         <v>5</v>
       </c>
-      <c r="AL46">
+      <c r="AM46">
         <v>200</v>
       </c>
-      <c r="AM46" s="2" t="s">
+      <c r="AN46" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN46">
+      <c r="AO46">
         <v>1</v>
       </c>
-      <c r="AO46" s="44" t="s">
+      <c r="AP46" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="AP46" s="17">
+      <c r="AQ46" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ46" s="50">
+      <c r="AR46" s="50">
         <f t="shared" si="0"/>
         <v>168801211.5</v>
       </c>
-      <c r="AR46" s="2" t="s">
+      <c r="AS46" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS46" s="12">
+      <c r="AT46" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT46" s="12">
+      <c r="AU46" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU46" s="12">
+      <c r="AV46" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV46" s="18" t="b">
+      <c r="AW46" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW46" s="18" t="b">
+      <c r="AX46" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX46" s="18" t="b">
+      <c r="AY46" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>365</v>
       </c>
@@ -7245,207 +7327,210 @@
       <c r="C47" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="45"/>
+      <c r="E47" t="s">
         <v>211</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>188</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>1000</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>500</v>
-      </c>
-      <c r="H47" t="s">
-        <v>109</v>
       </c>
       <c r="I47" t="s">
         <v>109</v>
       </c>
       <c r="J47" t="s">
+        <v>109</v>
+      </c>
+      <c r="K47" t="s">
         <v>208</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>167</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>215</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>202</v>
       </c>
-      <c r="N47" s="26">
+      <c r="O47" s="26">
         <v>0</v>
       </c>
-      <c r="O47" s="18" t="b">
+      <c r="P47" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P47" s="26">
+      <c r="Q47" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>3</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>75</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>50</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>60</v>
       </c>
-      <c r="U47" s="26">
+      <c r="V47" s="26">
         <v>0.02</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>0</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>10</v>
-      </c>
-      <c r="X47" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y47" s="26">
         <v>0.04</v>
       </c>
       <c r="Z47" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA47" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA47" s="26">
+      <c r="AB47" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB47" s="53">
+      <c r="AC47" s="53">
         <v>8.5987499999999994E-2</v>
       </c>
-      <c r="AC47" s="26" t="s">
+      <c r="AD47" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD47" s="41">
+      <c r="AE47" s="41">
         <v>0.105</v>
       </c>
-      <c r="AE47" s="26">
+      <c r="AF47" s="26">
         <v>0.19500000000000001</v>
       </c>
-      <c r="AF47" t="s">
+      <c r="AG47" t="s">
         <v>112</v>
       </c>
-      <c r="AG47" s="2" t="s">
+      <c r="AH47" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH47" s="2" t="s">
+      <c r="AI47" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI47">
+      <c r="AJ47">
         <v>30</v>
       </c>
-      <c r="AJ47" t="s">
+      <c r="AK47" t="s">
         <v>115</v>
       </c>
-      <c r="AK47">
+      <c r="AL47">
         <v>5</v>
       </c>
-      <c r="AL47">
+      <c r="AM47">
         <v>200</v>
       </c>
-      <c r="AM47" s="2" t="s">
+      <c r="AN47" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN47">
+      <c r="AO47">
         <v>1</v>
       </c>
-      <c r="AO47" s="44" t="s">
+      <c r="AP47" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="AP47" s="17">
+      <c r="AQ47" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ47" s="50">
+      <c r="AR47" s="50">
         <f t="shared" si="0"/>
         <v>168801211.5</v>
       </c>
-      <c r="AR47" s="2" t="s">
+      <c r="AS47" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS47" s="12">
+      <c r="AT47" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT47" s="12">
+      <c r="AU47" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU47" s="12">
+      <c r="AV47" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV47" s="18" t="b">
+      <c r="AW47" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW47" s="18" t="b">
+      <c r="AX47" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX47" s="18" t="b">
+      <c r="AY47" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C48" s="11"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="26"/>
-      <c r="U48" s="26"/>
-      <c r="X48" s="26"/>
+      <c r="D48" s="45"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="26"/>
+      <c r="V48" s="26"/>
       <c r="Y48" s="26"/>
       <c r="Z48" s="26"/>
       <c r="AA48" s="26"/>
       <c r="AB48" s="26"/>
       <c r="AC48" s="26"/>
-      <c r="AD48" s="41"/>
-      <c r="AE48" s="26"/>
-      <c r="AG48" s="2"/>
+      <c r="AD48" s="26"/>
+      <c r="AE48" s="41"/>
+      <c r="AF48" s="26"/>
       <c r="AH48" s="2"/>
-      <c r="AM48" s="2"/>
-      <c r="AO48" s="2"/>
-      <c r="AP48" s="17"/>
-      <c r="AR48" s="2"/>
-      <c r="AS48" s="12"/>
+      <c r="AI48" s="2"/>
+      <c r="AN48" s="2"/>
+      <c r="AP48" s="2"/>
+      <c r="AQ48" s="17"/>
+      <c r="AS48" s="2"/>
       <c r="AT48" s="12"/>
       <c r="AU48" s="12"/>
-      <c r="AV48" s="18"/>
+      <c r="AV48" s="12"/>
       <c r="AW48" s="18"/>
       <c r="AX48" s="18"/>
+      <c r="AY48" s="18"/>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B49" s="31" t="s">
         <v>340</v>
       </c>
       <c r="C49" s="11"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="26"/>
-      <c r="U49" s="26"/>
-      <c r="X49" s="26"/>
+      <c r="D49" s="45"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="26"/>
+      <c r="V49" s="26"/>
       <c r="Y49" s="26"/>
       <c r="Z49" s="26"/>
       <c r="AA49" s="26"/>
       <c r="AB49" s="26"/>
       <c r="AC49" s="26"/>
-      <c r="AD49" s="41"/>
-      <c r="AE49" s="26"/>
-      <c r="AG49" s="2"/>
+      <c r="AD49" s="26"/>
+      <c r="AE49" s="41"/>
+      <c r="AF49" s="26"/>
       <c r="AH49" s="2"/>
-      <c r="AM49" s="2"/>
-      <c r="AO49" s="2"/>
-      <c r="AP49" s="17"/>
-      <c r="AR49" s="2"/>
-      <c r="AS49" s="12"/>
+      <c r="AI49" s="2"/>
+      <c r="AN49" s="2"/>
+      <c r="AP49" s="2"/>
+      <c r="AQ49" s="17"/>
+      <c r="AS49" s="2"/>
       <c r="AT49" s="12"/>
       <c r="AU49" s="12"/>
-      <c r="AV49" s="18"/>
+      <c r="AV49" s="12"/>
       <c r="AW49" s="18"/>
       <c r="AX49" s="18"/>
+      <c r="AY49" s="18"/>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
         <v>341</v>
       </c>
@@ -7455,149 +7540,150 @@
       <c r="C50" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="45"/>
+      <c r="E50" t="s">
         <v>211</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>188</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>1000</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>500</v>
-      </c>
-      <c r="H50" t="s">
-        <v>109</v>
       </c>
       <c r="I50" t="s">
         <v>109</v>
       </c>
       <c r="J50" t="s">
+        <v>109</v>
+      </c>
+      <c r="K50" t="s">
         <v>208</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>167</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>215</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>202</v>
       </c>
-      <c r="N50" s="26">
+      <c r="O50" s="26">
         <v>0</v>
       </c>
-      <c r="O50" s="18" t="b">
+      <c r="P50" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P50" s="26">
+      <c r="Q50" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>3</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>75</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>50</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>60</v>
       </c>
-      <c r="U50" s="26">
+      <c r="V50" s="26">
         <v>0</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>0</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>10</v>
-      </c>
-      <c r="X50" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y50" s="26">
         <v>0.04</v>
       </c>
       <c r="Z50" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA50" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA50" s="26">
+      <c r="AB50" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB50" s="26">
+      <c r="AC50" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC50" s="26" t="s">
+      <c r="AD50" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD50" s="41">
+      <c r="AE50" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE50" s="26">
+      <c r="AF50" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF50" t="s">
+      <c r="AG50" t="s">
         <v>112</v>
       </c>
-      <c r="AG50" s="2" t="s">
+      <c r="AH50" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH50" s="2" t="s">
+      <c r="AI50" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI50">
+      <c r="AJ50">
         <v>30</v>
       </c>
-      <c r="AJ50" t="s">
+      <c r="AK50" t="s">
         <v>115</v>
       </c>
-      <c r="AK50">
+      <c r="AL50">
         <v>5</v>
       </c>
-      <c r="AL50">
+      <c r="AM50">
         <v>200</v>
       </c>
-      <c r="AM50" s="2" t="s">
+      <c r="AN50" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN50">
+      <c r="AO50">
         <v>1</v>
       </c>
-      <c r="AO50" s="2" t="s">
+      <c r="AP50" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP50" s="17">
+      <c r="AQ50" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ50">
+      <c r="AR50">
         <v>200</v>
       </c>
-      <c r="AR50" s="2" t="s">
+      <c r="AS50" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS50" s="12">
+      <c r="AT50" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT50" s="12">
+      <c r="AU50" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU50" s="12">
+      <c r="AV50" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV50" s="18" t="b">
+      <c r="AW50" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW50" s="18" t="b">
+      <c r="AX50" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX50" s="18" t="b">
+      <c r="AY50" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
         <v>343</v>
       </c>
@@ -7607,254 +7693,255 @@
       <c r="C51" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="45"/>
+      <c r="E51" t="s">
         <v>211</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>188</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>1000</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>500</v>
-      </c>
-      <c r="H51" t="s">
-        <v>109</v>
       </c>
       <c r="I51" t="s">
         <v>109</v>
       </c>
       <c r="J51" t="s">
+        <v>109</v>
+      </c>
+      <c r="K51" t="s">
         <v>208</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>167</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>215</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>202</v>
       </c>
-      <c r="N51" s="26">
+      <c r="O51" s="26">
         <v>0</v>
       </c>
-      <c r="O51" s="18" t="b">
+      <c r="P51" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P51" s="26">
+      <c r="Q51" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>3</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>75</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>50</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>60</v>
       </c>
-      <c r="U51" s="26">
+      <c r="V51" s="26">
         <v>0.02</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>0</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>10</v>
-      </c>
-      <c r="X51" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y51" s="26">
         <v>0.04</v>
       </c>
       <c r="Z51" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA51" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA51" s="26">
+      <c r="AB51" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB51" s="26">
+      <c r="AC51" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC51" s="26" t="s">
+      <c r="AD51" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AD51" s="41">
+      <c r="AE51" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE51" s="26">
+      <c r="AF51" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF51" t="s">
+      <c r="AG51" t="s">
         <v>112</v>
       </c>
-      <c r="AG51" s="2" t="s">
+      <c r="AH51" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH51" s="2" t="s">
+      <c r="AI51" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AI51">
+      <c r="AJ51">
         <v>30</v>
       </c>
-      <c r="AJ51" t="s">
+      <c r="AK51" t="s">
         <v>115</v>
       </c>
-      <c r="AK51">
+      <c r="AL51">
         <v>5</v>
       </c>
-      <c r="AL51">
+      <c r="AM51">
         <v>200</v>
       </c>
-      <c r="AM51" s="2" t="s">
+      <c r="AN51" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN51">
+      <c r="AO51">
         <v>1</v>
       </c>
-      <c r="AO51" s="2" t="s">
+      <c r="AP51" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AP51" s="17">
+      <c r="AQ51" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ51">
+      <c r="AR51">
         <v>200</v>
       </c>
-      <c r="AR51" s="2" t="s">
+      <c r="AS51" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS51" s="12">
+      <c r="AT51" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT51" s="12">
+      <c r="AU51" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU51" s="12">
+      <c r="AV51" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV51" s="18" t="b">
+      <c r="AW51" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW51" s="18" t="b">
+      <c r="AX51" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX51" s="18" t="b">
+      <c r="AY51" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AB54" s="53"/>
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC54" s="53"/>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AB55" s="53"/>
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC55" s="53"/>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AB56" s="53"/>
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC56" s="53"/>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AB57" s="53"/>
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC57" s="53"/>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AB58" s="53"/>
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC58" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AP4:AR4"/>
+    <mergeCell ref="Q4:X4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AS4:AV4"/>
+    <mergeCell ref="AD4:AF4"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="P4:W4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN51">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI13:AI51">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG9 AG13:AG51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH51">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR9 AR13:AR51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS13:AS51">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O9 C6:C10 O13:O51 C13:C51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 C6:D10 P13:P51 C13:D51">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AA6:AA9 U6:U9 AA13:AA51 U13:U51">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 AB13:AB51 V13:V51">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="V6:W9 V13:W51">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W13:X51">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="X6:Z9 AB6:AB9 AD6:AD9 AB48:AB51 AB13:AB42 X13:Z51 AD13:AD51">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AC48:AC51 AC13:AC42 Y13:AA51 AE13:AE51">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AI6:AI9 AI13:AI51">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ13:AJ51">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AS6:AT9 AS13:AT51">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT13:AU51">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AU6:AU9 AU13:AU51">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV13:AV51">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AE6:AE9 AE13:AE51">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF13:AF51">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AK6:AK9 AK13:AK51">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL13:AL51">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6:AL9 AL13:AL51">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM51">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN51">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO51">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AC6:AC9 AC13:AC51"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV6:AX9 AV13:AX51">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD13:AD51"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW13:AY51">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP51">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP51">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ13:AQ51">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="R6:R9 R13:R51">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S13:S51">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:I9 H13:I51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I13:J51">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -7867,37 +7954,37 @@
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K9 K13:K51</xm:sqref>
+          <xm:sqref>L6:L9 L13:L51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L9 L13:L51</xm:sqref>
+          <xm:sqref>M6:M9 M13:M51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E9 E13:E51</xm:sqref>
+          <xm:sqref>F6:F9 F13:F51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>D6:D9 D13:D51</xm:sqref>
+          <xm:sqref>E6:E9 E13:E51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J9 J13:J51</xm:sqref>
+          <xm:sqref>K6:K9 K13:K51</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M9 M13:M51</xm:sqref>
+          <xm:sqref>N6:N9 N13:N51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="373">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1181,6 +1181,12 @@
   </si>
   <si>
     <t>save.indiv</t>
+  </si>
+  <si>
+    <t>D1F075-mature1_lowB</t>
+  </si>
+  <si>
+    <t>D1F075-mature1_gn1_lowB</t>
   </si>
 </sst>
 </file>
@@ -2145,10 +2151,10 @@
   <dimension ref="A1:AY58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15:C24"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3240,7 +3246,7 @@
         <v>294</v>
       </c>
       <c r="C14" s="45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="45" t="b">
         <v>1</v>
@@ -3395,7 +3401,7 @@
         <v>294</v>
       </c>
       <c r="C15" s="45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="45" t="b">
         <v>1</v>
@@ -3550,7 +3556,7 @@
         <v>294</v>
       </c>
       <c r="C16" s="45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="45" t="b">
         <v>1</v>
@@ -3705,7 +3711,7 @@
         <v>294</v>
       </c>
       <c r="C17" s="45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="45" t="b">
         <v>1</v>
@@ -3860,7 +3866,7 @@
         <v>294</v>
       </c>
       <c r="C18" s="45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="45" t="b">
         <v>1</v>
@@ -4015,7 +4021,7 @@
         <v>302</v>
       </c>
       <c r="C19" s="45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="45" t="b">
         <v>1</v>
@@ -4170,7 +4176,7 @@
         <v>302</v>
       </c>
       <c r="C20" s="45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="45" t="b">
         <v>1</v>
@@ -4325,7 +4331,7 @@
         <v>302</v>
       </c>
       <c r="C21" s="45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="45" t="b">
         <v>1</v>
@@ -4480,7 +4486,7 @@
         <v>302</v>
       </c>
       <c r="C22" s="45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="45" t="b">
         <v>1</v>
@@ -4635,7 +4641,7 @@
         <v>302</v>
       </c>
       <c r="C23" s="45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="45" t="b">
         <v>1</v>
@@ -4790,7 +4796,7 @@
         <v>302</v>
       </c>
       <c r="C24" s="45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="45" t="b">
         <v>1</v>
@@ -4967,62 +4973,314 @@
       <c r="AY25" s="48"/>
     </row>
     <row r="26" spans="1:51" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="49"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="51"/>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44"/>
-      <c r="AN26" s="44"/>
-      <c r="AP26" s="44"/>
-      <c r="AQ26" s="47"/>
-      <c r="AS26" s="44"/>
-      <c r="AT26" s="46"/>
-      <c r="AU26" s="46"/>
-      <c r="AV26" s="46"/>
-      <c r="AW26" s="48"/>
-      <c r="AX26" s="48"/>
-      <c r="AY26" s="48"/>
+      <c r="A26" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="C26" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="43">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="43">
+        <v>600</v>
+      </c>
+      <c r="I26" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="L26" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="M26" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="N26" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="O26" s="51">
+        <v>0</v>
+      </c>
+      <c r="P26" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="51">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R26" s="43">
+        <v>3</v>
+      </c>
+      <c r="S26" s="43">
+        <v>75</v>
+      </c>
+      <c r="T26" s="43">
+        <v>50</v>
+      </c>
+      <c r="U26" s="43">
+        <v>60</v>
+      </c>
+      <c r="V26" s="51">
+        <v>0.02</v>
+      </c>
+      <c r="W26" s="43">
+        <v>0</v>
+      </c>
+      <c r="X26" s="43">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="51">
+        <v>0.04</v>
+      </c>
+      <c r="Z26" s="51">
+        <v>0.04</v>
+      </c>
+      <c r="AA26" s="51">
+        <v>0.03</v>
+      </c>
+      <c r="AB26" s="51">
+        <v>0.01</v>
+      </c>
+      <c r="AC26" s="51">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD26" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE26" s="52">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF26" s="51">
+        <v>0.12</v>
+      </c>
+      <c r="AG26" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH26" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI26" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ26" s="43">
+        <v>30</v>
+      </c>
+      <c r="AK26" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL26" s="43">
+        <v>5</v>
+      </c>
+      <c r="AM26" s="43">
+        <v>200</v>
+      </c>
+      <c r="AN26" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO26" s="43">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ26" s="47">
+        <v>0.75</v>
+      </c>
+      <c r="AR26" s="43">
+        <v>200</v>
+      </c>
+      <c r="AS26" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT26" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="AU26" s="46">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV26" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="AW26" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY26" s="48" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:51" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="49"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="51"/>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="51"/>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
-      <c r="AN27" s="44"/>
-      <c r="AP27" s="44"/>
-      <c r="AQ27" s="47"/>
-      <c r="AS27" s="44"/>
-      <c r="AT27" s="46"/>
-      <c r="AU27" s="46"/>
-      <c r="AV27" s="46"/>
-      <c r="AW27" s="48"/>
-      <c r="AX27" s="48"/>
-      <c r="AY27" s="48"/>
+      <c r="A27" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="C27" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" s="43">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="43">
+        <v>600</v>
+      </c>
+      <c r="I27" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="K27" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="M27" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="N27" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="O27" s="51">
+        <v>-0.01</v>
+      </c>
+      <c r="P27" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="51">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R27" s="43">
+        <v>3</v>
+      </c>
+      <c r="S27" s="43">
+        <v>75</v>
+      </c>
+      <c r="T27" s="43">
+        <v>50</v>
+      </c>
+      <c r="U27" s="43">
+        <v>60</v>
+      </c>
+      <c r="V27" s="51">
+        <v>0.02</v>
+      </c>
+      <c r="W27" s="43">
+        <v>0</v>
+      </c>
+      <c r="X27" s="43">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="51">
+        <v>0.04</v>
+      </c>
+      <c r="Z27" s="51">
+        <v>0.04</v>
+      </c>
+      <c r="AA27" s="51">
+        <v>0.03</v>
+      </c>
+      <c r="AB27" s="51">
+        <v>0.01</v>
+      </c>
+      <c r="AC27" s="51">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD27" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE27" s="52">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF27" s="51">
+        <v>0.12</v>
+      </c>
+      <c r="AG27" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH27" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI27" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="AJ27" s="43">
+        <v>30</v>
+      </c>
+      <c r="AK27" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL27" s="43">
+        <v>5</v>
+      </c>
+      <c r="AM27" s="43">
+        <v>200</v>
+      </c>
+      <c r="AN27" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO27" s="43">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ27" s="47">
+        <v>0.75</v>
+      </c>
+      <c r="AR27" s="43">
+        <v>200</v>
+      </c>
+      <c r="AS27" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT27" s="46">
+        <v>0.25</v>
+      </c>
+      <c r="AU27" s="46">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV27" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="AW27" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY27" s="48" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:51" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="49"/>
@@ -7886,7 +8144,7 @@
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 AB13:AB51 V13:V51">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 V13:V51 AB13:AB51">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
@@ -7894,7 +8152,7 @@
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AC48:AC51 AC13:AC42 Y13:AA51 AE13:AE51">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AC48:AC51 AE13:AE51 Y13:AA51 AC13:AC42">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -31,6 +31,7 @@
     <definedName name="ConPolicy">DropDowns!$A$12:$A$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1459,10 +1460,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1471,13 +1469,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2151,10 +2152,10 @@
   <dimension ref="A1:AY58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29:D30"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,62 +2351,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="54"/>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="56"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="57" t="s">
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="57"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="57" t="s">
+      <c r="P4" s="57"/>
+      <c r="Q4" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="58" t="s">
+      <c r="AA4" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="60" t="s">
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="55" t="s">
+      <c r="AH4" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -2413,17 +2414,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="60" t="s">
+      <c r="AP4" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="61" t="s">
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="61"/>
-      <c r="AU4" s="61"/>
-      <c r="AV4" s="61"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="59"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -3246,7 +3247,7 @@
         <v>294</v>
       </c>
       <c r="C14" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="45" t="b">
         <v>1</v>
@@ -3401,7 +3402,7 @@
         <v>294</v>
       </c>
       <c r="C15" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="45" t="b">
         <v>1</v>
@@ -3556,7 +3557,7 @@
         <v>294</v>
       </c>
       <c r="C16" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="45" t="b">
         <v>1</v>
@@ -3711,7 +3712,7 @@
         <v>294</v>
       </c>
       <c r="C17" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="45" t="b">
         <v>1</v>
@@ -3866,7 +3867,7 @@
         <v>294</v>
       </c>
       <c r="C18" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="45" t="b">
         <v>1</v>
@@ -4021,7 +4022,7 @@
         <v>302</v>
       </c>
       <c r="C19" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="45" t="b">
         <v>1</v>
@@ -4176,7 +4177,7 @@
         <v>302</v>
       </c>
       <c r="C20" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="45" t="b">
         <v>1</v>
@@ -4331,7 +4332,7 @@
         <v>302</v>
       </c>
       <c r="C21" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="45" t="b">
         <v>1</v>
@@ -4486,7 +4487,7 @@
         <v>302</v>
       </c>
       <c r="C22" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="45" t="b">
         <v>1</v>
@@ -4641,7 +4642,7 @@
         <v>302</v>
       </c>
       <c r="C23" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="45" t="b">
         <v>1</v>
@@ -4796,7 +4797,7 @@
         <v>302</v>
       </c>
       <c r="C24" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="45" t="b">
         <v>1</v>
@@ -4980,7 +4981,7 @@
         <v>302</v>
       </c>
       <c r="C26" s="45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="45" t="b">
         <v>0</v>
@@ -5135,7 +5136,7 @@
         <v>302</v>
       </c>
       <c r="C27" s="45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="45" t="b">
         <v>0</v>
@@ -5379,9 +5380,11 @@
         <v>320</v>
       </c>
       <c r="C31" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D31" s="45"/>
       <c r="E31" t="s">
         <v>211</v>
       </c>
@@ -5532,9 +5535,11 @@
         <v>322</v>
       </c>
       <c r="C32" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D32" s="45"/>
       <c r="E32" t="s">
         <v>211</v>
       </c>
@@ -5685,9 +5690,11 @@
         <v>324</v>
       </c>
       <c r="C33" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D33" s="45"/>
       <c r="E33" t="s">
         <v>211</v>
       </c>
@@ -5838,9 +5845,11 @@
         <v>326</v>
       </c>
       <c r="C34" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D34" s="45"/>
       <c r="E34" t="s">
         <v>211</v>
       </c>
@@ -5991,9 +6000,11 @@
         <v>328</v>
       </c>
       <c r="C35" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D35" s="45"/>
       <c r="E35" t="s">
         <v>211</v>
       </c>
@@ -6173,9 +6184,11 @@
         <v>331</v>
       </c>
       <c r="C37" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D37" s="45"/>
       <c r="E37" t="s">
         <v>211</v>
       </c>
@@ -6326,9 +6339,11 @@
         <v>333</v>
       </c>
       <c r="C38" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D38" s="45"/>
       <c r="E38" t="s">
         <v>211</v>
       </c>
@@ -6479,9 +6494,11 @@
         <v>335</v>
       </c>
       <c r="C39" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D39" s="45"/>
       <c r="E39" t="s">
         <v>211</v>
       </c>
@@ -6632,9 +6649,11 @@
         <v>337</v>
       </c>
       <c r="C40" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D40" s="45"/>
       <c r="E40" t="s">
         <v>211</v>
       </c>
@@ -6785,9 +6804,11 @@
         <v>339</v>
       </c>
       <c r="C41" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D41" s="45"/>
       <c r="E41" t="s">
         <v>211</v>
       </c>
@@ -6967,9 +6988,11 @@
         <v>356</v>
       </c>
       <c r="C43" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D43" s="45"/>
       <c r="E43" t="s">
         <v>211</v>
       </c>
@@ -7121,9 +7144,11 @@
         <v>357</v>
       </c>
       <c r="C44" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D44" s="45"/>
       <c r="E44" t="s">
         <v>211</v>
       </c>
@@ -7275,9 +7300,11 @@
         <v>358</v>
       </c>
       <c r="C45" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D45" s="45"/>
       <c r="E45" t="s">
         <v>211</v>
       </c>
@@ -7429,9 +7456,11 @@
         <v>359</v>
       </c>
       <c r="C46" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D46" s="45"/>
       <c r="E46" t="s">
         <v>211</v>
       </c>
@@ -7583,9 +7612,11 @@
         <v>360</v>
       </c>
       <c r="C47" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D47" s="45"/>
       <c r="E47" t="s">
         <v>211</v>
       </c>
@@ -7796,9 +7827,11 @@
         <v>353</v>
       </c>
       <c r="C50" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D50" s="45"/>
       <c r="E50" t="s">
         <v>211</v>
       </c>
@@ -7949,9 +7982,11 @@
         <v>354</v>
       </c>
       <c r="C51" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D51" s="45"/>
       <c r="E51" t="s">
         <v>211</v>
       </c>
@@ -8111,17 +8146,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN51">

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -31,12 +31,11 @@
     <definedName name="ConPolicy">DropDowns!$A$12:$A$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="458">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1431,6 +1430,18 @@
   </si>
   <si>
     <t>75% initial Funding; DC 7; ir 2.52,     SD 1.77%</t>
+  </si>
+  <si>
+    <t>I6F075-6a</t>
+  </si>
+  <si>
+    <t>75% initial Funding; DC 3.5; ir 3.52,    SD 1.77%; Less backloaded funding policy</t>
+  </si>
+  <si>
+    <t>I1F075-6a</t>
+  </si>
+  <si>
+    <t>75% initial Funding; DC 7.5; ir 8.22, SD 12%, less backloaded contribution policy</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +1782,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1780,24 +1800,15 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1896,8 +1907,8 @@
       <xdr:rowOff>94138</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2454307" cy="1534637"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -2720,7 +2731,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -3990,13 +4001,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY95"/>
+  <dimension ref="A1:AY100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AD18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C64" sqref="C64:C71"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4192,62 +4203,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="53"/>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="91"/>
+      <c r="F4" s="93"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="92" t="s">
+      <c r="I4" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="87" t="s">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="87"/>
+      <c r="M4" s="94"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="87" t="s">
+      <c r="P4" s="95"/>
+      <c r="Q4" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="88" t="s">
+      <c r="AA4" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="86" t="s">
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="89" t="s">
+      <c r="AH4" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -4255,17 +4266,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="86" t="s">
+      <c r="AP4" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="86"/>
-      <c r="AS4" s="90" t="s">
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="97"/>
+      <c r="AS4" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
+      <c r="AT4" s="98"/>
+      <c r="AU4" s="98"/>
+      <c r="AV4" s="98"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -7804,169 +7815,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="76" t="s">
-        <v>404</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>388</v>
+        <v>456</v>
+      </c>
+      <c r="B34" s="72" t="s">
+        <v>457</v>
       </c>
       <c r="C34" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="66">
         <v>1000</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="66">
         <v>500</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L34" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="O34" s="26">
-        <v>0</v>
-      </c>
-      <c r="P34" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="26">
+      <c r="O34" s="74">
+        <v>0</v>
+      </c>
+      <c r="P34" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="74">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="66">
         <v>3</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="66">
         <v>75</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="66">
         <v>50</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="66">
         <v>60</v>
       </c>
-      <c r="V34" s="26">
+      <c r="V34" s="74">
         <v>0.02</v>
       </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
+      <c r="W34" s="66">
+        <v>0</v>
+      </c>
+      <c r="X34" s="66">
         <v>10</v>
       </c>
-      <c r="Y34" s="26">
+      <c r="Y34" s="74">
         <v>0.04</v>
       </c>
-      <c r="Z34" s="26">
+      <c r="Z34" s="74">
         <v>0.04</v>
       </c>
-      <c r="AA34" s="26">
+      <c r="AA34" s="74">
         <v>0.03</v>
       </c>
-      <c r="AB34" s="26">
+      <c r="AB34" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC34" s="26">
+      <c r="AC34" s="74">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD34" s="26" t="s">
+      <c r="AD34" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="AE34" s="41">
-        <v>8.411769335469832E-2</v>
-      </c>
-      <c r="AF34" s="26">
-        <v>0.13503846381456158</v>
-      </c>
-      <c r="AG34" t="s">
+      <c r="AE34" s="77">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF34" s="74">
+        <v>0.12</v>
+      </c>
+      <c r="AG34" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="AH34" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI34" s="2" t="s">
+      <c r="AH34" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI34" s="67" t="s">
         <v>342</v>
       </c>
-      <c r="AJ34">
-        <v>30</v>
-      </c>
-      <c r="AK34" t="s">
+      <c r="AJ34" s="66">
+        <v>15</v>
+      </c>
+      <c r="AK34" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="AL34">
+      <c r="AL34" s="66">
         <v>5</v>
       </c>
-      <c r="AM34">
+      <c r="AM34" s="66">
         <v>200</v>
       </c>
-      <c r="AN34" s="2" t="s">
+      <c r="AN34" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AO34">
+      <c r="AO34" s="66">
         <v>1</v>
       </c>
-      <c r="AP34" s="43" t="s">
+      <c r="AP34" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AQ34" s="17">
+      <c r="AQ34" s="70">
         <v>0.75</v>
       </c>
-      <c r="AR34" s="49">
+      <c r="AR34" s="73">
         <v>168732127</v>
       </c>
-      <c r="AS34" s="2" t="s">
+      <c r="AS34" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="AT34" s="12">
+      <c r="AT34" s="69">
         <v>0.25</v>
       </c>
-      <c r="AU34" s="12">
+      <c r="AU34" s="69">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV34" s="12">
+      <c r="AV34" s="69">
         <v>0.05</v>
       </c>
-      <c r="AW34" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX34" s="18" t="b">
+      <c r="AW34" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="71" t="b">
         <v>1</v>
       </c>
-      <c r="AY34" s="18" t="b">
+      <c r="AY34" s="71" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="76" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="C35" s="44" t="b">
+        <v>388</v>
+      </c>
+      <c r="C35" s="68" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="44" t="b">
@@ -8051,10 +8062,10 @@
         <v>156</v>
       </c>
       <c r="AE35" s="41">
-        <v>8.637145152958918E-2</v>
+        <v>8.411769335469832E-2</v>
       </c>
       <c r="AF35" s="26">
-        <v>0.15080750332519388</v>
+        <v>0.13503846381456158</v>
       </c>
       <c r="AG35" t="s">
         <v>112</v>
@@ -8115,195 +8126,195 @@
       </c>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B36" s="19"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="41"/>
-      <c r="AF36" s="26"/>
-      <c r="AH36" s="2"/>
-      <c r="AI36" s="2"/>
-      <c r="AN36" s="2"/>
-      <c r="AP36" s="2"/>
-      <c r="AQ36" s="17"/>
-      <c r="AS36" s="2"/>
-      <c r="AT36" s="12"/>
-      <c r="AU36" s="12"/>
-      <c r="AV36" s="12"/>
-      <c r="AW36" s="18"/>
-      <c r="AX36" s="18"/>
-      <c r="AY36" s="18"/>
+      <c r="A36" s="76" t="s">
+        <v>405</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="C36" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>207</v>
+      </c>
+      <c r="F36" t="s">
+        <v>184</v>
+      </c>
+      <c r="G36">
+        <v>1000</v>
+      </c>
+      <c r="H36">
+        <v>500</v>
+      </c>
+      <c r="I36" t="s">
+        <v>109</v>
+      </c>
+      <c r="J36" t="s">
+        <v>109</v>
+      </c>
+      <c r="K36" t="s">
+        <v>204</v>
+      </c>
+      <c r="L36" t="s">
+        <v>167</v>
+      </c>
+      <c r="M36" t="s">
+        <v>211</v>
+      </c>
+      <c r="N36" t="s">
+        <v>198</v>
+      </c>
+      <c r="O36" s="26">
+        <v>0</v>
+      </c>
+      <c r="P36" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>75</v>
+      </c>
+      <c r="T36">
+        <v>50</v>
+      </c>
+      <c r="U36">
+        <v>60</v>
+      </c>
+      <c r="V36" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>10</v>
+      </c>
+      <c r="Y36" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z36" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA36" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB36" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC36" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD36" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE36" s="41">
+        <v>8.637145152958918E-2</v>
+      </c>
+      <c r="AF36" s="26">
+        <v>0.15080750332519388</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI36" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ36">
+        <v>30</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL36">
+        <v>5</v>
+      </c>
+      <c r="AM36">
+        <v>200</v>
+      </c>
+      <c r="AN36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ36" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR36" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT36" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU36" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV36" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW36" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX36" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY36" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="B37" s="72" t="s">
-        <v>417</v>
-      </c>
-      <c r="C37" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F37" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G37" s="66">
-        <v>1000</v>
-      </c>
-      <c r="H37" s="66">
-        <v>500</v>
-      </c>
-      <c r="I37" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J37" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="K37" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="L37" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="M37" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="N37" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="O37" s="74">
-        <v>0</v>
-      </c>
-      <c r="P37" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="74">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R37" s="66">
-        <v>3</v>
-      </c>
-      <c r="S37" s="66">
-        <v>75</v>
-      </c>
-      <c r="T37" s="66">
-        <v>50</v>
-      </c>
-      <c r="U37" s="66">
-        <v>60</v>
-      </c>
-      <c r="V37" s="74">
-        <v>0.02</v>
-      </c>
-      <c r="W37" s="66">
-        <v>0</v>
-      </c>
-      <c r="X37" s="66">
-        <v>10</v>
-      </c>
-      <c r="Y37" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="Z37" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="AA37" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="AB37" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="AC37" s="80">
-        <v>0.115</v>
-      </c>
-      <c r="AD37" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE37" s="77">
-        <v>0.1222</v>
-      </c>
-      <c r="AF37" s="74">
-        <v>0.12</v>
-      </c>
-      <c r="AG37" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH37" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI37" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ37" s="66">
-        <v>30</v>
-      </c>
-      <c r="AK37" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL37" s="66">
-        <v>5</v>
-      </c>
-      <c r="AM37" s="66">
-        <v>200</v>
-      </c>
-      <c r="AN37" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO37" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP37" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ37" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="AR37" s="73">
-        <v>168732127</v>
-      </c>
-      <c r="AS37" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT37" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="AU37" s="69">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV37" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="AW37" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX37" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY37" s="71" t="b">
-        <v>0</v>
-      </c>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B37" s="19"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="41"/>
+      <c r="AF37" s="26"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="17"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="12"/>
+      <c r="AU37" s="12"/>
+      <c r="AV37" s="12"/>
+      <c r="AW37" s="18"/>
+      <c r="AX37" s="18"/>
+      <c r="AY37" s="18"/>
     </row>
     <row r="38" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="66" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B38" s="72" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C38" s="68" t="b">
         <v>0</v>
@@ -8384,13 +8395,13 @@
         <v>0.01</v>
       </c>
       <c r="AC38" s="80">
-        <v>0.105</v>
+        <v>0.115</v>
       </c>
       <c r="AD38" s="74" t="s">
         <v>156</v>
       </c>
       <c r="AE38" s="77">
-        <v>0.11219999999999999</v>
+        <v>0.1222</v>
       </c>
       <c r="AF38" s="74">
         <v>0.12</v>
@@ -8455,10 +8466,10 @@
     </row>
     <row r="39" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="66" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C39" s="68" t="b">
         <v>0</v>
@@ -8539,13 +8550,13 @@
         <v>0.01</v>
       </c>
       <c r="AC39" s="80">
-        <v>9.5000000000000001E-2</v>
+        <v>0.105</v>
       </c>
       <c r="AD39" s="74" t="s">
         <v>156</v>
       </c>
       <c r="AE39" s="77">
-        <v>0.1022</v>
+        <v>0.11219999999999999</v>
       </c>
       <c r="AF39" s="74">
         <v>0.12</v>
@@ -8608,167 +8619,167 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="66" t="s">
-        <v>332</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>390</v>
+        <v>330</v>
+      </c>
+      <c r="B40" s="72" t="s">
+        <v>419</v>
       </c>
       <c r="C40" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="D40" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="66">
         <v>1000</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="66">
         <v>500</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="O40" s="26">
-        <v>0</v>
-      </c>
-      <c r="P40" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="26">
+      <c r="O40" s="74">
+        <v>0</v>
+      </c>
+      <c r="P40" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="74">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="66">
         <v>3</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="66">
         <v>75</v>
       </c>
-      <c r="T40">
+      <c r="T40" s="66">
         <v>50</v>
       </c>
-      <c r="U40">
+      <c r="U40" s="66">
         <v>60</v>
       </c>
-      <c r="V40" s="26">
+      <c r="V40" s="74">
         <v>0.02</v>
       </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
+      <c r="W40" s="66">
+        <v>0</v>
+      </c>
+      <c r="X40" s="66">
         <v>10</v>
       </c>
-      <c r="Y40" s="26">
+      <c r="Y40" s="74">
         <v>0.04</v>
       </c>
-      <c r="Z40" s="26">
+      <c r="Z40" s="74">
         <v>0.04</v>
       </c>
-      <c r="AA40" s="26">
+      <c r="AA40" s="74">
         <v>0.03</v>
       </c>
-      <c r="AB40" s="26">
+      <c r="AB40" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC40" s="26">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="AD40" s="26" t="s">
+      <c r="AC40" s="80">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AD40" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="AE40" s="41">
-        <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="AF40" s="26">
+      <c r="AE40" s="77">
+        <v>0.1022</v>
+      </c>
+      <c r="AF40" s="74">
         <v>0.12</v>
       </c>
-      <c r="AG40" t="s">
+      <c r="AG40" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="AH40" s="2" t="s">
+      <c r="AH40" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="AI40" s="2" t="s">
+      <c r="AI40" s="67" t="s">
         <v>342</v>
       </c>
-      <c r="AJ40">
+      <c r="AJ40" s="66">
         <v>30</v>
       </c>
-      <c r="AK40" t="s">
+      <c r="AK40" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="AL40">
+      <c r="AL40" s="66">
         <v>5</v>
       </c>
-      <c r="AM40">
+      <c r="AM40" s="66">
         <v>200</v>
       </c>
-      <c r="AN40" s="2" t="s">
+      <c r="AN40" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AO40">
+      <c r="AO40" s="66">
         <v>1</v>
       </c>
-      <c r="AP40" s="2" t="s">
+      <c r="AP40" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AQ40" s="17">
+      <c r="AQ40" s="70">
         <v>0.75</v>
       </c>
-      <c r="AR40" s="49">
+      <c r="AR40" s="73">
         <v>168732127</v>
       </c>
-      <c r="AS40" s="2" t="s">
+      <c r="AS40" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="AT40" s="12">
+      <c r="AT40" s="69">
         <v>0.25</v>
       </c>
-      <c r="AU40" s="12">
+      <c r="AU40" s="69">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV40" s="12">
+      <c r="AV40" s="69">
         <v>0.05</v>
       </c>
-      <c r="AW40" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX40" s="18" t="b">
+      <c r="AW40" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX40" s="71" t="b">
         <v>1</v>
       </c>
-      <c r="AY40" s="18" t="b">
+      <c r="AY40" s="71" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" s="66" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C41" s="68" t="b">
         <v>0</v>
@@ -8849,15 +8860,15 @@
         <v>0.01</v>
       </c>
       <c r="AC41" s="26">
-        <v>0.08</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="AD41" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE41" s="41">
-        <v>8.72E-2</v>
-      </c>
-      <c r="AF41" s="50">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="AF41" s="26">
         <v>0.12</v>
       </c>
       <c r="AG41" t="s">
@@ -8887,7 +8898,7 @@
       <c r="AO41">
         <v>1</v>
       </c>
-      <c r="AP41" s="43" t="s">
+      <c r="AP41" s="2" t="s">
         <v>114</v>
       </c>
       <c r="AQ41" s="17">
@@ -8920,10 +8931,10 @@
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="66" t="s">
-        <v>406</v>
+        <v>334</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="C42" s="68" t="b">
         <v>0</v>
@@ -9004,13 +9015,13 @@
         <v>0.01</v>
       </c>
       <c r="AC42" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AD42" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE42" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>8.72E-2</v>
       </c>
       <c r="AF42" s="50">
         <v>0.12</v>
@@ -9075,10 +9086,10 @@
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" s="66" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="C43" s="68" t="b">
         <v>0</v>
@@ -9159,13 +9170,13 @@
         <v>0.01</v>
       </c>
       <c r="AC43" s="26">
-        <v>6.9999999999999993E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD43" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE43" s="41">
-        <v>7.7199999999999991E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF43" s="50">
         <v>0.12</v>
@@ -9230,10 +9241,10 @@
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" s="66" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="C44" s="68" t="b">
         <v>0</v>
@@ -9314,13 +9325,13 @@
         <v>0.01</v>
       </c>
       <c r="AC44" s="26">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="AD44" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE44" s="41">
-        <v>7.22E-2</v>
+        <v>7.7199999999999991E-2</v>
       </c>
       <c r="AF44" s="50">
         <v>0.12</v>
@@ -9384,195 +9395,195 @@
       </c>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B45" s="19"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="26"/>
-      <c r="V45" s="26"/>
-      <c r="Y45" s="26"/>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="26"/>
-      <c r="AE45" s="41"/>
-      <c r="AF45" s="26"/>
-      <c r="AH45" s="2"/>
-      <c r="AI45" s="2"/>
-      <c r="AN45" s="2"/>
-      <c r="AP45" s="2"/>
-      <c r="AQ45" s="17"/>
-      <c r="AS45" s="2"/>
-      <c r="AT45" s="12"/>
-      <c r="AU45" s="12"/>
-      <c r="AV45" s="12"/>
-      <c r="AW45" s="18"/>
-      <c r="AX45" s="18"/>
-      <c r="AY45" s="18"/>
+      <c r="A45" s="66" t="s">
+        <v>408</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C45" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>207</v>
+      </c>
+      <c r="F45" t="s">
+        <v>184</v>
+      </c>
+      <c r="G45">
+        <v>1000</v>
+      </c>
+      <c r="H45">
+        <v>500</v>
+      </c>
+      <c r="I45" t="s">
+        <v>109</v>
+      </c>
+      <c r="J45" t="s">
+        <v>109</v>
+      </c>
+      <c r="K45" t="s">
+        <v>204</v>
+      </c>
+      <c r="L45" t="s">
+        <v>167</v>
+      </c>
+      <c r="M45" t="s">
+        <v>211</v>
+      </c>
+      <c r="N45" t="s">
+        <v>198</v>
+      </c>
+      <c r="O45" s="26">
+        <v>0</v>
+      </c>
+      <c r="P45" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R45">
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <v>75</v>
+      </c>
+      <c r="T45">
+        <v>50</v>
+      </c>
+      <c r="U45">
+        <v>60</v>
+      </c>
+      <c r="V45" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>10</v>
+      </c>
+      <c r="Y45" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z45" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA45" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB45" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC45" s="26">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AD45" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE45" s="41">
+        <v>7.22E-2</v>
+      </c>
+      <c r="AF45" s="50">
+        <v>0.12</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI45" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ45">
+        <v>30</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL45">
+        <v>5</v>
+      </c>
+      <c r="AM45">
+        <v>200</v>
+      </c>
+      <c r="AN45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+      <c r="AP45" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ45" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR45" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT45" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU45" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV45" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW45" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX45" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY45" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="66" t="s">
-        <v>351</v>
-      </c>
-      <c r="B46" s="72" t="s">
-        <v>420</v>
-      </c>
-      <c r="C46" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F46" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G46" s="66">
-        <v>1000</v>
-      </c>
-      <c r="H46" s="66">
-        <v>500</v>
-      </c>
-      <c r="I46" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J46" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="K46" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="L46" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="M46" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="N46" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="O46" s="74">
-        <v>0</v>
-      </c>
-      <c r="P46" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="74">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R46" s="66">
-        <v>3</v>
-      </c>
-      <c r="S46" s="66">
-        <v>75</v>
-      </c>
-      <c r="T46" s="66">
-        <v>50</v>
-      </c>
-      <c r="U46" s="66">
-        <v>60</v>
-      </c>
-      <c r="V46" s="74">
-        <v>0.02</v>
-      </c>
-      <c r="W46" s="66">
-        <v>0</v>
-      </c>
-      <c r="X46" s="66">
-        <v>10</v>
-      </c>
-      <c r="Y46" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="Z46" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="AA46" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="AB46" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="AC46" s="75">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD46" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE46" s="77">
-        <v>0.1222</v>
-      </c>
-      <c r="AF46" s="74">
-        <v>0.12</v>
-      </c>
-      <c r="AG46" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH46" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI46" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ46" s="66">
-        <v>30</v>
-      </c>
-      <c r="AK46" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL46" s="66">
-        <v>5</v>
-      </c>
-      <c r="AM46" s="66">
-        <v>200</v>
-      </c>
-      <c r="AN46" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO46" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP46" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ46" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="AR46" s="73">
-        <v>168732127</v>
-      </c>
-      <c r="AS46" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT46" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="AU46" s="69">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV46" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="AW46" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX46" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY46" s="71" t="b">
-        <v>0</v>
-      </c>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B46" s="19"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="26"/>
+      <c r="V46" s="26"/>
+      <c r="Y46" s="26"/>
+      <c r="Z46" s="26"/>
+      <c r="AA46" s="26"/>
+      <c r="AB46" s="26"/>
+      <c r="AC46" s="26"/>
+      <c r="AD46" s="26"/>
+      <c r="AE46" s="41"/>
+      <c r="AF46" s="26"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
+      <c r="AN46" s="2"/>
+      <c r="AP46" s="2"/>
+      <c r="AQ46" s="17"/>
+      <c r="AS46" s="2"/>
+      <c r="AT46" s="12"/>
+      <c r="AU46" s="12"/>
+      <c r="AV46" s="12"/>
+      <c r="AW46" s="18"/>
+      <c r="AX46" s="18"/>
+      <c r="AY46" s="18"/>
     </row>
     <row r="47" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="66" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B47" s="72" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C47" s="68" t="b">
         <v>0</v>
@@ -9659,7 +9670,7 @@
         <v>156</v>
       </c>
       <c r="AE47" s="77">
-        <v>0.11219999999999999</v>
+        <v>0.1222</v>
       </c>
       <c r="AF47" s="74">
         <v>0.12</v>
@@ -9724,10 +9735,10 @@
     </row>
     <row r="48" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="66" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B48" s="72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C48" s="68" t="b">
         <v>0</v>
@@ -9814,7 +9825,7 @@
         <v>156</v>
       </c>
       <c r="AE48" s="77">
-        <v>0.1022</v>
+        <v>0.11219999999999999</v>
       </c>
       <c r="AF48" s="74">
         <v>0.12</v>
@@ -9877,167 +9888,167 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="B49" s="48" t="s">
-        <v>394</v>
+        <v>353</v>
+      </c>
+      <c r="B49" s="72" t="s">
+        <v>422</v>
       </c>
       <c r="C49" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="D49" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="66">
         <v>1000</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="66">
         <v>500</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N49" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="O49" s="26">
-        <v>0</v>
-      </c>
-      <c r="P49" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="26">
+      <c r="O49" s="74">
+        <v>0</v>
+      </c>
+      <c r="P49" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="74">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="66">
         <v>3</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="66">
         <v>75</v>
       </c>
-      <c r="T49">
+      <c r="T49" s="66">
         <v>50</v>
       </c>
-      <c r="U49">
+      <c r="U49" s="66">
         <v>60</v>
       </c>
-      <c r="V49" s="26">
+      <c r="V49" s="74">
         <v>0.02</v>
       </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
+      <c r="W49" s="66">
+        <v>0</v>
+      </c>
+      <c r="X49" s="66">
         <v>10</v>
       </c>
-      <c r="Y49" s="26">
+      <c r="Y49" s="74">
         <v>0.04</v>
       </c>
-      <c r="Z49" s="26">
+      <c r="Z49" s="74">
         <v>0.04</v>
       </c>
-      <c r="AA49" s="26">
+      <c r="AA49" s="74">
         <v>0.03</v>
       </c>
-      <c r="AB49" s="26">
+      <c r="AB49" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC49" s="33">
+      <c r="AC49" s="75">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD49" s="26" t="s">
+      <c r="AD49" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="AE49" s="51">
-        <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="AF49" s="50">
+      <c r="AE49" s="77">
+        <v>0.1022</v>
+      </c>
+      <c r="AF49" s="74">
         <v>0.12</v>
       </c>
-      <c r="AG49" t="s">
+      <c r="AG49" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="AH49" s="2" t="s">
+      <c r="AH49" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="AI49" s="2" t="s">
+      <c r="AI49" s="67" t="s">
         <v>342</v>
       </c>
-      <c r="AJ49">
+      <c r="AJ49" s="66">
         <v>30</v>
       </c>
-      <c r="AK49" t="s">
+      <c r="AK49" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="AL49">
+      <c r="AL49" s="66">
         <v>5</v>
       </c>
-      <c r="AM49">
+      <c r="AM49" s="66">
         <v>200</v>
       </c>
-      <c r="AN49" s="2" t="s">
+      <c r="AN49" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AO49">
+      <c r="AO49" s="66">
         <v>1</v>
       </c>
-      <c r="AP49" s="2" t="s">
+      <c r="AP49" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AQ49" s="17">
+      <c r="AQ49" s="70">
         <v>0.75</v>
       </c>
-      <c r="AR49" s="49">
+      <c r="AR49" s="73">
         <v>168732127</v>
       </c>
-      <c r="AS49" s="2" t="s">
+      <c r="AS49" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="AT49" s="12">
+      <c r="AT49" s="69">
         <v>0.25</v>
       </c>
-      <c r="AU49" s="12">
+      <c r="AU49" s="69">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV49" s="12">
+      <c r="AV49" s="69">
         <v>0.05</v>
       </c>
-      <c r="AW49" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX49" s="18" t="b">
+      <c r="AW49" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX49" s="71" t="b">
         <v>1</v>
       </c>
-      <c r="AY49" s="18" t="b">
+      <c r="AY49" s="71" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" s="66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C50" s="68" t="b">
         <v>0</v>
@@ -10124,7 +10135,7 @@
         <v>156</v>
       </c>
       <c r="AE50" s="51">
-        <v>8.72E-2</v>
+        <v>9.2200000000000004E-2</v>
       </c>
       <c r="AF50" s="50">
         <v>0.12</v>
@@ -10156,7 +10167,7 @@
       <c r="AO50">
         <v>1</v>
       </c>
-      <c r="AP50" s="43" t="s">
+      <c r="AP50" s="2" t="s">
         <v>114</v>
       </c>
       <c r="AQ50" s="17">
@@ -10189,10 +10200,10 @@
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" s="66" t="s">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="C51" s="68" t="b">
         <v>0</v>
@@ -10279,7 +10290,7 @@
         <v>156</v>
       </c>
       <c r="AE51" s="51">
-        <v>8.2199999999999995E-2</v>
+        <v>8.72E-2</v>
       </c>
       <c r="AF51" s="50">
         <v>0.12</v>
@@ -10344,10 +10355,10 @@
     </row>
     <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52" s="66" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="C52" s="68" t="b">
         <v>0</v>
@@ -10434,7 +10445,7 @@
         <v>156</v>
       </c>
       <c r="AE52" s="51">
-        <v>7.7199999999999991E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF52" s="50">
         <v>0.12</v>
@@ -10499,10 +10510,10 @@
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" s="66" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="C53" s="68" t="b">
         <v>0</v>
@@ -10589,7 +10600,7 @@
         <v>156</v>
       </c>
       <c r="AE53" s="51">
-        <v>7.22E-2</v>
+        <v>7.7199999999999991E-2</v>
       </c>
       <c r="AF53" s="50">
         <v>0.12</v>
@@ -10653,504 +10664,254 @@
       </c>
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C54" s="11"/>
-      <c r="D54" s="44"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="26"/>
-      <c r="V54" s="26"/>
-      <c r="Y54" s="26"/>
-      <c r="Z54" s="26"/>
-      <c r="AA54" s="26"/>
-      <c r="AB54" s="26"/>
-      <c r="AC54" s="93"/>
-      <c r="AD54" s="93"/>
-      <c r="AE54" s="94"/>
-      <c r="AF54" s="93"/>
-      <c r="AH54" s="2"/>
-      <c r="AI54" s="2"/>
-      <c r="AN54" s="2"/>
-      <c r="AP54" s="2"/>
-      <c r="AQ54" s="17"/>
-      <c r="AS54" s="2"/>
-      <c r="AT54" s="12"/>
-      <c r="AU54" s="12"/>
-      <c r="AV54" s="12"/>
-      <c r="AW54" s="18"/>
-      <c r="AX54" s="18"/>
-      <c r="AY54" s="18"/>
+      <c r="A54" s="66" t="s">
+        <v>411</v>
+      </c>
+      <c r="B54" s="48" t="s">
+        <v>396</v>
+      </c>
+      <c r="C54" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>207</v>
+      </c>
+      <c r="F54" t="s">
+        <v>184</v>
+      </c>
+      <c r="G54">
+        <v>1000</v>
+      </c>
+      <c r="H54">
+        <v>500</v>
+      </c>
+      <c r="I54" t="s">
+        <v>109</v>
+      </c>
+      <c r="J54" t="s">
+        <v>109</v>
+      </c>
+      <c r="K54" t="s">
+        <v>204</v>
+      </c>
+      <c r="L54" t="s">
+        <v>167</v>
+      </c>
+      <c r="M54" t="s">
+        <v>211</v>
+      </c>
+      <c r="N54" t="s">
+        <v>198</v>
+      </c>
+      <c r="O54" s="26">
+        <v>0</v>
+      </c>
+      <c r="P54" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R54">
+        <v>3</v>
+      </c>
+      <c r="S54">
+        <v>75</v>
+      </c>
+      <c r="T54">
+        <v>50</v>
+      </c>
+      <c r="U54">
+        <v>60</v>
+      </c>
+      <c r="V54" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>10</v>
+      </c>
+      <c r="Y54" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z54" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA54" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB54" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC54" s="33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD54" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE54" s="51">
+        <v>7.22E-2</v>
+      </c>
+      <c r="AF54" s="50">
+        <v>0.12</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH54" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI54" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ54">
+        <v>30</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL54">
+        <v>5</v>
+      </c>
+      <c r="AM54">
+        <v>200</v>
+      </c>
+      <c r="AN54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AP54" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ54" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR54" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT54" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU54" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV54" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW54" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX54" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY54" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="66" t="s">
-        <v>423</v>
-      </c>
-      <c r="B55" s="72" t="s">
-        <v>431</v>
-      </c>
-      <c r="C55" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F55" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G55" s="66">
-        <v>1000</v>
-      </c>
-      <c r="H55" s="66">
-        <v>500</v>
-      </c>
-      <c r="I55" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J55" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="K55" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="L55" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="M55" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="N55" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="O55" s="74">
-        <v>0</v>
-      </c>
-      <c r="P55" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="74">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R55" s="66">
-        <v>3</v>
-      </c>
-      <c r="S55" s="66">
-        <v>75</v>
-      </c>
-      <c r="T55" s="66">
-        <v>50</v>
-      </c>
-      <c r="U55" s="66">
-        <v>60</v>
-      </c>
-      <c r="V55" s="74">
-        <v>0.02</v>
-      </c>
-      <c r="W55" s="66">
-        <v>0</v>
-      </c>
-      <c r="X55" s="66">
-        <v>10</v>
-      </c>
-      <c r="Y55" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="Z55" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="AA55" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="AB55" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="AC55" s="95">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD55" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE55" s="95">
-        <v>7.5157231635036972E-2</v>
-      </c>
-      <c r="AF55" s="97">
-        <v>1.7733112250080365E-2</v>
-      </c>
-      <c r="AG55" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH55" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI55" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ55" s="66">
-        <v>30</v>
-      </c>
-      <c r="AK55" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL55" s="66">
-        <v>5</v>
-      </c>
-      <c r="AM55" s="66">
-        <v>200</v>
-      </c>
-      <c r="AN55" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO55" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP55" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ55" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="AR55" s="73">
-        <v>168732127</v>
-      </c>
-      <c r="AS55" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT55" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="AU55" s="69">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV55" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="AW55" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX55" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY55" s="71" t="b">
-        <v>0</v>
-      </c>
+      <c r="B55" s="72"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="71"/>
+      <c r="Q55" s="74"/>
+      <c r="V55" s="74"/>
+      <c r="Y55" s="74"/>
+      <c r="Z55" s="74"/>
+      <c r="AA55" s="74"/>
+      <c r="AB55" s="74"/>
+      <c r="AC55" s="75"/>
+      <c r="AD55" s="74"/>
+      <c r="AE55" s="77"/>
+      <c r="AF55" s="74"/>
+      <c r="AH55" s="67"/>
+      <c r="AI55" s="67"/>
+      <c r="AN55" s="67"/>
+      <c r="AP55" s="67"/>
+      <c r="AQ55" s="70"/>
+      <c r="AR55" s="73"/>
+      <c r="AS55" s="67"/>
+      <c r="AT55" s="69"/>
+      <c r="AU55" s="69"/>
+      <c r="AV55" s="69"/>
+      <c r="AW55" s="71"/>
+      <c r="AX55" s="71"/>
+      <c r="AY55" s="71"/>
     </row>
     <row r="56" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="66" t="s">
-        <v>424</v>
-      </c>
-      <c r="B56" s="72" t="s">
-        <v>432</v>
-      </c>
-      <c r="C56" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D56" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E56" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F56" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G56" s="66">
-        <v>1000</v>
-      </c>
-      <c r="H56" s="66">
-        <v>500</v>
-      </c>
-      <c r="I56" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J56" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="K56" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="L56" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="M56" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="N56" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="O56" s="74">
-        <v>0</v>
-      </c>
-      <c r="P56" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="74">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R56" s="66">
-        <v>3</v>
-      </c>
-      <c r="S56" s="66">
-        <v>75</v>
-      </c>
-      <c r="T56" s="66">
-        <v>50</v>
-      </c>
-      <c r="U56" s="66">
-        <v>60</v>
-      </c>
-      <c r="V56" s="74">
-        <v>0.02</v>
-      </c>
-      <c r="W56" s="66">
-        <v>0</v>
-      </c>
-      <c r="X56" s="66">
-        <v>10</v>
-      </c>
-      <c r="Y56" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="Z56" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="AA56" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="AB56" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="AC56" s="96">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AD56" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE56" s="96">
-        <v>6.5157231635036977E-2</v>
-      </c>
-      <c r="AF56" s="98">
-        <v>1.7733112250080365E-2</v>
-      </c>
-      <c r="AG56" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH56" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI56" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ56" s="66">
-        <v>30</v>
-      </c>
-      <c r="AK56" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL56" s="66">
-        <v>5</v>
-      </c>
-      <c r="AM56" s="66">
-        <v>200</v>
-      </c>
-      <c r="AN56" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO56" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP56" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ56" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="AR56" s="73">
-        <v>168732127</v>
-      </c>
-      <c r="AS56" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT56" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="AU56" s="69">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV56" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="AW56" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX56" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY56" s="71" t="b">
-        <v>0</v>
-      </c>
+      <c r="B56" s="72"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="O56" s="74"/>
+      <c r="P56" s="71"/>
+      <c r="Q56" s="74"/>
+      <c r="V56" s="74"/>
+      <c r="Y56" s="74"/>
+      <c r="Z56" s="74"/>
+      <c r="AA56" s="74"/>
+      <c r="AB56" s="74"/>
+      <c r="AC56" s="75"/>
+      <c r="AD56" s="74"/>
+      <c r="AE56" s="77"/>
+      <c r="AF56" s="74"/>
+      <c r="AH56" s="67"/>
+      <c r="AI56" s="67"/>
+      <c r="AN56" s="67"/>
+      <c r="AP56" s="67"/>
+      <c r="AQ56" s="70"/>
+      <c r="AR56" s="73"/>
+      <c r="AS56" s="67"/>
+      <c r="AT56" s="69"/>
+      <c r="AU56" s="69"/>
+      <c r="AV56" s="69"/>
+      <c r="AW56" s="71"/>
+      <c r="AX56" s="71"/>
+      <c r="AY56" s="71"/>
     </row>
-    <row r="57" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="66" t="s">
-        <v>425</v>
-      </c>
-      <c r="B57" s="72" t="s">
-        <v>433</v>
-      </c>
-      <c r="C57" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D57" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F57" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G57" s="66">
-        <v>1000</v>
-      </c>
-      <c r="H57" s="66">
-        <v>500</v>
-      </c>
-      <c r="I57" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J57" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="K57" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="L57" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="M57" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="N57" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="O57" s="74">
-        <v>0</v>
-      </c>
-      <c r="P57" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="74">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R57" s="66">
-        <v>3</v>
-      </c>
-      <c r="S57" s="66">
-        <v>75</v>
-      </c>
-      <c r="T57" s="66">
-        <v>50</v>
-      </c>
-      <c r="U57" s="66">
-        <v>60</v>
-      </c>
-      <c r="V57" s="74">
-        <v>0.02</v>
-      </c>
-      <c r="W57" s="66">
-        <v>0</v>
-      </c>
-      <c r="X57" s="66">
-        <v>10</v>
-      </c>
-      <c r="Y57" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="Z57" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="AA57" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="AB57" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="AC57" s="96">
-        <v>5.4999999999999993E-2</v>
-      </c>
-      <c r="AD57" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE57" s="96">
-        <v>5.5157231635036968E-2</v>
-      </c>
-      <c r="AF57" s="98">
-        <v>1.7733112250080365E-2</v>
-      </c>
-      <c r="AG57" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH57" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI57" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ57" s="66">
-        <v>30</v>
-      </c>
-      <c r="AK57" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL57" s="66">
-        <v>5</v>
-      </c>
-      <c r="AM57" s="66">
-        <v>200</v>
-      </c>
-      <c r="AN57" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO57" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP57" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ57" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="AR57" s="73">
-        <v>168732127</v>
-      </c>
-      <c r="AS57" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT57" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="AU57" s="69">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV57" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="AW57" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX57" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY57" s="71" t="b">
-        <v>0</v>
-      </c>
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C57" s="11"/>
+      <c r="D57" s="44"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="26"/>
+      <c r="V57" s="26"/>
+      <c r="Y57" s="26"/>
+      <c r="Z57" s="26"/>
+      <c r="AA57" s="26"/>
+      <c r="AB57" s="26"/>
+      <c r="AC57" s="86"/>
+      <c r="AD57" s="86"/>
+      <c r="AE57" s="87"/>
+      <c r="AF57" s="86"/>
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="2"/>
+      <c r="AN57" s="2"/>
+      <c r="AP57" s="2"/>
+      <c r="AQ57" s="17"/>
+      <c r="AS57" s="2"/>
+      <c r="AT57" s="12"/>
+      <c r="AU57" s="12"/>
+      <c r="AV57" s="12"/>
+      <c r="AW57" s="18"/>
+      <c r="AX57" s="18"/>
+      <c r="AY57" s="18"/>
     </row>
     <row r="58" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="66" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B58" s="72" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C58" s="68" t="b">
         <v>0</v>
@@ -11230,16 +10991,16 @@
       <c r="AB58" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC58" s="96">
-        <v>4.4999999999999991E-2</v>
-      </c>
-      <c r="AD58" s="93" t="s">
+      <c r="AC58" s="88">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD58" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE58" s="96">
-        <v>4.5157231635036967E-2</v>
-      </c>
-      <c r="AF58" s="98">
+      <c r="AE58" s="88">
+        <v>7.5157231635036972E-2</v>
+      </c>
+      <c r="AF58" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG58" s="66" t="s">
@@ -11302,10 +11063,10 @@
     </row>
     <row r="59" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="66" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B59" s="72" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C59" s="68" t="b">
         <v>0</v>
@@ -11385,16 +11146,16 @@
       <c r="AB59" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC59" s="96">
-        <v>0.04</v>
-      </c>
-      <c r="AD59" s="93" t="s">
+      <c r="AC59" s="89">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AD59" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE59" s="96">
-        <v>4.02E-2</v>
-      </c>
-      <c r="AF59" s="98">
+      <c r="AE59" s="89">
+        <v>6.5157231635036977E-2</v>
+      </c>
+      <c r="AF59" s="91">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG59" s="66" t="s">
@@ -11457,10 +11218,10 @@
     </row>
     <row r="60" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="66" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B60" s="72" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C60" s="68" t="b">
         <v>0</v>
@@ -11540,16 +11301,16 @@
       <c r="AB60" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC60" s="95">
-        <v>3.4999999999999989E-2</v>
-      </c>
-      <c r="AD60" s="93" t="s">
+      <c r="AC60" s="89">
+        <v>5.4999999999999993E-2</v>
+      </c>
+      <c r="AD60" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE60" s="95">
-        <v>3.5157231635036965E-2</v>
-      </c>
-      <c r="AF60" s="97">
+      <c r="AE60" s="89">
+        <v>5.5157231635036968E-2</v>
+      </c>
+      <c r="AF60" s="91">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG60" s="66" t="s">
@@ -11612,10 +11373,10 @@
     </row>
     <row r="61" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="66" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B61" s="72" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C61" s="68" t="b">
         <v>0</v>
@@ -11695,16 +11456,16 @@
       <c r="AB61" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC61" s="96">
-        <v>2.9999999999999992E-2</v>
-      </c>
-      <c r="AD61" s="93" t="s">
+      <c r="AC61" s="89">
+        <v>4.4999999999999991E-2</v>
+      </c>
+      <c r="AD61" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE61" s="96">
-        <v>3.0157231635036967E-2</v>
-      </c>
-      <c r="AF61" s="98">
+      <c r="AE61" s="89">
+        <v>4.5157231635036967E-2</v>
+      </c>
+      <c r="AF61" s="91">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG61" s="66" t="s">
@@ -11767,10 +11528,10 @@
     </row>
     <row r="62" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="66" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B62" s="72" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C62" s="68" t="b">
         <v>0</v>
@@ -11850,16 +11611,16 @@
       <c r="AB62" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC62" s="96">
-        <v>2.4999999999999994E-2</v>
-      </c>
-      <c r="AD62" s="93" t="s">
+      <c r="AC62" s="89">
+        <v>0.04</v>
+      </c>
+      <c r="AD62" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE62" s="96">
-        <v>2.515723163503697E-2</v>
-      </c>
-      <c r="AF62" s="98">
+      <c r="AE62" s="89">
+        <v>4.02E-2</v>
+      </c>
+      <c r="AF62" s="91">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG62" s="66" t="s">
@@ -11921,44 +11682,169 @@
       </c>
     </row>
     <row r="63" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="72"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="68"/>
-      <c r="O63" s="74"/>
-      <c r="P63" s="71"/>
-      <c r="Q63" s="74"/>
-      <c r="V63" s="74"/>
-      <c r="Y63" s="74"/>
-      <c r="Z63" s="74"/>
-      <c r="AA63" s="74"/>
-      <c r="AB63" s="74"/>
-      <c r="AC63" s="75"/>
-      <c r="AD63" s="74"/>
-      <c r="AE63" s="77"/>
-      <c r="AF63" s="74"/>
-      <c r="AH63" s="67"/>
-      <c r="AI63" s="67"/>
-      <c r="AN63" s="67"/>
-      <c r="AP63" s="67"/>
-      <c r="AQ63" s="70"/>
-      <c r="AR63" s="73"/>
-      <c r="AS63" s="67"/>
-      <c r="AT63" s="69"/>
-      <c r="AU63" s="69"/>
-      <c r="AV63" s="69"/>
-      <c r="AW63" s="71"/>
-      <c r="AX63" s="71"/>
-      <c r="AY63" s="71"/>
+      <c r="A63" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="B63" s="72" t="s">
+        <v>435</v>
+      </c>
+      <c r="C63" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="F63" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G63" s="66">
+        <v>1000</v>
+      </c>
+      <c r="H63" s="66">
+        <v>500</v>
+      </c>
+      <c r="I63" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="J63" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="K63" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L63" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="M63" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="N63" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="O63" s="74">
+        <v>0</v>
+      </c>
+      <c r="P63" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="74">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R63" s="66">
+        <v>3</v>
+      </c>
+      <c r="S63" s="66">
+        <v>75</v>
+      </c>
+      <c r="T63" s="66">
+        <v>50</v>
+      </c>
+      <c r="U63" s="66">
+        <v>60</v>
+      </c>
+      <c r="V63" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="W63" s="66">
+        <v>0</v>
+      </c>
+      <c r="X63" s="66">
+        <v>10</v>
+      </c>
+      <c r="Y63" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="Z63" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="AA63" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="AB63" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AC63" s="88">
+        <v>3.4999999999999989E-2</v>
+      </c>
+      <c r="AD63" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE63" s="88">
+        <v>3.5157231635036965E-2</v>
+      </c>
+      <c r="AF63" s="90">
+        <v>1.7733112250080365E-2</v>
+      </c>
+      <c r="AG63" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH63" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI63" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ63" s="66">
+        <v>30</v>
+      </c>
+      <c r="AK63" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL63" s="66">
+        <v>5</v>
+      </c>
+      <c r="AM63" s="66">
+        <v>200</v>
+      </c>
+      <c r="AN63" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO63" s="66">
+        <v>1</v>
+      </c>
+      <c r="AP63" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ63" s="70">
+        <v>0.75</v>
+      </c>
+      <c r="AR63" s="73">
+        <v>168732127</v>
+      </c>
+      <c r="AS63" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT63" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="AU63" s="69">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV63" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="AW63" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX63" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY63" s="71" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="66" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B64" s="72" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C64" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="68" t="b">
         <v>0</v>
@@ -12035,16 +11921,16 @@
       <c r="AB64" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC64" s="95">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD64" s="93" t="s">
+      <c r="AC64" s="89">
+        <v>2.9999999999999992E-2</v>
+      </c>
+      <c r="AD64" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE64" s="95">
-        <v>7.5157231635036972E-2</v>
-      </c>
-      <c r="AF64" s="97">
+      <c r="AE64" s="89">
+        <v>3.0157231635036967E-2</v>
+      </c>
+      <c r="AF64" s="91">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG64" s="66" t="s">
@@ -12107,13 +11993,13 @@
     </row>
     <row r="65" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="66" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B65" s="72" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C65" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="68" t="b">
         <v>0</v>
@@ -12190,16 +12076,16 @@
       <c r="AB65" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC65" s="95">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD65" s="93" t="s">
+      <c r="AC65" s="89">
+        <v>2.4999999999999994E-2</v>
+      </c>
+      <c r="AD65" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE65" s="96">
-        <v>6.5157231635036977E-2</v>
-      </c>
-      <c r="AF65" s="98">
+      <c r="AE65" s="89">
+        <v>2.515723163503697E-2</v>
+      </c>
+      <c r="AF65" s="91">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG65" s="66" t="s">
@@ -12261,169 +12147,44 @@
       </c>
     </row>
     <row r="66" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="66" t="s">
-        <v>441</v>
-      </c>
-      <c r="B66" s="72" t="s">
-        <v>448</v>
-      </c>
-      <c r="C66" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D66" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E66" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F66" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G66" s="66">
-        <v>1000</v>
-      </c>
-      <c r="H66" s="66">
-        <v>500</v>
-      </c>
-      <c r="I66" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J66" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="K66" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="L66" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="M66" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="N66" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="O66" s="74">
-        <v>0</v>
-      </c>
-      <c r="P66" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="74">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R66" s="66">
-        <v>3</v>
-      </c>
-      <c r="S66" s="66">
-        <v>75</v>
-      </c>
-      <c r="T66" s="66">
-        <v>50</v>
-      </c>
-      <c r="U66" s="66">
-        <v>60</v>
-      </c>
-      <c r="V66" s="74">
-        <v>0.02</v>
-      </c>
-      <c r="W66" s="66">
-        <v>0</v>
-      </c>
-      <c r="X66" s="66">
-        <v>10</v>
-      </c>
-      <c r="Y66" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="Z66" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="AA66" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="AB66" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="AC66" s="95">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD66" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE66" s="96">
-        <v>5.5157231635036968E-2</v>
-      </c>
-      <c r="AF66" s="98">
-        <v>1.7733112250080365E-2</v>
-      </c>
-      <c r="AG66" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH66" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI66" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ66" s="66">
-        <v>30</v>
-      </c>
-      <c r="AK66" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL66" s="66">
-        <v>5</v>
-      </c>
-      <c r="AM66" s="66">
-        <v>200</v>
-      </c>
-      <c r="AN66" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO66" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP66" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ66" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="AR66" s="73">
-        <v>168732127</v>
-      </c>
-      <c r="AS66" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT66" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="AU66" s="69">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV66" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="AW66" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX66" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY66" s="71" t="b">
-        <v>0</v>
-      </c>
+      <c r="B66" s="72"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="O66" s="74"/>
+      <c r="P66" s="71"/>
+      <c r="Q66" s="74"/>
+      <c r="V66" s="74"/>
+      <c r="Y66" s="74"/>
+      <c r="Z66" s="74"/>
+      <c r="AA66" s="74"/>
+      <c r="AB66" s="74"/>
+      <c r="AC66" s="89"/>
+      <c r="AD66" s="86"/>
+      <c r="AE66" s="89"/>
+      <c r="AF66" s="91"/>
+      <c r="AH66" s="67"/>
+      <c r="AI66" s="67"/>
+      <c r="AN66" s="67"/>
+      <c r="AP66" s="67"/>
+      <c r="AQ66" s="70"/>
+      <c r="AR66" s="73"/>
+      <c r="AS66" s="67"/>
+      <c r="AT66" s="69"/>
+      <c r="AU66" s="69"/>
+      <c r="AV66" s="69"/>
+      <c r="AW66" s="71"/>
+      <c r="AX66" s="71"/>
+      <c r="AY66" s="71"/>
     </row>
     <row r="67" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="66" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="B67" s="72" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C67" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" s="68" t="b">
         <v>0</v>
@@ -12500,29 +12261,29 @@
       <c r="AB67" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC67" s="95">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD67" s="93" t="s">
+      <c r="AC67" s="88">
+        <v>3.4999999999999989E-2</v>
+      </c>
+      <c r="AD67" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE67" s="96">
-        <v>4.5157231635036967E-2</v>
-      </c>
-      <c r="AF67" s="98">
+      <c r="AE67" s="88">
+        <v>3.5157231635036965E-2</v>
+      </c>
+      <c r="AF67" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG67" s="66" t="s">
         <v>112</v>
       </c>
       <c r="AH67" s="67" t="s">
-        <v>158</v>
+        <v>359</v>
       </c>
       <c r="AI67" s="67" t="s">
         <v>342</v>
       </c>
       <c r="AJ67" s="66">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AK67" s="66" t="s">
         <v>115</v>
@@ -12571,169 +12332,44 @@
       </c>
     </row>
     <row r="68" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="66" t="s">
-        <v>443</v>
-      </c>
-      <c r="B68" s="72" t="s">
-        <v>450</v>
-      </c>
-      <c r="C68" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D68" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E68" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F68" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G68" s="66">
-        <v>1000</v>
-      </c>
-      <c r="H68" s="66">
-        <v>500</v>
-      </c>
-      <c r="I68" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J68" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="K68" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="L68" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="M68" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="N68" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="O68" s="74">
-        <v>0</v>
-      </c>
-      <c r="P68" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="74">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R68" s="66">
-        <v>3</v>
-      </c>
-      <c r="S68" s="66">
-        <v>75</v>
-      </c>
-      <c r="T68" s="66">
-        <v>50</v>
-      </c>
-      <c r="U68" s="66">
-        <v>60</v>
-      </c>
-      <c r="V68" s="74">
-        <v>0.02</v>
-      </c>
-      <c r="W68" s="66">
-        <v>0</v>
-      </c>
-      <c r="X68" s="66">
-        <v>10</v>
-      </c>
-      <c r="Y68" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="Z68" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="AA68" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="AB68" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="AC68" s="95">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD68" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE68" s="96">
-        <v>4.02E-2</v>
-      </c>
-      <c r="AF68" s="98">
-        <v>1.7733112250080365E-2</v>
-      </c>
-      <c r="AG68" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH68" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI68" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ68" s="66">
-        <v>30</v>
-      </c>
-      <c r="AK68" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL68" s="66">
-        <v>5</v>
-      </c>
-      <c r="AM68" s="66">
-        <v>200</v>
-      </c>
-      <c r="AN68" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO68" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP68" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ68" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="AR68" s="73">
-        <v>168732127</v>
-      </c>
-      <c r="AS68" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT68" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="AU68" s="69">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV68" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="AW68" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX68" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY68" s="71" t="b">
-        <v>0</v>
-      </c>
+      <c r="B68" s="72"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="68"/>
+      <c r="O68" s="74"/>
+      <c r="P68" s="71"/>
+      <c r="Q68" s="74"/>
+      <c r="V68" s="74"/>
+      <c r="Y68" s="74"/>
+      <c r="Z68" s="74"/>
+      <c r="AA68" s="74"/>
+      <c r="AB68" s="74"/>
+      <c r="AC68" s="75"/>
+      <c r="AD68" s="74"/>
+      <c r="AE68" s="77"/>
+      <c r="AF68" s="74"/>
+      <c r="AH68" s="67"/>
+      <c r="AI68" s="67"/>
+      <c r="AN68" s="67"/>
+      <c r="AP68" s="67"/>
+      <c r="AQ68" s="70"/>
+      <c r="AR68" s="73"/>
+      <c r="AS68" s="67"/>
+      <c r="AT68" s="69"/>
+      <c r="AU68" s="69"/>
+      <c r="AV68" s="69"/>
+      <c r="AW68" s="71"/>
+      <c r="AX68" s="71"/>
+      <c r="AY68" s="71"/>
     </row>
     <row r="69" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="66" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B69" s="72" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="C69" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" s="68" t="b">
         <v>0</v>
@@ -12810,16 +12446,16 @@
       <c r="AB69" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC69" s="95">
+      <c r="AC69" s="88">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD69" s="93" t="s">
+      <c r="AD69" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE69" s="95">
-        <v>3.5157231635036965E-2</v>
-      </c>
-      <c r="AF69" s="97">
+      <c r="AE69" s="88">
+        <v>7.5157231635036972E-2</v>
+      </c>
+      <c r="AF69" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG69" s="66" t="s">
@@ -12882,13 +12518,13 @@
     </row>
     <row r="70" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="66" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B70" s="72" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C70" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" s="68" t="b">
         <v>0</v>
@@ -12965,16 +12601,16 @@
       <c r="AB70" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC70" s="95">
+      <c r="AC70" s="88">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD70" s="93" t="s">
+      <c r="AD70" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE70" s="96">
-        <v>3.0157231635036967E-2</v>
-      </c>
-      <c r="AF70" s="98">
+      <c r="AE70" s="89">
+        <v>6.5157231635036977E-2</v>
+      </c>
+      <c r="AF70" s="91">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG70" s="66" t="s">
@@ -13037,13 +12673,13 @@
     </row>
     <row r="71" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="66" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B71" s="72" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C71" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" s="68" t="b">
         <v>0</v>
@@ -13120,16 +12756,16 @@
       <c r="AB71" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC71" s="95">
+      <c r="AC71" s="88">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD71" s="93" t="s">
+      <c r="AD71" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE71" s="96">
-        <v>2.515723163503697E-2</v>
-      </c>
-      <c r="AF71" s="98">
+      <c r="AE71" s="89">
+        <v>5.5157231635036968E-2</v>
+      </c>
+      <c r="AF71" s="91">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG71" s="66" t="s">
@@ -13191,846 +12827,971 @@
       </c>
     </row>
     <row r="72" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="72"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="68"/>
-      <c r="O72" s="74"/>
-      <c r="P72" s="71"/>
-      <c r="Q72" s="74"/>
-      <c r="V72" s="74"/>
-      <c r="Y72" s="74"/>
-      <c r="Z72" s="74"/>
-      <c r="AA72" s="74"/>
-      <c r="AB72" s="74"/>
-      <c r="AC72" s="75"/>
-      <c r="AD72" s="74"/>
-      <c r="AE72" s="77"/>
-      <c r="AF72" s="74"/>
-      <c r="AH72" s="67"/>
-      <c r="AI72" s="67"/>
-      <c r="AN72" s="67"/>
-      <c r="AP72" s="67"/>
-      <c r="AQ72" s="70"/>
-      <c r="AR72" s="73"/>
-      <c r="AS72" s="67"/>
-      <c r="AT72" s="69"/>
-      <c r="AU72" s="69"/>
-      <c r="AV72" s="69"/>
-      <c r="AW72" s="71"/>
-      <c r="AX72" s="71"/>
-      <c r="AY72" s="71"/>
+      <c r="A72" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="B72" s="72" t="s">
+        <v>449</v>
+      </c>
+      <c r="C72" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="F72" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G72" s="66">
+        <v>1000</v>
+      </c>
+      <c r="H72" s="66">
+        <v>500</v>
+      </c>
+      <c r="I72" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="J72" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="K72" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L72" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="M72" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="N72" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="O72" s="74">
+        <v>0</v>
+      </c>
+      <c r="P72" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="74">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R72" s="66">
+        <v>3</v>
+      </c>
+      <c r="S72" s="66">
+        <v>75</v>
+      </c>
+      <c r="T72" s="66">
+        <v>50</v>
+      </c>
+      <c r="U72" s="66">
+        <v>60</v>
+      </c>
+      <c r="V72" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="W72" s="66">
+        <v>0</v>
+      </c>
+      <c r="X72" s="66">
+        <v>10</v>
+      </c>
+      <c r="Y72" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="Z72" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="AA72" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="AB72" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AC72" s="88">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD72" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE72" s="89">
+        <v>4.5157231635036967E-2</v>
+      </c>
+      <c r="AF72" s="91">
+        <v>1.7733112250080365E-2</v>
+      </c>
+      <c r="AG72" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH72" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI72" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ72" s="66">
+        <v>30</v>
+      </c>
+      <c r="AK72" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL72" s="66">
+        <v>5</v>
+      </c>
+      <c r="AM72" s="66">
+        <v>200</v>
+      </c>
+      <c r="AN72" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO72" s="66">
+        <v>1</v>
+      </c>
+      <c r="AP72" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ72" s="70">
+        <v>0.75</v>
+      </c>
+      <c r="AR72" s="73">
+        <v>168732127</v>
+      </c>
+      <c r="AS72" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT72" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="AU72" s="69">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV72" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="AW72" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX72" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY72" s="71" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B73" s="48" t="s">
-        <v>365</v>
-      </c>
-      <c r="C73" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="D73" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E73" s="42" t="s">
+    <row r="73" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="66" t="s">
+        <v>443</v>
+      </c>
+      <c r="B73" s="72" t="s">
+        <v>450</v>
+      </c>
+      <c r="C73" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="F73" s="42" t="s">
+      <c r="F73" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="G73" s="42">
+      <c r="G73" s="66">
         <v>1000</v>
       </c>
-      <c r="H73" s="42">
+      <c r="H73" s="66">
         <v>500</v>
       </c>
-      <c r="I73" s="42" t="s">
+      <c r="I73" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="J73" s="42" t="s">
+      <c r="J73" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="K73" s="42" t="s">
+      <c r="K73" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="L73" s="42" t="s">
+      <c r="L73" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="M73" s="42" t="s">
+      <c r="M73" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="N73" s="42" t="s">
+      <c r="N73" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="O73" s="50">
-        <v>0</v>
-      </c>
-      <c r="P73" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="50">
+      <c r="O73" s="74">
+        <v>0</v>
+      </c>
+      <c r="P73" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="74">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R73" s="42">
+      <c r="R73" s="66">
         <v>3</v>
       </c>
-      <c r="S73" s="42">
+      <c r="S73" s="66">
         <v>75</v>
       </c>
-      <c r="T73" s="42">
+      <c r="T73" s="66">
         <v>50</v>
       </c>
-      <c r="U73" s="42">
+      <c r="U73" s="66">
         <v>60</v>
       </c>
-      <c r="V73" s="50">
+      <c r="V73" s="74">
         <v>0.02</v>
       </c>
-      <c r="W73" s="42">
-        <v>0</v>
-      </c>
-      <c r="X73" s="42">
+      <c r="W73" s="66">
+        <v>0</v>
+      </c>
+      <c r="X73" s="66">
         <v>10</v>
       </c>
-      <c r="Y73" s="50">
+      <c r="Y73" s="74">
         <v>0.04</v>
       </c>
-      <c r="Z73" s="50">
+      <c r="Z73" s="74">
         <v>0.04</v>
       </c>
-      <c r="AA73" s="50">
+      <c r="AA73" s="74">
         <v>0.03</v>
       </c>
-      <c r="AB73" s="50">
+      <c r="AB73" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC73" s="33">
-        <v>4.4234404536862004E-2</v>
-      </c>
-      <c r="AD73" s="50" t="s">
+      <c r="AC73" s="88">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD73" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE73" s="51">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="AF73" s="24">
-        <v>3.9130434782608692E-2</v>
-      </c>
-      <c r="AG73" s="42" t="s">
+      <c r="AE73" s="89">
+        <v>4.02E-2</v>
+      </c>
+      <c r="AF73" s="91">
+        <v>1.7733112250080365E-2</v>
+      </c>
+      <c r="AG73" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="AH73" s="43" t="s">
+      <c r="AH73" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="AI73" s="43" t="s">
+      <c r="AI73" s="67" t="s">
         <v>342</v>
       </c>
-      <c r="AJ73" s="42">
+      <c r="AJ73" s="66">
         <v>30</v>
       </c>
-      <c r="AK73" s="42" t="s">
+      <c r="AK73" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="AL73" s="42">
+      <c r="AL73" s="66">
         <v>5</v>
       </c>
-      <c r="AM73" s="42">
+      <c r="AM73" s="66">
         <v>200</v>
       </c>
-      <c r="AN73" s="43" t="s">
+      <c r="AN73" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AO73" s="42">
+      <c r="AO73" s="66">
         <v>1</v>
       </c>
-      <c r="AP73" s="43" t="s">
+      <c r="AP73" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AQ73" s="46">
+      <c r="AQ73" s="70">
         <v>0.75</v>
       </c>
-      <c r="AR73" s="49">
+      <c r="AR73" s="73">
         <v>168732127</v>
       </c>
-      <c r="AS73" s="43" t="s">
+      <c r="AS73" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="AT73" s="45">
+      <c r="AT73" s="69">
         <v>0.25</v>
       </c>
-      <c r="AU73" s="45">
+      <c r="AU73" s="69">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV73" s="45">
+      <c r="AV73" s="69">
         <v>0.05</v>
       </c>
-      <c r="AW73" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX73" s="47" t="b">
+      <c r="AW73" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX73" s="71" t="b">
         <v>1</v>
       </c>
-      <c r="AY73" s="47" t="b">
+      <c r="AY73" s="71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B74" s="48" t="s">
-        <v>397</v>
+    <row r="74" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="66" t="s">
+        <v>444</v>
+      </c>
+      <c r="B74" s="72" t="s">
+        <v>451</v>
       </c>
       <c r="C74" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="D74" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E74" s="42" t="s">
+      <c r="D74" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="F74" s="42" t="s">
+      <c r="F74" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="G74" s="42">
+      <c r="G74" s="66">
         <v>1000</v>
       </c>
-      <c r="H74" s="42">
+      <c r="H74" s="66">
         <v>500</v>
       </c>
-      <c r="I74" s="42" t="s">
+      <c r="I74" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="J74" s="42" t="s">
+      <c r="J74" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="K74" s="42" t="s">
+      <c r="K74" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="L74" s="42" t="s">
+      <c r="L74" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="M74" s="42" t="s">
+      <c r="M74" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="N74" s="42" t="s">
+      <c r="N74" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="O74" s="50">
-        <v>0</v>
-      </c>
-      <c r="P74" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="50">
+      <c r="O74" s="74">
+        <v>0</v>
+      </c>
+      <c r="P74" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="74">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R74" s="42">
+      <c r="R74" s="66">
         <v>3</v>
       </c>
-      <c r="S74" s="42">
+      <c r="S74" s="66">
         <v>75</v>
       </c>
-      <c r="T74" s="42">
+      <c r="T74" s="66">
         <v>50</v>
       </c>
-      <c r="U74" s="42">
+      <c r="U74" s="66">
         <v>60</v>
       </c>
-      <c r="V74" s="50">
+      <c r="V74" s="74">
         <v>0.02</v>
       </c>
-      <c r="W74" s="42">
-        <v>0</v>
-      </c>
-      <c r="X74" s="42">
+      <c r="W74" s="66">
+        <v>0</v>
+      </c>
+      <c r="X74" s="66">
         <v>10</v>
       </c>
-      <c r="Y74" s="50">
+      <c r="Y74" s="74">
         <v>0.04</v>
       </c>
-      <c r="Z74" s="50">
+      <c r="Z74" s="74">
         <v>0.04</v>
       </c>
-      <c r="AA74" s="50">
+      <c r="AA74" s="74">
         <v>0.03</v>
       </c>
-      <c r="AB74" s="50">
+      <c r="AB74" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC74" s="33">
-        <v>5.7426748582230625E-2</v>
-      </c>
-      <c r="AD74" s="50" t="s">
+      <c r="AC74" s="88">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD74" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE74" s="51">
-        <v>0.06</v>
-      </c>
-      <c r="AF74" s="24">
-        <v>7.1739130434782611E-2</v>
-      </c>
-      <c r="AG74" s="42" t="s">
+      <c r="AE74" s="88">
+        <v>3.5157231635036965E-2</v>
+      </c>
+      <c r="AF74" s="90">
+        <v>1.7733112250080365E-2</v>
+      </c>
+      <c r="AG74" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="AH74" s="43" t="s">
+      <c r="AH74" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="AI74" s="43" t="s">
+      <c r="AI74" s="67" t="s">
         <v>342</v>
       </c>
-      <c r="AJ74" s="42">
+      <c r="AJ74" s="66">
         <v>30</v>
       </c>
-      <c r="AK74" s="42" t="s">
+      <c r="AK74" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="AL74" s="42">
+      <c r="AL74" s="66">
         <v>5</v>
       </c>
-      <c r="AM74" s="42">
+      <c r="AM74" s="66">
         <v>200</v>
       </c>
-      <c r="AN74" s="43" t="s">
+      <c r="AN74" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AO74" s="42">
+      <c r="AO74" s="66">
         <v>1</v>
       </c>
-      <c r="AP74" s="43" t="s">
+      <c r="AP74" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AQ74" s="46">
+      <c r="AQ74" s="70">
         <v>0.75</v>
       </c>
-      <c r="AR74" s="49">
+      <c r="AR74" s="73">
         <v>168732127</v>
       </c>
-      <c r="AS74" s="43" t="s">
+      <c r="AS74" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="AT74" s="45">
+      <c r="AT74" s="69">
         <v>0.25</v>
       </c>
-      <c r="AU74" s="45">
+      <c r="AU74" s="69">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV74" s="45">
+      <c r="AV74" s="69">
         <v>0.05</v>
       </c>
-      <c r="AW74" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX74" s="47" t="b">
+      <c r="AW74" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX74" s="71" t="b">
         <v>1</v>
       </c>
-      <c r="AY74" s="47" t="b">
+      <c r="AY74" s="71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="B75" s="48" t="s">
-        <v>362</v>
+    <row r="75" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="66" t="s">
+        <v>445</v>
+      </c>
+      <c r="B75" s="72" t="s">
+        <v>452</v>
       </c>
       <c r="C75" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="D75" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75" s="42" t="s">
+      <c r="D75" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="F75" s="42" t="s">
+      <c r="F75" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="G75" s="42">
+      <c r="G75" s="66">
         <v>1000</v>
       </c>
-      <c r="H75" s="42">
+      <c r="H75" s="66">
         <v>500</v>
       </c>
-      <c r="I75" s="42" t="s">
+      <c r="I75" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="J75" s="42" t="s">
+      <c r="J75" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="K75" s="42" t="s">
+      <c r="K75" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="L75" s="42" t="s">
+      <c r="L75" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="M75" s="42" t="s">
+      <c r="M75" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="N75" s="42" t="s">
+      <c r="N75" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="O75" s="50">
-        <v>0</v>
-      </c>
-      <c r="P75" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="50">
+      <c r="O75" s="74">
+        <v>0</v>
+      </c>
+      <c r="P75" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="74">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R75" s="42">
+      <c r="R75" s="66">
         <v>3</v>
       </c>
-      <c r="S75" s="42">
+      <c r="S75" s="66">
         <v>75</v>
       </c>
-      <c r="T75" s="42">
+      <c r="T75" s="66">
         <v>50</v>
       </c>
-      <c r="U75" s="42">
+      <c r="U75" s="66">
         <v>60</v>
       </c>
-      <c r="V75" s="50">
+      <c r="V75" s="74">
         <v>0.02</v>
       </c>
-      <c r="W75" s="42">
-        <v>0</v>
-      </c>
-      <c r="X75" s="42">
+      <c r="W75" s="66">
+        <v>0</v>
+      </c>
+      <c r="X75" s="66">
         <v>10</v>
       </c>
-      <c r="Y75" s="50">
+      <c r="Y75" s="74">
         <v>0.04</v>
       </c>
-      <c r="Z75" s="50">
+      <c r="Z75" s="74">
         <v>0.04</v>
       </c>
-      <c r="AA75" s="50">
+      <c r="AA75" s="74">
         <v>0.03</v>
       </c>
-      <c r="AB75" s="50">
+      <c r="AB75" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC75" s="33">
+      <c r="AC75" s="88">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD75" s="50" t="s">
+      <c r="AD75" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE75" s="51">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF75" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="AG75" s="42" t="s">
+      <c r="AE75" s="89">
+        <v>3.0157231635036967E-2</v>
+      </c>
+      <c r="AF75" s="91">
+        <v>1.7733112250080365E-2</v>
+      </c>
+      <c r="AG75" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="AH75" s="43" t="s">
+      <c r="AH75" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="AI75" s="43" t="s">
+      <c r="AI75" s="67" t="s">
         <v>342</v>
       </c>
-      <c r="AJ75" s="42">
+      <c r="AJ75" s="66">
         <v>30</v>
       </c>
-      <c r="AK75" s="42" t="s">
+      <c r="AK75" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="AL75" s="42">
+      <c r="AL75" s="66">
         <v>5</v>
       </c>
-      <c r="AM75" s="42">
+      <c r="AM75" s="66">
         <v>200</v>
       </c>
-      <c r="AN75" s="43" t="s">
+      <c r="AN75" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AO75" s="42">
+      <c r="AO75" s="66">
         <v>1</v>
       </c>
-      <c r="AP75" s="43" t="s">
+      <c r="AP75" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AQ75" s="46">
+      <c r="AQ75" s="70">
         <v>0.75</v>
       </c>
-      <c r="AR75" s="49">
+      <c r="AR75" s="73">
         <v>168732127</v>
       </c>
-      <c r="AS75" s="43" t="s">
+      <c r="AS75" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="AT75" s="45">
+      <c r="AT75" s="69">
         <v>0.25</v>
       </c>
-      <c r="AU75" s="45">
+      <c r="AU75" s="69">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV75" s="45">
+      <c r="AV75" s="69">
         <v>0.05</v>
       </c>
-      <c r="AW75" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX75" s="47" t="b">
+      <c r="AW75" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX75" s="71" t="b">
         <v>1</v>
       </c>
-      <c r="AY75" s="47" t="b">
+      <c r="AY75" s="71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="B76" s="48" t="s">
-        <v>366</v>
+    <row r="76" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="66" t="s">
+        <v>446</v>
+      </c>
+      <c r="B76" s="72" t="s">
+        <v>453</v>
       </c>
       <c r="C76" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="D76" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E76" s="42" t="s">
+      <c r="D76" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="F76" s="42" t="s">
+      <c r="F76" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="G76" s="42">
+      <c r="G76" s="66">
         <v>1000</v>
       </c>
-      <c r="H76" s="42">
+      <c r="H76" s="66">
         <v>500</v>
       </c>
-      <c r="I76" s="42" t="s">
+      <c r="I76" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="J76" s="42" t="s">
+      <c r="J76" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="K76" s="42" t="s">
+      <c r="K76" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="L76" s="42" t="s">
+      <c r="L76" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="M76" s="42" t="s">
+      <c r="M76" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="N76" s="42" t="s">
+      <c r="N76" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="O76" s="50">
-        <v>0</v>
-      </c>
-      <c r="P76" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="50">
+      <c r="O76" s="74">
+        <v>0</v>
+      </c>
+      <c r="P76" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="74">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R76" s="42">
+      <c r="R76" s="66">
         <v>3</v>
       </c>
-      <c r="S76" s="42">
+      <c r="S76" s="66">
         <v>75</v>
       </c>
-      <c r="T76" s="42">
+      <c r="T76" s="66">
         <v>50</v>
       </c>
-      <c r="U76" s="42">
+      <c r="U76" s="66">
         <v>60</v>
       </c>
-      <c r="V76" s="50">
+      <c r="V76" s="74">
         <v>0.02</v>
       </c>
-      <c r="W76" s="42">
-        <v>0</v>
-      </c>
-      <c r="X76" s="42">
+      <c r="W76" s="66">
+        <v>0</v>
+      </c>
+      <c r="X76" s="66">
         <v>10</v>
       </c>
-      <c r="Y76" s="50">
+      <c r="Y76" s="74">
         <v>0.04</v>
       </c>
-      <c r="Z76" s="50">
+      <c r="Z76" s="74">
         <v>0.04</v>
       </c>
-      <c r="AA76" s="50">
+      <c r="AA76" s="74">
         <v>0.03</v>
       </c>
-      <c r="AB76" s="50">
+      <c r="AB76" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC76" s="33">
-        <v>8.0621455576559545E-2</v>
-      </c>
-      <c r="AD76" s="50" t="s">
+      <c r="AC76" s="88">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD76" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE76" s="51">
-        <v>0.09</v>
-      </c>
-      <c r="AF76" s="24">
-        <v>0.13695652173913042</v>
-      </c>
-      <c r="AG76" s="42" t="s">
+      <c r="AE76" s="89">
+        <v>2.515723163503697E-2</v>
+      </c>
+      <c r="AF76" s="91">
+        <v>1.7733112250080365E-2</v>
+      </c>
+      <c r="AG76" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="AH76" s="43" t="s">
+      <c r="AH76" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="AI76" s="43" t="s">
+      <c r="AI76" s="67" t="s">
         <v>342</v>
       </c>
-      <c r="AJ76" s="42">
+      <c r="AJ76" s="66">
         <v>30</v>
       </c>
-      <c r="AK76" s="42" t="s">
+      <c r="AK76" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="AL76" s="42">
+      <c r="AL76" s="66">
         <v>5</v>
       </c>
-      <c r="AM76" s="42">
+      <c r="AM76" s="66">
         <v>200</v>
       </c>
-      <c r="AN76" s="43" t="s">
+      <c r="AN76" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AO76" s="42">
+      <c r="AO76" s="66">
         <v>1</v>
       </c>
-      <c r="AP76" s="43" t="s">
+      <c r="AP76" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AQ76" s="46">
+      <c r="AQ76" s="70">
         <v>0.75</v>
       </c>
-      <c r="AR76" s="49">
+      <c r="AR76" s="73">
         <v>168732127</v>
       </c>
-      <c r="AS76" s="43" t="s">
+      <c r="AS76" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="AT76" s="45">
+      <c r="AT76" s="69">
         <v>0.25</v>
       </c>
-      <c r="AU76" s="45">
+      <c r="AU76" s="69">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV76" s="45">
+      <c r="AV76" s="69">
         <v>0.05</v>
       </c>
-      <c r="AW76" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX76" s="47" t="b">
+      <c r="AW76" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX76" s="71" t="b">
         <v>1</v>
       </c>
-      <c r="AY76" s="47" t="b">
+      <c r="AY76" s="71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="B77" s="48" t="s">
-        <v>398</v>
-      </c>
-      <c r="C77" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D77" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="F77" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G77" s="42">
-        <v>1000</v>
-      </c>
-      <c r="H77" s="42">
-        <v>500</v>
-      </c>
-      <c r="I77" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J77" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="K77" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="L77" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="M77" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="N77" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="O77" s="50">
-        <v>0</v>
-      </c>
-      <c r="P77" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="50">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R77" s="42">
-        <v>3</v>
-      </c>
-      <c r="S77" s="42">
-        <v>75</v>
-      </c>
-      <c r="T77" s="42">
-        <v>50</v>
-      </c>
-      <c r="U77" s="42">
-        <v>60</v>
-      </c>
-      <c r="V77" s="50">
-        <v>0.02</v>
-      </c>
-      <c r="W77" s="42">
-        <v>0</v>
-      </c>
-      <c r="X77" s="42">
-        <v>10</v>
-      </c>
-      <c r="Y77" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="Z77" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="AA77" s="50">
-        <v>0.03</v>
-      </c>
-      <c r="AB77" s="50">
-        <v>0.01</v>
-      </c>
-      <c r="AC77" s="33">
-        <v>9.0623818525519845E-2</v>
-      </c>
-      <c r="AD77" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE77" s="51">
-        <v>0.105</v>
-      </c>
-      <c r="AF77" s="24">
-        <v>0.16956521739130434</v>
-      </c>
-      <c r="AG77" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH77" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI77" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ77" s="42">
-        <v>30</v>
-      </c>
-      <c r="AK77" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL77" s="42">
-        <v>5</v>
-      </c>
-      <c r="AM77" s="42">
-        <v>200</v>
-      </c>
-      <c r="AN77" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO77" s="42">
-        <v>1</v>
-      </c>
-      <c r="AP77" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ77" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="AR77" s="49">
-        <v>168732127</v>
-      </c>
-      <c r="AS77" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT77" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="AU77" s="45">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV77" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="AW77" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX77" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY77" s="47" t="b">
-        <v>0</v>
-      </c>
+    <row r="77" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="72"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="O77" s="74"/>
+      <c r="P77" s="71"/>
+      <c r="Q77" s="74"/>
+      <c r="V77" s="74"/>
+      <c r="Y77" s="74"/>
+      <c r="Z77" s="74"/>
+      <c r="AA77" s="74"/>
+      <c r="AB77" s="74"/>
+      <c r="AC77" s="75"/>
+      <c r="AD77" s="74"/>
+      <c r="AE77" s="77"/>
+      <c r="AF77" s="74"/>
+      <c r="AH77" s="67"/>
+      <c r="AI77" s="67"/>
+      <c r="AN77" s="67"/>
+      <c r="AP77" s="67"/>
+      <c r="AQ77" s="70"/>
+      <c r="AR77" s="73"/>
+      <c r="AS77" s="67"/>
+      <c r="AT77" s="69"/>
+      <c r="AU77" s="69"/>
+      <c r="AV77" s="69"/>
+      <c r="AW77" s="71"/>
+      <c r="AX77" s="71"/>
+      <c r="AY77" s="71"/>
     </row>
     <row r="78" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="48"/>
-      <c r="C78" s="68"/>
-      <c r="D78" s="44"/>
-      <c r="O78" s="50"/>
-      <c r="P78" s="47"/>
-      <c r="Q78" s="50"/>
-      <c r="V78" s="50"/>
-      <c r="Y78" s="50"/>
-      <c r="Z78" s="50"/>
-      <c r="AA78" s="50"/>
-      <c r="AB78" s="50"/>
-      <c r="AC78" s="33"/>
-      <c r="AD78" s="50"/>
-      <c r="AE78" s="51"/>
-      <c r="AF78" s="24"/>
-      <c r="AH78" s="43"/>
-      <c r="AI78" s="43"/>
-      <c r="AN78" s="43"/>
-      <c r="AP78" s="43"/>
-      <c r="AQ78" s="46"/>
-      <c r="AR78" s="49"/>
-      <c r="AS78" s="43"/>
-      <c r="AT78" s="45"/>
-      <c r="AU78" s="45"/>
-      <c r="AV78" s="45"/>
-      <c r="AW78" s="47"/>
-      <c r="AX78" s="47"/>
-      <c r="AY78" s="47"/>
+      <c r="A78" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B78" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="C78" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F78" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G78" s="42">
+        <v>1000</v>
+      </c>
+      <c r="H78" s="42">
+        <v>500</v>
+      </c>
+      <c r="I78" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J78" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K78" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="L78" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="M78" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="N78" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="O78" s="50">
+        <v>0</v>
+      </c>
+      <c r="P78" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="50">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R78" s="42">
+        <v>3</v>
+      </c>
+      <c r="S78" s="42">
+        <v>75</v>
+      </c>
+      <c r="T78" s="42">
+        <v>50</v>
+      </c>
+      <c r="U78" s="42">
+        <v>60</v>
+      </c>
+      <c r="V78" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="W78" s="42">
+        <v>0</v>
+      </c>
+      <c r="X78" s="42">
+        <v>10</v>
+      </c>
+      <c r="Y78" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="Z78" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="AA78" s="50">
+        <v>0.03</v>
+      </c>
+      <c r="AB78" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="AC78" s="33">
+        <v>4.4234404536862004E-2</v>
+      </c>
+      <c r="AD78" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE78" s="51">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AF78" s="24">
+        <v>3.9130434782608692E-2</v>
+      </c>
+      <c r="AG78" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH78" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI78" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ78" s="42">
+        <v>30</v>
+      </c>
+      <c r="AK78" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL78" s="42">
+        <v>5</v>
+      </c>
+      <c r="AM78" s="42">
+        <v>200</v>
+      </c>
+      <c r="AN78" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO78" s="42">
+        <v>1</v>
+      </c>
+      <c r="AP78" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ78" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="AR78" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS78" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT78" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="AU78" s="45">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV78" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="AW78" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX78" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY78" s="47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="42" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B79" s="48" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C79" s="68" t="b">
         <v>0</v>
@@ -14111,16 +13872,16 @@
         <v>0.01</v>
       </c>
       <c r="AC79" s="33">
-        <v>7.4999999999999997E-2</v>
+        <v>5.7426748582230625E-2</v>
       </c>
       <c r="AD79" s="50" t="s">
         <v>156</v>
       </c>
       <c r="AE79" s="51">
-        <v>4.4999999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AF79" s="24">
-        <v>3.9130434782608692E-2</v>
+        <v>7.1739130434782611E-2</v>
       </c>
       <c r="AG79" s="42" t="s">
         <v>112</v>
@@ -14182,10 +13943,10 @@
     </row>
     <row r="80" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="42" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B80" s="48" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="C80" s="68" t="b">
         <v>0</v>
@@ -14272,10 +14033,10 @@
         <v>156</v>
       </c>
       <c r="AE80" s="51">
-        <v>0.06</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF80" s="24">
-        <v>7.1739130434782611E-2</v>
+        <v>0.12</v>
       </c>
       <c r="AG80" s="42" t="s">
         <v>112</v>
@@ -14337,10 +14098,10 @@
     </row>
     <row r="81" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="42" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B81" s="48" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C81" s="68" t="b">
         <v>0</v>
@@ -14421,16 +14182,16 @@
         <v>0.01</v>
       </c>
       <c r="AC81" s="33">
-        <v>7.4999999999999997E-2</v>
+        <v>8.0621455576559545E-2</v>
       </c>
       <c r="AD81" s="50" t="s">
         <v>156</v>
       </c>
       <c r="AE81" s="51">
-        <v>8.2199999999999995E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AF81" s="24">
-        <v>0.12</v>
+        <v>0.13695652173913042</v>
       </c>
       <c r="AG81" s="42" t="s">
         <v>112</v>
@@ -14492,10 +14253,10 @@
     </row>
     <row r="82" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="42" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B82" s="48" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="C82" s="68" t="b">
         <v>0</v>
@@ -14576,16 +14337,16 @@
         <v>0.01</v>
       </c>
       <c r="AC82" s="33">
-        <v>7.4999999999999997E-2</v>
+        <v>9.0623818525519845E-2</v>
       </c>
       <c r="AD82" s="50" t="s">
         <v>156</v>
       </c>
       <c r="AE82" s="51">
-        <v>0.09</v>
+        <v>0.105</v>
       </c>
       <c r="AF82" s="24">
-        <v>0.13695652173913042</v>
+        <v>0.16956521739130434</v>
       </c>
       <c r="AG82" s="42" t="s">
         <v>112</v>
@@ -14646,654 +14407,1304 @@
       </c>
     </row>
     <row r="83" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="B83" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="C83" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D83" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E83" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="F83" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G83" s="42">
-        <v>1000</v>
-      </c>
-      <c r="H83" s="42">
-        <v>500</v>
-      </c>
-      <c r="I83" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J83" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="K83" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="L83" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="M83" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="N83" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="O83" s="50">
-        <v>0</v>
-      </c>
-      <c r="P83" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="50">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R83" s="42">
-        <v>3</v>
-      </c>
-      <c r="S83" s="42">
-        <v>75</v>
-      </c>
-      <c r="T83" s="42">
-        <v>50</v>
-      </c>
-      <c r="U83" s="42">
-        <v>60</v>
-      </c>
-      <c r="V83" s="50">
-        <v>0.02</v>
-      </c>
-      <c r="W83" s="42">
-        <v>0</v>
-      </c>
-      <c r="X83" s="42">
-        <v>10</v>
-      </c>
-      <c r="Y83" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="Z83" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="AA83" s="50">
-        <v>0.03</v>
-      </c>
-      <c r="AB83" s="50">
-        <v>0.01</v>
-      </c>
-      <c r="AC83" s="33">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD83" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE83" s="51">
-        <v>0.105</v>
-      </c>
-      <c r="AF83" s="24">
-        <v>0.16956521739130434</v>
-      </c>
-      <c r="AG83" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH83" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI83" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ83" s="42">
-        <v>30</v>
-      </c>
-      <c r="AK83" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL83" s="42">
-        <v>5</v>
-      </c>
-      <c r="AM83" s="42">
-        <v>200</v>
-      </c>
-      <c r="AN83" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO83" s="42">
-        <v>1</v>
-      </c>
-      <c r="AP83" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ83" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="AR83" s="49">
-        <v>168732127</v>
-      </c>
-      <c r="AS83" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT83" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="AU83" s="45">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV83" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="AW83" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX83" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY83" s="47" t="b">
-        <v>0</v>
-      </c>
+      <c r="B83" s="48"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="44"/>
+      <c r="O83" s="50"/>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="50"/>
+      <c r="V83" s="50"/>
+      <c r="Y83" s="50"/>
+      <c r="Z83" s="50"/>
+      <c r="AA83" s="50"/>
+      <c r="AB83" s="50"/>
+      <c r="AC83" s="33"/>
+      <c r="AD83" s="50"/>
+      <c r="AE83" s="51"/>
+      <c r="AF83" s="24"/>
+      <c r="AH83" s="43"/>
+      <c r="AI83" s="43"/>
+      <c r="AN83" s="43"/>
+      <c r="AP83" s="43"/>
+      <c r="AQ83" s="46"/>
+      <c r="AR83" s="49"/>
+      <c r="AS83" s="43"/>
+      <c r="AT83" s="45"/>
+      <c r="AU83" s="45"/>
+      <c r="AV83" s="45"/>
+      <c r="AW83" s="47"/>
+      <c r="AX83" s="47"/>
+      <c r="AY83" s="47"/>
     </row>
     <row r="84" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="48"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="O84" s="50"/>
-      <c r="P84" s="47"/>
-      <c r="Q84" s="50"/>
-      <c r="V84" s="50"/>
-      <c r="Y84" s="50"/>
-      <c r="Z84" s="50"/>
-      <c r="AA84" s="50"/>
-      <c r="AB84" s="50"/>
-      <c r="AC84" s="33"/>
-      <c r="AD84" s="50"/>
-      <c r="AE84" s="51"/>
-      <c r="AF84" s="24"/>
-      <c r="AH84" s="43"/>
-      <c r="AI84" s="43"/>
-      <c r="AN84" s="43"/>
-      <c r="AP84" s="43"/>
-      <c r="AQ84" s="46"/>
-      <c r="AR84" s="49"/>
-      <c r="AS84" s="43"/>
-      <c r="AT84" s="45"/>
-      <c r="AU84" s="45"/>
-      <c r="AV84" s="45"/>
-      <c r="AW84" s="47"/>
-      <c r="AX84" s="47"/>
-      <c r="AY84" s="47"/>
+      <c r="A84" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="B84" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="C84" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F84" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G84" s="42">
+        <v>1000</v>
+      </c>
+      <c r="H84" s="42">
+        <v>500</v>
+      </c>
+      <c r="I84" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J84" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K84" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="L84" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="M84" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="N84" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="O84" s="50">
+        <v>0</v>
+      </c>
+      <c r="P84" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="50">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R84" s="42">
+        <v>3</v>
+      </c>
+      <c r="S84" s="42">
+        <v>75</v>
+      </c>
+      <c r="T84" s="42">
+        <v>50</v>
+      </c>
+      <c r="U84" s="42">
+        <v>60</v>
+      </c>
+      <c r="V84" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="W84" s="42">
+        <v>0</v>
+      </c>
+      <c r="X84" s="42">
+        <v>10</v>
+      </c>
+      <c r="Y84" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="Z84" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="AA84" s="50">
+        <v>0.03</v>
+      </c>
+      <c r="AB84" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="AC84" s="33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD84" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE84" s="51">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AF84" s="24">
+        <v>3.9130434782608692E-2</v>
+      </c>
+      <c r="AG84" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH84" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI84" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ84" s="42">
+        <v>30</v>
+      </c>
+      <c r="AK84" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL84" s="42">
+        <v>5</v>
+      </c>
+      <c r="AM84" s="42">
+        <v>200</v>
+      </c>
+      <c r="AN84" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO84" s="42">
+        <v>1</v>
+      </c>
+      <c r="AP84" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ84" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="AR84" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS84" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT84" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="AU84" s="45">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV84" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="AW84" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX84" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY84" s="47" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B85" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="C85" s="11"/>
-      <c r="D85" s="44"/>
-      <c r="O85" s="26"/>
-      <c r="P85" s="18"/>
-      <c r="Q85" s="26"/>
-      <c r="V85" s="26"/>
-      <c r="Y85" s="26"/>
-      <c r="Z85" s="26"/>
-      <c r="AA85" s="26"/>
-      <c r="AB85" s="26"/>
-      <c r="AC85" s="26"/>
-      <c r="AD85" s="26"/>
-      <c r="AE85" s="41"/>
-      <c r="AF85" s="26"/>
-      <c r="AH85" s="2"/>
-      <c r="AI85" s="2"/>
-      <c r="AN85" s="2"/>
-      <c r="AP85" s="2"/>
-      <c r="AQ85" s="17"/>
-      <c r="AS85" s="2"/>
-      <c r="AT85" s="12"/>
-      <c r="AU85" s="12"/>
-      <c r="AV85" s="12"/>
-      <c r="AW85" s="18"/>
-      <c r="AX85" s="18"/>
-      <c r="AY85" s="18"/>
+    <row r="85" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="B85" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="C85" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D85" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F85" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G85" s="42">
+        <v>1000</v>
+      </c>
+      <c r="H85" s="42">
+        <v>500</v>
+      </c>
+      <c r="I85" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J85" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K85" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="L85" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="M85" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="N85" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="O85" s="50">
+        <v>0</v>
+      </c>
+      <c r="P85" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="50">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R85" s="42">
+        <v>3</v>
+      </c>
+      <c r="S85" s="42">
+        <v>75</v>
+      </c>
+      <c r="T85" s="42">
+        <v>50</v>
+      </c>
+      <c r="U85" s="42">
+        <v>60</v>
+      </c>
+      <c r="V85" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="W85" s="42">
+        <v>0</v>
+      </c>
+      <c r="X85" s="42">
+        <v>10</v>
+      </c>
+      <c r="Y85" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="Z85" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="AA85" s="50">
+        <v>0.03</v>
+      </c>
+      <c r="AB85" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="AC85" s="33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD85" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE85" s="51">
+        <v>0.06</v>
+      </c>
+      <c r="AF85" s="24">
+        <v>7.1739130434782611E-2</v>
+      </c>
+      <c r="AG85" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH85" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI85" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ85" s="42">
+        <v>30</v>
+      </c>
+      <c r="AK85" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL85" s="42">
+        <v>5</v>
+      </c>
+      <c r="AM85" s="42">
+        <v>200</v>
+      </c>
+      <c r="AN85" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO85" s="42">
+        <v>1</v>
+      </c>
+      <c r="AP85" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ85" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="AR85" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS85" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT85" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="AU85" s="45">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV85" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="AW85" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX85" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY85" s="47" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A86" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="C86" s="11" t="b">
+    <row r="86" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="B86" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="C86" s="68" t="b">
         <v>0</v>
       </c>
       <c r="D86" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="42">
         <v>1000</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="42">
         <v>500</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K86" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="L86" t="s">
+      <c r="L86" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="N86" t="s">
+      <c r="N86" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="O86" s="26">
-        <v>0</v>
-      </c>
-      <c r="P86" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="26">
+      <c r="O86" s="50">
+        <v>0</v>
+      </c>
+      <c r="P86" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="50">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R86">
+      <c r="R86" s="42">
         <v>3</v>
       </c>
-      <c r="S86">
+      <c r="S86" s="42">
         <v>75</v>
       </c>
-      <c r="T86">
+      <c r="T86" s="42">
         <v>50</v>
       </c>
-      <c r="U86">
+      <c r="U86" s="42">
         <v>60</v>
       </c>
-      <c r="V86" s="26">
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-      <c r="X86">
+      <c r="V86" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="W86" s="42">
+        <v>0</v>
+      </c>
+      <c r="X86" s="42">
         <v>10</v>
       </c>
-      <c r="Y86" s="26">
+      <c r="Y86" s="50">
         <v>0.04</v>
       </c>
-      <c r="Z86" s="26">
+      <c r="Z86" s="50">
         <v>0.04</v>
       </c>
-      <c r="AA86" s="26">
+      <c r="AA86" s="50">
         <v>0.03</v>
       </c>
-      <c r="AB86" s="26">
+      <c r="AB86" s="50">
         <v>0.01</v>
       </c>
-      <c r="AC86" s="26">
+      <c r="AC86" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD86" s="26" t="s">
+      <c r="AD86" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="AE86" s="41">
+      <c r="AE86" s="51">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF86" s="26">
+      <c r="AF86" s="24">
         <v>0.12</v>
       </c>
-      <c r="AG86" t="s">
+      <c r="AG86" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="AH86" s="2" t="s">
+      <c r="AH86" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="AI86" s="2" t="s">
+      <c r="AI86" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="AJ86">
+      <c r="AJ86" s="42">
         <v>30</v>
       </c>
-      <c r="AK86" t="s">
+      <c r="AK86" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="AL86">
+      <c r="AL86" s="42">
         <v>5</v>
       </c>
-      <c r="AM86">
+      <c r="AM86" s="42">
         <v>200</v>
       </c>
-      <c r="AN86" s="2" t="s">
+      <c r="AN86" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="AO86">
+      <c r="AO86" s="42">
         <v>1</v>
       </c>
-      <c r="AP86" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ86" s="17">
+      <c r="AP86" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ86" s="46">
         <v>0.75</v>
       </c>
-      <c r="AR86">
+      <c r="AR86" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS86" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT86" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="AU86" s="45">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV86" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="AW86" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX86" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY86" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="B87" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="C87" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D87" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F87" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G87" s="42">
+        <v>1000</v>
+      </c>
+      <c r="H87" s="42">
+        <v>500</v>
+      </c>
+      <c r="I87" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J87" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K87" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="L87" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="M87" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="N87" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="O87" s="50">
+        <v>0</v>
+      </c>
+      <c r="P87" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="50">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R87" s="42">
+        <v>3</v>
+      </c>
+      <c r="S87" s="42">
+        <v>75</v>
+      </c>
+      <c r="T87" s="42">
+        <v>50</v>
+      </c>
+      <c r="U87" s="42">
+        <v>60</v>
+      </c>
+      <c r="V87" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="W87" s="42">
+        <v>0</v>
+      </c>
+      <c r="X87" s="42">
+        <v>10</v>
+      </c>
+      <c r="Y87" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="Z87" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="AA87" s="50">
+        <v>0.03</v>
+      </c>
+      <c r="AB87" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="AC87" s="33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD87" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE87" s="51">
+        <v>0.09</v>
+      </c>
+      <c r="AF87" s="24">
+        <v>0.13695652173913042</v>
+      </c>
+      <c r="AG87" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH87" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI87" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ87" s="42">
+        <v>30</v>
+      </c>
+      <c r="AK87" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL87" s="42">
+        <v>5</v>
+      </c>
+      <c r="AM87" s="42">
         <v>200</v>
       </c>
-      <c r="AS86" s="2" t="s">
+      <c r="AN87" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO87" s="42">
+        <v>1</v>
+      </c>
+      <c r="AP87" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ87" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="AR87" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS87" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="AT86" s="12">
+      <c r="AT87" s="45">
         <v>0.25</v>
       </c>
-      <c r="AU86" s="12">
+      <c r="AU87" s="45">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV86" s="12">
+      <c r="AV87" s="45">
         <v>0.05</v>
       </c>
-      <c r="AW86" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX86" s="18" t="b">
+      <c r="AW87" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX87" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="AY86" s="18" t="b">
+      <c r="AY87" s="47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A87" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="C87" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="D87" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E87" t="s">
+    <row r="88" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="B88" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="C88" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F88" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="G87">
+      <c r="G88" s="42">
         <v>1000</v>
       </c>
-      <c r="H87">
+      <c r="H88" s="42">
         <v>500</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I88" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J88" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K88" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="L87" t="s">
+      <c r="L88" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M88" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="N87" t="s">
+      <c r="N88" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="O87" s="26">
-        <v>0</v>
-      </c>
-      <c r="P87" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="26">
+      <c r="O88" s="50">
+        <v>0</v>
+      </c>
+      <c r="P88" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="50">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R87">
+      <c r="R88" s="42">
         <v>3</v>
       </c>
-      <c r="S87">
+      <c r="S88" s="42">
         <v>75</v>
       </c>
-      <c r="T87">
+      <c r="T88" s="42">
         <v>50</v>
       </c>
-      <c r="U87">
+      <c r="U88" s="42">
         <v>60</v>
       </c>
-      <c r="V87" s="26">
+      <c r="V88" s="50">
         <v>0.02</v>
       </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
-      <c r="X87">
+      <c r="W88" s="42">
+        <v>0</v>
+      </c>
+      <c r="X88" s="42">
         <v>10</v>
       </c>
-      <c r="Y87" s="26">
+      <c r="Y88" s="50">
         <v>0.04</v>
       </c>
-      <c r="Z87" s="26">
+      <c r="Z88" s="50">
         <v>0.04</v>
       </c>
-      <c r="AA87" s="26">
+      <c r="AA88" s="50">
         <v>0.03</v>
       </c>
-      <c r="AB87" s="26">
+      <c r="AB88" s="50">
         <v>0.01</v>
       </c>
-      <c r="AC87" s="26">
+      <c r="AC88" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD87" s="26" t="s">
+      <c r="AD88" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="AE87" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF87" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG87" t="s">
+      <c r="AE88" s="51">
+        <v>0.105</v>
+      </c>
+      <c r="AF88" s="24">
+        <v>0.16956521739130434</v>
+      </c>
+      <c r="AG88" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="AH87" s="2" t="s">
+      <c r="AH88" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="AI87" s="2" t="s">
+      <c r="AI88" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="AJ87">
+      <c r="AJ88" s="42">
         <v>30</v>
       </c>
-      <c r="AK87" t="s">
+      <c r="AK88" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="AL87">
+      <c r="AL88" s="42">
         <v>5</v>
       </c>
-      <c r="AM87">
+      <c r="AM88" s="42">
         <v>200</v>
       </c>
-      <c r="AN87" s="2" t="s">
+      <c r="AN88" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="AO87">
+      <c r="AO88" s="42">
         <v>1</v>
       </c>
-      <c r="AP87" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ87" s="17">
+      <c r="AP88" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ88" s="46">
         <v>0.75</v>
       </c>
-      <c r="AR87">
-        <v>200</v>
-      </c>
-      <c r="AS87" s="2" t="s">
+      <c r="AR88" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS88" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="AT87" s="12">
+      <c r="AT88" s="45">
         <v>0.25</v>
       </c>
-      <c r="AU87" s="12">
+      <c r="AU88" s="45">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV87" s="12">
+      <c r="AV88" s="45">
         <v>0.05</v>
       </c>
-      <c r="AW87" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX87" s="18" t="b">
+      <c r="AW88" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX88" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="AY87" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="AY88" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="48"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="O89" s="50"/>
+      <c r="P89" s="47"/>
+      <c r="Q89" s="50"/>
+      <c r="V89" s="50"/>
+      <c r="Y89" s="50"/>
+      <c r="Z89" s="50"/>
+      <c r="AA89" s="50"/>
+      <c r="AB89" s="50"/>
+      <c r="AC89" s="33"/>
+      <c r="AD89" s="50"/>
+      <c r="AE89" s="51"/>
+      <c r="AF89" s="24"/>
+      <c r="AH89" s="43"/>
+      <c r="AI89" s="43"/>
+      <c r="AN89" s="43"/>
+      <c r="AP89" s="43"/>
+      <c r="AQ89" s="46"/>
+      <c r="AR89" s="49"/>
+      <c r="AS89" s="43"/>
+      <c r="AT89" s="45"/>
+      <c r="AU89" s="45"/>
+      <c r="AV89" s="45"/>
+      <c r="AW89" s="47"/>
+      <c r="AX89" s="47"/>
+      <c r="AY89" s="47"/>
     </row>
     <row r="90" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AC90" s="52"/>
+      <c r="B90" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="44"/>
+      <c r="O90" s="26"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="26"/>
+      <c r="V90" s="26"/>
+      <c r="Y90" s="26"/>
+      <c r="Z90" s="26"/>
+      <c r="AA90" s="26"/>
+      <c r="AB90" s="26"/>
+      <c r="AC90" s="26"/>
+      <c r="AD90" s="26"/>
+      <c r="AE90" s="41"/>
+      <c r="AF90" s="26"/>
+      <c r="AH90" s="2"/>
+      <c r="AI90" s="2"/>
+      <c r="AN90" s="2"/>
+      <c r="AP90" s="2"/>
+      <c r="AQ90" s="17"/>
+      <c r="AS90" s="2"/>
+      <c r="AT90" s="12"/>
+      <c r="AU90" s="12"/>
+      <c r="AV90" s="12"/>
+      <c r="AW90" s="18"/>
+      <c r="AX90" s="18"/>
+      <c r="AY90" s="18"/>
     </row>
     <row r="91" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AC91" s="52"/>
-      <c r="AD91" s="54"/>
-      <c r="AE91" s="51"/>
-      <c r="AF91" s="24"/>
+      <c r="A91" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C91" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D91" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>207</v>
+      </c>
+      <c r="F91" t="s">
+        <v>184</v>
+      </c>
+      <c r="G91">
+        <v>1000</v>
+      </c>
+      <c r="H91">
+        <v>500</v>
+      </c>
+      <c r="I91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J91" t="s">
+        <v>109</v>
+      </c>
+      <c r="K91" t="s">
+        <v>204</v>
+      </c>
+      <c r="L91" t="s">
+        <v>167</v>
+      </c>
+      <c r="M91" t="s">
+        <v>211</v>
+      </c>
+      <c r="N91" t="s">
+        <v>198</v>
+      </c>
+      <c r="O91" s="26">
+        <v>0</v>
+      </c>
+      <c r="P91" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R91">
+        <v>3</v>
+      </c>
+      <c r="S91">
+        <v>75</v>
+      </c>
+      <c r="T91">
+        <v>50</v>
+      </c>
+      <c r="U91">
+        <v>60</v>
+      </c>
+      <c r="V91" s="26">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>10</v>
+      </c>
+      <c r="Y91" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z91" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA91" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB91" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC91" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD91" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE91" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF91" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH91" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI91" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ91">
+        <v>30</v>
+      </c>
+      <c r="AK91" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL91">
+        <v>5</v>
+      </c>
+      <c r="AM91">
+        <v>200</v>
+      </c>
+      <c r="AN91" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO91">
+        <v>1</v>
+      </c>
+      <c r="AP91" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ91" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR91">
+        <v>200</v>
+      </c>
+      <c r="AS91" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT91" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU91" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV91" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW91" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX91" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY91" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AC92" s="52"/>
-      <c r="AD92" s="54"/>
-      <c r="AE92" s="51"/>
-      <c r="AF92" s="24"/>
-    </row>
-    <row r="93" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AC93" s="52"/>
-      <c r="AD93" s="54"/>
-      <c r="AE93" s="51"/>
-      <c r="AF93" s="24"/>
-    </row>
-    <row r="94" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AC94" s="52"/>
-      <c r="AD94" s="54"/>
-      <c r="AE94" s="51"/>
-      <c r="AF94" s="24"/>
+      <c r="A92" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C92" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" t="s">
+        <v>184</v>
+      </c>
+      <c r="G92">
+        <v>1000</v>
+      </c>
+      <c r="H92">
+        <v>500</v>
+      </c>
+      <c r="I92" t="s">
+        <v>109</v>
+      </c>
+      <c r="J92" t="s">
+        <v>109</v>
+      </c>
+      <c r="K92" t="s">
+        <v>204</v>
+      </c>
+      <c r="L92" t="s">
+        <v>167</v>
+      </c>
+      <c r="M92" t="s">
+        <v>211</v>
+      </c>
+      <c r="N92" t="s">
+        <v>198</v>
+      </c>
+      <c r="O92" s="26">
+        <v>0</v>
+      </c>
+      <c r="P92" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R92">
+        <v>3</v>
+      </c>
+      <c r="S92">
+        <v>75</v>
+      </c>
+      <c r="T92">
+        <v>50</v>
+      </c>
+      <c r="U92">
+        <v>60</v>
+      </c>
+      <c r="V92" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>10</v>
+      </c>
+      <c r="Y92" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z92" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA92" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB92" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC92" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD92" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE92" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF92" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH92" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI92" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ92">
+        <v>30</v>
+      </c>
+      <c r="AK92" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL92">
+        <v>5</v>
+      </c>
+      <c r="AM92">
+        <v>200</v>
+      </c>
+      <c r="AN92" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO92">
+        <v>1</v>
+      </c>
+      <c r="AP92" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ92" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR92">
+        <v>200</v>
+      </c>
+      <c r="AS92" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT92" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU92" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV92" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW92" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX92" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY92" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AD95" s="54"/>
-      <c r="AE95" s="51"/>
-      <c r="AF95" s="24"/>
+      <c r="AC95" s="52"/>
+    </row>
+    <row r="96" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC96" s="52"/>
+      <c r="AD96" s="54"/>
+      <c r="AE96" s="51"/>
+      <c r="AF96" s="24"/>
+    </row>
+    <row r="97" spans="29:32" x14ac:dyDescent="0.25">
+      <c r="AC97" s="52"/>
+      <c r="AD97" s="54"/>
+      <c r="AE97" s="51"/>
+      <c r="AF97" s="24"/>
+    </row>
+    <row r="98" spans="29:32" x14ac:dyDescent="0.25">
+      <c r="AC98" s="52"/>
+      <c r="AD98" s="54"/>
+      <c r="AE98" s="51"/>
+      <c r="AF98" s="24"/>
+    </row>
+    <row r="99" spans="29:32" x14ac:dyDescent="0.25">
+      <c r="AC99" s="52"/>
+      <c r="AD99" s="54"/>
+      <c r="AE99" s="51"/>
+      <c r="AF99" s="24"/>
+    </row>
+    <row r="100" spans="29:32" x14ac:dyDescent="0.25">
+      <c r="AD100" s="54"/>
+      <c r="AE100" s="51"/>
+      <c r="AF100" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations xWindow="1188" yWindow="692" count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN92">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI13:AI87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI13:AI92">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH92">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS13:AS87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS13:AS92">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 C6:D10 P13:P87 C13:D87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 C6:D10 C13:D92 P13:P92">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 V13:V87 AB13:AB87">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 AB13:AB92 V13:V92">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W13:X87">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W13:X92">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AE91:AE95 AC85:AC87 AC13:AC45 AC54 AE13:AE87 Y13:AA87">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AE96:AE100 AC90:AC92 AC57 Y13:AA92 AE13:AE92 AC13:AC46">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ13:AJ87">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ13:AJ92">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT13:AU87">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT13:AU92">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV13:AV87">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV13:AV92">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF85:AF87 AF13:AF72">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF90:AF92 AF13:AF77">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL13:AL87">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL13:AL92">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM87">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM92">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO87">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO92">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD13:AD87"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW13:AY87">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD13:AD92"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW13:AY92">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP92">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ13:AQ87">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ13:AQ92">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S13:S87">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S13:S92">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I13:J87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I13:J92">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -15306,37 +15717,37 @@
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L9 L13:L87</xm:sqref>
+          <xm:sqref>L6:L9 L13:L92</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M9 M13:M87</xm:sqref>
+          <xm:sqref>M6:M9 M13:M92</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>F6:F9 F13:F87</xm:sqref>
+          <xm:sqref>F6:F9 F13:F92</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E9 E13:E87</xm:sqref>
+          <xm:sqref>E6:E9 E13:E92</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K9 K13:K87</xm:sqref>
+          <xm:sqref>K6:K9 K13:K92</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>N6:N9 N13:N87</xm:sqref>
+          <xm:sqref>N6:N9 N13:N92</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="464">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1442,6 +1442,24 @@
   </si>
   <si>
     <t>75% initial Funding; DC 7.5; ir 8.22, SD 12%, less backloaded contribution policy</t>
+  </si>
+  <si>
+    <t>75% initial Funding; Full smoothing, average plan, 3% COLA</t>
+  </si>
+  <si>
+    <t>75% initial Funding; Full smoothing, average plan, 3% COLA, same initial assets as BF075-1</t>
+  </si>
+  <si>
+    <t>BF075-0</t>
+  </si>
+  <si>
+    <t>BF075-3</t>
+  </si>
+  <si>
+    <t>75% initial Funding; Full smoothing, average plan, 1% COLA</t>
+  </si>
+  <si>
+    <t>BF075-3a</t>
   </si>
 </sst>
 </file>
@@ -1788,10 +1806,7 @@
     <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1800,13 +1815,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4001,13 +4019,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY100"/>
+  <dimension ref="A1:AY102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AD18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4203,62 +4221,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
       <c r="D4" s="53"/>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="93"/>
+      <c r="F4" s="97"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="96" t="s">
+      <c r="I4" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="94" t="s">
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="94"/>
+      <c r="M4" s="93"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="94" t="s">
+      <c r="P4" s="94"/>
+      <c r="Q4" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="95" t="s">
+      <c r="AA4" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="97" t="s">
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="92" t="s">
+      <c r="AH4" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="95"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -4266,17 +4284,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="97" t="s">
+      <c r="AP4" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="97"/>
-      <c r="AS4" s="98" t="s">
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="98"/>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="98"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -7823,7 +7841,7 @@
         <v>457</v>
       </c>
       <c r="C34" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="68" t="b">
         <v>0</v>
@@ -15274,13 +15292,13 @@
     </row>
     <row r="91" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A91" s="34" t="s">
-        <v>337</v>
+        <v>460</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>349</v>
       </c>
       <c r="C91" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" s="44" t="b">
         <v>0</v>
@@ -15427,175 +15445,628 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A92" s="34" t="s">
+    <row r="92" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="76" t="s">
+        <v>337</v>
+      </c>
+      <c r="B92" s="72" t="s">
+        <v>462</v>
+      </c>
+      <c r="C92" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G92" s="66">
+        <v>1000</v>
+      </c>
+      <c r="H92" s="66">
+        <v>500</v>
+      </c>
+      <c r="I92" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="J92" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="K92" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L92" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="M92" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="N92" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="O92" s="74">
+        <v>0</v>
+      </c>
+      <c r="P92" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="74">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R92" s="66">
+        <v>3</v>
+      </c>
+      <c r="S92" s="66">
+        <v>75</v>
+      </c>
+      <c r="T92" s="66">
+        <v>50</v>
+      </c>
+      <c r="U92" s="66">
+        <v>60</v>
+      </c>
+      <c r="V92" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="W92" s="66">
+        <v>0</v>
+      </c>
+      <c r="X92" s="66">
+        <v>10</v>
+      </c>
+      <c r="Y92" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="Z92" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="AA92" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="AB92" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AC92" s="74">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD92" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE92" s="77">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF92" s="74">
+        <v>0.12</v>
+      </c>
+      <c r="AG92" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH92" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI92" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ92" s="66">
+        <v>30</v>
+      </c>
+      <c r="AK92" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL92" s="66">
+        <v>5</v>
+      </c>
+      <c r="AM92" s="66">
+        <v>200</v>
+      </c>
+      <c r="AN92" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO92" s="66">
+        <v>1</v>
+      </c>
+      <c r="AP92" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ92" s="70">
+        <v>0.75</v>
+      </c>
+      <c r="AR92" s="66">
+        <v>200</v>
+      </c>
+      <c r="AS92" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT92" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="AU92" s="69">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV92" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="AW92" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX92" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY92" s="71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="76" t="s">
         <v>339</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B93" s="72" t="s">
         <v>350</v>
       </c>
-      <c r="C92" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="D92" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="C93" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D93" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F93" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="G92">
+      <c r="G93" s="66">
         <v>1000</v>
       </c>
-      <c r="H92">
+      <c r="H93" s="66">
         <v>500</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I93" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J93" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K93" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="L92" t="s">
+      <c r="L93" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M93" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="N92" t="s">
+      <c r="N93" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="O92" s="26">
-        <v>0</v>
-      </c>
-      <c r="P92" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="26">
+      <c r="O93" s="74">
+        <v>0</v>
+      </c>
+      <c r="P93" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="74">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R92">
+      <c r="R93" s="66">
         <v>3</v>
       </c>
-      <c r="S92">
+      <c r="S93" s="66">
         <v>75</v>
       </c>
-      <c r="T92">
+      <c r="T93" s="66">
         <v>50</v>
       </c>
-      <c r="U92">
+      <c r="U93" s="66">
         <v>60</v>
       </c>
-      <c r="V92" s="26">
+      <c r="V93" s="74">
         <v>0.02</v>
       </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
-      <c r="X92">
+      <c r="W93" s="66">
+        <v>0</v>
+      </c>
+      <c r="X93" s="66">
         <v>10</v>
       </c>
-      <c r="Y92" s="26">
+      <c r="Y93" s="74">
         <v>0.04</v>
       </c>
-      <c r="Z92" s="26">
+      <c r="Z93" s="74">
         <v>0.04</v>
       </c>
-      <c r="AA92" s="26">
+      <c r="AA93" s="74">
         <v>0.03</v>
       </c>
-      <c r="AB92" s="26">
+      <c r="AB93" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC92" s="26">
+      <c r="AC93" s="74">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD92" s="26" t="s">
+      <c r="AD93" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="AE92" s="41">
+      <c r="AE93" s="77">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF92" s="26">
+      <c r="AF93" s="74">
         <v>0.12</v>
       </c>
-      <c r="AG92" t="s">
+      <c r="AG93" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="AH92" s="2" t="s">
+      <c r="AH93" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="AI92" s="2" t="s">
+      <c r="AI93" s="67" t="s">
         <v>342</v>
       </c>
-      <c r="AJ92">
+      <c r="AJ93" s="66">
         <v>30</v>
       </c>
-      <c r="AK92" t="s">
+      <c r="AK93" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="AL92">
+      <c r="AL93" s="66">
         <v>5</v>
       </c>
-      <c r="AM92">
+      <c r="AM93" s="66">
         <v>200</v>
       </c>
-      <c r="AN92" s="2" t="s">
+      <c r="AN93" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AO92">
+      <c r="AO93" s="66">
         <v>1</v>
       </c>
-      <c r="AP92" s="2" t="s">
+      <c r="AP93" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="AQ92" s="17">
+      <c r="AQ93" s="70">
         <v>0.75</v>
       </c>
-      <c r="AR92">
+      <c r="AR93" s="66">
         <v>200</v>
       </c>
-      <c r="AS92" s="2" t="s">
+      <c r="AS93" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="AT92" s="12">
+      <c r="AT93" s="69">
         <v>0.25</v>
       </c>
-      <c r="AU92" s="12">
+      <c r="AU93" s="69">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV92" s="12">
+      <c r="AV93" s="69">
         <v>0.05</v>
       </c>
-      <c r="AW92" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX92" s="18" t="b">
+      <c r="AW93" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX93" s="71" t="b">
         <v>1</v>
       </c>
-      <c r="AY92" s="18" t="b">
+      <c r="AY93" s="71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AC95" s="52"/>
+    <row r="94" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A94" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="C94" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D94" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>207</v>
+      </c>
+      <c r="F94" t="s">
+        <v>184</v>
+      </c>
+      <c r="G94">
+        <v>1000</v>
+      </c>
+      <c r="H94">
+        <v>500</v>
+      </c>
+      <c r="I94" t="s">
+        <v>109</v>
+      </c>
+      <c r="J94" t="s">
+        <v>109</v>
+      </c>
+      <c r="K94" t="s">
+        <v>204</v>
+      </c>
+      <c r="L94" t="s">
+        <v>167</v>
+      </c>
+      <c r="M94" t="s">
+        <v>211</v>
+      </c>
+      <c r="N94" t="s">
+        <v>198</v>
+      </c>
+      <c r="O94" s="26">
+        <v>0</v>
+      </c>
+      <c r="P94" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R94">
+        <v>3</v>
+      </c>
+      <c r="S94">
+        <v>75</v>
+      </c>
+      <c r="T94">
+        <v>50</v>
+      </c>
+      <c r="U94">
+        <v>60</v>
+      </c>
+      <c r="V94" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>10</v>
+      </c>
+      <c r="Y94" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z94" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA94" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB94" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC94" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD94" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE94" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF94" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH94" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI94" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ94">
+        <v>30</v>
+      </c>
+      <c r="AK94" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL94">
+        <v>5</v>
+      </c>
+      <c r="AM94">
+        <v>200</v>
+      </c>
+      <c r="AN94" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO94">
+        <v>1</v>
+      </c>
+      <c r="AP94" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ94" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR94">
+        <v>200</v>
+      </c>
+      <c r="AS94" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT94" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU94" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV94" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW94" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX94" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY94" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AC96" s="52"/>
-      <c r="AD96" s="54"/>
-      <c r="AE96" s="51"/>
-      <c r="AF96" s="24"/>
+    <row r="95" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="76" t="s">
+        <v>463</v>
+      </c>
+      <c r="B95" s="72" t="s">
+        <v>459</v>
+      </c>
+      <c r="C95" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D95" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="F95" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G95" s="66">
+        <v>1000</v>
+      </c>
+      <c r="H95" s="66">
+        <v>500</v>
+      </c>
+      <c r="I95" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="J95" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="K95" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L95" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="M95" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="N95" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="O95" s="74">
+        <v>0</v>
+      </c>
+      <c r="P95" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="74">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R95" s="66">
+        <v>3</v>
+      </c>
+      <c r="S95" s="66">
+        <v>75</v>
+      </c>
+      <c r="T95" s="66">
+        <v>50</v>
+      </c>
+      <c r="U95" s="66">
+        <v>60</v>
+      </c>
+      <c r="V95" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="W95" s="66">
+        <v>0</v>
+      </c>
+      <c r="X95" s="66">
+        <v>10</v>
+      </c>
+      <c r="Y95" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="Z95" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="AA95" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="AB95" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AC95" s="74">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD95" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE95" s="77">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF95" s="74">
+        <v>0.12</v>
+      </c>
+      <c r="AG95" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH95" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI95" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ95" s="66">
+        <v>30</v>
+      </c>
+      <c r="AK95" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL95" s="66">
+        <v>5</v>
+      </c>
+      <c r="AM95" s="66">
+        <v>200</v>
+      </c>
+      <c r="AN95" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO95" s="66">
+        <v>1</v>
+      </c>
+      <c r="AP95" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ95" s="70">
+        <v>0.75</v>
+      </c>
+      <c r="AR95" s="73">
+        <v>140108493</v>
+      </c>
+      <c r="AS95" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT95" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="AU95" s="69">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV95" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="AW95" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX95" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY95" s="71" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="29:32" x14ac:dyDescent="0.25">
       <c r="AC97" s="52"/>
-      <c r="AD97" s="54"/>
-      <c r="AE97" s="51"/>
-      <c r="AF97" s="24"/>
     </row>
     <row r="98" spans="29:32" x14ac:dyDescent="0.25">
       <c r="AC98" s="52"/>
@@ -15610,101 +16081,113 @@
       <c r="AF99" s="24"/>
     </row>
     <row r="100" spans="29:32" x14ac:dyDescent="0.25">
+      <c r="AC100" s="52"/>
       <c r="AD100" s="54"/>
       <c r="AE100" s="51"/>
       <c r="AF100" s="24"/>
     </row>
+    <row r="101" spans="29:32" x14ac:dyDescent="0.25">
+      <c r="AC101" s="52"/>
+      <c r="AD101" s="54"/>
+      <c r="AE101" s="51"/>
+      <c r="AF101" s="24"/>
+    </row>
+    <row r="102" spans="29:32" x14ac:dyDescent="0.25">
+      <c r="AD102" s="54"/>
+      <c r="AE102" s="51"/>
+      <c r="AF102" s="24"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations xWindow="1188" yWindow="692" count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN95">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI13:AI92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI13:AI95">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH95">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS13:AS92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS13:AS95">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 C6:D10 C13:D92 P13:P92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 C6:D10 P13:P95 C13:D95">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 AB13:AB92 V13:V92">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 AB13:AB95 V13:V95">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W13:X92">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W13:X95">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AE96:AE100 AC90:AC92 AC57 Y13:AA92 AE13:AE92 AC13:AC46">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AE98:AE102 AC57 AC13:AC46 AC90:AC95 Y13:AA95 AE13:AE95">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ13:AJ92">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ13:AJ95">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT13:AU92">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT13:AU95">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV13:AV92">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV13:AV95">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF90:AF92 AF13:AF77">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF13:AF77 AF90:AF95">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL13:AL92">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL13:AL95">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM92">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM95">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO92">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO95">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD13:AD92"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW13:AY92">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD13:AD95"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW13:AY95">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP95">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ13:AQ92">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ13:AQ95">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S13:S92">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S13:S95">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I13:J92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I13:J95">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -15717,37 +16200,37 @@
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L9 L13:L92</xm:sqref>
+          <xm:sqref>L6:L9 L13:L95</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M9 M13:M92</xm:sqref>
+          <xm:sqref>M6:M9 M13:M95</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>F6:F9 F13:F92</xm:sqref>
+          <xm:sqref>F6:F9 F13:F95</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E9 E13:E92</xm:sqref>
+          <xm:sqref>E6:E9 E13:E95</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K9 K13:K92</xm:sqref>
+          <xm:sqref>K6:K9 K13:K95</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>N6:N9 N13:N92</xm:sqref>
+          <xm:sqref>N6:N9 N13:N95</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenSim-Projects\Model_Main\IO_M2.1_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_Main\IO_M2.1_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1806,7 +1806,10 @@
     <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1815,16 +1818,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4022,10 +4022,10 @@
   <dimension ref="A1:AY102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B100" sqref="B100"/>
+      <selection pane="bottomRight" activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4221,62 +4221,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
       <c r="D4" s="53"/>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="97"/>
+      <c r="F4" s="93"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="93" t="s">
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="93"/>
+      <c r="M4" s="94"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="93" t="s">
+      <c r="P4" s="95"/>
+      <c r="Q4" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="93"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="94" t="s">
+      <c r="AA4" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="92" t="s">
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="95" t="s">
+      <c r="AH4" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="95"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -4284,17 +4284,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="92" t="s">
+      <c r="AP4" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="92"/>
-      <c r="AS4" s="96" t="s">
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="97"/>
+      <c r="AS4" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
+      <c r="AT4" s="98"/>
+      <c r="AU4" s="98"/>
+      <c r="AV4" s="98"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -5117,7 +5117,7 @@
         <v>290</v>
       </c>
       <c r="C14" s="44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="44" t="b">
         <v>1</v>
@@ -5271,8 +5271,8 @@
       <c r="B15" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="C15" s="44" t="b">
-        <v>0</v>
+      <c r="C15" s="68" t="b">
+        <v>1</v>
       </c>
       <c r="D15" s="44" t="b">
         <v>1</v>
@@ -5426,8 +5426,8 @@
       <c r="B16" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="C16" s="44" t="b">
-        <v>0</v>
+      <c r="C16" s="68" t="b">
+        <v>1</v>
       </c>
       <c r="D16" s="44" t="b">
         <v>1</v>
@@ -5581,8 +5581,8 @@
       <c r="B17" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="C17" s="44" t="b">
-        <v>0</v>
+      <c r="C17" s="68" t="b">
+        <v>1</v>
       </c>
       <c r="D17" s="44" t="b">
         <v>1</v>
@@ -5736,8 +5736,8 @@
       <c r="B18" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="C18" s="44" t="b">
-        <v>0</v>
+      <c r="C18" s="68" t="b">
+        <v>1</v>
       </c>
       <c r="D18" s="44" t="b">
         <v>1</v>
@@ -5891,8 +5891,8 @@
       <c r="B19" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="C19" s="44" t="b">
-        <v>0</v>
+      <c r="C19" s="68" t="b">
+        <v>1</v>
       </c>
       <c r="D19" s="44" t="b">
         <v>1</v>
@@ -6046,8 +6046,8 @@
       <c r="B20" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="C20" s="44" t="b">
-        <v>0</v>
+      <c r="C20" s="68" t="b">
+        <v>1</v>
       </c>
       <c r="D20" s="44" t="b">
         <v>1</v>
@@ -6201,8 +6201,8 @@
       <c r="B21" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="C21" s="44" t="b">
-        <v>0</v>
+      <c r="C21" s="68" t="b">
+        <v>1</v>
       </c>
       <c r="D21" s="44" t="b">
         <v>1</v>
@@ -6356,8 +6356,8 @@
       <c r="B22" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="C22" s="44" t="b">
-        <v>0</v>
+      <c r="C22" s="68" t="b">
+        <v>1</v>
       </c>
       <c r="D22" s="44" t="b">
         <v>1</v>
@@ -6511,8 +6511,8 @@
       <c r="B23" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="C23" s="44" t="b">
-        <v>0</v>
+      <c r="C23" s="68" t="b">
+        <v>1</v>
       </c>
       <c r="D23" s="44" t="b">
         <v>1</v>
@@ -6666,8 +6666,8 @@
       <c r="B24" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="C24" s="44" t="b">
-        <v>0</v>
+      <c r="C24" s="68" t="b">
+        <v>1</v>
       </c>
       <c r="D24" s="44" t="b">
         <v>1</v>
@@ -6911,7 +6911,7 @@
         <v>414</v>
       </c>
       <c r="C28" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="68" t="b">
         <v>0</v>
@@ -7066,7 +7066,7 @@
         <v>415</v>
       </c>
       <c r="C29" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="68" t="b">
         <v>0</v>
@@ -7221,7 +7221,7 @@
         <v>416</v>
       </c>
       <c r="C30" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="68" t="b">
         <v>0</v>
@@ -7376,7 +7376,7 @@
         <v>386</v>
       </c>
       <c r="C31" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="44" t="b">
         <v>0</v>
@@ -7531,7 +7531,7 @@
         <v>387</v>
       </c>
       <c r="C32" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="44" t="b">
         <v>0</v>
@@ -7686,7 +7686,7 @@
         <v>363</v>
       </c>
       <c r="C33" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="44" t="b">
         <v>0</v>
@@ -7841,7 +7841,7 @@
         <v>457</v>
       </c>
       <c r="C34" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="68" t="b">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>388</v>
       </c>
       <c r="C35" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="44" t="b">
         <v>0</v>
@@ -8150,8 +8150,8 @@
       <c r="B36" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="C36" s="44" t="b">
-        <v>0</v>
+      <c r="C36" s="68" t="b">
+        <v>1</v>
       </c>
       <c r="D36" s="44" t="b">
         <v>0</v>
@@ -8335,7 +8335,7 @@
         <v>417</v>
       </c>
       <c r="C38" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="68" t="b">
         <v>0</v>
@@ -8490,7 +8490,7 @@
         <v>418</v>
       </c>
       <c r="C39" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="68" t="b">
         <v>0</v>
@@ -8645,7 +8645,7 @@
         <v>419</v>
       </c>
       <c r="C40" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="68" t="b">
         <v>0</v>
@@ -8800,7 +8800,7 @@
         <v>390</v>
       </c>
       <c r="C41" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="44" t="b">
         <v>0</v>
@@ -8955,7 +8955,7 @@
         <v>391</v>
       </c>
       <c r="C42" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="44" t="b">
         <v>0</v>
@@ -9110,7 +9110,7 @@
         <v>362</v>
       </c>
       <c r="C43" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="44" t="b">
         <v>0</v>
@@ -9265,7 +9265,7 @@
         <v>413</v>
       </c>
       <c r="C44" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="44" t="b">
         <v>0</v>
@@ -9420,7 +9420,7 @@
         <v>392</v>
       </c>
       <c r="C45" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="44" t="b">
         <v>0</v>
@@ -9604,7 +9604,7 @@
         <v>420</v>
       </c>
       <c r="C47" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="68" t="b">
         <v>0</v>
@@ -9759,7 +9759,7 @@
         <v>421</v>
       </c>
       <c r="C48" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="68" t="b">
         <v>0</v>
@@ -9914,7 +9914,7 @@
         <v>422</v>
       </c>
       <c r="C49" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="68" t="b">
         <v>0</v>
@@ -10069,7 +10069,7 @@
         <v>394</v>
       </c>
       <c r="C50" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="44" t="b">
         <v>0</v>
@@ -10224,7 +10224,7 @@
         <v>395</v>
       </c>
       <c r="C51" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="44" t="b">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>362</v>
       </c>
       <c r="C52" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="44" t="b">
         <v>0</v>
@@ -10534,7 +10534,7 @@
         <v>412</v>
       </c>
       <c r="C53" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="44" t="b">
         <v>0</v>
@@ -10689,7 +10689,7 @@
         <v>396</v>
       </c>
       <c r="C54" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="44" t="b">
         <v>0</v>
@@ -10932,7 +10932,7 @@
         <v>431</v>
       </c>
       <c r="C58" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="68" t="b">
         <v>0</v>
@@ -11087,7 +11087,7 @@
         <v>432</v>
       </c>
       <c r="C59" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="68" t="b">
         <v>0</v>
@@ -11242,7 +11242,7 @@
         <v>433</v>
       </c>
       <c r="C60" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="68" t="b">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>434</v>
       </c>
       <c r="C61" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="68" t="b">
         <v>0</v>
@@ -11552,7 +11552,7 @@
         <v>438</v>
       </c>
       <c r="C62" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="68" t="b">
         <v>0</v>
@@ -11707,7 +11707,7 @@
         <v>435</v>
       </c>
       <c r="C63" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="68" t="b">
         <v>0</v>
@@ -11862,7 +11862,7 @@
         <v>436</v>
       </c>
       <c r="C64" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="68" t="b">
         <v>0</v>
@@ -12017,7 +12017,7 @@
         <v>437</v>
       </c>
       <c r="C65" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="68" t="b">
         <v>0</v>
@@ -12202,7 +12202,7 @@
         <v>455</v>
       </c>
       <c r="C67" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="68" t="b">
         <v>0</v>
@@ -12387,7 +12387,7 @@
         <v>431</v>
       </c>
       <c r="C69" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" s="68" t="b">
         <v>0</v>
@@ -12542,7 +12542,7 @@
         <v>447</v>
       </c>
       <c r="C70" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="68" t="b">
         <v>0</v>
@@ -12697,7 +12697,7 @@
         <v>448</v>
       </c>
       <c r="C71" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="68" t="b">
         <v>0</v>
@@ -12852,7 +12852,7 @@
         <v>449</v>
       </c>
       <c r="C72" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" s="68" t="b">
         <v>0</v>
@@ -13007,7 +13007,7 @@
         <v>450</v>
       </c>
       <c r="C73" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="68" t="b">
         <v>0</v>
@@ -13162,7 +13162,7 @@
         <v>451</v>
       </c>
       <c r="C74" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="68" t="b">
         <v>0</v>
@@ -13317,7 +13317,7 @@
         <v>452</v>
       </c>
       <c r="C75" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" s="68" t="b">
         <v>0</v>
@@ -13472,7 +13472,7 @@
         <v>453</v>
       </c>
       <c r="C76" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" s="68" t="b">
         <v>0</v>
@@ -13657,7 +13657,7 @@
         <v>365</v>
       </c>
       <c r="C78" s="44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="44" t="b">
         <v>0</v>
@@ -13812,7 +13812,7 @@
         <v>397</v>
       </c>
       <c r="C79" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" s="44" t="b">
         <v>0</v>
@@ -13967,7 +13967,7 @@
         <v>362</v>
       </c>
       <c r="C80" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" s="44" t="b">
         <v>0</v>
@@ -14122,7 +14122,7 @@
         <v>366</v>
       </c>
       <c r="C81" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" s="44" t="b">
         <v>0</v>
@@ -14277,7 +14277,7 @@
         <v>398</v>
       </c>
       <c r="C82" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" s="44" t="b">
         <v>0</v>
@@ -14462,7 +14462,7 @@
         <v>393</v>
       </c>
       <c r="C84" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" s="44" t="b">
         <v>0</v>
@@ -14617,7 +14617,7 @@
         <v>399</v>
       </c>
       <c r="C85" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="44" t="b">
         <v>0</v>
@@ -14772,7 +14772,7 @@
         <v>362</v>
       </c>
       <c r="C86" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" s="44" t="b">
         <v>0</v>
@@ -14927,7 +14927,7 @@
         <v>364</v>
       </c>
       <c r="C87" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" s="44" t="b">
         <v>0</v>
@@ -15082,7 +15082,7 @@
         <v>400</v>
       </c>
       <c r="C88" s="68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" s="44" t="b">
         <v>0</v>
@@ -16099,17 +16099,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations xWindow="1188" yWindow="692" count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN95">

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,12 +30,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Returns!$A$3:$D$3</definedName>
     <definedName name="ConPolicy">DropDowns!$A$12:$A$14</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="469">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1460,6 +1460,21 @@
   </si>
   <si>
     <t>BF075-3a</t>
+  </si>
+  <si>
+    <t>Benchmark policy</t>
+  </si>
+  <si>
+    <t>Policy 2, lower discount rate</t>
+  </si>
+  <si>
+    <t>Policy 1: investing in riskier assets</t>
+  </si>
+  <si>
+    <t>Fixed risk-free rate, fixed Sharpe Ratio, varying discoun rate</t>
+  </si>
+  <si>
+    <t>Fixed risk-free rate, fixed Sharpe Ratio, fixed discoun rate</t>
   </si>
 </sst>
 </file>
@@ -1673,7 +1688,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1827,6 +1842,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3039,6 +3055,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3074,6 +3107,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3933,7 +3983,7 @@
   <dimension ref="A6:A25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4019,13 +4069,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY102"/>
+  <dimension ref="A1:AY106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C99" sqref="C99"/>
+      <selection pane="bottomRight" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5272,7 +5322,7 @@
         <v>290</v>
       </c>
       <c r="C15" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="44" t="b">
         <v>1</v>
@@ -5427,7 +5477,7 @@
         <v>290</v>
       </c>
       <c r="C16" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="44" t="b">
         <v>1</v>
@@ -5582,7 +5632,7 @@
         <v>290</v>
       </c>
       <c r="C17" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="44" t="b">
         <v>1</v>
@@ -5737,7 +5787,7 @@
         <v>290</v>
       </c>
       <c r="C18" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="44" t="b">
         <v>1</v>
@@ -5892,7 +5942,7 @@
         <v>298</v>
       </c>
       <c r="C19" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="44" t="b">
         <v>1</v>
@@ -6047,7 +6097,7 @@
         <v>298</v>
       </c>
       <c r="C20" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="44" t="b">
         <v>1</v>
@@ -6202,7 +6252,7 @@
         <v>298</v>
       </c>
       <c r="C21" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="44" t="b">
         <v>1</v>
@@ -6357,7 +6407,7 @@
         <v>298</v>
       </c>
       <c r="C22" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="44" t="b">
         <v>1</v>
@@ -6512,7 +6562,7 @@
         <v>298</v>
       </c>
       <c r="C23" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="44" t="b">
         <v>1</v>
@@ -6667,7 +6717,7 @@
         <v>298</v>
       </c>
       <c r="C24" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="44" t="b">
         <v>1</v>
@@ -6904,169 +6954,45 @@
       <c r="AY27" s="18"/>
     </row>
     <row r="28" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
-        <v>315</v>
-      </c>
-      <c r="B28" s="72" t="s">
-        <v>414</v>
-      </c>
-      <c r="C28" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F28" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G28" s="66">
-        <v>1000</v>
-      </c>
-      <c r="H28" s="66">
-        <v>500</v>
-      </c>
-      <c r="I28" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J28" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="K28" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="L28" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="M28" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="N28" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="O28" s="74">
-        <v>0</v>
-      </c>
-      <c r="P28" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="74">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R28" s="66">
-        <v>3</v>
-      </c>
-      <c r="S28" s="66">
-        <v>75</v>
-      </c>
-      <c r="T28" s="66">
-        <v>50</v>
-      </c>
-      <c r="U28" s="66">
-        <v>60</v>
-      </c>
-      <c r="V28" s="74">
-        <v>0.02</v>
-      </c>
-      <c r="W28" s="66">
-        <v>0</v>
-      </c>
-      <c r="X28" s="66">
-        <v>10</v>
-      </c>
-      <c r="Y28" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="Z28" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="AA28" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="AB28" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="AC28" s="74">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD28" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE28" s="63">
-        <v>7.5157231635036972E-2</v>
-      </c>
-      <c r="AF28" s="78">
-        <v>1.7733112250080396E-2</v>
-      </c>
-      <c r="AG28" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH28" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI28" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ28" s="66">
-        <v>30</v>
-      </c>
-      <c r="AK28" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL28" s="66">
-        <v>5</v>
-      </c>
-      <c r="AM28" s="66">
-        <v>200</v>
-      </c>
-      <c r="AN28" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO28" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP28" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ28" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="AR28" s="73">
-        <v>168732127</v>
-      </c>
-      <c r="AS28" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT28" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="AU28" s="69">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV28" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="AW28" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX28" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY28" s="71" t="b">
-        <v>0</v>
-      </c>
+      <c r="B28" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="74"/>
+      <c r="V28" s="74"/>
+      <c r="Y28" s="74"/>
+      <c r="Z28" s="74"/>
+      <c r="AA28" s="74"/>
+      <c r="AB28" s="74"/>
+      <c r="AC28" s="74"/>
+      <c r="AD28" s="74"/>
+      <c r="AE28" s="77"/>
+      <c r="AF28" s="74"/>
+      <c r="AH28" s="67"/>
+      <c r="AI28" s="67"/>
+      <c r="AN28" s="67"/>
+      <c r="AP28" s="67"/>
+      <c r="AQ28" s="70"/>
+      <c r="AS28" s="67"/>
+      <c r="AT28" s="69"/>
+      <c r="AU28" s="69"/>
+      <c r="AV28" s="69"/>
+      <c r="AW28" s="71"/>
+      <c r="AX28" s="71"/>
+      <c r="AY28" s="71"/>
     </row>
     <row r="29" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="76" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B29" s="72" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C29" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="68" t="b">
         <v>0</v>
@@ -7150,10 +7076,10 @@
         <v>156</v>
       </c>
       <c r="AE29" s="63">
-        <v>7.5838593074235933E-2</v>
+        <v>7.5157231635036972E-2</v>
       </c>
       <c r="AF29" s="78">
-        <v>4.0953463204860707E-2</v>
+        <v>1.7733112250080396E-2</v>
       </c>
       <c r="AG29" s="66" t="s">
         <v>112</v>
@@ -7215,13 +7141,13 @@
     </row>
     <row r="30" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="76" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B30" s="72" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C30" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="68" t="b">
         <v>0</v>
@@ -7305,10 +7231,10 @@
         <v>156</v>
       </c>
       <c r="AE30" s="63">
-        <v>7.714763710549262E-2</v>
+        <v>7.5838593074235933E-2</v>
       </c>
       <c r="AF30" s="78">
-        <v>6.55383415336796E-2</v>
+        <v>4.0953463204860707E-2</v>
       </c>
       <c r="AG30" s="66" t="s">
         <v>112</v>
@@ -7368,170 +7294,170 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="76" t="s">
-        <v>321</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>386</v>
+        <v>319</v>
+      </c>
+      <c r="B31" s="72" t="s">
+        <v>416</v>
       </c>
       <c r="C31" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" s="66">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="66">
+        <v>500</v>
+      </c>
+      <c r="I31" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="K31" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L31" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="M31" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="N31" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="O31" s="74">
+        <v>0</v>
+      </c>
+      <c r="P31" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="74">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R31" s="66">
+        <v>3</v>
+      </c>
+      <c r="S31" s="66">
+        <v>75</v>
+      </c>
+      <c r="T31" s="66">
+        <v>50</v>
+      </c>
+      <c r="U31" s="66">
+        <v>60</v>
+      </c>
+      <c r="V31" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="W31" s="66">
+        <v>0</v>
+      </c>
+      <c r="X31" s="66">
+        <v>10</v>
+      </c>
+      <c r="Y31" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="Z31" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="AA31" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="AB31" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AC31" s="74">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD31" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE31" s="63">
+        <v>7.714763710549262E-2</v>
+      </c>
+      <c r="AF31" s="78">
+        <v>6.55383415336796E-2</v>
+      </c>
+      <c r="AG31" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH31" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI31" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ31" s="66">
+        <v>30</v>
+      </c>
+      <c r="AK31" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL31" s="66">
+        <v>5</v>
+      </c>
+      <c r="AM31" s="66">
+        <v>200</v>
+      </c>
+      <c r="AN31" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO31" s="66">
         <v>1</v>
       </c>
-      <c r="D31" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>207</v>
-      </c>
-      <c r="F31" t="s">
-        <v>184</v>
-      </c>
-      <c r="G31">
-        <v>1000</v>
-      </c>
-      <c r="H31">
-        <v>500</v>
-      </c>
-      <c r="I31" t="s">
-        <v>109</v>
-      </c>
-      <c r="J31" t="s">
-        <v>109</v>
-      </c>
-      <c r="K31" t="s">
-        <v>204</v>
-      </c>
-      <c r="L31" t="s">
-        <v>167</v>
-      </c>
-      <c r="M31" t="s">
-        <v>211</v>
-      </c>
-      <c r="N31" t="s">
-        <v>198</v>
-      </c>
-      <c r="O31" s="26">
-        <v>0</v>
-      </c>
-      <c r="P31" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R31">
-        <v>3</v>
-      </c>
-      <c r="S31">
-        <v>75</v>
-      </c>
-      <c r="T31">
-        <v>50</v>
-      </c>
-      <c r="U31">
-        <v>60</v>
-      </c>
-      <c r="V31" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>10</v>
-      </c>
-      <c r="Y31" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z31" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA31" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB31" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC31" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD31" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE31" s="41">
-        <v>7.9210035716397884E-2</v>
-      </c>
-      <c r="AF31" s="26">
-        <v>9.1760947209560628E-2</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH31" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI31" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ31">
-        <v>30</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL31">
-        <v>5</v>
-      </c>
-      <c r="AM31">
-        <v>200</v>
-      </c>
-      <c r="AN31" s="2" t="s">
+      <c r="AP31" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AO31">
+      <c r="AQ31" s="70">
+        <v>0.75</v>
+      </c>
+      <c r="AR31" s="73">
+        <v>168732127</v>
+      </c>
+      <c r="AS31" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT31" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="AU31" s="69">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV31" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="AW31" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="71" t="b">
         <v>1</v>
       </c>
-      <c r="AP31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ31" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AR31" s="49">
-        <v>168732127</v>
-      </c>
-      <c r="AS31" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT31" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AU31" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV31" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AW31" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX31" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY31" s="18" t="b">
+      <c r="AY31" s="71" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" s="76" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C32" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="44" t="b">
         <v>0</v>
@@ -7615,10 +7541,10 @@
         <v>156</v>
       </c>
       <c r="AE32" s="41">
-        <v>8.0575584650641977E-2</v>
+        <v>7.9210035716397884E-2</v>
       </c>
       <c r="AF32" s="26">
-        <v>0.10559909706661297</v>
+        <v>9.1760947209560628E-2</v>
       </c>
       <c r="AG32" t="s">
         <v>112</v>
@@ -7647,7 +7573,7 @@
       <c r="AO32">
         <v>1</v>
       </c>
-      <c r="AP32" s="43" t="s">
+      <c r="AP32" s="2" t="s">
         <v>114</v>
       </c>
       <c r="AQ32" s="17">
@@ -7680,13 +7606,13 @@
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="76" t="s">
-        <v>403</v>
+        <v>323</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="C33" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="44" t="b">
         <v>0</v>
@@ -7770,10 +7696,10 @@
         <v>156</v>
       </c>
       <c r="AE33" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>8.0575584650641977E-2</v>
       </c>
       <c r="AF33" s="26">
-        <v>0.12</v>
+        <v>0.10559909706661297</v>
       </c>
       <c r="AG33" t="s">
         <v>112</v>
@@ -7833,325 +7759,325 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="76" t="s">
+        <v>403</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C34" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34">
+        <v>1000</v>
+      </c>
+      <c r="H34">
+        <v>500</v>
+      </c>
+      <c r="I34" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" t="s">
+        <v>204</v>
+      </c>
+      <c r="L34" t="s">
+        <v>167</v>
+      </c>
+      <c r="M34" t="s">
+        <v>211</v>
+      </c>
+      <c r="N34" t="s">
+        <v>198</v>
+      </c>
+      <c r="O34" s="26">
+        <v>0</v>
+      </c>
+      <c r="P34" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>75</v>
+      </c>
+      <c r="T34">
+        <v>50</v>
+      </c>
+      <c r="U34">
+        <v>60</v>
+      </c>
+      <c r="V34" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>10</v>
+      </c>
+      <c r="Y34" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z34" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA34" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB34" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC34" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD34" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE34" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF34" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI34" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ34">
+        <v>30</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL34">
+        <v>5</v>
+      </c>
+      <c r="AM34">
+        <v>200</v>
+      </c>
+      <c r="AN34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ34" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR34" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT34" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU34" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV34" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW34" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY34" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="76" t="s">
         <v>456</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B35" s="72" t="s">
         <v>457</v>
       </c>
-      <c r="C34" s="68" t="b">
+      <c r="C35" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" s="66">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="66">
+        <v>500</v>
+      </c>
+      <c r="I35" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="J35" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="K35" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L35" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="M35" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="N35" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="O35" s="74">
+        <v>0</v>
+      </c>
+      <c r="P35" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="74">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R35" s="66">
+        <v>3</v>
+      </c>
+      <c r="S35" s="66">
+        <v>75</v>
+      </c>
+      <c r="T35" s="66">
+        <v>50</v>
+      </c>
+      <c r="U35" s="66">
+        <v>60</v>
+      </c>
+      <c r="V35" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="W35" s="66">
+        <v>0</v>
+      </c>
+      <c r="X35" s="66">
+        <v>10</v>
+      </c>
+      <c r="Y35" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="Z35" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="AA35" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="AB35" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AC35" s="74">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD35" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE35" s="77">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF35" s="74">
+        <v>0.12</v>
+      </c>
+      <c r="AG35" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH35" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI35" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ35" s="66">
+        <v>15</v>
+      </c>
+      <c r="AK35" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL35" s="66">
+        <v>5</v>
+      </c>
+      <c r="AM35" s="66">
+        <v>200</v>
+      </c>
+      <c r="AN35" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO35" s="66">
         <v>1</v>
       </c>
-      <c r="D34" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F34" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G34" s="66">
-        <v>1000</v>
-      </c>
-      <c r="H34" s="66">
-        <v>500</v>
-      </c>
-      <c r="I34" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J34" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="K34" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="L34" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="M34" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="N34" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="O34" s="74">
-        <v>0</v>
-      </c>
-      <c r="P34" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="74">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R34" s="66">
-        <v>3</v>
-      </c>
-      <c r="S34" s="66">
-        <v>75</v>
-      </c>
-      <c r="T34" s="66">
-        <v>50</v>
-      </c>
-      <c r="U34" s="66">
-        <v>60</v>
-      </c>
-      <c r="V34" s="74">
-        <v>0.02</v>
-      </c>
-      <c r="W34" s="66">
-        <v>0</v>
-      </c>
-      <c r="X34" s="66">
-        <v>10</v>
-      </c>
-      <c r="Y34" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="Z34" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="AA34" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="AB34" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="AC34" s="74">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD34" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE34" s="77">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF34" s="74">
-        <v>0.12</v>
-      </c>
-      <c r="AG34" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH34" s="67" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI34" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ34" s="66">
-        <v>15</v>
-      </c>
-      <c r="AK34" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL34" s="66">
-        <v>5</v>
-      </c>
-      <c r="AM34" s="66">
-        <v>200</v>
-      </c>
-      <c r="AN34" s="67" t="s">
+      <c r="AP35" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AO34" s="66">
+      <c r="AQ35" s="70">
+        <v>0.75</v>
+      </c>
+      <c r="AR35" s="73">
+        <v>168732127</v>
+      </c>
+      <c r="AS35" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT35" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="AU35" s="69">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV35" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="AW35" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX35" s="71" t="b">
         <v>1</v>
       </c>
-      <c r="AP34" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ34" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="AR34" s="73">
-        <v>168732127</v>
-      </c>
-      <c r="AS34" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT34" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="AU34" s="69">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV34" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="AW34" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX34" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY34" s="71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A35" s="76" t="s">
-        <v>404</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="C35" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>207</v>
-      </c>
-      <c r="F35" t="s">
-        <v>184</v>
-      </c>
-      <c r="G35">
-        <v>1000</v>
-      </c>
-      <c r="H35">
-        <v>500</v>
-      </c>
-      <c r="I35" t="s">
-        <v>109</v>
-      </c>
-      <c r="J35" t="s">
-        <v>109</v>
-      </c>
-      <c r="K35" t="s">
-        <v>204</v>
-      </c>
-      <c r="L35" t="s">
-        <v>167</v>
-      </c>
-      <c r="M35" t="s">
-        <v>211</v>
-      </c>
-      <c r="N35" t="s">
-        <v>198</v>
-      </c>
-      <c r="O35" s="26">
-        <v>0</v>
-      </c>
-      <c r="P35" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R35">
-        <v>3</v>
-      </c>
-      <c r="S35">
-        <v>75</v>
-      </c>
-      <c r="T35">
-        <v>50</v>
-      </c>
-      <c r="U35">
-        <v>60</v>
-      </c>
-      <c r="V35" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>10</v>
-      </c>
-      <c r="Y35" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z35" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA35" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB35" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC35" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD35" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE35" s="41">
-        <v>8.411769335469832E-2</v>
-      </c>
-      <c r="AF35" s="26">
-        <v>0.13503846381456158</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH35" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI35" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ35">
-        <v>30</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL35">
-        <v>5</v>
-      </c>
-      <c r="AM35">
-        <v>200</v>
-      </c>
-      <c r="AN35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO35">
-        <v>1</v>
-      </c>
-      <c r="AP35" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ35" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AR35" s="49">
-        <v>168732127</v>
-      </c>
-      <c r="AS35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT35" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AU35" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV35" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AW35" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX35" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY35" s="18" t="b">
+      <c r="AY35" s="71" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="76" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C36" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="44" t="b">
         <v>0</v>
@@ -8235,10 +8161,10 @@
         <v>156</v>
       </c>
       <c r="AE36" s="41">
-        <v>8.637145152958918E-2</v>
+        <v>8.411769335469832E-2</v>
       </c>
       <c r="AF36" s="26">
-        <v>0.15080750332519388</v>
+        <v>0.13503846381456158</v>
       </c>
       <c r="AG36" t="s">
         <v>112</v>
@@ -8299,198 +8225,198 @@
       </c>
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B37" s="19"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="41"/>
-      <c r="AF37" s="26"/>
-      <c r="AH37" s="2"/>
-      <c r="AI37" s="2"/>
-      <c r="AN37" s="2"/>
-      <c r="AP37" s="2"/>
-      <c r="AQ37" s="17"/>
-      <c r="AS37" s="2"/>
-      <c r="AT37" s="12"/>
-      <c r="AU37" s="12"/>
-      <c r="AV37" s="12"/>
-      <c r="AW37" s="18"/>
-      <c r="AX37" s="18"/>
-      <c r="AY37" s="18"/>
+      <c r="A37" s="76" t="s">
+        <v>405</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="C37" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" t="s">
+        <v>184</v>
+      </c>
+      <c r="G37">
+        <v>1000</v>
+      </c>
+      <c r="H37">
+        <v>500</v>
+      </c>
+      <c r="I37" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" t="s">
+        <v>109</v>
+      </c>
+      <c r="K37" t="s">
+        <v>204</v>
+      </c>
+      <c r="L37" t="s">
+        <v>167</v>
+      </c>
+      <c r="M37" t="s">
+        <v>211</v>
+      </c>
+      <c r="N37" t="s">
+        <v>198</v>
+      </c>
+      <c r="O37" s="26">
+        <v>0</v>
+      </c>
+      <c r="P37" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R37">
+        <v>3</v>
+      </c>
+      <c r="S37">
+        <v>75</v>
+      </c>
+      <c r="T37">
+        <v>50</v>
+      </c>
+      <c r="U37">
+        <v>60</v>
+      </c>
+      <c r="V37" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>10</v>
+      </c>
+      <c r="Y37" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z37" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA37" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB37" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC37" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD37" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE37" s="41">
+        <v>8.637145152958918E-2</v>
+      </c>
+      <c r="AF37" s="26">
+        <v>0.15080750332519388</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI37" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ37">
+        <v>30</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL37">
+        <v>5</v>
+      </c>
+      <c r="AM37">
+        <v>200</v>
+      </c>
+      <c r="AN37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO37">
+        <v>1</v>
+      </c>
+      <c r="AP37" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ37" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR37" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT37" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU37" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV37" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW37" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX37" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY37" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="B38" s="72" t="s">
-        <v>417</v>
-      </c>
-      <c r="C38" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F38" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G38" s="66">
-        <v>1000</v>
-      </c>
-      <c r="H38" s="66">
-        <v>500</v>
-      </c>
-      <c r="I38" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J38" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="K38" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="L38" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="M38" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="N38" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="O38" s="74">
-        <v>0</v>
-      </c>
-      <c r="P38" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="74">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R38" s="66">
-        <v>3</v>
-      </c>
-      <c r="S38" s="66">
-        <v>75</v>
-      </c>
-      <c r="T38" s="66">
-        <v>50</v>
-      </c>
-      <c r="U38" s="66">
-        <v>60</v>
-      </c>
-      <c r="V38" s="74">
-        <v>0.02</v>
-      </c>
-      <c r="W38" s="66">
-        <v>0</v>
-      </c>
-      <c r="X38" s="66">
-        <v>10</v>
-      </c>
-      <c r="Y38" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="Z38" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="AA38" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="AB38" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="AC38" s="80">
-        <v>0.115</v>
-      </c>
-      <c r="AD38" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE38" s="77">
-        <v>0.1222</v>
-      </c>
-      <c r="AF38" s="74">
-        <v>0.12</v>
-      </c>
-      <c r="AG38" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH38" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI38" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ38" s="66">
-        <v>30</v>
-      </c>
-      <c r="AK38" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL38" s="66">
-        <v>5</v>
-      </c>
-      <c r="AM38" s="66">
-        <v>200</v>
-      </c>
-      <c r="AN38" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO38" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP38" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ38" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="AR38" s="73">
-        <v>168732127</v>
-      </c>
-      <c r="AS38" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT38" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="AU38" s="69">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV38" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="AW38" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX38" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY38" s="71" t="b">
-        <v>0</v>
-      </c>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B38" s="19"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="41"/>
+      <c r="AF38" s="26"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AP38" s="2"/>
+      <c r="AQ38" s="17"/>
+      <c r="AS38" s="2"/>
+      <c r="AT38" s="12"/>
+      <c r="AU38" s="12"/>
+      <c r="AV38" s="12"/>
+      <c r="AW38" s="18"/>
+      <c r="AX38" s="18"/>
+      <c r="AY38" s="18"/>
     </row>
     <row r="39" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="66" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C39" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="68" t="b">
         <v>0</v>
@@ -8568,13 +8494,13 @@
         <v>0.01</v>
       </c>
       <c r="AC39" s="80">
-        <v>0.105</v>
+        <v>0.115</v>
       </c>
       <c r="AD39" s="74" t="s">
         <v>156</v>
       </c>
       <c r="AE39" s="77">
-        <v>0.11219999999999999</v>
+        <v>0.1222</v>
       </c>
       <c r="AF39" s="74">
         <v>0.12</v>
@@ -8639,13 +8565,13 @@
     </row>
     <row r="40" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="66" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B40" s="72" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C40" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="68" t="b">
         <v>0</v>
@@ -8723,13 +8649,13 @@
         <v>0.01</v>
       </c>
       <c r="AC40" s="80">
-        <v>9.5000000000000001E-2</v>
+        <v>0.105</v>
       </c>
       <c r="AD40" s="74" t="s">
         <v>156</v>
       </c>
       <c r="AE40" s="77">
-        <v>0.1022</v>
+        <v>0.11219999999999999</v>
       </c>
       <c r="AF40" s="74">
         <v>0.12</v>
@@ -8792,170 +8718,170 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="66" t="s">
-        <v>332</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>390</v>
+        <v>330</v>
+      </c>
+      <c r="B41" s="72" t="s">
+        <v>419</v>
       </c>
       <c r="C41" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="F41" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G41" s="66">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="66">
+        <v>500</v>
+      </c>
+      <c r="I41" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="J41" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="K41" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L41" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="M41" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="N41" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="O41" s="74">
+        <v>0</v>
+      </c>
+      <c r="P41" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="74">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R41" s="66">
+        <v>3</v>
+      </c>
+      <c r="S41" s="66">
+        <v>75</v>
+      </c>
+      <c r="T41" s="66">
+        <v>50</v>
+      </c>
+      <c r="U41" s="66">
+        <v>60</v>
+      </c>
+      <c r="V41" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="W41" s="66">
+        <v>0</v>
+      </c>
+      <c r="X41" s="66">
+        <v>10</v>
+      </c>
+      <c r="Y41" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="Z41" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="AA41" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="AB41" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AC41" s="80">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AD41" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE41" s="77">
+        <v>0.1022</v>
+      </c>
+      <c r="AF41" s="74">
+        <v>0.12</v>
+      </c>
+      <c r="AG41" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH41" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI41" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ41" s="66">
+        <v>30</v>
+      </c>
+      <c r="AK41" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL41" s="66">
+        <v>5</v>
+      </c>
+      <c r="AM41" s="66">
+        <v>200</v>
+      </c>
+      <c r="AN41" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO41" s="66">
         <v>1</v>
       </c>
-      <c r="D41" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>207</v>
-      </c>
-      <c r="F41" t="s">
-        <v>184</v>
-      </c>
-      <c r="G41">
-        <v>1000</v>
-      </c>
-      <c r="H41">
-        <v>500</v>
-      </c>
-      <c r="I41" t="s">
-        <v>109</v>
-      </c>
-      <c r="J41" t="s">
-        <v>109</v>
-      </c>
-      <c r="K41" t="s">
-        <v>204</v>
-      </c>
-      <c r="L41" t="s">
-        <v>167</v>
-      </c>
-      <c r="M41" t="s">
-        <v>211</v>
-      </c>
-      <c r="N41" t="s">
-        <v>198</v>
-      </c>
-      <c r="O41" s="26">
-        <v>0</v>
-      </c>
-      <c r="P41" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R41">
-        <v>3</v>
-      </c>
-      <c r="S41">
-        <v>75</v>
-      </c>
-      <c r="T41">
-        <v>50</v>
-      </c>
-      <c r="U41">
-        <v>60</v>
-      </c>
-      <c r="V41" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>10</v>
-      </c>
-      <c r="Y41" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z41" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA41" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB41" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC41" s="26">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="AD41" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE41" s="41">
-        <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="AF41" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH41" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI41" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ41">
-        <v>30</v>
-      </c>
-      <c r="AK41" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL41">
-        <v>5</v>
-      </c>
-      <c r="AM41">
-        <v>200</v>
-      </c>
-      <c r="AN41" s="2" t="s">
+      <c r="AP41" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AO41">
+      <c r="AQ41" s="70">
+        <v>0.75</v>
+      </c>
+      <c r="AR41" s="73">
+        <v>168732127</v>
+      </c>
+      <c r="AS41" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT41" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="AU41" s="69">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV41" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="AW41" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="71" t="b">
         <v>1</v>
       </c>
-      <c r="AP41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ41" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AR41" s="49">
-        <v>168732127</v>
-      </c>
-      <c r="AS41" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT41" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AU41" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV41" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AW41" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX41" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY41" s="18" t="b">
+      <c r="AY41" s="71" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="66" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C42" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="44" t="b">
         <v>0</v>
@@ -9033,15 +8959,15 @@
         <v>0.01</v>
       </c>
       <c r="AC42" s="26">
-        <v>0.08</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="AD42" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE42" s="41">
-        <v>8.72E-2</v>
-      </c>
-      <c r="AF42" s="50">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="AF42" s="26">
         <v>0.12</v>
       </c>
       <c r="AG42" t="s">
@@ -9071,7 +8997,7 @@
       <c r="AO42">
         <v>1</v>
       </c>
-      <c r="AP42" s="43" t="s">
+      <c r="AP42" s="2" t="s">
         <v>114</v>
       </c>
       <c r="AQ42" s="17">
@@ -9104,13 +9030,13 @@
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" s="66" t="s">
-        <v>406</v>
+        <v>334</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="C43" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="44" t="b">
         <v>0</v>
@@ -9188,13 +9114,13 @@
         <v>0.01</v>
       </c>
       <c r="AC43" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AD43" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE43" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>8.72E-2</v>
       </c>
       <c r="AF43" s="50">
         <v>0.12</v>
@@ -9259,13 +9185,13 @@
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A44" s="66" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="C44" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="44" t="b">
         <v>0</v>
@@ -9343,13 +9269,13 @@
         <v>0.01</v>
       </c>
       <c r="AC44" s="26">
-        <v>6.9999999999999993E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD44" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE44" s="41">
-        <v>7.7199999999999991E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF44" s="50">
         <v>0.12</v>
@@ -9414,13 +9340,13 @@
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" s="66" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="C45" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="44" t="b">
         <v>0</v>
@@ -9498,13 +9424,13 @@
         <v>0.01</v>
       </c>
       <c r="AC45" s="26">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="AD45" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE45" s="41">
-        <v>7.22E-2</v>
+        <v>7.7199999999999991E-2</v>
       </c>
       <c r="AF45" s="50">
         <v>0.12</v>
@@ -9568,198 +9494,198 @@
       </c>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B46" s="19"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="26"/>
-      <c r="V46" s="26"/>
-      <c r="Y46" s="26"/>
-      <c r="Z46" s="26"/>
-      <c r="AA46" s="26"/>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="26"/>
-      <c r="AD46" s="26"/>
-      <c r="AE46" s="41"/>
-      <c r="AF46" s="26"/>
-      <c r="AH46" s="2"/>
-      <c r="AI46" s="2"/>
-      <c r="AN46" s="2"/>
-      <c r="AP46" s="2"/>
-      <c r="AQ46" s="17"/>
-      <c r="AS46" s="2"/>
-      <c r="AT46" s="12"/>
-      <c r="AU46" s="12"/>
-      <c r="AV46" s="12"/>
-      <c r="AW46" s="18"/>
-      <c r="AX46" s="18"/>
-      <c r="AY46" s="18"/>
+      <c r="A46" s="66" t="s">
+        <v>408</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="C46" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>207</v>
+      </c>
+      <c r="F46" t="s">
+        <v>184</v>
+      </c>
+      <c r="G46">
+        <v>1000</v>
+      </c>
+      <c r="H46">
+        <v>500</v>
+      </c>
+      <c r="I46" t="s">
+        <v>109</v>
+      </c>
+      <c r="J46" t="s">
+        <v>109</v>
+      </c>
+      <c r="K46" t="s">
+        <v>204</v>
+      </c>
+      <c r="L46" t="s">
+        <v>167</v>
+      </c>
+      <c r="M46" t="s">
+        <v>211</v>
+      </c>
+      <c r="N46" t="s">
+        <v>198</v>
+      </c>
+      <c r="O46" s="26">
+        <v>0</v>
+      </c>
+      <c r="P46" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R46">
+        <v>3</v>
+      </c>
+      <c r="S46">
+        <v>75</v>
+      </c>
+      <c r="T46">
+        <v>50</v>
+      </c>
+      <c r="U46">
+        <v>60</v>
+      </c>
+      <c r="V46" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>10</v>
+      </c>
+      <c r="Y46" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z46" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA46" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB46" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC46" s="26">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AD46" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE46" s="41">
+        <v>7.22E-2</v>
+      </c>
+      <c r="AF46" s="50">
+        <v>0.12</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI46" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ46">
+        <v>30</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL46">
+        <v>5</v>
+      </c>
+      <c r="AM46">
+        <v>200</v>
+      </c>
+      <c r="AN46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO46">
+        <v>1</v>
+      </c>
+      <c r="AP46" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ46" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR46" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT46" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU46" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV46" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW46" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX46" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY46" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="66" t="s">
-        <v>351</v>
-      </c>
-      <c r="B47" s="72" t="s">
-        <v>420</v>
-      </c>
-      <c r="C47" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D47" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F47" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G47" s="66">
-        <v>1000</v>
-      </c>
-      <c r="H47" s="66">
-        <v>500</v>
-      </c>
-      <c r="I47" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J47" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="K47" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="L47" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="M47" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="N47" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="O47" s="74">
-        <v>0</v>
-      </c>
-      <c r="P47" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="74">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R47" s="66">
-        <v>3</v>
-      </c>
-      <c r="S47" s="66">
-        <v>75</v>
-      </c>
-      <c r="T47" s="66">
-        <v>50</v>
-      </c>
-      <c r="U47" s="66">
-        <v>60</v>
-      </c>
-      <c r="V47" s="74">
-        <v>0.02</v>
-      </c>
-      <c r="W47" s="66">
-        <v>0</v>
-      </c>
-      <c r="X47" s="66">
-        <v>10</v>
-      </c>
-      <c r="Y47" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="Z47" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="AA47" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="AB47" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="AC47" s="75">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD47" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE47" s="77">
-        <v>0.1222</v>
-      </c>
-      <c r="AF47" s="74">
-        <v>0.12</v>
-      </c>
-      <c r="AG47" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH47" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI47" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ47" s="66">
-        <v>30</v>
-      </c>
-      <c r="AK47" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL47" s="66">
-        <v>5</v>
-      </c>
-      <c r="AM47" s="66">
-        <v>200</v>
-      </c>
-      <c r="AN47" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO47" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP47" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ47" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="AR47" s="73">
-        <v>168732127</v>
-      </c>
-      <c r="AS47" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT47" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="AU47" s="69">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV47" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="AW47" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX47" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY47" s="71" t="b">
-        <v>0</v>
-      </c>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B47" s="19"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="26"/>
+      <c r="V47" s="26"/>
+      <c r="Y47" s="26"/>
+      <c r="Z47" s="26"/>
+      <c r="AA47" s="26"/>
+      <c r="AB47" s="26"/>
+      <c r="AC47" s="26"/>
+      <c r="AD47" s="26"/>
+      <c r="AE47" s="41"/>
+      <c r="AF47" s="26"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AN47" s="2"/>
+      <c r="AP47" s="2"/>
+      <c r="AQ47" s="17"/>
+      <c r="AS47" s="2"/>
+      <c r="AT47" s="12"/>
+      <c r="AU47" s="12"/>
+      <c r="AV47" s="12"/>
+      <c r="AW47" s="18"/>
+      <c r="AX47" s="18"/>
+      <c r="AY47" s="18"/>
     </row>
     <row r="48" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="66" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B48" s="72" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C48" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="68" t="b">
         <v>0</v>
@@ -9843,7 +9769,7 @@
         <v>156</v>
       </c>
       <c r="AE48" s="77">
-        <v>0.11219999999999999</v>
+        <v>0.1222</v>
       </c>
       <c r="AF48" s="74">
         <v>0.12</v>
@@ -9908,13 +9834,13 @@
     </row>
     <row r="49" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="66" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B49" s="72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C49" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="68" t="b">
         <v>0</v>
@@ -9998,7 +9924,7 @@
         <v>156</v>
       </c>
       <c r="AE49" s="77">
-        <v>0.1022</v>
+        <v>0.11219999999999999</v>
       </c>
       <c r="AF49" s="74">
         <v>0.12</v>
@@ -10061,170 +9987,170 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="B50" s="48" t="s">
-        <v>394</v>
+        <v>353</v>
+      </c>
+      <c r="B50" s="72" t="s">
+        <v>422</v>
       </c>
       <c r="C50" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="F50" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G50" s="66">
+        <v>1000</v>
+      </c>
+      <c r="H50" s="66">
+        <v>500</v>
+      </c>
+      <c r="I50" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="J50" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="K50" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L50" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="M50" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="N50" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="O50" s="74">
+        <v>0</v>
+      </c>
+      <c r="P50" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="74">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R50" s="66">
+        <v>3</v>
+      </c>
+      <c r="S50" s="66">
+        <v>75</v>
+      </c>
+      <c r="T50" s="66">
+        <v>50</v>
+      </c>
+      <c r="U50" s="66">
+        <v>60</v>
+      </c>
+      <c r="V50" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="W50" s="66">
+        <v>0</v>
+      </c>
+      <c r="X50" s="66">
+        <v>10</v>
+      </c>
+      <c r="Y50" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="Z50" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="AA50" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="AB50" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AC50" s="75">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD50" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE50" s="77">
+        <v>0.1022</v>
+      </c>
+      <c r="AF50" s="74">
+        <v>0.12</v>
+      </c>
+      <c r="AG50" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH50" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI50" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ50" s="66">
+        <v>30</v>
+      </c>
+      <c r="AK50" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL50" s="66">
+        <v>5</v>
+      </c>
+      <c r="AM50" s="66">
+        <v>200</v>
+      </c>
+      <c r="AN50" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO50" s="66">
         <v>1</v>
       </c>
-      <c r="D50" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>207</v>
-      </c>
-      <c r="F50" t="s">
-        <v>184</v>
-      </c>
-      <c r="G50">
-        <v>1000</v>
-      </c>
-      <c r="H50">
-        <v>500</v>
-      </c>
-      <c r="I50" t="s">
-        <v>109</v>
-      </c>
-      <c r="J50" t="s">
-        <v>109</v>
-      </c>
-      <c r="K50" t="s">
-        <v>204</v>
-      </c>
-      <c r="L50" t="s">
-        <v>167</v>
-      </c>
-      <c r="M50" t="s">
-        <v>211</v>
-      </c>
-      <c r="N50" t="s">
-        <v>198</v>
-      </c>
-      <c r="O50" s="26">
-        <v>0</v>
-      </c>
-      <c r="P50" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R50">
-        <v>3</v>
-      </c>
-      <c r="S50">
-        <v>75</v>
-      </c>
-      <c r="T50">
-        <v>50</v>
-      </c>
-      <c r="U50">
-        <v>60</v>
-      </c>
-      <c r="V50" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>10</v>
-      </c>
-      <c r="Y50" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z50" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA50" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB50" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC50" s="33">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD50" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE50" s="51">
-        <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="AF50" s="50">
-        <v>0.12</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH50" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI50" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ50">
-        <v>30</v>
-      </c>
-      <c r="AK50" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL50">
-        <v>5</v>
-      </c>
-      <c r="AM50">
-        <v>200</v>
-      </c>
-      <c r="AN50" s="2" t="s">
+      <c r="AP50" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AO50">
+      <c r="AQ50" s="70">
+        <v>0.75</v>
+      </c>
+      <c r="AR50" s="73">
+        <v>168732127</v>
+      </c>
+      <c r="AS50" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT50" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="AU50" s="69">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV50" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="AW50" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX50" s="71" t="b">
         <v>1</v>
       </c>
-      <c r="AP50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ50" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AR50" s="49">
-        <v>168732127</v>
-      </c>
-      <c r="AS50" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT50" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AU50" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV50" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AW50" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX50" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY50" s="18" t="b">
+      <c r="AY50" s="71" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" s="66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C51" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" s="44" t="b">
         <v>0</v>
@@ -10308,7 +10234,7 @@
         <v>156</v>
       </c>
       <c r="AE51" s="51">
-        <v>8.72E-2</v>
+        <v>9.2200000000000004E-2</v>
       </c>
       <c r="AF51" s="50">
         <v>0.12</v>
@@ -10340,7 +10266,7 @@
       <c r="AO51">
         <v>1</v>
       </c>
-      <c r="AP51" s="43" t="s">
+      <c r="AP51" s="2" t="s">
         <v>114</v>
       </c>
       <c r="AQ51" s="17">
@@ -10373,13 +10299,13 @@
     </row>
     <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52" s="66" t="s">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="C52" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="44" t="b">
         <v>0</v>
@@ -10463,7 +10389,7 @@
         <v>156</v>
       </c>
       <c r="AE52" s="51">
-        <v>8.2199999999999995E-2</v>
+        <v>8.72E-2</v>
       </c>
       <c r="AF52" s="50">
         <v>0.12</v>
@@ -10528,13 +10454,13 @@
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" s="66" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="C53" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="44" t="b">
         <v>0</v>
@@ -10618,7 +10544,7 @@
         <v>156</v>
       </c>
       <c r="AE53" s="51">
-        <v>7.7199999999999991E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF53" s="50">
         <v>0.12</v>
@@ -10683,13 +10609,13 @@
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" s="66" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B54" s="48" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="C54" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="44" t="b">
         <v>0</v>
@@ -10773,7 +10699,7 @@
         <v>156</v>
       </c>
       <c r="AE54" s="51">
-        <v>7.22E-2</v>
+        <v>7.7199999999999991E-2</v>
       </c>
       <c r="AF54" s="50">
         <v>0.12</v>
@@ -10836,35 +10762,160 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="72"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68"/>
-      <c r="O55" s="74"/>
-      <c r="P55" s="71"/>
-      <c r="Q55" s="74"/>
-      <c r="V55" s="74"/>
-      <c r="Y55" s="74"/>
-      <c r="Z55" s="74"/>
-      <c r="AA55" s="74"/>
-      <c r="AB55" s="74"/>
-      <c r="AC55" s="75"/>
-      <c r="AD55" s="74"/>
-      <c r="AE55" s="77"/>
-      <c r="AF55" s="74"/>
-      <c r="AH55" s="67"/>
-      <c r="AI55" s="67"/>
-      <c r="AN55" s="67"/>
-      <c r="AP55" s="67"/>
-      <c r="AQ55" s="70"/>
-      <c r="AR55" s="73"/>
-      <c r="AS55" s="67"/>
-      <c r="AT55" s="69"/>
-      <c r="AU55" s="69"/>
-      <c r="AV55" s="69"/>
-      <c r="AW55" s="71"/>
-      <c r="AX55" s="71"/>
-      <c r="AY55" s="71"/>
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A55" s="66" t="s">
+        <v>411</v>
+      </c>
+      <c r="B55" s="48" t="s">
+        <v>396</v>
+      </c>
+      <c r="C55" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>207</v>
+      </c>
+      <c r="F55" t="s">
+        <v>184</v>
+      </c>
+      <c r="G55">
+        <v>1000</v>
+      </c>
+      <c r="H55">
+        <v>500</v>
+      </c>
+      <c r="I55" t="s">
+        <v>109</v>
+      </c>
+      <c r="J55" t="s">
+        <v>109</v>
+      </c>
+      <c r="K55" t="s">
+        <v>204</v>
+      </c>
+      <c r="L55" t="s">
+        <v>167</v>
+      </c>
+      <c r="M55" t="s">
+        <v>211</v>
+      </c>
+      <c r="N55" t="s">
+        <v>198</v>
+      </c>
+      <c r="O55" s="26">
+        <v>0</v>
+      </c>
+      <c r="P55" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R55">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <v>75</v>
+      </c>
+      <c r="T55">
+        <v>50</v>
+      </c>
+      <c r="U55">
+        <v>60</v>
+      </c>
+      <c r="V55" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>10</v>
+      </c>
+      <c r="Y55" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z55" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA55" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB55" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC55" s="33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD55" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE55" s="51">
+        <v>7.22E-2</v>
+      </c>
+      <c r="AF55" s="50">
+        <v>0.12</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI55" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ55">
+        <v>30</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL55">
+        <v>5</v>
+      </c>
+      <c r="AM55">
+        <v>200</v>
+      </c>
+      <c r="AN55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO55">
+        <v>1</v>
+      </c>
+      <c r="AP55" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ55" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR55" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT55" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU55" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV55" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW55" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX55" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY55" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="72"/>
@@ -10896,198 +10947,76 @@
       <c r="AX56" s="71"/>
       <c r="AY56" s="71"/>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C57" s="11"/>
-      <c r="D57" s="44"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="26"/>
-      <c r="V57" s="26"/>
-      <c r="Y57" s="26"/>
-      <c r="Z57" s="26"/>
-      <c r="AA57" s="26"/>
-      <c r="AB57" s="26"/>
-      <c r="AC57" s="86"/>
-      <c r="AD57" s="86"/>
-      <c r="AE57" s="87"/>
-      <c r="AF57" s="86"/>
-      <c r="AH57" s="2"/>
-      <c r="AI57" s="2"/>
-      <c r="AN57" s="2"/>
-      <c r="AP57" s="2"/>
-      <c r="AQ57" s="17"/>
-      <c r="AS57" s="2"/>
-      <c r="AT57" s="12"/>
-      <c r="AU57" s="12"/>
-      <c r="AV57" s="12"/>
-      <c r="AW57" s="18"/>
-      <c r="AX57" s="18"/>
-      <c r="AY57" s="18"/>
+    <row r="57" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="72"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="O57" s="74"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="74"/>
+      <c r="V57" s="74"/>
+      <c r="Y57" s="74"/>
+      <c r="Z57" s="74"/>
+      <c r="AA57" s="74"/>
+      <c r="AB57" s="74"/>
+      <c r="AC57" s="75"/>
+      <c r="AD57" s="74"/>
+      <c r="AE57" s="77"/>
+      <c r="AF57" s="74"/>
+      <c r="AH57" s="67"/>
+      <c r="AI57" s="67"/>
+      <c r="AN57" s="67"/>
+      <c r="AP57" s="67"/>
+      <c r="AQ57" s="70"/>
+      <c r="AR57" s="73"/>
+      <c r="AS57" s="67"/>
+      <c r="AT57" s="69"/>
+      <c r="AU57" s="69"/>
+      <c r="AV57" s="69"/>
+      <c r="AW57" s="71"/>
+      <c r="AX57" s="71"/>
+      <c r="AY57" s="71"/>
     </row>
-    <row r="58" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="66" t="s">
-        <v>423</v>
-      </c>
-      <c r="B58" s="72" t="s">
-        <v>431</v>
-      </c>
-      <c r="C58" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D58" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F58" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G58" s="66">
-        <v>1000</v>
-      </c>
-      <c r="H58" s="66">
-        <v>500</v>
-      </c>
-      <c r="I58" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J58" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="K58" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="L58" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="M58" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="N58" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="O58" s="74">
-        <v>0</v>
-      </c>
-      <c r="P58" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="74">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R58" s="66">
-        <v>3</v>
-      </c>
-      <c r="S58" s="66">
-        <v>75</v>
-      </c>
-      <c r="T58" s="66">
-        <v>50</v>
-      </c>
-      <c r="U58" s="66">
-        <v>60</v>
-      </c>
-      <c r="V58" s="74">
-        <v>0.02</v>
-      </c>
-      <c r="W58" s="66">
-        <v>0</v>
-      </c>
-      <c r="X58" s="66">
-        <v>10</v>
-      </c>
-      <c r="Y58" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="Z58" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="AA58" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="AB58" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="AC58" s="88">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD58" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE58" s="88">
-        <v>7.5157231635036972E-2</v>
-      </c>
-      <c r="AF58" s="90">
-        <v>1.7733112250080365E-2</v>
-      </c>
-      <c r="AG58" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH58" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI58" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ58" s="66">
-        <v>30</v>
-      </c>
-      <c r="AK58" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL58" s="66">
-        <v>5</v>
-      </c>
-      <c r="AM58" s="66">
-        <v>200</v>
-      </c>
-      <c r="AN58" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO58" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP58" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ58" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="AR58" s="73">
-        <v>168732127</v>
-      </c>
-      <c r="AS58" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT58" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="AU58" s="69">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV58" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="AW58" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX58" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY58" s="71" t="b">
-        <v>0</v>
-      </c>
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B58" s="99" t="s">
+        <v>465</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="44"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="26"/>
+      <c r="V58" s="26"/>
+      <c r="Y58" s="26"/>
+      <c r="Z58" s="26"/>
+      <c r="AA58" s="26"/>
+      <c r="AB58" s="26"/>
+      <c r="AC58" s="86"/>
+      <c r="AD58" s="86"/>
+      <c r="AE58" s="87"/>
+      <c r="AF58" s="86"/>
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="2"/>
+      <c r="AN58" s="2"/>
+      <c r="AP58" s="2"/>
+      <c r="AQ58" s="17"/>
+      <c r="AS58" s="2"/>
+      <c r="AT58" s="12"/>
+      <c r="AU58" s="12"/>
+      <c r="AV58" s="12"/>
+      <c r="AW58" s="18"/>
+      <c r="AX58" s="18"/>
+      <c r="AY58" s="18"/>
     </row>
     <row r="59" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="66" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" s="72" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C59" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="68" t="b">
         <v>0</v>
@@ -11164,16 +11093,16 @@
       <c r="AB59" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC59" s="89">
-        <v>6.5000000000000002E-2</v>
+      <c r="AC59" s="88">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD59" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE59" s="89">
-        <v>6.5157231635036977E-2</v>
-      </c>
-      <c r="AF59" s="91">
+      <c r="AE59" s="88">
+        <v>7.5157231635036972E-2</v>
+      </c>
+      <c r="AF59" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG59" s="66" t="s">
@@ -11236,13 +11165,13 @@
     </row>
     <row r="60" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="66" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B60" s="72" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C60" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" s="68" t="b">
         <v>0</v>
@@ -11320,13 +11249,13 @@
         <v>0.01</v>
       </c>
       <c r="AC60" s="89">
-        <v>5.4999999999999993E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AD60" s="86" t="s">
         <v>156</v>
       </c>
       <c r="AE60" s="89">
-        <v>5.5157231635036968E-2</v>
+        <v>6.5157231635036977E-2</v>
       </c>
       <c r="AF60" s="91">
         <v>1.7733112250080365E-2</v>
@@ -11391,13 +11320,13 @@
     </row>
     <row r="61" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="66" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B61" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C61" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="68" t="b">
         <v>0</v>
@@ -11475,13 +11404,13 @@
         <v>0.01</v>
       </c>
       <c r="AC61" s="89">
-        <v>4.4999999999999991E-2</v>
+        <v>5.4999999999999993E-2</v>
       </c>
       <c r="AD61" s="86" t="s">
         <v>156</v>
       </c>
       <c r="AE61" s="89">
-        <v>4.5157231635036967E-2</v>
+        <v>5.5157231635036968E-2</v>
       </c>
       <c r="AF61" s="91">
         <v>1.7733112250080365E-2</v>
@@ -11546,13 +11475,13 @@
     </row>
     <row r="62" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B62" s="72" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C62" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="68" t="b">
         <v>0</v>
@@ -11630,13 +11559,13 @@
         <v>0.01</v>
       </c>
       <c r="AC62" s="89">
-        <v>0.04</v>
+        <v>4.4999999999999991E-2</v>
       </c>
       <c r="AD62" s="86" t="s">
         <v>156</v>
       </c>
       <c r="AE62" s="89">
-        <v>4.02E-2</v>
+        <v>4.5157231635036967E-2</v>
       </c>
       <c r="AF62" s="91">
         <v>1.7733112250080365E-2</v>
@@ -11701,13 +11630,13 @@
     </row>
     <row r="63" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="66" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B63" s="72" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C63" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="68" t="b">
         <v>0</v>
@@ -11784,16 +11713,16 @@
       <c r="AB63" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC63" s="88">
-        <v>3.4999999999999989E-2</v>
+      <c r="AC63" s="89">
+        <v>0.04</v>
       </c>
       <c r="AD63" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE63" s="88">
-        <v>3.5157231635036965E-2</v>
-      </c>
-      <c r="AF63" s="90">
+      <c r="AE63" s="89">
+        <v>4.02E-2</v>
+      </c>
+      <c r="AF63" s="91">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG63" s="66" t="s">
@@ -11856,13 +11785,13 @@
     </row>
     <row r="64" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="66" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B64" s="72" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C64" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="68" t="b">
         <v>0</v>
@@ -11939,16 +11868,16 @@
       <c r="AB64" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC64" s="89">
-        <v>2.9999999999999992E-2</v>
+      <c r="AC64" s="88">
+        <v>3.4999999999999989E-2</v>
       </c>
       <c r="AD64" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE64" s="89">
-        <v>3.0157231635036967E-2</v>
-      </c>
-      <c r="AF64" s="91">
+      <c r="AE64" s="88">
+        <v>3.5157231635036965E-2</v>
+      </c>
+      <c r="AF64" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG64" s="66" t="s">
@@ -12011,13 +11940,13 @@
     </row>
     <row r="65" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="66" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B65" s="72" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C65" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="68" t="b">
         <v>0</v>
@@ -12095,13 +12024,13 @@
         <v>0.01</v>
       </c>
       <c r="AC65" s="89">
-        <v>2.4999999999999994E-2</v>
+        <v>2.9999999999999992E-2</v>
       </c>
       <c r="AD65" s="86" t="s">
         <v>156</v>
       </c>
       <c r="AE65" s="89">
-        <v>2.515723163503697E-2</v>
+        <v>3.0157231635036967E-2</v>
       </c>
       <c r="AF65" s="91">
         <v>1.7733112250080365E-2</v>
@@ -12165,539 +12094,416 @@
       </c>
     </row>
     <row r="66" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="72"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="O66" s="74"/>
-      <c r="P66" s="71"/>
-      <c r="Q66" s="74"/>
-      <c r="V66" s="74"/>
-      <c r="Y66" s="74"/>
-      <c r="Z66" s="74"/>
-      <c r="AA66" s="74"/>
-      <c r="AB66" s="74"/>
-      <c r="AC66" s="89"/>
-      <c r="AD66" s="86"/>
-      <c r="AE66" s="89"/>
-      <c r="AF66" s="91"/>
-      <c r="AH66" s="67"/>
-      <c r="AI66" s="67"/>
-      <c r="AN66" s="67"/>
-      <c r="AP66" s="67"/>
-      <c r="AQ66" s="70"/>
-      <c r="AR66" s="73"/>
-      <c r="AS66" s="67"/>
-      <c r="AT66" s="69"/>
-      <c r="AU66" s="69"/>
-      <c r="AV66" s="69"/>
-      <c r="AW66" s="71"/>
-      <c r="AX66" s="71"/>
-      <c r="AY66" s="71"/>
+      <c r="A66" s="66" t="s">
+        <v>430</v>
+      </c>
+      <c r="B66" s="72" t="s">
+        <v>437</v>
+      </c>
+      <c r="C66" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="F66" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G66" s="66">
+        <v>1000</v>
+      </c>
+      <c r="H66" s="66">
+        <v>500</v>
+      </c>
+      <c r="I66" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="J66" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="K66" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L66" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="M66" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="N66" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="O66" s="74">
+        <v>0</v>
+      </c>
+      <c r="P66" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="74">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R66" s="66">
+        <v>3</v>
+      </c>
+      <c r="S66" s="66">
+        <v>75</v>
+      </c>
+      <c r="T66" s="66">
+        <v>50</v>
+      </c>
+      <c r="U66" s="66">
+        <v>60</v>
+      </c>
+      <c r="V66" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="W66" s="66">
+        <v>0</v>
+      </c>
+      <c r="X66" s="66">
+        <v>10</v>
+      </c>
+      <c r="Y66" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="Z66" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="AA66" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="AB66" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AC66" s="89">
+        <v>2.4999999999999994E-2</v>
+      </c>
+      <c r="AD66" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE66" s="89">
+        <v>2.515723163503697E-2</v>
+      </c>
+      <c r="AF66" s="91">
+        <v>1.7733112250080365E-2</v>
+      </c>
+      <c r="AG66" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH66" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI66" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ66" s="66">
+        <v>30</v>
+      </c>
+      <c r="AK66" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL66" s="66">
+        <v>5</v>
+      </c>
+      <c r="AM66" s="66">
+        <v>200</v>
+      </c>
+      <c r="AN66" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO66" s="66">
+        <v>1</v>
+      </c>
+      <c r="AP66" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ66" s="70">
+        <v>0.75</v>
+      </c>
+      <c r="AR66" s="73">
+        <v>168732127</v>
+      </c>
+      <c r="AS66" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT66" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="AU66" s="69">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV66" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="AW66" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX66" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY66" s="71" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="66" t="s">
-        <v>454</v>
-      </c>
-      <c r="B67" s="72" t="s">
-        <v>455</v>
-      </c>
-      <c r="C67" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D67" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E67" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F67" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G67" s="66">
-        <v>1000</v>
-      </c>
-      <c r="H67" s="66">
-        <v>500</v>
-      </c>
-      <c r="I67" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J67" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="K67" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="L67" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="M67" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="N67" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="O67" s="74">
-        <v>0</v>
-      </c>
-      <c r="P67" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="74">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R67" s="66">
-        <v>3</v>
-      </c>
-      <c r="S67" s="66">
-        <v>75</v>
-      </c>
-      <c r="T67" s="66">
-        <v>50</v>
-      </c>
-      <c r="U67" s="66">
-        <v>60</v>
-      </c>
-      <c r="V67" s="74">
-        <v>0.02</v>
-      </c>
-      <c r="W67" s="66">
-        <v>0</v>
-      </c>
-      <c r="X67" s="66">
-        <v>10</v>
-      </c>
-      <c r="Y67" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="Z67" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="AA67" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="AB67" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="AC67" s="88">
-        <v>3.4999999999999989E-2</v>
-      </c>
-      <c r="AD67" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE67" s="88">
-        <v>3.5157231635036965E-2</v>
-      </c>
-      <c r="AF67" s="90">
-        <v>1.7733112250080365E-2</v>
-      </c>
-      <c r="AG67" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH67" s="67" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI67" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ67" s="66">
-        <v>15</v>
-      </c>
-      <c r="AK67" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL67" s="66">
-        <v>5</v>
-      </c>
-      <c r="AM67" s="66">
-        <v>200</v>
-      </c>
-      <c r="AN67" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO67" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP67" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ67" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="AR67" s="73">
-        <v>168732127</v>
-      </c>
-      <c r="AS67" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT67" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="AU67" s="69">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV67" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="AW67" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX67" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY67" s="71" t="b">
-        <v>0</v>
-      </c>
+      <c r="B67" s="72"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
+      <c r="O67" s="74"/>
+      <c r="P67" s="71"/>
+      <c r="Q67" s="74"/>
+      <c r="V67" s="74"/>
+      <c r="Y67" s="74"/>
+      <c r="Z67" s="74"/>
+      <c r="AA67" s="74"/>
+      <c r="AB67" s="74"/>
+      <c r="AC67" s="89"/>
+      <c r="AD67" s="86"/>
+      <c r="AE67" s="89"/>
+      <c r="AF67" s="91"/>
+      <c r="AH67" s="67"/>
+      <c r="AI67" s="67"/>
+      <c r="AN67" s="67"/>
+      <c r="AP67" s="67"/>
+      <c r="AQ67" s="70"/>
+      <c r="AR67" s="73"/>
+      <c r="AS67" s="67"/>
+      <c r="AT67" s="69"/>
+      <c r="AU67" s="69"/>
+      <c r="AV67" s="69"/>
+      <c r="AW67" s="71"/>
+      <c r="AX67" s="71"/>
+      <c r="AY67" s="71"/>
     </row>
     <row r="68" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="72"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="68"/>
-      <c r="O68" s="74"/>
-      <c r="P68" s="71"/>
-      <c r="Q68" s="74"/>
-      <c r="V68" s="74"/>
-      <c r="Y68" s="74"/>
-      <c r="Z68" s="74"/>
-      <c r="AA68" s="74"/>
-      <c r="AB68" s="74"/>
-      <c r="AC68" s="75"/>
-      <c r="AD68" s="74"/>
-      <c r="AE68" s="77"/>
-      <c r="AF68" s="74"/>
-      <c r="AH68" s="67"/>
-      <c r="AI68" s="67"/>
-      <c r="AN68" s="67"/>
-      <c r="AP68" s="67"/>
-      <c r="AQ68" s="70"/>
-      <c r="AR68" s="73"/>
-      <c r="AS68" s="67"/>
-      <c r="AT68" s="69"/>
-      <c r="AU68" s="69"/>
-      <c r="AV68" s="69"/>
-      <c r="AW68" s="71"/>
-      <c r="AX68" s="71"/>
-      <c r="AY68" s="71"/>
+      <c r="A68" s="66" t="s">
+        <v>454</v>
+      </c>
+      <c r="B68" s="72" t="s">
+        <v>455</v>
+      </c>
+      <c r="C68" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="F68" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G68" s="66">
+        <v>1000</v>
+      </c>
+      <c r="H68" s="66">
+        <v>500</v>
+      </c>
+      <c r="I68" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="J68" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="K68" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L68" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="M68" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="N68" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="O68" s="74">
+        <v>0</v>
+      </c>
+      <c r="P68" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="74">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R68" s="66">
+        <v>3</v>
+      </c>
+      <c r="S68" s="66">
+        <v>75</v>
+      </c>
+      <c r="T68" s="66">
+        <v>50</v>
+      </c>
+      <c r="U68" s="66">
+        <v>60</v>
+      </c>
+      <c r="V68" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="W68" s="66">
+        <v>0</v>
+      </c>
+      <c r="X68" s="66">
+        <v>10</v>
+      </c>
+      <c r="Y68" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="Z68" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="AA68" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="AB68" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AC68" s="88">
+        <v>3.4999999999999989E-2</v>
+      </c>
+      <c r="AD68" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE68" s="88">
+        <v>3.5157231635036965E-2</v>
+      </c>
+      <c r="AF68" s="90">
+        <v>1.7733112250080365E-2</v>
+      </c>
+      <c r="AG68" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH68" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI68" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ68" s="66">
+        <v>15</v>
+      </c>
+      <c r="AK68" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL68" s="66">
+        <v>5</v>
+      </c>
+      <c r="AM68" s="66">
+        <v>200</v>
+      </c>
+      <c r="AN68" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO68" s="66">
+        <v>1</v>
+      </c>
+      <c r="AP68" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ68" s="70">
+        <v>0.75</v>
+      </c>
+      <c r="AR68" s="73">
+        <v>168732127</v>
+      </c>
+      <c r="AS68" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT68" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="AU68" s="69">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV68" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="AW68" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX68" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY68" s="71" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="66" t="s">
-        <v>439</v>
-      </c>
-      <c r="B69" s="72" t="s">
-        <v>431</v>
-      </c>
-      <c r="C69" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D69" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E69" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F69" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G69" s="66">
-        <v>1000</v>
-      </c>
-      <c r="H69" s="66">
-        <v>500</v>
-      </c>
-      <c r="I69" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J69" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="K69" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="L69" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="M69" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="N69" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="O69" s="74">
-        <v>0</v>
-      </c>
-      <c r="P69" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="74">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R69" s="66">
-        <v>3</v>
-      </c>
-      <c r="S69" s="66">
-        <v>75</v>
-      </c>
-      <c r="T69" s="66">
-        <v>50</v>
-      </c>
-      <c r="U69" s="66">
-        <v>60</v>
-      </c>
-      <c r="V69" s="74">
-        <v>0.02</v>
-      </c>
-      <c r="W69" s="66">
-        <v>0</v>
-      </c>
-      <c r="X69" s="66">
-        <v>10</v>
-      </c>
-      <c r="Y69" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="Z69" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="AA69" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="AB69" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="AC69" s="88">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD69" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE69" s="88">
-        <v>7.5157231635036972E-2</v>
-      </c>
-      <c r="AF69" s="90">
-        <v>1.7733112250080365E-2</v>
-      </c>
-      <c r="AG69" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH69" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI69" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ69" s="66">
-        <v>30</v>
-      </c>
-      <c r="AK69" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL69" s="66">
-        <v>5</v>
-      </c>
-      <c r="AM69" s="66">
-        <v>200</v>
-      </c>
-      <c r="AN69" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO69" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP69" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ69" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="AR69" s="73">
-        <v>168732127</v>
-      </c>
-      <c r="AS69" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT69" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="AU69" s="69">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV69" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="AW69" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX69" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY69" s="71" t="b">
-        <v>0</v>
-      </c>
+      <c r="B69" s="72"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="68"/>
+      <c r="O69" s="74"/>
+      <c r="P69" s="71"/>
+      <c r="Q69" s="74"/>
+      <c r="V69" s="74"/>
+      <c r="Y69" s="74"/>
+      <c r="Z69" s="74"/>
+      <c r="AA69" s="74"/>
+      <c r="AB69" s="74"/>
+      <c r="AC69" s="88"/>
+      <c r="AD69" s="86"/>
+      <c r="AE69" s="88"/>
+      <c r="AF69" s="90"/>
+      <c r="AH69" s="67"/>
+      <c r="AI69" s="67"/>
+      <c r="AN69" s="67"/>
+      <c r="AP69" s="67"/>
+      <c r="AQ69" s="70"/>
+      <c r="AR69" s="73"/>
+      <c r="AS69" s="67"/>
+      <c r="AT69" s="69"/>
+      <c r="AU69" s="69"/>
+      <c r="AV69" s="69"/>
+      <c r="AW69" s="71"/>
+      <c r="AX69" s="71"/>
+      <c r="AY69" s="71"/>
     </row>
     <row r="70" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="66" t="s">
-        <v>440</v>
-      </c>
-      <c r="B70" s="72" t="s">
-        <v>447</v>
-      </c>
-      <c r="C70" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D70" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E70" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F70" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G70" s="66">
-        <v>1000</v>
-      </c>
-      <c r="H70" s="66">
-        <v>500</v>
-      </c>
-      <c r="I70" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J70" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="K70" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="L70" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="M70" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="N70" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="O70" s="74">
-        <v>0</v>
-      </c>
-      <c r="P70" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="74">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R70" s="66">
-        <v>3</v>
-      </c>
-      <c r="S70" s="66">
-        <v>75</v>
-      </c>
-      <c r="T70" s="66">
-        <v>50</v>
-      </c>
-      <c r="U70" s="66">
-        <v>60</v>
-      </c>
-      <c r="V70" s="74">
-        <v>0.02</v>
-      </c>
-      <c r="W70" s="66">
-        <v>0</v>
-      </c>
-      <c r="X70" s="66">
-        <v>10</v>
-      </c>
-      <c r="Y70" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="Z70" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="AA70" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="AB70" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="AC70" s="88">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD70" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE70" s="89">
-        <v>6.5157231635036977E-2</v>
-      </c>
-      <c r="AF70" s="91">
-        <v>1.7733112250080365E-2</v>
-      </c>
-      <c r="AG70" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH70" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI70" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ70" s="66">
-        <v>30</v>
-      </c>
-      <c r="AK70" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL70" s="66">
-        <v>5</v>
-      </c>
-      <c r="AM70" s="66">
-        <v>200</v>
-      </c>
-      <c r="AN70" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO70" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP70" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ70" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="AR70" s="73">
-        <v>168732127</v>
-      </c>
-      <c r="AS70" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT70" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="AU70" s="69">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV70" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="AW70" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX70" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY70" s="71" t="b">
-        <v>0</v>
-      </c>
+      <c r="B70" s="99" t="s">
+        <v>464</v>
+      </c>
+      <c r="C70" s="68"/>
+      <c r="D70" s="68"/>
+      <c r="O70" s="74"/>
+      <c r="P70" s="71"/>
+      <c r="Q70" s="74"/>
+      <c r="V70" s="74"/>
+      <c r="Y70" s="74"/>
+      <c r="Z70" s="74"/>
+      <c r="AA70" s="74"/>
+      <c r="AB70" s="74"/>
+      <c r="AC70" s="75"/>
+      <c r="AD70" s="74"/>
+      <c r="AE70" s="77"/>
+      <c r="AF70" s="74"/>
+      <c r="AH70" s="67"/>
+      <c r="AI70" s="67"/>
+      <c r="AN70" s="67"/>
+      <c r="AP70" s="67"/>
+      <c r="AQ70" s="70"/>
+      <c r="AR70" s="73"/>
+      <c r="AS70" s="67"/>
+      <c r="AT70" s="69"/>
+      <c r="AU70" s="69"/>
+      <c r="AV70" s="69"/>
+      <c r="AW70" s="71"/>
+      <c r="AX70" s="71"/>
+      <c r="AY70" s="71"/>
     </row>
     <row r="71" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="66" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B71" s="72" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="C71" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" s="68" t="b">
         <v>0</v>
@@ -12780,10 +12586,10 @@
       <c r="AD71" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE71" s="89">
-        <v>5.5157231635036968E-2</v>
-      </c>
-      <c r="AF71" s="91">
+      <c r="AE71" s="88">
+        <v>7.5157231635036972E-2</v>
+      </c>
+      <c r="AF71" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG71" s="66" t="s">
@@ -12846,13 +12652,13 @@
     </row>
     <row r="72" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="66" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B72" s="72" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C72" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" s="68" t="b">
         <v>0</v>
@@ -12936,7 +12742,7 @@
         <v>156</v>
       </c>
       <c r="AE72" s="89">
-        <v>4.5157231635036967E-2</v>
+        <v>6.5157231635036977E-2</v>
       </c>
       <c r="AF72" s="91">
         <v>1.7733112250080365E-2</v>
@@ -13001,13 +12807,13 @@
     </row>
     <row r="73" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="66" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B73" s="72" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C73" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" s="68" t="b">
         <v>0</v>
@@ -13091,7 +12897,7 @@
         <v>156</v>
       </c>
       <c r="AE73" s="89">
-        <v>4.02E-2</v>
+        <v>5.5157231635036968E-2</v>
       </c>
       <c r="AF73" s="91">
         <v>1.7733112250080365E-2</v>
@@ -13156,13 +12962,13 @@
     </row>
     <row r="74" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="66" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B74" s="72" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C74" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" s="68" t="b">
         <v>0</v>
@@ -13245,10 +13051,10 @@
       <c r="AD74" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE74" s="88">
-        <v>3.5157231635036965E-2</v>
-      </c>
-      <c r="AF74" s="90">
+      <c r="AE74" s="89">
+        <v>4.5157231635036967E-2</v>
+      </c>
+      <c r="AF74" s="91">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG74" s="66" t="s">
@@ -13311,13 +13117,13 @@
     </row>
     <row r="75" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="66" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B75" s="72" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C75" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" s="68" t="b">
         <v>0</v>
@@ -13401,7 +13207,7 @@
         <v>156</v>
       </c>
       <c r="AE75" s="89">
-        <v>3.0157231635036967E-2</v>
+        <v>4.02E-2</v>
       </c>
       <c r="AF75" s="91">
         <v>1.7733112250080365E-2</v>
@@ -13466,13 +13272,13 @@
     </row>
     <row r="76" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="66" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B76" s="72" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C76" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" s="68" t="b">
         <v>0</v>
@@ -13555,10 +13361,10 @@
       <c r="AD76" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="AE76" s="89">
-        <v>2.515723163503697E-2</v>
-      </c>
-      <c r="AF76" s="91">
+      <c r="AE76" s="88">
+        <v>3.5157231635036965E-2</v>
+      </c>
+      <c r="AF76" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG76" s="66" t="s">
@@ -13620,509 +13426,386 @@
       </c>
     </row>
     <row r="77" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="72"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="68"/>
-      <c r="O77" s="74"/>
-      <c r="P77" s="71"/>
-      <c r="Q77" s="74"/>
-      <c r="V77" s="74"/>
-      <c r="Y77" s="74"/>
-      <c r="Z77" s="74"/>
-      <c r="AA77" s="74"/>
-      <c r="AB77" s="74"/>
-      <c r="AC77" s="75"/>
-      <c r="AD77" s="74"/>
-      <c r="AE77" s="77"/>
-      <c r="AF77" s="74"/>
-      <c r="AH77" s="67"/>
-      <c r="AI77" s="67"/>
-      <c r="AN77" s="67"/>
-      <c r="AP77" s="67"/>
-      <c r="AQ77" s="70"/>
-      <c r="AR77" s="73"/>
-      <c r="AS77" s="67"/>
-      <c r="AT77" s="69"/>
-      <c r="AU77" s="69"/>
-      <c r="AV77" s="69"/>
-      <c r="AW77" s="71"/>
-      <c r="AX77" s="71"/>
-      <c r="AY77" s="71"/>
+      <c r="A77" s="66" t="s">
+        <v>445</v>
+      </c>
+      <c r="B77" s="72" t="s">
+        <v>452</v>
+      </c>
+      <c r="C77" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="F77" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G77" s="66">
+        <v>1000</v>
+      </c>
+      <c r="H77" s="66">
+        <v>500</v>
+      </c>
+      <c r="I77" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="J77" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="K77" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L77" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="M77" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="N77" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="O77" s="74">
+        <v>0</v>
+      </c>
+      <c r="P77" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="74">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R77" s="66">
+        <v>3</v>
+      </c>
+      <c r="S77" s="66">
+        <v>75</v>
+      </c>
+      <c r="T77" s="66">
+        <v>50</v>
+      </c>
+      <c r="U77" s="66">
+        <v>60</v>
+      </c>
+      <c r="V77" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="W77" s="66">
+        <v>0</v>
+      </c>
+      <c r="X77" s="66">
+        <v>10</v>
+      </c>
+      <c r="Y77" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="Z77" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="AA77" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="AB77" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AC77" s="88">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD77" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE77" s="89">
+        <v>3.0157231635036967E-2</v>
+      </c>
+      <c r="AF77" s="91">
+        <v>1.7733112250080365E-2</v>
+      </c>
+      <c r="AG77" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH77" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI77" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ77" s="66">
+        <v>30</v>
+      </c>
+      <c r="AK77" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL77" s="66">
+        <v>5</v>
+      </c>
+      <c r="AM77" s="66">
+        <v>200</v>
+      </c>
+      <c r="AN77" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO77" s="66">
+        <v>1</v>
+      </c>
+      <c r="AP77" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ77" s="70">
+        <v>0.75</v>
+      </c>
+      <c r="AR77" s="73">
+        <v>168732127</v>
+      </c>
+      <c r="AS77" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT77" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="AU77" s="69">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV77" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="AW77" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX77" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY77" s="71" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="B78" s="48" t="s">
-        <v>365</v>
-      </c>
-      <c r="C78" s="44" t="b">
+    <row r="78" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="66" t="s">
+        <v>446</v>
+      </c>
+      <c r="B78" s="72" t="s">
+        <v>453</v>
+      </c>
+      <c r="C78" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="F78" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G78" s="66">
+        <v>1000</v>
+      </c>
+      <c r="H78" s="66">
+        <v>500</v>
+      </c>
+      <c r="I78" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="J78" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="K78" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L78" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="M78" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="N78" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="O78" s="74">
+        <v>0</v>
+      </c>
+      <c r="P78" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="74">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R78" s="66">
+        <v>3</v>
+      </c>
+      <c r="S78" s="66">
+        <v>75</v>
+      </c>
+      <c r="T78" s="66">
+        <v>50</v>
+      </c>
+      <c r="U78" s="66">
+        <v>60</v>
+      </c>
+      <c r="V78" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="W78" s="66">
+        <v>0</v>
+      </c>
+      <c r="X78" s="66">
+        <v>10</v>
+      </c>
+      <c r="Y78" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="Z78" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="AA78" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="AB78" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AC78" s="88">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD78" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE78" s="89">
+        <v>2.515723163503697E-2</v>
+      </c>
+      <c r="AF78" s="91">
+        <v>1.7733112250080365E-2</v>
+      </c>
+      <c r="AG78" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH78" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI78" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ78" s="66">
+        <v>30</v>
+      </c>
+      <c r="AK78" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL78" s="66">
+        <v>5</v>
+      </c>
+      <c r="AM78" s="66">
+        <v>200</v>
+      </c>
+      <c r="AN78" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO78" s="66">
         <v>1</v>
       </c>
-      <c r="D78" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="F78" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G78" s="42">
-        <v>1000</v>
-      </c>
-      <c r="H78" s="42">
-        <v>500</v>
-      </c>
-      <c r="I78" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J78" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="K78" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="L78" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="M78" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="N78" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="O78" s="50">
-        <v>0</v>
-      </c>
-      <c r="P78" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="50">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R78" s="42">
-        <v>3</v>
-      </c>
-      <c r="S78" s="42">
-        <v>75</v>
-      </c>
-      <c r="T78" s="42">
-        <v>50</v>
-      </c>
-      <c r="U78" s="42">
-        <v>60</v>
-      </c>
-      <c r="V78" s="50">
-        <v>0.02</v>
-      </c>
-      <c r="W78" s="42">
-        <v>0</v>
-      </c>
-      <c r="X78" s="42">
-        <v>10</v>
-      </c>
-      <c r="Y78" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="Z78" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="AA78" s="50">
-        <v>0.03</v>
-      </c>
-      <c r="AB78" s="50">
-        <v>0.01</v>
-      </c>
-      <c r="AC78" s="33">
-        <v>4.4234404536862004E-2</v>
-      </c>
-      <c r="AD78" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE78" s="51">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="AF78" s="24">
-        <v>3.9130434782608692E-2</v>
-      </c>
-      <c r="AG78" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH78" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI78" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ78" s="42">
-        <v>30</v>
-      </c>
-      <c r="AK78" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL78" s="42">
-        <v>5</v>
-      </c>
-      <c r="AM78" s="42">
-        <v>200</v>
-      </c>
-      <c r="AN78" s="43" t="s">
+      <c r="AP78" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AO78" s="42">
+      <c r="AQ78" s="70">
+        <v>0.75</v>
+      </c>
+      <c r="AR78" s="73">
+        <v>168732127</v>
+      </c>
+      <c r="AS78" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT78" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="AU78" s="69">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV78" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="AW78" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX78" s="71" t="b">
         <v>1</v>
       </c>
-      <c r="AP78" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ78" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="AR78" s="49">
-        <v>168732127</v>
-      </c>
-      <c r="AS78" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT78" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="AU78" s="45">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV78" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="AW78" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX78" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY78" s="47" t="b">
+      <c r="AY78" s="71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="B79" s="48" t="s">
-        <v>397</v>
-      </c>
-      <c r="C79" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D79" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E79" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="F79" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G79" s="42">
-        <v>1000</v>
-      </c>
-      <c r="H79" s="42">
-        <v>500</v>
-      </c>
-      <c r="I79" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J79" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="K79" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="L79" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="M79" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="N79" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="O79" s="50">
-        <v>0</v>
-      </c>
-      <c r="P79" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="50">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R79" s="42">
-        <v>3</v>
-      </c>
-      <c r="S79" s="42">
-        <v>75</v>
-      </c>
-      <c r="T79" s="42">
-        <v>50</v>
-      </c>
-      <c r="U79" s="42">
-        <v>60</v>
-      </c>
-      <c r="V79" s="50">
-        <v>0.02</v>
-      </c>
-      <c r="W79" s="42">
-        <v>0</v>
-      </c>
-      <c r="X79" s="42">
-        <v>10</v>
-      </c>
-      <c r="Y79" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="Z79" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="AA79" s="50">
-        <v>0.03</v>
-      </c>
-      <c r="AB79" s="50">
-        <v>0.01</v>
-      </c>
-      <c r="AC79" s="33">
-        <v>5.7426748582230625E-2</v>
-      </c>
-      <c r="AD79" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE79" s="51">
-        <v>0.06</v>
-      </c>
-      <c r="AF79" s="24">
-        <v>7.1739130434782611E-2</v>
-      </c>
-      <c r="AG79" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH79" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI79" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ79" s="42">
-        <v>30</v>
-      </c>
-      <c r="AK79" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL79" s="42">
-        <v>5</v>
-      </c>
-      <c r="AM79" s="42">
-        <v>200</v>
-      </c>
-      <c r="AN79" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO79" s="42">
-        <v>1</v>
-      </c>
-      <c r="AP79" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ79" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="AR79" s="49">
-        <v>168732127</v>
-      </c>
-      <c r="AS79" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT79" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="AU79" s="45">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV79" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="AW79" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX79" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY79" s="47" t="b">
-        <v>0</v>
-      </c>
+    <row r="79" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="72"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="O79" s="74"/>
+      <c r="P79" s="71"/>
+      <c r="Q79" s="74"/>
+      <c r="V79" s="74"/>
+      <c r="Y79" s="74"/>
+      <c r="Z79" s="74"/>
+      <c r="AA79" s="74"/>
+      <c r="AB79" s="74"/>
+      <c r="AC79" s="88"/>
+      <c r="AD79" s="86"/>
+      <c r="AE79" s="89"/>
+      <c r="AF79" s="91"/>
+      <c r="AH79" s="67"/>
+      <c r="AI79" s="67"/>
+      <c r="AN79" s="67"/>
+      <c r="AP79" s="67"/>
+      <c r="AQ79" s="70"/>
+      <c r="AR79" s="73"/>
+      <c r="AS79" s="67"/>
+      <c r="AT79" s="69"/>
+      <c r="AU79" s="69"/>
+      <c r="AV79" s="69"/>
+      <c r="AW79" s="71"/>
+      <c r="AX79" s="71"/>
+      <c r="AY79" s="71"/>
     </row>
-    <row r="80" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="B80" s="48" t="s">
-        <v>362</v>
-      </c>
-      <c r="C80" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D80" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E80" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="F80" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G80" s="42">
-        <v>1000</v>
-      </c>
-      <c r="H80" s="42">
-        <v>500</v>
-      </c>
-      <c r="I80" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J80" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="K80" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="L80" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="M80" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="N80" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="O80" s="50">
-        <v>0</v>
-      </c>
-      <c r="P80" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="50">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R80" s="42">
-        <v>3</v>
-      </c>
-      <c r="S80" s="42">
-        <v>75</v>
-      </c>
-      <c r="T80" s="42">
-        <v>50</v>
-      </c>
-      <c r="U80" s="42">
-        <v>60</v>
-      </c>
-      <c r="V80" s="50">
-        <v>0.02</v>
-      </c>
-      <c r="W80" s="42">
-        <v>0</v>
-      </c>
-      <c r="X80" s="42">
-        <v>10</v>
-      </c>
-      <c r="Y80" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="Z80" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="AA80" s="50">
-        <v>0.03</v>
-      </c>
-      <c r="AB80" s="50">
-        <v>0.01</v>
-      </c>
-      <c r="AC80" s="33">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD80" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE80" s="51">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF80" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="AG80" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH80" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI80" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ80" s="42">
-        <v>30</v>
-      </c>
-      <c r="AK80" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL80" s="42">
-        <v>5</v>
-      </c>
-      <c r="AM80" s="42">
-        <v>200</v>
-      </c>
-      <c r="AN80" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO80" s="42">
-        <v>1</v>
-      </c>
-      <c r="AP80" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ80" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="AR80" s="49">
-        <v>168732127</v>
-      </c>
-      <c r="AS80" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT80" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="AU80" s="45">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV80" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="AW80" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX80" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY80" s="47" t="b">
-        <v>0</v>
-      </c>
+    <row r="80" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="99" t="s">
+        <v>467</v>
+      </c>
+      <c r="C80" s="68"/>
+      <c r="D80" s="68"/>
+      <c r="O80" s="74"/>
+      <c r="P80" s="71"/>
+      <c r="Q80" s="74"/>
+      <c r="V80" s="74"/>
+      <c r="Y80" s="74"/>
+      <c r="Z80" s="74"/>
+      <c r="AA80" s="74"/>
+      <c r="AB80" s="74"/>
+      <c r="AC80" s="75"/>
+      <c r="AD80" s="74"/>
+      <c r="AE80" s="77"/>
+      <c r="AF80" s="74"/>
+      <c r="AH80" s="67"/>
+      <c r="AI80" s="67"/>
+      <c r="AN80" s="67"/>
+      <c r="AP80" s="67"/>
+      <c r="AQ80" s="70"/>
+      <c r="AR80" s="73"/>
+      <c r="AS80" s="67"/>
+      <c r="AT80" s="69"/>
+      <c r="AU80" s="69"/>
+      <c r="AV80" s="69"/>
+      <c r="AW80" s="71"/>
+      <c r="AX80" s="71"/>
+      <c r="AY80" s="71"/>
     </row>
     <row r="81" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="42" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B81" s="48" t="s">
-        <v>366</v>
-      </c>
-      <c r="C81" s="68" t="b">
-        <v>1</v>
+        <v>365</v>
+      </c>
+      <c r="C81" s="44" t="b">
+        <v>0</v>
       </c>
       <c r="D81" s="44" t="b">
         <v>0</v>
@@ -14200,16 +13883,16 @@
         <v>0.01</v>
       </c>
       <c r="AC81" s="33">
-        <v>8.0621455576559545E-2</v>
+        <v>4.4234404536862004E-2</v>
       </c>
       <c r="AD81" s="50" t="s">
         <v>156</v>
       </c>
       <c r="AE81" s="51">
-        <v>0.09</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AF81" s="24">
-        <v>0.13695652173913042</v>
+        <v>3.9130434782608692E-2</v>
       </c>
       <c r="AG81" s="42" t="s">
         <v>112</v>
@@ -14271,13 +13954,13 @@
     </row>
     <row r="82" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="42" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B82" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C82" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" s="44" t="b">
         <v>0</v>
@@ -14355,16 +14038,16 @@
         <v>0.01</v>
       </c>
       <c r="AC82" s="33">
-        <v>9.0623818525519845E-2</v>
+        <v>5.7426748582230625E-2</v>
       </c>
       <c r="AD82" s="50" t="s">
         <v>156</v>
       </c>
       <c r="AE82" s="51">
-        <v>0.105</v>
+        <v>0.06</v>
       </c>
       <c r="AF82" s="24">
-        <v>0.16956521739130434</v>
+        <v>7.1739130434782611E-2</v>
       </c>
       <c r="AG82" s="42" t="s">
         <v>112</v>
@@ -14425,44 +14108,169 @@
       </c>
     </row>
     <row r="83" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="48"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="44"/>
-      <c r="O83" s="50"/>
-      <c r="P83" s="47"/>
-      <c r="Q83" s="50"/>
-      <c r="V83" s="50"/>
-      <c r="Y83" s="50"/>
-      <c r="Z83" s="50"/>
-      <c r="AA83" s="50"/>
-      <c r="AB83" s="50"/>
-      <c r="AC83" s="33"/>
-      <c r="AD83" s="50"/>
-      <c r="AE83" s="51"/>
-      <c r="AF83" s="24"/>
-      <c r="AH83" s="43"/>
-      <c r="AI83" s="43"/>
-      <c r="AN83" s="43"/>
-      <c r="AP83" s="43"/>
-      <c r="AQ83" s="46"/>
-      <c r="AR83" s="49"/>
-      <c r="AS83" s="43"/>
-      <c r="AT83" s="45"/>
-      <c r="AU83" s="45"/>
-      <c r="AV83" s="45"/>
-      <c r="AW83" s="47"/>
-      <c r="AX83" s="47"/>
-      <c r="AY83" s="47"/>
+      <c r="A83" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="B83" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="C83" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F83" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G83" s="42">
+        <v>1000</v>
+      </c>
+      <c r="H83" s="42">
+        <v>500</v>
+      </c>
+      <c r="I83" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J83" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K83" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="L83" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="M83" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="N83" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="O83" s="50">
+        <v>0</v>
+      </c>
+      <c r="P83" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="50">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R83" s="42">
+        <v>3</v>
+      </c>
+      <c r="S83" s="42">
+        <v>75</v>
+      </c>
+      <c r="T83" s="42">
+        <v>50</v>
+      </c>
+      <c r="U83" s="42">
+        <v>60</v>
+      </c>
+      <c r="V83" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="W83" s="42">
+        <v>0</v>
+      </c>
+      <c r="X83" s="42">
+        <v>10</v>
+      </c>
+      <c r="Y83" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="Z83" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="AA83" s="50">
+        <v>0.03</v>
+      </c>
+      <c r="AB83" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="AC83" s="33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD83" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE83" s="51">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF83" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="AG83" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH83" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI83" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ83" s="42">
+        <v>30</v>
+      </c>
+      <c r="AK83" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL83" s="42">
+        <v>5</v>
+      </c>
+      <c r="AM83" s="42">
+        <v>200</v>
+      </c>
+      <c r="AN83" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO83" s="42">
+        <v>1</v>
+      </c>
+      <c r="AP83" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ83" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="AR83" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS83" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT83" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="AU83" s="45">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV83" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="AW83" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX83" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY83" s="47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="42" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B84" s="48" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="C84" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" s="44" t="b">
         <v>0</v>
@@ -14540,16 +14348,16 @@
         <v>0.01</v>
       </c>
       <c r="AC84" s="33">
-        <v>7.4999999999999997E-2</v>
+        <v>8.0621455576559545E-2</v>
       </c>
       <c r="AD84" s="50" t="s">
         <v>156</v>
       </c>
       <c r="AE84" s="51">
-        <v>4.4999999999999998E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AF84" s="24">
-        <v>3.9130434782608692E-2</v>
+        <v>0.13695652173913042</v>
       </c>
       <c r="AG84" s="42" t="s">
         <v>112</v>
@@ -14611,13 +14419,13 @@
     </row>
     <row r="85" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="42" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B85" s="48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C85" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" s="44" t="b">
         <v>0</v>
@@ -14695,16 +14503,16 @@
         <v>0.01</v>
       </c>
       <c r="AC85" s="33">
-        <v>7.4999999999999997E-2</v>
+        <v>9.0623818525519845E-2</v>
       </c>
       <c r="AD85" s="50" t="s">
         <v>156</v>
       </c>
       <c r="AE85" s="51">
-        <v>0.06</v>
+        <v>0.105</v>
       </c>
       <c r="AF85" s="24">
-        <v>7.1739130434782611E-2</v>
+        <v>0.16956521739130434</v>
       </c>
       <c r="AG85" s="42" t="s">
         <v>112</v>
@@ -14764,325 +14572,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="42" t="s">
-        <v>383</v>
-      </c>
-      <c r="B86" s="48" t="s">
-        <v>362</v>
-      </c>
-      <c r="C86" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D86" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E86" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="F86" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G86" s="42">
-        <v>1000</v>
-      </c>
-      <c r="H86" s="42">
-        <v>500</v>
-      </c>
-      <c r="I86" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J86" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="K86" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="L86" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="M86" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="N86" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="O86" s="50">
-        <v>0</v>
-      </c>
-      <c r="P86" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="50">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R86" s="42">
-        <v>3</v>
-      </c>
-      <c r="S86" s="42">
-        <v>75</v>
-      </c>
-      <c r="T86" s="42">
-        <v>50</v>
-      </c>
-      <c r="U86" s="42">
-        <v>60</v>
-      </c>
-      <c r="V86" s="50">
-        <v>0.02</v>
-      </c>
-      <c r="W86" s="42">
-        <v>0</v>
-      </c>
-      <c r="X86" s="42">
-        <v>10</v>
-      </c>
-      <c r="Y86" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="Z86" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="AA86" s="50">
-        <v>0.03</v>
-      </c>
-      <c r="AB86" s="50">
-        <v>0.01</v>
-      </c>
-      <c r="AC86" s="33">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD86" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE86" s="51">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF86" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="AG86" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH86" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI86" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ86" s="42">
-        <v>30</v>
-      </c>
-      <c r="AK86" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL86" s="42">
-        <v>5</v>
-      </c>
-      <c r="AM86" s="42">
-        <v>200</v>
-      </c>
-      <c r="AN86" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO86" s="42">
-        <v>1</v>
-      </c>
-      <c r="AP86" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ86" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="AR86" s="49">
-        <v>168732127</v>
-      </c>
-      <c r="AS86" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT86" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="AU86" s="45">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV86" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="AW86" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX86" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY86" s="47" t="b">
-        <v>0</v>
-      </c>
+    <row r="86" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="72"/>
+      <c r="C86" s="68"/>
+      <c r="D86" s="68"/>
+      <c r="O86" s="74"/>
+      <c r="P86" s="71"/>
+      <c r="Q86" s="74"/>
+      <c r="V86" s="74"/>
+      <c r="Y86" s="74"/>
+      <c r="Z86" s="74"/>
+      <c r="AA86" s="74"/>
+      <c r="AB86" s="74"/>
+      <c r="AC86" s="75"/>
+      <c r="AD86" s="74"/>
+      <c r="AE86" s="77"/>
+      <c r="AF86" s="24"/>
+      <c r="AH86" s="67"/>
+      <c r="AI86" s="67"/>
+      <c r="AN86" s="67"/>
+      <c r="AP86" s="67"/>
+      <c r="AQ86" s="70"/>
+      <c r="AR86" s="73"/>
+      <c r="AS86" s="67"/>
+      <c r="AT86" s="69"/>
+      <c r="AU86" s="69"/>
+      <c r="AV86" s="69"/>
+      <c r="AW86" s="71"/>
+      <c r="AX86" s="71"/>
+      <c r="AY86" s="71"/>
     </row>
     <row r="87" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="B87" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="C87" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D87" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E87" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="F87" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G87" s="42">
-        <v>1000</v>
-      </c>
-      <c r="H87" s="42">
-        <v>500</v>
-      </c>
-      <c r="I87" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J87" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="K87" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="L87" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="M87" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="N87" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="O87" s="50">
-        <v>0</v>
-      </c>
-      <c r="P87" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="50">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R87" s="42">
-        <v>3</v>
-      </c>
-      <c r="S87" s="42">
-        <v>75</v>
-      </c>
-      <c r="T87" s="42">
-        <v>50</v>
-      </c>
-      <c r="U87" s="42">
-        <v>60</v>
-      </c>
-      <c r="V87" s="50">
-        <v>0.02</v>
-      </c>
-      <c r="W87" s="42">
-        <v>0</v>
-      </c>
-      <c r="X87" s="42">
-        <v>10</v>
-      </c>
-      <c r="Y87" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="Z87" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="AA87" s="50">
-        <v>0.03</v>
-      </c>
-      <c r="AB87" s="50">
-        <v>0.01</v>
-      </c>
-      <c r="AC87" s="33">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD87" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE87" s="51">
-        <v>0.09</v>
-      </c>
-      <c r="AF87" s="24">
-        <v>0.13695652173913042</v>
-      </c>
-      <c r="AG87" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH87" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI87" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ87" s="42">
-        <v>30</v>
-      </c>
-      <c r="AK87" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL87" s="42">
-        <v>5</v>
-      </c>
-      <c r="AM87" s="42">
-        <v>200</v>
-      </c>
-      <c r="AN87" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO87" s="42">
-        <v>1</v>
-      </c>
-      <c r="AP87" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ87" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="AR87" s="49">
-        <v>168732127</v>
-      </c>
-      <c r="AS87" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT87" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="AU87" s="45">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV87" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="AW87" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX87" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY87" s="47" t="b">
-        <v>0</v>
-      </c>
+      <c r="B87" s="99" t="s">
+        <v>468</v>
+      </c>
+      <c r="C87" s="68"/>
+      <c r="D87" s="44"/>
+      <c r="O87" s="50"/>
+      <c r="P87" s="47"/>
+      <c r="Q87" s="50"/>
+      <c r="V87" s="50"/>
+      <c r="Y87" s="50"/>
+      <c r="Z87" s="50"/>
+      <c r="AA87" s="50"/>
+      <c r="AB87" s="50"/>
+      <c r="AC87" s="33"/>
+      <c r="AD87" s="50"/>
+      <c r="AE87" s="51"/>
+      <c r="AF87" s="24"/>
+      <c r="AH87" s="43"/>
+      <c r="AI87" s="43"/>
+      <c r="AN87" s="43"/>
+      <c r="AP87" s="43"/>
+      <c r="AQ87" s="46"/>
+      <c r="AR87" s="49"/>
+      <c r="AS87" s="43"/>
+      <c r="AT87" s="45"/>
+      <c r="AU87" s="45"/>
+      <c r="AV87" s="45"/>
+      <c r="AW87" s="47"/>
+      <c r="AX87" s="47"/>
+      <c r="AY87" s="47"/>
     </row>
     <row r="88" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B88" s="48" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C88" s="68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" s="44" t="b">
         <v>0</v>
@@ -15166,10 +14726,10 @@
         <v>156</v>
       </c>
       <c r="AE88" s="51">
-        <v>0.105</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AF88" s="24">
-        <v>0.16956521739130434</v>
+        <v>3.9130434782608692E-2</v>
       </c>
       <c r="AG88" s="42" t="s">
         <v>112</v>
@@ -15230,872 +14790,1492 @@
       </c>
     </row>
     <row r="89" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="48"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="O89" s="50"/>
-      <c r="P89" s="47"/>
-      <c r="Q89" s="50"/>
-      <c r="V89" s="50"/>
-      <c r="Y89" s="50"/>
-      <c r="Z89" s="50"/>
-      <c r="AA89" s="50"/>
-      <c r="AB89" s="50"/>
-      <c r="AC89" s="33"/>
-      <c r="AD89" s="50"/>
-      <c r="AE89" s="51"/>
-      <c r="AF89" s="24"/>
-      <c r="AH89" s="43"/>
-      <c r="AI89" s="43"/>
-      <c r="AN89" s="43"/>
-      <c r="AP89" s="43"/>
-      <c r="AQ89" s="46"/>
-      <c r="AR89" s="49"/>
-      <c r="AS89" s="43"/>
-      <c r="AT89" s="45"/>
-      <c r="AU89" s="45"/>
-      <c r="AV89" s="45"/>
-      <c r="AW89" s="47"/>
-      <c r="AX89" s="47"/>
-      <c r="AY89" s="47"/>
+      <c r="A89" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="B89" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="C89" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D89" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F89" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G89" s="42">
+        <v>1000</v>
+      </c>
+      <c r="H89" s="42">
+        <v>500</v>
+      </c>
+      <c r="I89" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J89" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K89" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="L89" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="M89" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="N89" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="O89" s="50">
+        <v>0</v>
+      </c>
+      <c r="P89" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="50">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R89" s="42">
+        <v>3</v>
+      </c>
+      <c r="S89" s="42">
+        <v>75</v>
+      </c>
+      <c r="T89" s="42">
+        <v>50</v>
+      </c>
+      <c r="U89" s="42">
+        <v>60</v>
+      </c>
+      <c r="V89" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="W89" s="42">
+        <v>0</v>
+      </c>
+      <c r="X89" s="42">
+        <v>10</v>
+      </c>
+      <c r="Y89" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="Z89" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="AA89" s="50">
+        <v>0.03</v>
+      </c>
+      <c r="AB89" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="AC89" s="33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD89" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE89" s="51">
+        <v>0.06</v>
+      </c>
+      <c r="AF89" s="24">
+        <v>7.1739130434782611E-2</v>
+      </c>
+      <c r="AG89" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH89" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI89" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ89" s="42">
+        <v>30</v>
+      </c>
+      <c r="AK89" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL89" s="42">
+        <v>5</v>
+      </c>
+      <c r="AM89" s="42">
+        <v>200</v>
+      </c>
+      <c r="AN89" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO89" s="42">
+        <v>1</v>
+      </c>
+      <c r="AP89" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ89" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="AR89" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS89" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT89" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="AU89" s="45">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV89" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="AW89" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX89" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY89" s="47" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B90" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="44"/>
-      <c r="O90" s="26"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="26"/>
-      <c r="V90" s="26"/>
-      <c r="Y90" s="26"/>
-      <c r="Z90" s="26"/>
-      <c r="AA90" s="26"/>
-      <c r="AB90" s="26"/>
-      <c r="AC90" s="26"/>
-      <c r="AD90" s="26"/>
-      <c r="AE90" s="41"/>
-      <c r="AF90" s="26"/>
-      <c r="AH90" s="2"/>
-      <c r="AI90" s="2"/>
-      <c r="AN90" s="2"/>
-      <c r="AP90" s="2"/>
-      <c r="AQ90" s="17"/>
-      <c r="AS90" s="2"/>
-      <c r="AT90" s="12"/>
-      <c r="AU90" s="12"/>
-      <c r="AV90" s="12"/>
-      <c r="AW90" s="18"/>
-      <c r="AX90" s="18"/>
-      <c r="AY90" s="18"/>
+    <row r="90" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="B90" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="C90" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D90" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F90" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G90" s="42">
+        <v>1000</v>
+      </c>
+      <c r="H90" s="42">
+        <v>500</v>
+      </c>
+      <c r="I90" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J90" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K90" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="L90" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="M90" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="N90" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="O90" s="50">
+        <v>0</v>
+      </c>
+      <c r="P90" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="50">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R90" s="42">
+        <v>3</v>
+      </c>
+      <c r="S90" s="42">
+        <v>75</v>
+      </c>
+      <c r="T90" s="42">
+        <v>50</v>
+      </c>
+      <c r="U90" s="42">
+        <v>60</v>
+      </c>
+      <c r="V90" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="W90" s="42">
+        <v>0</v>
+      </c>
+      <c r="X90" s="42">
+        <v>10</v>
+      </c>
+      <c r="Y90" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="Z90" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="AA90" s="50">
+        <v>0.03</v>
+      </c>
+      <c r="AB90" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="AC90" s="33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD90" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE90" s="51">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF90" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="AG90" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH90" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI90" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ90" s="42">
+        <v>30</v>
+      </c>
+      <c r="AK90" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL90" s="42">
+        <v>5</v>
+      </c>
+      <c r="AM90" s="42">
+        <v>200</v>
+      </c>
+      <c r="AN90" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO90" s="42">
+        <v>1</v>
+      </c>
+      <c r="AP90" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ90" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="AR90" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS90" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT90" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="AU90" s="45">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV90" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="AW90" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX90" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY90" s="47" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A91" s="34" t="s">
-        <v>460</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="C91" s="11" t="b">
+    <row r="91" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="B91" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="C91" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D91" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F91" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G91" s="42">
+        <v>1000</v>
+      </c>
+      <c r="H91" s="42">
+        <v>500</v>
+      </c>
+      <c r="I91" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J91" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K91" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="L91" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="M91" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="N91" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="O91" s="50">
+        <v>0</v>
+      </c>
+      <c r="P91" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="50">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R91" s="42">
+        <v>3</v>
+      </c>
+      <c r="S91" s="42">
+        <v>75</v>
+      </c>
+      <c r="T91" s="42">
+        <v>50</v>
+      </c>
+      <c r="U91" s="42">
+        <v>60</v>
+      </c>
+      <c r="V91" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="W91" s="42">
+        <v>0</v>
+      </c>
+      <c r="X91" s="42">
+        <v>10</v>
+      </c>
+      <c r="Y91" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="Z91" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="AA91" s="50">
+        <v>0.03</v>
+      </c>
+      <c r="AB91" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="AC91" s="33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD91" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE91" s="51">
+        <v>0.09</v>
+      </c>
+      <c r="AF91" s="24">
+        <v>0.13695652173913042</v>
+      </c>
+      <c r="AG91" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH91" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI91" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ91" s="42">
+        <v>30</v>
+      </c>
+      <c r="AK91" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL91" s="42">
+        <v>5</v>
+      </c>
+      <c r="AM91" s="42">
+        <v>200</v>
+      </c>
+      <c r="AN91" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO91" s="42">
         <v>1</v>
       </c>
-      <c r="D91" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="AP91" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ91" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="AR91" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS91" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT91" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="AU91" s="45">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV91" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="AW91" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX91" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY91" s="47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="B92" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="C92" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F92" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="G91">
+      <c r="G92" s="42">
         <v>1000</v>
       </c>
-      <c r="H91">
+      <c r="H92" s="42">
         <v>500</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I92" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J92" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K92" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="L91" t="s">
+      <c r="L92" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M92" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="N91" t="s">
+      <c r="N92" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="O91" s="26">
-        <v>0</v>
-      </c>
-      <c r="P91" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="26">
+      <c r="O92" s="50">
+        <v>0</v>
+      </c>
+      <c r="P92" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="50">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R91">
+      <c r="R92" s="42">
         <v>3</v>
       </c>
-      <c r="S91">
+      <c r="S92" s="42">
         <v>75</v>
       </c>
-      <c r="T91">
+      <c r="T92" s="42">
         <v>50</v>
       </c>
-      <c r="U91">
+      <c r="U92" s="42">
         <v>60</v>
       </c>
-      <c r="V91" s="26">
-        <v>0</v>
-      </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-      <c r="X91">
+      <c r="V92" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="W92" s="42">
+        <v>0</v>
+      </c>
+      <c r="X92" s="42">
         <v>10</v>
       </c>
-      <c r="Y91" s="26">
+      <c r="Y92" s="50">
         <v>0.04</v>
       </c>
-      <c r="Z91" s="26">
+      <c r="Z92" s="50">
         <v>0.04</v>
       </c>
-      <c r="AA91" s="26">
+      <c r="AA92" s="50">
         <v>0.03</v>
       </c>
-      <c r="AB91" s="26">
+      <c r="AB92" s="50">
         <v>0.01</v>
       </c>
-      <c r="AC91" s="26">
+      <c r="AC92" s="33">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD91" s="26" t="s">
+      <c r="AD92" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="AE91" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF91" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG91" t="s">
+      <c r="AE92" s="51">
+        <v>0.105</v>
+      </c>
+      <c r="AF92" s="24">
+        <v>0.16956521739130434</v>
+      </c>
+      <c r="AG92" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="AH91" s="2" t="s">
+      <c r="AH92" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="AI91" s="2" t="s">
+      <c r="AI92" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="AJ91">
+      <c r="AJ92" s="42">
         <v>30</v>
       </c>
-      <c r="AK91" t="s">
+      <c r="AK92" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="AL91">
+      <c r="AL92" s="42">
         <v>5</v>
       </c>
-      <c r="AM91">
+      <c r="AM92" s="42">
         <v>200</v>
       </c>
-      <c r="AN91" s="2" t="s">
+      <c r="AN92" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="AO91">
+      <c r="AO92" s="42">
         <v>1</v>
       </c>
-      <c r="AP91" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ91" s="17">
+      <c r="AP92" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ92" s="46">
         <v>0.75</v>
       </c>
-      <c r="AR91">
-        <v>200</v>
-      </c>
-      <c r="AS91" s="2" t="s">
+      <c r="AR92" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS92" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="AT91" s="12">
+      <c r="AT92" s="45">
         <v>0.25</v>
       </c>
-      <c r="AU91" s="12">
+      <c r="AU92" s="45">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV91" s="12">
+      <c r="AV92" s="45">
         <v>0.05</v>
       </c>
-      <c r="AW91" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX91" s="18" t="b">
+      <c r="AW92" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX92" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="AY91" s="18" t="b">
+      <c r="AY92" s="47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="76" t="s">
-        <v>337</v>
-      </c>
-      <c r="B92" s="72" t="s">
-        <v>462</v>
-      </c>
-      <c r="C92" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D92" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F92" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G92" s="66">
-        <v>1000</v>
-      </c>
-      <c r="H92" s="66">
-        <v>500</v>
-      </c>
-      <c r="I92" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J92" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="K92" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="L92" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="M92" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="N92" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="O92" s="74">
-        <v>0</v>
-      </c>
-      <c r="P92" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="74">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R92" s="66">
-        <v>3</v>
-      </c>
-      <c r="S92" s="66">
-        <v>75</v>
-      </c>
-      <c r="T92" s="66">
-        <v>50</v>
-      </c>
-      <c r="U92" s="66">
-        <v>60</v>
-      </c>
-      <c r="V92" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="W92" s="66">
-        <v>0</v>
-      </c>
-      <c r="X92" s="66">
-        <v>10</v>
-      </c>
-      <c r="Y92" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="Z92" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="AA92" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="AB92" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="AC92" s="74">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD92" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE92" s="77">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF92" s="74">
-        <v>0.12</v>
-      </c>
-      <c r="AG92" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH92" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI92" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ92" s="66">
-        <v>30</v>
-      </c>
-      <c r="AK92" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL92" s="66">
-        <v>5</v>
-      </c>
-      <c r="AM92" s="66">
-        <v>200</v>
-      </c>
-      <c r="AN92" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO92" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP92" s="67" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ92" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="AR92" s="66">
-        <v>200</v>
-      </c>
-      <c r="AS92" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT92" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="AU92" s="69">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV92" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="AW92" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX92" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY92" s="71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="76" t="s">
-        <v>339</v>
-      </c>
-      <c r="B93" s="72" t="s">
-        <v>350</v>
-      </c>
-      <c r="C93" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D93" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E93" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F93" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G93" s="66">
-        <v>1000</v>
-      </c>
-      <c r="H93" s="66">
-        <v>500</v>
-      </c>
-      <c r="I93" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J93" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="K93" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="L93" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="M93" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="N93" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="O93" s="74">
-        <v>0</v>
-      </c>
-      <c r="P93" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="74">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R93" s="66">
-        <v>3</v>
-      </c>
-      <c r="S93" s="66">
-        <v>75</v>
-      </c>
-      <c r="T93" s="66">
-        <v>50</v>
-      </c>
-      <c r="U93" s="66">
-        <v>60</v>
-      </c>
-      <c r="V93" s="74">
-        <v>0.02</v>
-      </c>
-      <c r="W93" s="66">
-        <v>0</v>
-      </c>
-      <c r="X93" s="66">
-        <v>10</v>
-      </c>
-      <c r="Y93" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="Z93" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="AA93" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="AB93" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="AC93" s="74">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD93" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE93" s="77">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF93" s="74">
-        <v>0.12</v>
-      </c>
-      <c r="AG93" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH93" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI93" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ93" s="66">
-        <v>30</v>
-      </c>
-      <c r="AK93" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL93" s="66">
-        <v>5</v>
-      </c>
-      <c r="AM93" s="66">
-        <v>200</v>
-      </c>
-      <c r="AN93" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO93" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP93" s="67" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ93" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="AR93" s="66">
-        <v>200</v>
-      </c>
-      <c r="AS93" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT93" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="AU93" s="69">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV93" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="AW93" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX93" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY93" s="71" t="b">
-        <v>0</v>
-      </c>
+    <row r="93" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="48"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="O93" s="50"/>
+      <c r="P93" s="47"/>
+      <c r="Q93" s="50"/>
+      <c r="V93" s="50"/>
+      <c r="Y93" s="50"/>
+      <c r="Z93" s="50"/>
+      <c r="AA93" s="50"/>
+      <c r="AB93" s="50"/>
+      <c r="AC93" s="33"/>
+      <c r="AD93" s="50"/>
+      <c r="AE93" s="51"/>
+      <c r="AF93" s="24"/>
+      <c r="AH93" s="43"/>
+      <c r="AI93" s="43"/>
+      <c r="AN93" s="43"/>
+      <c r="AP93" s="43"/>
+      <c r="AQ93" s="46"/>
+      <c r="AR93" s="49"/>
+      <c r="AS93" s="43"/>
+      <c r="AT93" s="45"/>
+      <c r="AU93" s="45"/>
+      <c r="AV93" s="45"/>
+      <c r="AW93" s="47"/>
+      <c r="AX93" s="47"/>
+      <c r="AY93" s="47"/>
     </row>
     <row r="94" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A94" s="34" t="s">
+      <c r="B94" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="44"/>
+      <c r="O94" s="26"/>
+      <c r="P94" s="18"/>
+      <c r="Q94" s="26"/>
+      <c r="V94" s="26"/>
+      <c r="Y94" s="26"/>
+      <c r="Z94" s="26"/>
+      <c r="AA94" s="26"/>
+      <c r="AB94" s="26"/>
+      <c r="AC94" s="26"/>
+      <c r="AD94" s="26"/>
+      <c r="AE94" s="41"/>
+      <c r="AF94" s="26"/>
+      <c r="AH94" s="2"/>
+      <c r="AI94" s="2"/>
+      <c r="AN94" s="2"/>
+      <c r="AP94" s="2"/>
+      <c r="AQ94" s="17"/>
+      <c r="AS94" s="2"/>
+      <c r="AT94" s="12"/>
+      <c r="AU94" s="12"/>
+      <c r="AV94" s="12"/>
+      <c r="AW94" s="18"/>
+      <c r="AX94" s="18"/>
+      <c r="AY94" s="18"/>
+    </row>
+    <row r="95" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A95" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C95" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D95" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>207</v>
+      </c>
+      <c r="F95" t="s">
+        <v>184</v>
+      </c>
+      <c r="G95">
+        <v>1000</v>
+      </c>
+      <c r="H95">
+        <v>500</v>
+      </c>
+      <c r="I95" t="s">
+        <v>109</v>
+      </c>
+      <c r="J95" t="s">
+        <v>109</v>
+      </c>
+      <c r="K95" t="s">
+        <v>204</v>
+      </c>
+      <c r="L95" t="s">
+        <v>167</v>
+      </c>
+      <c r="M95" t="s">
+        <v>211</v>
+      </c>
+      <c r="N95" t="s">
+        <v>198</v>
+      </c>
+      <c r="O95" s="26">
+        <v>0</v>
+      </c>
+      <c r="P95" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R95">
+        <v>3</v>
+      </c>
+      <c r="S95">
+        <v>75</v>
+      </c>
+      <c r="T95">
+        <v>50</v>
+      </c>
+      <c r="U95">
+        <v>60</v>
+      </c>
+      <c r="V95" s="26">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>10</v>
+      </c>
+      <c r="Y95" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z95" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA95" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB95" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC95" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD95" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE95" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF95" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH95" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI95" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ95">
+        <v>30</v>
+      </c>
+      <c r="AK95" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL95">
+        <v>5</v>
+      </c>
+      <c r="AM95">
+        <v>200</v>
+      </c>
+      <c r="AN95" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO95">
+        <v>1</v>
+      </c>
+      <c r="AP95" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ95" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR95">
+        <v>200</v>
+      </c>
+      <c r="AS95" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT95" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU95" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV95" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW95" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX95" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY95" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="76" t="s">
+        <v>337</v>
+      </c>
+      <c r="B96" s="72" t="s">
+        <v>462</v>
+      </c>
+      <c r="C96" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="F96" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G96" s="66">
+        <v>1000</v>
+      </c>
+      <c r="H96" s="66">
+        <v>500</v>
+      </c>
+      <c r="I96" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="J96" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="K96" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L96" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="M96" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="N96" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="O96" s="74">
+        <v>0</v>
+      </c>
+      <c r="P96" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="74">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R96" s="66">
+        <v>3</v>
+      </c>
+      <c r="S96" s="66">
+        <v>75</v>
+      </c>
+      <c r="T96" s="66">
+        <v>50</v>
+      </c>
+      <c r="U96" s="66">
+        <v>60</v>
+      </c>
+      <c r="V96" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="W96" s="66">
+        <v>0</v>
+      </c>
+      <c r="X96" s="66">
+        <v>10</v>
+      </c>
+      <c r="Y96" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="Z96" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="AA96" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="AB96" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AC96" s="74">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD96" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE96" s="77">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF96" s="74">
+        <v>0.12</v>
+      </c>
+      <c r="AG96" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH96" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI96" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ96" s="66">
+        <v>30</v>
+      </c>
+      <c r="AK96" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL96" s="66">
+        <v>5</v>
+      </c>
+      <c r="AM96" s="66">
+        <v>200</v>
+      </c>
+      <c r="AN96" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO96" s="66">
+        <v>1</v>
+      </c>
+      <c r="AP96" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ96" s="70">
+        <v>0.75</v>
+      </c>
+      <c r="AR96" s="66">
+        <v>200</v>
+      </c>
+      <c r="AS96" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT96" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="AU96" s="69">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV96" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="AW96" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX96" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY96" s="71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="76" t="s">
+        <v>339</v>
+      </c>
+      <c r="B97" s="72" t="s">
+        <v>350</v>
+      </c>
+      <c r="C97" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D97" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="F97" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="G97" s="66">
+        <v>1000</v>
+      </c>
+      <c r="H97" s="66">
+        <v>500</v>
+      </c>
+      <c r="I97" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="J97" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="K97" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="L97" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="M97" s="66" t="s">
+        <v>211</v>
+      </c>
+      <c r="N97" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="O97" s="74">
+        <v>0</v>
+      </c>
+      <c r="P97" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="74">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R97" s="66">
+        <v>3</v>
+      </c>
+      <c r="S97" s="66">
+        <v>75</v>
+      </c>
+      <c r="T97" s="66">
+        <v>50</v>
+      </c>
+      <c r="U97" s="66">
+        <v>60</v>
+      </c>
+      <c r="V97" s="74">
+        <v>0.02</v>
+      </c>
+      <c r="W97" s="66">
+        <v>0</v>
+      </c>
+      <c r="X97" s="66">
+        <v>10</v>
+      </c>
+      <c r="Y97" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="Z97" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="AA97" s="74">
+        <v>0.03</v>
+      </c>
+      <c r="AB97" s="74">
+        <v>0.01</v>
+      </c>
+      <c r="AC97" s="74">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD97" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE97" s="77">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF97" s="74">
+        <v>0.12</v>
+      </c>
+      <c r="AG97" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH97" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI97" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ97" s="66">
+        <v>30</v>
+      </c>
+      <c r="AK97" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL97" s="66">
+        <v>5</v>
+      </c>
+      <c r="AM97" s="66">
+        <v>200</v>
+      </c>
+      <c r="AN97" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO97" s="66">
+        <v>1</v>
+      </c>
+      <c r="AP97" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ97" s="70">
+        <v>0.75</v>
+      </c>
+      <c r="AR97" s="66">
+        <v>200</v>
+      </c>
+      <c r="AS97" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT97" s="69">
+        <v>0.25</v>
+      </c>
+      <c r="AU97" s="69">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV97" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="AW97" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX97" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY97" s="71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A98" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B98" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="C94" s="68" t="b">
+      <c r="C98" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D98" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>207</v>
+      </c>
+      <c r="F98" t="s">
+        <v>184</v>
+      </c>
+      <c r="G98">
+        <v>1000</v>
+      </c>
+      <c r="H98">
+        <v>500</v>
+      </c>
+      <c r="I98" t="s">
+        <v>109</v>
+      </c>
+      <c r="J98" t="s">
+        <v>109</v>
+      </c>
+      <c r="K98" t="s">
+        <v>204</v>
+      </c>
+      <c r="L98" t="s">
+        <v>167</v>
+      </c>
+      <c r="M98" t="s">
+        <v>211</v>
+      </c>
+      <c r="N98" t="s">
+        <v>198</v>
+      </c>
+      <c r="O98" s="26">
+        <v>0</v>
+      </c>
+      <c r="P98" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R98">
+        <v>3</v>
+      </c>
+      <c r="S98">
+        <v>75</v>
+      </c>
+      <c r="T98">
+        <v>50</v>
+      </c>
+      <c r="U98">
+        <v>60</v>
+      </c>
+      <c r="V98" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>10</v>
+      </c>
+      <c r="Y98" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z98" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA98" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB98" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC98" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD98" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE98" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF98" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH98" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI98" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ98">
+        <v>30</v>
+      </c>
+      <c r="AK98" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL98">
+        <v>5</v>
+      </c>
+      <c r="AM98">
+        <v>200</v>
+      </c>
+      <c r="AN98" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO98">
         <v>1</v>
       </c>
-      <c r="D94" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="AP98" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ98" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR98">
+        <v>200</v>
+      </c>
+      <c r="AS98" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT98" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU98" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV98" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW98" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX98" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY98" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="76" t="s">
+        <v>463</v>
+      </c>
+      <c r="B99" s="72" t="s">
+        <v>459</v>
+      </c>
+      <c r="C99" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" s="66" t="s">
         <v>207</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F99" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="G94">
+      <c r="G99" s="66">
         <v>1000</v>
       </c>
-      <c r="H94">
+      <c r="H99" s="66">
         <v>500</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I99" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J99" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="K94" t="s">
+      <c r="K99" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="L94" t="s">
+      <c r="L99" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M99" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="N94" t="s">
+      <c r="N99" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="O94" s="26">
-        <v>0</v>
-      </c>
-      <c r="P94" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="26">
+      <c r="O99" s="74">
+        <v>0</v>
+      </c>
+      <c r="P99" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="74">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R94">
+      <c r="R99" s="66">
         <v>3</v>
       </c>
-      <c r="S94">
+      <c r="S99" s="66">
         <v>75</v>
       </c>
-      <c r="T94">
+      <c r="T99" s="66">
         <v>50</v>
       </c>
-      <c r="U94">
+      <c r="U99" s="66">
         <v>60</v>
       </c>
-      <c r="V94" s="26">
+      <c r="V99" s="74">
         <v>0.03</v>
       </c>
-      <c r="W94">
-        <v>0</v>
-      </c>
-      <c r="X94">
+      <c r="W99" s="66">
+        <v>0</v>
+      </c>
+      <c r="X99" s="66">
         <v>10</v>
       </c>
-      <c r="Y94" s="26">
+      <c r="Y99" s="74">
         <v>0.04</v>
       </c>
-      <c r="Z94" s="26">
+      <c r="Z99" s="74">
         <v>0.04</v>
       </c>
-      <c r="AA94" s="26">
+      <c r="AA99" s="74">
         <v>0.03</v>
       </c>
-      <c r="AB94" s="26">
+      <c r="AB99" s="74">
         <v>0.01</v>
       </c>
-      <c r="AC94" s="26">
+      <c r="AC99" s="74">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD94" s="26" t="s">
+      <c r="AD99" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="AE94" s="41">
+      <c r="AE99" s="77">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF94" s="26">
+      <c r="AF99" s="74">
         <v>0.12</v>
       </c>
-      <c r="AG94" t="s">
+      <c r="AG99" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="AH94" s="2" t="s">
+      <c r="AH99" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="AI94" s="2" t="s">
+      <c r="AI99" s="67" t="s">
         <v>342</v>
       </c>
-      <c r="AJ94">
+      <c r="AJ99" s="66">
         <v>30</v>
       </c>
-      <c r="AK94" t="s">
+      <c r="AK99" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="AL94">
+      <c r="AL99" s="66">
         <v>5</v>
       </c>
-      <c r="AM94">
+      <c r="AM99" s="66">
         <v>200</v>
       </c>
-      <c r="AN94" s="2" t="s">
+      <c r="AN99" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="AO94">
+      <c r="AO99" s="66">
         <v>1</v>
       </c>
-      <c r="AP94" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ94" s="17">
+      <c r="AP99" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ99" s="70">
         <v>0.75</v>
       </c>
-      <c r="AR94">
-        <v>200</v>
-      </c>
-      <c r="AS94" s="2" t="s">
+      <c r="AR99" s="73">
+        <v>140108493</v>
+      </c>
+      <c r="AS99" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="AT94" s="12">
+      <c r="AT99" s="69">
         <v>0.25</v>
       </c>
-      <c r="AU94" s="12">
+      <c r="AU99" s="69">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV94" s="12">
+      <c r="AV99" s="69">
         <v>0.05</v>
       </c>
-      <c r="AW94" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX94" s="18" t="b">
+      <c r="AW99" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX99" s="71" t="b">
         <v>1</v>
       </c>
-      <c r="AY94" s="18" t="b">
+      <c r="AY99" s="71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="76" t="s">
-        <v>463</v>
-      </c>
-      <c r="B95" s="72" t="s">
-        <v>459</v>
-      </c>
-      <c r="C95" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="D95" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E95" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="F95" s="66" t="s">
-        <v>184</v>
-      </c>
-      <c r="G95" s="66">
-        <v>1000</v>
-      </c>
-      <c r="H95" s="66">
-        <v>500</v>
-      </c>
-      <c r="I95" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="J95" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="K95" s="66" t="s">
-        <v>204</v>
-      </c>
-      <c r="L95" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="M95" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="N95" s="66" t="s">
-        <v>198</v>
-      </c>
-      <c r="O95" s="74">
-        <v>0</v>
-      </c>
-      <c r="P95" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="74">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R95" s="66">
-        <v>3</v>
-      </c>
-      <c r="S95" s="66">
-        <v>75</v>
-      </c>
-      <c r="T95" s="66">
-        <v>50</v>
-      </c>
-      <c r="U95" s="66">
-        <v>60</v>
-      </c>
-      <c r="V95" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="W95" s="66">
-        <v>0</v>
-      </c>
-      <c r="X95" s="66">
-        <v>10</v>
-      </c>
-      <c r="Y95" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="Z95" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="AA95" s="74">
-        <v>0.03</v>
-      </c>
-      <c r="AB95" s="74">
-        <v>0.01</v>
-      </c>
-      <c r="AC95" s="74">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD95" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE95" s="77">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF95" s="74">
-        <v>0.12</v>
-      </c>
-      <c r="AG95" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH95" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI95" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ95" s="66">
-        <v>30</v>
-      </c>
-      <c r="AK95" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL95" s="66">
-        <v>5</v>
-      </c>
-      <c r="AM95" s="66">
-        <v>200</v>
-      </c>
-      <c r="AN95" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO95" s="66">
-        <v>1</v>
-      </c>
-      <c r="AP95" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ95" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="AR95" s="73">
-        <v>140108493</v>
-      </c>
-      <c r="AS95" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT95" s="69">
-        <v>0.25</v>
-      </c>
-      <c r="AU95" s="69">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV95" s="69">
-        <v>0.05</v>
-      </c>
-      <c r="AW95" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX95" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY95" s="71" t="b">
-        <v>0</v>
-      </c>
+    <row r="101" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC101" s="52"/>
     </row>
-    <row r="97" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC97" s="52"/>
-    </row>
-    <row r="98" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC98" s="52"/>
-      <c r="AD98" s="54"/>
-      <c r="AE98" s="51"/>
-      <c r="AF98" s="24"/>
-    </row>
-    <row r="99" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC99" s="52"/>
-      <c r="AD99" s="54"/>
-      <c r="AE99" s="51"/>
-      <c r="AF99" s="24"/>
-    </row>
-    <row r="100" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC100" s="52"/>
-      <c r="AD100" s="54"/>
-      <c r="AE100" s="51"/>
-      <c r="AF100" s="24"/>
-    </row>
-    <row r="101" spans="29:32" x14ac:dyDescent="0.25">
-      <c r="AC101" s="52"/>
-      <c r="AD101" s="54"/>
-      <c r="AE101" s="51"/>
-      <c r="AF101" s="24"/>
-    </row>
-    <row r="102" spans="29:32" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC102" s="52"/>
       <c r="AD102" s="54"/>
       <c r="AE102" s="51"/>
       <c r="AF102" s="24"/>
+    </row>
+    <row r="103" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC103" s="52"/>
+      <c r="AD103" s="54"/>
+      <c r="AE103" s="51"/>
+      <c r="AF103" s="24"/>
+    </row>
+    <row r="104" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC104" s="52"/>
+      <c r="AD104" s="54"/>
+      <c r="AE104" s="51"/>
+      <c r="AF104" s="24"/>
+    </row>
+    <row r="105" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC105" s="52"/>
+      <c r="AD105" s="54"/>
+      <c r="AE105" s="51"/>
+      <c r="AF105" s="24"/>
+    </row>
+    <row r="106" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AD106" s="54"/>
+      <c r="AE106" s="51"/>
+      <c r="AF106" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16112,82 +16292,82 @@
     <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations xWindow="1188" yWindow="692" count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN95">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN99">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI13:AI95">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI13:AI99">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH95">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH99">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS13:AS95">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS13:AS99">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 C6:D10 P13:P95 C13:D95">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 C6:D10 P13:P99 C13:D99">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 AB13:AB95 V13:V95">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 AB13:AB99 V13:V99">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W13:X95">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W13:X99">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AE98:AE102 AC57 AC13:AC46 AC90:AC95 Y13:AA95 AE13:AE95">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AE102:AE106 AC58 AC13:AC47 AC94:AC99 Y13:AA99 AE13:AE99">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ13:AJ95">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ13:AJ99">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT13:AU95">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT13:AU99">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV13:AV95">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV13:AV99">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF13:AF77 AF90:AF95">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF13:AF80 AF94:AF99">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL13:AL95">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL13:AL99">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM95">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM99">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO95">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO99">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD13:AD95"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW13:AY95">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD13:AD99"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW13:AY99">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP95">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP99">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ13:AQ95">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ13:AQ99">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S13:S95">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S13:S99">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I13:J95">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I13:J99">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -16200,37 +16380,37 @@
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L9 L13:L95</xm:sqref>
+          <xm:sqref>L6:L9 L13:L99</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M9 M13:M95</xm:sqref>
+          <xm:sqref>M6:M9 M13:M99</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>F6:F9 F13:F95</xm:sqref>
+          <xm:sqref>F6:F9 F13:F99</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E9 E13:E95</xm:sqref>
+          <xm:sqref>E6:E9 E13:E99</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K9 K13:K95</xm:sqref>
+          <xm:sqref>K6:K9 K13:K99</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>N6:N9 N13:N95</xm:sqref>
+          <xm:sqref>N6:N9 N13:N99</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="479">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1476,17 +1476,46 @@
   <si>
     <t>Fixed risk-free rate, fixed Sharpe Ratio, fixed discoun rate</t>
   </si>
+  <si>
+    <t>Pure change in SD</t>
+  </si>
+  <si>
+    <t>I8F075-1</t>
+  </si>
+  <si>
+    <t>I8F075-2</t>
+  </si>
+  <si>
+    <t>I8F075-3</t>
+  </si>
+  <si>
+    <t>I8F075-4</t>
+  </si>
+  <si>
+    <t>I8F075-5</t>
+  </si>
+  <si>
+    <t>75% initial Funding; DC 7.5; ir 7.5,    SD 4%</t>
+  </si>
+  <si>
+    <t>75% initial Funding; DC 7.5; ir 7.5,    SD 8%</t>
+  </si>
+  <si>
+    <t>75% initial Funding; DC 7.5; ir 7.5,    SD 16%</t>
+  </si>
+  <si>
+    <t>75% initial Funding; DC 7.5; ir 7.5,    SD 20%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="167" formatCode="0.000000%"/>
-    <numFmt numFmtId="168" formatCode="0.0000%"/>
     <numFmt numFmtId="169" formatCode="0.000%"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
@@ -1688,7 +1717,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1781,7 +1810,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="5" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
@@ -1821,10 +1849,8 @@
     <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1833,16 +1859,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3378,7 +3406,7 @@
       <c r="A2" t="s">
         <v>373</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="56">
         <v>0.46</v>
       </c>
       <c r="C2" t="s">
@@ -3387,13 +3415,13 @@
       <c r="H2" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="J2" s="57">
+      <c r="J2" s="56">
         <v>0.46</v>
       </c>
       <c r="N2" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="O2" s="57">
+      <c r="O2" s="56">
         <v>0.46</v>
       </c>
       <c r="P2" s="40"/>
@@ -3404,18 +3432,18 @@
       <c r="A3" t="s">
         <v>372</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="57">
         <v>2.7E-2</v>
       </c>
       <c r="H3" s="42"/>
       <c r="I3" s="40"/>
-      <c r="J3" s="61"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="40"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="60"/>
       <c r="Q3" s="40"/>
       <c r="R3" s="42"/>
     </row>
@@ -3470,7 +3498,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+      <c r="A6" s="55">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="B6" s="24">
@@ -3485,45 +3513,45 @@
         <f>A6-(C6^2)/2</f>
         <v>4.4234404536862004E-2</v>
       </c>
-      <c r="H6" s="79">
+      <c r="H6" s="78">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="I6" s="82">
+      <c r="I6" s="81">
         <f>L6 + K6^2/2</f>
         <v>7.5157231635036972E-2</v>
       </c>
-      <c r="J6" s="80">
+      <c r="J6" s="79">
         <f>I6-H6</f>
         <v>8.1572316350369684E-3</v>
       </c>
-      <c r="K6" s="78">
+      <c r="K6" s="77">
         <f t="shared" ref="K6:K13" si="0">(2*J$2-(4*J$2^2-8*(L6-H6))^0.5)/2</f>
         <v>1.7733112250080396E-2</v>
       </c>
-      <c r="L6" s="81">
+      <c r="L6" s="80">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N6" s="79">
+      <c r="N6" s="78">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="O6" s="75">
+      <c r="O6" s="74">
         <f>N6+P6</f>
         <v>0.1222</v>
       </c>
-      <c r="P6" s="81">
+      <c r="P6" s="80">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="Q6" s="78">
+      <c r="Q6" s="77">
         <f>P6/$O$2</f>
         <v>0.12</v>
       </c>
-      <c r="R6" s="80">
+      <c r="R6" s="79">
         <f>O6 - Q6^2/2</f>
         <v>0.115</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
+      <c r="A7" s="55">
         <v>0.06</v>
       </c>
       <c r="B7" s="24">
@@ -3538,45 +3566,45 @@
         <f t="shared" ref="D7:D10" si="3">A7-(C7^2)/2</f>
         <v>5.7426748582230625E-2</v>
       </c>
-      <c r="H7" s="79">
+      <c r="H7" s="78">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="I7" s="82">
+      <c r="I7" s="81">
         <f t="shared" ref="I7:I8" si="4">L7 + K7^2/2</f>
         <v>7.5838593074235933E-2</v>
       </c>
-      <c r="J7" s="80">
+      <c r="J7" s="79">
         <f t="shared" ref="J7:J8" si="5">I7-H7</f>
         <v>1.8838593074235931E-2</v>
       </c>
-      <c r="K7" s="78">
+      <c r="K7" s="77">
         <f t="shared" si="0"/>
         <v>4.0953463204860707E-2</v>
       </c>
-      <c r="L7" s="81">
+      <c r="L7" s="80">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N7" s="79">
+      <c r="N7" s="78">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="O7" s="75">
+      <c r="O7" s="74">
         <f t="shared" ref="O7:O8" si="6">N7+P7</f>
         <v>0.11219999999999999</v>
       </c>
-      <c r="P7" s="81">
+      <c r="P7" s="80">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="Q7" s="78">
+      <c r="Q7" s="77">
         <f t="shared" ref="Q7:Q8" si="7">P7/$O$2</f>
         <v>0.12</v>
       </c>
-      <c r="R7" s="80">
+      <c r="R7" s="79">
         <f t="shared" ref="R7:R8" si="8">O7 - Q7^2/2</f>
         <v>0.105</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="A8" s="55">
         <v>8.2199999999999995E-2</v>
       </c>
       <c r="B8" s="24">
@@ -3591,45 +3619,45 @@
         <f t="shared" si="3"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H8" s="79">
+      <c r="H8" s="78">
         <v>4.7E-2</v>
       </c>
-      <c r="I8" s="82">
+      <c r="I8" s="81">
         <f t="shared" si="4"/>
         <v>7.714763710549262E-2</v>
       </c>
-      <c r="J8" s="80">
+      <c r="J8" s="79">
         <f t="shared" si="5"/>
         <v>3.014763710549262E-2</v>
       </c>
-      <c r="K8" s="78">
+      <c r="K8" s="77">
         <f t="shared" si="0"/>
         <v>6.55383415336796E-2</v>
       </c>
-      <c r="L8" s="81">
+      <c r="L8" s="80">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N8" s="79">
+      <c r="N8" s="78">
         <v>4.7E-2</v>
       </c>
-      <c r="O8" s="75">
+      <c r="O8" s="74">
         <f t="shared" si="6"/>
         <v>0.1022</v>
       </c>
-      <c r="P8" s="81">
+      <c r="P8" s="80">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="Q8" s="78">
+      <c r="Q8" s="77">
         <f t="shared" si="7"/>
         <v>0.12</v>
       </c>
-      <c r="R8" s="80">
+      <c r="R8" s="79">
         <f t="shared" si="8"/>
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="56">
+      <c r="A9" s="55">
         <v>0.09</v>
       </c>
       <c r="B9" s="24">
@@ -3644,45 +3672,45 @@
         <f t="shared" si="3"/>
         <v>8.0621455576559545E-2</v>
       </c>
-      <c r="H9" s="79">
+      <c r="H9" s="78">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="60">
         <f>L9 + K9^2/2</f>
         <v>7.9210035716397884E-2</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="58">
         <f>I9-H9</f>
         <v>4.2210035716397885E-2</v>
       </c>
-      <c r="K9" s="55">
+      <c r="K9" s="54">
         <f t="shared" si="0"/>
         <v>9.1760947209560628E-2</v>
       </c>
-      <c r="L9" s="60">
+      <c r="L9" s="59">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N9" s="58">
+      <c r="N9" s="57">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="O9" s="33">
         <f>N9+P9</f>
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="P9" s="60">
+      <c r="P9" s="59">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="Q9" s="55">
+      <c r="Q9" s="54">
         <f>P9/$O$2</f>
         <v>0.12</v>
       </c>
-      <c r="R9" s="59">
+      <c r="R9" s="58">
         <f>O9 - Q9^2/2</f>
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+      <c r="A10" s="55">
         <v>0.105</v>
       </c>
       <c r="B10" s="24">
@@ -3697,153 +3725,153 @@
         <f t="shared" si="3"/>
         <v>9.0623818525519845E-2</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="78">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="60">
         <f t="shared" ref="I10:I13" si="9">L10 + K10^2/2</f>
         <v>8.0575584650641977E-2</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="58">
         <f t="shared" ref="J10:J13" si="10">I10-H10</f>
         <v>4.8575584650641976E-2</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10" s="54">
         <f t="shared" si="0"/>
         <v>0.10559909706661297</v>
       </c>
-      <c r="L10" s="60">
+      <c r="L10" s="59">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N10" s="58">
+      <c r="N10" s="57">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="O10" s="33">
         <f t="shared" ref="O10:O13" si="11">N10+P10</f>
         <v>8.72E-2</v>
       </c>
-      <c r="P10" s="60">
+      <c r="P10" s="59">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="Q10" s="55">
+      <c r="Q10" s="54">
         <f t="shared" ref="Q10:Q13" si="12">P10/$O$2</f>
         <v>0.12</v>
       </c>
-      <c r="R10" s="59">
+      <c r="R10" s="58">
         <f t="shared" ref="R10:R13" si="13">O10 - Q10^2/2</f>
         <v>0.08</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H11" s="79">
+      <c r="H11" s="78">
         <v>2.7E-2</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="60">
         <f t="shared" si="9"/>
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="58">
         <f t="shared" si="10"/>
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="K11" s="55">
+      <c r="K11" s="54">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="L11" s="60">
+      <c r="L11" s="59">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N11" s="58">
+      <c r="N11" s="57">
         <v>2.7E-2</v>
       </c>
       <c r="O11" s="33">
         <f t="shared" si="11"/>
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="P11" s="60">
+      <c r="P11" s="59">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="Q11" s="55">
+      <c r="Q11" s="54">
         <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
-      <c r="R11" s="59">
+      <c r="R11" s="58">
         <f t="shared" si="13"/>
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H12" s="79">
+      <c r="H12" s="78">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="I12" s="61">
+      <c r="I12" s="60">
         <f t="shared" si="9"/>
         <v>8.411769335469832E-2</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="58">
         <f t="shared" si="10"/>
         <v>6.2117693354698321E-2</v>
       </c>
-      <c r="K12" s="55">
+      <c r="K12" s="54">
         <f t="shared" si="0"/>
         <v>0.13503846381456158</v>
       </c>
-      <c r="L12" s="60">
+      <c r="L12" s="59">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N12" s="58">
+      <c r="N12" s="57">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="O12" s="33">
         <f t="shared" si="11"/>
         <v>7.7199999999999991E-2</v>
       </c>
-      <c r="P12" s="60">
+      <c r="P12" s="59">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="Q12" s="55">
+      <c r="Q12" s="54">
         <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
-      <c r="R12" s="59">
+      <c r="R12" s="58">
         <f t="shared" si="13"/>
         <v>6.9999999999999993E-2</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H13" s="79">
+      <c r="H13" s="78">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I13" s="61">
+      <c r="I13" s="60">
         <f t="shared" si="9"/>
         <v>8.637145152958918E-2</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="58">
         <f t="shared" si="10"/>
         <v>6.9371451529589179E-2</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="54">
         <f t="shared" si="0"/>
         <v>0.15080750332519388</v>
       </c>
-      <c r="L13" s="60">
+      <c r="L13" s="59">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N13" s="58">
+      <c r="N13" s="57">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="O13" s="33">
         <f t="shared" si="11"/>
         <v>7.22E-2</v>
       </c>
-      <c r="P13" s="60">
+      <c r="P13" s="59">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="Q13" s="55">
+      <c r="Q13" s="54">
         <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
-      <c r="R13" s="59">
+      <c r="R13" s="58">
         <f t="shared" si="13"/>
         <v>6.5000000000000002E-2</v>
       </c>
@@ -3868,108 +3896,108 @@
       <c r="B20" s="49"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="84"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="83"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="84"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="83"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="65"/>
-      <c r="R25" s="84"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="83"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="84"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="83"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="84"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="83"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4072,10 +4100,10 @@
   <dimension ref="A1:AY106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B105" sqref="B105"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4271,62 +4299,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
       <c r="D4" s="53"/>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="93"/>
+      <c r="F4" s="97"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="96" t="s">
+      <c r="I4" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="94" t="s">
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="94"/>
+      <c r="M4" s="93"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="94" t="s">
+      <c r="P4" s="94"/>
+      <c r="Q4" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="94"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="94"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="95" t="s">
+      <c r="AA4" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="95"/>
-      <c r="AD4" s="97" t="s">
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="92" t="s">
+      <c r="AH4" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="95"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -4334,17 +4362,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="97" t="s">
+      <c r="AP4" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="97"/>
-      <c r="AS4" s="98" t="s">
+      <c r="AQ4" s="92"/>
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="98"/>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="98"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -4440,7 +4468,7 @@
       <c r="AD5" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="AE5" s="64" t="s">
+      <c r="AE5" s="63" t="s">
         <v>92</v>
       </c>
       <c r="AF5" s="9" t="s">
@@ -5167,7 +5195,7 @@
         <v>290</v>
       </c>
       <c r="C14" s="44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="44" t="b">
         <v>1</v>
@@ -5321,7 +5349,7 @@
       <c r="B15" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="C15" s="68" t="b">
+      <c r="C15" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="44" t="b">
@@ -5476,7 +5504,7 @@
       <c r="B16" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="C16" s="68" t="b">
+      <c r="C16" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="44" t="b">
@@ -5631,7 +5659,7 @@
       <c r="B17" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="C17" s="68" t="b">
+      <c r="C17" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="44" t="b">
@@ -5786,7 +5814,7 @@
       <c r="B18" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="C18" s="68" t="b">
+      <c r="C18" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="44" t="b">
@@ -5941,7 +5969,7 @@
       <c r="B19" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="C19" s="68" t="b">
+      <c r="C19" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="44" t="b">
@@ -6096,7 +6124,7 @@
       <c r="B20" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="C20" s="68" t="b">
+      <c r="C20" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D20" s="44" t="b">
@@ -6251,7 +6279,7 @@
       <c r="B21" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="C21" s="68" t="b">
+      <c r="C21" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="44" t="b">
@@ -6406,7 +6434,7 @@
       <c r="B22" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="C22" s="68" t="b">
+      <c r="C22" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D22" s="44" t="b">
@@ -6561,7 +6589,7 @@
       <c r="B23" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="C23" s="68" t="b">
+      <c r="C23" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="44" t="b">
@@ -6716,7 +6744,7 @@
       <c r="B24" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="C24" s="68" t="b">
+      <c r="C24" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D24" s="44" t="b">
@@ -6953,510 +6981,510 @@
       <c r="AX27" s="18"/>
       <c r="AY27" s="18"/>
     </row>
-    <row r="28" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
         <v>466</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="74"/>
-      <c r="V28" s="74"/>
-      <c r="Y28" s="74"/>
-      <c r="Z28" s="74"/>
-      <c r="AA28" s="74"/>
-      <c r="AB28" s="74"/>
-      <c r="AC28" s="74"/>
-      <c r="AD28" s="74"/>
-      <c r="AE28" s="77"/>
-      <c r="AF28" s="74"/>
-      <c r="AH28" s="67"/>
-      <c r="AI28" s="67"/>
-      <c r="AN28" s="67"/>
-      <c r="AP28" s="67"/>
-      <c r="AQ28" s="70"/>
-      <c r="AS28" s="67"/>
-      <c r="AT28" s="69"/>
-      <c r="AU28" s="69"/>
-      <c r="AV28" s="69"/>
-      <c r="AW28" s="71"/>
-      <c r="AX28" s="71"/>
-      <c r="AY28" s="71"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="73"/>
+      <c r="V28" s="73"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="73"/>
+      <c r="AB28" s="73"/>
+      <c r="AC28" s="73"/>
+      <c r="AD28" s="73"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="73"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AN28" s="66"/>
+      <c r="AP28" s="66"/>
+      <c r="AQ28" s="69"/>
+      <c r="AS28" s="66"/>
+      <c r="AT28" s="68"/>
+      <c r="AU28" s="68"/>
+      <c r="AV28" s="68"/>
+      <c r="AW28" s="70"/>
+      <c r="AX28" s="70"/>
+      <c r="AY28" s="70"/>
     </row>
-    <row r="29" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="76" t="s">
+    <row r="29" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="75" t="s">
         <v>315</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="71" t="s">
         <v>414</v>
       </c>
-      <c r="C29" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" s="66" t="s">
+      <c r="C29" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G29" s="66">
+      <c r="G29" s="65">
         <v>1000</v>
       </c>
-      <c r="H29" s="66">
+      <c r="H29" s="65">
         <v>500</v>
       </c>
-      <c r="I29" s="66" t="s">
+      <c r="I29" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J29" s="66" t="s">
+      <c r="J29" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K29" s="66" t="s">
+      <c r="K29" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L29" s="66" t="s">
+      <c r="L29" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M29" s="66" t="s">
+      <c r="M29" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N29" s="66" t="s">
+      <c r="N29" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O29" s="74">
-        <v>0</v>
-      </c>
-      <c r="P29" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="74">
+      <c r="O29" s="73">
+        <v>0</v>
+      </c>
+      <c r="P29" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R29" s="66">
+      <c r="R29" s="65">
         <v>3</v>
       </c>
-      <c r="S29" s="66">
+      <c r="S29" s="65">
         <v>75</v>
       </c>
-      <c r="T29" s="66">
+      <c r="T29" s="65">
         <v>50</v>
       </c>
-      <c r="U29" s="66">
+      <c r="U29" s="65">
         <v>60</v>
       </c>
-      <c r="V29" s="74">
+      <c r="V29" s="73">
         <v>0.02</v>
       </c>
-      <c r="W29" s="66">
-        <v>0</v>
-      </c>
-      <c r="X29" s="66">
+      <c r="W29" s="65">
+        <v>0</v>
+      </c>
+      <c r="X29" s="65">
         <v>10</v>
       </c>
-      <c r="Y29" s="74">
+      <c r="Y29" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z29" s="74">
+      <c r="Z29" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA29" s="74">
+      <c r="AA29" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB29" s="74">
+      <c r="AB29" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC29" s="74">
+      <c r="AC29" s="73">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD29" s="74" t="s">
+      <c r="AD29" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE29" s="63">
+      <c r="AE29" s="62">
         <v>7.5157231635036972E-2</v>
       </c>
-      <c r="AF29" s="78">
+      <c r="AF29" s="77">
         <v>1.7733112250080396E-2</v>
       </c>
-      <c r="AG29" s="66" t="s">
+      <c r="AG29" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH29" s="67" t="s">
+      <c r="AH29" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI29" s="67" t="s">
+      <c r="AI29" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ29" s="66">
+      <c r="AJ29" s="65">
         <v>30</v>
       </c>
-      <c r="AK29" s="66" t="s">
+      <c r="AK29" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL29" s="66">
+      <c r="AL29" s="65">
         <v>5</v>
       </c>
-      <c r="AM29" s="66">
+      <c r="AM29" s="65">
         <v>200</v>
       </c>
-      <c r="AN29" s="67" t="s">
+      <c r="AN29" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO29" s="66">
+      <c r="AO29" s="65">
         <v>1</v>
       </c>
-      <c r="AP29" s="67" t="s">
+      <c r="AP29" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ29" s="70">
+      <c r="AQ29" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR29" s="73">
+      <c r="AR29" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS29" s="67" t="s">
+      <c r="AS29" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT29" s="69">
+      <c r="AT29" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU29" s="69">
+      <c r="AU29" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV29" s="69">
+      <c r="AV29" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW29" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX29" s="71" t="b">
+      <c r="AW29" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY29" s="71" t="b">
+      <c r="AY29" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
+    <row r="30" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="75" t="s">
         <v>317</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="71" t="s">
         <v>415</v>
       </c>
-      <c r="C30" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" s="66" t="s">
+      <c r="C30" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G30" s="66">
+      <c r="G30" s="65">
         <v>1000</v>
       </c>
-      <c r="H30" s="66">
+      <c r="H30" s="65">
         <v>500</v>
       </c>
-      <c r="I30" s="66" t="s">
+      <c r="I30" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J30" s="66" t="s">
+      <c r="J30" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K30" s="66" t="s">
+      <c r="K30" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L30" s="66" t="s">
+      <c r="L30" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M30" s="66" t="s">
+      <c r="M30" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N30" s="66" t="s">
+      <c r="N30" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O30" s="74">
-        <v>0</v>
-      </c>
-      <c r="P30" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="74">
+      <c r="O30" s="73">
+        <v>0</v>
+      </c>
+      <c r="P30" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R30" s="66">
+      <c r="R30" s="65">
         <v>3</v>
       </c>
-      <c r="S30" s="66">
+      <c r="S30" s="65">
         <v>75</v>
       </c>
-      <c r="T30" s="66">
+      <c r="T30" s="65">
         <v>50</v>
       </c>
-      <c r="U30" s="66">
+      <c r="U30" s="65">
         <v>60</v>
       </c>
-      <c r="V30" s="74">
+      <c r="V30" s="73">
         <v>0.02</v>
       </c>
-      <c r="W30" s="66">
-        <v>0</v>
-      </c>
-      <c r="X30" s="66">
+      <c r="W30" s="65">
+        <v>0</v>
+      </c>
+      <c r="X30" s="65">
         <v>10</v>
       </c>
-      <c r="Y30" s="74">
+      <c r="Y30" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z30" s="74">
+      <c r="Z30" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA30" s="74">
+      <c r="AA30" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB30" s="74">
+      <c r="AB30" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC30" s="74">
+      <c r="AC30" s="73">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD30" s="74" t="s">
+      <c r="AD30" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE30" s="63">
+      <c r="AE30" s="62">
         <v>7.5838593074235933E-2</v>
       </c>
-      <c r="AF30" s="78">
+      <c r="AF30" s="77">
         <v>4.0953463204860707E-2</v>
       </c>
-      <c r="AG30" s="66" t="s">
+      <c r="AG30" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH30" s="67" t="s">
+      <c r="AH30" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI30" s="67" t="s">
+      <c r="AI30" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ30" s="66">
+      <c r="AJ30" s="65">
         <v>30</v>
       </c>
-      <c r="AK30" s="66" t="s">
+      <c r="AK30" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL30" s="66">
+      <c r="AL30" s="65">
         <v>5</v>
       </c>
-      <c r="AM30" s="66">
+      <c r="AM30" s="65">
         <v>200</v>
       </c>
-      <c r="AN30" s="67" t="s">
+      <c r="AN30" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO30" s="66">
+      <c r="AO30" s="65">
         <v>1</v>
       </c>
-      <c r="AP30" s="67" t="s">
+      <c r="AP30" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ30" s="70">
+      <c r="AQ30" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR30" s="73">
+      <c r="AR30" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS30" s="67" t="s">
+      <c r="AS30" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT30" s="69">
+      <c r="AT30" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU30" s="69">
+      <c r="AU30" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV30" s="69">
+      <c r="AV30" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW30" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX30" s="71" t="b">
+      <c r="AW30" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY30" s="71" t="b">
+      <c r="AY30" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="76" t="s">
+    <row r="31" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="75" t="s">
         <v>319</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="71" t="s">
         <v>416</v>
       </c>
-      <c r="C31" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" s="66" t="s">
+      <c r="C31" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G31" s="66">
+      <c r="G31" s="65">
         <v>1000</v>
       </c>
-      <c r="H31" s="66">
+      <c r="H31" s="65">
         <v>500</v>
       </c>
-      <c r="I31" s="66" t="s">
+      <c r="I31" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J31" s="66" t="s">
+      <c r="J31" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K31" s="66" t="s">
+      <c r="K31" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L31" s="66" t="s">
+      <c r="L31" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M31" s="66" t="s">
+      <c r="M31" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N31" s="66" t="s">
+      <c r="N31" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O31" s="74">
-        <v>0</v>
-      </c>
-      <c r="P31" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="74">
+      <c r="O31" s="73">
+        <v>0</v>
+      </c>
+      <c r="P31" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R31" s="66">
+      <c r="R31" s="65">
         <v>3</v>
       </c>
-      <c r="S31" s="66">
+      <c r="S31" s="65">
         <v>75</v>
       </c>
-      <c r="T31" s="66">
+      <c r="T31" s="65">
         <v>50</v>
       </c>
-      <c r="U31" s="66">
+      <c r="U31" s="65">
         <v>60</v>
       </c>
-      <c r="V31" s="74">
+      <c r="V31" s="73">
         <v>0.02</v>
       </c>
-      <c r="W31" s="66">
-        <v>0</v>
-      </c>
-      <c r="X31" s="66">
+      <c r="W31" s="65">
+        <v>0</v>
+      </c>
+      <c r="X31" s="65">
         <v>10</v>
       </c>
-      <c r="Y31" s="74">
+      <c r="Y31" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z31" s="74">
+      <c r="Z31" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA31" s="74">
+      <c r="AA31" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB31" s="74">
+      <c r="AB31" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC31" s="74">
+      <c r="AC31" s="73">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD31" s="74" t="s">
+      <c r="AD31" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE31" s="63">
+      <c r="AE31" s="62">
         <v>7.714763710549262E-2</v>
       </c>
-      <c r="AF31" s="78">
+      <c r="AF31" s="77">
         <v>6.55383415336796E-2</v>
       </c>
-      <c r="AG31" s="66" t="s">
+      <c r="AG31" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH31" s="67" t="s">
+      <c r="AH31" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI31" s="67" t="s">
+      <c r="AI31" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ31" s="66">
+      <c r="AJ31" s="65">
         <v>30</v>
       </c>
-      <c r="AK31" s="66" t="s">
+      <c r="AK31" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL31" s="66">
+      <c r="AL31" s="65">
         <v>5</v>
       </c>
-      <c r="AM31" s="66">
+      <c r="AM31" s="65">
         <v>200</v>
       </c>
-      <c r="AN31" s="67" t="s">
+      <c r="AN31" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO31" s="66">
+      <c r="AO31" s="65">
         <v>1</v>
       </c>
-      <c r="AP31" s="67" t="s">
+      <c r="AP31" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ31" s="70">
+      <c r="AQ31" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR31" s="73">
+      <c r="AR31" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS31" s="67" t="s">
+      <c r="AS31" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT31" s="69">
+      <c r="AT31" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU31" s="69">
+      <c r="AU31" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV31" s="69">
+      <c r="AV31" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW31" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX31" s="71" t="b">
+      <c r="AW31" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY31" s="71" t="b">
+      <c r="AY31" s="70" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="75" t="s">
         <v>321</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="C32" s="68" t="b">
+      <c r="C32" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D32" s="44" t="b">
@@ -7605,13 +7633,13 @@
       </c>
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="75" t="s">
         <v>323</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="C33" s="68" t="b">
+      <c r="C33" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D33" s="44" t="b">
@@ -7760,13 +7788,13 @@
       </c>
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="75" t="s">
         <v>403</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="C34" s="68" t="b">
+      <c r="C34" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D34" s="44" t="b">
@@ -7914,169 +7942,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="76" t="s">
+    <row r="35" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="75" t="s">
         <v>456</v>
       </c>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="71" t="s">
         <v>457</v>
       </c>
-      <c r="C35" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" s="66" t="s">
+      <c r="C35" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F35" s="66" t="s">
+      <c r="F35" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G35" s="66">
+      <c r="G35" s="65">
         <v>1000</v>
       </c>
-      <c r="H35" s="66">
+      <c r="H35" s="65">
         <v>500</v>
       </c>
-      <c r="I35" s="66" t="s">
+      <c r="I35" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J35" s="66" t="s">
+      <c r="J35" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K35" s="66" t="s">
+      <c r="K35" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L35" s="66" t="s">
+      <c r="L35" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M35" s="66" t="s">
+      <c r="M35" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N35" s="66" t="s">
+      <c r="N35" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O35" s="74">
-        <v>0</v>
-      </c>
-      <c r="P35" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="74">
+      <c r="O35" s="73">
+        <v>0</v>
+      </c>
+      <c r="P35" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R35" s="66">
+      <c r="R35" s="65">
         <v>3</v>
       </c>
-      <c r="S35" s="66">
+      <c r="S35" s="65">
         <v>75</v>
       </c>
-      <c r="T35" s="66">
+      <c r="T35" s="65">
         <v>50</v>
       </c>
-      <c r="U35" s="66">
+      <c r="U35" s="65">
         <v>60</v>
       </c>
-      <c r="V35" s="74">
+      <c r="V35" s="73">
         <v>0.02</v>
       </c>
-      <c r="W35" s="66">
-        <v>0</v>
-      </c>
-      <c r="X35" s="66">
+      <c r="W35" s="65">
+        <v>0</v>
+      </c>
+      <c r="X35" s="65">
         <v>10</v>
       </c>
-      <c r="Y35" s="74">
+      <c r="Y35" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z35" s="74">
+      <c r="Z35" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA35" s="74">
+      <c r="AA35" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB35" s="74">
+      <c r="AB35" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC35" s="74">
+      <c r="AC35" s="73">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD35" s="74" t="s">
+      <c r="AD35" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE35" s="77">
+      <c r="AE35" s="76">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF35" s="74">
+      <c r="AF35" s="73">
         <v>0.12</v>
       </c>
-      <c r="AG35" s="66" t="s">
+      <c r="AG35" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH35" s="67" t="s">
+      <c r="AH35" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="AI35" s="67" t="s">
+      <c r="AI35" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ35" s="66">
+      <c r="AJ35" s="65">
         <v>15</v>
       </c>
-      <c r="AK35" s="66" t="s">
+      <c r="AK35" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL35" s="66">
+      <c r="AL35" s="65">
         <v>5</v>
       </c>
-      <c r="AM35" s="66">
+      <c r="AM35" s="65">
         <v>200</v>
       </c>
-      <c r="AN35" s="67" t="s">
+      <c r="AN35" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO35" s="66">
+      <c r="AO35" s="65">
         <v>1</v>
       </c>
-      <c r="AP35" s="67" t="s">
+      <c r="AP35" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ35" s="70">
+      <c r="AQ35" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR35" s="73">
+      <c r="AR35" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS35" s="67" t="s">
+      <c r="AS35" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT35" s="69">
+      <c r="AT35" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU35" s="69">
+      <c r="AU35" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV35" s="69">
+      <c r="AV35" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW35" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX35" s="71" t="b">
+      <c r="AW35" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX35" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY35" s="71" t="b">
+      <c r="AY35" s="70" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="75" t="s">
         <v>404</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="C36" s="68" t="b">
+      <c r="C36" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D36" s="44" t="b">
@@ -8225,13 +8253,13 @@
       </c>
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="75" t="s">
         <v>405</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="C37" s="68" t="b">
+      <c r="C37" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D37" s="44" t="b">
@@ -8408,479 +8436,479 @@
       <c r="AX38" s="18"/>
       <c r="AY38" s="18"/>
     </row>
-    <row r="39" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="66" t="s">
+    <row r="39" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="65" t="s">
         <v>326</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="71" t="s">
         <v>417</v>
       </c>
-      <c r="C39" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" s="66" t="s">
+      <c r="C39" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F39" s="66" t="s">
+      <c r="F39" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G39" s="66">
+      <c r="G39" s="65">
         <v>1000</v>
       </c>
-      <c r="H39" s="66">
+      <c r="H39" s="65">
         <v>500</v>
       </c>
-      <c r="I39" s="66" t="s">
+      <c r="I39" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J39" s="66" t="s">
+      <c r="J39" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K39" s="66" t="s">
+      <c r="K39" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L39" s="66" t="s">
+      <c r="L39" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M39" s="66" t="s">
+      <c r="M39" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N39" s="66" t="s">
+      <c r="N39" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O39" s="74">
-        <v>0</v>
-      </c>
-      <c r="P39" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="74">
+      <c r="O39" s="73">
+        <v>0</v>
+      </c>
+      <c r="P39" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R39" s="66">
+      <c r="R39" s="65">
         <v>3</v>
       </c>
-      <c r="S39" s="66">
+      <c r="S39" s="65">
         <v>75</v>
       </c>
-      <c r="T39" s="66">
+      <c r="T39" s="65">
         <v>50</v>
       </c>
-      <c r="U39" s="66">
+      <c r="U39" s="65">
         <v>60</v>
       </c>
-      <c r="V39" s="74">
+      <c r="V39" s="73">
         <v>0.02</v>
       </c>
-      <c r="W39" s="66">
-        <v>0</v>
-      </c>
-      <c r="X39" s="66">
+      <c r="W39" s="65">
+        <v>0</v>
+      </c>
+      <c r="X39" s="65">
         <v>10</v>
       </c>
-      <c r="Y39" s="74">
+      <c r="Y39" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z39" s="74">
+      <c r="Z39" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA39" s="74">
+      <c r="AA39" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB39" s="74">
+      <c r="AB39" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC39" s="80">
+      <c r="AC39" s="79">
         <v>0.115</v>
       </c>
-      <c r="AD39" s="74" t="s">
+      <c r="AD39" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE39" s="77">
+      <c r="AE39" s="76">
         <v>0.1222</v>
       </c>
-      <c r="AF39" s="74">
+      <c r="AF39" s="73">
         <v>0.12</v>
       </c>
-      <c r="AG39" s="66" t="s">
+      <c r="AG39" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH39" s="67" t="s">
+      <c r="AH39" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI39" s="67" t="s">
+      <c r="AI39" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ39" s="66">
+      <c r="AJ39" s="65">
         <v>30</v>
       </c>
-      <c r="AK39" s="66" t="s">
+      <c r="AK39" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL39" s="66">
+      <c r="AL39" s="65">
         <v>5</v>
       </c>
-      <c r="AM39" s="66">
+      <c r="AM39" s="65">
         <v>200</v>
       </c>
-      <c r="AN39" s="67" t="s">
+      <c r="AN39" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO39" s="66">
+      <c r="AO39" s="65">
         <v>1</v>
       </c>
-      <c r="AP39" s="67" t="s">
+      <c r="AP39" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ39" s="70">
+      <c r="AQ39" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR39" s="73">
+      <c r="AR39" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS39" s="67" t="s">
+      <c r="AS39" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT39" s="69">
+      <c r="AT39" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU39" s="69">
+      <c r="AU39" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV39" s="69">
+      <c r="AV39" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW39" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX39" s="71" t="b">
+      <c r="AW39" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY39" s="71" t="b">
+      <c r="AY39" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="66" t="s">
+    <row r="40" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="65" t="s">
         <v>328</v>
       </c>
-      <c r="B40" s="72" t="s">
+      <c r="B40" s="71" t="s">
         <v>418</v>
       </c>
-      <c r="C40" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D40" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" s="66" t="s">
+      <c r="C40" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F40" s="66" t="s">
+      <c r="F40" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G40" s="66">
+      <c r="G40" s="65">
         <v>1000</v>
       </c>
-      <c r="H40" s="66">
+      <c r="H40" s="65">
         <v>500</v>
       </c>
-      <c r="I40" s="66" t="s">
+      <c r="I40" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J40" s="66" t="s">
+      <c r="J40" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K40" s="66" t="s">
+      <c r="K40" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L40" s="66" t="s">
+      <c r="L40" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M40" s="66" t="s">
+      <c r="M40" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N40" s="66" t="s">
+      <c r="N40" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O40" s="74">
-        <v>0</v>
-      </c>
-      <c r="P40" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="74">
+      <c r="O40" s="73">
+        <v>0</v>
+      </c>
+      <c r="P40" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R40" s="66">
+      <c r="R40" s="65">
         <v>3</v>
       </c>
-      <c r="S40" s="66">
+      <c r="S40" s="65">
         <v>75</v>
       </c>
-      <c r="T40" s="66">
+      <c r="T40" s="65">
         <v>50</v>
       </c>
-      <c r="U40" s="66">
+      <c r="U40" s="65">
         <v>60</v>
       </c>
-      <c r="V40" s="74">
+      <c r="V40" s="73">
         <v>0.02</v>
       </c>
-      <c r="W40" s="66">
-        <v>0</v>
-      </c>
-      <c r="X40" s="66">
+      <c r="W40" s="65">
+        <v>0</v>
+      </c>
+      <c r="X40" s="65">
         <v>10</v>
       </c>
-      <c r="Y40" s="74">
+      <c r="Y40" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z40" s="74">
+      <c r="Z40" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA40" s="74">
+      <c r="AA40" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB40" s="74">
+      <c r="AB40" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC40" s="80">
+      <c r="AC40" s="79">
         <v>0.105</v>
       </c>
-      <c r="AD40" s="74" t="s">
+      <c r="AD40" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE40" s="77">
+      <c r="AE40" s="76">
         <v>0.11219999999999999</v>
       </c>
-      <c r="AF40" s="74">
+      <c r="AF40" s="73">
         <v>0.12</v>
       </c>
-      <c r="AG40" s="66" t="s">
+      <c r="AG40" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH40" s="67" t="s">
+      <c r="AH40" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI40" s="67" t="s">
+      <c r="AI40" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ40" s="66">
+      <c r="AJ40" s="65">
         <v>30</v>
       </c>
-      <c r="AK40" s="66" t="s">
+      <c r="AK40" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL40" s="66">
+      <c r="AL40" s="65">
         <v>5</v>
       </c>
-      <c r="AM40" s="66">
+      <c r="AM40" s="65">
         <v>200</v>
       </c>
-      <c r="AN40" s="67" t="s">
+      <c r="AN40" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO40" s="66">
+      <c r="AO40" s="65">
         <v>1</v>
       </c>
-      <c r="AP40" s="67" t="s">
+      <c r="AP40" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ40" s="70">
+      <c r="AQ40" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR40" s="73">
+      <c r="AR40" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS40" s="67" t="s">
+      <c r="AS40" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT40" s="69">
+      <c r="AT40" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU40" s="69">
+      <c r="AU40" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV40" s="69">
+      <c r="AV40" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW40" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX40" s="71" t="b">
+      <c r="AW40" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX40" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY40" s="71" t="b">
+      <c r="AY40" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66" t="s">
+    <row r="41" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="71" t="s">
         <v>419</v>
       </c>
-      <c r="C41" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" s="66" t="s">
+      <c r="C41" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G41" s="66">
+      <c r="G41" s="65">
         <v>1000</v>
       </c>
-      <c r="H41" s="66">
+      <c r="H41" s="65">
         <v>500</v>
       </c>
-      <c r="I41" s="66" t="s">
+      <c r="I41" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J41" s="66" t="s">
+      <c r="J41" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K41" s="66" t="s">
+      <c r="K41" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L41" s="66" t="s">
+      <c r="L41" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M41" s="66" t="s">
+      <c r="M41" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N41" s="66" t="s">
+      <c r="N41" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O41" s="74">
-        <v>0</v>
-      </c>
-      <c r="P41" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="74">
+      <c r="O41" s="73">
+        <v>0</v>
+      </c>
+      <c r="P41" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R41" s="66">
+      <c r="R41" s="65">
         <v>3</v>
       </c>
-      <c r="S41" s="66">
+      <c r="S41" s="65">
         <v>75</v>
       </c>
-      <c r="T41" s="66">
+      <c r="T41" s="65">
         <v>50</v>
       </c>
-      <c r="U41" s="66">
+      <c r="U41" s="65">
         <v>60</v>
       </c>
-      <c r="V41" s="74">
+      <c r="V41" s="73">
         <v>0.02</v>
       </c>
-      <c r="W41" s="66">
-        <v>0</v>
-      </c>
-      <c r="X41" s="66">
+      <c r="W41" s="65">
+        <v>0</v>
+      </c>
+      <c r="X41" s="65">
         <v>10</v>
       </c>
-      <c r="Y41" s="74">
+      <c r="Y41" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z41" s="74">
+      <c r="Z41" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA41" s="74">
+      <c r="AA41" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB41" s="74">
+      <c r="AB41" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC41" s="80">
+      <c r="AC41" s="79">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="AD41" s="74" t="s">
+      <c r="AD41" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE41" s="77">
+      <c r="AE41" s="76">
         <v>0.1022</v>
       </c>
-      <c r="AF41" s="74">
+      <c r="AF41" s="73">
         <v>0.12</v>
       </c>
-      <c r="AG41" s="66" t="s">
+      <c r="AG41" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH41" s="67" t="s">
+      <c r="AH41" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI41" s="67" t="s">
+      <c r="AI41" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ41" s="66">
+      <c r="AJ41" s="65">
         <v>30</v>
       </c>
-      <c r="AK41" s="66" t="s">
+      <c r="AK41" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL41" s="66">
+      <c r="AL41" s="65">
         <v>5</v>
       </c>
-      <c r="AM41" s="66">
+      <c r="AM41" s="65">
         <v>200</v>
       </c>
-      <c r="AN41" s="67" t="s">
+      <c r="AN41" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO41" s="66">
+      <c r="AO41" s="65">
         <v>1</v>
       </c>
-      <c r="AP41" s="67" t="s">
+      <c r="AP41" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ41" s="70">
+      <c r="AQ41" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR41" s="73">
+      <c r="AR41" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS41" s="67" t="s">
+      <c r="AS41" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT41" s="69">
+      <c r="AT41" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU41" s="69">
+      <c r="AU41" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV41" s="69">
+      <c r="AV41" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW41" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX41" s="71" t="b">
+      <c r="AW41" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY41" s="71" t="b">
+      <c r="AY41" s="70" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="65" t="s">
         <v>332</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="C42" s="68" t="b">
+      <c r="C42" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D42" s="44" t="b">
@@ -9029,13 +9057,13 @@
       </c>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A43" s="66" t="s">
+      <c r="A43" s="65" t="s">
         <v>334</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="C43" s="68" t="b">
+      <c r="C43" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D43" s="44" t="b">
@@ -9184,13 +9212,13 @@
       </c>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="65" t="s">
         <v>406</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="C44" s="68" t="b">
+      <c r="C44" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D44" s="44" t="b">
@@ -9339,13 +9367,13 @@
       </c>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="65" t="s">
         <v>407</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="C45" s="68" t="b">
+      <c r="C45" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D45" s="44" t="b">
@@ -9494,13 +9522,13 @@
       </c>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="65" t="s">
         <v>408</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="C46" s="68" t="b">
+      <c r="C46" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D46" s="44" t="b">
@@ -9677,479 +9705,479 @@
       <c r="AX47" s="18"/>
       <c r="AY47" s="18"/>
     </row>
-    <row r="48" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="66" t="s">
+    <row r="48" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="65" t="s">
         <v>351</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="71" t="s">
         <v>420</v>
       </c>
-      <c r="C48" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D48" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" s="66" t="s">
+      <c r="C48" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F48" s="66" t="s">
+      <c r="F48" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G48" s="66">
+      <c r="G48" s="65">
         <v>1000</v>
       </c>
-      <c r="H48" s="66">
+      <c r="H48" s="65">
         <v>500</v>
       </c>
-      <c r="I48" s="66" t="s">
+      <c r="I48" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J48" s="66" t="s">
+      <c r="J48" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K48" s="66" t="s">
+      <c r="K48" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L48" s="66" t="s">
+      <c r="L48" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M48" s="66" t="s">
+      <c r="M48" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N48" s="66" t="s">
+      <c r="N48" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O48" s="74">
-        <v>0</v>
-      </c>
-      <c r="P48" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="74">
+      <c r="O48" s="73">
+        <v>0</v>
+      </c>
+      <c r="P48" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R48" s="66">
+      <c r="R48" s="65">
         <v>3</v>
       </c>
-      <c r="S48" s="66">
+      <c r="S48" s="65">
         <v>75</v>
       </c>
-      <c r="T48" s="66">
+      <c r="T48" s="65">
         <v>50</v>
       </c>
-      <c r="U48" s="66">
+      <c r="U48" s="65">
         <v>60</v>
       </c>
-      <c r="V48" s="74">
+      <c r="V48" s="73">
         <v>0.02</v>
       </c>
-      <c r="W48" s="66">
-        <v>0</v>
-      </c>
-      <c r="X48" s="66">
+      <c r="W48" s="65">
+        <v>0</v>
+      </c>
+      <c r="X48" s="65">
         <v>10</v>
       </c>
-      <c r="Y48" s="74">
+      <c r="Y48" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z48" s="74">
+      <c r="Z48" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA48" s="74">
+      <c r="AA48" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB48" s="74">
+      <c r="AB48" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC48" s="75">
+      <c r="AC48" s="74">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD48" s="74" t="s">
+      <c r="AD48" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE48" s="77">
+      <c r="AE48" s="76">
         <v>0.1222</v>
       </c>
-      <c r="AF48" s="74">
+      <c r="AF48" s="73">
         <v>0.12</v>
       </c>
-      <c r="AG48" s="66" t="s">
+      <c r="AG48" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH48" s="67" t="s">
+      <c r="AH48" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI48" s="67" t="s">
+      <c r="AI48" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ48" s="66">
+      <c r="AJ48" s="65">
         <v>30</v>
       </c>
-      <c r="AK48" s="66" t="s">
+      <c r="AK48" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL48" s="66">
+      <c r="AL48" s="65">
         <v>5</v>
       </c>
-      <c r="AM48" s="66">
+      <c r="AM48" s="65">
         <v>200</v>
       </c>
-      <c r="AN48" s="67" t="s">
+      <c r="AN48" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO48" s="66">
+      <c r="AO48" s="65">
         <v>1</v>
       </c>
-      <c r="AP48" s="67" t="s">
+      <c r="AP48" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ48" s="70">
+      <c r="AQ48" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR48" s="73">
+      <c r="AR48" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS48" s="67" t="s">
+      <c r="AS48" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT48" s="69">
+      <c r="AT48" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU48" s="69">
+      <c r="AU48" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV48" s="69">
+      <c r="AV48" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW48" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX48" s="71" t="b">
+      <c r="AW48" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX48" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY48" s="71" t="b">
+      <c r="AY48" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="66" t="s">
+    <row r="49" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="65" t="s">
         <v>352</v>
       </c>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="71" t="s">
         <v>421</v>
       </c>
-      <c r="C49" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" s="66" t="s">
+      <c r="C49" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F49" s="66" t="s">
+      <c r="F49" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G49" s="66">
+      <c r="G49" s="65">
         <v>1000</v>
       </c>
-      <c r="H49" s="66">
+      <c r="H49" s="65">
         <v>500</v>
       </c>
-      <c r="I49" s="66" t="s">
+      <c r="I49" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J49" s="66" t="s">
+      <c r="J49" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K49" s="66" t="s">
+      <c r="K49" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L49" s="66" t="s">
+      <c r="L49" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M49" s="66" t="s">
+      <c r="M49" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N49" s="66" t="s">
+      <c r="N49" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O49" s="74">
-        <v>0</v>
-      </c>
-      <c r="P49" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="74">
+      <c r="O49" s="73">
+        <v>0</v>
+      </c>
+      <c r="P49" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R49" s="66">
+      <c r="R49" s="65">
         <v>3</v>
       </c>
-      <c r="S49" s="66">
+      <c r="S49" s="65">
         <v>75</v>
       </c>
-      <c r="T49" s="66">
+      <c r="T49" s="65">
         <v>50</v>
       </c>
-      <c r="U49" s="66">
+      <c r="U49" s="65">
         <v>60</v>
       </c>
-      <c r="V49" s="74">
+      <c r="V49" s="73">
         <v>0.02</v>
       </c>
-      <c r="W49" s="66">
-        <v>0</v>
-      </c>
-      <c r="X49" s="66">
+      <c r="W49" s="65">
+        <v>0</v>
+      </c>
+      <c r="X49" s="65">
         <v>10</v>
       </c>
-      <c r="Y49" s="74">
+      <c r="Y49" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z49" s="74">
+      <c r="Z49" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA49" s="74">
+      <c r="AA49" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB49" s="74">
+      <c r="AB49" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC49" s="75">
+      <c r="AC49" s="74">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD49" s="74" t="s">
+      <c r="AD49" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE49" s="77">
+      <c r="AE49" s="76">
         <v>0.11219999999999999</v>
       </c>
-      <c r="AF49" s="74">
+      <c r="AF49" s="73">
         <v>0.12</v>
       </c>
-      <c r="AG49" s="66" t="s">
+      <c r="AG49" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH49" s="67" t="s">
+      <c r="AH49" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI49" s="67" t="s">
+      <c r="AI49" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ49" s="66">
+      <c r="AJ49" s="65">
         <v>30</v>
       </c>
-      <c r="AK49" s="66" t="s">
+      <c r="AK49" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL49" s="66">
+      <c r="AL49" s="65">
         <v>5</v>
       </c>
-      <c r="AM49" s="66">
+      <c r="AM49" s="65">
         <v>200</v>
       </c>
-      <c r="AN49" s="67" t="s">
+      <c r="AN49" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO49" s="66">
+      <c r="AO49" s="65">
         <v>1</v>
       </c>
-      <c r="AP49" s="67" t="s">
+      <c r="AP49" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ49" s="70">
+      <c r="AQ49" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR49" s="73">
+      <c r="AR49" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS49" s="67" t="s">
+      <c r="AS49" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT49" s="69">
+      <c r="AT49" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU49" s="69">
+      <c r="AU49" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV49" s="69">
+      <c r="AV49" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW49" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX49" s="71" t="b">
+      <c r="AW49" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX49" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY49" s="71" t="b">
+      <c r="AY49" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="66" t="s">
+    <row r="50" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="65" t="s">
         <v>353</v>
       </c>
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="71" t="s">
         <v>422</v>
       </c>
-      <c r="C50" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" s="66" t="s">
+      <c r="C50" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F50" s="66" t="s">
+      <c r="F50" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G50" s="66">
+      <c r="G50" s="65">
         <v>1000</v>
       </c>
-      <c r="H50" s="66">
+      <c r="H50" s="65">
         <v>500</v>
       </c>
-      <c r="I50" s="66" t="s">
+      <c r="I50" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J50" s="66" t="s">
+      <c r="J50" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K50" s="66" t="s">
+      <c r="K50" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L50" s="66" t="s">
+      <c r="L50" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M50" s="66" t="s">
+      <c r="M50" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N50" s="66" t="s">
+      <c r="N50" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O50" s="74">
-        <v>0</v>
-      </c>
-      <c r="P50" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="74">
+      <c r="O50" s="73">
+        <v>0</v>
+      </c>
+      <c r="P50" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R50" s="66">
+      <c r="R50" s="65">
         <v>3</v>
       </c>
-      <c r="S50" s="66">
+      <c r="S50" s="65">
         <v>75</v>
       </c>
-      <c r="T50" s="66">
+      <c r="T50" s="65">
         <v>50</v>
       </c>
-      <c r="U50" s="66">
+      <c r="U50" s="65">
         <v>60</v>
       </c>
-      <c r="V50" s="74">
+      <c r="V50" s="73">
         <v>0.02</v>
       </c>
-      <c r="W50" s="66">
-        <v>0</v>
-      </c>
-      <c r="X50" s="66">
+      <c r="W50" s="65">
+        <v>0</v>
+      </c>
+      <c r="X50" s="65">
         <v>10</v>
       </c>
-      <c r="Y50" s="74">
+      <c r="Y50" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z50" s="74">
+      <c r="Z50" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA50" s="74">
+      <c r="AA50" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB50" s="74">
+      <c r="AB50" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC50" s="75">
+      <c r="AC50" s="74">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD50" s="74" t="s">
+      <c r="AD50" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE50" s="77">
+      <c r="AE50" s="76">
         <v>0.1022</v>
       </c>
-      <c r="AF50" s="74">
+      <c r="AF50" s="73">
         <v>0.12</v>
       </c>
-      <c r="AG50" s="66" t="s">
+      <c r="AG50" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH50" s="67" t="s">
+      <c r="AH50" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI50" s="67" t="s">
+      <c r="AI50" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ50" s="66">
+      <c r="AJ50" s="65">
         <v>30</v>
       </c>
-      <c r="AK50" s="66" t="s">
+      <c r="AK50" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL50" s="66">
+      <c r="AL50" s="65">
         <v>5</v>
       </c>
-      <c r="AM50" s="66">
+      <c r="AM50" s="65">
         <v>200</v>
       </c>
-      <c r="AN50" s="67" t="s">
+      <c r="AN50" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO50" s="66">
+      <c r="AO50" s="65">
         <v>1</v>
       </c>
-      <c r="AP50" s="67" t="s">
+      <c r="AP50" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ50" s="70">
+      <c r="AQ50" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR50" s="73">
+      <c r="AR50" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS50" s="67" t="s">
+      <c r="AS50" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT50" s="69">
+      <c r="AT50" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU50" s="69">
+      <c r="AU50" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV50" s="69">
+      <c r="AV50" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW50" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX50" s="71" t="b">
+      <c r="AW50" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX50" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY50" s="71" t="b">
+      <c r="AY50" s="70" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A51" s="66" t="s">
+      <c r="A51" s="65" t="s">
         <v>354</v>
       </c>
       <c r="B51" s="48" t="s">
         <v>394</v>
       </c>
-      <c r="C51" s="68" t="b">
+      <c r="C51" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D51" s="44" t="b">
@@ -10298,13 +10326,13 @@
       </c>
     </row>
     <row r="52" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A52" s="66" t="s">
+      <c r="A52" s="65" t="s">
         <v>355</v>
       </c>
       <c r="B52" s="48" t="s">
         <v>395</v>
       </c>
-      <c r="C52" s="68" t="b">
+      <c r="C52" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D52" s="44" t="b">
@@ -10453,13 +10481,13 @@
       </c>
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A53" s="66" t="s">
+      <c r="A53" s="65" t="s">
         <v>409</v>
       </c>
       <c r="B53" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="C53" s="68" t="b">
+      <c r="C53" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D53" s="44" t="b">
@@ -10608,13 +10636,13 @@
       </c>
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A54" s="66" t="s">
+      <c r="A54" s="65" t="s">
         <v>410</v>
       </c>
       <c r="B54" s="48" t="s">
         <v>412</v>
       </c>
-      <c r="C54" s="68" t="b">
+      <c r="C54" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D54" s="44" t="b">
@@ -10763,13 +10791,13 @@
       </c>
     </row>
     <row r="55" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A55" s="66" t="s">
+      <c r="A55" s="65" t="s">
         <v>411</v>
       </c>
       <c r="B55" s="48" t="s">
         <v>396</v>
       </c>
-      <c r="C55" s="68" t="b">
+      <c r="C55" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D55" s="44" t="b">
@@ -10917,68 +10945,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="72"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="O56" s="74"/>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="74"/>
-      <c r="V56" s="74"/>
-      <c r="Y56" s="74"/>
-      <c r="Z56" s="74"/>
-      <c r="AA56" s="74"/>
-      <c r="AB56" s="74"/>
-      <c r="AC56" s="75"/>
-      <c r="AD56" s="74"/>
-      <c r="AE56" s="77"/>
-      <c r="AF56" s="74"/>
-      <c r="AH56" s="67"/>
-      <c r="AI56" s="67"/>
-      <c r="AN56" s="67"/>
-      <c r="AP56" s="67"/>
-      <c r="AQ56" s="70"/>
-      <c r="AR56" s="73"/>
-      <c r="AS56" s="67"/>
-      <c r="AT56" s="69"/>
-      <c r="AU56" s="69"/>
-      <c r="AV56" s="69"/>
-      <c r="AW56" s="71"/>
-      <c r="AX56" s="71"/>
-      <c r="AY56" s="71"/>
+    <row r="56" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="71"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="70"/>
+      <c r="Q56" s="73"/>
+      <c r="V56" s="73"/>
+      <c r="Y56" s="73"/>
+      <c r="Z56" s="73"/>
+      <c r="AA56" s="73"/>
+      <c r="AB56" s="73"/>
+      <c r="AC56" s="74"/>
+      <c r="AD56" s="73"/>
+      <c r="AE56" s="76"/>
+      <c r="AF56" s="73"/>
+      <c r="AH56" s="66"/>
+      <c r="AI56" s="66"/>
+      <c r="AN56" s="66"/>
+      <c r="AP56" s="66"/>
+      <c r="AQ56" s="69"/>
+      <c r="AR56" s="72"/>
+      <c r="AS56" s="66"/>
+      <c r="AT56" s="68"/>
+      <c r="AU56" s="68"/>
+      <c r="AV56" s="68"/>
+      <c r="AW56" s="70"/>
+      <c r="AX56" s="70"/>
+      <c r="AY56" s="70"/>
     </row>
-    <row r="57" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="72"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="O57" s="74"/>
-      <c r="P57" s="71"/>
-      <c r="Q57" s="74"/>
-      <c r="V57" s="74"/>
-      <c r="Y57" s="74"/>
-      <c r="Z57" s="74"/>
-      <c r="AA57" s="74"/>
-      <c r="AB57" s="74"/>
-      <c r="AC57" s="75"/>
-      <c r="AD57" s="74"/>
-      <c r="AE57" s="77"/>
-      <c r="AF57" s="74"/>
-      <c r="AH57" s="67"/>
-      <c r="AI57" s="67"/>
-      <c r="AN57" s="67"/>
-      <c r="AP57" s="67"/>
-      <c r="AQ57" s="70"/>
-      <c r="AR57" s="73"/>
-      <c r="AS57" s="67"/>
-      <c r="AT57" s="69"/>
-      <c r="AU57" s="69"/>
-      <c r="AV57" s="69"/>
-      <c r="AW57" s="71"/>
-      <c r="AX57" s="71"/>
-      <c r="AY57" s="71"/>
+    <row r="57" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="71"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="70"/>
+      <c r="Q57" s="73"/>
+      <c r="V57" s="73"/>
+      <c r="Y57" s="73"/>
+      <c r="Z57" s="73"/>
+      <c r="AA57" s="73"/>
+      <c r="AB57" s="73"/>
+      <c r="AC57" s="74"/>
+      <c r="AD57" s="73"/>
+      <c r="AE57" s="76"/>
+      <c r="AF57" s="73"/>
+      <c r="AH57" s="66"/>
+      <c r="AI57" s="66"/>
+      <c r="AN57" s="66"/>
+      <c r="AP57" s="66"/>
+      <c r="AQ57" s="69"/>
+      <c r="AR57" s="72"/>
+      <c r="AS57" s="66"/>
+      <c r="AT57" s="68"/>
+      <c r="AU57" s="68"/>
+      <c r="AV57" s="68"/>
+      <c r="AW57" s="70"/>
+      <c r="AX57" s="70"/>
+      <c r="AY57" s="70"/>
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B58" s="99" t="s">
+      <c r="B58" s="91" t="s">
         <v>465</v>
       </c>
       <c r="C58" s="11"/>
@@ -10991,10 +11019,10 @@
       <c r="Z58" s="26"/>
       <c r="AA58" s="26"/>
       <c r="AB58" s="26"/>
-      <c r="AC58" s="86"/>
-      <c r="AD58" s="86"/>
-      <c r="AE58" s="87"/>
-      <c r="AF58" s="86"/>
+      <c r="AC58" s="85"/>
+      <c r="AD58" s="85"/>
+      <c r="AE58" s="86"/>
+      <c r="AF58" s="85"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
       <c r="AN58" s="2"/>
@@ -11008,2794 +11036,2794 @@
       <c r="AX58" s="18"/>
       <c r="AY58" s="18"/>
     </row>
-    <row r="59" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="66" t="s">
+    <row r="59" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="65" t="s">
         <v>423</v>
       </c>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="71" t="s">
         <v>431</v>
       </c>
-      <c r="C59" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E59" s="66" t="s">
+      <c r="C59" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F59" s="66" t="s">
+      <c r="F59" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G59" s="66">
+      <c r="G59" s="65">
         <v>1000</v>
       </c>
-      <c r="H59" s="66">
+      <c r="H59" s="65">
         <v>500</v>
       </c>
-      <c r="I59" s="66" t="s">
+      <c r="I59" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J59" s="66" t="s">
+      <c r="J59" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K59" s="66" t="s">
+      <c r="K59" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L59" s="66" t="s">
+      <c r="L59" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M59" s="66" t="s">
+      <c r="M59" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N59" s="66" t="s">
+      <c r="N59" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O59" s="74">
-        <v>0</v>
-      </c>
-      <c r="P59" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="74">
+      <c r="O59" s="73">
+        <v>0</v>
+      </c>
+      <c r="P59" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R59" s="66">
+      <c r="R59" s="65">
         <v>3</v>
       </c>
-      <c r="S59" s="66">
+      <c r="S59" s="65">
         <v>75</v>
       </c>
-      <c r="T59" s="66">
+      <c r="T59" s="65">
         <v>50</v>
       </c>
-      <c r="U59" s="66">
+      <c r="U59" s="65">
         <v>60</v>
       </c>
-      <c r="V59" s="74">
+      <c r="V59" s="73">
         <v>0.02</v>
       </c>
-      <c r="W59" s="66">
-        <v>0</v>
-      </c>
-      <c r="X59" s="66">
+      <c r="W59" s="65">
+        <v>0</v>
+      </c>
+      <c r="X59" s="65">
         <v>10</v>
       </c>
-      <c r="Y59" s="74">
+      <c r="Y59" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z59" s="74">
+      <c r="Z59" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA59" s="74">
+      <c r="AA59" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB59" s="74">
+      <c r="AB59" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC59" s="88">
+      <c r="AC59" s="87">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD59" s="86" t="s">
+      <c r="AD59" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE59" s="88">
+      <c r="AE59" s="87">
         <v>7.5157231635036972E-2</v>
       </c>
-      <c r="AF59" s="90">
+      <c r="AF59" s="89">
         <v>1.7733112250080365E-2</v>
       </c>
-      <c r="AG59" s="66" t="s">
+      <c r="AG59" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH59" s="67" t="s">
+      <c r="AH59" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI59" s="67" t="s">
+      <c r="AI59" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ59" s="66">
+      <c r="AJ59" s="65">
         <v>30</v>
       </c>
-      <c r="AK59" s="66" t="s">
+      <c r="AK59" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL59" s="66">
+      <c r="AL59" s="65">
         <v>5</v>
       </c>
-      <c r="AM59" s="66">
+      <c r="AM59" s="65">
         <v>200</v>
       </c>
-      <c r="AN59" s="67" t="s">
+      <c r="AN59" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO59" s="66">
+      <c r="AO59" s="65">
         <v>1</v>
       </c>
-      <c r="AP59" s="67" t="s">
+      <c r="AP59" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ59" s="70">
+      <c r="AQ59" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR59" s="73">
+      <c r="AR59" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS59" s="67" t="s">
+      <c r="AS59" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT59" s="69">
+      <c r="AT59" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU59" s="69">
+      <c r="AU59" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV59" s="69">
+      <c r="AV59" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW59" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX59" s="71" t="b">
+      <c r="AW59" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX59" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY59" s="71" t="b">
+      <c r="AY59" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="66" t="s">
+    <row r="60" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="65" t="s">
         <v>424</v>
       </c>
-      <c r="B60" s="72" t="s">
+      <c r="B60" s="71" t="s">
         <v>432</v>
       </c>
-      <c r="C60" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D60" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E60" s="66" t="s">
+      <c r="C60" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F60" s="66" t="s">
+      <c r="F60" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G60" s="66">
+      <c r="G60" s="65">
         <v>1000</v>
       </c>
-      <c r="H60" s="66">
+      <c r="H60" s="65">
         <v>500</v>
       </c>
-      <c r="I60" s="66" t="s">
+      <c r="I60" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J60" s="66" t="s">
+      <c r="J60" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K60" s="66" t="s">
+      <c r="K60" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L60" s="66" t="s">
+      <c r="L60" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M60" s="66" t="s">
+      <c r="M60" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N60" s="66" t="s">
+      <c r="N60" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O60" s="74">
-        <v>0</v>
-      </c>
-      <c r="P60" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="74">
+      <c r="O60" s="73">
+        <v>0</v>
+      </c>
+      <c r="P60" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R60" s="66">
+      <c r="R60" s="65">
         <v>3</v>
       </c>
-      <c r="S60" s="66">
+      <c r="S60" s="65">
         <v>75</v>
       </c>
-      <c r="T60" s="66">
+      <c r="T60" s="65">
         <v>50</v>
       </c>
-      <c r="U60" s="66">
+      <c r="U60" s="65">
         <v>60</v>
       </c>
-      <c r="V60" s="74">
+      <c r="V60" s="73">
         <v>0.02</v>
       </c>
-      <c r="W60" s="66">
-        <v>0</v>
-      </c>
-      <c r="X60" s="66">
+      <c r="W60" s="65">
+        <v>0</v>
+      </c>
+      <c r="X60" s="65">
         <v>10</v>
       </c>
-      <c r="Y60" s="74">
+      <c r="Y60" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z60" s="74">
+      <c r="Z60" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA60" s="74">
+      <c r="AA60" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB60" s="74">
+      <c r="AB60" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC60" s="89">
+      <c r="AC60" s="88">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="AD60" s="86" t="s">
+      <c r="AD60" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE60" s="89">
+      <c r="AE60" s="88">
         <v>6.5157231635036977E-2</v>
       </c>
-      <c r="AF60" s="91">
+      <c r="AF60" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
-      <c r="AG60" s="66" t="s">
+      <c r="AG60" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH60" s="67" t="s">
+      <c r="AH60" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI60" s="67" t="s">
+      <c r="AI60" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ60" s="66">
+      <c r="AJ60" s="65">
         <v>30</v>
       </c>
-      <c r="AK60" s="66" t="s">
+      <c r="AK60" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL60" s="66">
+      <c r="AL60" s="65">
         <v>5</v>
       </c>
-      <c r="AM60" s="66">
+      <c r="AM60" s="65">
         <v>200</v>
       </c>
-      <c r="AN60" s="67" t="s">
+      <c r="AN60" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO60" s="66">
+      <c r="AO60" s="65">
         <v>1</v>
       </c>
-      <c r="AP60" s="67" t="s">
+      <c r="AP60" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ60" s="70">
+      <c r="AQ60" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR60" s="73">
+      <c r="AR60" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS60" s="67" t="s">
+      <c r="AS60" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT60" s="69">
+      <c r="AT60" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU60" s="69">
+      <c r="AU60" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV60" s="69">
+      <c r="AV60" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW60" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX60" s="71" t="b">
+      <c r="AW60" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX60" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY60" s="71" t="b">
+      <c r="AY60" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="66" t="s">
+    <row r="61" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="65" t="s">
         <v>425</v>
       </c>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="71" t="s">
         <v>433</v>
       </c>
-      <c r="C61" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D61" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" s="66" t="s">
+      <c r="C61" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F61" s="66" t="s">
+      <c r="F61" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G61" s="66">
+      <c r="G61" s="65">
         <v>1000</v>
       </c>
-      <c r="H61" s="66">
+      <c r="H61" s="65">
         <v>500</v>
       </c>
-      <c r="I61" s="66" t="s">
+      <c r="I61" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J61" s="66" t="s">
+      <c r="J61" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K61" s="66" t="s">
+      <c r="K61" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L61" s="66" t="s">
+      <c r="L61" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M61" s="66" t="s">
+      <c r="M61" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N61" s="66" t="s">
+      <c r="N61" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O61" s="74">
-        <v>0</v>
-      </c>
-      <c r="P61" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="74">
+      <c r="O61" s="73">
+        <v>0</v>
+      </c>
+      <c r="P61" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R61" s="66">
+      <c r="R61" s="65">
         <v>3</v>
       </c>
-      <c r="S61" s="66">
+      <c r="S61" s="65">
         <v>75</v>
       </c>
-      <c r="T61" s="66">
+      <c r="T61" s="65">
         <v>50</v>
       </c>
-      <c r="U61" s="66">
+      <c r="U61" s="65">
         <v>60</v>
       </c>
-      <c r="V61" s="74">
+      <c r="V61" s="73">
         <v>0.02</v>
       </c>
-      <c r="W61" s="66">
-        <v>0</v>
-      </c>
-      <c r="X61" s="66">
+      <c r="W61" s="65">
+        <v>0</v>
+      </c>
+      <c r="X61" s="65">
         <v>10</v>
       </c>
-      <c r="Y61" s="74">
+      <c r="Y61" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z61" s="74">
+      <c r="Z61" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA61" s="74">
+      <c r="AA61" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB61" s="74">
+      <c r="AB61" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC61" s="89">
+      <c r="AC61" s="88">
         <v>5.4999999999999993E-2</v>
       </c>
-      <c r="AD61" s="86" t="s">
+      <c r="AD61" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE61" s="89">
+      <c r="AE61" s="88">
         <v>5.5157231635036968E-2</v>
       </c>
-      <c r="AF61" s="91">
+      <c r="AF61" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
-      <c r="AG61" s="66" t="s">
+      <c r="AG61" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH61" s="67" t="s">
+      <c r="AH61" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI61" s="67" t="s">
+      <c r="AI61" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ61" s="66">
+      <c r="AJ61" s="65">
         <v>30</v>
       </c>
-      <c r="AK61" s="66" t="s">
+      <c r="AK61" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL61" s="66">
+      <c r="AL61" s="65">
         <v>5</v>
       </c>
-      <c r="AM61" s="66">
+      <c r="AM61" s="65">
         <v>200</v>
       </c>
-      <c r="AN61" s="67" t="s">
+      <c r="AN61" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO61" s="66">
+      <c r="AO61" s="65">
         <v>1</v>
       </c>
-      <c r="AP61" s="67" t="s">
+      <c r="AP61" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ61" s="70">
+      <c r="AQ61" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR61" s="73">
+      <c r="AR61" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS61" s="67" t="s">
+      <c r="AS61" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT61" s="69">
+      <c r="AT61" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU61" s="69">
+      <c r="AU61" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV61" s="69">
+      <c r="AV61" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW61" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX61" s="71" t="b">
+      <c r="AW61" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX61" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY61" s="71" t="b">
+      <c r="AY61" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="66" t="s">
+    <row r="62" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="65" t="s">
         <v>426</v>
       </c>
-      <c r="B62" s="72" t="s">
+      <c r="B62" s="71" t="s">
         <v>434</v>
       </c>
-      <c r="C62" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D62" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E62" s="66" t="s">
+      <c r="C62" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F62" s="66" t="s">
+      <c r="F62" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G62" s="66">
+      <c r="G62" s="65">
         <v>1000</v>
       </c>
-      <c r="H62" s="66">
+      <c r="H62" s="65">
         <v>500</v>
       </c>
-      <c r="I62" s="66" t="s">
+      <c r="I62" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J62" s="66" t="s">
+      <c r="J62" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K62" s="66" t="s">
+      <c r="K62" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L62" s="66" t="s">
+      <c r="L62" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M62" s="66" t="s">
+      <c r="M62" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N62" s="66" t="s">
+      <c r="N62" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O62" s="74">
-        <v>0</v>
-      </c>
-      <c r="P62" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="74">
+      <c r="O62" s="73">
+        <v>0</v>
+      </c>
+      <c r="P62" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R62" s="66">
+      <c r="R62" s="65">
         <v>3</v>
       </c>
-      <c r="S62" s="66">
+      <c r="S62" s="65">
         <v>75</v>
       </c>
-      <c r="T62" s="66">
+      <c r="T62" s="65">
         <v>50</v>
       </c>
-      <c r="U62" s="66">
+      <c r="U62" s="65">
         <v>60</v>
       </c>
-      <c r="V62" s="74">
+      <c r="V62" s="73">
         <v>0.02</v>
       </c>
-      <c r="W62" s="66">
-        <v>0</v>
-      </c>
-      <c r="X62" s="66">
+      <c r="W62" s="65">
+        <v>0</v>
+      </c>
+      <c r="X62" s="65">
         <v>10</v>
       </c>
-      <c r="Y62" s="74">
+      <c r="Y62" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z62" s="74">
+      <c r="Z62" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA62" s="74">
+      <c r="AA62" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB62" s="74">
+      <c r="AB62" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC62" s="89">
+      <c r="AC62" s="88">
         <v>4.4999999999999991E-2</v>
       </c>
-      <c r="AD62" s="86" t="s">
+      <c r="AD62" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE62" s="89">
+      <c r="AE62" s="88">
         <v>4.5157231635036967E-2</v>
       </c>
-      <c r="AF62" s="91">
+      <c r="AF62" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
-      <c r="AG62" s="66" t="s">
+      <c r="AG62" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH62" s="67" t="s">
+      <c r="AH62" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI62" s="67" t="s">
+      <c r="AI62" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ62" s="66">
+      <c r="AJ62" s="65">
         <v>30</v>
       </c>
-      <c r="AK62" s="66" t="s">
+      <c r="AK62" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL62" s="66">
+      <c r="AL62" s="65">
         <v>5</v>
       </c>
-      <c r="AM62" s="66">
+      <c r="AM62" s="65">
         <v>200</v>
       </c>
-      <c r="AN62" s="67" t="s">
+      <c r="AN62" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO62" s="66">
+      <c r="AO62" s="65">
         <v>1</v>
       </c>
-      <c r="AP62" s="67" t="s">
+      <c r="AP62" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ62" s="70">
+      <c r="AQ62" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR62" s="73">
+      <c r="AR62" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS62" s="67" t="s">
+      <c r="AS62" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT62" s="69">
+      <c r="AT62" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU62" s="69">
+      <c r="AU62" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV62" s="69">
+      <c r="AV62" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW62" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX62" s="71" t="b">
+      <c r="AW62" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX62" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY62" s="71" t="b">
+      <c r="AY62" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="66" t="s">
+    <row r="63" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="65" t="s">
         <v>427</v>
       </c>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="71" t="s">
         <v>438</v>
       </c>
-      <c r="C63" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D63" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E63" s="66" t="s">
+      <c r="C63" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F63" s="66" t="s">
+      <c r="F63" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G63" s="66">
+      <c r="G63" s="65">
         <v>1000</v>
       </c>
-      <c r="H63" s="66">
+      <c r="H63" s="65">
         <v>500</v>
       </c>
-      <c r="I63" s="66" t="s">
+      <c r="I63" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J63" s="66" t="s">
+      <c r="J63" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K63" s="66" t="s">
+      <c r="K63" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L63" s="66" t="s">
+      <c r="L63" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M63" s="66" t="s">
+      <c r="M63" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N63" s="66" t="s">
+      <c r="N63" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O63" s="74">
-        <v>0</v>
-      </c>
-      <c r="P63" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="74">
+      <c r="O63" s="73">
+        <v>0</v>
+      </c>
+      <c r="P63" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R63" s="66">
+      <c r="R63" s="65">
         <v>3</v>
       </c>
-      <c r="S63" s="66">
+      <c r="S63" s="65">
         <v>75</v>
       </c>
-      <c r="T63" s="66">
+      <c r="T63" s="65">
         <v>50</v>
       </c>
-      <c r="U63" s="66">
+      <c r="U63" s="65">
         <v>60</v>
       </c>
-      <c r="V63" s="74">
+      <c r="V63" s="73">
         <v>0.02</v>
       </c>
-      <c r="W63" s="66">
-        <v>0</v>
-      </c>
-      <c r="X63" s="66">
+      <c r="W63" s="65">
+        <v>0</v>
+      </c>
+      <c r="X63" s="65">
         <v>10</v>
       </c>
-      <c r="Y63" s="74">
+      <c r="Y63" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z63" s="74">
+      <c r="Z63" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA63" s="74">
+      <c r="AA63" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB63" s="74">
+      <c r="AB63" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC63" s="89">
+      <c r="AC63" s="88">
         <v>0.04</v>
       </c>
-      <c r="AD63" s="86" t="s">
+      <c r="AD63" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE63" s="89">
+      <c r="AE63" s="88">
         <v>4.02E-2</v>
       </c>
-      <c r="AF63" s="91">
+      <c r="AF63" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
-      <c r="AG63" s="66" t="s">
+      <c r="AG63" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH63" s="67" t="s">
+      <c r="AH63" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI63" s="67" t="s">
+      <c r="AI63" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ63" s="66">
+      <c r="AJ63" s="65">
         <v>30</v>
       </c>
-      <c r="AK63" s="66" t="s">
+      <c r="AK63" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL63" s="66">
+      <c r="AL63" s="65">
         <v>5</v>
       </c>
-      <c r="AM63" s="66">
+      <c r="AM63" s="65">
         <v>200</v>
       </c>
-      <c r="AN63" s="67" t="s">
+      <c r="AN63" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO63" s="66">
+      <c r="AO63" s="65">
         <v>1</v>
       </c>
-      <c r="AP63" s="67" t="s">
+      <c r="AP63" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ63" s="70">
+      <c r="AQ63" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR63" s="73">
+      <c r="AR63" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS63" s="67" t="s">
+      <c r="AS63" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT63" s="69">
+      <c r="AT63" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU63" s="69">
+      <c r="AU63" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV63" s="69">
+      <c r="AV63" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW63" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX63" s="71" t="b">
+      <c r="AW63" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX63" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY63" s="71" t="b">
+      <c r="AY63" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="66" t="s">
+    <row r="64" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="65" t="s">
         <v>428</v>
       </c>
-      <c r="B64" s="72" t="s">
+      <c r="B64" s="71" t="s">
         <v>435</v>
       </c>
-      <c r="C64" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D64" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E64" s="66" t="s">
+      <c r="C64" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F64" s="66" t="s">
+      <c r="F64" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G64" s="66">
+      <c r="G64" s="65">
         <v>1000</v>
       </c>
-      <c r="H64" s="66">
+      <c r="H64" s="65">
         <v>500</v>
       </c>
-      <c r="I64" s="66" t="s">
+      <c r="I64" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J64" s="66" t="s">
+      <c r="J64" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K64" s="66" t="s">
+      <c r="K64" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L64" s="66" t="s">
+      <c r="L64" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M64" s="66" t="s">
+      <c r="M64" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N64" s="66" t="s">
+      <c r="N64" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O64" s="74">
-        <v>0</v>
-      </c>
-      <c r="P64" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="74">
+      <c r="O64" s="73">
+        <v>0</v>
+      </c>
+      <c r="P64" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R64" s="66">
+      <c r="R64" s="65">
         <v>3</v>
       </c>
-      <c r="S64" s="66">
+      <c r="S64" s="65">
         <v>75</v>
       </c>
-      <c r="T64" s="66">
+      <c r="T64" s="65">
         <v>50</v>
       </c>
-      <c r="U64" s="66">
+      <c r="U64" s="65">
         <v>60</v>
       </c>
-      <c r="V64" s="74">
+      <c r="V64" s="73">
         <v>0.02</v>
       </c>
-      <c r="W64" s="66">
-        <v>0</v>
-      </c>
-      <c r="X64" s="66">
+      <c r="W64" s="65">
+        <v>0</v>
+      </c>
+      <c r="X64" s="65">
         <v>10</v>
       </c>
-      <c r="Y64" s="74">
+      <c r="Y64" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z64" s="74">
+      <c r="Z64" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA64" s="74">
+      <c r="AA64" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB64" s="74">
+      <c r="AB64" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC64" s="88">
+      <c r="AC64" s="87">
         <v>3.4999999999999989E-2</v>
       </c>
-      <c r="AD64" s="86" t="s">
+      <c r="AD64" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE64" s="88">
+      <c r="AE64" s="87">
         <v>3.5157231635036965E-2</v>
       </c>
-      <c r="AF64" s="90">
+      <c r="AF64" s="89">
         <v>1.7733112250080365E-2</v>
       </c>
-      <c r="AG64" s="66" t="s">
+      <c r="AG64" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH64" s="67" t="s">
+      <c r="AH64" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI64" s="67" t="s">
+      <c r="AI64" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ64" s="66">
+      <c r="AJ64" s="65">
         <v>30</v>
       </c>
-      <c r="AK64" s="66" t="s">
+      <c r="AK64" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL64" s="66">
+      <c r="AL64" s="65">
         <v>5</v>
       </c>
-      <c r="AM64" s="66">
+      <c r="AM64" s="65">
         <v>200</v>
       </c>
-      <c r="AN64" s="67" t="s">
+      <c r="AN64" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO64" s="66">
+      <c r="AO64" s="65">
         <v>1</v>
       </c>
-      <c r="AP64" s="67" t="s">
+      <c r="AP64" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ64" s="70">
+      <c r="AQ64" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR64" s="73">
+      <c r="AR64" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS64" s="67" t="s">
+      <c r="AS64" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT64" s="69">
+      <c r="AT64" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU64" s="69">
+      <c r="AU64" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV64" s="69">
+      <c r="AV64" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW64" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX64" s="71" t="b">
+      <c r="AW64" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX64" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY64" s="71" t="b">
+      <c r="AY64" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="66" t="s">
+    <row r="65" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="65" t="s">
         <v>429</v>
       </c>
-      <c r="B65" s="72" t="s">
+      <c r="B65" s="71" t="s">
         <v>436</v>
       </c>
-      <c r="C65" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D65" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" s="66" t="s">
+      <c r="C65" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F65" s="66" t="s">
+      <c r="F65" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G65" s="66">
+      <c r="G65" s="65">
         <v>1000</v>
       </c>
-      <c r="H65" s="66">
+      <c r="H65" s="65">
         <v>500</v>
       </c>
-      <c r="I65" s="66" t="s">
+      <c r="I65" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J65" s="66" t="s">
+      <c r="J65" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K65" s="66" t="s">
+      <c r="K65" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L65" s="66" t="s">
+      <c r="L65" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M65" s="66" t="s">
+      <c r="M65" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N65" s="66" t="s">
+      <c r="N65" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O65" s="74">
-        <v>0</v>
-      </c>
-      <c r="P65" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="74">
+      <c r="O65" s="73">
+        <v>0</v>
+      </c>
+      <c r="P65" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R65" s="66">
+      <c r="R65" s="65">
         <v>3</v>
       </c>
-      <c r="S65" s="66">
+      <c r="S65" s="65">
         <v>75</v>
       </c>
-      <c r="T65" s="66">
+      <c r="T65" s="65">
         <v>50</v>
       </c>
-      <c r="U65" s="66">
+      <c r="U65" s="65">
         <v>60</v>
       </c>
-      <c r="V65" s="74">
+      <c r="V65" s="73">
         <v>0.02</v>
       </c>
-      <c r="W65" s="66">
-        <v>0</v>
-      </c>
-      <c r="X65" s="66">
+      <c r="W65" s="65">
+        <v>0</v>
+      </c>
+      <c r="X65" s="65">
         <v>10</v>
       </c>
-      <c r="Y65" s="74">
+      <c r="Y65" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z65" s="74">
+      <c r="Z65" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA65" s="74">
+      <c r="AA65" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB65" s="74">
+      <c r="AB65" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC65" s="89">
+      <c r="AC65" s="88">
         <v>2.9999999999999992E-2</v>
       </c>
-      <c r="AD65" s="86" t="s">
+      <c r="AD65" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE65" s="89">
+      <c r="AE65" s="88">
         <v>3.0157231635036967E-2</v>
       </c>
-      <c r="AF65" s="91">
+      <c r="AF65" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
-      <c r="AG65" s="66" t="s">
+      <c r="AG65" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH65" s="67" t="s">
+      <c r="AH65" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI65" s="67" t="s">
+      <c r="AI65" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ65" s="66">
+      <c r="AJ65" s="65">
         <v>30</v>
       </c>
-      <c r="AK65" s="66" t="s">
+      <c r="AK65" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL65" s="66">
+      <c r="AL65" s="65">
         <v>5</v>
       </c>
-      <c r="AM65" s="66">
+      <c r="AM65" s="65">
         <v>200</v>
       </c>
-      <c r="AN65" s="67" t="s">
+      <c r="AN65" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO65" s="66">
+      <c r="AO65" s="65">
         <v>1</v>
       </c>
-      <c r="AP65" s="67" t="s">
+      <c r="AP65" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ65" s="70">
+      <c r="AQ65" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR65" s="73">
+      <c r="AR65" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS65" s="67" t="s">
+      <c r="AS65" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT65" s="69">
+      <c r="AT65" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU65" s="69">
+      <c r="AU65" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV65" s="69">
+      <c r="AV65" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW65" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX65" s="71" t="b">
+      <c r="AW65" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX65" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY65" s="71" t="b">
+      <c r="AY65" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="66" t="s">
+    <row r="66" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="65" t="s">
         <v>430</v>
       </c>
-      <c r="B66" s="72" t="s">
+      <c r="B66" s="71" t="s">
         <v>437</v>
       </c>
-      <c r="C66" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D66" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E66" s="66" t="s">
+      <c r="C66" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F66" s="66" t="s">
+      <c r="F66" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G66" s="66">
+      <c r="G66" s="65">
         <v>1000</v>
       </c>
-      <c r="H66" s="66">
+      <c r="H66" s="65">
         <v>500</v>
       </c>
-      <c r="I66" s="66" t="s">
+      <c r="I66" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J66" s="66" t="s">
+      <c r="J66" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K66" s="66" t="s">
+      <c r="K66" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L66" s="66" t="s">
+      <c r="L66" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M66" s="66" t="s">
+      <c r="M66" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N66" s="66" t="s">
+      <c r="N66" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O66" s="74">
-        <v>0</v>
-      </c>
-      <c r="P66" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="74">
+      <c r="O66" s="73">
+        <v>0</v>
+      </c>
+      <c r="P66" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R66" s="66">
+      <c r="R66" s="65">
         <v>3</v>
       </c>
-      <c r="S66" s="66">
+      <c r="S66" s="65">
         <v>75</v>
       </c>
-      <c r="T66" s="66">
+      <c r="T66" s="65">
         <v>50</v>
       </c>
-      <c r="U66" s="66">
+      <c r="U66" s="65">
         <v>60</v>
       </c>
-      <c r="V66" s="74">
+      <c r="V66" s="73">
         <v>0.02</v>
       </c>
-      <c r="W66" s="66">
-        <v>0</v>
-      </c>
-      <c r="X66" s="66">
+      <c r="W66" s="65">
+        <v>0</v>
+      </c>
+      <c r="X66" s="65">
         <v>10</v>
       </c>
-      <c r="Y66" s="74">
+      <c r="Y66" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z66" s="74">
+      <c r="Z66" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA66" s="74">
+      <c r="AA66" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB66" s="74">
+      <c r="AB66" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC66" s="89">
+      <c r="AC66" s="88">
         <v>2.4999999999999994E-2</v>
       </c>
-      <c r="AD66" s="86" t="s">
+      <c r="AD66" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE66" s="89">
+      <c r="AE66" s="88">
         <v>2.515723163503697E-2</v>
       </c>
-      <c r="AF66" s="91">
+      <c r="AF66" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
-      <c r="AG66" s="66" t="s">
+      <c r="AG66" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH66" s="67" t="s">
+      <c r="AH66" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI66" s="67" t="s">
+      <c r="AI66" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ66" s="66">
+      <c r="AJ66" s="65">
         <v>30</v>
       </c>
-      <c r="AK66" s="66" t="s">
+      <c r="AK66" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL66" s="66">
+      <c r="AL66" s="65">
         <v>5</v>
       </c>
-      <c r="AM66" s="66">
+      <c r="AM66" s="65">
         <v>200</v>
       </c>
-      <c r="AN66" s="67" t="s">
+      <c r="AN66" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO66" s="66">
+      <c r="AO66" s="65">
         <v>1</v>
       </c>
-      <c r="AP66" s="67" t="s">
+      <c r="AP66" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ66" s="70">
+      <c r="AQ66" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR66" s="73">
+      <c r="AR66" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS66" s="67" t="s">
+      <c r="AS66" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT66" s="69">
+      <c r="AT66" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU66" s="69">
+      <c r="AU66" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV66" s="69">
+      <c r="AV66" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW66" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX66" s="71" t="b">
+      <c r="AW66" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX66" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY66" s="71" t="b">
+      <c r="AY66" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="72"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="68"/>
-      <c r="O67" s="74"/>
-      <c r="P67" s="71"/>
-      <c r="Q67" s="74"/>
-      <c r="V67" s="74"/>
-      <c r="Y67" s="74"/>
-      <c r="Z67" s="74"/>
-      <c r="AA67" s="74"/>
-      <c r="AB67" s="74"/>
-      <c r="AC67" s="89"/>
-      <c r="AD67" s="86"/>
-      <c r="AE67" s="89"/>
-      <c r="AF67" s="91"/>
-      <c r="AH67" s="67"/>
-      <c r="AI67" s="67"/>
-      <c r="AN67" s="67"/>
-      <c r="AP67" s="67"/>
-      <c r="AQ67" s="70"/>
-      <c r="AR67" s="73"/>
-      <c r="AS67" s="67"/>
-      <c r="AT67" s="69"/>
-      <c r="AU67" s="69"/>
-      <c r="AV67" s="69"/>
-      <c r="AW67" s="71"/>
-      <c r="AX67" s="71"/>
-      <c r="AY67" s="71"/>
+    <row r="67" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="71"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="O67" s="73"/>
+      <c r="P67" s="70"/>
+      <c r="Q67" s="73"/>
+      <c r="V67" s="73"/>
+      <c r="Y67" s="73"/>
+      <c r="Z67" s="73"/>
+      <c r="AA67" s="73"/>
+      <c r="AB67" s="73"/>
+      <c r="AC67" s="88"/>
+      <c r="AD67" s="85"/>
+      <c r="AE67" s="88"/>
+      <c r="AF67" s="90"/>
+      <c r="AH67" s="66"/>
+      <c r="AI67" s="66"/>
+      <c r="AN67" s="66"/>
+      <c r="AP67" s="66"/>
+      <c r="AQ67" s="69"/>
+      <c r="AR67" s="72"/>
+      <c r="AS67" s="66"/>
+      <c r="AT67" s="68"/>
+      <c r="AU67" s="68"/>
+      <c r="AV67" s="68"/>
+      <c r="AW67" s="70"/>
+      <c r="AX67" s="70"/>
+      <c r="AY67" s="70"/>
     </row>
-    <row r="68" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="66" t="s">
+    <row r="68" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="65" t="s">
         <v>454</v>
       </c>
-      <c r="B68" s="72" t="s">
+      <c r="B68" s="71" t="s">
         <v>455</v>
       </c>
-      <c r="C68" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D68" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E68" s="66" t="s">
+      <c r="C68" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F68" s="66" t="s">
+      <c r="F68" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G68" s="66">
+      <c r="G68" s="65">
         <v>1000</v>
       </c>
-      <c r="H68" s="66">
+      <c r="H68" s="65">
         <v>500</v>
       </c>
-      <c r="I68" s="66" t="s">
+      <c r="I68" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J68" s="66" t="s">
+      <c r="J68" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K68" s="66" t="s">
+      <c r="K68" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L68" s="66" t="s">
+      <c r="L68" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M68" s="66" t="s">
+      <c r="M68" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N68" s="66" t="s">
+      <c r="N68" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O68" s="74">
-        <v>0</v>
-      </c>
-      <c r="P68" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="74">
+      <c r="O68" s="73">
+        <v>0</v>
+      </c>
+      <c r="P68" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R68" s="66">
+      <c r="R68" s="65">
         <v>3</v>
       </c>
-      <c r="S68" s="66">
+      <c r="S68" s="65">
         <v>75</v>
       </c>
-      <c r="T68" s="66">
+      <c r="T68" s="65">
         <v>50</v>
       </c>
-      <c r="U68" s="66">
+      <c r="U68" s="65">
         <v>60</v>
       </c>
-      <c r="V68" s="74">
+      <c r="V68" s="73">
         <v>0.02</v>
       </c>
-      <c r="W68" s="66">
-        <v>0</v>
-      </c>
-      <c r="X68" s="66">
+      <c r="W68" s="65">
+        <v>0</v>
+      </c>
+      <c r="X68" s="65">
         <v>10</v>
       </c>
-      <c r="Y68" s="74">
+      <c r="Y68" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z68" s="74">
+      <c r="Z68" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA68" s="74">
+      <c r="AA68" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB68" s="74">
+      <c r="AB68" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC68" s="88">
+      <c r="AC68" s="87">
         <v>3.4999999999999989E-2</v>
       </c>
-      <c r="AD68" s="86" t="s">
+      <c r="AD68" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE68" s="88">
+      <c r="AE68" s="87">
         <v>3.5157231635036965E-2</v>
       </c>
-      <c r="AF68" s="90">
+      <c r="AF68" s="89">
         <v>1.7733112250080365E-2</v>
       </c>
-      <c r="AG68" s="66" t="s">
+      <c r="AG68" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH68" s="67" t="s">
+      <c r="AH68" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="AI68" s="67" t="s">
+      <c r="AI68" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ68" s="66">
+      <c r="AJ68" s="65">
         <v>15</v>
       </c>
-      <c r="AK68" s="66" t="s">
+      <c r="AK68" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL68" s="66">
+      <c r="AL68" s="65">
         <v>5</v>
       </c>
-      <c r="AM68" s="66">
+      <c r="AM68" s="65">
         <v>200</v>
       </c>
-      <c r="AN68" s="67" t="s">
+      <c r="AN68" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO68" s="66">
+      <c r="AO68" s="65">
         <v>1</v>
       </c>
-      <c r="AP68" s="67" t="s">
+      <c r="AP68" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ68" s="70">
+      <c r="AQ68" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR68" s="73">
+      <c r="AR68" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS68" s="67" t="s">
+      <c r="AS68" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT68" s="69">
+      <c r="AT68" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU68" s="69">
+      <c r="AU68" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV68" s="69">
+      <c r="AV68" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW68" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX68" s="71" t="b">
+      <c r="AW68" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX68" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY68" s="71" t="b">
+      <c r="AY68" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="72"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="68"/>
-      <c r="O69" s="74"/>
-      <c r="P69" s="71"/>
-      <c r="Q69" s="74"/>
-      <c r="V69" s="74"/>
-      <c r="Y69" s="74"/>
-      <c r="Z69" s="74"/>
-      <c r="AA69" s="74"/>
-      <c r="AB69" s="74"/>
-      <c r="AC69" s="88"/>
-      <c r="AD69" s="86"/>
-      <c r="AE69" s="88"/>
-      <c r="AF69" s="90"/>
-      <c r="AH69" s="67"/>
-      <c r="AI69" s="67"/>
-      <c r="AN69" s="67"/>
-      <c r="AP69" s="67"/>
-      <c r="AQ69" s="70"/>
-      <c r="AR69" s="73"/>
-      <c r="AS69" s="67"/>
-      <c r="AT69" s="69"/>
-      <c r="AU69" s="69"/>
-      <c r="AV69" s="69"/>
-      <c r="AW69" s="71"/>
-      <c r="AX69" s="71"/>
-      <c r="AY69" s="71"/>
+    <row r="69" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="71"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="O69" s="73"/>
+      <c r="P69" s="70"/>
+      <c r="Q69" s="73"/>
+      <c r="V69" s="73"/>
+      <c r="Y69" s="73"/>
+      <c r="Z69" s="73"/>
+      <c r="AA69" s="73"/>
+      <c r="AB69" s="73"/>
+      <c r="AC69" s="87"/>
+      <c r="AD69" s="85"/>
+      <c r="AE69" s="87"/>
+      <c r="AF69" s="89"/>
+      <c r="AH69" s="66"/>
+      <c r="AI69" s="66"/>
+      <c r="AN69" s="66"/>
+      <c r="AP69" s="66"/>
+      <c r="AQ69" s="69"/>
+      <c r="AR69" s="72"/>
+      <c r="AS69" s="66"/>
+      <c r="AT69" s="68"/>
+      <c r="AU69" s="68"/>
+      <c r="AV69" s="68"/>
+      <c r="AW69" s="70"/>
+      <c r="AX69" s="70"/>
+      <c r="AY69" s="70"/>
     </row>
-    <row r="70" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="99" t="s">
+    <row r="70" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="91" t="s">
         <v>464</v>
       </c>
-      <c r="C70" s="68"/>
-      <c r="D70" s="68"/>
-      <c r="O70" s="74"/>
-      <c r="P70" s="71"/>
-      <c r="Q70" s="74"/>
-      <c r="V70" s="74"/>
-      <c r="Y70" s="74"/>
-      <c r="Z70" s="74"/>
-      <c r="AA70" s="74"/>
-      <c r="AB70" s="74"/>
-      <c r="AC70" s="75"/>
-      <c r="AD70" s="74"/>
-      <c r="AE70" s="77"/>
-      <c r="AF70" s="74"/>
-      <c r="AH70" s="67"/>
-      <c r="AI70" s="67"/>
-      <c r="AN70" s="67"/>
-      <c r="AP70" s="67"/>
-      <c r="AQ70" s="70"/>
-      <c r="AR70" s="73"/>
-      <c r="AS70" s="67"/>
-      <c r="AT70" s="69"/>
-      <c r="AU70" s="69"/>
-      <c r="AV70" s="69"/>
-      <c r="AW70" s="71"/>
-      <c r="AX70" s="71"/>
-      <c r="AY70" s="71"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="O70" s="73"/>
+      <c r="P70" s="70"/>
+      <c r="Q70" s="73"/>
+      <c r="V70" s="73"/>
+      <c r="Y70" s="73"/>
+      <c r="Z70" s="73"/>
+      <c r="AA70" s="73"/>
+      <c r="AB70" s="73"/>
+      <c r="AC70" s="74"/>
+      <c r="AD70" s="73"/>
+      <c r="AE70" s="76"/>
+      <c r="AF70" s="73"/>
+      <c r="AH70" s="66"/>
+      <c r="AI70" s="66"/>
+      <c r="AN70" s="66"/>
+      <c r="AP70" s="66"/>
+      <c r="AQ70" s="69"/>
+      <c r="AR70" s="72"/>
+      <c r="AS70" s="66"/>
+      <c r="AT70" s="68"/>
+      <c r="AU70" s="68"/>
+      <c r="AV70" s="68"/>
+      <c r="AW70" s="70"/>
+      <c r="AX70" s="70"/>
+      <c r="AY70" s="70"/>
     </row>
-    <row r="71" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="66" t="s">
+    <row r="71" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="65" t="s">
         <v>439</v>
       </c>
-      <c r="B71" s="72" t="s">
+      <c r="B71" s="71" t="s">
         <v>431</v>
       </c>
-      <c r="C71" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D71" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E71" s="66" t="s">
+      <c r="C71" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F71" s="66" t="s">
+      <c r="F71" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G71" s="66">
+      <c r="G71" s="65">
         <v>1000</v>
       </c>
-      <c r="H71" s="66">
+      <c r="H71" s="65">
         <v>500</v>
       </c>
-      <c r="I71" s="66" t="s">
+      <c r="I71" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J71" s="66" t="s">
+      <c r="J71" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K71" s="66" t="s">
+      <c r="K71" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L71" s="66" t="s">
+      <c r="L71" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M71" s="66" t="s">
+      <c r="M71" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N71" s="66" t="s">
+      <c r="N71" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O71" s="74">
-        <v>0</v>
-      </c>
-      <c r="P71" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="74">
+      <c r="O71" s="73">
+        <v>0</v>
+      </c>
+      <c r="P71" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R71" s="66">
+      <c r="R71" s="65">
         <v>3</v>
       </c>
-      <c r="S71" s="66">
+      <c r="S71" s="65">
         <v>75</v>
       </c>
-      <c r="T71" s="66">
+      <c r="T71" s="65">
         <v>50</v>
       </c>
-      <c r="U71" s="66">
+      <c r="U71" s="65">
         <v>60</v>
       </c>
-      <c r="V71" s="74">
+      <c r="V71" s="73">
         <v>0.02</v>
       </c>
-      <c r="W71" s="66">
-        <v>0</v>
-      </c>
-      <c r="X71" s="66">
+      <c r="W71" s="65">
+        <v>0</v>
+      </c>
+      <c r="X71" s="65">
         <v>10</v>
       </c>
-      <c r="Y71" s="74">
+      <c r="Y71" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z71" s="74">
+      <c r="Z71" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA71" s="74">
+      <c r="AA71" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB71" s="74">
+      <c r="AB71" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC71" s="88">
+      <c r="AC71" s="87">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD71" s="86" t="s">
+      <c r="AD71" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE71" s="88">
+      <c r="AE71" s="87">
         <v>7.5157231635036972E-2</v>
       </c>
-      <c r="AF71" s="90">
+      <c r="AF71" s="89">
         <v>1.7733112250080365E-2</v>
       </c>
-      <c r="AG71" s="66" t="s">
+      <c r="AG71" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH71" s="67" t="s">
+      <c r="AH71" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI71" s="67" t="s">
+      <c r="AI71" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ71" s="66">
+      <c r="AJ71" s="65">
         <v>30</v>
       </c>
-      <c r="AK71" s="66" t="s">
+      <c r="AK71" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL71" s="66">
+      <c r="AL71" s="65">
         <v>5</v>
       </c>
-      <c r="AM71" s="66">
+      <c r="AM71" s="65">
         <v>200</v>
       </c>
-      <c r="AN71" s="67" t="s">
+      <c r="AN71" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO71" s="66">
+      <c r="AO71" s="65">
         <v>1</v>
       </c>
-      <c r="AP71" s="67" t="s">
+      <c r="AP71" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ71" s="70">
+      <c r="AQ71" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR71" s="73">
+      <c r="AR71" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS71" s="67" t="s">
+      <c r="AS71" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT71" s="69">
+      <c r="AT71" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU71" s="69">
+      <c r="AU71" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV71" s="69">
+      <c r="AV71" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW71" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX71" s="71" t="b">
+      <c r="AW71" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX71" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY71" s="71" t="b">
+      <c r="AY71" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="66" t="s">
+    <row r="72" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="65" t="s">
         <v>440</v>
       </c>
-      <c r="B72" s="72" t="s">
+      <c r="B72" s="71" t="s">
         <v>447</v>
       </c>
-      <c r="C72" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D72" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E72" s="66" t="s">
+      <c r="C72" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F72" s="66" t="s">
+      <c r="F72" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G72" s="66">
+      <c r="G72" s="65">
         <v>1000</v>
       </c>
-      <c r="H72" s="66">
+      <c r="H72" s="65">
         <v>500</v>
       </c>
-      <c r="I72" s="66" t="s">
+      <c r="I72" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J72" s="66" t="s">
+      <c r="J72" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K72" s="66" t="s">
+      <c r="K72" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L72" s="66" t="s">
+      <c r="L72" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M72" s="66" t="s">
+      <c r="M72" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N72" s="66" t="s">
+      <c r="N72" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O72" s="74">
-        <v>0</v>
-      </c>
-      <c r="P72" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="74">
+      <c r="O72" s="73">
+        <v>0</v>
+      </c>
+      <c r="P72" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R72" s="66">
+      <c r="R72" s="65">
         <v>3</v>
       </c>
-      <c r="S72" s="66">
+      <c r="S72" s="65">
         <v>75</v>
       </c>
-      <c r="T72" s="66">
+      <c r="T72" s="65">
         <v>50</v>
       </c>
-      <c r="U72" s="66">
+      <c r="U72" s="65">
         <v>60</v>
       </c>
-      <c r="V72" s="74">
+      <c r="V72" s="73">
         <v>0.02</v>
       </c>
-      <c r="W72" s="66">
-        <v>0</v>
-      </c>
-      <c r="X72" s="66">
+      <c r="W72" s="65">
+        <v>0</v>
+      </c>
+      <c r="X72" s="65">
         <v>10</v>
       </c>
-      <c r="Y72" s="74">
+      <c r="Y72" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z72" s="74">
+      <c r="Z72" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA72" s="74">
+      <c r="AA72" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB72" s="74">
+      <c r="AB72" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC72" s="88">
+      <c r="AC72" s="87">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD72" s="86" t="s">
+      <c r="AD72" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE72" s="89">
+      <c r="AE72" s="88">
         <v>6.5157231635036977E-2</v>
       </c>
-      <c r="AF72" s="91">
+      <c r="AF72" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
-      <c r="AG72" s="66" t="s">
+      <c r="AG72" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH72" s="67" t="s">
+      <c r="AH72" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI72" s="67" t="s">
+      <c r="AI72" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ72" s="66">
+      <c r="AJ72" s="65">
         <v>30</v>
       </c>
-      <c r="AK72" s="66" t="s">
+      <c r="AK72" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL72" s="66">
+      <c r="AL72" s="65">
         <v>5</v>
       </c>
-      <c r="AM72" s="66">
+      <c r="AM72" s="65">
         <v>200</v>
       </c>
-      <c r="AN72" s="67" t="s">
+      <c r="AN72" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO72" s="66">
+      <c r="AO72" s="65">
         <v>1</v>
       </c>
-      <c r="AP72" s="67" t="s">
+      <c r="AP72" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ72" s="70">
+      <c r="AQ72" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR72" s="73">
+      <c r="AR72" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS72" s="67" t="s">
+      <c r="AS72" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT72" s="69">
+      <c r="AT72" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU72" s="69">
+      <c r="AU72" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV72" s="69">
+      <c r="AV72" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW72" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX72" s="71" t="b">
+      <c r="AW72" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX72" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY72" s="71" t="b">
+      <c r="AY72" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="66" t="s">
+    <row r="73" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="65" t="s">
         <v>441</v>
       </c>
-      <c r="B73" s="72" t="s">
+      <c r="B73" s="71" t="s">
         <v>448</v>
       </c>
-      <c r="C73" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D73" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E73" s="66" t="s">
+      <c r="C73" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F73" s="66" t="s">
+      <c r="F73" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G73" s="66">
+      <c r="G73" s="65">
         <v>1000</v>
       </c>
-      <c r="H73" s="66">
+      <c r="H73" s="65">
         <v>500</v>
       </c>
-      <c r="I73" s="66" t="s">
+      <c r="I73" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J73" s="66" t="s">
+      <c r="J73" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K73" s="66" t="s">
+      <c r="K73" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L73" s="66" t="s">
+      <c r="L73" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M73" s="66" t="s">
+      <c r="M73" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N73" s="66" t="s">
+      <c r="N73" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O73" s="74">
-        <v>0</v>
-      </c>
-      <c r="P73" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="74">
+      <c r="O73" s="73">
+        <v>0</v>
+      </c>
+      <c r="P73" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R73" s="66">
+      <c r="R73" s="65">
         <v>3</v>
       </c>
-      <c r="S73" s="66">
+      <c r="S73" s="65">
         <v>75</v>
       </c>
-      <c r="T73" s="66">
+      <c r="T73" s="65">
         <v>50</v>
       </c>
-      <c r="U73" s="66">
+      <c r="U73" s="65">
         <v>60</v>
       </c>
-      <c r="V73" s="74">
+      <c r="V73" s="73">
         <v>0.02</v>
       </c>
-      <c r="W73" s="66">
-        <v>0</v>
-      </c>
-      <c r="X73" s="66">
+      <c r="W73" s="65">
+        <v>0</v>
+      </c>
+      <c r="X73" s="65">
         <v>10</v>
       </c>
-      <c r="Y73" s="74">
+      <c r="Y73" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z73" s="74">
+      <c r="Z73" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA73" s="74">
+      <c r="AA73" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB73" s="74">
+      <c r="AB73" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC73" s="88">
+      <c r="AC73" s="87">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD73" s="86" t="s">
+      <c r="AD73" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE73" s="89">
+      <c r="AE73" s="88">
         <v>5.5157231635036968E-2</v>
       </c>
-      <c r="AF73" s="91">
+      <c r="AF73" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
-      <c r="AG73" s="66" t="s">
+      <c r="AG73" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH73" s="67" t="s">
+      <c r="AH73" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI73" s="67" t="s">
+      <c r="AI73" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ73" s="66">
+      <c r="AJ73" s="65">
         <v>30</v>
       </c>
-      <c r="AK73" s="66" t="s">
+      <c r="AK73" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL73" s="66">
+      <c r="AL73" s="65">
         <v>5</v>
       </c>
-      <c r="AM73" s="66">
+      <c r="AM73" s="65">
         <v>200</v>
       </c>
-      <c r="AN73" s="67" t="s">
+      <c r="AN73" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO73" s="66">
+      <c r="AO73" s="65">
         <v>1</v>
       </c>
-      <c r="AP73" s="67" t="s">
+      <c r="AP73" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ73" s="70">
+      <c r="AQ73" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR73" s="73">
+      <c r="AR73" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS73" s="67" t="s">
+      <c r="AS73" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT73" s="69">
+      <c r="AT73" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU73" s="69">
+      <c r="AU73" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV73" s="69">
+      <c r="AV73" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW73" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX73" s="71" t="b">
+      <c r="AW73" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX73" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY73" s="71" t="b">
+      <c r="AY73" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="66" t="s">
+    <row r="74" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="65" t="s">
         <v>442</v>
       </c>
-      <c r="B74" s="72" t="s">
+      <c r="B74" s="71" t="s">
         <v>449</v>
       </c>
-      <c r="C74" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D74" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E74" s="66" t="s">
+      <c r="C74" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F74" s="66" t="s">
+      <c r="F74" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G74" s="66">
+      <c r="G74" s="65">
         <v>1000</v>
       </c>
-      <c r="H74" s="66">
+      <c r="H74" s="65">
         <v>500</v>
       </c>
-      <c r="I74" s="66" t="s">
+      <c r="I74" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J74" s="66" t="s">
+      <c r="J74" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K74" s="66" t="s">
+      <c r="K74" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L74" s="66" t="s">
+      <c r="L74" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M74" s="66" t="s">
+      <c r="M74" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N74" s="66" t="s">
+      <c r="N74" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O74" s="74">
-        <v>0</v>
-      </c>
-      <c r="P74" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="74">
+      <c r="O74" s="73">
+        <v>0</v>
+      </c>
+      <c r="P74" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R74" s="66">
+      <c r="R74" s="65">
         <v>3</v>
       </c>
-      <c r="S74" s="66">
+      <c r="S74" s="65">
         <v>75</v>
       </c>
-      <c r="T74" s="66">
+      <c r="T74" s="65">
         <v>50</v>
       </c>
-      <c r="U74" s="66">
+      <c r="U74" s="65">
         <v>60</v>
       </c>
-      <c r="V74" s="74">
+      <c r="V74" s="73">
         <v>0.02</v>
       </c>
-      <c r="W74" s="66">
-        <v>0</v>
-      </c>
-      <c r="X74" s="66">
+      <c r="W74" s="65">
+        <v>0</v>
+      </c>
+      <c r="X74" s="65">
         <v>10</v>
       </c>
-      <c r="Y74" s="74">
+      <c r="Y74" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z74" s="74">
+      <c r="Z74" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA74" s="74">
+      <c r="AA74" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB74" s="74">
+      <c r="AB74" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC74" s="88">
+      <c r="AC74" s="87">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD74" s="86" t="s">
+      <c r="AD74" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE74" s="89">
+      <c r="AE74" s="88">
         <v>4.5157231635036967E-2</v>
       </c>
-      <c r="AF74" s="91">
+      <c r="AF74" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
-      <c r="AG74" s="66" t="s">
+      <c r="AG74" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH74" s="67" t="s">
+      <c r="AH74" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI74" s="67" t="s">
+      <c r="AI74" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ74" s="66">
+      <c r="AJ74" s="65">
         <v>30</v>
       </c>
-      <c r="AK74" s="66" t="s">
+      <c r="AK74" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL74" s="66">
+      <c r="AL74" s="65">
         <v>5</v>
       </c>
-      <c r="AM74" s="66">
+      <c r="AM74" s="65">
         <v>200</v>
       </c>
-      <c r="AN74" s="67" t="s">
+      <c r="AN74" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO74" s="66">
+      <c r="AO74" s="65">
         <v>1</v>
       </c>
-      <c r="AP74" s="67" t="s">
+      <c r="AP74" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ74" s="70">
+      <c r="AQ74" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR74" s="73">
+      <c r="AR74" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS74" s="67" t="s">
+      <c r="AS74" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT74" s="69">
+      <c r="AT74" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU74" s="69">
+      <c r="AU74" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV74" s="69">
+      <c r="AV74" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW74" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX74" s="71" t="b">
+      <c r="AW74" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX74" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY74" s="71" t="b">
+      <c r="AY74" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="66" t="s">
+    <row r="75" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="65" t="s">
         <v>443</v>
       </c>
-      <c r="B75" s="72" t="s">
+      <c r="B75" s="71" t="s">
         <v>450</v>
       </c>
-      <c r="C75" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D75" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75" s="66" t="s">
+      <c r="C75" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F75" s="66" t="s">
+      <c r="F75" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G75" s="66">
+      <c r="G75" s="65">
         <v>1000</v>
       </c>
-      <c r="H75" s="66">
+      <c r="H75" s="65">
         <v>500</v>
       </c>
-      <c r="I75" s="66" t="s">
+      <c r="I75" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J75" s="66" t="s">
+      <c r="J75" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K75" s="66" t="s">
+      <c r="K75" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L75" s="66" t="s">
+      <c r="L75" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M75" s="66" t="s">
+      <c r="M75" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N75" s="66" t="s">
+      <c r="N75" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O75" s="74">
-        <v>0</v>
-      </c>
-      <c r="P75" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="74">
+      <c r="O75" s="73">
+        <v>0</v>
+      </c>
+      <c r="P75" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R75" s="66">
+      <c r="R75" s="65">
         <v>3</v>
       </c>
-      <c r="S75" s="66">
+      <c r="S75" s="65">
         <v>75</v>
       </c>
-      <c r="T75" s="66">
+      <c r="T75" s="65">
         <v>50</v>
       </c>
-      <c r="U75" s="66">
+      <c r="U75" s="65">
         <v>60</v>
       </c>
-      <c r="V75" s="74">
+      <c r="V75" s="73">
         <v>0.02</v>
       </c>
-      <c r="W75" s="66">
-        <v>0</v>
-      </c>
-      <c r="X75" s="66">
+      <c r="W75" s="65">
+        <v>0</v>
+      </c>
+      <c r="X75" s="65">
         <v>10</v>
       </c>
-      <c r="Y75" s="74">
+      <c r="Y75" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z75" s="74">
+      <c r="Z75" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA75" s="74">
+      <c r="AA75" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB75" s="74">
+      <c r="AB75" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC75" s="88">
+      <c r="AC75" s="87">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD75" s="86" t="s">
+      <c r="AD75" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE75" s="89">
+      <c r="AE75" s="88">
         <v>4.02E-2</v>
       </c>
-      <c r="AF75" s="91">
+      <c r="AF75" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
-      <c r="AG75" s="66" t="s">
+      <c r="AG75" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH75" s="67" t="s">
+      <c r="AH75" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI75" s="67" t="s">
+      <c r="AI75" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ75" s="66">
+      <c r="AJ75" s="65">
         <v>30</v>
       </c>
-      <c r="AK75" s="66" t="s">
+      <c r="AK75" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL75" s="66">
+      <c r="AL75" s="65">
         <v>5</v>
       </c>
-      <c r="AM75" s="66">
+      <c r="AM75" s="65">
         <v>200</v>
       </c>
-      <c r="AN75" s="67" t="s">
+      <c r="AN75" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO75" s="66">
+      <c r="AO75" s="65">
         <v>1</v>
       </c>
-      <c r="AP75" s="67" t="s">
+      <c r="AP75" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ75" s="70">
+      <c r="AQ75" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR75" s="73">
+      <c r="AR75" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS75" s="67" t="s">
+      <c r="AS75" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT75" s="69">
+      <c r="AT75" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU75" s="69">
+      <c r="AU75" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV75" s="69">
+      <c r="AV75" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW75" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX75" s="71" t="b">
+      <c r="AW75" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX75" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY75" s="71" t="b">
+      <c r="AY75" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="66" t="s">
+    <row r="76" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="65" t="s">
         <v>444</v>
       </c>
-      <c r="B76" s="72" t="s">
+      <c r="B76" s="71" t="s">
         <v>451</v>
       </c>
-      <c r="C76" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D76" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E76" s="66" t="s">
+      <c r="C76" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F76" s="66" t="s">
+      <c r="F76" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G76" s="66">
+      <c r="G76" s="65">
         <v>1000</v>
       </c>
-      <c r="H76" s="66">
+      <c r="H76" s="65">
         <v>500</v>
       </c>
-      <c r="I76" s="66" t="s">
+      <c r="I76" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J76" s="66" t="s">
+      <c r="J76" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K76" s="66" t="s">
+      <c r="K76" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L76" s="66" t="s">
+      <c r="L76" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M76" s="66" t="s">
+      <c r="M76" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N76" s="66" t="s">
+      <c r="N76" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O76" s="74">
-        <v>0</v>
-      </c>
-      <c r="P76" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="74">
+      <c r="O76" s="73">
+        <v>0</v>
+      </c>
+      <c r="P76" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R76" s="66">
+      <c r="R76" s="65">
         <v>3</v>
       </c>
-      <c r="S76" s="66">
+      <c r="S76" s="65">
         <v>75</v>
       </c>
-      <c r="T76" s="66">
+      <c r="T76" s="65">
         <v>50</v>
       </c>
-      <c r="U76" s="66">
+      <c r="U76" s="65">
         <v>60</v>
       </c>
-      <c r="V76" s="74">
+      <c r="V76" s="73">
         <v>0.02</v>
       </c>
-      <c r="W76" s="66">
-        <v>0</v>
-      </c>
-      <c r="X76" s="66">
+      <c r="W76" s="65">
+        <v>0</v>
+      </c>
+      <c r="X76" s="65">
         <v>10</v>
       </c>
-      <c r="Y76" s="74">
+      <c r="Y76" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z76" s="74">
+      <c r="Z76" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA76" s="74">
+      <c r="AA76" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB76" s="74">
+      <c r="AB76" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC76" s="88">
+      <c r="AC76" s="87">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD76" s="86" t="s">
+      <c r="AD76" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE76" s="88">
+      <c r="AE76" s="87">
         <v>3.5157231635036965E-2</v>
       </c>
-      <c r="AF76" s="90">
+      <c r="AF76" s="89">
         <v>1.7733112250080365E-2</v>
       </c>
-      <c r="AG76" s="66" t="s">
+      <c r="AG76" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH76" s="67" t="s">
+      <c r="AH76" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI76" s="67" t="s">
+      <c r="AI76" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ76" s="66">
+      <c r="AJ76" s="65">
         <v>30</v>
       </c>
-      <c r="AK76" s="66" t="s">
+      <c r="AK76" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL76" s="66">
+      <c r="AL76" s="65">
         <v>5</v>
       </c>
-      <c r="AM76" s="66">
+      <c r="AM76" s="65">
         <v>200</v>
       </c>
-      <c r="AN76" s="67" t="s">
+      <c r="AN76" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO76" s="66">
+      <c r="AO76" s="65">
         <v>1</v>
       </c>
-      <c r="AP76" s="67" t="s">
+      <c r="AP76" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ76" s="70">
+      <c r="AQ76" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR76" s="73">
+      <c r="AR76" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS76" s="67" t="s">
+      <c r="AS76" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT76" s="69">
+      <c r="AT76" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU76" s="69">
+      <c r="AU76" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV76" s="69">
+      <c r="AV76" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW76" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX76" s="71" t="b">
+      <c r="AW76" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX76" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY76" s="71" t="b">
+      <c r="AY76" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="66" t="s">
+    <row r="77" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="65" t="s">
         <v>445</v>
       </c>
-      <c r="B77" s="72" t="s">
+      <c r="B77" s="71" t="s">
         <v>452</v>
       </c>
-      <c r="C77" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D77" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" s="66" t="s">
+      <c r="C77" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F77" s="66" t="s">
+      <c r="F77" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G77" s="66">
+      <c r="G77" s="65">
         <v>1000</v>
       </c>
-      <c r="H77" s="66">
+      <c r="H77" s="65">
         <v>500</v>
       </c>
-      <c r="I77" s="66" t="s">
+      <c r="I77" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J77" s="66" t="s">
+      <c r="J77" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K77" s="66" t="s">
+      <c r="K77" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L77" s="66" t="s">
+      <c r="L77" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M77" s="66" t="s">
+      <c r="M77" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N77" s="66" t="s">
+      <c r="N77" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O77" s="74">
-        <v>0</v>
-      </c>
-      <c r="P77" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="74">
+      <c r="O77" s="73">
+        <v>0</v>
+      </c>
+      <c r="P77" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R77" s="66">
+      <c r="R77" s="65">
         <v>3</v>
       </c>
-      <c r="S77" s="66">
+      <c r="S77" s="65">
         <v>75</v>
       </c>
-      <c r="T77" s="66">
+      <c r="T77" s="65">
         <v>50</v>
       </c>
-      <c r="U77" s="66">
+      <c r="U77" s="65">
         <v>60</v>
       </c>
-      <c r="V77" s="74">
+      <c r="V77" s="73">
         <v>0.02</v>
       </c>
-      <c r="W77" s="66">
-        <v>0</v>
-      </c>
-      <c r="X77" s="66">
+      <c r="W77" s="65">
+        <v>0</v>
+      </c>
+      <c r="X77" s="65">
         <v>10</v>
       </c>
-      <c r="Y77" s="74">
+      <c r="Y77" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z77" s="74">
+      <c r="Z77" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA77" s="74">
+      <c r="AA77" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB77" s="74">
+      <c r="AB77" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC77" s="88">
+      <c r="AC77" s="87">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD77" s="86" t="s">
+      <c r="AD77" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE77" s="89">
+      <c r="AE77" s="88">
         <v>3.0157231635036967E-2</v>
       </c>
-      <c r="AF77" s="91">
+      <c r="AF77" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
-      <c r="AG77" s="66" t="s">
+      <c r="AG77" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH77" s="67" t="s">
+      <c r="AH77" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI77" s="67" t="s">
+      <c r="AI77" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ77" s="66">
+      <c r="AJ77" s="65">
         <v>30</v>
       </c>
-      <c r="AK77" s="66" t="s">
+      <c r="AK77" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL77" s="66">
+      <c r="AL77" s="65">
         <v>5</v>
       </c>
-      <c r="AM77" s="66">
+      <c r="AM77" s="65">
         <v>200</v>
       </c>
-      <c r="AN77" s="67" t="s">
+      <c r="AN77" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO77" s="66">
+      <c r="AO77" s="65">
         <v>1</v>
       </c>
-      <c r="AP77" s="67" t="s">
+      <c r="AP77" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ77" s="70">
+      <c r="AQ77" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR77" s="73">
+      <c r="AR77" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS77" s="67" t="s">
+      <c r="AS77" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT77" s="69">
+      <c r="AT77" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU77" s="69">
+      <c r="AU77" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV77" s="69">
+      <c r="AV77" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW77" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX77" s="71" t="b">
+      <c r="AW77" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX77" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY77" s="71" t="b">
+      <c r="AY77" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="66" t="s">
+    <row r="78" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="65" t="s">
         <v>446</v>
       </c>
-      <c r="B78" s="72" t="s">
+      <c r="B78" s="71" t="s">
         <v>453</v>
       </c>
-      <c r="C78" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D78" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78" s="66" t="s">
+      <c r="C78" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F78" s="66" t="s">
+      <c r="F78" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G78" s="66">
+      <c r="G78" s="65">
         <v>1000</v>
       </c>
-      <c r="H78" s="66">
+      <c r="H78" s="65">
         <v>500</v>
       </c>
-      <c r="I78" s="66" t="s">
+      <c r="I78" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J78" s="66" t="s">
+      <c r="J78" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K78" s="66" t="s">
+      <c r="K78" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L78" s="66" t="s">
+      <c r="L78" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M78" s="66" t="s">
+      <c r="M78" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N78" s="66" t="s">
+      <c r="N78" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O78" s="74">
-        <v>0</v>
-      </c>
-      <c r="P78" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="74">
+      <c r="O78" s="73">
+        <v>0</v>
+      </c>
+      <c r="P78" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R78" s="66">
+      <c r="R78" s="65">
         <v>3</v>
       </c>
-      <c r="S78" s="66">
+      <c r="S78" s="65">
         <v>75</v>
       </c>
-      <c r="T78" s="66">
+      <c r="T78" s="65">
         <v>50</v>
       </c>
-      <c r="U78" s="66">
+      <c r="U78" s="65">
         <v>60</v>
       </c>
-      <c r="V78" s="74">
+      <c r="V78" s="73">
         <v>0.02</v>
       </c>
-      <c r="W78" s="66">
-        <v>0</v>
-      </c>
-      <c r="X78" s="66">
+      <c r="W78" s="65">
+        <v>0</v>
+      </c>
+      <c r="X78" s="65">
         <v>10</v>
       </c>
-      <c r="Y78" s="74">
+      <c r="Y78" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z78" s="74">
+      <c r="Z78" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA78" s="74">
+      <c r="AA78" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB78" s="74">
+      <c r="AB78" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC78" s="88">
+      <c r="AC78" s="87">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD78" s="86" t="s">
+      <c r="AD78" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE78" s="89">
+      <c r="AE78" s="88">
         <v>2.515723163503697E-2</v>
       </c>
-      <c r="AF78" s="91">
+      <c r="AF78" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
-      <c r="AG78" s="66" t="s">
+      <c r="AG78" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH78" s="67" t="s">
+      <c r="AH78" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI78" s="67" t="s">
+      <c r="AI78" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ78" s="66">
+      <c r="AJ78" s="65">
         <v>30</v>
       </c>
-      <c r="AK78" s="66" t="s">
+      <c r="AK78" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL78" s="66">
+      <c r="AL78" s="65">
         <v>5</v>
       </c>
-      <c r="AM78" s="66">
+      <c r="AM78" s="65">
         <v>200</v>
       </c>
-      <c r="AN78" s="67" t="s">
+      <c r="AN78" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO78" s="66">
+      <c r="AO78" s="65">
         <v>1</v>
       </c>
-      <c r="AP78" s="67" t="s">
+      <c r="AP78" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ78" s="70">
+      <c r="AQ78" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR78" s="73">
+      <c r="AR78" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS78" s="67" t="s">
+      <c r="AS78" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT78" s="69">
+      <c r="AT78" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU78" s="69">
+      <c r="AU78" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV78" s="69">
+      <c r="AV78" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW78" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX78" s="71" t="b">
+      <c r="AW78" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX78" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY78" s="71" t="b">
+      <c r="AY78" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="72"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="68"/>
-      <c r="O79" s="74"/>
-      <c r="P79" s="71"/>
-      <c r="Q79" s="74"/>
-      <c r="V79" s="74"/>
-      <c r="Y79" s="74"/>
-      <c r="Z79" s="74"/>
-      <c r="AA79" s="74"/>
-      <c r="AB79" s="74"/>
-      <c r="AC79" s="88"/>
-      <c r="AD79" s="86"/>
-      <c r="AE79" s="89"/>
-      <c r="AF79" s="91"/>
-      <c r="AH79" s="67"/>
-      <c r="AI79" s="67"/>
-      <c r="AN79" s="67"/>
-      <c r="AP79" s="67"/>
-      <c r="AQ79" s="70"/>
-      <c r="AR79" s="73"/>
-      <c r="AS79" s="67"/>
-      <c r="AT79" s="69"/>
-      <c r="AU79" s="69"/>
-      <c r="AV79" s="69"/>
-      <c r="AW79" s="71"/>
-      <c r="AX79" s="71"/>
-      <c r="AY79" s="71"/>
+    <row r="79" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="71"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="67"/>
+      <c r="O79" s="73"/>
+      <c r="P79" s="70"/>
+      <c r="Q79" s="73"/>
+      <c r="V79" s="73"/>
+      <c r="Y79" s="73"/>
+      <c r="Z79" s="73"/>
+      <c r="AA79" s="73"/>
+      <c r="AB79" s="73"/>
+      <c r="AC79" s="87"/>
+      <c r="AD79" s="85"/>
+      <c r="AE79" s="88"/>
+      <c r="AF79" s="90"/>
+      <c r="AH79" s="66"/>
+      <c r="AI79" s="66"/>
+      <c r="AN79" s="66"/>
+      <c r="AP79" s="66"/>
+      <c r="AQ79" s="69"/>
+      <c r="AR79" s="72"/>
+      <c r="AS79" s="66"/>
+      <c r="AT79" s="68"/>
+      <c r="AU79" s="68"/>
+      <c r="AV79" s="68"/>
+      <c r="AW79" s="70"/>
+      <c r="AX79" s="70"/>
+      <c r="AY79" s="70"/>
     </row>
-    <row r="80" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="99" t="s">
+    <row r="80" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="91" t="s">
         <v>467</v>
       </c>
-      <c r="C80" s="68"/>
-      <c r="D80" s="68"/>
-      <c r="O80" s="74"/>
-      <c r="P80" s="71"/>
-      <c r="Q80" s="74"/>
-      <c r="V80" s="74"/>
-      <c r="Y80" s="74"/>
-      <c r="Z80" s="74"/>
-      <c r="AA80" s="74"/>
-      <c r="AB80" s="74"/>
-      <c r="AC80" s="75"/>
-      <c r="AD80" s="74"/>
-      <c r="AE80" s="77"/>
-      <c r="AF80" s="74"/>
-      <c r="AH80" s="67"/>
-      <c r="AI80" s="67"/>
-      <c r="AN80" s="67"/>
-      <c r="AP80" s="67"/>
-      <c r="AQ80" s="70"/>
-      <c r="AR80" s="73"/>
-      <c r="AS80" s="67"/>
-      <c r="AT80" s="69"/>
-      <c r="AU80" s="69"/>
-      <c r="AV80" s="69"/>
-      <c r="AW80" s="71"/>
-      <c r="AX80" s="71"/>
-      <c r="AY80" s="71"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="67"/>
+      <c r="O80" s="73"/>
+      <c r="P80" s="70"/>
+      <c r="Q80" s="73"/>
+      <c r="V80" s="73"/>
+      <c r="Y80" s="73"/>
+      <c r="Z80" s="73"/>
+      <c r="AA80" s="73"/>
+      <c r="AB80" s="73"/>
+      <c r="AC80" s="74"/>
+      <c r="AD80" s="73"/>
+      <c r="AE80" s="76"/>
+      <c r="AF80" s="73"/>
+      <c r="AH80" s="66"/>
+      <c r="AI80" s="66"/>
+      <c r="AN80" s="66"/>
+      <c r="AP80" s="66"/>
+      <c r="AQ80" s="69"/>
+      <c r="AR80" s="72"/>
+      <c r="AS80" s="66"/>
+      <c r="AT80" s="68"/>
+      <c r="AU80" s="68"/>
+      <c r="AV80" s="68"/>
+      <c r="AW80" s="70"/>
+      <c r="AX80" s="70"/>
+      <c r="AY80" s="70"/>
     </row>
     <row r="81" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="42" t="s">
@@ -13959,7 +13987,7 @@
       <c r="B82" s="48" t="s">
         <v>397</v>
       </c>
-      <c r="C82" s="68" t="b">
+      <c r="C82" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D82" s="44" t="b">
@@ -14114,7 +14142,7 @@
       <c r="B83" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="C83" s="68" t="b">
+      <c r="C83" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D83" s="44" t="b">
@@ -14269,7 +14297,7 @@
       <c r="B84" s="48" t="s">
         <v>366</v>
       </c>
-      <c r="C84" s="68" t="b">
+      <c r="C84" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D84" s="44" t="b">
@@ -14424,7 +14452,7 @@
       <c r="B85" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="C85" s="68" t="b">
+      <c r="C85" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D85" s="44" t="b">
@@ -14572,41 +14600,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="72"/>
-      <c r="C86" s="68"/>
-      <c r="D86" s="68"/>
-      <c r="O86" s="74"/>
-      <c r="P86" s="71"/>
-      <c r="Q86" s="74"/>
-      <c r="V86" s="74"/>
-      <c r="Y86" s="74"/>
-      <c r="Z86" s="74"/>
-      <c r="AA86" s="74"/>
-      <c r="AB86" s="74"/>
-      <c r="AC86" s="75"/>
-      <c r="AD86" s="74"/>
-      <c r="AE86" s="77"/>
+    <row r="86" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="71"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="67"/>
+      <c r="O86" s="73"/>
+      <c r="P86" s="70"/>
+      <c r="Q86" s="73"/>
+      <c r="V86" s="73"/>
+      <c r="Y86" s="73"/>
+      <c r="Z86" s="73"/>
+      <c r="AA86" s="73"/>
+      <c r="AB86" s="73"/>
+      <c r="AC86" s="74"/>
+      <c r="AD86" s="73"/>
+      <c r="AE86" s="76"/>
       <c r="AF86" s="24"/>
-      <c r="AH86" s="67"/>
-      <c r="AI86" s="67"/>
-      <c r="AN86" s="67"/>
-      <c r="AP86" s="67"/>
-      <c r="AQ86" s="70"/>
-      <c r="AR86" s="73"/>
-      <c r="AS86" s="67"/>
-      <c r="AT86" s="69"/>
-      <c r="AU86" s="69"/>
-      <c r="AV86" s="69"/>
-      <c r="AW86" s="71"/>
-      <c r="AX86" s="71"/>
-      <c r="AY86" s="71"/>
+      <c r="AH86" s="66"/>
+      <c r="AI86" s="66"/>
+      <c r="AN86" s="66"/>
+      <c r="AP86" s="66"/>
+      <c r="AQ86" s="69"/>
+      <c r="AR86" s="72"/>
+      <c r="AS86" s="66"/>
+      <c r="AT86" s="68"/>
+      <c r="AU86" s="68"/>
+      <c r="AV86" s="68"/>
+      <c r="AW86" s="70"/>
+      <c r="AX86" s="70"/>
+      <c r="AY86" s="70"/>
     </row>
     <row r="87" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="99" t="s">
+      <c r="B87" s="91" t="s">
         <v>468</v>
       </c>
-      <c r="C87" s="68"/>
+      <c r="C87" s="67"/>
       <c r="D87" s="44"/>
       <c r="O87" s="50"/>
       <c r="P87" s="47"/>
@@ -14641,7 +14669,7 @@
       <c r="B88" s="48" t="s">
         <v>393</v>
       </c>
-      <c r="C88" s="68" t="b">
+      <c r="C88" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D88" s="44" t="b">
@@ -14796,7 +14824,7 @@
       <c r="B89" s="48" t="s">
         <v>399</v>
       </c>
-      <c r="C89" s="68" t="b">
+      <c r="C89" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D89" s="44" t="b">
@@ -14951,7 +14979,7 @@
       <c r="B90" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="C90" s="68" t="b">
+      <c r="C90" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D90" s="44" t="b">
@@ -15106,7 +15134,7 @@
       <c r="B91" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="C91" s="68" t="b">
+      <c r="C91" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D91" s="44" t="b">
@@ -15261,7 +15289,7 @@
       <c r="B92" s="48" t="s">
         <v>400</v>
       </c>
-      <c r="C92" s="68" t="b">
+      <c r="C92" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D92" s="44" t="b">
@@ -15625,313 +15653,313 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="76" t="s">
+    <row r="96" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="75" t="s">
         <v>337</v>
       </c>
-      <c r="B96" s="72" t="s">
+      <c r="B96" s="71" t="s">
         <v>462</v>
       </c>
-      <c r="C96" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D96" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E96" s="66" t="s">
+      <c r="C96" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F96" s="66" t="s">
+      <c r="F96" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G96" s="66">
+      <c r="G96" s="65">
         <v>1000</v>
       </c>
-      <c r="H96" s="66">
+      <c r="H96" s="65">
         <v>500</v>
       </c>
-      <c r="I96" s="66" t="s">
+      <c r="I96" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J96" s="66" t="s">
+      <c r="J96" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K96" s="66" t="s">
+      <c r="K96" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L96" s="66" t="s">
+      <c r="L96" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M96" s="66" t="s">
+      <c r="M96" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N96" s="66" t="s">
+      <c r="N96" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O96" s="74">
-        <v>0</v>
-      </c>
-      <c r="P96" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="74">
+      <c r="O96" s="73">
+        <v>0</v>
+      </c>
+      <c r="P96" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R96" s="66">
+      <c r="R96" s="65">
         <v>3</v>
       </c>
-      <c r="S96" s="66">
+      <c r="S96" s="65">
         <v>75</v>
       </c>
-      <c r="T96" s="66">
+      <c r="T96" s="65">
         <v>50</v>
       </c>
-      <c r="U96" s="66">
+      <c r="U96" s="65">
         <v>60</v>
       </c>
-      <c r="V96" s="74">
+      <c r="V96" s="73">
         <v>0.01</v>
       </c>
-      <c r="W96" s="66">
-        <v>0</v>
-      </c>
-      <c r="X96" s="66">
+      <c r="W96" s="65">
+        <v>0</v>
+      </c>
+      <c r="X96" s="65">
         <v>10</v>
       </c>
-      <c r="Y96" s="74">
+      <c r="Y96" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z96" s="74">
+      <c r="Z96" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA96" s="74">
+      <c r="AA96" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB96" s="74">
+      <c r="AB96" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC96" s="74">
+      <c r="AC96" s="73">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD96" s="74" t="s">
+      <c r="AD96" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE96" s="77">
+      <c r="AE96" s="76">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF96" s="74">
+      <c r="AF96" s="73">
         <v>0.12</v>
       </c>
-      <c r="AG96" s="66" t="s">
+      <c r="AG96" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH96" s="67" t="s">
+      <c r="AH96" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI96" s="67" t="s">
+      <c r="AI96" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ96" s="66">
+      <c r="AJ96" s="65">
         <v>30</v>
       </c>
-      <c r="AK96" s="66" t="s">
+      <c r="AK96" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL96" s="66">
+      <c r="AL96" s="65">
         <v>5</v>
       </c>
-      <c r="AM96" s="66">
+      <c r="AM96" s="65">
         <v>200</v>
       </c>
-      <c r="AN96" s="67" t="s">
+      <c r="AN96" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO96" s="66">
+      <c r="AO96" s="65">
         <v>1</v>
       </c>
-      <c r="AP96" s="67" t="s">
+      <c r="AP96" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="AQ96" s="70">
+      <c r="AQ96" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR96" s="66">
+      <c r="AR96" s="65">
         <v>200</v>
       </c>
-      <c r="AS96" s="67" t="s">
+      <c r="AS96" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT96" s="69">
+      <c r="AT96" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU96" s="69">
+      <c r="AU96" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV96" s="69">
+      <c r="AV96" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW96" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX96" s="71" t="b">
+      <c r="AW96" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX96" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY96" s="71" t="b">
+      <c r="AY96" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="76" t="s">
+    <row r="97" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="75" t="s">
         <v>339</v>
       </c>
-      <c r="B97" s="72" t="s">
+      <c r="B97" s="71" t="s">
         <v>350</v>
       </c>
-      <c r="C97" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D97" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E97" s="66" t="s">
+      <c r="C97" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D97" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F97" s="66" t="s">
+      <c r="F97" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G97" s="66">
+      <c r="G97" s="65">
         <v>1000</v>
       </c>
-      <c r="H97" s="66">
+      <c r="H97" s="65">
         <v>500</v>
       </c>
-      <c r="I97" s="66" t="s">
+      <c r="I97" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J97" s="66" t="s">
+      <c r="J97" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K97" s="66" t="s">
+      <c r="K97" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L97" s="66" t="s">
+      <c r="L97" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M97" s="66" t="s">
+      <c r="M97" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N97" s="66" t="s">
+      <c r="N97" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O97" s="74">
-        <v>0</v>
-      </c>
-      <c r="P97" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="74">
+      <c r="O97" s="73">
+        <v>0</v>
+      </c>
+      <c r="P97" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R97" s="66">
+      <c r="R97" s="65">
         <v>3</v>
       </c>
-      <c r="S97" s="66">
+      <c r="S97" s="65">
         <v>75</v>
       </c>
-      <c r="T97" s="66">
+      <c r="T97" s="65">
         <v>50</v>
       </c>
-      <c r="U97" s="66">
+      <c r="U97" s="65">
         <v>60</v>
       </c>
-      <c r="V97" s="74">
+      <c r="V97" s="73">
         <v>0.02</v>
       </c>
-      <c r="W97" s="66">
-        <v>0</v>
-      </c>
-      <c r="X97" s="66">
+      <c r="W97" s="65">
+        <v>0</v>
+      </c>
+      <c r="X97" s="65">
         <v>10</v>
       </c>
-      <c r="Y97" s="74">
+      <c r="Y97" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z97" s="74">
+      <c r="Z97" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA97" s="74">
+      <c r="AA97" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB97" s="74">
+      <c r="AB97" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC97" s="74">
+      <c r="AC97" s="73">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD97" s="74" t="s">
+      <c r="AD97" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE97" s="77">
+      <c r="AE97" s="76">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF97" s="74">
+      <c r="AF97" s="73">
         <v>0.12</v>
       </c>
-      <c r="AG97" s="66" t="s">
+      <c r="AG97" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH97" s="67" t="s">
+      <c r="AH97" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI97" s="67" t="s">
+      <c r="AI97" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ97" s="66">
+      <c r="AJ97" s="65">
         <v>30</v>
       </c>
-      <c r="AK97" s="66" t="s">
+      <c r="AK97" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL97" s="66">
+      <c r="AL97" s="65">
         <v>5</v>
       </c>
-      <c r="AM97" s="66">
+      <c r="AM97" s="65">
         <v>200</v>
       </c>
-      <c r="AN97" s="67" t="s">
+      <c r="AN97" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO97" s="66">
+      <c r="AO97" s="65">
         <v>1</v>
       </c>
-      <c r="AP97" s="67" t="s">
+      <c r="AP97" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="AQ97" s="70">
+      <c r="AQ97" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR97" s="66">
+      <c r="AR97" s="65">
         <v>200</v>
       </c>
-      <c r="AS97" s="67" t="s">
+      <c r="AS97" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT97" s="69">
+      <c r="AT97" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU97" s="69">
+      <c r="AU97" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV97" s="69">
+      <c r="AV97" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW97" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX97" s="71" t="b">
+      <c r="AW97" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX97" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY97" s="71" t="b">
+      <c r="AY97" s="70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15942,7 +15970,7 @@
       <c r="B98" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="C98" s="68" t="b">
+      <c r="C98" s="67" t="b">
         <v>0</v>
       </c>
       <c r="D98" s="44" t="b">
@@ -16090,249 +16118,1003 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:51" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="76" t="s">
+    <row r="99" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="75" t="s">
         <v>463</v>
       </c>
-      <c r="B99" s="72" t="s">
+      <c r="B99" s="71" t="s">
         <v>459</v>
       </c>
-      <c r="C99" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="D99" s="68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E99" s="66" t="s">
+      <c r="C99" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F99" s="66" t="s">
+      <c r="F99" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G99" s="66">
+      <c r="G99" s="65">
         <v>1000</v>
       </c>
-      <c r="H99" s="66">
+      <c r="H99" s="65">
         <v>500</v>
       </c>
-      <c r="I99" s="66" t="s">
+      <c r="I99" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J99" s="66" t="s">
+      <c r="J99" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K99" s="66" t="s">
+      <c r="K99" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L99" s="66" t="s">
+      <c r="L99" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M99" s="66" t="s">
+      <c r="M99" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N99" s="66" t="s">
+      <c r="N99" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O99" s="74">
-        <v>0</v>
-      </c>
-      <c r="P99" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="74">
+      <c r="O99" s="73">
+        <v>0</v>
+      </c>
+      <c r="P99" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R99" s="66">
+      <c r="R99" s="65">
         <v>3</v>
       </c>
-      <c r="S99" s="66">
+      <c r="S99" s="65">
         <v>75</v>
       </c>
-      <c r="T99" s="66">
+      <c r="T99" s="65">
         <v>50</v>
       </c>
-      <c r="U99" s="66">
+      <c r="U99" s="65">
         <v>60</v>
       </c>
-      <c r="V99" s="74">
+      <c r="V99" s="73">
         <v>0.03</v>
       </c>
-      <c r="W99" s="66">
-        <v>0</v>
-      </c>
-      <c r="X99" s="66">
+      <c r="W99" s="65">
+        <v>0</v>
+      </c>
+      <c r="X99" s="65">
         <v>10</v>
       </c>
-      <c r="Y99" s="74">
+      <c r="Y99" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z99" s="74">
+      <c r="Z99" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA99" s="74">
+      <c r="AA99" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB99" s="74">
+      <c r="AB99" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC99" s="74">
+      <c r="AC99" s="73">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD99" s="74" t="s">
+      <c r="AD99" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE99" s="77">
+      <c r="AE99" s="76">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF99" s="74">
+      <c r="AF99" s="73">
         <v>0.12</v>
       </c>
-      <c r="AG99" s="66" t="s">
+      <c r="AG99" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH99" s="67" t="s">
+      <c r="AH99" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI99" s="67" t="s">
+      <c r="AI99" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ99" s="66">
+      <c r="AJ99" s="65">
         <v>30</v>
       </c>
-      <c r="AK99" s="66" t="s">
+      <c r="AK99" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL99" s="66">
+      <c r="AL99" s="65">
         <v>5</v>
       </c>
-      <c r="AM99" s="66">
+      <c r="AM99" s="65">
         <v>200</v>
       </c>
-      <c r="AN99" s="67" t="s">
+      <c r="AN99" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO99" s="66">
+      <c r="AO99" s="65">
         <v>1</v>
       </c>
-      <c r="AP99" s="67" t="s">
+      <c r="AP99" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ99" s="70">
+      <c r="AQ99" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR99" s="73">
+      <c r="AR99" s="72">
         <v>140108493</v>
       </c>
-      <c r="AS99" s="67" t="s">
+      <c r="AS99" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT99" s="69">
+      <c r="AT99" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU99" s="69">
+      <c r="AU99" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV99" s="69">
+      <c r="AV99" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW99" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX99" s="71" t="b">
+      <c r="AW99" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX99" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY99" s="71" t="b">
+      <c r="AY99" s="70" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B101" s="71" t="s">
+        <v>469</v>
+      </c>
       <c r="AC101" s="52"/>
     </row>
-    <row r="102" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AC102" s="52"/>
-      <c r="AD102" s="54"/>
-      <c r="AE102" s="51"/>
-      <c r="AF102" s="24"/>
+    <row r="102" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="B102" s="71" t="s">
+        <v>475</v>
+      </c>
+      <c r="C102" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D102" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F102" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G102" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H102" s="65">
+        <v>500</v>
+      </c>
+      <c r="I102" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J102" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K102" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L102" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M102" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N102" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O102" s="73">
+        <v>0</v>
+      </c>
+      <c r="P102" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R102" s="65">
+        <v>3</v>
+      </c>
+      <c r="S102" s="65">
+        <v>75</v>
+      </c>
+      <c r="T102" s="65">
+        <v>50</v>
+      </c>
+      <c r="U102" s="65">
+        <v>60</v>
+      </c>
+      <c r="V102" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W102" s="65">
+        <v>0</v>
+      </c>
+      <c r="X102" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y102" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z102" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA102" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB102" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC102" s="74">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD102" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE102" s="76">
+        <f>AC102+AF102^2/2</f>
+        <v>7.5799999999999992E-2</v>
+      </c>
+      <c r="AF102" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="AG102" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH102" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI102" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ102" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK102" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL102" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM102" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN102" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO102" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP102" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ102" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR102" s="72">
+        <v>168732127</v>
+      </c>
+      <c r="AS102" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT102" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU102" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV102" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW102" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX102" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY102" s="70" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="103" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AC103" s="52"/>
-      <c r="AD103" s="54"/>
-      <c r="AE103" s="51"/>
-      <c r="AF103" s="24"/>
+    <row r="103" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="B103" s="71" t="s">
+        <v>476</v>
+      </c>
+      <c r="C103" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D103" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F103" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G103" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H103" s="65">
+        <v>500</v>
+      </c>
+      <c r="I103" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J103" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K103" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L103" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M103" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N103" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O103" s="73">
+        <v>0</v>
+      </c>
+      <c r="P103" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R103" s="65">
+        <v>3</v>
+      </c>
+      <c r="S103" s="65">
+        <v>75</v>
+      </c>
+      <c r="T103" s="65">
+        <v>50</v>
+      </c>
+      <c r="U103" s="65">
+        <v>60</v>
+      </c>
+      <c r="V103" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W103" s="65">
+        <v>0</v>
+      </c>
+      <c r="X103" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y103" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z103" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA103" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB103" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC103" s="74">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD103" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE103" s="76">
+        <f t="shared" ref="AE103:AE106" si="0">AC103+AF103^2/2</f>
+        <v>7.8199999999999992E-2</v>
+      </c>
+      <c r="AF103" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="AG103" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH103" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI103" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ103" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK103" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL103" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM103" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN103" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO103" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP103" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ103" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR103" s="72">
+        <v>168732127</v>
+      </c>
+      <c r="AS103" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT103" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU103" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV103" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW103" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX103" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY103" s="70" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="104" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AC104" s="52"/>
-      <c r="AD104" s="54"/>
-      <c r="AE104" s="51"/>
-      <c r="AF104" s="24"/>
+    <row r="104" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="65" t="s">
+        <v>472</v>
+      </c>
+      <c r="B104" s="71" t="s">
+        <v>331</v>
+      </c>
+      <c r="C104" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D104" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F104" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G104" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H104" s="65">
+        <v>500</v>
+      </c>
+      <c r="I104" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J104" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K104" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L104" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M104" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N104" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O104" s="73">
+        <v>0</v>
+      </c>
+      <c r="P104" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R104" s="65">
+        <v>3</v>
+      </c>
+      <c r="S104" s="65">
+        <v>75</v>
+      </c>
+      <c r="T104" s="65">
+        <v>50</v>
+      </c>
+      <c r="U104" s="65">
+        <v>60</v>
+      </c>
+      <c r="V104" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W104" s="65">
+        <v>0</v>
+      </c>
+      <c r="X104" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y104" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z104" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA104" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB104" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC104" s="74">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD104" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE104" s="76">
+        <f t="shared" si="0"/>
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF104" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="AG104" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH104" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI104" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ104" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK104" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL104" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM104" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN104" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO104" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP104" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ104" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR104" s="72">
+        <v>168732127</v>
+      </c>
+      <c r="AS104" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT104" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU104" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV104" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW104" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX104" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY104" s="70" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="105" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AC105" s="52"/>
-      <c r="AD105" s="54"/>
-      <c r="AE105" s="51"/>
-      <c r="AF105" s="24"/>
+    <row r="105" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="65" t="s">
+        <v>473</v>
+      </c>
+      <c r="B105" s="71" t="s">
+        <v>477</v>
+      </c>
+      <c r="C105" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D105" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F105" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G105" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H105" s="65">
+        <v>500</v>
+      </c>
+      <c r="I105" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J105" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K105" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L105" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M105" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N105" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O105" s="73">
+        <v>0</v>
+      </c>
+      <c r="P105" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R105" s="65">
+        <v>3</v>
+      </c>
+      <c r="S105" s="65">
+        <v>75</v>
+      </c>
+      <c r="T105" s="65">
+        <v>50</v>
+      </c>
+      <c r="U105" s="65">
+        <v>60</v>
+      </c>
+      <c r="V105" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W105" s="65">
+        <v>0</v>
+      </c>
+      <c r="X105" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y105" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z105" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA105" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB105" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC105" s="74">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD105" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE105" s="76">
+        <f t="shared" si="0"/>
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="AF105" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="AG105" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH105" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI105" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ105" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK105" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL105" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM105" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN105" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO105" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP105" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ105" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR105" s="72">
+        <v>168732127</v>
+      </c>
+      <c r="AS105" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT105" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU105" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV105" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW105" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX105" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY105" s="70" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="106" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="AD106" s="54"/>
-      <c r="AE106" s="51"/>
-      <c r="AF106" s="24"/>
+    <row r="106" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="B106" s="71" t="s">
+        <v>478</v>
+      </c>
+      <c r="C106" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D106" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F106" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G106" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H106" s="65">
+        <v>500</v>
+      </c>
+      <c r="I106" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J106" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K106" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L106" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M106" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N106" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O106" s="73">
+        <v>0</v>
+      </c>
+      <c r="P106" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R106" s="65">
+        <v>3</v>
+      </c>
+      <c r="S106" s="65">
+        <v>75</v>
+      </c>
+      <c r="T106" s="65">
+        <v>50</v>
+      </c>
+      <c r="U106" s="65">
+        <v>60</v>
+      </c>
+      <c r="V106" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W106" s="65">
+        <v>0</v>
+      </c>
+      <c r="X106" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y106" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z106" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA106" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB106" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC106" s="74">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD106" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE106" s="76">
+        <f t="shared" si="0"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AF106" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="AG106" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH106" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI106" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ106" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK106" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL106" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM106" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN106" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO106" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP106" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ106" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR106" s="72">
+        <v>168732127</v>
+      </c>
+      <c r="AS106" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT106" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU106" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV106" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW106" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX106" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY106" s="70" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
   </mergeCells>
-  <dataValidations xWindow="1188" yWindow="692" count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN99">
+  <dataValidations xWindow="1269" yWindow="762" count="21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN13:AN99 AN102:AN106">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI13:AI99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI13:AI99 AI102:AI106">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH13:AH99 AH102:AH106">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS13:AS99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS13:AS99 AS102:AS106">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 C6:D10 P13:P99 C13:D99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 C6:D10 P13:P99 C13:D99 P102:P106 C102:D106">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 AB13:AB99 V13:V99">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 AB13:AB99 V13:V99 AB102:AB106 V102:V106">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W13:X99">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W13:X99 W102:X106">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AE102:AE106 AC58 AC13:AC47 AC94:AC99 Y13:AA99 AE13:AE99">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AE13:AE99 AC58 AC13:AC47 AC94:AC99 Y13:AA99 Y102:AA106 AE102:AE106">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ13:AJ99">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ13:AJ99 AJ102:AJ106">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT13:AU99">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT13:AU99 AT102:AU106">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV13:AV99">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV13:AV99 AV102:AV106">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
@@ -16340,34 +17122,34 @@
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL13:AL99">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL13:AL99 AL102:AL106">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM99">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM13:AM99 AM102:AM106">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO99">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO13:AO99 AO102:AO106">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD13:AD99"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW13:AY99">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD13:AD99 AD102:AD106"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW13:AY99 AW102:AY106">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP13:AP99 AP102:AP106">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ13:AQ99">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ13:AQ99 AQ102:AQ106">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S13:S99">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S13:S99 S102:S106">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I13:J99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I13:J99 I102:J106">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -16375,42 +17157,42 @@
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1188" yWindow="692" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1269" yWindow="762" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L9 L13:L99</xm:sqref>
+          <xm:sqref>L6:L9 L13:L99 L102:L106</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M9 M13:M99</xm:sqref>
+          <xm:sqref>M6:M9 M13:M99 M102:M106</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>F6:F9 F13:F99</xm:sqref>
+          <xm:sqref>F6:F9 F13:F99 F102:F106</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E9 E13:E99</xm:sqref>
+          <xm:sqref>E6:E9 E13:E99 E102:E106</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K9 K13:K99</xm:sqref>
+          <xm:sqref>K6:K9 K13:K99 K102:K106</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>N6:N9 N13:N99</xm:sqref>
+          <xm:sqref>N6:N9 N13:N99 N102:N106</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="501">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1580,6 +1580,12 @@
 1. The "Callan" portfolio is from research by Callan Associates Inc.. It is made to achieve 7.5% expected compound return in 2015.  
 2. The three LAFPP portfolios are from the 2015 Asset/Liability Study for LAFPP by RVK Inc.. </t>
     </r>
+  </si>
+  <si>
+    <t>I1F075-6b</t>
+  </si>
+  <si>
+    <t>75% initial Funding; DC 7.5; ir 6.7   , SD 12%, lower expected return (lower sharpe ratio)</t>
   </si>
 </sst>
 </file>
@@ -2001,27 +2007,6 @@
     <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="5" fillId="15" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2069,6 +2054,27 @@
     </xf>
     <xf numFmtId="2" fontId="16" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3520,9 +3526,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125"/>
-    <col min="2" max="2" width="16.7109375"/>
-    <col min="3" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="7.625"/>
+    <col min="2" max="2" width="16.75"/>
+    <col min="3" max="1025" width="8.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3580,17 +3586,17 @@
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="14" style="42" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="42" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="42" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="18.875" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="14.875" customWidth="1"/>
+    <col min="16" max="16" width="14.25" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -4532,330 +4538,330 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D14" sqref="D14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="7" width="9.42578125" style="77" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="77" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="77" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="77" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="7" width="9.375" style="77" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="77" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="77" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="77" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
     </row>
     <row r="5" spans="2:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="104" t="s">
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="97" t="s">
         <v>496</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="E5" s="98" t="s">
         <v>493</v>
       </c>
-      <c r="F5" s="106" t="s">
+      <c r="F5" s="99" t="s">
         <v>494</v>
       </c>
-      <c r="G5" s="107" t="s">
+      <c r="G5" s="100" t="s">
         <v>379</v>
       </c>
-      <c r="H5" s="106" t="s">
+      <c r="H5" s="99" t="s">
         <v>497</v>
       </c>
-      <c r="I5" s="106" t="s">
+      <c r="I5" s="99" t="s">
         <v>491</v>
       </c>
-      <c r="J5" s="106" t="s">
+      <c r="J5" s="99" t="s">
         <v>492</v>
       </c>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
     </row>
     <row r="6" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="108" t="s">
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="E6" s="118">
+      <c r="E6" s="111">
         <v>0.45999999999999924</v>
       </c>
-      <c r="F6" s="109">
+      <c r="F6" s="102">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G6" s="109">
+      <c r="G6" s="102">
         <v>8.1572316350369684E-3</v>
       </c>
-      <c r="H6" s="109">
+      <c r="H6" s="102">
         <v>7.5157231635036972E-2</v>
       </c>
-      <c r="I6" s="109">
+      <c r="I6" s="102">
         <v>1.7733112250080396E-2</v>
       </c>
-      <c r="J6" s="109">
+      <c r="J6" s="102">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
     </row>
     <row r="7" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="110" t="s">
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="103" t="s">
         <v>490</v>
       </c>
-      <c r="E7" s="119">
+      <c r="E7" s="112">
         <v>0.46</v>
       </c>
-      <c r="F7" s="111">
+      <c r="F7" s="104">
         <v>2.7E-2</v>
       </c>
-      <c r="G7" s="111">
+      <c r="G7" s="104">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="H7" s="111">
+      <c r="H7" s="104">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="I7" s="111">
+      <c r="I7" s="104">
         <v>0.12</v>
       </c>
-      <c r="J7" s="111">
+      <c r="J7" s="104">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
     </row>
     <row r="8" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="108" t="s">
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="101" t="s">
         <v>495</v>
       </c>
-      <c r="E8" s="118">
+      <c r="E8" s="111">
         <v>0.46</v>
       </c>
-      <c r="F8" s="109">
+      <c r="F8" s="102">
         <v>2.7E-2</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G8" s="102">
         <v>8.1572316350369684E-3</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H8" s="102">
         <f>F8+G8</f>
         <v>3.5157231635036965E-2</v>
       </c>
-      <c r="I8" s="109">
+      <c r="I8" s="102">
         <f>G8/E8</f>
         <v>1.7733112250080365E-2</v>
       </c>
-      <c r="J8" s="109">
+      <c r="J8" s="102">
         <f>H8-I8^2/2</f>
         <v>3.4999999999999989E-2</v>
       </c>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
     </row>
     <row r="9" spans="2:15" s="65" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
     </row>
     <row r="10" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="108" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="101" t="s">
         <v>479</v>
       </c>
-      <c r="E10" s="120">
+      <c r="E10" s="113">
         <v>0.36506976744186048</v>
       </c>
-      <c r="F10" s="109">
+      <c r="F10" s="102">
         <v>2.7E-2</v>
       </c>
-      <c r="G10" s="109">
+      <c r="G10" s="102">
         <v>6.2792000000000001E-2</v>
       </c>
-      <c r="H10" s="109">
+      <c r="H10" s="102">
         <v>8.9791999999999997E-2</v>
       </c>
-      <c r="I10" s="109">
+      <c r="I10" s="102">
         <v>0.17199999999999999</v>
       </c>
-      <c r="J10" s="109">
+      <c r="J10" s="102">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
     </row>
     <row r="11" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="108" t="s">
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="101" t="s">
         <v>480</v>
       </c>
-      <c r="E11" s="120">
+      <c r="E11" s="113">
         <v>0.31708401244628842</v>
       </c>
-      <c r="F11" s="109">
+      <c r="F11" s="102">
         <v>2.7E-2</v>
       </c>
-      <c r="G11" s="109">
+      <c r="G11" s="102">
         <v>4.2800000000000005E-2</v>
       </c>
-      <c r="H11" s="109">
+      <c r="H11" s="102">
         <v>6.9800000000000001E-2</v>
       </c>
-      <c r="I11" s="109">
+      <c r="I11" s="102">
         <v>0.13497999999999999</v>
       </c>
-      <c r="J11" s="109">
+      <c r="J11" s="102">
         <v>6.0690199800000004E-2</v>
       </c>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
     </row>
     <row r="12" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="108" t="s">
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="101" t="s">
         <v>481</v>
       </c>
-      <c r="E12" s="120">
+      <c r="E12" s="113">
         <v>0.13333333333333339</v>
       </c>
-      <c r="F12" s="109">
+      <c r="F12" s="102">
         <v>2.7E-2</v>
       </c>
-      <c r="G12" s="109">
+      <c r="G12" s="102">
         <v>8.0000000000000036E-3</v>
       </c>
-      <c r="H12" s="109">
+      <c r="H12" s="102">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I12" s="109">
+      <c r="I12" s="102">
         <v>0.06</v>
       </c>
-      <c r="J12" s="109">
+      <c r="J12" s="102">
         <v>3.32E-2</v>
       </c>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
     </row>
     <row r="13" spans="2:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="112" t="s">
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="105" t="s">
         <v>482</v>
       </c>
-      <c r="E13" s="121">
+      <c r="E13" s="114">
         <v>0.29347826086956524</v>
       </c>
-      <c r="F13" s="113">
+      <c r="F13" s="106">
         <v>2.7E-2</v>
       </c>
-      <c r="G13" s="113">
+      <c r="G13" s="106">
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="H13" s="113">
+      <c r="H13" s="106">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="I13" s="113">
+      <c r="I13" s="106">
         <v>0.184</v>
       </c>
-      <c r="J13" s="113">
+      <c r="J13" s="106">
         <v>8.0830720000000009E-2</v>
       </c>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
     </row>
     <row r="14" spans="2:15" s="65" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
       <c r="D14" s="122" t="s">
         <v>498</v>
       </c>
@@ -4865,155 +4871,155 @@
       <c r="H14" s="123"/>
       <c r="I14" s="123"/>
       <c r="J14" s="123"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
     </row>
     <row r="15" spans="2:15" s="65" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
     </row>
     <row r="16" spans="2:15" s="65" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
     </row>
     <row r="17" spans="2:15" s="65" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
     </row>
     <row r="18" spans="2:15" s="65" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
     </row>
     <row r="19" spans="2:15" s="65" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
     </row>
     <row r="20" spans="2:15" s="65" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
     </row>
     <row r="21" spans="2:15" s="65" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
     </row>
     <row r="22" spans="2:15" s="65" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
     </row>
     <row r="23" spans="2:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
     </row>
     <row r="24" spans="2:15" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E24" s="92"/>
@@ -5134,7 +5140,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1025" width="8.625"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -5215,45 +5221,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY108"/>
+  <dimension ref="A1:AY112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C114" sqref="C114"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="84.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="84.625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="42" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
     <col min="9" max="10" width="16" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125"/>
+    <col min="11" max="11" width="20.875" customWidth="1"/>
+    <col min="12" max="12" width="24.375"/>
     <col min="13" max="14" width="22" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" customWidth="1"/>
-    <col min="17" max="21" width="9.28515625" customWidth="1"/>
+    <col min="15" max="16" width="13.125" customWidth="1"/>
+    <col min="17" max="21" width="9.25" customWidth="1"/>
     <col min="22" max="22" width="16"/>
-    <col min="23" max="24" width="12.7109375"/>
-    <col min="25" max="26" width="10.85546875" customWidth="1"/>
-    <col min="27" max="29" width="12.7109375"/>
-    <col min="30" max="30" width="11.140625" customWidth="1"/>
-    <col min="31" max="31" width="12.7109375" style="24"/>
-    <col min="32" max="35" width="12.7109375"/>
-    <col min="36" max="36" width="12.7109375" customWidth="1"/>
-    <col min="37" max="37" width="11.85546875" customWidth="1"/>
-    <col min="42" max="43" width="11.7109375" customWidth="1"/>
-    <col min="44" max="44" width="13.140625" customWidth="1"/>
-    <col min="45" max="48" width="12.7109375"/>
+    <col min="23" max="24" width="12.75"/>
+    <col min="25" max="26" width="10.875" customWidth="1"/>
+    <col min="27" max="29" width="12.75"/>
+    <col min="30" max="30" width="11.125" customWidth="1"/>
+    <col min="31" max="31" width="12.75" style="24"/>
+    <col min="32" max="35" width="12.75"/>
+    <col min="36" max="36" width="12.75" customWidth="1"/>
+    <col min="37" max="37" width="11.875" customWidth="1"/>
+    <col min="42" max="43" width="11.75" customWidth="1"/>
+    <col min="44" max="44" width="13.125" customWidth="1"/>
+    <col min="45" max="48" width="12.75"/>
     <col min="51" max="51" width="9" customWidth="1"/>
-    <col min="52" max="1038" width="8.5703125"/>
+    <col min="52" max="1038" width="8.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -5417,62 +5423,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="53"/>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="94"/>
+      <c r="F4" s="120"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="97" t="s">
+      <c r="I4" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="95" t="s">
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="95"/>
+      <c r="M4" s="116"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="96" t="s">
+      <c r="O4" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="95" t="s">
+      <c r="P4" s="117"/>
+      <c r="Q4" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="96" t="s">
+      <c r="AA4" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="98" t="s">
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="98"/>
-      <c r="AF4" s="98"/>
+      <c r="AE4" s="115"/>
+      <c r="AF4" s="115"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="93" t="s">
+      <c r="AH4" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="93"/>
+      <c r="AI4" s="118"/>
+      <c r="AJ4" s="118"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -5480,17 +5486,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="98" t="s">
+      <c r="AP4" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="98"/>
-      <c r="AR4" s="98"/>
-      <c r="AS4" s="99" t="s">
+      <c r="AQ4" s="115"/>
+      <c r="AR4" s="115"/>
+      <c r="AS4" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="99"/>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
+      <c r="AT4" s="119"/>
+      <c r="AU4" s="119"/>
+      <c r="AV4" s="119"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -8048,7 +8054,7 @@
         <v>488</v>
       </c>
       <c r="C26" s="67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="67" t="b">
         <v>1</v>
@@ -8203,7 +8209,7 @@
         <v>488</v>
       </c>
       <c r="C27" s="67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="67" t="b">
         <v>1</v>
@@ -9526,167 +9532,167 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="75" t="s">
-        <v>403</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>387</v>
+        <v>499</v>
+      </c>
+      <c r="B38" s="71" t="s">
+        <v>500</v>
       </c>
       <c r="C38" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="65">
         <v>1000</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="65">
         <v>500</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O38" s="26">
-        <v>0</v>
-      </c>
-      <c r="P38" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="26">
+      <c r="O38" s="73">
+        <v>0</v>
+      </c>
+      <c r="P38" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="65">
         <v>3</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="65">
         <v>75</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="65">
         <v>50</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="65">
         <v>60</v>
       </c>
-      <c r="V38" s="26">
+      <c r="V38" s="73">
         <v>0.02</v>
       </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
+      <c r="W38" s="65">
+        <v>0</v>
+      </c>
+      <c r="X38" s="65">
         <v>10</v>
       </c>
-      <c r="Y38" s="26">
+      <c r="Y38" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z38" s="26">
+      <c r="Z38" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA38" s="26">
+      <c r="AA38" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB38" s="26">
+      <c r="AB38" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC38" s="26">
+      <c r="AC38" s="73">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD38" s="26" t="s">
+      <c r="AD38" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE38" s="41">
-        <v>8.411769335469832E-2</v>
-      </c>
-      <c r="AF38" s="26">
-        <v>0.13503846381456158</v>
-      </c>
-      <c r="AG38" t="s">
+      <c r="AE38" s="76">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="AF38" s="73">
+        <v>0.12</v>
+      </c>
+      <c r="AG38" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH38" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI38" s="2" t="s">
+      <c r="AH38" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI38" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ38">
-        <v>30</v>
-      </c>
-      <c r="AK38" t="s">
+      <c r="AJ38" s="65">
+        <v>15</v>
+      </c>
+      <c r="AK38" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL38">
+      <c r="AL38" s="65">
         <v>5</v>
       </c>
-      <c r="AM38">
+      <c r="AM38" s="65">
         <v>200</v>
       </c>
-      <c r="AN38" s="2" t="s">
+      <c r="AN38" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO38">
+      <c r="AO38" s="65">
         <v>1</v>
       </c>
-      <c r="AP38" s="43" t="s">
+      <c r="AP38" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ38" s="17">
+      <c r="AQ38" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR38" s="49">
+      <c r="AR38" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS38" s="2" t="s">
+      <c r="AS38" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT38" s="12">
+      <c r="AT38" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU38" s="12">
+      <c r="AU38" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV38" s="12">
+      <c r="AV38" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW38" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX38" s="18" t="b">
+      <c r="AW38" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX38" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY38" s="18" t="b">
+      <c r="AY38" s="70" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" s="75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C39" s="67" t="b">
         <v>0</v>
@@ -9773,10 +9779,10 @@
         <v>156</v>
       </c>
       <c r="AE39" s="41">
-        <v>8.637145152958918E-2</v>
+        <v>8.411769335469832E-2</v>
       </c>
       <c r="AF39" s="26">
-        <v>0.15080750332519388</v>
+        <v>0.13503846381456158</v>
       </c>
       <c r="AG39" t="s">
         <v>112</v>
@@ -9837,195 +9843,195 @@
       </c>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B40" s="19"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="26"/>
-      <c r="V40" s="26"/>
-      <c r="Y40" s="26"/>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
-      <c r="AD40" s="26"/>
-      <c r="AE40" s="41"/>
-      <c r="AF40" s="26"/>
-      <c r="AH40" s="2"/>
-      <c r="AI40" s="2"/>
-      <c r="AN40" s="2"/>
-      <c r="AP40" s="2"/>
-      <c r="AQ40" s="17"/>
-      <c r="AS40" s="2"/>
-      <c r="AT40" s="12"/>
-      <c r="AU40" s="12"/>
-      <c r="AV40" s="12"/>
-      <c r="AW40" s="18"/>
-      <c r="AX40" s="18"/>
-      <c r="AY40" s="18"/>
+      <c r="A40" s="75" t="s">
+        <v>404</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="C40" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>207</v>
+      </c>
+      <c r="F40" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40">
+        <v>1000</v>
+      </c>
+      <c r="H40">
+        <v>500</v>
+      </c>
+      <c r="I40" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" t="s">
+        <v>109</v>
+      </c>
+      <c r="K40" t="s">
+        <v>204</v>
+      </c>
+      <c r="L40" t="s">
+        <v>167</v>
+      </c>
+      <c r="M40" t="s">
+        <v>211</v>
+      </c>
+      <c r="N40" t="s">
+        <v>198</v>
+      </c>
+      <c r="O40" s="26">
+        <v>0</v>
+      </c>
+      <c r="P40" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R40">
+        <v>3</v>
+      </c>
+      <c r="S40">
+        <v>75</v>
+      </c>
+      <c r="T40">
+        <v>50</v>
+      </c>
+      <c r="U40">
+        <v>60</v>
+      </c>
+      <c r="V40" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>10</v>
+      </c>
+      <c r="Y40" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z40" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA40" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB40" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC40" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD40" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE40" s="41">
+        <v>8.637145152958918E-2</v>
+      </c>
+      <c r="AF40" s="26">
+        <v>0.15080750332519388</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI40" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ40">
+        <v>30</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL40">
+        <v>5</v>
+      </c>
+      <c r="AM40">
+        <v>200</v>
+      </c>
+      <c r="AN40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO40">
+        <v>1</v>
+      </c>
+      <c r="AP40" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ40" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR40" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT40" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU40" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV40" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW40" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX40" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY40" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="B41" s="71" t="s">
-        <v>416</v>
-      </c>
-      <c r="C41" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="F41" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G41" s="65">
-        <v>1000</v>
-      </c>
-      <c r="H41" s="65">
-        <v>500</v>
-      </c>
-      <c r="I41" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J41" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K41" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L41" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="M41" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="N41" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="O41" s="73">
-        <v>0</v>
-      </c>
-      <c r="P41" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="73">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R41" s="65">
-        <v>3</v>
-      </c>
-      <c r="S41" s="65">
-        <v>75</v>
-      </c>
-      <c r="T41" s="65">
-        <v>50</v>
-      </c>
-      <c r="U41" s="65">
-        <v>60</v>
-      </c>
-      <c r="V41" s="73">
-        <v>0.02</v>
-      </c>
-      <c r="W41" s="65">
-        <v>0</v>
-      </c>
-      <c r="X41" s="65">
-        <v>10</v>
-      </c>
-      <c r="Y41" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="Z41" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="AA41" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="AB41" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="AC41" s="79">
-        <v>0.115</v>
-      </c>
-      <c r="AD41" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE41" s="76">
-        <v>0.1222</v>
-      </c>
-      <c r="AF41" s="73">
-        <v>0.12</v>
-      </c>
-      <c r="AG41" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH41" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI41" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ41" s="65">
-        <v>30</v>
-      </c>
-      <c r="AK41" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL41" s="65">
-        <v>5</v>
-      </c>
-      <c r="AM41" s="65">
-        <v>200</v>
-      </c>
-      <c r="AN41" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO41" s="65">
-        <v>1</v>
-      </c>
-      <c r="AP41" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ41" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="AR41" s="72">
-        <v>168732127</v>
-      </c>
-      <c r="AS41" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT41" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="AU41" s="68">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV41" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="AW41" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX41" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY41" s="70" t="b">
-        <v>0</v>
-      </c>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B41" s="19"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="26"/>
+      <c r="AE41" s="41"/>
+      <c r="AF41" s="26"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AN41" s="2"/>
+      <c r="AP41" s="2"/>
+      <c r="AQ41" s="17"/>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="12"/>
+      <c r="AU41" s="12"/>
+      <c r="AV41" s="12"/>
+      <c r="AW41" s="18"/>
+      <c r="AX41" s="18"/>
+      <c r="AY41" s="18"/>
     </row>
     <row r="42" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="65" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C42" s="67" t="b">
         <v>0</v>
@@ -10106,13 +10112,13 @@
         <v>0.01</v>
       </c>
       <c r="AC42" s="79">
-        <v>0.105</v>
+        <v>0.115</v>
       </c>
       <c r="AD42" s="73" t="s">
         <v>156</v>
       </c>
       <c r="AE42" s="76">
-        <v>0.11219999999999999</v>
+        <v>0.1222</v>
       </c>
       <c r="AF42" s="73">
         <v>0.12</v>
@@ -10177,10 +10183,10 @@
     </row>
     <row r="43" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="65" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C43" s="67" t="b">
         <v>0</v>
@@ -10261,13 +10267,13 @@
         <v>0.01</v>
       </c>
       <c r="AC43" s="79">
-        <v>9.5000000000000001E-2</v>
+        <v>0.105</v>
       </c>
       <c r="AD43" s="73" t="s">
         <v>156</v>
       </c>
       <c r="AE43" s="76">
-        <v>0.1022</v>
+        <v>0.11219999999999999</v>
       </c>
       <c r="AF43" s="73">
         <v>0.12</v>
@@ -10330,167 +10336,167 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="65" t="s">
-        <v>332</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>389</v>
+        <v>330</v>
+      </c>
+      <c r="B44" s="71" t="s">
+        <v>418</v>
       </c>
       <c r="C44" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="D44" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="65">
         <v>1000</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="65">
         <v>500</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N44" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O44" s="26">
-        <v>0</v>
-      </c>
-      <c r="P44" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="26">
+      <c r="O44" s="73">
+        <v>0</v>
+      </c>
+      <c r="P44" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="65">
         <v>3</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="65">
         <v>75</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="65">
         <v>50</v>
       </c>
-      <c r="U44">
+      <c r="U44" s="65">
         <v>60</v>
       </c>
-      <c r="V44" s="26">
+      <c r="V44" s="73">
         <v>0.02</v>
       </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
+      <c r="W44" s="65">
+        <v>0</v>
+      </c>
+      <c r="X44" s="65">
         <v>10</v>
       </c>
-      <c r="Y44" s="26">
+      <c r="Y44" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z44" s="26">
+      <c r="Z44" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA44" s="26">
+      <c r="AA44" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB44" s="26">
+      <c r="AB44" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC44" s="26">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="AD44" s="26" t="s">
+      <c r="AC44" s="79">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AD44" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE44" s="41">
-        <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="AF44" s="26">
+      <c r="AE44" s="76">
+        <v>0.1022</v>
+      </c>
+      <c r="AF44" s="73">
         <v>0.12</v>
       </c>
-      <c r="AG44" t="s">
+      <c r="AG44" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH44" s="2" t="s">
+      <c r="AH44" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI44" s="2" t="s">
+      <c r="AI44" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ44">
+      <c r="AJ44" s="65">
         <v>30</v>
       </c>
-      <c r="AK44" t="s">
+      <c r="AK44" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL44">
+      <c r="AL44" s="65">
         <v>5</v>
       </c>
-      <c r="AM44">
+      <c r="AM44" s="65">
         <v>200</v>
       </c>
-      <c r="AN44" s="2" t="s">
+      <c r="AN44" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO44">
+      <c r="AO44" s="65">
         <v>1</v>
       </c>
-      <c r="AP44" s="2" t="s">
+      <c r="AP44" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ44" s="17">
+      <c r="AQ44" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR44" s="49">
+      <c r="AR44" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS44" s="2" t="s">
+      <c r="AS44" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT44" s="12">
+      <c r="AT44" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU44" s="12">
+      <c r="AU44" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV44" s="12">
+      <c r="AV44" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW44" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX44" s="18" t="b">
+      <c r="AW44" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX44" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY44" s="18" t="b">
+      <c r="AY44" s="70" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" s="65" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C45" s="67" t="b">
         <v>0</v>
@@ -10571,15 +10577,15 @@
         <v>0.01</v>
       </c>
       <c r="AC45" s="26">
-        <v>0.08</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="AD45" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE45" s="41">
-        <v>8.72E-2</v>
-      </c>
-      <c r="AF45" s="50">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="AF45" s="26">
         <v>0.12</v>
       </c>
       <c r="AG45" t="s">
@@ -10609,7 +10615,7 @@
       <c r="AO45">
         <v>1</v>
       </c>
-      <c r="AP45" s="43" t="s">
+      <c r="AP45" s="2" t="s">
         <v>114</v>
       </c>
       <c r="AQ45" s="17">
@@ -10642,10 +10648,10 @@
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" s="65" t="s">
-        <v>405</v>
+        <v>334</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="C46" s="67" t="b">
         <v>0</v>
@@ -10726,13 +10732,13 @@
         <v>0.01</v>
       </c>
       <c r="AC46" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AD46" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE46" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>8.72E-2</v>
       </c>
       <c r="AF46" s="50">
         <v>0.12</v>
@@ -10797,10 +10803,10 @@
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" s="65" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="C47" s="67" t="b">
         <v>0</v>
@@ -10881,13 +10887,13 @@
         <v>0.01</v>
       </c>
       <c r="AC47" s="26">
-        <v>6.9999999999999993E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD47" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE47" s="41">
-        <v>7.7199999999999991E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF47" s="50">
         <v>0.12</v>
@@ -10952,10 +10958,10 @@
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" s="65" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="C48" s="67" t="b">
         <v>0</v>
@@ -11036,13 +11042,13 @@
         <v>0.01</v>
       </c>
       <c r="AC48" s="26">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="AD48" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE48" s="41">
-        <v>7.22E-2</v>
+        <v>7.7199999999999991E-2</v>
       </c>
       <c r="AF48" s="50">
         <v>0.12</v>
@@ -11106,195 +11112,195 @@
       </c>
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B49" s="19"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="26"/>
-      <c r="V49" s="26"/>
-      <c r="Y49" s="26"/>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="26"/>
-      <c r="AC49" s="26"/>
-      <c r="AD49" s="26"/>
-      <c r="AE49" s="41"/>
-      <c r="AF49" s="26"/>
-      <c r="AH49" s="2"/>
-      <c r="AI49" s="2"/>
-      <c r="AN49" s="2"/>
-      <c r="AP49" s="2"/>
-      <c r="AQ49" s="17"/>
-      <c r="AS49" s="2"/>
-      <c r="AT49" s="12"/>
-      <c r="AU49" s="12"/>
-      <c r="AV49" s="12"/>
-      <c r="AW49" s="18"/>
-      <c r="AX49" s="18"/>
-      <c r="AY49" s="18"/>
+      <c r="A49" s="65" t="s">
+        <v>407</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="C49" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>207</v>
+      </c>
+      <c r="F49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G49">
+        <v>1000</v>
+      </c>
+      <c r="H49">
+        <v>500</v>
+      </c>
+      <c r="I49" t="s">
+        <v>109</v>
+      </c>
+      <c r="J49" t="s">
+        <v>109</v>
+      </c>
+      <c r="K49" t="s">
+        <v>204</v>
+      </c>
+      <c r="L49" t="s">
+        <v>167</v>
+      </c>
+      <c r="M49" t="s">
+        <v>211</v>
+      </c>
+      <c r="N49" t="s">
+        <v>198</v>
+      </c>
+      <c r="O49" s="26">
+        <v>0</v>
+      </c>
+      <c r="P49" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R49">
+        <v>3</v>
+      </c>
+      <c r="S49">
+        <v>75</v>
+      </c>
+      <c r="T49">
+        <v>50</v>
+      </c>
+      <c r="U49">
+        <v>60</v>
+      </c>
+      <c r="V49" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>10</v>
+      </c>
+      <c r="Y49" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z49" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA49" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB49" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC49" s="26">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AD49" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE49" s="41">
+        <v>7.22E-2</v>
+      </c>
+      <c r="AF49" s="50">
+        <v>0.12</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI49" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ49">
+        <v>30</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL49">
+        <v>5</v>
+      </c>
+      <c r="AM49">
+        <v>200</v>
+      </c>
+      <c r="AN49" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AP49" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ49" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR49" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT49" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU49" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV49" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW49" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX49" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY49" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="65" t="s">
-        <v>351</v>
-      </c>
-      <c r="B50" s="71" t="s">
-        <v>419</v>
-      </c>
-      <c r="C50" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="F50" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G50" s="65">
-        <v>1000</v>
-      </c>
-      <c r="H50" s="65">
-        <v>500</v>
-      </c>
-      <c r="I50" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J50" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K50" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L50" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="M50" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="N50" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="O50" s="73">
-        <v>0</v>
-      </c>
-      <c r="P50" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="73">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R50" s="65">
-        <v>3</v>
-      </c>
-      <c r="S50" s="65">
-        <v>75</v>
-      </c>
-      <c r="T50" s="65">
-        <v>50</v>
-      </c>
-      <c r="U50" s="65">
-        <v>60</v>
-      </c>
-      <c r="V50" s="73">
-        <v>0.02</v>
-      </c>
-      <c r="W50" s="65">
-        <v>0</v>
-      </c>
-      <c r="X50" s="65">
-        <v>10</v>
-      </c>
-      <c r="Y50" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="Z50" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="AA50" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="AB50" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="AC50" s="74">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD50" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE50" s="76">
-        <v>0.1222</v>
-      </c>
-      <c r="AF50" s="73">
-        <v>0.12</v>
-      </c>
-      <c r="AG50" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH50" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI50" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ50" s="65">
-        <v>30</v>
-      </c>
-      <c r="AK50" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL50" s="65">
-        <v>5</v>
-      </c>
-      <c r="AM50" s="65">
-        <v>200</v>
-      </c>
-      <c r="AN50" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO50" s="65">
-        <v>1</v>
-      </c>
-      <c r="AP50" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ50" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="AR50" s="72">
-        <v>168732127</v>
-      </c>
-      <c r="AS50" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT50" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="AU50" s="68">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV50" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="AW50" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX50" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY50" s="70" t="b">
-        <v>0</v>
-      </c>
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B50" s="19"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="26"/>
+      <c r="V50" s="26"/>
+      <c r="Y50" s="26"/>
+      <c r="Z50" s="26"/>
+      <c r="AA50" s="26"/>
+      <c r="AB50" s="26"/>
+      <c r="AC50" s="26"/>
+      <c r="AD50" s="26"/>
+      <c r="AE50" s="41"/>
+      <c r="AF50" s="26"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="2"/>
+      <c r="AN50" s="2"/>
+      <c r="AP50" s="2"/>
+      <c r="AQ50" s="17"/>
+      <c r="AS50" s="2"/>
+      <c r="AT50" s="12"/>
+      <c r="AU50" s="12"/>
+      <c r="AV50" s="12"/>
+      <c r="AW50" s="18"/>
+      <c r="AX50" s="18"/>
+      <c r="AY50" s="18"/>
     </row>
     <row r="51" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B51" s="71" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C51" s="67" t="b">
         <v>0</v>
@@ -11381,7 +11387,7 @@
         <v>156</v>
       </c>
       <c r="AE51" s="76">
-        <v>0.11219999999999999</v>
+        <v>0.1222</v>
       </c>
       <c r="AF51" s="73">
         <v>0.12</v>
@@ -11446,10 +11452,10 @@
     </row>
     <row r="52" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="65" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B52" s="71" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C52" s="67" t="b">
         <v>0</v>
@@ -11536,7 +11542,7 @@
         <v>156</v>
       </c>
       <c r="AE52" s="76">
-        <v>0.1022</v>
+        <v>0.11219999999999999</v>
       </c>
       <c r="AF52" s="73">
         <v>0.12</v>
@@ -11599,167 +11605,167 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="65" t="s">
-        <v>354</v>
-      </c>
-      <c r="B53" s="48" t="s">
-        <v>393</v>
+        <v>353</v>
+      </c>
+      <c r="B53" s="71" t="s">
+        <v>421</v>
       </c>
       <c r="C53" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="D53" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D53" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="65">
         <v>1000</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="65">
         <v>500</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N53" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O53" s="26">
-        <v>0</v>
-      </c>
-      <c r="P53" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="26">
+      <c r="O53" s="73">
+        <v>0</v>
+      </c>
+      <c r="P53" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="65">
         <v>3</v>
       </c>
-      <c r="S53">
+      <c r="S53" s="65">
         <v>75</v>
       </c>
-      <c r="T53">
+      <c r="T53" s="65">
         <v>50</v>
       </c>
-      <c r="U53">
+      <c r="U53" s="65">
         <v>60</v>
       </c>
-      <c r="V53" s="26">
+      <c r="V53" s="73">
         <v>0.02</v>
       </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
+      <c r="W53" s="65">
+        <v>0</v>
+      </c>
+      <c r="X53" s="65">
         <v>10</v>
       </c>
-      <c r="Y53" s="26">
+      <c r="Y53" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z53" s="26">
+      <c r="Z53" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA53" s="26">
+      <c r="AA53" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB53" s="26">
+      <c r="AB53" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC53" s="33">
+      <c r="AC53" s="74">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD53" s="26" t="s">
+      <c r="AD53" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE53" s="51">
-        <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="AF53" s="50">
+      <c r="AE53" s="76">
+        <v>0.1022</v>
+      </c>
+      <c r="AF53" s="73">
         <v>0.12</v>
       </c>
-      <c r="AG53" t="s">
+      <c r="AG53" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH53" s="2" t="s">
+      <c r="AH53" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI53" s="2" t="s">
+      <c r="AI53" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ53">
+      <c r="AJ53" s="65">
         <v>30</v>
       </c>
-      <c r="AK53" t="s">
+      <c r="AK53" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL53">
+      <c r="AL53" s="65">
         <v>5</v>
       </c>
-      <c r="AM53">
+      <c r="AM53" s="65">
         <v>200</v>
       </c>
-      <c r="AN53" s="2" t="s">
+      <c r="AN53" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO53">
+      <c r="AO53" s="65">
         <v>1</v>
       </c>
-      <c r="AP53" s="2" t="s">
+      <c r="AP53" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ53" s="17">
+      <c r="AQ53" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR53" s="49">
+      <c r="AR53" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS53" s="2" t="s">
+      <c r="AS53" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT53" s="12">
+      <c r="AT53" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU53" s="12">
+      <c r="AU53" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV53" s="12">
+      <c r="AV53" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW53" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX53" s="18" t="b">
+      <c r="AW53" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX53" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY53" s="18" t="b">
+      <c r="AY53" s="70" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" s="65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B54" s="48" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C54" s="67" t="b">
         <v>0</v>
@@ -11846,7 +11852,7 @@
         <v>156</v>
       </c>
       <c r="AE54" s="51">
-        <v>8.72E-2</v>
+        <v>9.2200000000000004E-2</v>
       </c>
       <c r="AF54" s="50">
         <v>0.12</v>
@@ -11878,7 +11884,7 @@
       <c r="AO54">
         <v>1</v>
       </c>
-      <c r="AP54" s="43" t="s">
+      <c r="AP54" s="2" t="s">
         <v>114</v>
       </c>
       <c r="AQ54" s="17">
@@ -11911,10 +11917,10 @@
     </row>
     <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55" s="65" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="B55" s="48" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="C55" s="67" t="b">
         <v>0</v>
@@ -12001,7 +12007,7 @@
         <v>156</v>
       </c>
       <c r="AE55" s="51">
-        <v>8.2199999999999995E-2</v>
+        <v>8.72E-2</v>
       </c>
       <c r="AF55" s="50">
         <v>0.12</v>
@@ -12066,10 +12072,10 @@
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56" s="65" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B56" s="48" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="C56" s="67" t="b">
         <v>0</v>
@@ -12156,7 +12162,7 @@
         <v>156</v>
       </c>
       <c r="AE56" s="51">
-        <v>7.7199999999999991E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF56" s="50">
         <v>0.12</v>
@@ -12221,10 +12227,10 @@
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" s="65" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="C57" s="67" t="b">
         <v>0</v>
@@ -12311,7 +12317,7 @@
         <v>156</v>
       </c>
       <c r="AE57" s="51">
-        <v>7.22E-2</v>
+        <v>7.7199999999999991E-2</v>
       </c>
       <c r="AF57" s="50">
         <v>0.12</v>
@@ -12374,35 +12380,160 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="71"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="O58" s="73"/>
-      <c r="P58" s="70"/>
-      <c r="Q58" s="73"/>
-      <c r="V58" s="73"/>
-      <c r="Y58" s="73"/>
-      <c r="Z58" s="73"/>
-      <c r="AA58" s="73"/>
-      <c r="AB58" s="73"/>
-      <c r="AC58" s="74"/>
-      <c r="AD58" s="73"/>
-      <c r="AE58" s="76"/>
-      <c r="AF58" s="73"/>
-      <c r="AH58" s="66"/>
-      <c r="AI58" s="66"/>
-      <c r="AN58" s="66"/>
-      <c r="AP58" s="66"/>
-      <c r="AQ58" s="69"/>
-      <c r="AR58" s="72"/>
-      <c r="AS58" s="66"/>
-      <c r="AT58" s="68"/>
-      <c r="AU58" s="68"/>
-      <c r="AV58" s="68"/>
-      <c r="AW58" s="70"/>
-      <c r="AX58" s="70"/>
-      <c r="AY58" s="70"/>
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A58" s="65" t="s">
+        <v>410</v>
+      </c>
+      <c r="B58" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="C58" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>207</v>
+      </c>
+      <c r="F58" t="s">
+        <v>184</v>
+      </c>
+      <c r="G58">
+        <v>1000</v>
+      </c>
+      <c r="H58">
+        <v>500</v>
+      </c>
+      <c r="I58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J58" t="s">
+        <v>109</v>
+      </c>
+      <c r="K58" t="s">
+        <v>204</v>
+      </c>
+      <c r="L58" t="s">
+        <v>167</v>
+      </c>
+      <c r="M58" t="s">
+        <v>211</v>
+      </c>
+      <c r="N58" t="s">
+        <v>198</v>
+      </c>
+      <c r="O58" s="26">
+        <v>0</v>
+      </c>
+      <c r="P58" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R58">
+        <v>3</v>
+      </c>
+      <c r="S58">
+        <v>75</v>
+      </c>
+      <c r="T58">
+        <v>50</v>
+      </c>
+      <c r="U58">
+        <v>60</v>
+      </c>
+      <c r="V58" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>10</v>
+      </c>
+      <c r="Y58" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z58" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA58" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB58" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC58" s="33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD58" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE58" s="51">
+        <v>7.22E-2</v>
+      </c>
+      <c r="AF58" s="50">
+        <v>0.12</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH58" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI58" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ58">
+        <v>30</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL58">
+        <v>5</v>
+      </c>
+      <c r="AM58">
+        <v>200</v>
+      </c>
+      <c r="AN58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+      <c r="AP58" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ58" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR58" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT58" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU58" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV58" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW58" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX58" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY58" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="71"/>
@@ -12434,198 +12565,73 @@
       <c r="AX59" s="70"/>
       <c r="AY59" s="70"/>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B60" s="91" t="s">
+    <row r="60" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="71"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="O60" s="73"/>
+      <c r="P60" s="70"/>
+      <c r="Q60" s="73"/>
+      <c r="V60" s="73"/>
+      <c r="Y60" s="73"/>
+      <c r="Z60" s="73"/>
+      <c r="AA60" s="73"/>
+      <c r="AB60" s="73"/>
+      <c r="AC60" s="74"/>
+      <c r="AD60" s="73"/>
+      <c r="AE60" s="76"/>
+      <c r="AF60" s="73"/>
+      <c r="AH60" s="66"/>
+      <c r="AI60" s="66"/>
+      <c r="AN60" s="66"/>
+      <c r="AP60" s="66"/>
+      <c r="AQ60" s="69"/>
+      <c r="AR60" s="72"/>
+      <c r="AS60" s="66"/>
+      <c r="AT60" s="68"/>
+      <c r="AU60" s="68"/>
+      <c r="AV60" s="68"/>
+      <c r="AW60" s="70"/>
+      <c r="AX60" s="70"/>
+      <c r="AY60" s="70"/>
+    </row>
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B61" s="91" t="s">
         <v>464</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="44"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="26"/>
-      <c r="V60" s="26"/>
-      <c r="Y60" s="26"/>
-      <c r="Z60" s="26"/>
-      <c r="AA60" s="26"/>
-      <c r="AB60" s="26"/>
-      <c r="AC60" s="85"/>
-      <c r="AD60" s="85"/>
-      <c r="AE60" s="86"/>
-      <c r="AF60" s="85"/>
-      <c r="AH60" s="2"/>
-      <c r="AI60" s="2"/>
-      <c r="AN60" s="2"/>
-      <c r="AP60" s="2"/>
-      <c r="AQ60" s="17"/>
-      <c r="AS60" s="2"/>
-      <c r="AT60" s="12"/>
-      <c r="AU60" s="12"/>
-      <c r="AV60" s="12"/>
-      <c r="AW60" s="18"/>
-      <c r="AX60" s="18"/>
-      <c r="AY60" s="18"/>
-    </row>
-    <row r="61" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="65" t="s">
-        <v>422</v>
-      </c>
-      <c r="B61" s="71" t="s">
-        <v>430</v>
-      </c>
-      <c r="C61" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D61" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="F61" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G61" s="65">
-        <v>1000</v>
-      </c>
-      <c r="H61" s="65">
-        <v>500</v>
-      </c>
-      <c r="I61" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J61" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K61" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L61" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="M61" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="N61" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="O61" s="73">
-        <v>0</v>
-      </c>
-      <c r="P61" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="73">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R61" s="65">
-        <v>3</v>
-      </c>
-      <c r="S61" s="65">
-        <v>75</v>
-      </c>
-      <c r="T61" s="65">
-        <v>50</v>
-      </c>
-      <c r="U61" s="65">
-        <v>60</v>
-      </c>
-      <c r="V61" s="73">
-        <v>0.02</v>
-      </c>
-      <c r="W61" s="65">
-        <v>0</v>
-      </c>
-      <c r="X61" s="65">
-        <v>10</v>
-      </c>
-      <c r="Y61" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="Z61" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="AA61" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="AB61" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="AC61" s="87">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD61" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE61" s="87">
-        <v>7.5157231635036972E-2</v>
-      </c>
-      <c r="AF61" s="89">
-        <v>1.7733112250080365E-2</v>
-      </c>
-      <c r="AG61" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH61" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI61" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ61" s="65">
-        <v>30</v>
-      </c>
-      <c r="AK61" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL61" s="65">
-        <v>5</v>
-      </c>
-      <c r="AM61" s="65">
-        <v>200</v>
-      </c>
-      <c r="AN61" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO61" s="65">
-        <v>1</v>
-      </c>
-      <c r="AP61" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ61" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="AR61" s="72">
-        <v>168732127</v>
-      </c>
-      <c r="AS61" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT61" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="AU61" s="68">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV61" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="AW61" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX61" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY61" s="70" t="b">
-        <v>0</v>
-      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="44"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="26"/>
+      <c r="V61" s="26"/>
+      <c r="Y61" s="26"/>
+      <c r="Z61" s="26"/>
+      <c r="AA61" s="26"/>
+      <c r="AB61" s="26"/>
+      <c r="AC61" s="85"/>
+      <c r="AD61" s="85"/>
+      <c r="AE61" s="86"/>
+      <c r="AF61" s="85"/>
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="2"/>
+      <c r="AN61" s="2"/>
+      <c r="AP61" s="2"/>
+      <c r="AQ61" s="17"/>
+      <c r="AS61" s="2"/>
+      <c r="AT61" s="12"/>
+      <c r="AU61" s="12"/>
+      <c r="AV61" s="12"/>
+      <c r="AW61" s="18"/>
+      <c r="AX61" s="18"/>
+      <c r="AY61" s="18"/>
     </row>
     <row r="62" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="65" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B62" s="71" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C62" s="67" t="b">
         <v>0</v>
@@ -12705,16 +12711,16 @@
       <c r="AB62" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC62" s="88">
-        <v>6.5000000000000002E-2</v>
+      <c r="AC62" s="87">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD62" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE62" s="88">
-        <v>6.5157231635036977E-2</v>
-      </c>
-      <c r="AF62" s="90">
+      <c r="AE62" s="87">
+        <v>7.5157231635036972E-2</v>
+      </c>
+      <c r="AF62" s="89">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG62" s="65" t="s">
@@ -12777,10 +12783,10 @@
     </row>
     <row r="63" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="65" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B63" s="71" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C63" s="67" t="b">
         <v>0</v>
@@ -12861,13 +12867,13 @@
         <v>0.01</v>
       </c>
       <c r="AC63" s="88">
-        <v>5.4999999999999993E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AD63" s="85" t="s">
         <v>156</v>
       </c>
       <c r="AE63" s="88">
-        <v>5.5157231635036968E-2</v>
+        <v>6.5157231635036977E-2</v>
       </c>
       <c r="AF63" s="90">
         <v>1.7733112250080365E-2</v>
@@ -12932,10 +12938,10 @@
     </row>
     <row r="64" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="65" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B64" s="71" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C64" s="67" t="b">
         <v>0</v>
@@ -13016,13 +13022,13 @@
         <v>0.01</v>
       </c>
       <c r="AC64" s="88">
-        <v>4.4999999999999991E-2</v>
+        <v>5.4999999999999993E-2</v>
       </c>
       <c r="AD64" s="85" t="s">
         <v>156</v>
       </c>
       <c r="AE64" s="88">
-        <v>4.5157231635036967E-2</v>
+        <v>5.5157231635036968E-2</v>
       </c>
       <c r="AF64" s="90">
         <v>1.7733112250080365E-2</v>
@@ -13087,10 +13093,10 @@
     </row>
     <row r="65" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="65" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B65" s="71" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C65" s="67" t="b">
         <v>0</v>
@@ -13171,13 +13177,13 @@
         <v>0.01</v>
       </c>
       <c r="AC65" s="88">
-        <v>0.04</v>
+        <v>4.4999999999999991E-2</v>
       </c>
       <c r="AD65" s="85" t="s">
         <v>156</v>
       </c>
       <c r="AE65" s="88">
-        <v>4.02E-2</v>
+        <v>4.5157231635036967E-2</v>
       </c>
       <c r="AF65" s="90">
         <v>1.7733112250080365E-2</v>
@@ -13242,10 +13248,10 @@
     </row>
     <row r="66" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="65" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B66" s="71" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C66" s="67" t="b">
         <v>0</v>
@@ -13325,16 +13331,16 @@
       <c r="AB66" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC66" s="87">
-        <v>3.4999999999999989E-2</v>
+      <c r="AC66" s="88">
+        <v>0.04</v>
       </c>
       <c r="AD66" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE66" s="87">
-        <v>3.5157231635036965E-2</v>
-      </c>
-      <c r="AF66" s="89">
+      <c r="AE66" s="88">
+        <v>4.02E-2</v>
+      </c>
+      <c r="AF66" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG66" s="65" t="s">
@@ -13397,10 +13403,10 @@
     </row>
     <row r="67" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="65" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C67" s="67" t="b">
         <v>0</v>
@@ -13480,16 +13486,16 @@
       <c r="AB67" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC67" s="88">
-        <v>2.9999999999999992E-2</v>
+      <c r="AC67" s="87">
+        <v>3.4999999999999989E-2</v>
       </c>
       <c r="AD67" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE67" s="88">
-        <v>3.0157231635036967E-2</v>
-      </c>
-      <c r="AF67" s="90">
+      <c r="AE67" s="87">
+        <v>3.5157231635036965E-2</v>
+      </c>
+      <c r="AF67" s="89">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG67" s="65" t="s">
@@ -13552,10 +13558,10 @@
     </row>
     <row r="68" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="65" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B68" s="71" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C68" s="67" t="b">
         <v>0</v>
@@ -13636,13 +13642,13 @@
         <v>0.01</v>
       </c>
       <c r="AC68" s="88">
-        <v>2.4999999999999994E-2</v>
+        <v>2.9999999999999992E-2</v>
       </c>
       <c r="AD68" s="85" t="s">
         <v>156</v>
       </c>
       <c r="AE68" s="88">
-        <v>2.515723163503697E-2</v>
+        <v>3.0157231635036967E-2</v>
       </c>
       <c r="AF68" s="90">
         <v>1.7733112250080365E-2</v>
@@ -13706,224 +13712,347 @@
       </c>
     </row>
     <row r="69" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="71"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="O69" s="73"/>
-      <c r="P69" s="70"/>
-      <c r="Q69" s="73"/>
-      <c r="V69" s="73"/>
-      <c r="Y69" s="73"/>
-      <c r="Z69" s="73"/>
-      <c r="AA69" s="73"/>
-      <c r="AB69" s="73"/>
-      <c r="AC69" s="88"/>
-      <c r="AD69" s="85"/>
-      <c r="AE69" s="88"/>
-      <c r="AF69" s="90"/>
-      <c r="AH69" s="66"/>
-      <c r="AI69" s="66"/>
-      <c r="AN69" s="66"/>
-      <c r="AP69" s="66"/>
-      <c r="AQ69" s="69"/>
-      <c r="AR69" s="72"/>
-      <c r="AS69" s="66"/>
-      <c r="AT69" s="68"/>
-      <c r="AU69" s="68"/>
-      <c r="AV69" s="68"/>
-      <c r="AW69" s="70"/>
-      <c r="AX69" s="70"/>
-      <c r="AY69" s="70"/>
+      <c r="A69" s="65" t="s">
+        <v>429</v>
+      </c>
+      <c r="B69" s="71" t="s">
+        <v>436</v>
+      </c>
+      <c r="C69" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F69" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G69" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H69" s="65">
+        <v>500</v>
+      </c>
+      <c r="I69" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J69" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K69" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L69" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M69" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N69" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O69" s="73">
+        <v>0</v>
+      </c>
+      <c r="P69" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R69" s="65">
+        <v>3</v>
+      </c>
+      <c r="S69" s="65">
+        <v>75</v>
+      </c>
+      <c r="T69" s="65">
+        <v>50</v>
+      </c>
+      <c r="U69" s="65">
+        <v>60</v>
+      </c>
+      <c r="V69" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W69" s="65">
+        <v>0</v>
+      </c>
+      <c r="X69" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y69" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z69" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA69" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB69" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC69" s="88">
+        <v>2.4999999999999994E-2</v>
+      </c>
+      <c r="AD69" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE69" s="88">
+        <v>2.515723163503697E-2</v>
+      </c>
+      <c r="AF69" s="90">
+        <v>1.7733112250080365E-2</v>
+      </c>
+      <c r="AG69" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH69" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI69" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ69" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK69" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL69" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM69" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN69" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO69" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP69" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ69" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR69" s="72">
+        <v>168732127</v>
+      </c>
+      <c r="AS69" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT69" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU69" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV69" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW69" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX69" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY69" s="70" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="65" t="s">
-        <v>453</v>
-      </c>
-      <c r="B70" s="71" t="s">
-        <v>454</v>
-      </c>
-      <c r="C70" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D70" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E70" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="F70" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G70" s="65">
-        <v>1000</v>
-      </c>
-      <c r="H70" s="65">
-        <v>500</v>
-      </c>
-      <c r="I70" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J70" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K70" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L70" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="M70" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="N70" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="O70" s="73">
-        <v>0</v>
-      </c>
-      <c r="P70" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="73">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R70" s="65">
-        <v>3</v>
-      </c>
-      <c r="S70" s="65">
-        <v>75</v>
-      </c>
-      <c r="T70" s="65">
-        <v>50</v>
-      </c>
-      <c r="U70" s="65">
-        <v>60</v>
-      </c>
-      <c r="V70" s="73">
-        <v>0.02</v>
-      </c>
-      <c r="W70" s="65">
-        <v>0</v>
-      </c>
-      <c r="X70" s="65">
-        <v>10</v>
-      </c>
-      <c r="Y70" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="Z70" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="AA70" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="AB70" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="AC70" s="87">
-        <v>3.4999999999999989E-2</v>
-      </c>
-      <c r="AD70" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE70" s="87">
-        <v>3.5157231635036965E-2</v>
-      </c>
-      <c r="AF70" s="89">
-        <v>1.7733112250080365E-2</v>
-      </c>
-      <c r="AG70" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH70" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI70" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ70" s="65">
-        <v>15</v>
-      </c>
-      <c r="AK70" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL70" s="65">
-        <v>5</v>
-      </c>
-      <c r="AM70" s="65">
-        <v>200</v>
-      </c>
-      <c r="AN70" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO70" s="65">
-        <v>1</v>
-      </c>
-      <c r="AP70" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ70" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="AR70" s="72">
-        <v>168732127</v>
-      </c>
-      <c r="AS70" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT70" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="AU70" s="68">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV70" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="AW70" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX70" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY70" s="70" t="b">
-        <v>0</v>
-      </c>
+      <c r="B70" s="71"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="O70" s="73"/>
+      <c r="P70" s="70"/>
+      <c r="Q70" s="73"/>
+      <c r="V70" s="73"/>
+      <c r="Y70" s="73"/>
+      <c r="Z70" s="73"/>
+      <c r="AA70" s="73"/>
+      <c r="AB70" s="73"/>
+      <c r="AC70" s="88"/>
+      <c r="AD70" s="85"/>
+      <c r="AE70" s="88"/>
+      <c r="AF70" s="90"/>
+      <c r="AH70" s="66"/>
+      <c r="AI70" s="66"/>
+      <c r="AN70" s="66"/>
+      <c r="AP70" s="66"/>
+      <c r="AQ70" s="69"/>
+      <c r="AR70" s="72"/>
+      <c r="AS70" s="66"/>
+      <c r="AT70" s="68"/>
+      <c r="AU70" s="68"/>
+      <c r="AV70" s="68"/>
+      <c r="AW70" s="70"/>
+      <c r="AX70" s="70"/>
+      <c r="AY70" s="70"/>
     </row>
     <row r="71" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="71"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="O71" s="73"/>
-      <c r="P71" s="70"/>
-      <c r="Q71" s="73"/>
-      <c r="V71" s="73"/>
-      <c r="Y71" s="73"/>
-      <c r="Z71" s="73"/>
-      <c r="AA71" s="73"/>
-      <c r="AB71" s="73"/>
-      <c r="AC71" s="87"/>
-      <c r="AD71" s="85"/>
-      <c r="AE71" s="87"/>
-      <c r="AF71" s="89"/>
-      <c r="AH71" s="66"/>
-      <c r="AI71" s="66"/>
-      <c r="AN71" s="66"/>
-      <c r="AP71" s="66"/>
-      <c r="AQ71" s="69"/>
-      <c r="AR71" s="72"/>
-      <c r="AS71" s="66"/>
-      <c r="AT71" s="68"/>
-      <c r="AU71" s="68"/>
-      <c r="AV71" s="68"/>
-      <c r="AW71" s="70"/>
-      <c r="AX71" s="70"/>
-      <c r="AY71" s="70"/>
+      <c r="A71" s="65" t="s">
+        <v>453</v>
+      </c>
+      <c r="B71" s="71" t="s">
+        <v>454</v>
+      </c>
+      <c r="C71" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F71" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G71" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H71" s="65">
+        <v>500</v>
+      </c>
+      <c r="I71" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J71" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K71" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L71" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M71" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N71" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O71" s="73">
+        <v>0</v>
+      </c>
+      <c r="P71" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R71" s="65">
+        <v>3</v>
+      </c>
+      <c r="S71" s="65">
+        <v>75</v>
+      </c>
+      <c r="T71" s="65">
+        <v>50</v>
+      </c>
+      <c r="U71" s="65">
+        <v>60</v>
+      </c>
+      <c r="V71" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W71" s="65">
+        <v>0</v>
+      </c>
+      <c r="X71" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y71" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z71" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA71" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB71" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC71" s="87">
+        <v>3.4999999999999989E-2</v>
+      </c>
+      <c r="AD71" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE71" s="87">
+        <v>3.5157231635036965E-2</v>
+      </c>
+      <c r="AF71" s="89">
+        <v>1.7733112250080365E-2</v>
+      </c>
+      <c r="AG71" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH71" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI71" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ71" s="65">
+        <v>15</v>
+      </c>
+      <c r="AK71" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL71" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM71" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN71" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO71" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP71" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ71" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR71" s="72">
+        <v>168732127</v>
+      </c>
+      <c r="AS71" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT71" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU71" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV71" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW71" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX71" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY71" s="70" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="91" t="s">
-        <v>463</v>
-      </c>
+      <c r="B72" s="71"/>
       <c r="C72" s="67"/>
       <c r="D72" s="67"/>
       <c r="O72" s="73"/>
@@ -13934,10 +14063,10 @@
       <c r="Z72" s="73"/>
       <c r="AA72" s="73"/>
       <c r="AB72" s="73"/>
-      <c r="AC72" s="74"/>
-      <c r="AD72" s="73"/>
-      <c r="AE72" s="76"/>
-      <c r="AF72" s="73"/>
+      <c r="AC72" s="87"/>
+      <c r="AD72" s="85"/>
+      <c r="AE72" s="87"/>
+      <c r="AF72" s="89"/>
       <c r="AH72" s="66"/>
       <c r="AI72" s="66"/>
       <c r="AN72" s="66"/>
@@ -13953,166 +14082,43 @@
       <c r="AY72" s="70"/>
     </row>
     <row r="73" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="65" t="s">
-        <v>438</v>
-      </c>
-      <c r="B73" s="71" t="s">
-        <v>430</v>
-      </c>
-      <c r="C73" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D73" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E73" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="F73" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G73" s="65">
-        <v>1000</v>
-      </c>
-      <c r="H73" s="65">
-        <v>500</v>
-      </c>
-      <c r="I73" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J73" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K73" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L73" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="M73" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="N73" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="O73" s="73">
-        <v>0</v>
-      </c>
-      <c r="P73" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="73">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R73" s="65">
-        <v>3</v>
-      </c>
-      <c r="S73" s="65">
-        <v>75</v>
-      </c>
-      <c r="T73" s="65">
-        <v>50</v>
-      </c>
-      <c r="U73" s="65">
-        <v>60</v>
-      </c>
-      <c r="V73" s="73">
-        <v>0.02</v>
-      </c>
-      <c r="W73" s="65">
-        <v>0</v>
-      </c>
-      <c r="X73" s="65">
-        <v>10</v>
-      </c>
-      <c r="Y73" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="Z73" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="AA73" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="AB73" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="AC73" s="87">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD73" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE73" s="87">
-        <v>7.5157231635036972E-2</v>
-      </c>
-      <c r="AF73" s="89">
-        <v>1.7733112250080365E-2</v>
-      </c>
-      <c r="AG73" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH73" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI73" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ73" s="65">
-        <v>30</v>
-      </c>
-      <c r="AK73" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL73" s="65">
-        <v>5</v>
-      </c>
-      <c r="AM73" s="65">
-        <v>200</v>
-      </c>
-      <c r="AN73" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO73" s="65">
-        <v>1</v>
-      </c>
-      <c r="AP73" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ73" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="AR73" s="72">
-        <v>168732127</v>
-      </c>
-      <c r="AS73" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT73" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="AU73" s="68">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV73" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="AW73" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX73" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY73" s="70" t="b">
-        <v>0</v>
-      </c>
+      <c r="B73" s="91" t="s">
+        <v>463</v>
+      </c>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="O73" s="73"/>
+      <c r="P73" s="70"/>
+      <c r="Q73" s="73"/>
+      <c r="V73" s="73"/>
+      <c r="Y73" s="73"/>
+      <c r="Z73" s="73"/>
+      <c r="AA73" s="73"/>
+      <c r="AB73" s="73"/>
+      <c r="AC73" s="74"/>
+      <c r="AD73" s="73"/>
+      <c r="AE73" s="76"/>
+      <c r="AF73" s="73"/>
+      <c r="AH73" s="66"/>
+      <c r="AI73" s="66"/>
+      <c r="AN73" s="66"/>
+      <c r="AP73" s="66"/>
+      <c r="AQ73" s="69"/>
+      <c r="AR73" s="72"/>
+      <c r="AS73" s="66"/>
+      <c r="AT73" s="68"/>
+      <c r="AU73" s="68"/>
+      <c r="AV73" s="68"/>
+      <c r="AW73" s="70"/>
+      <c r="AX73" s="70"/>
+      <c r="AY73" s="70"/>
     </row>
     <row r="74" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="65" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B74" s="71" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="C74" s="67" t="b">
         <v>0</v>
@@ -14198,10 +14204,10 @@
       <c r="AD74" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE74" s="88">
-        <v>6.5157231635036977E-2</v>
-      </c>
-      <c r="AF74" s="90">
+      <c r="AE74" s="87">
+        <v>7.5157231635036972E-2</v>
+      </c>
+      <c r="AF74" s="89">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG74" s="65" t="s">
@@ -14264,10 +14270,10 @@
     </row>
     <row r="75" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="65" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B75" s="71" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C75" s="67" t="b">
         <v>0</v>
@@ -14354,7 +14360,7 @@
         <v>156</v>
       </c>
       <c r="AE75" s="88">
-        <v>5.5157231635036968E-2</v>
+        <v>6.5157231635036977E-2</v>
       </c>
       <c r="AF75" s="90">
         <v>1.7733112250080365E-2</v>
@@ -14419,10 +14425,10 @@
     </row>
     <row r="76" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="65" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B76" s="71" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C76" s="67" t="b">
         <v>0</v>
@@ -14509,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="AE76" s="88">
-        <v>4.5157231635036967E-2</v>
+        <v>5.5157231635036968E-2</v>
       </c>
       <c r="AF76" s="90">
         <v>1.7733112250080365E-2</v>
@@ -14574,10 +14580,10 @@
     </row>
     <row r="77" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="65" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B77" s="71" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C77" s="67" t="b">
         <v>0</v>
@@ -14664,7 +14670,7 @@
         <v>156</v>
       </c>
       <c r="AE77" s="88">
-        <v>4.02E-2</v>
+        <v>4.5157231635036967E-2</v>
       </c>
       <c r="AF77" s="90">
         <v>1.7733112250080365E-2</v>
@@ -14729,10 +14735,10 @@
     </row>
     <row r="78" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="65" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B78" s="71" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C78" s="67" t="b">
         <v>0</v>
@@ -14818,10 +14824,10 @@
       <c r="AD78" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE78" s="87">
-        <v>3.5157231635036965E-2</v>
-      </c>
-      <c r="AF78" s="89">
+      <c r="AE78" s="88">
+        <v>4.02E-2</v>
+      </c>
+      <c r="AF78" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG78" s="65" t="s">
@@ -14884,10 +14890,10 @@
     </row>
     <row r="79" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="65" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B79" s="71" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C79" s="67" t="b">
         <v>0</v>
@@ -14973,10 +14979,10 @@
       <c r="AD79" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE79" s="88">
-        <v>3.0157231635036967E-2</v>
-      </c>
-      <c r="AF79" s="90">
+      <c r="AE79" s="87">
+        <v>3.5157231635036965E-2</v>
+      </c>
+      <c r="AF79" s="89">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG79" s="65" t="s">
@@ -15039,10 +15045,10 @@
     </row>
     <row r="80" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="65" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B80" s="71" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C80" s="67" t="b">
         <v>0</v>
@@ -15129,7 +15135,7 @@
         <v>156</v>
       </c>
       <c r="AE80" s="88">
-        <v>2.515723163503697E-2</v>
+        <v>3.0157231635036967E-2</v>
       </c>
       <c r="AF80" s="90">
         <v>1.7733112250080365E-2</v>
@@ -15193,39 +15199,162 @@
       </c>
     </row>
     <row r="81" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="71"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="O81" s="73"/>
-      <c r="P81" s="70"/>
-      <c r="Q81" s="73"/>
-      <c r="V81" s="73"/>
-      <c r="Y81" s="73"/>
-      <c r="Z81" s="73"/>
-      <c r="AA81" s="73"/>
-      <c r="AB81" s="73"/>
-      <c r="AC81" s="87"/>
-      <c r="AD81" s="85"/>
-      <c r="AE81" s="88"/>
-      <c r="AF81" s="90"/>
-      <c r="AH81" s="66"/>
-      <c r="AI81" s="66"/>
-      <c r="AN81" s="66"/>
-      <c r="AP81" s="66"/>
-      <c r="AQ81" s="69"/>
-      <c r="AR81" s="72"/>
-      <c r="AS81" s="66"/>
-      <c r="AT81" s="68"/>
-      <c r="AU81" s="68"/>
-      <c r="AV81" s="68"/>
-      <c r="AW81" s="70"/>
-      <c r="AX81" s="70"/>
-      <c r="AY81" s="70"/>
+      <c r="A81" s="65" t="s">
+        <v>445</v>
+      </c>
+      <c r="B81" s="71" t="s">
+        <v>452</v>
+      </c>
+      <c r="C81" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D81" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F81" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G81" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H81" s="65">
+        <v>500</v>
+      </c>
+      <c r="I81" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J81" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K81" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L81" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M81" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N81" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O81" s="73">
+        <v>0</v>
+      </c>
+      <c r="P81" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R81" s="65">
+        <v>3</v>
+      </c>
+      <c r="S81" s="65">
+        <v>75</v>
+      </c>
+      <c r="T81" s="65">
+        <v>50</v>
+      </c>
+      <c r="U81" s="65">
+        <v>60</v>
+      </c>
+      <c r="V81" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W81" s="65">
+        <v>0</v>
+      </c>
+      <c r="X81" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y81" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z81" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA81" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB81" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC81" s="87">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD81" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE81" s="88">
+        <v>2.515723163503697E-2</v>
+      </c>
+      <c r="AF81" s="90">
+        <v>1.7733112250080365E-2</v>
+      </c>
+      <c r="AG81" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH81" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI81" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ81" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK81" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL81" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM81" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN81" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO81" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP81" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ81" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR81" s="72">
+        <v>168732127</v>
+      </c>
+      <c r="AS81" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT81" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU81" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV81" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW81" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX81" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY81" s="70" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="91" t="s">
-        <v>466</v>
-      </c>
+      <c r="B82" s="71"/>
       <c r="C82" s="67"/>
       <c r="D82" s="67"/>
       <c r="O82" s="73"/>
@@ -15236,10 +15365,10 @@
       <c r="Z82" s="73"/>
       <c r="AA82" s="73"/>
       <c r="AB82" s="73"/>
-      <c r="AC82" s="74"/>
-      <c r="AD82" s="73"/>
-      <c r="AE82" s="76"/>
-      <c r="AF82" s="73"/>
+      <c r="AC82" s="87"/>
+      <c r="AD82" s="85"/>
+      <c r="AE82" s="88"/>
+      <c r="AF82" s="90"/>
       <c r="AH82" s="66"/>
       <c r="AI82" s="66"/>
       <c r="AN82" s="66"/>
@@ -15254,169 +15383,46 @@
       <c r="AX82" s="70"/>
       <c r="AY82" s="70"/>
     </row>
-    <row r="83" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="B83" s="48" t="s">
-        <v>364</v>
-      </c>
-      <c r="C83" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="D83" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E83" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="F83" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G83" s="42">
-        <v>1000</v>
-      </c>
-      <c r="H83" s="42">
-        <v>500</v>
-      </c>
-      <c r="I83" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J83" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="K83" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="L83" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="M83" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="N83" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="O83" s="50">
-        <v>0</v>
-      </c>
-      <c r="P83" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="50">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R83" s="42">
-        <v>3</v>
-      </c>
-      <c r="S83" s="42">
-        <v>75</v>
-      </c>
-      <c r="T83" s="42">
-        <v>50</v>
-      </c>
-      <c r="U83" s="42">
-        <v>60</v>
-      </c>
-      <c r="V83" s="50">
-        <v>0.02</v>
-      </c>
-      <c r="W83" s="42">
-        <v>0</v>
-      </c>
-      <c r="X83" s="42">
-        <v>10</v>
-      </c>
-      <c r="Y83" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="Z83" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="AA83" s="50">
-        <v>0.03</v>
-      </c>
-      <c r="AB83" s="50">
-        <v>0.01</v>
-      </c>
-      <c r="AC83" s="33">
-        <v>4.4234404536862004E-2</v>
-      </c>
-      <c r="AD83" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE83" s="51">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="AF83" s="24">
-        <v>3.9130434782608692E-2</v>
-      </c>
-      <c r="AG83" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH83" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI83" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ83" s="42">
-        <v>30</v>
-      </c>
-      <c r="AK83" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL83" s="42">
-        <v>5</v>
-      </c>
-      <c r="AM83" s="42">
-        <v>200</v>
-      </c>
-      <c r="AN83" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO83" s="42">
-        <v>1</v>
-      </c>
-      <c r="AP83" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ83" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="AR83" s="49">
-        <v>168732127</v>
-      </c>
-      <c r="AS83" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT83" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="AU83" s="45">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV83" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="AW83" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX83" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY83" s="47" t="b">
-        <v>0</v>
-      </c>
+    <row r="83" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="91" t="s">
+        <v>466</v>
+      </c>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="O83" s="73"/>
+      <c r="P83" s="70"/>
+      <c r="Q83" s="73"/>
+      <c r="V83" s="73"/>
+      <c r="Y83" s="73"/>
+      <c r="Z83" s="73"/>
+      <c r="AA83" s="73"/>
+      <c r="AB83" s="73"/>
+      <c r="AC83" s="74"/>
+      <c r="AD83" s="73"/>
+      <c r="AE83" s="76"/>
+      <c r="AF83" s="73"/>
+      <c r="AH83" s="66"/>
+      <c r="AI83" s="66"/>
+      <c r="AN83" s="66"/>
+      <c r="AP83" s="66"/>
+      <c r="AQ83" s="69"/>
+      <c r="AR83" s="72"/>
+      <c r="AS83" s="66"/>
+      <c r="AT83" s="68"/>
+      <c r="AU83" s="68"/>
+      <c r="AV83" s="68"/>
+      <c r="AW83" s="70"/>
+      <c r="AX83" s="70"/>
+      <c r="AY83" s="70"/>
     </row>
     <row r="84" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B84" s="48" t="s">
-        <v>396</v>
-      </c>
-      <c r="C84" s="67" t="b">
+        <v>364</v>
+      </c>
+      <c r="C84" s="44" t="b">
         <v>0</v>
       </c>
       <c r="D84" s="44" t="b">
@@ -15495,16 +15501,16 @@
         <v>0.01</v>
       </c>
       <c r="AC84" s="33">
-        <v>5.7426748582230625E-2</v>
+        <v>4.4234404536862004E-2</v>
       </c>
       <c r="AD84" s="50" t="s">
         <v>156</v>
       </c>
       <c r="AE84" s="51">
-        <v>0.06</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AF84" s="24">
-        <v>7.1739130434782611E-2</v>
+        <v>3.9130434782608692E-2</v>
       </c>
       <c r="AG84" s="42" t="s">
         <v>112</v>
@@ -15566,10 +15572,10 @@
     </row>
     <row r="85" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B85" s="48" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="C85" s="67" t="b">
         <v>0</v>
@@ -15650,16 +15656,16 @@
         <v>0.01</v>
       </c>
       <c r="AC85" s="33">
-        <v>7.4999999999999997E-2</v>
+        <v>5.7426748582230625E-2</v>
       </c>
       <c r="AD85" s="50" t="s">
         <v>156</v>
       </c>
       <c r="AE85" s="51">
-        <v>8.2199999999999995E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AF85" s="24">
-        <v>0.12</v>
+        <v>7.1739130434782611E-2</v>
       </c>
       <c r="AG85" s="42" t="s">
         <v>112</v>
@@ -15721,10 +15727,10 @@
     </row>
     <row r="86" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B86" s="48" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C86" s="67" t="b">
         <v>0</v>
@@ -15805,16 +15811,16 @@
         <v>0.01</v>
       </c>
       <c r="AC86" s="33">
-        <v>8.0621455576559545E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD86" s="50" t="s">
         <v>156</v>
       </c>
       <c r="AE86" s="51">
-        <v>0.09</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF86" s="24">
-        <v>0.13695652173913042</v>
+        <v>0.12</v>
       </c>
       <c r="AG86" s="42" t="s">
         <v>112</v>
@@ -15876,10 +15882,10 @@
     </row>
     <row r="87" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B87" s="48" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="C87" s="67" t="b">
         <v>0</v>
@@ -15960,16 +15966,16 @@
         <v>0.01</v>
       </c>
       <c r="AC87" s="33">
-        <v>9.0623818525519845E-2</v>
+        <v>8.0621455576559545E-2</v>
       </c>
       <c r="AD87" s="50" t="s">
         <v>156</v>
       </c>
       <c r="AE87" s="51">
-        <v>0.105</v>
+        <v>0.09</v>
       </c>
       <c r="AF87" s="24">
-        <v>0.16956521739130434</v>
+        <v>0.13695652173913042</v>
       </c>
       <c r="AG87" s="42" t="s">
         <v>112</v>
@@ -16029,229 +16035,229 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="71"/>
-      <c r="C88" s="67"/>
-      <c r="D88" s="67"/>
-      <c r="O88" s="73"/>
-      <c r="P88" s="70"/>
-      <c r="Q88" s="73"/>
-      <c r="V88" s="73"/>
-      <c r="Y88" s="73"/>
-      <c r="Z88" s="73"/>
-      <c r="AA88" s="73"/>
-      <c r="AB88" s="73"/>
-      <c r="AC88" s="74"/>
-      <c r="AD88" s="73"/>
-      <c r="AE88" s="76"/>
-      <c r="AF88" s="24"/>
-      <c r="AH88" s="66"/>
-      <c r="AI88" s="66"/>
-      <c r="AN88" s="66"/>
-      <c r="AP88" s="66"/>
-      <c r="AQ88" s="69"/>
-      <c r="AR88" s="72"/>
-      <c r="AS88" s="66"/>
-      <c r="AT88" s="68"/>
-      <c r="AU88" s="68"/>
-      <c r="AV88" s="68"/>
-      <c r="AW88" s="70"/>
-      <c r="AX88" s="70"/>
-      <c r="AY88" s="70"/>
+    <row r="88" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="B88" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="C88" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F88" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G88" s="42">
+        <v>1000</v>
+      </c>
+      <c r="H88" s="42">
+        <v>500</v>
+      </c>
+      <c r="I88" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J88" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K88" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="L88" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="M88" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="N88" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="O88" s="50">
+        <v>0</v>
+      </c>
+      <c r="P88" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="50">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R88" s="42">
+        <v>3</v>
+      </c>
+      <c r="S88" s="42">
+        <v>75</v>
+      </c>
+      <c r="T88" s="42">
+        <v>50</v>
+      </c>
+      <c r="U88" s="42">
+        <v>60</v>
+      </c>
+      <c r="V88" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="W88" s="42">
+        <v>0</v>
+      </c>
+      <c r="X88" s="42">
+        <v>10</v>
+      </c>
+      <c r="Y88" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="Z88" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="AA88" s="50">
+        <v>0.03</v>
+      </c>
+      <c r="AB88" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="AC88" s="33">
+        <v>9.0623818525519845E-2</v>
+      </c>
+      <c r="AD88" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE88" s="51">
+        <v>0.105</v>
+      </c>
+      <c r="AF88" s="24">
+        <v>0.16956521739130434</v>
+      </c>
+      <c r="AG88" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH88" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI88" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ88" s="42">
+        <v>30</v>
+      </c>
+      <c r="AK88" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL88" s="42">
+        <v>5</v>
+      </c>
+      <c r="AM88" s="42">
+        <v>200</v>
+      </c>
+      <c r="AN88" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO88" s="42">
+        <v>1</v>
+      </c>
+      <c r="AP88" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ88" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="AR88" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS88" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT88" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="AU88" s="45">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV88" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="AW88" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX88" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY88" s="47" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="91" t="s">
-        <v>467</v>
-      </c>
+    <row r="89" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="71"/>
       <c r="C89" s="67"/>
-      <c r="D89" s="44"/>
-      <c r="O89" s="50"/>
-      <c r="P89" s="47"/>
-      <c r="Q89" s="50"/>
-      <c r="V89" s="50"/>
-      <c r="Y89" s="50"/>
-      <c r="Z89" s="50"/>
-      <c r="AA89" s="50"/>
-      <c r="AB89" s="50"/>
-      <c r="AC89" s="33"/>
-      <c r="AD89" s="50"/>
-      <c r="AE89" s="51"/>
+      <c r="D89" s="67"/>
+      <c r="O89" s="73"/>
+      <c r="P89" s="70"/>
+      <c r="Q89" s="73"/>
+      <c r="V89" s="73"/>
+      <c r="Y89" s="73"/>
+      <c r="Z89" s="73"/>
+      <c r="AA89" s="73"/>
+      <c r="AB89" s="73"/>
+      <c r="AC89" s="74"/>
+      <c r="AD89" s="73"/>
+      <c r="AE89" s="76"/>
       <c r="AF89" s="24"/>
-      <c r="AH89" s="43"/>
-      <c r="AI89" s="43"/>
-      <c r="AN89" s="43"/>
-      <c r="AP89" s="43"/>
-      <c r="AQ89" s="46"/>
-      <c r="AR89" s="49"/>
-      <c r="AS89" s="43"/>
-      <c r="AT89" s="45"/>
-      <c r="AU89" s="45"/>
-      <c r="AV89" s="45"/>
-      <c r="AW89" s="47"/>
-      <c r="AX89" s="47"/>
-      <c r="AY89" s="47"/>
+      <c r="AH89" s="66"/>
+      <c r="AI89" s="66"/>
+      <c r="AN89" s="66"/>
+      <c r="AP89" s="66"/>
+      <c r="AQ89" s="69"/>
+      <c r="AR89" s="72"/>
+      <c r="AS89" s="66"/>
+      <c r="AT89" s="68"/>
+      <c r="AU89" s="68"/>
+      <c r="AV89" s="68"/>
+      <c r="AW89" s="70"/>
+      <c r="AX89" s="70"/>
+      <c r="AY89" s="70"/>
     </row>
     <row r="90" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="B90" s="48" t="s">
-        <v>392</v>
-      </c>
-      <c r="C90" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D90" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E90" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="F90" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G90" s="42">
-        <v>1000</v>
-      </c>
-      <c r="H90" s="42">
-        <v>500</v>
-      </c>
-      <c r="I90" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J90" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="K90" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="L90" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="M90" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="N90" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="O90" s="50">
-        <v>0</v>
-      </c>
-      <c r="P90" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="50">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R90" s="42">
-        <v>3</v>
-      </c>
-      <c r="S90" s="42">
-        <v>75</v>
-      </c>
-      <c r="T90" s="42">
-        <v>50</v>
-      </c>
-      <c r="U90" s="42">
-        <v>60</v>
-      </c>
-      <c r="V90" s="50">
-        <v>0.02</v>
-      </c>
-      <c r="W90" s="42">
-        <v>0</v>
-      </c>
-      <c r="X90" s="42">
-        <v>10</v>
-      </c>
-      <c r="Y90" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="Z90" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="AA90" s="50">
-        <v>0.03</v>
-      </c>
-      <c r="AB90" s="50">
-        <v>0.01</v>
-      </c>
-      <c r="AC90" s="33">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD90" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE90" s="51">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="AF90" s="24">
-        <v>3.9130434782608692E-2</v>
-      </c>
-      <c r="AG90" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH90" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI90" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ90" s="42">
-        <v>30</v>
-      </c>
-      <c r="AK90" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL90" s="42">
-        <v>5</v>
-      </c>
-      <c r="AM90" s="42">
-        <v>200</v>
-      </c>
-      <c r="AN90" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO90" s="42">
-        <v>1</v>
-      </c>
-      <c r="AP90" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ90" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="AR90" s="49">
-        <v>168732127</v>
-      </c>
-      <c r="AS90" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT90" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="AU90" s="45">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV90" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="AW90" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX90" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY90" s="47" t="b">
-        <v>0</v>
-      </c>
+      <c r="B90" s="91" t="s">
+        <v>467</v>
+      </c>
+      <c r="C90" s="67"/>
+      <c r="D90" s="44"/>
+      <c r="O90" s="50"/>
+      <c r="P90" s="47"/>
+      <c r="Q90" s="50"/>
+      <c r="V90" s="50"/>
+      <c r="Y90" s="50"/>
+      <c r="Z90" s="50"/>
+      <c r="AA90" s="50"/>
+      <c r="AB90" s="50"/>
+      <c r="AC90" s="33"/>
+      <c r="AD90" s="50"/>
+      <c r="AE90" s="51"/>
+      <c r="AF90" s="24"/>
+      <c r="AH90" s="43"/>
+      <c r="AI90" s="43"/>
+      <c r="AN90" s="43"/>
+      <c r="AP90" s="43"/>
+      <c r="AQ90" s="46"/>
+      <c r="AR90" s="49"/>
+      <c r="AS90" s="43"/>
+      <c r="AT90" s="45"/>
+      <c r="AU90" s="45"/>
+      <c r="AV90" s="45"/>
+      <c r="AW90" s="47"/>
+      <c r="AX90" s="47"/>
+      <c r="AY90" s="47"/>
     </row>
     <row r="91" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B91" s="48" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C91" s="67" t="b">
         <v>0</v>
@@ -16338,10 +16344,10 @@
         <v>156</v>
       </c>
       <c r="AE91" s="51">
-        <v>0.06</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AF91" s="24">
-        <v>7.1739130434782611E-2</v>
+        <v>3.9130434782608692E-2</v>
       </c>
       <c r="AG91" s="42" t="s">
         <v>112</v>
@@ -16403,10 +16409,10 @@
     </row>
     <row r="92" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B92" s="48" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="C92" s="67" t="b">
         <v>0</v>
@@ -16493,10 +16499,10 @@
         <v>156</v>
       </c>
       <c r="AE92" s="51">
-        <v>8.2199999999999995E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AF92" s="24">
-        <v>0.12</v>
+        <v>7.1739130434782611E-2</v>
       </c>
       <c r="AG92" s="42" t="s">
         <v>112</v>
@@ -16558,10 +16564,10 @@
     </row>
     <row r="93" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B93" s="48" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C93" s="67" t="b">
         <v>0</v>
@@ -16648,10 +16654,10 @@
         <v>156</v>
       </c>
       <c r="AE93" s="51">
-        <v>0.09</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF93" s="24">
-        <v>0.13695652173913042</v>
+        <v>0.12</v>
       </c>
       <c r="AG93" s="42" t="s">
         <v>112</v>
@@ -16713,10 +16719,10 @@
     </row>
     <row r="94" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B94" s="48" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="C94" s="67" t="b">
         <v>0</v>
@@ -16803,10 +16809,10 @@
         <v>156</v>
       </c>
       <c r="AE94" s="51">
-        <v>0.105</v>
+        <v>0.09</v>
       </c>
       <c r="AF94" s="24">
-        <v>0.16956521739130434</v>
+        <v>0.13695652173913042</v>
       </c>
       <c r="AG94" s="42" t="s">
         <v>112</v>
@@ -16867,1009 +16873,937 @@
       </c>
     </row>
     <row r="95" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="48"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="O95" s="50"/>
-      <c r="P95" s="47"/>
-      <c r="Q95" s="50"/>
-      <c r="V95" s="50"/>
-      <c r="Y95" s="50"/>
-      <c r="Z95" s="50"/>
-      <c r="AA95" s="50"/>
-      <c r="AB95" s="50"/>
-      <c r="AC95" s="33"/>
-      <c r="AD95" s="50"/>
-      <c r="AE95" s="51"/>
-      <c r="AF95" s="24"/>
-      <c r="AH95" s="43"/>
-      <c r="AI95" s="43"/>
-      <c r="AN95" s="43"/>
-      <c r="AP95" s="43"/>
-      <c r="AQ95" s="46"/>
-      <c r="AR95" s="49"/>
-      <c r="AS95" s="43"/>
-      <c r="AT95" s="45"/>
-      <c r="AU95" s="45"/>
-      <c r="AV95" s="45"/>
-      <c r="AW95" s="47"/>
-      <c r="AX95" s="47"/>
-      <c r="AY95" s="47"/>
+      <c r="A95" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="B95" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="C95" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D95" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F95" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G95" s="42">
+        <v>1000</v>
+      </c>
+      <c r="H95" s="42">
+        <v>500</v>
+      </c>
+      <c r="I95" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J95" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K95" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="L95" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="M95" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="N95" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="O95" s="50">
+        <v>0</v>
+      </c>
+      <c r="P95" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="50">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R95" s="42">
+        <v>3</v>
+      </c>
+      <c r="S95" s="42">
+        <v>75</v>
+      </c>
+      <c r="T95" s="42">
+        <v>50</v>
+      </c>
+      <c r="U95" s="42">
+        <v>60</v>
+      </c>
+      <c r="V95" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="W95" s="42">
+        <v>0</v>
+      </c>
+      <c r="X95" s="42">
+        <v>10</v>
+      </c>
+      <c r="Y95" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="Z95" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="AA95" s="50">
+        <v>0.03</v>
+      </c>
+      <c r="AB95" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="AC95" s="33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD95" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE95" s="51">
+        <v>0.105</v>
+      </c>
+      <c r="AF95" s="24">
+        <v>0.16956521739130434</v>
+      </c>
+      <c r="AG95" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH95" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI95" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ95" s="42">
+        <v>30</v>
+      </c>
+      <c r="AK95" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL95" s="42">
+        <v>5</v>
+      </c>
+      <c r="AM95" s="42">
+        <v>200</v>
+      </c>
+      <c r="AN95" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO95" s="42">
+        <v>1</v>
+      </c>
+      <c r="AP95" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ95" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="AR95" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS95" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT95" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="AU95" s="45">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV95" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="AW95" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX95" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY95" s="47" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B96" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="C96" s="11"/>
-      <c r="D96" s="44"/>
-      <c r="O96" s="26"/>
-      <c r="P96" s="18"/>
-      <c r="Q96" s="26"/>
-      <c r="V96" s="26"/>
-      <c r="Y96" s="26"/>
-      <c r="Z96" s="26"/>
-      <c r="AA96" s="26"/>
-      <c r="AB96" s="26"/>
-      <c r="AC96" s="26"/>
-      <c r="AD96" s="26"/>
-      <c r="AE96" s="41"/>
-      <c r="AF96" s="26"/>
-      <c r="AH96" s="2"/>
-      <c r="AI96" s="2"/>
-      <c r="AN96" s="2"/>
-      <c r="AP96" s="2"/>
-      <c r="AQ96" s="17"/>
-      <c r="AS96" s="2"/>
-      <c r="AT96" s="12"/>
-      <c r="AU96" s="12"/>
-      <c r="AV96" s="12"/>
-      <c r="AW96" s="18"/>
-      <c r="AX96" s="18"/>
-      <c r="AY96" s="18"/>
+    <row r="96" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="71"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="67"/>
+      <c r="O96" s="73"/>
+      <c r="P96" s="70"/>
+      <c r="Q96" s="73"/>
+      <c r="V96" s="73"/>
+      <c r="Y96" s="73"/>
+      <c r="Z96" s="73"/>
+      <c r="AA96" s="73"/>
+      <c r="AB96" s="73"/>
+      <c r="AC96" s="74"/>
+      <c r="AD96" s="73"/>
+      <c r="AE96" s="76"/>
+      <c r="AF96" s="24"/>
+      <c r="AH96" s="66"/>
+      <c r="AI96" s="66"/>
+      <c r="AN96" s="66"/>
+      <c r="AP96" s="66"/>
+      <c r="AQ96" s="69"/>
+      <c r="AR96" s="72"/>
+      <c r="AS96" s="66"/>
+      <c r="AT96" s="68"/>
+      <c r="AU96" s="68"/>
+      <c r="AV96" s="68"/>
+      <c r="AW96" s="70"/>
+      <c r="AX96" s="70"/>
+      <c r="AY96" s="70"/>
     </row>
-    <row r="97" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A97" s="34" t="s">
-        <v>459</v>
-      </c>
-      <c r="B97" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="C97" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D97" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E97" t="s">
-        <v>207</v>
-      </c>
-      <c r="F97" t="s">
-        <v>184</v>
-      </c>
-      <c r="G97">
-        <v>1000</v>
-      </c>
-      <c r="H97">
-        <v>500</v>
-      </c>
-      <c r="I97" t="s">
-        <v>109</v>
-      </c>
-      <c r="J97" t="s">
-        <v>109</v>
-      </c>
-      <c r="K97" t="s">
-        <v>204</v>
-      </c>
-      <c r="L97" t="s">
-        <v>167</v>
-      </c>
-      <c r="M97" t="s">
-        <v>211</v>
-      </c>
-      <c r="N97" t="s">
-        <v>198</v>
-      </c>
-      <c r="O97" s="26">
-        <v>0</v>
-      </c>
-      <c r="P97" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R97">
-        <v>3</v>
-      </c>
-      <c r="S97">
-        <v>75</v>
-      </c>
-      <c r="T97">
-        <v>50</v>
-      </c>
-      <c r="U97">
-        <v>60</v>
-      </c>
-      <c r="V97" s="26">
-        <v>0</v>
-      </c>
-      <c r="W97">
-        <v>0</v>
-      </c>
-      <c r="X97">
-        <v>10</v>
-      </c>
-      <c r="Y97" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z97" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA97" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB97" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC97" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD97" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE97" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF97" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG97" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH97" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI97" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ97">
-        <v>30</v>
-      </c>
-      <c r="AK97" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL97">
-        <v>5</v>
-      </c>
-      <c r="AM97">
-        <v>200</v>
-      </c>
-      <c r="AN97" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO97">
-        <v>1</v>
-      </c>
-      <c r="AP97" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ97" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AR97">
-        <v>200</v>
-      </c>
-      <c r="AS97" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT97" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AU97" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV97" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AW97" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX97" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY97" s="18" t="b">
-        <v>0</v>
-      </c>
+    <row r="97" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="71"/>
+      <c r="C97" s="67"/>
+      <c r="D97" s="67"/>
+      <c r="O97" s="73"/>
+      <c r="P97" s="70"/>
+      <c r="Q97" s="73"/>
+      <c r="V97" s="73"/>
+      <c r="Y97" s="73"/>
+      <c r="Z97" s="73"/>
+      <c r="AA97" s="73"/>
+      <c r="AB97" s="73"/>
+      <c r="AC97" s="74"/>
+      <c r="AD97" s="73"/>
+      <c r="AE97" s="76"/>
+      <c r="AF97" s="24"/>
+      <c r="AH97" s="66"/>
+      <c r="AI97" s="66"/>
+      <c r="AN97" s="66"/>
+      <c r="AP97" s="66"/>
+      <c r="AQ97" s="69"/>
+      <c r="AR97" s="72"/>
+      <c r="AS97" s="66"/>
+      <c r="AT97" s="68"/>
+      <c r="AU97" s="68"/>
+      <c r="AV97" s="68"/>
+      <c r="AW97" s="70"/>
+      <c r="AX97" s="70"/>
+      <c r="AY97" s="70"/>
     </row>
     <row r="98" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="75" t="s">
-        <v>337</v>
-      </c>
-      <c r="B98" s="71" t="s">
-        <v>461</v>
-      </c>
-      <c r="C98" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D98" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E98" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="F98" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G98" s="65">
-        <v>1000</v>
-      </c>
-      <c r="H98" s="65">
-        <v>500</v>
-      </c>
-      <c r="I98" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J98" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K98" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L98" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="M98" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="N98" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="O98" s="73">
-        <v>0</v>
-      </c>
-      <c r="P98" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="73">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R98" s="65">
-        <v>3</v>
-      </c>
-      <c r="S98" s="65">
-        <v>75</v>
-      </c>
-      <c r="T98" s="65">
-        <v>50</v>
-      </c>
-      <c r="U98" s="65">
-        <v>60</v>
-      </c>
-      <c r="V98" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="W98" s="65">
-        <v>0</v>
-      </c>
-      <c r="X98" s="65">
-        <v>10</v>
-      </c>
-      <c r="Y98" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="Z98" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="AA98" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="AB98" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="AC98" s="73">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD98" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE98" s="76">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF98" s="73">
-        <v>0.12</v>
-      </c>
-      <c r="AG98" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH98" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI98" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ98" s="65">
-        <v>30</v>
-      </c>
-      <c r="AK98" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL98" s="65">
-        <v>5</v>
-      </c>
-      <c r="AM98" s="65">
-        <v>200</v>
-      </c>
-      <c r="AN98" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO98" s="65">
-        <v>1</v>
-      </c>
-      <c r="AP98" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ98" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="AR98" s="65">
-        <v>200</v>
-      </c>
-      <c r="AS98" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT98" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="AU98" s="68">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV98" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="AW98" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX98" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY98" s="70" t="b">
-        <v>0</v>
-      </c>
+      <c r="B98" s="71"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="67"/>
+      <c r="O98" s="73"/>
+      <c r="P98" s="70"/>
+      <c r="Q98" s="73"/>
+      <c r="V98" s="73"/>
+      <c r="Y98" s="73"/>
+      <c r="Z98" s="73"/>
+      <c r="AA98" s="73"/>
+      <c r="AB98" s="73"/>
+      <c r="AC98" s="74"/>
+      <c r="AD98" s="73"/>
+      <c r="AE98" s="76"/>
+      <c r="AF98" s="24"/>
+      <c r="AH98" s="66"/>
+      <c r="AI98" s="66"/>
+      <c r="AN98" s="66"/>
+      <c r="AP98" s="66"/>
+      <c r="AQ98" s="69"/>
+      <c r="AR98" s="72"/>
+      <c r="AS98" s="66"/>
+      <c r="AT98" s="68"/>
+      <c r="AU98" s="68"/>
+      <c r="AV98" s="68"/>
+      <c r="AW98" s="70"/>
+      <c r="AX98" s="70"/>
+      <c r="AY98" s="70"/>
     </row>
-    <row r="99" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="75" t="s">
-        <v>339</v>
-      </c>
-      <c r="B99" s="71" t="s">
-        <v>350</v>
-      </c>
-      <c r="C99" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D99" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E99" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="F99" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G99" s="65">
-        <v>1000</v>
-      </c>
-      <c r="H99" s="65">
-        <v>500</v>
-      </c>
-      <c r="I99" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J99" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K99" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L99" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="M99" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="N99" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="O99" s="73">
-        <v>0</v>
-      </c>
-      <c r="P99" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="73">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R99" s="65">
-        <v>3</v>
-      </c>
-      <c r="S99" s="65">
-        <v>75</v>
-      </c>
-      <c r="T99" s="65">
-        <v>50</v>
-      </c>
-      <c r="U99" s="65">
-        <v>60</v>
-      </c>
-      <c r="V99" s="73">
-        <v>0.02</v>
-      </c>
-      <c r="W99" s="65">
-        <v>0</v>
-      </c>
-      <c r="X99" s="65">
-        <v>10</v>
-      </c>
-      <c r="Y99" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="Z99" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="AA99" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="AB99" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="AC99" s="73">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD99" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE99" s="76">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF99" s="73">
-        <v>0.12</v>
-      </c>
-      <c r="AG99" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH99" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI99" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ99" s="65">
-        <v>30</v>
-      </c>
-      <c r="AK99" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL99" s="65">
-        <v>5</v>
-      </c>
-      <c r="AM99" s="65">
-        <v>200</v>
-      </c>
-      <c r="AN99" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO99" s="65">
-        <v>1</v>
-      </c>
-      <c r="AP99" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ99" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="AR99" s="65">
-        <v>200</v>
-      </c>
-      <c r="AS99" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT99" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="AU99" s="68">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV99" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="AW99" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX99" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY99" s="70" t="b">
-        <v>0</v>
-      </c>
+    <row r="99" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="48"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="O99" s="50"/>
+      <c r="P99" s="47"/>
+      <c r="Q99" s="50"/>
+      <c r="V99" s="50"/>
+      <c r="Y99" s="50"/>
+      <c r="Z99" s="50"/>
+      <c r="AA99" s="50"/>
+      <c r="AB99" s="50"/>
+      <c r="AC99" s="33"/>
+      <c r="AD99" s="50"/>
+      <c r="AE99" s="51"/>
+      <c r="AF99" s="24"/>
+      <c r="AH99" s="43"/>
+      <c r="AI99" s="43"/>
+      <c r="AN99" s="43"/>
+      <c r="AP99" s="43"/>
+      <c r="AQ99" s="46"/>
+      <c r="AR99" s="49"/>
+      <c r="AS99" s="43"/>
+      <c r="AT99" s="45"/>
+      <c r="AU99" s="45"/>
+      <c r="AV99" s="45"/>
+      <c r="AW99" s="47"/>
+      <c r="AX99" s="47"/>
+      <c r="AY99" s="47"/>
     </row>
     <row r="100" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A100" s="34" t="s">
+      <c r="B100" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C100" s="11"/>
+      <c r="D100" s="44"/>
+      <c r="O100" s="26"/>
+      <c r="P100" s="18"/>
+      <c r="Q100" s="26"/>
+      <c r="V100" s="26"/>
+      <c r="Y100" s="26"/>
+      <c r="Z100" s="26"/>
+      <c r="AA100" s="26"/>
+      <c r="AB100" s="26"/>
+      <c r="AC100" s="26"/>
+      <c r="AD100" s="26"/>
+      <c r="AE100" s="41"/>
+      <c r="AF100" s="26"/>
+      <c r="AH100" s="2"/>
+      <c r="AI100" s="2"/>
+      <c r="AN100" s="2"/>
+      <c r="AP100" s="2"/>
+      <c r="AQ100" s="17"/>
+      <c r="AS100" s="2"/>
+      <c r="AT100" s="12"/>
+      <c r="AU100" s="12"/>
+      <c r="AV100" s="12"/>
+      <c r="AW100" s="18"/>
+      <c r="AX100" s="18"/>
+      <c r="AY100" s="18"/>
+    </row>
+    <row r="101" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A101" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C101" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D101" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>207</v>
+      </c>
+      <c r="F101" t="s">
+        <v>184</v>
+      </c>
+      <c r="G101">
+        <v>1000</v>
+      </c>
+      <c r="H101">
+        <v>500</v>
+      </c>
+      <c r="I101" t="s">
+        <v>109</v>
+      </c>
+      <c r="J101" t="s">
+        <v>109</v>
+      </c>
+      <c r="K101" t="s">
+        <v>204</v>
+      </c>
+      <c r="L101" t="s">
+        <v>167</v>
+      </c>
+      <c r="M101" t="s">
+        <v>211</v>
+      </c>
+      <c r="N101" t="s">
+        <v>198</v>
+      </c>
+      <c r="O101" s="26">
+        <v>0</v>
+      </c>
+      <c r="P101" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R101">
+        <v>3</v>
+      </c>
+      <c r="S101">
+        <v>75</v>
+      </c>
+      <c r="T101">
+        <v>50</v>
+      </c>
+      <c r="U101">
+        <v>60</v>
+      </c>
+      <c r="V101" s="26">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>10</v>
+      </c>
+      <c r="Y101" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z101" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA101" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB101" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC101" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD101" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE101" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF101" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH101" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI101" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ101">
+        <v>30</v>
+      </c>
+      <c r="AK101" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL101">
+        <v>5</v>
+      </c>
+      <c r="AM101">
+        <v>200</v>
+      </c>
+      <c r="AN101" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO101">
+        <v>1</v>
+      </c>
+      <c r="AP101" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ101" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR101">
+        <v>200</v>
+      </c>
+      <c r="AS101" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT101" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU101" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV101" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW101" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX101" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY101" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="75" t="s">
+        <v>337</v>
+      </c>
+      <c r="B102" s="71" t="s">
+        <v>461</v>
+      </c>
+      <c r="C102" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D102" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F102" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G102" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H102" s="65">
+        <v>500</v>
+      </c>
+      <c r="I102" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J102" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K102" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L102" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M102" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N102" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O102" s="73">
+        <v>0</v>
+      </c>
+      <c r="P102" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R102" s="65">
+        <v>3</v>
+      </c>
+      <c r="S102" s="65">
+        <v>75</v>
+      </c>
+      <c r="T102" s="65">
+        <v>50</v>
+      </c>
+      <c r="U102" s="65">
+        <v>60</v>
+      </c>
+      <c r="V102" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="W102" s="65">
+        <v>0</v>
+      </c>
+      <c r="X102" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y102" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z102" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA102" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB102" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC102" s="73">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD102" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE102" s="76">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF102" s="73">
+        <v>0.12</v>
+      </c>
+      <c r="AG102" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH102" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI102" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ102" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK102" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL102" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM102" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN102" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO102" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP102" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ102" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR102" s="65">
+        <v>200</v>
+      </c>
+      <c r="AS102" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT102" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU102" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV102" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW102" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX102" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY102" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="75" t="s">
+        <v>339</v>
+      </c>
+      <c r="B103" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="C103" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F103" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G103" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H103" s="65">
+        <v>500</v>
+      </c>
+      <c r="I103" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J103" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K103" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L103" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M103" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N103" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O103" s="73">
+        <v>0</v>
+      </c>
+      <c r="P103" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R103" s="65">
+        <v>3</v>
+      </c>
+      <c r="S103" s="65">
+        <v>75</v>
+      </c>
+      <c r="T103" s="65">
+        <v>50</v>
+      </c>
+      <c r="U103" s="65">
+        <v>60</v>
+      </c>
+      <c r="V103" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W103" s="65">
+        <v>0</v>
+      </c>
+      <c r="X103" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y103" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z103" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA103" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB103" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC103" s="73">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD103" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE103" s="76">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF103" s="73">
+        <v>0.12</v>
+      </c>
+      <c r="AG103" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH103" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI103" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ103" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK103" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL103" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM103" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN103" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO103" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP103" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ103" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR103" s="65">
+        <v>200</v>
+      </c>
+      <c r="AS103" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT103" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU103" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV103" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW103" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX103" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY103" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A104" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="B104" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="C100" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D100" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="C104" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
         <v>207</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F104" t="s">
         <v>184</v>
       </c>
-      <c r="G100">
+      <c r="G104">
         <v>1000</v>
       </c>
-      <c r="H100">
+      <c r="H104">
         <v>500</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I104" t="s">
         <v>109</v>
       </c>
-      <c r="J100" t="s">
+      <c r="J104" t="s">
         <v>109</v>
       </c>
-      <c r="K100" t="s">
+      <c r="K104" t="s">
         <v>204</v>
       </c>
-      <c r="L100" t="s">
+      <c r="L104" t="s">
         <v>167</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M104" t="s">
         <v>211</v>
       </c>
-      <c r="N100" t="s">
+      <c r="N104" t="s">
         <v>198</v>
       </c>
-      <c r="O100" s="26">
-        <v>0</v>
-      </c>
-      <c r="P100" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="26">
+      <c r="O104" s="26">
+        <v>0</v>
+      </c>
+      <c r="P104" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R100">
+      <c r="R104">
         <v>3</v>
       </c>
-      <c r="S100">
+      <c r="S104">
         <v>75</v>
       </c>
-      <c r="T100">
+      <c r="T104">
         <v>50</v>
       </c>
-      <c r="U100">
+      <c r="U104">
         <v>60</v>
       </c>
-      <c r="V100" s="26">
+      <c r="V104" s="26">
         <v>0.03</v>
       </c>
-      <c r="W100">
-        <v>0</v>
-      </c>
-      <c r="X100">
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
         <v>10</v>
       </c>
-      <c r="Y100" s="26">
+      <c r="Y104" s="26">
         <v>0.04</v>
       </c>
-      <c r="Z100" s="26">
+      <c r="Z104" s="26">
         <v>0.04</v>
       </c>
-      <c r="AA100" s="26">
+      <c r="AA104" s="26">
         <v>0.03</v>
       </c>
-      <c r="AB100" s="26">
+      <c r="AB104" s="26">
         <v>0.01</v>
       </c>
-      <c r="AC100" s="26">
+      <c r="AC104" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD100" s="26" t="s">
+      <c r="AD104" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AE100" s="41">
+      <c r="AE104" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF100" s="26">
+      <c r="AF104" s="26">
         <v>0.12</v>
       </c>
-      <c r="AG100" t="s">
+      <c r="AG104" t="s">
         <v>112</v>
       </c>
-      <c r="AH100" s="2" t="s">
+      <c r="AH104" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI100" s="2" t="s">
+      <c r="AI104" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="AJ100">
+      <c r="AJ104">
         <v>30</v>
       </c>
-      <c r="AK100" t="s">
+      <c r="AK104" t="s">
         <v>115</v>
       </c>
-      <c r="AL100">
+      <c r="AL104">
         <v>5</v>
       </c>
-      <c r="AM100">
+      <c r="AM104">
         <v>200</v>
       </c>
-      <c r="AN100" s="2" t="s">
+      <c r="AN104" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO100">
+      <c r="AO104">
         <v>1</v>
       </c>
-      <c r="AP100" s="2" t="s">
+      <c r="AP104" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ100" s="17">
+      <c r="AQ104" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR100">
+      <c r="AR104">
         <v>200</v>
       </c>
-      <c r="AS100" s="2" t="s">
+      <c r="AS104" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT100" s="12">
+      <c r="AT104" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU100" s="12">
+      <c r="AU104" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV100" s="12">
+      <c r="AV104" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW100" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX100" s="18" t="b">
+      <c r="AW104" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX104" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY100" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="75" t="s">
-        <v>462</v>
-      </c>
-      <c r="B101" s="71" t="s">
-        <v>458</v>
-      </c>
-      <c r="C101" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D101" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E101" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="F101" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G101" s="65">
-        <v>1000</v>
-      </c>
-      <c r="H101" s="65">
-        <v>500</v>
-      </c>
-      <c r="I101" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J101" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K101" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L101" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="M101" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="N101" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="O101" s="73">
-        <v>0</v>
-      </c>
-      <c r="P101" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="73">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R101" s="65">
-        <v>3</v>
-      </c>
-      <c r="S101" s="65">
-        <v>75</v>
-      </c>
-      <c r="T101" s="65">
-        <v>50</v>
-      </c>
-      <c r="U101" s="65">
-        <v>60</v>
-      </c>
-      <c r="V101" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="W101" s="65">
-        <v>0</v>
-      </c>
-      <c r="X101" s="65">
-        <v>10</v>
-      </c>
-      <c r="Y101" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="Z101" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="AA101" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="AB101" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="AC101" s="73">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD101" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE101" s="76">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF101" s="73">
-        <v>0.12</v>
-      </c>
-      <c r="AG101" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH101" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI101" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ101" s="65">
-        <v>30</v>
-      </c>
-      <c r="AK101" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL101" s="65">
-        <v>5</v>
-      </c>
-      <c r="AM101" s="65">
-        <v>200</v>
-      </c>
-      <c r="AN101" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO101" s="65">
-        <v>1</v>
-      </c>
-      <c r="AP101" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ101" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="AR101" s="72">
-        <v>140108493</v>
-      </c>
-      <c r="AS101" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT101" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="AU101" s="68">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV101" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="AW101" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX101" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY101" s="70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B103" s="71" t="s">
-        <v>468</v>
-      </c>
-      <c r="AC103" s="52"/>
-    </row>
-    <row r="104" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="65" t="s">
-        <v>469</v>
-      </c>
-      <c r="B104" s="71" t="s">
-        <v>474</v>
-      </c>
-      <c r="C104" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D104" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E104" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="F104" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G104" s="65">
-        <v>1000</v>
-      </c>
-      <c r="H104" s="65">
-        <v>500</v>
-      </c>
-      <c r="I104" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J104" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K104" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L104" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="M104" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="N104" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="O104" s="73">
-        <v>0</v>
-      </c>
-      <c r="P104" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="73">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R104" s="65">
-        <v>3</v>
-      </c>
-      <c r="S104" s="65">
-        <v>75</v>
-      </c>
-      <c r="T104" s="65">
-        <v>50</v>
-      </c>
-      <c r="U104" s="65">
-        <v>60</v>
-      </c>
-      <c r="V104" s="73">
-        <v>0.02</v>
-      </c>
-      <c r="W104" s="65">
-        <v>0</v>
-      </c>
-      <c r="X104" s="65">
-        <v>10</v>
-      </c>
-      <c r="Y104" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="Z104" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="AA104" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="AB104" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="AC104" s="74">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD104" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE104" s="76">
-        <f>AC104+AF104^2/2</f>
-        <v>7.5799999999999992E-2</v>
-      </c>
-      <c r="AF104" s="24">
-        <v>0.04</v>
-      </c>
-      <c r="AG104" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH104" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI104" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ104" s="65">
-        <v>30</v>
-      </c>
-      <c r="AK104" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL104" s="65">
-        <v>5</v>
-      </c>
-      <c r="AM104" s="65">
-        <v>200</v>
-      </c>
-      <c r="AN104" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO104" s="65">
-        <v>1</v>
-      </c>
-      <c r="AP104" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ104" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="AR104" s="72">
-        <v>168732127</v>
-      </c>
-      <c r="AS104" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT104" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="AU104" s="68">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV104" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="AW104" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX104" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY104" s="70" t="b">
+      <c r="AY104" s="18" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="65" t="s">
-        <v>470</v>
+      <c r="A105" s="75" t="s">
+        <v>462</v>
       </c>
       <c r="B105" s="71" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="C105" s="67" t="b">
         <v>0</v>
@@ -17929,7 +17863,7 @@
         <v>60</v>
       </c>
       <c r="V105" s="73">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="W105" s="65">
         <v>0</v>
@@ -17949,18 +17883,17 @@
       <c r="AB105" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC105" s="74">
+      <c r="AC105" s="73">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD105" s="73" t="s">
         <v>156</v>
       </c>
       <c r="AE105" s="76">
-        <f t="shared" ref="AE105:AE108" si="0">AC105+AF105^2/2</f>
-        <v>7.8199999999999992E-2</v>
-      </c>
-      <c r="AF105" s="24">
-        <v>0.08</v>
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF105" s="73">
+        <v>0.12</v>
       </c>
       <c r="AG105" s="65" t="s">
         <v>112</v>
@@ -17996,7 +17929,7 @@
         <v>0.75</v>
       </c>
       <c r="AR105" s="72">
-        <v>168732127</v>
+        <v>140108493</v>
       </c>
       <c r="AS105" s="66" t="s">
         <v>113</v>
@@ -18020,324 +17953,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="65" t="s">
-        <v>471</v>
-      </c>
-      <c r="B106" s="71" t="s">
-        <v>331</v>
-      </c>
-      <c r="C106" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D106" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="F106" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G106" s="65">
-        <v>1000</v>
-      </c>
-      <c r="H106" s="65">
-        <v>500</v>
-      </c>
-      <c r="I106" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J106" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K106" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L106" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="M106" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="N106" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="O106" s="73">
-        <v>0</v>
-      </c>
-      <c r="P106" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="73">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R106" s="65">
-        <v>3</v>
-      </c>
-      <c r="S106" s="65">
-        <v>75</v>
-      </c>
-      <c r="T106" s="65">
-        <v>50</v>
-      </c>
-      <c r="U106" s="65">
-        <v>60</v>
-      </c>
-      <c r="V106" s="73">
-        <v>0.02</v>
-      </c>
-      <c r="W106" s="65">
-        <v>0</v>
-      </c>
-      <c r="X106" s="65">
-        <v>10</v>
-      </c>
-      <c r="Y106" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="Z106" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="AA106" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="AB106" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="AC106" s="74">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD106" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE106" s="76">
-        <f t="shared" si="0"/>
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF106" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="AG106" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH106" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI106" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ106" s="65">
-        <v>30</v>
-      </c>
-      <c r="AK106" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL106" s="65">
-        <v>5</v>
-      </c>
-      <c r="AM106" s="65">
-        <v>200</v>
-      </c>
-      <c r="AN106" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO106" s="65">
-        <v>1</v>
-      </c>
-      <c r="AP106" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ106" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="AR106" s="72">
-        <v>168732127</v>
-      </c>
-      <c r="AS106" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT106" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="AU106" s="68">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV106" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="AW106" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX106" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY106" s="70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="65" t="s">
-        <v>472</v>
-      </c>
+    <row r="107" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B107" s="71" t="s">
-        <v>476</v>
-      </c>
-      <c r="C107" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D107" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E107" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="F107" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G107" s="65">
-        <v>1000</v>
-      </c>
-      <c r="H107" s="65">
-        <v>500</v>
-      </c>
-      <c r="I107" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J107" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K107" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L107" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="M107" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="N107" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="O107" s="73">
-        <v>0</v>
-      </c>
-      <c r="P107" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="73">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R107" s="65">
-        <v>3</v>
-      </c>
-      <c r="S107" s="65">
-        <v>75</v>
-      </c>
-      <c r="T107" s="65">
-        <v>50</v>
-      </c>
-      <c r="U107" s="65">
-        <v>60</v>
-      </c>
-      <c r="V107" s="73">
-        <v>0.02</v>
-      </c>
-      <c r="W107" s="65">
-        <v>0</v>
-      </c>
-      <c r="X107" s="65">
-        <v>10</v>
-      </c>
-      <c r="Y107" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="Z107" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="AA107" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="AB107" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="AC107" s="74">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD107" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE107" s="76">
-        <f t="shared" si="0"/>
-        <v>8.7800000000000003E-2</v>
-      </c>
-      <c r="AF107" s="24">
-        <v>0.16</v>
-      </c>
-      <c r="AG107" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH107" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI107" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ107" s="65">
-        <v>30</v>
-      </c>
-      <c r="AK107" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL107" s="65">
-        <v>5</v>
-      </c>
-      <c r="AM107" s="65">
-        <v>200</v>
-      </c>
-      <c r="AN107" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO107" s="65">
-        <v>1</v>
-      </c>
-      <c r="AP107" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ107" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="AR107" s="72">
-        <v>168732127</v>
-      </c>
-      <c r="AS107" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT107" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="AU107" s="68">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV107" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="AW107" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX107" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY107" s="70" t="b">
-        <v>0</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="AC107" s="52"/>
     </row>
     <row r="108" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="65" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B108" s="71" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C108" s="67" t="b">
         <v>0</v>
@@ -18424,161 +18051,785 @@
         <v>156</v>
       </c>
       <c r="AE108" s="76">
+        <f>AC108+AF108^2/2</f>
+        <v>7.5799999999999992E-2</v>
+      </c>
+      <c r="AF108" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="AG108" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH108" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI108" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ108" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK108" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL108" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM108" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN108" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO108" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP108" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ108" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR108" s="72">
+        <v>168732127</v>
+      </c>
+      <c r="AS108" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT108" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU108" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV108" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW108" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX108" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY108" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="B109" s="71" t="s">
+        <v>475</v>
+      </c>
+      <c r="C109" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D109" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F109" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G109" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H109" s="65">
+        <v>500</v>
+      </c>
+      <c r="I109" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J109" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K109" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L109" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M109" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N109" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O109" s="73">
+        <v>0</v>
+      </c>
+      <c r="P109" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R109" s="65">
+        <v>3</v>
+      </c>
+      <c r="S109" s="65">
+        <v>75</v>
+      </c>
+      <c r="T109" s="65">
+        <v>50</v>
+      </c>
+      <c r="U109" s="65">
+        <v>60</v>
+      </c>
+      <c r="V109" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W109" s="65">
+        <v>0</v>
+      </c>
+      <c r="X109" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y109" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z109" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA109" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB109" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC109" s="74">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD109" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE109" s="76">
+        <f t="shared" ref="AE109:AE112" si="0">AC109+AF109^2/2</f>
+        <v>7.8199999999999992E-2</v>
+      </c>
+      <c r="AF109" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="AG109" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH109" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI109" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ109" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK109" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL109" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM109" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN109" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO109" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP109" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ109" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR109" s="72">
+        <v>168732127</v>
+      </c>
+      <c r="AS109" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT109" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU109" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV109" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW109" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX109" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY109" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="B110" s="71" t="s">
+        <v>331</v>
+      </c>
+      <c r="C110" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F110" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G110" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H110" s="65">
+        <v>500</v>
+      </c>
+      <c r="I110" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J110" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K110" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L110" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M110" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N110" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O110" s="73">
+        <v>0</v>
+      </c>
+      <c r="P110" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R110" s="65">
+        <v>3</v>
+      </c>
+      <c r="S110" s="65">
+        <v>75</v>
+      </c>
+      <c r="T110" s="65">
+        <v>50</v>
+      </c>
+      <c r="U110" s="65">
+        <v>60</v>
+      </c>
+      <c r="V110" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W110" s="65">
+        <v>0</v>
+      </c>
+      <c r="X110" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y110" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z110" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA110" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB110" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC110" s="74">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD110" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE110" s="76">
+        <f t="shared" si="0"/>
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF110" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="AG110" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH110" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI110" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ110" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK110" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL110" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM110" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN110" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO110" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP110" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ110" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR110" s="72">
+        <v>168732127</v>
+      </c>
+      <c r="AS110" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT110" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU110" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV110" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW110" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX110" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY110" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="65" t="s">
+        <v>472</v>
+      </c>
+      <c r="B111" s="71" t="s">
+        <v>476</v>
+      </c>
+      <c r="C111" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D111" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F111" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G111" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H111" s="65">
+        <v>500</v>
+      </c>
+      <c r="I111" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J111" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K111" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L111" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M111" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N111" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O111" s="73">
+        <v>0</v>
+      </c>
+      <c r="P111" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R111" s="65">
+        <v>3</v>
+      </c>
+      <c r="S111" s="65">
+        <v>75</v>
+      </c>
+      <c r="T111" s="65">
+        <v>50</v>
+      </c>
+      <c r="U111" s="65">
+        <v>60</v>
+      </c>
+      <c r="V111" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W111" s="65">
+        <v>0</v>
+      </c>
+      <c r="X111" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y111" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z111" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA111" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB111" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC111" s="74">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD111" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE111" s="76">
+        <f t="shared" si="0"/>
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="AF111" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="AG111" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH111" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI111" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ111" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK111" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL111" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM111" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN111" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO111" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP111" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ111" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR111" s="72">
+        <v>168732127</v>
+      </c>
+      <c r="AS111" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT111" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU111" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV111" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW111" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX111" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY111" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="65" t="s">
+        <v>473</v>
+      </c>
+      <c r="B112" s="71" t="s">
+        <v>477</v>
+      </c>
+      <c r="C112" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D112" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F112" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G112" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H112" s="65">
+        <v>500</v>
+      </c>
+      <c r="I112" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J112" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K112" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L112" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M112" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N112" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O112" s="73">
+        <v>0</v>
+      </c>
+      <c r="P112" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R112" s="65">
+        <v>3</v>
+      </c>
+      <c r="S112" s="65">
+        <v>75</v>
+      </c>
+      <c r="T112" s="65">
+        <v>50</v>
+      </c>
+      <c r="U112" s="65">
+        <v>60</v>
+      </c>
+      <c r="V112" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W112" s="65">
+        <v>0</v>
+      </c>
+      <c r="X112" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y112" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z112" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA112" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB112" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC112" s="74">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD112" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE112" s="76">
         <f t="shared" si="0"/>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="AF108" s="24">
+      <c r="AF112" s="24">
         <v>0.2</v>
       </c>
-      <c r="AG108" s="65" t="s">
+      <c r="AG112" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH108" s="66" t="s">
+      <c r="AH112" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI108" s="66" t="s">
+      <c r="AI112" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ108" s="65">
+      <c r="AJ112" s="65">
         <v>30</v>
       </c>
-      <c r="AK108" s="65" t="s">
+      <c r="AK112" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL108" s="65">
+      <c r="AL112" s="65">
         <v>5</v>
       </c>
-      <c r="AM108" s="65">
+      <c r="AM112" s="65">
         <v>200</v>
       </c>
-      <c r="AN108" s="66" t="s">
+      <c r="AN112" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO108" s="65">
+      <c r="AO112" s="65">
         <v>1</v>
       </c>
-      <c r="AP108" s="66" t="s">
+      <c r="AP112" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ108" s="69">
+      <c r="AQ112" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR108" s="72">
+      <c r="AR112" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS108" s="66" t="s">
+      <c r="AS112" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT108" s="68">
+      <c r="AT112" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU108" s="68">
+      <c r="AU112" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV108" s="68">
+      <c r="AV112" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW108" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX108" s="70" t="b">
+      <c r="AW112" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX112" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY108" s="70" t="b">
+      <c r="AY112" s="70" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations xWindow="1269" yWindow="762" count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN104:AN108 AN13:AN101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN108:AN112 AN13:AN105">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI104:AI108 AI13:AI101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI108:AI112 AI13:AI105">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH104:AH108 AH13:AH101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH108:AH112 AH13:AH105">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS104:AS108 AS13:AS101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS108:AS112 AS13:AS105">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 C6:D10 C13:D101 P104:P108 P13:P101 C104:D108">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 C6:D10 P108:P112 C108:D112 P13:P105 C13:D105">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 V104:V108 AB104:AB108 AB13:AB101 V13:V101">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 V108:V112 AB108:AB112 V13:V105 AB13:AB105">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W104:X108 W13:X101">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W108:X112 W13:X105">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AC60 AC96:AC101 AE104:AE108 Y104:AA108 AE13:AE101 AC13:AC49 Y13:AA101">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AC61 AC100:AC105 AE108:AE112 Y108:AA112 Y13:AA105 AC13:AC50 AE13:AE105">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ104:AJ108 AJ13:AJ101">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ108:AJ112 AJ13:AJ105">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT104:AU108 AT13:AU101">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT108:AU112 AT13:AU105">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV104:AV108 AV13:AV101">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV108:AV112 AV13:AV105">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF96:AF101 AF13:AF82">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF100:AF105 AF13:AF83">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL104:AL108 AL13:AL101">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL108:AL112 AL13:AL105">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM104:AM108 AM13:AM101">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM108:AM112 AM13:AM105">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO104:AO108 AO13:AO101">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO108:AO112 AO13:AO105">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD104:AD108 AD13:AD101"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW104:AY108 AW13:AY101">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD108:AD112 AD13:AD105"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW108:AY112 AW13:AY105">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP104:AP108 AP13:AP101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP108:AP112 AP13:AP105">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ104:AQ108 AQ13:AQ101">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ108:AQ112 AQ13:AQ105">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S104:S108 S13:S101">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S108:S112 S13:S105">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I104:J108 I13:J101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I108:J112 I13:J105">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -18591,37 +18842,37 @@
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L9 L104:L108 L13:L101</xm:sqref>
+          <xm:sqref>L6:L9 L108:L112 L13:L105</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M9 M104:M108 M13:M101</xm:sqref>
+          <xm:sqref>M6:M9 M108:M112 M13:M105</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>F6:F9 F104:F108 F13:F101</xm:sqref>
+          <xm:sqref>F6:F9 F108:F112 F13:F105</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E9 E104:E108 E13:E101</xm:sqref>
+          <xm:sqref>E6:E9 E108:E112 E13:E105</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K9 K104:K108 K13:K101</xm:sqref>
+          <xm:sqref>K6:K9 K108:K112 K13:K105</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>N6:N9 N104:N108 N13:N101</xm:sqref>
+          <xm:sqref>N6:N9 N108:N112 N13:N105</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18639,7 +18890,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -18757,7 +19008,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1025" width="8.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -18827,10 +19078,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125"/>
+    <col min="1" max="1" width="23.375"/>
     <col min="2" max="2" width="5"/>
-    <col min="3" max="3" width="85.42578125"/>
-    <col min="4" max="1025" width="8.5703125"/>
+    <col min="3" max="3" width="85.375"/>
+    <col min="4" max="1025" width="8.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -19239,11 +19490,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="110" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
     <col min="6" max="6" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19889,11 +20140,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.85546875" customWidth="1"/>
-    <col min="4" max="4" width="72.28515625" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="54.875" customWidth="1"/>
+    <col min="4" max="4" width="72.25" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.25">

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -5224,10 +5224,10 @@
   <dimension ref="A1:AY112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AC18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9633,7 +9633,7 @@
         <v>112</v>
       </c>
       <c r="AH38" s="66" t="s">
-        <v>359</v>
+        <v>158</v>
       </c>
       <c r="AI38" s="66" t="s">
         <v>342</v>

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -2055,7 +2055,10 @@
     <xf numFmtId="2" fontId="16" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2064,16 +2067,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5224,10 +5224,10 @@
   <dimension ref="A1:AY112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AC18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AD21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38:XFD38"/>
+      <selection pane="bottomRight" activeCell="AI45" sqref="AI45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5423,62 +5423,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="53"/>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="120"/>
+      <c r="F4" s="116"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="121" t="s">
+      <c r="I4" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="116" t="s">
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="116"/>
+      <c r="M4" s="117"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="117" t="s">
+      <c r="O4" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="116" t="s">
+      <c r="P4" s="118"/>
+      <c r="Q4" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="117" t="s">
+      <c r="AA4" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="115" t="s">
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="115"/>
-      <c r="AF4" s="115"/>
+      <c r="AE4" s="120"/>
+      <c r="AF4" s="120"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="118" t="s">
+      <c r="AH4" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="118"/>
+      <c r="AI4" s="115"/>
+      <c r="AJ4" s="115"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -5486,17 +5486,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="115" t="s">
+      <c r="AP4" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="115"/>
-      <c r="AR4" s="115"/>
-      <c r="AS4" s="119" t="s">
+      <c r="AQ4" s="120"/>
+      <c r="AR4" s="120"/>
+      <c r="AS4" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="119"/>
-      <c r="AU4" s="119"/>
-      <c r="AV4" s="119"/>
+      <c r="AT4" s="121"/>
+      <c r="AU4" s="121"/>
+      <c r="AV4" s="121"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -9639,7 +9639,7 @@
         <v>342</v>
       </c>
       <c r="AJ38" s="65">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AK38" s="65" t="s">
         <v>115</v>
@@ -18741,17 +18741,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations xWindow="1269" yWindow="762" count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN108:AN112 AN13:AN105">

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="502">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1157,9 +1157,6 @@
     <t>75% initial Funding; DC 7.5; ir 8.22,    SD 12%</t>
   </si>
   <si>
-    <t>75% initial Funding; DC 7.5; ir 8.22, SD 12%</t>
-  </si>
-  <si>
     <t>75% initial Funding; DC 7.5; ir 9,        SD 13.7%</t>
   </si>
   <si>
@@ -1371,9 +1368,6 @@
   </si>
   <si>
     <t>75% initial Funding; DC 4.5; ir 4.52,    SD 1.77%</t>
-  </si>
-  <si>
-    <t>75% initial Funding; DC 3.5; ir 3.52,    SD 1.77%</t>
   </si>
   <si>
     <t>75% initial Funding; DC 3; ir 3.02,    SD 1.77%</t>
@@ -1586,6 +1580,15 @@
   </si>
   <si>
     <t>75% initial Funding; DC 7.5; ir 6.7   , SD 12%, lower expected return (lower sharpe ratio)</t>
+  </si>
+  <si>
+    <t>75% initial Funding; DC 7.5; ir 7.52,    SD 1.77% (The good old days)</t>
+  </si>
+  <si>
+    <t>75% initial Funding; DC 7.5; ir 8.22, SD 12%  (Invest in riskier assets)</t>
+  </si>
+  <si>
+    <t>75% initial Funding; DC 3.5; ir 3.52,    SD 1.77%  (Lower discount rate)</t>
   </si>
 </sst>
 </file>
@@ -2055,10 +2058,7 @@
     <xf numFmtId="2" fontId="16" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2067,13 +2067,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3601,15 +3604,15 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B1" s="31"/>
       <c r="H1" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I1" s="31"/>
       <c r="N1" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O1" s="42"/>
       <c r="Q1" s="42"/>
@@ -3617,22 +3620,22 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B2" s="56">
         <v>0.46</v>
       </c>
       <c r="C2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J2" s="56">
         <v>0.46</v>
       </c>
       <c r="N2" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O2" s="56">
         <v>0.46</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B3" s="57">
         <v>2.7E-2</v>
@@ -3668,46 +3671,46 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="I5" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="J5" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="L5" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="D5" t="s">
+      <c r="N5" t="s">
         <v>374</v>
       </c>
-      <c r="H5" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>401</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="K5" s="42" t="s">
+      <c r="O5" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="P5" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q5" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="R5" s="42" t="s">
         <v>373</v>
-      </c>
-      <c r="L5" s="42" t="s">
-        <v>374</v>
-      </c>
-      <c r="N5" t="s">
-        <v>375</v>
-      </c>
-      <c r="O5" s="42" t="s">
-        <v>400</v>
-      </c>
-      <c r="P5" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q5" s="42" t="s">
-        <v>373</v>
-      </c>
-      <c r="R5" s="42" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -4209,7 +4212,7 @@
       <c r="N26" s="64"/>
       <c r="O26" s="84"/>
       <c r="P26" s="84" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Q26" s="64"/>
       <c r="R26" s="83"/>
@@ -4258,19 +4261,19 @@
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G30" s="65"/>
       <c r="H30" s="65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I30" s="65" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J30" s="65" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K30" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="L30" s="65" t="s">
         <v>373</v>
-      </c>
-      <c r="L30" s="65" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -4296,7 +4299,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="M31" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -4322,7 +4325,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="M32" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="7:20" s="65" customFormat="1" x14ac:dyDescent="0.25">
@@ -4355,7 +4358,7 @@
         <v>6.0690199800000004E-2</v>
       </c>
       <c r="M34" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="7:20" x14ac:dyDescent="0.25">
@@ -4380,13 +4383,13 @@
         <v>3.32E-2</v>
       </c>
       <c r="M35" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="R35" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="T35" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="7:20" x14ac:dyDescent="0.25">
@@ -4411,7 +4414,7 @@
         <v>8.0830720000000009E-2</v>
       </c>
       <c r="M36" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="R36">
         <v>6.9800000000000001E-2</v>
@@ -4464,7 +4467,7 @@
         <v>6.0690199800000004E-2</v>
       </c>
       <c r="M38" s="65" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="R38">
         <v>8.1000000000000003E-2</v>
@@ -4499,7 +4502,7 @@
         <v>3.32E-2</v>
       </c>
       <c r="M39" s="65" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="40" spans="7:20" x14ac:dyDescent="0.25">
@@ -4524,7 +4527,7 @@
         <v>8.0830720000000009E-2</v>
       </c>
       <c r="M40" s="65" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -4604,25 +4607,25 @@
       <c r="B5" s="93"/>
       <c r="C5" s="93"/>
       <c r="D5" s="97" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E5" s="98" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F5" s="99" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G5" s="100" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H5" s="99" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I5" s="99" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J5" s="99" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K5" s="93"/>
       <c r="L5" s="93"/>
@@ -4634,7 +4637,7 @@
       <c r="B6" s="93"/>
       <c r="C6" s="93"/>
       <c r="D6" s="101" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E6" s="111">
         <v>0.45999999999999924</v>
@@ -4664,7 +4667,7 @@
       <c r="B7" s="93"/>
       <c r="C7" s="93"/>
       <c r="D7" s="103" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E7" s="112">
         <v>0.46</v>
@@ -4694,7 +4697,7 @@
       <c r="B8" s="93"/>
       <c r="C8" s="93"/>
       <c r="D8" s="101" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E8" s="111">
         <v>0.46</v>
@@ -4743,7 +4746,7 @@
       <c r="B10" s="93"/>
       <c r="C10" s="93"/>
       <c r="D10" s="101" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E10" s="113">
         <v>0.36506976744186048</v>
@@ -4773,7 +4776,7 @@
       <c r="B11" s="93"/>
       <c r="C11" s="93"/>
       <c r="D11" s="101" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E11" s="113">
         <v>0.31708401244628842</v>
@@ -4803,7 +4806,7 @@
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
       <c r="D12" s="101" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E12" s="113">
         <v>0.13333333333333339</v>
@@ -4833,7 +4836,7 @@
       <c r="B13" s="93"/>
       <c r="C13" s="93"/>
       <c r="D13" s="105" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E13" s="114">
         <v>0.29347826086956524</v>
@@ -4863,7 +4866,7 @@
       <c r="B14" s="93"/>
       <c r="C14" s="93"/>
       <c r="D14" s="122" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E14" s="123"/>
       <c r="F14" s="123"/>
@@ -5031,7 +5034,7 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E25" s="92">
         <v>0.4232093023255814</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E26" s="92">
         <v>0.39116906208327162</v>
@@ -5077,7 +5080,7 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E27" s="92">
         <v>0.30000000000000004</v>
@@ -5100,7 +5103,7 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E28" s="92">
         <v>0.34782608695652173</v>
@@ -5227,7 +5230,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="AD21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AI45" sqref="AI45"/>
+      <selection pane="bottomRight" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5423,62 +5426,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="53"/>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="116"/>
+      <c r="F4" s="120"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="119" t="s">
+      <c r="I4" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="117" t="s">
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="117"/>
+      <c r="M4" s="116"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="118" t="s">
+      <c r="O4" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="117" t="s">
+      <c r="P4" s="117"/>
+      <c r="Q4" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="118" t="s">
+      <c r="AA4" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="120" t="s">
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="120"/>
-      <c r="AF4" s="120"/>
+      <c r="AE4" s="115"/>
+      <c r="AF4" s="115"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="115" t="s">
+      <c r="AH4" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="115"/>
-      <c r="AJ4" s="115"/>
+      <c r="AI4" s="118"/>
+      <c r="AJ4" s="118"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -5486,17 +5489,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="120" t="s">
+      <c r="AP4" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="120"/>
-      <c r="AR4" s="120"/>
-      <c r="AS4" s="121" t="s">
+      <c r="AQ4" s="115"/>
+      <c r="AR4" s="115"/>
+      <c r="AS4" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="121"/>
-      <c r="AU4" s="121"/>
-      <c r="AV4" s="121"/>
+      <c r="AT4" s="119"/>
+      <c r="AU4" s="119"/>
+      <c r="AV4" s="119"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -8048,10 +8051,10 @@
     </row>
     <row r="26" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="75" t="s">
+        <v>484</v>
+      </c>
+      <c r="B26" s="71" t="s">
         <v>486</v>
-      </c>
-      <c r="B26" s="71" t="s">
-        <v>488</v>
       </c>
       <c r="C26" s="67" t="b">
         <v>0</v>
@@ -8203,10 +8206,10 @@
     </row>
     <row r="27" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="75" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B27" s="71" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C27" s="67" t="b">
         <v>0</v>
@@ -8418,7 +8421,7 @@
     </row>
     <row r="30" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
@@ -8452,7 +8455,7 @@
         <v>315</v>
       </c>
       <c r="B31" s="71" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C31" s="67" t="b">
         <v>0</v>
@@ -8607,7 +8610,7 @@
         <v>317</v>
       </c>
       <c r="B32" s="71" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C32" s="67" t="b">
         <v>0</v>
@@ -8762,7 +8765,7 @@
         <v>319</v>
       </c>
       <c r="B33" s="71" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C33" s="67" t="b">
         <v>0</v>
@@ -8917,7 +8920,7 @@
         <v>321</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C34" s="67" t="b">
         <v>0</v>
@@ -9072,7 +9075,7 @@
         <v>323</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C35" s="67" t="b">
         <v>0</v>
@@ -9224,10 +9227,10 @@
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="75" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>362</v>
+        <v>500</v>
       </c>
       <c r="C36" s="67" t="b">
         <v>0</v>
@@ -9379,10 +9382,10 @@
     </row>
     <row r="37" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="75" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B37" s="71" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C37" s="67" t="b">
         <v>0</v>
@@ -9534,10 +9537,10 @@
     </row>
     <row r="38" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="75" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B38" s="71" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C38" s="67" t="b">
         <v>1</v>
@@ -9689,10 +9692,10 @@
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" s="75" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C39" s="67" t="b">
         <v>0</v>
@@ -9844,10 +9847,10 @@
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" s="75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C40" s="67" t="b">
         <v>0</v>
@@ -10031,7 +10034,7 @@
         <v>326</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C42" s="67" t="b">
         <v>0</v>
@@ -10186,7 +10189,7 @@
         <v>328</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C43" s="67" t="b">
         <v>0</v>
@@ -10341,7 +10344,7 @@
         <v>330</v>
       </c>
       <c r="B44" s="71" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C44" s="67" t="b">
         <v>0</v>
@@ -10496,7 +10499,7 @@
         <v>332</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C45" s="67" t="b">
         <v>0</v>
@@ -10651,7 +10654,7 @@
         <v>334</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C46" s="67" t="b">
         <v>0</v>
@@ -10803,7 +10806,7 @@
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" s="65" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>361</v>
@@ -10958,10 +10961,10 @@
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" s="65" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C48" s="67" t="b">
         <v>0</v>
@@ -11113,10 +11116,10 @@
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" s="65" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C49" s="67" t="b">
         <v>0</v>
@@ -11300,7 +11303,7 @@
         <v>351</v>
       </c>
       <c r="B51" s="71" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C51" s="67" t="b">
         <v>0</v>
@@ -11455,7 +11458,7 @@
         <v>352</v>
       </c>
       <c r="B52" s="71" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C52" s="67" t="b">
         <v>0</v>
@@ -11610,7 +11613,7 @@
         <v>353</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C53" s="67" t="b">
         <v>0</v>
@@ -11765,7 +11768,7 @@
         <v>354</v>
       </c>
       <c r="B54" s="48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C54" s="67" t="b">
         <v>0</v>
@@ -11920,7 +11923,7 @@
         <v>355</v>
       </c>
       <c r="B55" s="48" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C55" s="67" t="b">
         <v>0</v>
@@ -12072,7 +12075,7 @@
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56" s="65" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B56" s="48" t="s">
         <v>361</v>
@@ -12227,10 +12230,10 @@
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" s="65" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C57" s="67" t="b">
         <v>0</v>
@@ -12382,10 +12385,10 @@
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58" s="65" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B58" s="48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C58" s="67" t="b">
         <v>0</v>
@@ -12597,7 +12600,7 @@
     </row>
     <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B61" s="91" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="44"/>
@@ -12628,10 +12631,10 @@
     </row>
     <row r="62" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="65" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B62" s="71" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C62" s="67" t="b">
         <v>0</v>
@@ -12783,10 +12786,10 @@
     </row>
     <row r="63" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="65" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B63" s="71" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C63" s="67" t="b">
         <v>0</v>
@@ -12938,10 +12941,10 @@
     </row>
     <row r="64" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="65" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B64" s="71" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C64" s="67" t="b">
         <v>0</v>
@@ -13093,10 +13096,10 @@
     </row>
     <row r="65" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="65" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B65" s="71" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C65" s="67" t="b">
         <v>0</v>
@@ -13248,10 +13251,10 @@
     </row>
     <row r="66" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="65" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B66" s="71" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C66" s="67" t="b">
         <v>0</v>
@@ -13403,10 +13406,10 @@
     </row>
     <row r="67" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="65" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
       <c r="C67" s="67" t="b">
         <v>0</v>
@@ -13558,10 +13561,10 @@
     </row>
     <row r="68" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="65" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B68" s="71" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C68" s="67" t="b">
         <v>0</v>
@@ -13713,10 +13716,10 @@
     </row>
     <row r="69" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="65" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B69" s="71" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C69" s="67" t="b">
         <v>0</v>
@@ -13898,10 +13901,10 @@
     </row>
     <row r="71" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="65" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B71" s="71" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C71" s="67" t="b">
         <v>0</v>
@@ -14083,7 +14086,7 @@
     </row>
     <row r="73" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="91" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C73" s="67"/>
       <c r="D73" s="67"/>
@@ -14115,10 +14118,10 @@
     </row>
     <row r="74" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="65" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B74" s="71" t="s">
-        <v>430</v>
+        <v>499</v>
       </c>
       <c r="C74" s="67" t="b">
         <v>0</v>
@@ -14270,10 +14273,10 @@
     </row>
     <row r="75" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="65" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B75" s="71" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C75" s="67" t="b">
         <v>0</v>
@@ -14425,10 +14428,10 @@
     </row>
     <row r="76" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="65" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B76" s="71" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C76" s="67" t="b">
         <v>0</v>
@@ -14580,10 +14583,10 @@
     </row>
     <row r="77" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="65" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B77" s="71" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C77" s="67" t="b">
         <v>0</v>
@@ -14735,10 +14738,10 @@
     </row>
     <row r="78" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B78" s="71" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C78" s="67" t="b">
         <v>0</v>
@@ -14890,10 +14893,10 @@
     </row>
     <row r="79" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="65" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B79" s="71" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C79" s="67" t="b">
         <v>0</v>
@@ -15045,10 +15048,10 @@
     </row>
     <row r="80" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="65" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B80" s="71" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C80" s="67" t="b">
         <v>0</v>
@@ -15200,10 +15203,10 @@
     </row>
     <row r="81" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="65" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B81" s="71" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C81" s="67" t="b">
         <v>0</v>
@@ -15385,7 +15388,7 @@
     </row>
     <row r="83" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="91" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C83" s="67"/>
       <c r="D83" s="67"/>
@@ -15417,10 +15420,10 @@
     </row>
     <row r="84" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="42" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B84" s="48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C84" s="44" t="b">
         <v>0</v>
@@ -15572,10 +15575,10 @@
     </row>
     <row r="85" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B85" s="48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C85" s="67" t="b">
         <v>0</v>
@@ -15727,7 +15730,7 @@
     </row>
     <row r="86" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B86" s="48" t="s">
         <v>361</v>
@@ -15882,10 +15885,10 @@
     </row>
     <row r="87" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B87" s="48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C87" s="67" t="b">
         <v>0</v>
@@ -16037,10 +16040,10 @@
     </row>
     <row r="88" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B88" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C88" s="67" t="b">
         <v>0</v>
@@ -16222,7 +16225,7 @@
     </row>
     <row r="90" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="91" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C90" s="67"/>
       <c r="D90" s="44"/>
@@ -16254,10 +16257,10 @@
     </row>
     <row r="91" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B91" s="48" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C91" s="67" t="b">
         <v>0</v>
@@ -16409,10 +16412,10 @@
     </row>
     <row r="92" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B92" s="48" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C92" s="67" t="b">
         <v>0</v>
@@ -16564,7 +16567,7 @@
     </row>
     <row r="93" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B93" s="48" t="s">
         <v>361</v>
@@ -16719,10 +16722,10 @@
     </row>
     <row r="94" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B94" s="48" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C94" s="67" t="b">
         <v>0</v>
@@ -16874,10 +16877,10 @@
     </row>
     <row r="95" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B95" s="48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C95" s="67" t="b">
         <v>0</v>
@@ -17180,7 +17183,7 @@
     </row>
     <row r="101" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A101" s="34" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B101" s="19" t="s">
         <v>349</v>
@@ -17338,7 +17341,7 @@
         <v>337</v>
       </c>
       <c r="B102" s="71" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C102" s="67" t="b">
         <v>0</v>
@@ -17645,10 +17648,10 @@
     </row>
     <row r="104" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A104" s="34" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C104" s="67" t="b">
         <v>0</v>
@@ -17800,10 +17803,10 @@
     </row>
     <row r="105" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="75" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B105" s="71" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C105" s="67" t="b">
         <v>0</v>
@@ -17955,16 +17958,16 @@
     </row>
     <row r="107" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B107" s="71" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AC107" s="52"/>
     </row>
     <row r="108" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="65" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B108" s="71" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C108" s="67" t="b">
         <v>0</v>
@@ -18117,10 +18120,10 @@
     </row>
     <row r="109" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="65" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B109" s="71" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C109" s="67" t="b">
         <v>0</v>
@@ -18273,7 +18276,7 @@
     </row>
     <row r="110" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="65" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B110" s="71" t="s">
         <v>331</v>
@@ -18429,10 +18432,10 @@
     </row>
     <row r="111" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="65" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B111" s="71" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C111" s="67" t="b">
         <v>0</v>
@@ -18585,10 +18588,10 @@
     </row>
     <row r="112" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="65" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B112" s="71" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C112" s="67" t="b">
         <v>0</v>
@@ -18741,17 +18744,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations xWindow="1269" yWindow="762" count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN108:AN112 AN13:AN105">

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_Main\IO_M2.1_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="503">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1589,6 +1589,9 @@
   </si>
   <si>
     <t>75% initial Funding; DC 3.5; ir 3.52,    SD 1.77%  (Lower discount rate)</t>
+  </si>
+  <si>
+    <t>D1F075-average_steady</t>
   </si>
 </sst>
 </file>
@@ -2187,7 +2190,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3529,9 +3538,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.625"/>
-    <col min="2" max="2" width="16.75"/>
-    <col min="3" max="1025" width="8.625"/>
+    <col min="1" max="1" width="7.5703125"/>
+    <col min="2" max="2" width="16.7109375"/>
+    <col min="3" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3589,17 +3598,17 @@
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="14" style="42" customWidth="1"/>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="42" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="18.875" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="14.875" customWidth="1"/>
-    <col min="16" max="16" width="14.25" style="42" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="42" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -4547,12 +4556,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="7" width="9.375" style="77" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="77" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="77" customWidth="1"/>
-    <col min="10" max="10" width="10.25" style="77" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="7" width="9.42578125" style="77" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="77" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="77" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="77" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
@@ -5143,7 +5152,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.625"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -5224,10 +5233,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY109"/>
+  <dimension ref="A1:AY111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="N99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="A111" sqref="A111"/>
@@ -5235,34 +5244,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="2" max="2" width="84.625" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="42" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="84.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="42" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
     <col min="9" max="10" width="16" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="20.875" customWidth="1"/>
-    <col min="12" max="12" width="24.375"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125"/>
     <col min="13" max="14" width="22" customWidth="1"/>
-    <col min="15" max="16" width="13.125" customWidth="1"/>
-    <col min="17" max="21" width="9.25" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="21" width="9.28515625" customWidth="1"/>
     <col min="22" max="22" width="16"/>
-    <col min="23" max="24" width="12.75"/>
-    <col min="25" max="26" width="10.875" customWidth="1"/>
-    <col min="27" max="29" width="12.75"/>
-    <col min="30" max="30" width="11.125" customWidth="1"/>
-    <col min="31" max="31" width="12.75" style="24"/>
-    <col min="32" max="35" width="12.75"/>
-    <col min="36" max="36" width="12.75" customWidth="1"/>
-    <col min="37" max="37" width="11.875" customWidth="1"/>
-    <col min="42" max="43" width="11.75" customWidth="1"/>
-    <col min="44" max="44" width="13.125" customWidth="1"/>
-    <col min="45" max="48" width="12.75"/>
+    <col min="23" max="24" width="12.7109375"/>
+    <col min="25" max="26" width="10.85546875" customWidth="1"/>
+    <col min="27" max="29" width="12.7109375"/>
+    <col min="30" max="30" width="11.140625" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" style="24"/>
+    <col min="32" max="35" width="12.7109375"/>
+    <col min="36" max="36" width="12.7109375" customWidth="1"/>
+    <col min="37" max="37" width="11.85546875" customWidth="1"/>
+    <col min="42" max="43" width="11.7109375" customWidth="1"/>
+    <col min="44" max="44" width="13.140625" customWidth="1"/>
+    <col min="45" max="48" width="12.7109375"/>
     <col min="51" max="51" width="9" customWidth="1"/>
-    <col min="52" max="1038" width="8.625"/>
+    <col min="52" max="1038" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -6313,161 +6322,6 @@
       <c r="AW13" s="18"/>
       <c r="AX13" s="18"/>
       <c r="AY13" s="18"/>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>289</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="C14" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>207</v>
-      </c>
-      <c r="F14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14">
-        <v>1000</v>
-      </c>
-      <c r="H14">
-        <v>500</v>
-      </c>
-      <c r="I14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" t="s">
-        <v>204</v>
-      </c>
-      <c r="L14" t="s">
-        <v>167</v>
-      </c>
-      <c r="M14" t="s">
-        <v>211</v>
-      </c>
-      <c r="N14" t="s">
-        <v>198</v>
-      </c>
-      <c r="O14" s="26">
-        <v>0</v>
-      </c>
-      <c r="P14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="26">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R14">
-        <v>3</v>
-      </c>
-      <c r="S14">
-        <v>75</v>
-      </c>
-      <c r="T14">
-        <v>50</v>
-      </c>
-      <c r="U14">
-        <v>60</v>
-      </c>
-      <c r="V14" s="26">
-        <v>0.02</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>10</v>
-      </c>
-      <c r="Y14" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="Z14" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="AA14" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="AB14" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="AC14" s="26">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD14" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE14" s="41">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF14" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH14" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI14" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ14">
-        <v>30</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL14">
-        <v>5</v>
-      </c>
-      <c r="AM14">
-        <v>200</v>
-      </c>
-      <c r="AN14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO14">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ14" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="AR14">
-        <v>200</v>
-      </c>
-      <c r="AS14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT14" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="AU14" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV14" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AW14" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY14" s="18" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -9543,7 +9397,7 @@
         <v>498</v>
       </c>
       <c r="C38" s="67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="67" t="b">
         <v>0</v>
@@ -18652,6 +18506,161 @@
         <v>0</v>
       </c>
     </row>
+    <row r="111" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>502</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C111" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D111" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>207</v>
+      </c>
+      <c r="F111" t="s">
+        <v>184</v>
+      </c>
+      <c r="G111">
+        <v>1000</v>
+      </c>
+      <c r="H111">
+        <v>500</v>
+      </c>
+      <c r="I111" t="s">
+        <v>109</v>
+      </c>
+      <c r="J111" t="s">
+        <v>109</v>
+      </c>
+      <c r="K111" t="s">
+        <v>204</v>
+      </c>
+      <c r="L111" t="s">
+        <v>167</v>
+      </c>
+      <c r="M111" t="s">
+        <v>211</v>
+      </c>
+      <c r="N111" t="s">
+        <v>198</v>
+      </c>
+      <c r="O111" s="26">
+        <v>0</v>
+      </c>
+      <c r="P111" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R111">
+        <v>3</v>
+      </c>
+      <c r="S111">
+        <v>75</v>
+      </c>
+      <c r="T111">
+        <v>50</v>
+      </c>
+      <c r="U111">
+        <v>60</v>
+      </c>
+      <c r="V111" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>10</v>
+      </c>
+      <c r="Y111" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z111" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA111" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB111" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC111" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD111" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE111" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF111" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG111" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH111" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI111" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ111">
+        <v>30</v>
+      </c>
+      <c r="AK111" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL111">
+        <v>5</v>
+      </c>
+      <c r="AM111">
+        <v>200</v>
+      </c>
+      <c r="AN111" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO111">
+        <v>1</v>
+      </c>
+      <c r="AP111" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ111" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR111">
+        <v>200</v>
+      </c>
+      <c r="AS111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT111" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU111" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV111" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW111" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX111" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY111" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AP4:AR4"/>
@@ -18667,82 +18676,82 @@
     <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations xWindow="1269" yWindow="762" count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN105:AN109 AN13:AN102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN105:AN109 AN13 AN111 AN15:AN102">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI105:AI109 AI13:AI102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI105:AI109 AI13 AI111 AI15:AI102">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH105:AH109 AH13:AH102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH105:AH109 AH13 AH111 AH15:AH102">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS105:AS109 AS13:AS102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS105:AS109 AS13 AS111 AS15:AS102">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 C6:D10 P105:P109 C105:D109 P13:P102 C13:D102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 C6:D10 P105:P109 C105:D109 C111:D111 C13:D13 C15:D102 P13 P111 P15:P102">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 V105:V109 AB105:AB109 V13:V102 AB13:AB102">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 V105:V109 AB105:AB109 AB13 AB111 AB15:AB102 V13 V111 V15:V102">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W105:X109 W13:X102">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W105:X109 W111:X111 W13:X13 W15:X102">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AC61 AC97:AC102 AE105:AE109 Y105:AA109 AC13:AC50 Y13:AA102 AE13:AE102">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AC61 AC97:AC102 AE105:AE109 Y105:AA109 AE13 AE111 AE15:AE102 Y111:AA111 Y13:AA13 Y15:AA102 AC13 AC111 AC15:AC50">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ105:AJ109 AJ13:AJ102">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ105:AJ109 AJ13 AJ111 AJ15:AJ102">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT105:AU109 AT13:AU102">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT105:AU109 AT111:AU111 AT13:AU13 AT15:AU102">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV105:AV109 AV13:AV102">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV105:AV109 AV13 AV111 AV15:AV102">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF97:AF102 AF13:AF83">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF97:AF102 AF13 AF111 AF15:AF83">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL105:AL109 AL13:AL102">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL105:AL109 AL13 AL111 AL15:AL102">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM105:AM109 AM13:AM102">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM105:AM109 AM13 AM111 AM15:AM102">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO105:AO109 AO13:AO102">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO105:AO109 AO13 AO111 AO15:AO102">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD105:AD109 AD13:AD102"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW105:AY109 AW13:AY102">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD105:AD109 AD111 AD13 AD15:AD102"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW105:AY109 AW111:AY111 AW13:AY13 AW15:AY102">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP105:AP109 AP13:AP102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP105:AP109 AP13 AP111 AP15:AP102">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ105:AQ109 AQ13:AQ102">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ105:AQ109 AQ13 AQ111 AQ15:AQ102">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S105:S109 S13:S102">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S105:S109 S13 S111 S15:S102">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I105:J109 I13:J102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I105:J109 I111:J111 I13:J13 I15:J102">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -18755,37 +18764,37 @@
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L9 L105:L109 L13:L102</xm:sqref>
+          <xm:sqref>L6:L9 L105:L109 L13 L111 L15:L102</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M9 M105:M109 M13:M102</xm:sqref>
+          <xm:sqref>M6:M9 M105:M109 M13 M111 M15:M102</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>F6:F9 F105:F109 F13:F102</xm:sqref>
+          <xm:sqref>F6:F9 F105:F109 F13 F111 F15:F102</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E9 E105:E109 E13:E102</xm:sqref>
+          <xm:sqref>E6:E9 E105:E109 E13 E111 E15:E102</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K9 K105:K109 K13:K102</xm:sqref>
+          <xm:sqref>K6:K9 K105:K109 K13 K111 K15:K102</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>N6:N9 N105:N109 N13:N102</xm:sqref>
+          <xm:sqref>N6:N9 N105:N109 N13 N111 N15:N102</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18803,7 +18812,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -18915,13 +18924,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.625"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -18991,10 +19000,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.375"/>
+    <col min="1" max="1" width="23.42578125"/>
     <col min="2" max="2" width="5"/>
-    <col min="3" max="3" width="85.375"/>
-    <col min="4" max="1025" width="8.625"/>
+    <col min="3" max="3" width="85.42578125"/>
+    <col min="4" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -19403,11 +19412,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="110" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20053,11 +20062,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.125" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="54.875" customWidth="1"/>
-    <col min="4" max="4" width="72.25" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" customWidth="1"/>
+    <col min="4" max="4" width="72.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.25">

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="508">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1592,6 +1592,21 @@
   </si>
   <si>
     <t>D1F075-average_steady</t>
+  </si>
+  <si>
+    <t>D1F075-average_yy1</t>
+  </si>
+  <si>
+    <t>D1F075-average_yy1.ret</t>
+  </si>
+  <si>
+    <t>D1F075-average_steady.singleRet</t>
+  </si>
+  <si>
+    <t>I1F075-6c</t>
+  </si>
+  <si>
+    <t>75% initial Funding; DC 7.5; ir 8.98, SD 17.2%  High SD (Callan) compound return = 7.5%</t>
   </si>
 </sst>
 </file>
@@ -5233,13 +5248,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY111"/>
+  <dimension ref="A1:AY117"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="N99" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A111" sqref="A111"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6323,6 +6338,161 @@
       <c r="AX13" s="18"/>
       <c r="AY13" s="18"/>
     </row>
+    <row r="14" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="65">
+        <v>500</v>
+      </c>
+      <c r="I14" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L14" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N14" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O14" s="73">
+        <v>0</v>
+      </c>
+      <c r="P14" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R14" s="65">
+        <v>3</v>
+      </c>
+      <c r="S14" s="65">
+        <v>75</v>
+      </c>
+      <c r="T14" s="65">
+        <v>50</v>
+      </c>
+      <c r="U14" s="65">
+        <v>60</v>
+      </c>
+      <c r="V14" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W14" s="65">
+        <v>0</v>
+      </c>
+      <c r="X14" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z14" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA14" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB14" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC14" s="73">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD14" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE14" s="76">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF14" s="73">
+        <v>0.12</v>
+      </c>
+      <c r="AG14" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH14" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI14" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ14" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK14" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL14" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM14" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN14" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO14" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ14" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR14" s="65">
+        <v>200</v>
+      </c>
+      <c r="AS14" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT14" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU14" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV14" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW14" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>292</v>
@@ -9854,196 +10024,196 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B41" s="19"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="26"/>
-      <c r="V41" s="26"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="26"/>
-      <c r="AE41" s="41"/>
-      <c r="AF41" s="26"/>
-      <c r="AH41" s="2"/>
-      <c r="AI41" s="2"/>
-      <c r="AN41" s="2"/>
-      <c r="AP41" s="2"/>
-      <c r="AQ41" s="17"/>
-      <c r="AS41" s="2"/>
-      <c r="AT41" s="12"/>
-      <c r="AU41" s="12"/>
-      <c r="AV41" s="12"/>
-      <c r="AW41" s="18"/>
-      <c r="AX41" s="18"/>
-      <c r="AY41" s="18"/>
+    <row r="41" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="75" t="s">
+        <v>506</v>
+      </c>
+      <c r="B41" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="C41" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F41" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G41" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="65">
+        <v>500</v>
+      </c>
+      <c r="I41" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J41" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K41" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L41" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M41" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N41" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O41" s="73">
+        <v>0</v>
+      </c>
+      <c r="P41" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R41" s="65">
+        <v>3</v>
+      </c>
+      <c r="S41" s="65">
+        <v>75</v>
+      </c>
+      <c r="T41" s="65">
+        <v>50</v>
+      </c>
+      <c r="U41" s="65">
+        <v>60</v>
+      </c>
+      <c r="V41" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W41" s="65">
+        <v>0</v>
+      </c>
+      <c r="X41" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y41" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z41" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA41" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB41" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC41" s="73">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD41" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE41" s="76">
+        <v>8.9791999999999997E-2</v>
+      </c>
+      <c r="AF41" s="73">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="AG41" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH41" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI41" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ41" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK41" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL41" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM41" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN41" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO41" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ41" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR41" s="72">
+        <v>168732127</v>
+      </c>
+      <c r="AS41" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT41" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU41" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV41" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW41" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY41" s="70" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="B42" s="71" t="s">
-        <v>415</v>
-      </c>
-      <c r="C42" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="F42" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G42" s="65">
-        <v>1000</v>
-      </c>
-      <c r="H42" s="65">
-        <v>500</v>
-      </c>
-      <c r="I42" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J42" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K42" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L42" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="M42" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="N42" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="O42" s="73">
-        <v>0</v>
-      </c>
-      <c r="P42" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="73">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R42" s="65">
-        <v>3</v>
-      </c>
-      <c r="S42" s="65">
-        <v>75</v>
-      </c>
-      <c r="T42" s="65">
-        <v>50</v>
-      </c>
-      <c r="U42" s="65">
-        <v>60</v>
-      </c>
-      <c r="V42" s="73">
-        <v>0.02</v>
-      </c>
-      <c r="W42" s="65">
-        <v>0</v>
-      </c>
-      <c r="X42" s="65">
-        <v>10</v>
-      </c>
-      <c r="Y42" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="Z42" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="AA42" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="AB42" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="AC42" s="79">
-        <v>0.115</v>
-      </c>
-      <c r="AD42" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE42" s="76">
-        <v>0.1222</v>
-      </c>
-      <c r="AF42" s="73">
-        <v>0.12</v>
-      </c>
-      <c r="AG42" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH42" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI42" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ42" s="65">
-        <v>30</v>
-      </c>
-      <c r="AK42" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL42" s="65">
-        <v>5</v>
-      </c>
-      <c r="AM42" s="65">
-        <v>200</v>
-      </c>
-      <c r="AN42" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO42" s="65">
-        <v>1</v>
-      </c>
-      <c r="AP42" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ42" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="AR42" s="72">
-        <v>168732127</v>
-      </c>
-      <c r="AS42" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT42" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="AU42" s="68">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV42" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="AW42" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX42" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY42" s="70" t="b">
-        <v>0</v>
-      </c>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B42" s="19"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="26"/>
+      <c r="AE42" s="41"/>
+      <c r="AF42" s="26"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AN42" s="2"/>
+      <c r="AP42" s="2"/>
+      <c r="AQ42" s="17"/>
+      <c r="AS42" s="2"/>
+      <c r="AT42" s="12"/>
+      <c r="AU42" s="12"/>
+      <c r="AV42" s="12"/>
+      <c r="AW42" s="18"/>
+      <c r="AX42" s="18"/>
+      <c r="AY42" s="18"/>
     </row>
     <row r="43" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="65" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C43" s="67" t="b">
         <v>0</v>
@@ -10124,13 +10294,13 @@
         <v>0.01</v>
       </c>
       <c r="AC43" s="79">
-        <v>0.105</v>
+        <v>0.115</v>
       </c>
       <c r="AD43" s="73" t="s">
         <v>156</v>
       </c>
       <c r="AE43" s="76">
-        <v>0.11219999999999999</v>
+        <v>0.1222</v>
       </c>
       <c r="AF43" s="73">
         <v>0.12</v>
@@ -10195,10 +10365,10 @@
     </row>
     <row r="44" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="65" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B44" s="71" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C44" s="67" t="b">
         <v>0</v>
@@ -10279,13 +10449,13 @@
         <v>0.01</v>
       </c>
       <c r="AC44" s="79">
-        <v>9.5000000000000001E-2</v>
+        <v>0.105</v>
       </c>
       <c r="AD44" s="73" t="s">
         <v>156</v>
       </c>
       <c r="AE44" s="76">
-        <v>0.1022</v>
+        <v>0.11219999999999999</v>
       </c>
       <c r="AF44" s="73">
         <v>0.12</v>
@@ -10348,167 +10518,167 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="65" t="s">
-        <v>332</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>388</v>
+        <v>330</v>
+      </c>
+      <c r="B45" s="71" t="s">
+        <v>417</v>
       </c>
       <c r="C45" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="D45" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D45" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="65">
         <v>1000</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="65">
         <v>500</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O45" s="26">
-        <v>0</v>
-      </c>
-      <c r="P45" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="26">
+      <c r="O45" s="73">
+        <v>0</v>
+      </c>
+      <c r="P45" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="65">
         <v>3</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="65">
         <v>75</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="65">
         <v>50</v>
       </c>
-      <c r="U45">
+      <c r="U45" s="65">
         <v>60</v>
       </c>
-      <c r="V45" s="26">
+      <c r="V45" s="73">
         <v>0.02</v>
       </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
+      <c r="W45" s="65">
+        <v>0</v>
+      </c>
+      <c r="X45" s="65">
         <v>10</v>
       </c>
-      <c r="Y45" s="26">
+      <c r="Y45" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z45" s="26">
+      <c r="Z45" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA45" s="26">
+      <c r="AA45" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB45" s="26">
+      <c r="AB45" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC45" s="26">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="AD45" s="26" t="s">
+      <c r="AC45" s="79">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AD45" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE45" s="41">
-        <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="AF45" s="26">
+      <c r="AE45" s="76">
+        <v>0.1022</v>
+      </c>
+      <c r="AF45" s="73">
         <v>0.12</v>
       </c>
-      <c r="AG45" t="s">
+      <c r="AG45" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH45" s="2" t="s">
+      <c r="AH45" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI45" s="2" t="s">
+      <c r="AI45" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ45">
+      <c r="AJ45" s="65">
         <v>30</v>
       </c>
-      <c r="AK45" t="s">
+      <c r="AK45" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL45">
+      <c r="AL45" s="65">
         <v>5</v>
       </c>
-      <c r="AM45">
+      <c r="AM45" s="65">
         <v>200</v>
       </c>
-      <c r="AN45" s="2" t="s">
+      <c r="AN45" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO45">
+      <c r="AO45" s="65">
         <v>1</v>
       </c>
-      <c r="AP45" s="2" t="s">
+      <c r="AP45" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ45" s="17">
+      <c r="AQ45" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR45" s="49">
+      <c r="AR45" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS45" s="2" t="s">
+      <c r="AS45" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT45" s="12">
+      <c r="AT45" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU45" s="12">
+      <c r="AU45" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV45" s="12">
+      <c r="AV45" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW45" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX45" s="18" t="b">
+      <c r="AW45" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX45" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY45" s="18" t="b">
+      <c r="AY45" s="70" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A46" s="65" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C46" s="67" t="b">
         <v>0</v>
@@ -10589,15 +10759,15 @@
         <v>0.01</v>
       </c>
       <c r="AC46" s="26">
-        <v>0.08</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="AD46" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE46" s="41">
-        <v>8.72E-2</v>
-      </c>
-      <c r="AF46" s="50">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="AF46" s="26">
         <v>0.12</v>
       </c>
       <c r="AG46" t="s">
@@ -10627,7 +10797,7 @@
       <c r="AO46">
         <v>1</v>
       </c>
-      <c r="AP46" s="43" t="s">
+      <c r="AP46" s="2" t="s">
         <v>114</v>
       </c>
       <c r="AQ46" s="17">
@@ -10660,10 +10830,10 @@
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" s="65" t="s">
-        <v>404</v>
+        <v>334</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="C47" s="67" t="b">
         <v>0</v>
@@ -10744,13 +10914,13 @@
         <v>0.01</v>
       </c>
       <c r="AC47" s="26">
-        <v>7.4999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AD47" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE47" s="41">
-        <v>8.2199999999999995E-2</v>
+        <v>8.72E-2</v>
       </c>
       <c r="AF47" s="50">
         <v>0.12</v>
@@ -10815,10 +10985,10 @@
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" s="65" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="C48" s="67" t="b">
         <v>0</v>
@@ -10899,13 +11069,13 @@
         <v>0.01</v>
       </c>
       <c r="AC48" s="26">
-        <v>6.9999999999999993E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD48" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE48" s="41">
-        <v>7.7199999999999991E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF48" s="50">
         <v>0.12</v>
@@ -10970,10 +11140,10 @@
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" s="65" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="C49" s="67" t="b">
         <v>0</v>
@@ -11054,13 +11224,13 @@
         <v>0.01</v>
       </c>
       <c r="AC49" s="26">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="AD49" s="26" t="s">
         <v>156</v>
       </c>
       <c r="AE49" s="41">
-        <v>7.22E-2</v>
+        <v>7.7199999999999991E-2</v>
       </c>
       <c r="AF49" s="50">
         <v>0.12</v>
@@ -11124,195 +11294,195 @@
       </c>
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B50" s="19"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="26"/>
-      <c r="V50" s="26"/>
-      <c r="Y50" s="26"/>
-      <c r="Z50" s="26"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="26"/>
-      <c r="AC50" s="26"/>
-      <c r="AD50" s="26"/>
-      <c r="AE50" s="41"/>
-      <c r="AF50" s="26"/>
-      <c r="AH50" s="2"/>
-      <c r="AI50" s="2"/>
-      <c r="AN50" s="2"/>
-      <c r="AP50" s="2"/>
-      <c r="AQ50" s="17"/>
-      <c r="AS50" s="2"/>
-      <c r="AT50" s="12"/>
-      <c r="AU50" s="12"/>
-      <c r="AV50" s="12"/>
-      <c r="AW50" s="18"/>
-      <c r="AX50" s="18"/>
-      <c r="AY50" s="18"/>
+      <c r="A50" s="65" t="s">
+        <v>406</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="C50" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>207</v>
+      </c>
+      <c r="F50" t="s">
+        <v>184</v>
+      </c>
+      <c r="G50">
+        <v>1000</v>
+      </c>
+      <c r="H50">
+        <v>500</v>
+      </c>
+      <c r="I50" t="s">
+        <v>109</v>
+      </c>
+      <c r="J50" t="s">
+        <v>109</v>
+      </c>
+      <c r="K50" t="s">
+        <v>204</v>
+      </c>
+      <c r="L50" t="s">
+        <v>167</v>
+      </c>
+      <c r="M50" t="s">
+        <v>211</v>
+      </c>
+      <c r="N50" t="s">
+        <v>198</v>
+      </c>
+      <c r="O50" s="26">
+        <v>0</v>
+      </c>
+      <c r="P50" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R50">
+        <v>3</v>
+      </c>
+      <c r="S50">
+        <v>75</v>
+      </c>
+      <c r="T50">
+        <v>50</v>
+      </c>
+      <c r="U50">
+        <v>60</v>
+      </c>
+      <c r="V50" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>10</v>
+      </c>
+      <c r="Y50" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z50" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA50" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB50" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC50" s="26">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AD50" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE50" s="41">
+        <v>7.22E-2</v>
+      </c>
+      <c r="AF50" s="50">
+        <v>0.12</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI50" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ50">
+        <v>30</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL50">
+        <v>5</v>
+      </c>
+      <c r="AM50">
+        <v>200</v>
+      </c>
+      <c r="AN50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO50">
+        <v>1</v>
+      </c>
+      <c r="AP50" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ50" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR50" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT50" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU50" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV50" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW50" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX50" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY50" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="65" t="s">
-        <v>351</v>
-      </c>
-      <c r="B51" s="71" t="s">
-        <v>418</v>
-      </c>
-      <c r="C51" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D51" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="F51" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G51" s="65">
-        <v>1000</v>
-      </c>
-      <c r="H51" s="65">
-        <v>500</v>
-      </c>
-      <c r="I51" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J51" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K51" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L51" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="M51" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="N51" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="O51" s="73">
-        <v>0</v>
-      </c>
-      <c r="P51" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="73">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R51" s="65">
-        <v>3</v>
-      </c>
-      <c r="S51" s="65">
-        <v>75</v>
-      </c>
-      <c r="T51" s="65">
-        <v>50</v>
-      </c>
-      <c r="U51" s="65">
-        <v>60</v>
-      </c>
-      <c r="V51" s="73">
-        <v>0.02</v>
-      </c>
-      <c r="W51" s="65">
-        <v>0</v>
-      </c>
-      <c r="X51" s="65">
-        <v>10</v>
-      </c>
-      <c r="Y51" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="Z51" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="AA51" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="AB51" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="AC51" s="74">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD51" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE51" s="76">
-        <v>0.1222</v>
-      </c>
-      <c r="AF51" s="73">
-        <v>0.12</v>
-      </c>
-      <c r="AG51" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH51" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI51" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ51" s="65">
-        <v>30</v>
-      </c>
-      <c r="AK51" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL51" s="65">
-        <v>5</v>
-      </c>
-      <c r="AM51" s="65">
-        <v>200</v>
-      </c>
-      <c r="AN51" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO51" s="65">
-        <v>1</v>
-      </c>
-      <c r="AP51" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ51" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="AR51" s="72">
-        <v>168732127</v>
-      </c>
-      <c r="AS51" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT51" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="AU51" s="68">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV51" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="AW51" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX51" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY51" s="70" t="b">
-        <v>0</v>
-      </c>
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B51" s="19"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="26"/>
+      <c r="V51" s="26"/>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="26"/>
+      <c r="AA51" s="26"/>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="26"/>
+      <c r="AD51" s="26"/>
+      <c r="AE51" s="41"/>
+      <c r="AF51" s="26"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AN51" s="2"/>
+      <c r="AP51" s="2"/>
+      <c r="AQ51" s="17"/>
+      <c r="AS51" s="2"/>
+      <c r="AT51" s="12"/>
+      <c r="AU51" s="12"/>
+      <c r="AV51" s="12"/>
+      <c r="AW51" s="18"/>
+      <c r="AX51" s="18"/>
+      <c r="AY51" s="18"/>
     </row>
     <row r="52" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B52" s="71" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C52" s="67" t="b">
         <v>0</v>
@@ -11399,7 +11569,7 @@
         <v>156</v>
       </c>
       <c r="AE52" s="76">
-        <v>0.11219999999999999</v>
+        <v>0.1222</v>
       </c>
       <c r="AF52" s="73">
         <v>0.12</v>
@@ -11464,10 +11634,10 @@
     </row>
     <row r="53" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="65" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C53" s="67" t="b">
         <v>0</v>
@@ -11554,7 +11724,7 @@
         <v>156</v>
       </c>
       <c r="AE53" s="76">
-        <v>0.1022</v>
+        <v>0.11219999999999999</v>
       </c>
       <c r="AF53" s="73">
         <v>0.12</v>
@@ -11617,167 +11787,167 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="65" t="s">
-        <v>354</v>
-      </c>
-      <c r="B54" s="48" t="s">
-        <v>392</v>
+        <v>353</v>
+      </c>
+      <c r="B54" s="71" t="s">
+        <v>420</v>
       </c>
       <c r="C54" s="67" t="b">
         <v>0</v>
       </c>
-      <c r="D54" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D54" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="65">
         <v>1000</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="65">
         <v>500</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N54" t="s">
+      <c r="N54" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O54" s="26">
-        <v>0</v>
-      </c>
-      <c r="P54" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="26">
+      <c r="O54" s="73">
+        <v>0</v>
+      </c>
+      <c r="P54" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="65">
         <v>3</v>
       </c>
-      <c r="S54">
+      <c r="S54" s="65">
         <v>75</v>
       </c>
-      <c r="T54">
+      <c r="T54" s="65">
         <v>50</v>
       </c>
-      <c r="U54">
+      <c r="U54" s="65">
         <v>60</v>
       </c>
-      <c r="V54" s="26">
+      <c r="V54" s="73">
         <v>0.02</v>
       </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
+      <c r="W54" s="65">
+        <v>0</v>
+      </c>
+      <c r="X54" s="65">
         <v>10</v>
       </c>
-      <c r="Y54" s="26">
+      <c r="Y54" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z54" s="26">
+      <c r="Z54" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA54" s="26">
+      <c r="AA54" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB54" s="26">
+      <c r="AB54" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC54" s="33">
+      <c r="AC54" s="74">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD54" s="26" t="s">
+      <c r="AD54" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE54" s="51">
-        <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="AF54" s="50">
+      <c r="AE54" s="76">
+        <v>0.1022</v>
+      </c>
+      <c r="AF54" s="73">
         <v>0.12</v>
       </c>
-      <c r="AG54" t="s">
+      <c r="AG54" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH54" s="2" t="s">
+      <c r="AH54" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI54" s="2" t="s">
+      <c r="AI54" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ54">
+      <c r="AJ54" s="65">
         <v>30</v>
       </c>
-      <c r="AK54" t="s">
+      <c r="AK54" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL54">
+      <c r="AL54" s="65">
         <v>5</v>
       </c>
-      <c r="AM54">
+      <c r="AM54" s="65">
         <v>200</v>
       </c>
-      <c r="AN54" s="2" t="s">
+      <c r="AN54" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO54">
+      <c r="AO54" s="65">
         <v>1</v>
       </c>
-      <c r="AP54" s="2" t="s">
+      <c r="AP54" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ54" s="17">
+      <c r="AQ54" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR54" s="49">
+      <c r="AR54" s="72">
         <v>168732127</v>
       </c>
-      <c r="AS54" s="2" t="s">
+      <c r="AS54" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT54" s="12">
+      <c r="AT54" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU54" s="12">
+      <c r="AU54" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV54" s="12">
+      <c r="AV54" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW54" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX54" s="18" t="b">
+      <c r="AW54" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX54" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY54" s="18" t="b">
+      <c r="AY54" s="70" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55" s="65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B55" s="48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C55" s="67" t="b">
         <v>0</v>
@@ -11864,7 +12034,7 @@
         <v>156</v>
       </c>
       <c r="AE55" s="51">
-        <v>8.72E-2</v>
+        <v>9.2200000000000004E-2</v>
       </c>
       <c r="AF55" s="50">
         <v>0.12</v>
@@ -11896,7 +12066,7 @@
       <c r="AO55">
         <v>1</v>
       </c>
-      <c r="AP55" s="43" t="s">
+      <c r="AP55" s="2" t="s">
         <v>114</v>
       </c>
       <c r="AQ55" s="17">
@@ -11929,10 +12099,10 @@
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56" s="65" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="B56" s="48" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="C56" s="67" t="b">
         <v>0</v>
@@ -12019,7 +12189,7 @@
         <v>156</v>
       </c>
       <c r="AE56" s="51">
-        <v>8.2199999999999995E-2</v>
+        <v>8.72E-2</v>
       </c>
       <c r="AF56" s="50">
         <v>0.12</v>
@@ -12084,10 +12254,10 @@
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" s="65" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="C57" s="67" t="b">
         <v>0</v>
@@ -12174,7 +12344,7 @@
         <v>156</v>
       </c>
       <c r="AE57" s="51">
-        <v>7.7199999999999991E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF57" s="50">
         <v>0.12</v>
@@ -12239,10 +12409,10 @@
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A58" s="65" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B58" s="48" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="C58" s="67" t="b">
         <v>0</v>
@@ -12329,7 +12499,7 @@
         <v>156</v>
       </c>
       <c r="AE58" s="51">
-        <v>7.22E-2</v>
+        <v>7.7199999999999991E-2</v>
       </c>
       <c r="AF58" s="50">
         <v>0.12</v>
@@ -12392,35 +12562,160 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="71"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="O59" s="73"/>
-      <c r="P59" s="70"/>
-      <c r="Q59" s="73"/>
-      <c r="V59" s="73"/>
-      <c r="Y59" s="73"/>
-      <c r="Z59" s="73"/>
-      <c r="AA59" s="73"/>
-      <c r="AB59" s="73"/>
-      <c r="AC59" s="74"/>
-      <c r="AD59" s="73"/>
-      <c r="AE59" s="76"/>
-      <c r="AF59" s="73"/>
-      <c r="AH59" s="66"/>
-      <c r="AI59" s="66"/>
-      <c r="AN59" s="66"/>
-      <c r="AP59" s="66"/>
-      <c r="AQ59" s="69"/>
-      <c r="AR59" s="72"/>
-      <c r="AS59" s="66"/>
-      <c r="AT59" s="68"/>
-      <c r="AU59" s="68"/>
-      <c r="AV59" s="68"/>
-      <c r="AW59" s="70"/>
-      <c r="AX59" s="70"/>
-      <c r="AY59" s="70"/>
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A59" s="65" t="s">
+        <v>409</v>
+      </c>
+      <c r="B59" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="C59" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>207</v>
+      </c>
+      <c r="F59" t="s">
+        <v>184</v>
+      </c>
+      <c r="G59">
+        <v>1000</v>
+      </c>
+      <c r="H59">
+        <v>500</v>
+      </c>
+      <c r="I59" t="s">
+        <v>109</v>
+      </c>
+      <c r="J59" t="s">
+        <v>109</v>
+      </c>
+      <c r="K59" t="s">
+        <v>204</v>
+      </c>
+      <c r="L59" t="s">
+        <v>167</v>
+      </c>
+      <c r="M59" t="s">
+        <v>211</v>
+      </c>
+      <c r="N59" t="s">
+        <v>198</v>
+      </c>
+      <c r="O59" s="26">
+        <v>0</v>
+      </c>
+      <c r="P59" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R59">
+        <v>3</v>
+      </c>
+      <c r="S59">
+        <v>75</v>
+      </c>
+      <c r="T59">
+        <v>50</v>
+      </c>
+      <c r="U59">
+        <v>60</v>
+      </c>
+      <c r="V59" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>10</v>
+      </c>
+      <c r="Y59" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z59" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA59" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB59" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC59" s="33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD59" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE59" s="51">
+        <v>7.22E-2</v>
+      </c>
+      <c r="AF59" s="50">
+        <v>0.12</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH59" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI59" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ59">
+        <v>30</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL59">
+        <v>5</v>
+      </c>
+      <c r="AM59">
+        <v>200</v>
+      </c>
+      <c r="AN59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
+      <c r="AP59" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ59" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR59" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT59" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU59" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV59" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW59" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX59" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY59" s="18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="71"/>
@@ -12452,198 +12747,73 @@
       <c r="AX60" s="70"/>
       <c r="AY60" s="70"/>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B61" s="91" t="s">
+    <row r="61" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="71"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="O61" s="73"/>
+      <c r="P61" s="70"/>
+      <c r="Q61" s="73"/>
+      <c r="V61" s="73"/>
+      <c r="Y61" s="73"/>
+      <c r="Z61" s="73"/>
+      <c r="AA61" s="73"/>
+      <c r="AB61" s="73"/>
+      <c r="AC61" s="74"/>
+      <c r="AD61" s="73"/>
+      <c r="AE61" s="76"/>
+      <c r="AF61" s="73"/>
+      <c r="AH61" s="66"/>
+      <c r="AI61" s="66"/>
+      <c r="AN61" s="66"/>
+      <c r="AP61" s="66"/>
+      <c r="AQ61" s="69"/>
+      <c r="AR61" s="72"/>
+      <c r="AS61" s="66"/>
+      <c r="AT61" s="68"/>
+      <c r="AU61" s="68"/>
+      <c r="AV61" s="68"/>
+      <c r="AW61" s="70"/>
+      <c r="AX61" s="70"/>
+      <c r="AY61" s="70"/>
+    </row>
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B62" s="91" t="s">
         <v>462</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="44"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="26"/>
-      <c r="V61" s="26"/>
-      <c r="Y61" s="26"/>
-      <c r="Z61" s="26"/>
-      <c r="AA61" s="26"/>
-      <c r="AB61" s="26"/>
-      <c r="AC61" s="85"/>
-      <c r="AD61" s="85"/>
-      <c r="AE61" s="86"/>
-      <c r="AF61" s="85"/>
-      <c r="AH61" s="2"/>
-      <c r="AI61" s="2"/>
-      <c r="AN61" s="2"/>
-      <c r="AP61" s="2"/>
-      <c r="AQ61" s="17"/>
-      <c r="AS61" s="2"/>
-      <c r="AT61" s="12"/>
-      <c r="AU61" s="12"/>
-      <c r="AV61" s="12"/>
-      <c r="AW61" s="18"/>
-      <c r="AX61" s="18"/>
-      <c r="AY61" s="18"/>
-    </row>
-    <row r="62" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="B62" s="71" t="s">
-        <v>429</v>
-      </c>
-      <c r="C62" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D62" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E62" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="F62" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G62" s="65">
-        <v>1000</v>
-      </c>
-      <c r="H62" s="65">
-        <v>500</v>
-      </c>
-      <c r="I62" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J62" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K62" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L62" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="M62" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="N62" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="O62" s="73">
-        <v>0</v>
-      </c>
-      <c r="P62" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="73">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R62" s="65">
-        <v>3</v>
-      </c>
-      <c r="S62" s="65">
-        <v>75</v>
-      </c>
-      <c r="T62" s="65">
-        <v>50</v>
-      </c>
-      <c r="U62" s="65">
-        <v>60</v>
-      </c>
-      <c r="V62" s="73">
-        <v>0.02</v>
-      </c>
-      <c r="W62" s="65">
-        <v>0</v>
-      </c>
-      <c r="X62" s="65">
-        <v>10</v>
-      </c>
-      <c r="Y62" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="Z62" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="AA62" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="AB62" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="AC62" s="87">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD62" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE62" s="87">
-        <v>7.5157231635036972E-2</v>
-      </c>
-      <c r="AF62" s="89">
-        <v>1.7733112250080365E-2</v>
-      </c>
-      <c r="AG62" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH62" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI62" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ62" s="65">
-        <v>30</v>
-      </c>
-      <c r="AK62" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL62" s="65">
-        <v>5</v>
-      </c>
-      <c r="AM62" s="65">
-        <v>200</v>
-      </c>
-      <c r="AN62" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO62" s="65">
-        <v>1</v>
-      </c>
-      <c r="AP62" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ62" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="AR62" s="72">
-        <v>168732127</v>
-      </c>
-      <c r="AS62" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT62" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="AU62" s="68">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV62" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="AW62" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX62" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY62" s="70" t="b">
-        <v>0</v>
-      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="44"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="26"/>
+      <c r="V62" s="26"/>
+      <c r="Y62" s="26"/>
+      <c r="Z62" s="26"/>
+      <c r="AA62" s="26"/>
+      <c r="AB62" s="26"/>
+      <c r="AC62" s="85"/>
+      <c r="AD62" s="85"/>
+      <c r="AE62" s="86"/>
+      <c r="AF62" s="85"/>
+      <c r="AH62" s="2"/>
+      <c r="AI62" s="2"/>
+      <c r="AN62" s="2"/>
+      <c r="AP62" s="2"/>
+      <c r="AQ62" s="17"/>
+      <c r="AS62" s="2"/>
+      <c r="AT62" s="12"/>
+      <c r="AU62" s="12"/>
+      <c r="AV62" s="12"/>
+      <c r="AW62" s="18"/>
+      <c r="AX62" s="18"/>
+      <c r="AY62" s="18"/>
     </row>
     <row r="63" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="65" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B63" s="71" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C63" s="67" t="b">
         <v>0</v>
@@ -12723,16 +12893,16 @@
       <c r="AB63" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC63" s="88">
-        <v>6.5000000000000002E-2</v>
+      <c r="AC63" s="87">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD63" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE63" s="88">
-        <v>6.5157231635036977E-2</v>
-      </c>
-      <c r="AF63" s="90">
+      <c r="AE63" s="87">
+        <v>7.5157231635036972E-2</v>
+      </c>
+      <c r="AF63" s="89">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG63" s="65" t="s">
@@ -12795,10 +12965,10 @@
     </row>
     <row r="64" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="65" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B64" s="71" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C64" s="67" t="b">
         <v>0</v>
@@ -12879,13 +13049,13 @@
         <v>0.01</v>
       </c>
       <c r="AC64" s="88">
-        <v>5.4999999999999993E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AD64" s="85" t="s">
         <v>156</v>
       </c>
       <c r="AE64" s="88">
-        <v>5.5157231635036968E-2</v>
+        <v>6.5157231635036977E-2</v>
       </c>
       <c r="AF64" s="90">
         <v>1.7733112250080365E-2</v>
@@ -12950,10 +13120,10 @@
     </row>
     <row r="65" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="65" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B65" s="71" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C65" s="67" t="b">
         <v>0</v>
@@ -13034,13 +13204,13 @@
         <v>0.01</v>
       </c>
       <c r="AC65" s="88">
-        <v>4.4999999999999991E-2</v>
+        <v>5.4999999999999993E-2</v>
       </c>
       <c r="AD65" s="85" t="s">
         <v>156</v>
       </c>
       <c r="AE65" s="88">
-        <v>4.5157231635036967E-2</v>
+        <v>5.5157231635036968E-2</v>
       </c>
       <c r="AF65" s="90">
         <v>1.7733112250080365E-2</v>
@@ -13105,10 +13275,10 @@
     </row>
     <row r="66" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="65" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B66" s="71" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C66" s="67" t="b">
         <v>0</v>
@@ -13189,13 +13359,13 @@
         <v>0.01</v>
       </c>
       <c r="AC66" s="88">
-        <v>0.04</v>
+        <v>4.4999999999999991E-2</v>
       </c>
       <c r="AD66" s="85" t="s">
         <v>156</v>
       </c>
       <c r="AE66" s="88">
-        <v>4.02E-2</v>
+        <v>4.5157231635036967E-2</v>
       </c>
       <c r="AF66" s="90">
         <v>1.7733112250080365E-2</v>
@@ -13260,10 +13430,10 @@
     </row>
     <row r="67" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="65" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
       <c r="C67" s="67" t="b">
         <v>0</v>
@@ -13343,16 +13513,16 @@
       <c r="AB67" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC67" s="87">
-        <v>3.4999999999999989E-2</v>
+      <c r="AC67" s="88">
+        <v>0.04</v>
       </c>
       <c r="AD67" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE67" s="87">
-        <v>3.5157231635036965E-2</v>
-      </c>
-      <c r="AF67" s="89">
+      <c r="AE67" s="88">
+        <v>4.02E-2</v>
+      </c>
+      <c r="AF67" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG67" s="65" t="s">
@@ -13415,10 +13585,10 @@
     </row>
     <row r="68" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="65" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B68" s="71" t="s">
-        <v>433</v>
+        <v>501</v>
       </c>
       <c r="C68" s="67" t="b">
         <v>0</v>
@@ -13498,16 +13668,16 @@
       <c r="AB68" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC68" s="88">
-        <v>2.9999999999999992E-2</v>
+      <c r="AC68" s="87">
+        <v>3.4999999999999989E-2</v>
       </c>
       <c r="AD68" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE68" s="88">
-        <v>3.0157231635036967E-2</v>
-      </c>
-      <c r="AF68" s="90">
+      <c r="AE68" s="87">
+        <v>3.5157231635036965E-2</v>
+      </c>
+      <c r="AF68" s="89">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG68" s="65" t="s">
@@ -13570,10 +13740,10 @@
     </row>
     <row r="69" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="65" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B69" s="71" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C69" s="67" t="b">
         <v>0</v>
@@ -13654,13 +13824,13 @@
         <v>0.01</v>
       </c>
       <c r="AC69" s="88">
-        <v>2.4999999999999994E-2</v>
+        <v>2.9999999999999992E-2</v>
       </c>
       <c r="AD69" s="85" t="s">
         <v>156</v>
       </c>
       <c r="AE69" s="88">
-        <v>2.515723163503697E-2</v>
+        <v>3.0157231635036967E-2</v>
       </c>
       <c r="AF69" s="90">
         <v>1.7733112250080365E-2</v>
@@ -13724,224 +13894,347 @@
       </c>
     </row>
     <row r="70" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="71"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="O70" s="73"/>
-      <c r="P70" s="70"/>
-      <c r="Q70" s="73"/>
-      <c r="V70" s="73"/>
-      <c r="Y70" s="73"/>
-      <c r="Z70" s="73"/>
-      <c r="AA70" s="73"/>
-      <c r="AB70" s="73"/>
-      <c r="AC70" s="88"/>
-      <c r="AD70" s="85"/>
-      <c r="AE70" s="88"/>
-      <c r="AF70" s="90"/>
-      <c r="AH70" s="66"/>
-      <c r="AI70" s="66"/>
-      <c r="AN70" s="66"/>
-      <c r="AP70" s="66"/>
-      <c r="AQ70" s="69"/>
-      <c r="AR70" s="72"/>
-      <c r="AS70" s="66"/>
-      <c r="AT70" s="68"/>
-      <c r="AU70" s="68"/>
-      <c r="AV70" s="68"/>
-      <c r="AW70" s="70"/>
-      <c r="AX70" s="70"/>
-      <c r="AY70" s="70"/>
+      <c r="A70" s="65" t="s">
+        <v>428</v>
+      </c>
+      <c r="B70" s="71" t="s">
+        <v>434</v>
+      </c>
+      <c r="C70" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F70" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G70" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H70" s="65">
+        <v>500</v>
+      </c>
+      <c r="I70" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J70" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K70" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L70" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M70" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N70" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O70" s="73">
+        <v>0</v>
+      </c>
+      <c r="P70" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R70" s="65">
+        <v>3</v>
+      </c>
+      <c r="S70" s="65">
+        <v>75</v>
+      </c>
+      <c r="T70" s="65">
+        <v>50</v>
+      </c>
+      <c r="U70" s="65">
+        <v>60</v>
+      </c>
+      <c r="V70" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W70" s="65">
+        <v>0</v>
+      </c>
+      <c r="X70" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y70" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z70" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA70" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB70" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC70" s="88">
+        <v>2.4999999999999994E-2</v>
+      </c>
+      <c r="AD70" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE70" s="88">
+        <v>2.515723163503697E-2</v>
+      </c>
+      <c r="AF70" s="90">
+        <v>1.7733112250080365E-2</v>
+      </c>
+      <c r="AG70" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH70" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI70" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ70" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK70" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL70" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM70" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN70" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO70" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP70" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ70" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR70" s="72">
+        <v>168732127</v>
+      </c>
+      <c r="AS70" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT70" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU70" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV70" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW70" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX70" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY70" s="70" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="65" t="s">
-        <v>451</v>
-      </c>
-      <c r="B71" s="71" t="s">
-        <v>452</v>
-      </c>
-      <c r="C71" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D71" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E71" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="F71" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G71" s="65">
-        <v>1000</v>
-      </c>
-      <c r="H71" s="65">
-        <v>500</v>
-      </c>
-      <c r="I71" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J71" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K71" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L71" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="M71" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="N71" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="O71" s="73">
-        <v>0</v>
-      </c>
-      <c r="P71" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="73">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R71" s="65">
-        <v>3</v>
-      </c>
-      <c r="S71" s="65">
-        <v>75</v>
-      </c>
-      <c r="T71" s="65">
-        <v>50</v>
-      </c>
-      <c r="U71" s="65">
-        <v>60</v>
-      </c>
-      <c r="V71" s="73">
-        <v>0.02</v>
-      </c>
-      <c r="W71" s="65">
-        <v>0</v>
-      </c>
-      <c r="X71" s="65">
-        <v>10</v>
-      </c>
-      <c r="Y71" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="Z71" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="AA71" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="AB71" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="AC71" s="87">
-        <v>3.4999999999999989E-2</v>
-      </c>
-      <c r="AD71" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE71" s="87">
-        <v>3.5157231635036965E-2</v>
-      </c>
-      <c r="AF71" s="89">
-        <v>1.7733112250080365E-2</v>
-      </c>
-      <c r="AG71" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH71" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI71" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ71" s="65">
-        <v>15</v>
-      </c>
-      <c r="AK71" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL71" s="65">
-        <v>5</v>
-      </c>
-      <c r="AM71" s="65">
-        <v>200</v>
-      </c>
-      <c r="AN71" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO71" s="65">
-        <v>1</v>
-      </c>
-      <c r="AP71" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ71" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="AR71" s="72">
-        <v>168732127</v>
-      </c>
-      <c r="AS71" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT71" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="AU71" s="68">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV71" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="AW71" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX71" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY71" s="70" t="b">
-        <v>0</v>
-      </c>
+      <c r="B71" s="71"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="O71" s="73"/>
+      <c r="P71" s="70"/>
+      <c r="Q71" s="73"/>
+      <c r="V71" s="73"/>
+      <c r="Y71" s="73"/>
+      <c r="Z71" s="73"/>
+      <c r="AA71" s="73"/>
+      <c r="AB71" s="73"/>
+      <c r="AC71" s="88"/>
+      <c r="AD71" s="85"/>
+      <c r="AE71" s="88"/>
+      <c r="AF71" s="90"/>
+      <c r="AH71" s="66"/>
+      <c r="AI71" s="66"/>
+      <c r="AN71" s="66"/>
+      <c r="AP71" s="66"/>
+      <c r="AQ71" s="69"/>
+      <c r="AR71" s="72"/>
+      <c r="AS71" s="66"/>
+      <c r="AT71" s="68"/>
+      <c r="AU71" s="68"/>
+      <c r="AV71" s="68"/>
+      <c r="AW71" s="70"/>
+      <c r="AX71" s="70"/>
+      <c r="AY71" s="70"/>
     </row>
     <row r="72" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="71"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="O72" s="73"/>
-      <c r="P72" s="70"/>
-      <c r="Q72" s="73"/>
-      <c r="V72" s="73"/>
-      <c r="Y72" s="73"/>
-      <c r="Z72" s="73"/>
-      <c r="AA72" s="73"/>
-      <c r="AB72" s="73"/>
-      <c r="AC72" s="87"/>
-      <c r="AD72" s="85"/>
-      <c r="AE72" s="87"/>
-      <c r="AF72" s="89"/>
-      <c r="AH72" s="66"/>
-      <c r="AI72" s="66"/>
-      <c r="AN72" s="66"/>
-      <c r="AP72" s="66"/>
-      <c r="AQ72" s="69"/>
-      <c r="AR72" s="72"/>
-      <c r="AS72" s="66"/>
-      <c r="AT72" s="68"/>
-      <c r="AU72" s="68"/>
-      <c r="AV72" s="68"/>
-      <c r="AW72" s="70"/>
-      <c r="AX72" s="70"/>
-      <c r="AY72" s="70"/>
+      <c r="A72" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="B72" s="71" t="s">
+        <v>452</v>
+      </c>
+      <c r="C72" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F72" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G72" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H72" s="65">
+        <v>500</v>
+      </c>
+      <c r="I72" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J72" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K72" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L72" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M72" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N72" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O72" s="73">
+        <v>0</v>
+      </c>
+      <c r="P72" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R72" s="65">
+        <v>3</v>
+      </c>
+      <c r="S72" s="65">
+        <v>75</v>
+      </c>
+      <c r="T72" s="65">
+        <v>50</v>
+      </c>
+      <c r="U72" s="65">
+        <v>60</v>
+      </c>
+      <c r="V72" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W72" s="65">
+        <v>0</v>
+      </c>
+      <c r="X72" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y72" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z72" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA72" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB72" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC72" s="87">
+        <v>3.4999999999999989E-2</v>
+      </c>
+      <c r="AD72" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE72" s="87">
+        <v>3.5157231635036965E-2</v>
+      </c>
+      <c r="AF72" s="89">
+        <v>1.7733112250080365E-2</v>
+      </c>
+      <c r="AG72" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH72" s="66" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI72" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ72" s="65">
+        <v>15</v>
+      </c>
+      <c r="AK72" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL72" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM72" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN72" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO72" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP72" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ72" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR72" s="72">
+        <v>168732127</v>
+      </c>
+      <c r="AS72" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT72" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU72" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV72" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW72" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX72" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY72" s="70" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="91" t="s">
-        <v>461</v>
-      </c>
+      <c r="B73" s="71"/>
       <c r="C73" s="67"/>
       <c r="D73" s="67"/>
       <c r="O73" s="73"/>
@@ -13952,10 +14245,10 @@
       <c r="Z73" s="73"/>
       <c r="AA73" s="73"/>
       <c r="AB73" s="73"/>
-      <c r="AC73" s="74"/>
-      <c r="AD73" s="73"/>
-      <c r="AE73" s="76"/>
-      <c r="AF73" s="73"/>
+      <c r="AC73" s="87"/>
+      <c r="AD73" s="85"/>
+      <c r="AE73" s="87"/>
+      <c r="AF73" s="89"/>
       <c r="AH73" s="66"/>
       <c r="AI73" s="66"/>
       <c r="AN73" s="66"/>
@@ -13971,166 +14264,43 @@
       <c r="AY73" s="70"/>
     </row>
     <row r="74" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="65" t="s">
-        <v>436</v>
-      </c>
-      <c r="B74" s="71" t="s">
-        <v>499</v>
-      </c>
-      <c r="C74" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D74" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E74" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="F74" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G74" s="65">
-        <v>1000</v>
-      </c>
-      <c r="H74" s="65">
-        <v>500</v>
-      </c>
-      <c r="I74" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J74" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K74" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L74" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="M74" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="N74" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="O74" s="73">
-        <v>0</v>
-      </c>
-      <c r="P74" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="73">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R74" s="65">
-        <v>3</v>
-      </c>
-      <c r="S74" s="65">
-        <v>75</v>
-      </c>
-      <c r="T74" s="65">
-        <v>50</v>
-      </c>
-      <c r="U74" s="65">
-        <v>60</v>
-      </c>
-      <c r="V74" s="73">
-        <v>0.02</v>
-      </c>
-      <c r="W74" s="65">
-        <v>0</v>
-      </c>
-      <c r="X74" s="65">
-        <v>10</v>
-      </c>
-      <c r="Y74" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="Z74" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="AA74" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="AB74" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="AC74" s="87">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD74" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE74" s="87">
-        <v>7.5157231635036972E-2</v>
-      </c>
-      <c r="AF74" s="89">
-        <v>1.7733112250080365E-2</v>
-      </c>
-      <c r="AG74" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH74" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI74" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ74" s="65">
-        <v>30</v>
-      </c>
-      <c r="AK74" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL74" s="65">
-        <v>5</v>
-      </c>
-      <c r="AM74" s="65">
-        <v>200</v>
-      </c>
-      <c r="AN74" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO74" s="65">
-        <v>1</v>
-      </c>
-      <c r="AP74" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ74" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="AR74" s="72">
-        <v>168732127</v>
-      </c>
-      <c r="AS74" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT74" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="AU74" s="68">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV74" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="AW74" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX74" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY74" s="70" t="b">
-        <v>0</v>
-      </c>
+      <c r="B74" s="91" t="s">
+        <v>461</v>
+      </c>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="O74" s="73"/>
+      <c r="P74" s="70"/>
+      <c r="Q74" s="73"/>
+      <c r="V74" s="73"/>
+      <c r="Y74" s="73"/>
+      <c r="Z74" s="73"/>
+      <c r="AA74" s="73"/>
+      <c r="AB74" s="73"/>
+      <c r="AC74" s="74"/>
+      <c r="AD74" s="73"/>
+      <c r="AE74" s="76"/>
+      <c r="AF74" s="73"/>
+      <c r="AH74" s="66"/>
+      <c r="AI74" s="66"/>
+      <c r="AN74" s="66"/>
+      <c r="AP74" s="66"/>
+      <c r="AQ74" s="69"/>
+      <c r="AR74" s="72"/>
+      <c r="AS74" s="66"/>
+      <c r="AT74" s="68"/>
+      <c r="AU74" s="68"/>
+      <c r="AV74" s="68"/>
+      <c r="AW74" s="70"/>
+      <c r="AX74" s="70"/>
+      <c r="AY74" s="70"/>
     </row>
     <row r="75" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="65" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B75" s="71" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="C75" s="67" t="b">
         <v>0</v>
@@ -14216,10 +14386,10 @@
       <c r="AD75" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE75" s="88">
-        <v>6.5157231635036977E-2</v>
-      </c>
-      <c r="AF75" s="90">
+      <c r="AE75" s="87">
+        <v>7.5157231635036972E-2</v>
+      </c>
+      <c r="AF75" s="89">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG75" s="65" t="s">
@@ -14282,10 +14452,10 @@
     </row>
     <row r="76" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="65" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B76" s="71" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C76" s="67" t="b">
         <v>0</v>
@@ -14372,7 +14542,7 @@
         <v>156</v>
       </c>
       <c r="AE76" s="88">
-        <v>5.5157231635036968E-2</v>
+        <v>6.5157231635036977E-2</v>
       </c>
       <c r="AF76" s="90">
         <v>1.7733112250080365E-2</v>
@@ -14437,10 +14607,10 @@
     </row>
     <row r="77" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="65" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B77" s="71" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C77" s="67" t="b">
         <v>0</v>
@@ -14527,7 +14697,7 @@
         <v>156</v>
       </c>
       <c r="AE77" s="88">
-        <v>4.5157231635036967E-2</v>
+        <v>5.5157231635036968E-2</v>
       </c>
       <c r="AF77" s="90">
         <v>1.7733112250080365E-2</v>
@@ -14592,10 +14762,10 @@
     </row>
     <row r="78" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="65" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B78" s="71" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C78" s="67" t="b">
         <v>0</v>
@@ -14682,7 +14852,7 @@
         <v>156</v>
       </c>
       <c r="AE78" s="88">
-        <v>4.02E-2</v>
+        <v>4.5157231635036967E-2</v>
       </c>
       <c r="AF78" s="90">
         <v>1.7733112250080365E-2</v>
@@ -14747,10 +14917,10 @@
     </row>
     <row r="79" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="65" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B79" s="71" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C79" s="67" t="b">
         <v>0</v>
@@ -14836,10 +15006,10 @@
       <c r="AD79" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE79" s="87">
-        <v>3.5157231635036965E-2</v>
-      </c>
-      <c r="AF79" s="89">
+      <c r="AE79" s="88">
+        <v>4.02E-2</v>
+      </c>
+      <c r="AF79" s="90">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG79" s="65" t="s">
@@ -14902,10 +15072,10 @@
     </row>
     <row r="80" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="65" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B80" s="71" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C80" s="67" t="b">
         <v>0</v>
@@ -14991,10 +15161,10 @@
       <c r="AD80" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="AE80" s="88">
-        <v>3.0157231635036967E-2</v>
-      </c>
-      <c r="AF80" s="90">
+      <c r="AE80" s="87">
+        <v>3.5157231635036965E-2</v>
+      </c>
+      <c r="AF80" s="89">
         <v>1.7733112250080365E-2</v>
       </c>
       <c r="AG80" s="65" t="s">
@@ -15057,10 +15227,10 @@
     </row>
     <row r="81" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="65" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B81" s="71" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C81" s="67" t="b">
         <v>0</v>
@@ -15147,7 +15317,7 @@
         <v>156</v>
       </c>
       <c r="AE81" s="88">
-        <v>2.515723163503697E-2</v>
+        <v>3.0157231635036967E-2</v>
       </c>
       <c r="AF81" s="90">
         <v>1.7733112250080365E-2</v>
@@ -15211,39 +15381,162 @@
       </c>
     </row>
     <row r="82" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="71"/>
-      <c r="C82" s="67"/>
-      <c r="D82" s="67"/>
-      <c r="O82" s="73"/>
-      <c r="P82" s="70"/>
-      <c r="Q82" s="73"/>
-      <c r="V82" s="73"/>
-      <c r="Y82" s="73"/>
-      <c r="Z82" s="73"/>
-      <c r="AA82" s="73"/>
-      <c r="AB82" s="73"/>
-      <c r="AC82" s="87"/>
-      <c r="AD82" s="85"/>
-      <c r="AE82" s="88"/>
-      <c r="AF82" s="90"/>
-      <c r="AH82" s="66"/>
-      <c r="AI82" s="66"/>
-      <c r="AN82" s="66"/>
-      <c r="AP82" s="66"/>
-      <c r="AQ82" s="69"/>
-      <c r="AR82" s="72"/>
-      <c r="AS82" s="66"/>
-      <c r="AT82" s="68"/>
-      <c r="AU82" s="68"/>
-      <c r="AV82" s="68"/>
-      <c r="AW82" s="70"/>
-      <c r="AX82" s="70"/>
-      <c r="AY82" s="70"/>
+      <c r="A82" s="65" t="s">
+        <v>443</v>
+      </c>
+      <c r="B82" s="71" t="s">
+        <v>450</v>
+      </c>
+      <c r="C82" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F82" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G82" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H82" s="65">
+        <v>500</v>
+      </c>
+      <c r="I82" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J82" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K82" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L82" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M82" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N82" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O82" s="73">
+        <v>0</v>
+      </c>
+      <c r="P82" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R82" s="65">
+        <v>3</v>
+      </c>
+      <c r="S82" s="65">
+        <v>75</v>
+      </c>
+      <c r="T82" s="65">
+        <v>50</v>
+      </c>
+      <c r="U82" s="65">
+        <v>60</v>
+      </c>
+      <c r="V82" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W82" s="65">
+        <v>0</v>
+      </c>
+      <c r="X82" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y82" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z82" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA82" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB82" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC82" s="87">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD82" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE82" s="88">
+        <v>2.515723163503697E-2</v>
+      </c>
+      <c r="AF82" s="90">
+        <v>1.7733112250080365E-2</v>
+      </c>
+      <c r="AG82" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH82" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI82" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ82" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK82" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL82" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM82" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN82" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO82" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP82" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ82" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR82" s="72">
+        <v>168732127</v>
+      </c>
+      <c r="AS82" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT82" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU82" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV82" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW82" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX82" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY82" s="70" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="91" t="s">
-        <v>464</v>
-      </c>
+      <c r="B83" s="71"/>
       <c r="C83" s="67"/>
       <c r="D83" s="67"/>
       <c r="O83" s="73"/>
@@ -15254,10 +15547,10 @@
       <c r="Z83" s="73"/>
       <c r="AA83" s="73"/>
       <c r="AB83" s="73"/>
-      <c r="AC83" s="74"/>
-      <c r="AD83" s="73"/>
-      <c r="AE83" s="76"/>
-      <c r="AF83" s="73"/>
+      <c r="AC83" s="87"/>
+      <c r="AD83" s="85"/>
+      <c r="AE83" s="88"/>
+      <c r="AF83" s="90"/>
       <c r="AH83" s="66"/>
       <c r="AI83" s="66"/>
       <c r="AN83" s="66"/>
@@ -15272,169 +15565,46 @@
       <c r="AX83" s="70"/>
       <c r="AY83" s="70"/>
     </row>
-    <row r="84" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="B84" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="C84" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="D84" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E84" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="F84" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G84" s="42">
-        <v>1000</v>
-      </c>
-      <c r="H84" s="42">
-        <v>500</v>
-      </c>
-      <c r="I84" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J84" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="K84" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="L84" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="M84" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="N84" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="O84" s="50">
-        <v>0</v>
-      </c>
-      <c r="P84" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="50">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R84" s="42">
-        <v>3</v>
-      </c>
-      <c r="S84" s="42">
-        <v>75</v>
-      </c>
-      <c r="T84" s="42">
-        <v>50</v>
-      </c>
-      <c r="U84" s="42">
-        <v>60</v>
-      </c>
-      <c r="V84" s="50">
-        <v>0.02</v>
-      </c>
-      <c r="W84" s="42">
-        <v>0</v>
-      </c>
-      <c r="X84" s="42">
-        <v>10</v>
-      </c>
-      <c r="Y84" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="Z84" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="AA84" s="50">
-        <v>0.03</v>
-      </c>
-      <c r="AB84" s="50">
-        <v>0.01</v>
-      </c>
-      <c r="AC84" s="33">
-        <v>4.4234404536862004E-2</v>
-      </c>
-      <c r="AD84" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE84" s="51">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="AF84" s="24">
-        <v>3.9130434782608692E-2</v>
-      </c>
-      <c r="AG84" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH84" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI84" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ84" s="42">
-        <v>30</v>
-      </c>
-      <c r="AK84" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL84" s="42">
-        <v>5</v>
-      </c>
-      <c r="AM84" s="42">
-        <v>200</v>
-      </c>
-      <c r="AN84" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO84" s="42">
-        <v>1</v>
-      </c>
-      <c r="AP84" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ84" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="AR84" s="49">
-        <v>168732127</v>
-      </c>
-      <c r="AS84" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT84" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="AU84" s="45">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV84" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="AW84" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX84" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY84" s="47" t="b">
-        <v>0</v>
-      </c>
+    <row r="84" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="91" t="s">
+        <v>464</v>
+      </c>
+      <c r="C84" s="67"/>
+      <c r="D84" s="67"/>
+      <c r="O84" s="73"/>
+      <c r="P84" s="70"/>
+      <c r="Q84" s="73"/>
+      <c r="V84" s="73"/>
+      <c r="Y84" s="73"/>
+      <c r="Z84" s="73"/>
+      <c r="AA84" s="73"/>
+      <c r="AB84" s="73"/>
+      <c r="AC84" s="74"/>
+      <c r="AD84" s="73"/>
+      <c r="AE84" s="76"/>
+      <c r="AF84" s="73"/>
+      <c r="AH84" s="66"/>
+      <c r="AI84" s="66"/>
+      <c r="AN84" s="66"/>
+      <c r="AP84" s="66"/>
+      <c r="AQ84" s="69"/>
+      <c r="AR84" s="72"/>
+      <c r="AS84" s="66"/>
+      <c r="AT84" s="68"/>
+      <c r="AU84" s="68"/>
+      <c r="AV84" s="68"/>
+      <c r="AW84" s="70"/>
+      <c r="AX84" s="70"/>
+      <c r="AY84" s="70"/>
     </row>
     <row r="85" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="42" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B85" s="48" t="s">
-        <v>395</v>
-      </c>
-      <c r="C85" s="67" t="b">
+        <v>363</v>
+      </c>
+      <c r="C85" s="44" t="b">
         <v>0</v>
       </c>
       <c r="D85" s="44" t="b">
@@ -15513,16 +15683,16 @@
         <v>0.01</v>
       </c>
       <c r="AC85" s="33">
-        <v>5.7426748582230625E-2</v>
+        <v>4.4234404536862004E-2</v>
       </c>
       <c r="AD85" s="50" t="s">
         <v>156</v>
       </c>
       <c r="AE85" s="51">
-        <v>0.06</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AF85" s="24">
-        <v>7.1739130434782611E-2</v>
+        <v>3.9130434782608692E-2</v>
       </c>
       <c r="AG85" s="42" t="s">
         <v>112</v>
@@ -15584,10 +15754,10 @@
     </row>
     <row r="86" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B86" s="48" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="C86" s="67" t="b">
         <v>0</v>
@@ -15668,16 +15838,16 @@
         <v>0.01</v>
       </c>
       <c r="AC86" s="33">
-        <v>7.4999999999999997E-2</v>
+        <v>5.7426748582230625E-2</v>
       </c>
       <c r="AD86" s="50" t="s">
         <v>156</v>
       </c>
       <c r="AE86" s="51">
-        <v>8.2199999999999995E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AF86" s="24">
-        <v>0.12</v>
+        <v>7.1739130434782611E-2</v>
       </c>
       <c r="AG86" s="42" t="s">
         <v>112</v>
@@ -15739,10 +15909,10 @@
     </row>
     <row r="87" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B87" s="48" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C87" s="67" t="b">
         <v>0</v>
@@ -15823,16 +15993,16 @@
         <v>0.01</v>
       </c>
       <c r="AC87" s="33">
-        <v>8.0621455576559545E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD87" s="50" t="s">
         <v>156</v>
       </c>
       <c r="AE87" s="51">
-        <v>0.09</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF87" s="24">
-        <v>0.13695652173913042</v>
+        <v>0.12</v>
       </c>
       <c r="AG87" s="42" t="s">
         <v>112</v>
@@ -15894,10 +16064,10 @@
     </row>
     <row r="88" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B88" s="48" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="C88" s="67" t="b">
         <v>0</v>
@@ -15978,16 +16148,16 @@
         <v>0.01</v>
       </c>
       <c r="AC88" s="33">
-        <v>9.0623818525519845E-2</v>
+        <v>8.0621455576559545E-2</v>
       </c>
       <c r="AD88" s="50" t="s">
         <v>156</v>
       </c>
       <c r="AE88" s="51">
-        <v>0.105</v>
+        <v>0.09</v>
       </c>
       <c r="AF88" s="24">
-        <v>0.16956521739130434</v>
+        <v>0.13695652173913042</v>
       </c>
       <c r="AG88" s="42" t="s">
         <v>112</v>
@@ -16047,229 +16217,229 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="71"/>
-      <c r="C89" s="67"/>
-      <c r="D89" s="67"/>
-      <c r="O89" s="73"/>
-      <c r="P89" s="70"/>
-      <c r="Q89" s="73"/>
-      <c r="V89" s="73"/>
-      <c r="Y89" s="73"/>
-      <c r="Z89" s="73"/>
-      <c r="AA89" s="73"/>
-      <c r="AB89" s="73"/>
-      <c r="AC89" s="74"/>
-      <c r="AD89" s="73"/>
-      <c r="AE89" s="76"/>
-      <c r="AF89" s="24"/>
-      <c r="AH89" s="66"/>
-      <c r="AI89" s="66"/>
-      <c r="AN89" s="66"/>
-      <c r="AP89" s="66"/>
-      <c r="AQ89" s="69"/>
-      <c r="AR89" s="72"/>
-      <c r="AS89" s="66"/>
-      <c r="AT89" s="68"/>
-      <c r="AU89" s="68"/>
-      <c r="AV89" s="68"/>
-      <c r="AW89" s="70"/>
-      <c r="AX89" s="70"/>
-      <c r="AY89" s="70"/>
+    <row r="89" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="B89" s="48" t="s">
+        <v>396</v>
+      </c>
+      <c r="C89" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D89" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F89" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G89" s="42">
+        <v>1000</v>
+      </c>
+      <c r="H89" s="42">
+        <v>500</v>
+      </c>
+      <c r="I89" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J89" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K89" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="L89" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="M89" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="N89" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="O89" s="50">
+        <v>0</v>
+      </c>
+      <c r="P89" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="50">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R89" s="42">
+        <v>3</v>
+      </c>
+      <c r="S89" s="42">
+        <v>75</v>
+      </c>
+      <c r="T89" s="42">
+        <v>50</v>
+      </c>
+      <c r="U89" s="42">
+        <v>60</v>
+      </c>
+      <c r="V89" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="W89" s="42">
+        <v>0</v>
+      </c>
+      <c r="X89" s="42">
+        <v>10</v>
+      </c>
+      <c r="Y89" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="Z89" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="AA89" s="50">
+        <v>0.03</v>
+      </c>
+      <c r="AB89" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="AC89" s="33">
+        <v>9.0623818525519845E-2</v>
+      </c>
+      <c r="AD89" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE89" s="51">
+        <v>0.105</v>
+      </c>
+      <c r="AF89" s="24">
+        <v>0.16956521739130434</v>
+      </c>
+      <c r="AG89" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH89" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI89" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ89" s="42">
+        <v>30</v>
+      </c>
+      <c r="AK89" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL89" s="42">
+        <v>5</v>
+      </c>
+      <c r="AM89" s="42">
+        <v>200</v>
+      </c>
+      <c r="AN89" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO89" s="42">
+        <v>1</v>
+      </c>
+      <c r="AP89" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ89" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="AR89" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS89" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT89" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="AU89" s="45">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV89" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="AW89" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX89" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY89" s="47" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="91" t="s">
-        <v>465</v>
-      </c>
+    <row r="90" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="71"/>
       <c r="C90" s="67"/>
-      <c r="D90" s="44"/>
-      <c r="O90" s="50"/>
-      <c r="P90" s="47"/>
-      <c r="Q90" s="50"/>
-      <c r="V90" s="50"/>
-      <c r="Y90" s="50"/>
-      <c r="Z90" s="50"/>
-      <c r="AA90" s="50"/>
-      <c r="AB90" s="50"/>
-      <c r="AC90" s="33"/>
-      <c r="AD90" s="50"/>
-      <c r="AE90" s="51"/>
+      <c r="D90" s="67"/>
+      <c r="O90" s="73"/>
+      <c r="P90" s="70"/>
+      <c r="Q90" s="73"/>
+      <c r="V90" s="73"/>
+      <c r="Y90" s="73"/>
+      <c r="Z90" s="73"/>
+      <c r="AA90" s="73"/>
+      <c r="AB90" s="73"/>
+      <c r="AC90" s="74"/>
+      <c r="AD90" s="73"/>
+      <c r="AE90" s="76"/>
       <c r="AF90" s="24"/>
-      <c r="AH90" s="43"/>
-      <c r="AI90" s="43"/>
-      <c r="AN90" s="43"/>
-      <c r="AP90" s="43"/>
-      <c r="AQ90" s="46"/>
-      <c r="AR90" s="49"/>
-      <c r="AS90" s="43"/>
-      <c r="AT90" s="45"/>
-      <c r="AU90" s="45"/>
-      <c r="AV90" s="45"/>
-      <c r="AW90" s="47"/>
-      <c r="AX90" s="47"/>
-      <c r="AY90" s="47"/>
+      <c r="AH90" s="66"/>
+      <c r="AI90" s="66"/>
+      <c r="AN90" s="66"/>
+      <c r="AP90" s="66"/>
+      <c r="AQ90" s="69"/>
+      <c r="AR90" s="72"/>
+      <c r="AS90" s="66"/>
+      <c r="AT90" s="68"/>
+      <c r="AU90" s="68"/>
+      <c r="AV90" s="68"/>
+      <c r="AW90" s="70"/>
+      <c r="AX90" s="70"/>
+      <c r="AY90" s="70"/>
     </row>
     <row r="91" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="B91" s="48" t="s">
-        <v>391</v>
-      </c>
-      <c r="C91" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D91" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E91" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="F91" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G91" s="42">
-        <v>1000</v>
-      </c>
-      <c r="H91" s="42">
-        <v>500</v>
-      </c>
-      <c r="I91" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J91" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="K91" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="L91" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="M91" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="N91" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="O91" s="50">
-        <v>0</v>
-      </c>
-      <c r="P91" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="50">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R91" s="42">
-        <v>3</v>
-      </c>
-      <c r="S91" s="42">
-        <v>75</v>
-      </c>
-      <c r="T91" s="42">
-        <v>50</v>
-      </c>
-      <c r="U91" s="42">
-        <v>60</v>
-      </c>
-      <c r="V91" s="50">
-        <v>0.02</v>
-      </c>
-      <c r="W91" s="42">
-        <v>0</v>
-      </c>
-      <c r="X91" s="42">
-        <v>10</v>
-      </c>
-      <c r="Y91" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="Z91" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="AA91" s="50">
-        <v>0.03</v>
-      </c>
-      <c r="AB91" s="50">
-        <v>0.01</v>
-      </c>
-      <c r="AC91" s="33">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD91" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE91" s="51">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="AF91" s="24">
-        <v>3.9130434782608692E-2</v>
-      </c>
-      <c r="AG91" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH91" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI91" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ91" s="42">
-        <v>30</v>
-      </c>
-      <c r="AK91" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL91" s="42">
-        <v>5</v>
-      </c>
-      <c r="AM91" s="42">
-        <v>200</v>
-      </c>
-      <c r="AN91" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO91" s="42">
-        <v>1</v>
-      </c>
-      <c r="AP91" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ91" s="46">
-        <v>0.75</v>
-      </c>
-      <c r="AR91" s="49">
-        <v>168732127</v>
-      </c>
-      <c r="AS91" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT91" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="AU91" s="45">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV91" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="AW91" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX91" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY91" s="47" t="b">
-        <v>0</v>
-      </c>
+      <c r="B91" s="91" t="s">
+        <v>465</v>
+      </c>
+      <c r="C91" s="67"/>
+      <c r="D91" s="44"/>
+      <c r="O91" s="50"/>
+      <c r="P91" s="47"/>
+      <c r="Q91" s="50"/>
+      <c r="V91" s="50"/>
+      <c r="Y91" s="50"/>
+      <c r="Z91" s="50"/>
+      <c r="AA91" s="50"/>
+      <c r="AB91" s="50"/>
+      <c r="AC91" s="33"/>
+      <c r="AD91" s="50"/>
+      <c r="AE91" s="51"/>
+      <c r="AF91" s="24"/>
+      <c r="AH91" s="43"/>
+      <c r="AI91" s="43"/>
+      <c r="AN91" s="43"/>
+      <c r="AP91" s="43"/>
+      <c r="AQ91" s="46"/>
+      <c r="AR91" s="49"/>
+      <c r="AS91" s="43"/>
+      <c r="AT91" s="45"/>
+      <c r="AU91" s="45"/>
+      <c r="AV91" s="45"/>
+      <c r="AW91" s="47"/>
+      <c r="AX91" s="47"/>
+      <c r="AY91" s="47"/>
     </row>
     <row r="92" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B92" s="48" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C92" s="67" t="b">
         <v>0</v>
@@ -16356,10 +16526,10 @@
         <v>156</v>
       </c>
       <c r="AE92" s="51">
-        <v>0.06</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AF92" s="24">
-        <v>7.1739130434782611E-2</v>
+        <v>3.9130434782608692E-2</v>
       </c>
       <c r="AG92" s="42" t="s">
         <v>112</v>
@@ -16421,10 +16591,10 @@
     </row>
     <row r="93" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B93" s="48" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="C93" s="67" t="b">
         <v>0</v>
@@ -16511,10 +16681,10 @@
         <v>156</v>
       </c>
       <c r="AE93" s="51">
-        <v>8.2199999999999995E-2</v>
+        <v>0.06</v>
       </c>
       <c r="AF93" s="24">
-        <v>0.12</v>
+        <v>7.1739130434782611E-2</v>
       </c>
       <c r="AG93" s="42" t="s">
         <v>112</v>
@@ -16576,10 +16746,10 @@
     </row>
     <row r="94" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B94" s="48" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C94" s="67" t="b">
         <v>0</v>
@@ -16666,10 +16836,10 @@
         <v>156</v>
       </c>
       <c r="AE94" s="51">
-        <v>0.09</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF94" s="24">
-        <v>0.13695652173913042</v>
+        <v>0.12</v>
       </c>
       <c r="AG94" s="42" t="s">
         <v>112</v>
@@ -16731,10 +16901,10 @@
     </row>
     <row r="95" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B95" s="48" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="C95" s="67" t="b">
         <v>0</v>
@@ -16821,10 +16991,10 @@
         <v>156</v>
       </c>
       <c r="AE95" s="51">
-        <v>0.105</v>
+        <v>0.09</v>
       </c>
       <c r="AF95" s="24">
-        <v>0.16956521739130434</v>
+        <v>0.13695652173913042</v>
       </c>
       <c r="AG95" s="42" t="s">
         <v>112</v>
@@ -16884,383 +17054,383 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="71"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="67"/>
-      <c r="O96" s="73"/>
-      <c r="P96" s="70"/>
-      <c r="Q96" s="73"/>
-      <c r="V96" s="73"/>
-      <c r="Y96" s="73"/>
-      <c r="Z96" s="73"/>
-      <c r="AA96" s="73"/>
-      <c r="AB96" s="73"/>
-      <c r="AC96" s="74"/>
-      <c r="AD96" s="73"/>
-      <c r="AE96" s="76"/>
-      <c r="AF96" s="24"/>
-      <c r="AH96" s="66"/>
-      <c r="AI96" s="66"/>
-      <c r="AN96" s="66"/>
-      <c r="AP96" s="66"/>
-      <c r="AQ96" s="69"/>
-      <c r="AR96" s="72"/>
-      <c r="AS96" s="66"/>
-      <c r="AT96" s="68"/>
-      <c r="AU96" s="68"/>
-      <c r="AV96" s="68"/>
-      <c r="AW96" s="70"/>
-      <c r="AX96" s="70"/>
-      <c r="AY96" s="70"/>
+    <row r="96" spans="1:51" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="B96" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="C96" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F96" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G96" s="42">
+        <v>1000</v>
+      </c>
+      <c r="H96" s="42">
+        <v>500</v>
+      </c>
+      <c r="I96" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J96" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K96" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="L96" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="M96" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="N96" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="O96" s="50">
+        <v>0</v>
+      </c>
+      <c r="P96" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="50">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R96" s="42">
+        <v>3</v>
+      </c>
+      <c r="S96" s="42">
+        <v>75</v>
+      </c>
+      <c r="T96" s="42">
+        <v>50</v>
+      </c>
+      <c r="U96" s="42">
+        <v>60</v>
+      </c>
+      <c r="V96" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="W96" s="42">
+        <v>0</v>
+      </c>
+      <c r="X96" s="42">
+        <v>10</v>
+      </c>
+      <c r="Y96" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="Z96" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="AA96" s="50">
+        <v>0.03</v>
+      </c>
+      <c r="AB96" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="AC96" s="33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD96" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE96" s="51">
+        <v>0.105</v>
+      </c>
+      <c r="AF96" s="24">
+        <v>0.16956521739130434</v>
+      </c>
+      <c r="AG96" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH96" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI96" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ96" s="42">
+        <v>30</v>
+      </c>
+      <c r="AK96" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL96" s="42">
+        <v>5</v>
+      </c>
+      <c r="AM96" s="42">
+        <v>200</v>
+      </c>
+      <c r="AN96" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO96" s="42">
+        <v>1</v>
+      </c>
+      <c r="AP96" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ96" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="AR96" s="49">
+        <v>168732127</v>
+      </c>
+      <c r="AS96" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT96" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="AU96" s="45">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV96" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="AW96" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX96" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY96" s="47" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B97" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="44"/>
-      <c r="O97" s="26"/>
-      <c r="P97" s="18"/>
-      <c r="Q97" s="26"/>
-      <c r="V97" s="26"/>
-      <c r="Y97" s="26"/>
-      <c r="Z97" s="26"/>
-      <c r="AA97" s="26"/>
-      <c r="AB97" s="26"/>
-      <c r="AC97" s="26"/>
-      <c r="AD97" s="26"/>
-      <c r="AE97" s="41"/>
-      <c r="AF97" s="26"/>
-      <c r="AH97" s="2"/>
-      <c r="AI97" s="2"/>
-      <c r="AN97" s="2"/>
-      <c r="AP97" s="2"/>
-      <c r="AQ97" s="17"/>
-      <c r="AS97" s="2"/>
-      <c r="AT97" s="12"/>
-      <c r="AU97" s="12"/>
-      <c r="AV97" s="12"/>
-      <c r="AW97" s="18"/>
-      <c r="AX97" s="18"/>
-      <c r="AY97" s="18"/>
+    <row r="97" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="71"/>
+      <c r="C97" s="67"/>
+      <c r="D97" s="67"/>
+      <c r="O97" s="73"/>
+      <c r="P97" s="70"/>
+      <c r="Q97" s="73"/>
+      <c r="V97" s="73"/>
+      <c r="Y97" s="73"/>
+      <c r="Z97" s="73"/>
+      <c r="AA97" s="73"/>
+      <c r="AB97" s="73"/>
+      <c r="AC97" s="74"/>
+      <c r="AD97" s="73"/>
+      <c r="AE97" s="76"/>
+      <c r="AF97" s="24"/>
+      <c r="AH97" s="66"/>
+      <c r="AI97" s="66"/>
+      <c r="AN97" s="66"/>
+      <c r="AP97" s="66"/>
+      <c r="AQ97" s="69"/>
+      <c r="AR97" s="72"/>
+      <c r="AS97" s="66"/>
+      <c r="AT97" s="68"/>
+      <c r="AU97" s="68"/>
+      <c r="AV97" s="68"/>
+      <c r="AW97" s="70"/>
+      <c r="AX97" s="70"/>
+      <c r="AY97" s="70"/>
     </row>
     <row r="98" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A98" s="34" t="s">
+      <c r="B98" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="44"/>
+      <c r="O98" s="26"/>
+      <c r="P98" s="18"/>
+      <c r="Q98" s="26"/>
+      <c r="V98" s="26"/>
+      <c r="Y98" s="26"/>
+      <c r="Z98" s="26"/>
+      <c r="AA98" s="26"/>
+      <c r="AB98" s="26"/>
+      <c r="AC98" s="26"/>
+      <c r="AD98" s="26"/>
+      <c r="AE98" s="41"/>
+      <c r="AF98" s="26"/>
+      <c r="AH98" s="2"/>
+      <c r="AI98" s="2"/>
+      <c r="AN98" s="2"/>
+      <c r="AP98" s="2"/>
+      <c r="AQ98" s="17"/>
+      <c r="AS98" s="2"/>
+      <c r="AT98" s="12"/>
+      <c r="AU98" s="12"/>
+      <c r="AV98" s="12"/>
+      <c r="AW98" s="18"/>
+      <c r="AX98" s="18"/>
+      <c r="AY98" s="18"/>
+    </row>
+    <row r="99" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A99" s="34" t="s">
         <v>457</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="B99" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="C98" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D98" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="C99" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
         <v>207</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F99" t="s">
         <v>184</v>
       </c>
-      <c r="G98">
+      <c r="G99">
         <v>1000</v>
       </c>
-      <c r="H98">
+      <c r="H99">
         <v>500</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I99" t="s">
         <v>109</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J99" t="s">
         <v>109</v>
       </c>
-      <c r="K98" t="s">
+      <c r="K99" t="s">
         <v>204</v>
       </c>
-      <c r="L98" t="s">
+      <c r="L99" t="s">
         <v>167</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M99" t="s">
         <v>211</v>
       </c>
-      <c r="N98" t="s">
+      <c r="N99" t="s">
         <v>198</v>
       </c>
-      <c r="O98" s="26">
-        <v>0</v>
-      </c>
-      <c r="P98" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="26">
+      <c r="O99" s="26">
+        <v>0</v>
+      </c>
+      <c r="P99" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R98">
+      <c r="R99">
         <v>3</v>
       </c>
-      <c r="S98">
+      <c r="S99">
         <v>75</v>
       </c>
-      <c r="T98">
+      <c r="T99">
         <v>50</v>
       </c>
-      <c r="U98">
+      <c r="U99">
         <v>60</v>
       </c>
-      <c r="V98" s="26">
-        <v>0</v>
-      </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
-      <c r="X98">
+      <c r="V99" s="26">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
         <v>10</v>
       </c>
-      <c r="Y98" s="26">
+      <c r="Y99" s="26">
         <v>0.04</v>
       </c>
-      <c r="Z98" s="26">
+      <c r="Z99" s="26">
         <v>0.04</v>
       </c>
-      <c r="AA98" s="26">
+      <c r="AA99" s="26">
         <v>0.03</v>
       </c>
-      <c r="AB98" s="26">
+      <c r="AB99" s="26">
         <v>0.01</v>
       </c>
-      <c r="AC98" s="26">
+      <c r="AC99" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD98" s="26" t="s">
+      <c r="AD99" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AE98" s="41">
+      <c r="AE99" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF98" s="26">
+      <c r="AF99" s="26">
         <v>0.12</v>
       </c>
-      <c r="AG98" t="s">
+      <c r="AG99" t="s">
         <v>112</v>
       </c>
-      <c r="AH98" s="2" t="s">
+      <c r="AH99" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI98" s="2" t="s">
+      <c r="AI99" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="AJ98">
+      <c r="AJ99">
         <v>30</v>
       </c>
-      <c r="AK98" t="s">
+      <c r="AK99" t="s">
         <v>115</v>
       </c>
-      <c r="AL98">
+      <c r="AL99">
         <v>5</v>
       </c>
-      <c r="AM98">
+      <c r="AM99">
         <v>200</v>
       </c>
-      <c r="AN98" s="2" t="s">
+      <c r="AN99" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO98">
+      <c r="AO99">
         <v>1</v>
       </c>
-      <c r="AP98" s="2" t="s">
+      <c r="AP99" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ98" s="17">
+      <c r="AQ99" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR98">
+      <c r="AR99">
         <v>200</v>
       </c>
-      <c r="AS98" s="2" t="s">
+      <c r="AS99" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT98" s="12">
+      <c r="AT99" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU98" s="12">
+      <c r="AU99" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV98" s="12">
+      <c r="AV99" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW98" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX98" s="18" t="b">
+      <c r="AW99" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX99" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY98" s="18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="75" t="s">
-        <v>337</v>
-      </c>
-      <c r="B99" s="71" t="s">
-        <v>459</v>
-      </c>
-      <c r="C99" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D99" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E99" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="F99" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G99" s="65">
-        <v>1000</v>
-      </c>
-      <c r="H99" s="65">
-        <v>500</v>
-      </c>
-      <c r="I99" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J99" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K99" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L99" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="M99" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="N99" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="O99" s="73">
-        <v>0</v>
-      </c>
-      <c r="P99" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="73">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R99" s="65">
-        <v>3</v>
-      </c>
-      <c r="S99" s="65">
-        <v>75</v>
-      </c>
-      <c r="T99" s="65">
-        <v>50</v>
-      </c>
-      <c r="U99" s="65">
-        <v>60</v>
-      </c>
-      <c r="V99" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="W99" s="65">
-        <v>0</v>
-      </c>
-      <c r="X99" s="65">
-        <v>10</v>
-      </c>
-      <c r="Y99" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="Z99" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="AA99" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="AB99" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="AC99" s="73">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD99" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE99" s="76">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="AF99" s="73">
-        <v>0.12</v>
-      </c>
-      <c r="AG99" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH99" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI99" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ99" s="65">
-        <v>30</v>
-      </c>
-      <c r="AK99" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL99" s="65">
-        <v>5</v>
-      </c>
-      <c r="AM99" s="65">
-        <v>200</v>
-      </c>
-      <c r="AN99" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO99" s="65">
-        <v>1</v>
-      </c>
-      <c r="AP99" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ99" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="AR99" s="65">
-        <v>200</v>
-      </c>
-      <c r="AS99" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT99" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="AU99" s="68">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV99" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="AW99" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX99" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY99" s="70" t="b">
+      <c r="AY99" s="18" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="75" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B100" s="71" t="s">
-        <v>350</v>
+        <v>459</v>
       </c>
       <c r="C100" s="67" t="b">
         <v>0</v>
@@ -17320,7 +17490,7 @@
         <v>60</v>
       </c>
       <c r="V100" s="73">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="W100" s="65">
         <v>0</v>
@@ -17410,484 +17580,483 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A101" s="34" t="s">
+    <row r="101" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="75" t="s">
+        <v>339</v>
+      </c>
+      <c r="B101" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="C101" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D101" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F101" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G101" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H101" s="65">
+        <v>500</v>
+      </c>
+      <c r="I101" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J101" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K101" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L101" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M101" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N101" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O101" s="73">
+        <v>0</v>
+      </c>
+      <c r="P101" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R101" s="65">
+        <v>3</v>
+      </c>
+      <c r="S101" s="65">
+        <v>75</v>
+      </c>
+      <c r="T101" s="65">
+        <v>50</v>
+      </c>
+      <c r="U101" s="65">
+        <v>60</v>
+      </c>
+      <c r="V101" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W101" s="65">
+        <v>0</v>
+      </c>
+      <c r="X101" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y101" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z101" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA101" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB101" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC101" s="73">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD101" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE101" s="76">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF101" s="73">
+        <v>0.12</v>
+      </c>
+      <c r="AG101" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH101" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI101" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ101" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK101" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL101" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM101" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN101" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO101" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP101" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ101" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR101" s="65">
+        <v>200</v>
+      </c>
+      <c r="AS101" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT101" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU101" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV101" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW101" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX101" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY101" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A102" s="34" t="s">
         <v>458</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="B102" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="C101" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D101" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="C102" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D102" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
         <v>207</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F102" t="s">
         <v>184</v>
       </c>
-      <c r="G101">
+      <c r="G102">
         <v>1000</v>
       </c>
-      <c r="H101">
+      <c r="H102">
         <v>500</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I102" t="s">
         <v>109</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J102" t="s">
         <v>109</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K102" t="s">
         <v>204</v>
       </c>
-      <c r="L101" t="s">
+      <c r="L102" t="s">
         <v>167</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M102" t="s">
         <v>211</v>
       </c>
-      <c r="N101" t="s">
+      <c r="N102" t="s">
         <v>198</v>
       </c>
-      <c r="O101" s="26">
-        <v>0</v>
-      </c>
-      <c r="P101" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="26">
+      <c r="O102" s="26">
+        <v>0</v>
+      </c>
+      <c r="P102" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R101">
+      <c r="R102">
         <v>3</v>
       </c>
-      <c r="S101">
+      <c r="S102">
         <v>75</v>
       </c>
-      <c r="T101">
+      <c r="T102">
         <v>50</v>
       </c>
-      <c r="U101">
+      <c r="U102">
         <v>60</v>
       </c>
-      <c r="V101" s="26">
+      <c r="V102" s="26">
         <v>0.03</v>
       </c>
-      <c r="W101">
-        <v>0</v>
-      </c>
-      <c r="X101">
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
         <v>10</v>
       </c>
-      <c r="Y101" s="26">
+      <c r="Y102" s="26">
         <v>0.04</v>
       </c>
-      <c r="Z101" s="26">
+      <c r="Z102" s="26">
         <v>0.04</v>
       </c>
-      <c r="AA101" s="26">
+      <c r="AA102" s="26">
         <v>0.03</v>
       </c>
-      <c r="AB101" s="26">
+      <c r="AB102" s="26">
         <v>0.01</v>
       </c>
-      <c r="AC101" s="26">
+      <c r="AC102" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD101" s="26" t="s">
+      <c r="AD102" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="AE101" s="41">
+      <c r="AE102" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF101" s="26">
+      <c r="AF102" s="26">
         <v>0.12</v>
       </c>
-      <c r="AG101" t="s">
+      <c r="AG102" t="s">
         <v>112</v>
       </c>
-      <c r="AH101" s="2" t="s">
+      <c r="AH102" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AI101" s="2" t="s">
+      <c r="AI102" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="AJ101">
+      <c r="AJ102">
         <v>30</v>
       </c>
-      <c r="AK101" t="s">
+      <c r="AK102" t="s">
         <v>115</v>
       </c>
-      <c r="AL101">
+      <c r="AL102">
         <v>5</v>
       </c>
-      <c r="AM101">
+      <c r="AM102">
         <v>200</v>
       </c>
-      <c r="AN101" s="2" t="s">
+      <c r="AN102" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO101">
+      <c r="AO102">
         <v>1</v>
       </c>
-      <c r="AP101" s="2" t="s">
+      <c r="AP102" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AQ101" s="17">
+      <c r="AQ102" s="17">
         <v>0.75</v>
       </c>
-      <c r="AR101">
+      <c r="AR102">
         <v>200</v>
       </c>
-      <c r="AS101" s="2" t="s">
+      <c r="AS102" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AT101" s="12">
+      <c r="AT102" s="12">
         <v>0.25</v>
       </c>
-      <c r="AU101" s="12">
+      <c r="AU102" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV101" s="12">
+      <c r="AV102" s="12">
         <v>0.05</v>
       </c>
-      <c r="AW101" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX101" s="18" t="b">
+      <c r="AW102" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX102" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AY101" s="18" t="b">
+      <c r="AY102" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="75" t="s">
+    <row r="103" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="75" t="s">
         <v>460</v>
       </c>
-      <c r="B102" s="71" t="s">
+      <c r="B103" s="71" t="s">
         <v>456</v>
       </c>
-      <c r="C102" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D102" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E102" s="65" t="s">
+      <c r="C103" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F102" s="65" t="s">
+      <c r="F103" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G102" s="65">
+      <c r="G103" s="65">
         <v>1000</v>
       </c>
-      <c r="H102" s="65">
+      <c r="H103" s="65">
         <v>500</v>
       </c>
-      <c r="I102" s="65" t="s">
+      <c r="I103" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J102" s="65" t="s">
+      <c r="J103" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K102" s="65" t="s">
+      <c r="K103" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L102" s="65" t="s">
+      <c r="L103" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M102" s="65" t="s">
+      <c r="M103" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N102" s="65" t="s">
+      <c r="N103" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O102" s="73">
-        <v>0</v>
-      </c>
-      <c r="P102" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="73">
+      <c r="O103" s="73">
+        <v>0</v>
+      </c>
+      <c r="P103" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R102" s="65">
+      <c r="R103" s="65">
         <v>3</v>
       </c>
-      <c r="S102" s="65">
+      <c r="S103" s="65">
         <v>75</v>
       </c>
-      <c r="T102" s="65">
+      <c r="T103" s="65">
         <v>50</v>
       </c>
-      <c r="U102" s="65">
+      <c r="U103" s="65">
         <v>60</v>
       </c>
-      <c r="V102" s="73">
+      <c r="V103" s="73">
         <v>0.03</v>
       </c>
-      <c r="W102" s="65">
-        <v>0</v>
-      </c>
-      <c r="X102" s="65">
+      <c r="W103" s="65">
+        <v>0</v>
+      </c>
+      <c r="X103" s="65">
         <v>10</v>
       </c>
-      <c r="Y102" s="73">
+      <c r="Y103" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z102" s="73">
+      <c r="Z103" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA102" s="73">
+      <c r="AA103" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB102" s="73">
+      <c r="AB103" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC102" s="73">
+      <c r="AC103" s="73">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD102" s="73" t="s">
+      <c r="AD103" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE102" s="76">
+      <c r="AE103" s="76">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF102" s="73">
+      <c r="AF103" s="73">
         <v>0.12</v>
       </c>
-      <c r="AG102" s="65" t="s">
+      <c r="AG103" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH102" s="66" t="s">
+      <c r="AH103" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI102" s="66" t="s">
+      <c r="AI103" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ102" s="65">
+      <c r="AJ103" s="65">
         <v>30</v>
       </c>
-      <c r="AK102" s="65" t="s">
+      <c r="AK103" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL102" s="65">
+      <c r="AL103" s="65">
         <v>5</v>
       </c>
-      <c r="AM102" s="65">
+      <c r="AM103" s="65">
         <v>200</v>
       </c>
-      <c r="AN102" s="66" t="s">
+      <c r="AN103" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO102" s="65">
+      <c r="AO103" s="65">
         <v>1</v>
       </c>
-      <c r="AP102" s="66" t="s">
+      <c r="AP103" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AQ102" s="69">
+      <c r="AQ103" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR102" s="72">
+      <c r="AR103" s="72">
         <v>140108493</v>
       </c>
-      <c r="AS102" s="66" t="s">
+      <c r="AS103" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT102" s="68">
+      <c r="AT103" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU102" s="68">
+      <c r="AU103" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV102" s="68">
+      <c r="AV103" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW102" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX102" s="70" t="b">
+      <c r="AW103" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX103" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY102" s="70" t="b">
+      <c r="AY103" s="70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B104" s="71" t="s">
+    <row r="105" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B105" s="71" t="s">
         <v>466</v>
       </c>
-      <c r="AC104" s="52"/>
-    </row>
-    <row r="105" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="65" t="s">
-        <v>467</v>
-      </c>
-      <c r="B105" s="71" t="s">
-        <v>472</v>
-      </c>
-      <c r="C105" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="D105" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E105" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="F105" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="G105" s="65">
-        <v>1000</v>
-      </c>
-      <c r="H105" s="65">
-        <v>500</v>
-      </c>
-      <c r="I105" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="J105" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K105" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="L105" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="M105" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="N105" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="O105" s="73">
-        <v>0</v>
-      </c>
-      <c r="P105" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="73">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="R105" s="65">
-        <v>3</v>
-      </c>
-      <c r="S105" s="65">
-        <v>75</v>
-      </c>
-      <c r="T105" s="65">
-        <v>50</v>
-      </c>
-      <c r="U105" s="65">
-        <v>60</v>
-      </c>
-      <c r="V105" s="73">
-        <v>0.02</v>
-      </c>
-      <c r="W105" s="65">
-        <v>0</v>
-      </c>
-      <c r="X105" s="65">
-        <v>10</v>
-      </c>
-      <c r="Y105" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="Z105" s="73">
-        <v>0.04</v>
-      </c>
-      <c r="AA105" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="AB105" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="AC105" s="74">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD105" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE105" s="76">
-        <f>AC105+AF105^2/2</f>
-        <v>7.5799999999999992E-2</v>
-      </c>
-      <c r="AF105" s="24">
-        <v>0.04</v>
-      </c>
-      <c r="AG105" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH105" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI105" s="66" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ105" s="65">
-        <v>30</v>
-      </c>
-      <c r="AK105" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL105" s="65">
-        <v>5</v>
-      </c>
-      <c r="AM105" s="65">
-        <v>200</v>
-      </c>
-      <c r="AN105" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO105" s="65">
-        <v>1</v>
-      </c>
-      <c r="AP105" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ105" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="AR105" s="72">
-        <v>168732127</v>
-      </c>
-      <c r="AS105" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT105" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="AU105" s="68">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AV105" s="68">
-        <v>0.05</v>
-      </c>
-      <c r="AW105" s="70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX105" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AY105" s="70" t="b">
-        <v>0</v>
-      </c>
+      <c r="AC105" s="52"/>
     </row>
     <row r="106" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="65" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B106" s="71" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C106" s="67" t="b">
         <v>0</v>
@@ -17974,11 +18143,11 @@
         <v>156</v>
       </c>
       <c r="AE106" s="76">
-        <f t="shared" ref="AE106:AE109" si="0">AC106+AF106^2/2</f>
-        <v>7.8199999999999992E-2</v>
+        <f>AC106+AF106^2/2</f>
+        <v>7.5799999999999992E-2</v>
       </c>
       <c r="AF106" s="24">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="AG106" s="65" t="s">
         <v>112</v>
@@ -18040,10 +18209,10 @@
     </row>
     <row r="107" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="65" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B107" s="71" t="s">
-        <v>331</v>
+        <v>473</v>
       </c>
       <c r="C107" s="67" t="b">
         <v>0</v>
@@ -18130,11 +18299,11 @@
         <v>156</v>
       </c>
       <c r="AE107" s="76">
-        <f t="shared" si="0"/>
-        <v>8.2199999999999995E-2</v>
+        <f t="shared" ref="AE107:AE110" si="0">AC107+AF107^2/2</f>
+        <v>7.8199999999999992E-2</v>
       </c>
       <c r="AF107" s="24">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="AG107" s="65" t="s">
         <v>112</v>
@@ -18196,10 +18365,10 @@
     </row>
     <row r="108" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="65" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B108" s="71" t="s">
-        <v>474</v>
+        <v>331</v>
       </c>
       <c r="C108" s="67" t="b">
         <v>0</v>
@@ -18287,10 +18456,10 @@
       </c>
       <c r="AE108" s="76">
         <f t="shared" si="0"/>
-        <v>8.7800000000000003E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AF108" s="24">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="AG108" s="65" t="s">
         <v>112</v>
@@ -18352,10 +18521,10 @@
     </row>
     <row r="109" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="65" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B109" s="71" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C109" s="67" t="b">
         <v>0</v>
@@ -18443,10 +18612,10 @@
       </c>
       <c r="AE109" s="76">
         <f t="shared" si="0"/>
-        <v>9.5000000000000001E-2</v>
+        <v>8.7800000000000003E-2</v>
       </c>
       <c r="AF109" s="24">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="AG109" s="65" t="s">
         <v>112</v>
@@ -18506,160 +18675,784 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="110" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="B110" s="71" t="s">
+        <v>475</v>
+      </c>
+      <c r="C110" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F110" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G110" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H110" s="65">
+        <v>500</v>
+      </c>
+      <c r="I110" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J110" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K110" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L110" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M110" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N110" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O110" s="73">
+        <v>0</v>
+      </c>
+      <c r="P110" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R110" s="65">
+        <v>3</v>
+      </c>
+      <c r="S110" s="65">
+        <v>75</v>
+      </c>
+      <c r="T110" s="65">
+        <v>50</v>
+      </c>
+      <c r="U110" s="65">
+        <v>60</v>
+      </c>
+      <c r="V110" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W110" s="65">
+        <v>0</v>
+      </c>
+      <c r="X110" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y110" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z110" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA110" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB110" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC110" s="74">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD110" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE110" s="76">
+        <f t="shared" si="0"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AF110" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="AG110" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH110" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI110" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ110" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK110" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL110" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM110" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN110" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO110" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP110" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ110" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR110" s="72">
+        <v>168732127</v>
+      </c>
+      <c r="AS110" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT110" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU110" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV110" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW110" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX110" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY110" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>502</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="B112" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="C111" s="44" t="b">
+      <c r="C112" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D112" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>207</v>
+      </c>
+      <c r="F112" t="s">
+        <v>184</v>
+      </c>
+      <c r="G112">
+        <v>1000</v>
+      </c>
+      <c r="H112">
+        <v>500</v>
+      </c>
+      <c r="I112" t="s">
+        <v>109</v>
+      </c>
+      <c r="J112" t="s">
+        <v>109</v>
+      </c>
+      <c r="K112" t="s">
+        <v>204</v>
+      </c>
+      <c r="L112" t="s">
+        <v>167</v>
+      </c>
+      <c r="M112" t="s">
+        <v>211</v>
+      </c>
+      <c r="N112" t="s">
+        <v>198</v>
+      </c>
+      <c r="O112" s="26">
+        <v>0</v>
+      </c>
+      <c r="P112" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R112">
+        <v>3</v>
+      </c>
+      <c r="S112">
+        <v>75</v>
+      </c>
+      <c r="T112">
+        <v>50</v>
+      </c>
+      <c r="U112">
+        <v>60</v>
+      </c>
+      <c r="V112" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>10</v>
+      </c>
+      <c r="Y112" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z112" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA112" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB112" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC112" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD112" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE112" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF112" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG112" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH112" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI112" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ112">
+        <v>30</v>
+      </c>
+      <c r="AK112" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL112">
+        <v>5</v>
+      </c>
+      <c r="AM112">
+        <v>200</v>
+      </c>
+      <c r="AN112" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO112">
         <v>1</v>
       </c>
-      <c r="D111" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="AP112" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ112" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR112">
+        <v>200</v>
+      </c>
+      <c r="AS112" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT112" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU112" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV112" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW112" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX112" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY112" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="65" t="s">
+        <v>503</v>
+      </c>
+      <c r="B113" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="C113" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D113" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F113" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G111">
+      <c r="G113" s="65">
         <v>1000</v>
       </c>
-      <c r="H111">
+      <c r="H113" s="65">
         <v>500</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I113" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="J111" t="s">
+      <c r="J113" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="K111" t="s">
+      <c r="K113" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="L111" t="s">
+      <c r="L113" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M113" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="N111" t="s">
+      <c r="N113" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="O111" s="26">
-        <v>0</v>
-      </c>
-      <c r="P111" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q111" s="26">
+      <c r="O113" s="73">
+        <v>0</v>
+      </c>
+      <c r="P113" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="73">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R111">
+      <c r="R113" s="65">
         <v>3</v>
       </c>
-      <c r="S111">
+      <c r="S113" s="65">
         <v>75</v>
       </c>
-      <c r="T111">
+      <c r="T113" s="65">
         <v>50</v>
       </c>
-      <c r="U111">
+      <c r="U113" s="65">
         <v>60</v>
       </c>
-      <c r="V111" s="26">
+      <c r="V113" s="73">
         <v>0.02</v>
       </c>
-      <c r="W111">
-        <v>0</v>
-      </c>
-      <c r="X111">
+      <c r="W113" s="65">
+        <v>0</v>
+      </c>
+      <c r="X113" s="65">
         <v>10</v>
       </c>
-      <c r="Y111" s="26">
+      <c r="Y113" s="73">
         <v>0.04</v>
       </c>
-      <c r="Z111" s="26">
+      <c r="Z113" s="73">
         <v>0.04</v>
       </c>
-      <c r="AA111" s="26">
+      <c r="AA113" s="73">
         <v>0.03</v>
       </c>
-      <c r="AB111" s="26">
+      <c r="AB113" s="73">
         <v>0.01</v>
       </c>
-      <c r="AC111" s="26">
+      <c r="AC113" s="73">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AD111" s="26" t="s">
+      <c r="AD113" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="AE111" s="41">
+      <c r="AE113" s="76">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AF111" s="26">
+      <c r="AF113" s="73">
         <v>0.12</v>
       </c>
-      <c r="AG111" t="s">
+      <c r="AG113" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AH111" s="2" t="s">
+      <c r="AH113" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="AI111" s="2" t="s">
+      <c r="AI113" s="66" t="s">
         <v>342</v>
       </c>
-      <c r="AJ111">
+      <c r="AJ113" s="65">
         <v>30</v>
       </c>
-      <c r="AK111" t="s">
+      <c r="AK113" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="AL111">
+      <c r="AL113" s="65">
         <v>5</v>
       </c>
-      <c r="AM111">
+      <c r="AM113" s="65">
         <v>200</v>
       </c>
-      <c r="AN111" s="2" t="s">
+      <c r="AN113" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="AO111">
+      <c r="AO113" s="65">
         <v>1</v>
       </c>
-      <c r="AP111" s="2" t="s">
+      <c r="AP113" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="AQ111" s="17">
+      <c r="AQ113" s="69">
         <v>0.75</v>
       </c>
-      <c r="AR111">
+      <c r="AR113" s="65">
         <v>200</v>
       </c>
-      <c r="AS111" s="2" t="s">
+      <c r="AS113" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AT111" s="12">
+      <c r="AT113" s="68">
         <v>0.25</v>
       </c>
-      <c r="AU111" s="12">
+      <c r="AU113" s="68">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AV111" s="12">
+      <c r="AV113" s="68">
         <v>0.05</v>
       </c>
-      <c r="AW111" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX111" s="18" t="b">
+      <c r="AW113" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX113" s="70" t="b">
         <v>1</v>
       </c>
-      <c r="AY111" s="18" t="b">
-        <v>0</v>
-      </c>
+      <c r="AY113" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="65" t="s">
+        <v>504</v>
+      </c>
+      <c r="B114" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="C114" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D114" s="67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F114" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G114" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H114" s="65">
+        <v>500</v>
+      </c>
+      <c r="I114" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J114" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K114" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L114" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M114" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N114" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O114" s="73">
+        <v>0</v>
+      </c>
+      <c r="P114" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R114" s="65">
+        <v>3</v>
+      </c>
+      <c r="S114" s="65">
+        <v>75</v>
+      </c>
+      <c r="T114" s="65">
+        <v>50</v>
+      </c>
+      <c r="U114" s="65">
+        <v>60</v>
+      </c>
+      <c r="V114" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W114" s="65">
+        <v>0</v>
+      </c>
+      <c r="X114" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y114" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z114" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA114" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB114" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC114" s="73">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD114" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE114" s="76">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF114" s="73">
+        <v>0.12</v>
+      </c>
+      <c r="AG114" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH114" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI114" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ114" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK114" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL114" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM114" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN114" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO114" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP114" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ114" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR114" s="65">
+        <v>200</v>
+      </c>
+      <c r="AS114" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT114" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU114" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV114" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW114" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX114" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY114" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="65" t="s">
+        <v>505</v>
+      </c>
+      <c r="B116" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="C116" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D116" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="F116" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="G116" s="65">
+        <v>1000</v>
+      </c>
+      <c r="H116" s="65">
+        <v>500</v>
+      </c>
+      <c r="I116" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="J116" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K116" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="L116" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M116" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="N116" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="O116" s="73">
+        <v>0</v>
+      </c>
+      <c r="P116" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="73">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R116" s="65">
+        <v>3</v>
+      </c>
+      <c r="S116" s="65">
+        <v>65</v>
+      </c>
+      <c r="T116" s="65">
+        <v>50</v>
+      </c>
+      <c r="U116" s="65">
+        <v>60</v>
+      </c>
+      <c r="V116" s="73">
+        <v>0.02</v>
+      </c>
+      <c r="W116" s="65">
+        <v>0</v>
+      </c>
+      <c r="X116" s="65">
+        <v>10</v>
+      </c>
+      <c r="Y116" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="Z116" s="73">
+        <v>0.04</v>
+      </c>
+      <c r="AA116" s="73">
+        <v>0.03</v>
+      </c>
+      <c r="AB116" s="73">
+        <v>0.01</v>
+      </c>
+      <c r="AC116" s="73">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD116" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE116" s="76">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF116" s="73">
+        <v>0.12</v>
+      </c>
+      <c r="AG116" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH116" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI116" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ116" s="65">
+        <v>30</v>
+      </c>
+      <c r="AK116" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL116" s="65">
+        <v>5</v>
+      </c>
+      <c r="AM116" s="65">
+        <v>200</v>
+      </c>
+      <c r="AN116" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO116" s="65">
+        <v>1</v>
+      </c>
+      <c r="AP116" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ116" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="AR116" s="65">
+        <v>200</v>
+      </c>
+      <c r="AS116" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT116" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="AU116" s="68">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV116" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AW116" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX116" s="70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY116" s="70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A117" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18676,82 +19469,82 @@
     <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations xWindow="1269" yWindow="762" count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN105:AN109 AN13 AN111 AN15:AN102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN106:AN110 AN112:AN114 AN116 AN13:AN103">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI105:AI109 AI13 AI111 AI15:AI102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI106:AI110 AI112:AI114 AI116 AI13:AI103">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH105:AH109 AH13 AH111 AH15:AH102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH106:AH110 AH112:AH114 AH116 AH13:AH103">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS105:AS109 AS13 AS111 AS15:AS102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS106:AS110 AS112:AS114 AS116 AS13:AS103">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 C6:D10 P105:P109 C105:D109 C111:D111 C13:D13 C15:D102 P13 P111 P15:P102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 C6:D10 P106:P110 C106:D110 C112:D114 P112:P114 P116 C116:D116 P13:P103 C13:D103">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 V105:V109 AB105:AB109 AB13 AB111 AB15:AB102 V13 V111 V15:V102">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 V106:V110 AB106:AB110 AB112:AB114 V112:V114 V116 AB116 V13:V103 AB13:AB103">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W105:X109 W111:X111 W13:X13 W15:X102">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W106:X110 W112:X114 W116:X116 W13:X103">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AC61 AC97:AC102 AE105:AE109 Y105:AA109 AE13 AE111 AE15:AE102 Y111:AA111 Y13:AA13 Y15:AA102 AC13 AC111 AC15:AC50">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AC62 AC98:AC103 AE106:AE110 Y106:AA110 AE112:AE114 Y112:AA114 AC112:AC114 AC116 AE116 Y116:AA116 AC13:AC51 Y13:AA103 AE13:AE40 AE42:AE103">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ105:AJ109 AJ13 AJ111 AJ15:AJ102">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ106:AJ110 AJ112:AJ114 AJ116 AJ13:AJ103">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT105:AU109 AT111:AU111 AT13:AU13 AT15:AU102">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT106:AU110 AT112:AU114 AT116:AU116 AT13:AU103">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV105:AV109 AV13 AV111 AV15:AV102">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV106:AV110 AV112:AV114 AV116 AV13:AV103">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF97:AF102 AF13 AF111 AF15:AF83">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF98:AF103 AF112:AF114 AF116 AF13:AF84">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL105:AL109 AL13 AL111 AL15:AL102">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL106:AL110 AL112:AL114 AL116 AL13:AL103">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM105:AM109 AM13 AM111 AM15:AM102">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM106:AM110 AM112:AM114 AM116 AM13:AM103">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO105:AO109 AO13 AO111 AO15:AO102">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO106:AO110 AO112:AO114 AO116 AO13:AO103">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD105:AD109 AD111 AD13 AD15:AD102"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW105:AY109 AW111:AY111 AW13:AY13 AW15:AY102">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD106:AD110 AD112:AD114 AD116 AD13:AD103"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW106:AY110 AW112:AY114 AW116:AY116 AW13:AY103">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP105:AP109 AP13 AP111 AP15:AP102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP106:AP110 AP112:AP114 AP116 AP13:AP103">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ105:AQ109 AQ13 AQ111 AQ15:AQ102">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ106:AQ110 AQ112:AQ114 AQ116 AQ13:AQ103">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S105:S109 S13 S111 S15:S102">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S106:S110 S112:S114 S116 S13:S103">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I105:J109 I111:J111 I13:J13 I15:J102">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I106:J110 I112:J114 I116:J116 I13:J103">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -18764,37 +19557,37 @@
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L9 L105:L109 L13 L111 L15:L102</xm:sqref>
+          <xm:sqref>L6:L9 L106:L110 L112:L114 L116 L13:L103</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M9 M105:M109 M13 M111 M15:M102</xm:sqref>
+          <xm:sqref>M6:M9 M106:M110 M112:M114 M116 M13:M103</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>F6:F9 F105:F109 F13 F111 F15:F102</xm:sqref>
+          <xm:sqref>F6:F9 F106:F110 F112:F114 F116 F13:F103</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E9 E105:E109 E13 E111 E15:E102</xm:sqref>
+          <xm:sqref>E6:E9 E106:E110 E112:E114 E116 E13:E103</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K9 K105:K109 K13 K111 K15:K102</xm:sqref>
+          <xm:sqref>K6:K9 K106:K110 K112:K114 K116 K13:K103</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>N6:N9 N105:N109 N13 N111 N15:N102</xm:sqref>
+          <xm:sqref>N6:N9 N106:N110 N112:N114 N116 N13:N103</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18924,8 +19717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18963,7 +19756,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>1000</v>

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -2076,10 +2076,7 @@
     <xf numFmtId="2" fontId="16" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2088,13 +2085,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5251,10 +5251,10 @@
   <dimension ref="A1:AY117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AM6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="AT6" sqref="AT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5450,62 +5450,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="53"/>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="116"/>
+      <c r="F4" s="120"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="119" t="s">
+      <c r="I4" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="117" t="s">
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="117"/>
+      <c r="M4" s="116"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="118" t="s">
+      <c r="O4" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="117" t="s">
+      <c r="P4" s="117"/>
+      <c r="Q4" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="118" t="s">
+      <c r="AA4" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="120" t="s">
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="120"/>
-      <c r="AF4" s="120"/>
+      <c r="AE4" s="115"/>
+      <c r="AF4" s="115"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="115" t="s">
+      <c r="AH4" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="115"/>
-      <c r="AJ4" s="115"/>
+      <c r="AI4" s="118"/>
+      <c r="AJ4" s="118"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -5513,17 +5513,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="120" t="s">
+      <c r="AP4" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="120"/>
-      <c r="AR4" s="120"/>
-      <c r="AS4" s="121" t="s">
+      <c r="AQ4" s="115"/>
+      <c r="AR4" s="115"/>
+      <c r="AS4" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="121"/>
-      <c r="AU4" s="121"/>
-      <c r="AV4" s="121"/>
+      <c r="AT4" s="119"/>
+      <c r="AU4" s="119"/>
+      <c r="AV4" s="119"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -19456,17 +19456,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations xWindow="1269" yWindow="762" count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN106:AN110 AN112:AN114 AN116 AN13:AN103">

--- a/IO_M2.1_new/RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/RunControl_M2.1_new.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\Model_Main\IO_M2.1_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B51686-488A-400D-9B07-A70EACE04B14}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Returns!$A$3:$D$3</definedName>
     <definedName name="ConPolicy">DropDowns!$A$12:$A$14</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -1612,7 +1613,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -2076,7 +2077,10 @@
     <xf numFmtId="2" fontId="16" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2085,16 +2089,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3541,7 +3542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3592,9 +3593,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'Notes'!A1" display="Notes"/>
-    <hyperlink ref="B3" location="'RunControl'!A1" display="RunControl"/>
-    <hyperlink ref="B4" location="'DropDowns'!A1" display="DropDowns"/>
+    <hyperlink ref="B2" location="'Notes'!A1" display="Notes" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" location="'RunControl'!A1" display="RunControl" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" location="'DropDowns'!A1" display="DropDowns" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3602,7 +3603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4562,7 +4563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:O28"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
@@ -5158,7 +5159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:A25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5247,14 +5248,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AM6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AT6" sqref="AT6"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5450,62 +5451,62 @@
       </c>
     </row>
     <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="53"/>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="120"/>
+      <c r="F4" s="116"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="121" t="s">
+      <c r="I4" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="116" t="s">
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="116"/>
+      <c r="M4" s="117"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="117" t="s">
+      <c r="O4" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="116" t="s">
+      <c r="P4" s="118"/>
+      <c r="Q4" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="117" t="s">
+      <c r="AA4" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="115" t="s">
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="118"/>
+      <c r="AD4" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" s="115"/>
-      <c r="AF4" s="115"/>
+      <c r="AE4" s="120"/>
+      <c r="AF4" s="120"/>
       <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" s="118" t="s">
+      <c r="AH4" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="118"/>
+      <c r="AI4" s="115"/>
+      <c r="AJ4" s="115"/>
       <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
@@ -5513,17 +5514,17 @@
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
       <c r="AO4" s="21"/>
-      <c r="AP4" s="115" t="s">
+      <c r="AP4" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="AQ4" s="115"/>
-      <c r="AR4" s="115"/>
-      <c r="AS4" s="119" t="s">
+      <c r="AQ4" s="120"/>
+      <c r="AR4" s="120"/>
+      <c r="AS4" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="AT4" s="119"/>
-      <c r="AU4" s="119"/>
-      <c r="AV4" s="119"/>
+      <c r="AT4" s="121"/>
+      <c r="AU4" s="121"/>
+      <c r="AV4" s="121"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="22"/>
       <c r="AY4" s="20"/>
@@ -10032,7 +10033,7 @@
         <v>507</v>
       </c>
       <c r="C41" s="67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="67" t="b">
         <v>0</v>
@@ -19456,95 +19457,95 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I4:K4"/>
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="Q4:X4"/>
     <mergeCell ref="AA4:AC4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <dataValidations xWindow="1269" yWindow="762" count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN106:AN110 AN112:AN114 AN116 AN13:AN103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN9 AN106:AN110 AN112:AN114 AN116 AN13:AN103" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI106:AI110 AI112:AI114 AI116 AI13:AI103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI9 AI106:AI110 AI112:AI114 AI116 AI13:AI103" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH106:AH110 AH112:AH114 AH116 AH13:AH103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH9 AH106:AH110 AH112:AH114 AH116 AH13:AH103" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS106:AS110 AS112:AS114 AS116 AS13:AS103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS9 AS106:AS110 AS112:AS114 AS116 AS13:AS103" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 C6:D10 P106:P110 C106:D110 C112:D114 P112:P114 P116 C116:D116 P13:P103 C13:D103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P9 C6:D10 P106:P110 C106:D110 C112:D114 P112:P114 P116 C116:D116 P13:P103 C13:D103" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 V106:V110 AB106:AB110 AB112:AB114 V112:V114 V116 AB116 V13:V103 AB13:AB103">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="AB6:AB9 V6:V9 V106:V110 AB106:AB110 AB112:AB114 V112:V114 V116 AB116 V13:V103 AB13:AB103" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W106:X110 W112:X114 W116:X116 W13:X103">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X9 W106:X110 W112:X114 W116:X116 W13:X103" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AC62 AC98:AC103 AE106:AE110 Y106:AA110 AE112:AE114 Y112:AA114 AC112:AC114 AC116 AE116 Y116:AA116 AC13:AC51 Y13:AA103 AE13:AE40 AE42:AE103">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="Y6:AA9 AC6:AC9 AE6:AE9 AC62 AC98:AC103 AE106:AE110 Y106:AA110 AE112:AE114 Y112:AA114 AC112:AC114 AC116 AE116 Y116:AA116 AC13:AC51 Y13:AA103 AE13:AE40 AE42:AE103" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ106:AJ110 AJ112:AJ114 AJ116 AJ13:AJ103">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ9 AJ106:AJ110 AJ112:AJ114 AJ116 AJ13:AJ103" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT106:AU110 AT112:AU114 AT116:AU116 AT13:AU103">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU9 AT106:AU110 AT112:AU114 AT116:AU116 AT13:AU103" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV106:AV110 AV112:AV114 AV116 AV13:AV103">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV9 AV106:AV110 AV112:AV114 AV116 AV13:AV103" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF98:AF103 AF112:AF114 AF116 AF13:AF84">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF9 AF98:AF103 AF112:AF114 AF116 AF13:AF84" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL106:AL110 AL112:AL114 AL116 AL13:AL103">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL9 AL106:AL110 AL112:AL114 AL116 AL13:AL103" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM106:AM110 AM112:AM114 AM116 AM13:AM103">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM9 AM106:AM110 AM112:AM114 AM116 AM13:AM103" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO106:AO110 AO112:AO114 AO116 AO13:AO103">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO9 AO106:AO110 AO112:AO114 AO116 AO13:AO103" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD106:AD110 AD112:AD114 AD116 AD13:AD103"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW106:AY110 AW112:AY114 AW116:AY116 AW13:AY103">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD9 AD106:AD110 AD112:AD114 AD116 AD13:AD103" xr:uid="{00000000-0002-0000-0200-00000F000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY9 AW106:AY110 AW112:AY114 AW116:AY116 AW13:AY103" xr:uid="{00000000-0002-0000-0200-000010000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP106:AP110 AP112:AP114 AP116 AP13:AP103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP9 AP106:AP110 AP112:AP114 AP116 AP13:AP103" xr:uid="{00000000-0002-0000-0200-000011000000}">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ106:AQ110 AQ112:AQ114 AQ116 AQ13:AQ103">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ9 AQ106:AQ110 AQ112:AQ114 AQ116 AQ13:AQ103" xr:uid="{00000000-0002-0000-0200-000012000000}">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S106:S110 S112:S114 S116 S13:S103">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S9 S106:S110 S112:S114 S116 S13:S103" xr:uid="{00000000-0002-0000-0200-000013000000}">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I106:J110 I112:J114 I116:J116 I13:J103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J9 I106:J110 I112:J114 I116:J116 I13:J103" xr:uid="{00000000-0002-0000-0200-000014000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -19553,37 +19554,37 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1269" yWindow="762" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000015000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
           <xm:sqref>L6:L9 L106:L110 L112:L114 L116 L13:L103</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000016000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
           <xm:sqref>M6:M9 M106:M110 M112:M114 M116 M13:M103</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000017000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
           <xm:sqref>F6:F9 F106:F110 F112:F114 F116 F13:F103</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000018000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
           <xm:sqref>E6:E9 E106:E110 E112:E114 E116 E13:E103</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000019000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>K6:K9 K106:K110 K112:K114 K116 K13:K103</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00001A000000}">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
@@ -19596,7 +19597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19670,7 +19671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19714,7 +19715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -19784,7 +19785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
@@ -20188,7 +20189,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC"/>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20196,7 +20197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AR40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20747,78 +20748,78 @@
     </row>
   </sheetData>
   <dataValidations count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ39:AJ40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ39:AJ40" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB39:AB40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB39:AB40" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA39:AA40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA39:AA40" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL39:AL40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL39:AL40" xr:uid="{00000000-0002-0000-0700-000003000000}">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L39:L40" xr:uid="{00000000-0002-0000-0700-000004000000}">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="O39:O40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="O39:O40" xr:uid="{00000000-0002-0000-0700-000005000000}">
       <formula1>55</formula1>
       <formula2>65</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="Q39:Q40 U39:U40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="Q39:Q40 U39:U40" xr:uid="{00000000-0002-0000-0700-000006000000}">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="R39:S40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="R39:S40" xr:uid="{00000000-0002-0000-0700-000007000000}">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="T39:T40 X39:X40 V39:V40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="T39:T40 X39:X40 V39:V40" xr:uid="{00000000-0002-0000-0700-000008000000}">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AC39:AC40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AC39:AC40" xr:uid="{00000000-0002-0000-0700-000009000000}">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AM39:AN40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AM39:AN40" xr:uid="{00000000-0002-0000-0700-00000A000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AO39:AO40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AO39:AO40" xr:uid="{00000000-0002-0000-0700-00000B000000}">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="Y39:Y40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="Y39:Y40" xr:uid="{00000000-0002-0000-0700-00000C000000}">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AH39:AH40">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AH39:AH40" xr:uid="{00000000-0002-0000-0700-00000D000000}">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI39:AI40">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI39:AI40" xr:uid="{00000000-0002-0000-0700-00000E000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK39:AK40">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK39:AK40" xr:uid="{00000000-0002-0000-0700-00000F000000}">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="W39:W40"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP39:AR40">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="W39:W40" xr:uid="{00000000-0002-0000-0700-000010000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP39:AR40" xr:uid="{00000000-0002-0000-0700-000011000000}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD39:AD40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD39:AD40" xr:uid="{00000000-0002-0000-0700-000012000000}">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE39:AE40">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE39:AE40" xr:uid="{00000000-0002-0000-0700-000013000000}">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
@@ -20827,13 +20828,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000014000000}">
           <x14:formula1>
             <xm:f>'C:\Users\Yimeng\Desktop\[RunControl_M1&amp;2.1(1).xlsx]DropDowns'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I39:I40</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000015000000}">
           <x14:formula1>
             <xm:f>'C:\Users\Yimeng\Desktop\[RunControl_M1&amp;2.1(1).xlsx]DropDowns'!#REF!</xm:f>
           </x14:formula1>
@@ -20846,7 +20847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:XFD45"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
